--- a/hadits_fix.xlsx
+++ b/hadits_fix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="203">
   <si>
     <t>No.</t>
   </si>
@@ -325,13 +325,313 @@
   </si>
   <si>
     <t>Siapa yang dihisab berarti dia disiksa Aisyah berkata: maka aku bertanya kepada Nabi: Bukankah Allah Ta'ala berfirman: Kelak dia akan dihisab dengan hisab yang ringan Aisyah berkata: Maka Nabi bersabda: Sesungguhnya yang dimaksud itu adalah pemaparan (amalan). Akan tetapi barangsiapa yang didebat hisabnya pasti celaka.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya Makkah, Allah telah mensucikannya dan orang-orang (Musyrikin Makkah) tidak mensucikannya. Maka tidak halal bagi setiap orang yang beriman kepada Allah dan Hari Akhir menumpahkan darah di dalamnya, dan tidak boleh mencabut pepohonan di dalamnya. Jika seseorang minta keringanan karena peperangan yang pernah dilakukan oleh Rasulullah di dalamnya maka katakanlah 'sesungguhnya Allah Ta'ala telah mengidzinkan Rasul-Nya dan tidak mengidzinkan kepada kalian.' Sesungguhnya Allah Ta'ala telah mengidzinkanku pada satu saat pada siang hari kemudian dikembalikan kesuciannya hari ini sebagaimana disucikannya sebelumnya. Maka hendaklah yang hadir menyampaikan kepada yang tidak hadir. Maka dikatakan kepada Abu Syuraij, Apa yang dikatakan 'Amru? Dia berkata, Aku lebih mengetahui daripadamu wahai Abu Syuraij: Beliau tidak akan melindungi orang yang bermaksiat, orang yang menumpahkan darah dan orang yang mencuri.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya darah kalian, harta kalian, Muhammad berkata; menurutku beliau mengatakan, dan kehormatan kalian adalah haram atas kalian sebagaimana haramnya hari kalian ini di bulan kalian ini. Hendaklah yang hadir menyampaikan kepada yang tidak hadir. Dan Muhammad berkata, Benarlah Rasulullah seperti apa yang disabdakannya, 'Bukankah aku telah menyampaikannya? ' beliau ulangi hingga dua kali.</t>
+  </si>
+  <si>
+    <t>Janganlah kalian berdusta terhadapku (atas namaku), karena barangsiapa berdusta terhadapku dia akan masuk neraka.</t>
+  </si>
+  <si>
+    <t>Barangsiapa berdusta terhadapku maka hendaklah ia persiapkan tempat duduknya di neraka.</t>
+  </si>
+  <si>
+    <t>Barangsiapa sengaja berdusta terhadapku (atas namaku), maka hendaklah ia persiapkan tempat duduknya di neraka.</t>
+  </si>
+  <si>
+    <t>Barangsiapa berkata tentangku yang tidak pernah aku katakan, maka hendaklah ia persiapkan tempat duduknya di neraka.</t>
+  </si>
+  <si>
+    <t>Berikanlah nama dengan namaku dan jangan dengan julukanku. Karena barangsiapa melihatku dalam mimpinya sungguh dia benar-benar telah melihatku, karena setan tidak sanggup menyerupai bentukku. Dan barangsiapa berdusta terhadapku, maka hendaklah ia persiapkan tempat duduknya dalam neraka.</t>
+  </si>
+  <si>
+    <t>Tidak, kecuali Kitabullah atau pemahaman yang diberikan kepada seorang Muslim, atau apa yang ada pada lembaran ini. Aku katakan, Apa yang ada dalam lembaran ini? Dia menjawab, Tebusan, membebaskan tawanan, dan jangan sampai seorang Muslim dibunuh demi membela seorang kafir.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya Allah telah membebaskan Makkah dari pembunuhan, atau pasukan gajah. Abu Ubaidullah berkata, Demikian Abu Nu'aim menyebutkannya, mereka ragu antara 'pembunuhan' dan 'gajah'. Sedangkan yang lain berkata, Gajah. Lalu Allah memenangkan Rasulullah dan kaum Mukminin atas mereka. Beliau bersabda: Ketahuilah tanah Makkah tidaklah halal bagi seorangpun baik sebelumku atau sesudahku, ketahuilah bahwa sesungguhnya ia pernah menjadi halal buatku sesaat di suatu hari. Ketahuilah, dan pada saat ini ia telah menjadi haram; durinya tidak boleh dipotong, pohonnya tidak boleh ditebang, barang temuannya tidak boleh diambil kecuali untuk diumumkan dan dicari pemiliknya. Maka barangsiapa dibunuh, dia akan mendapatkan satu dari dua kebaikan; meminta tebusan atau meminta balasan dari keluarga korban. Lalu datang seorang penduduk Yaman dan berkata, Wahai Rasulullah, tuliskanlah buatku? beliau lalu bersabda: Tuliskanlah untuk Abu fulan. Seorang laki-laki Quraisy lalu berkata, Kecuali pohon Idzhir wahai Rasulullah, karena pohon itu kami gunakan di rumah kami dan di kuburan kami. Maka Nabi bersabda: Kecuali pohon Idzhir, kecuali pohon Idzhir. Lalu dikatakan kepada Abu Abdullah, Apa yang dituliskan untuknya? Ia menjawab, Khutbah tadi.</t>
+  </si>
+  <si>
+    <t>Tidaklah ada seorangpun dari sahabat Nabi yang lebih banyak haditsnya dibandingkan aku, kecuali 'Abdullah bin 'Amru. Sebab ia bisa menulis sedang saya tidak. Ma'mar juga meriwayatkan dari Hammam dari Abu Hurairah.</t>
+  </si>
+  <si>
+    <t>Berikan aku surat biar aku tuliskan sesuatu untuk kalian sehingga kalian tidak akan sesat setelahku. Umar berkata, Sesungguhnya Nabi semakin berat sakitnya dan di sisi kami ada Kitabullah, yang cukup buat kami. Kemudian orang-orang berselisih dan timbul suara gaduh, maka Nabi bersabda: Pergilah kalian menjauh dariku, tidak pantas terjadi perdebatan di hadapanku. Maka Ibnu 'Abbas keluar seraya berkata, Ini adalah musibah, dan sungguh segala musibah tidak boleh terjadi di hadapan Rasulullah dan Al Qur'an.</t>
+  </si>
+  <si>
+    <t>Subhaanallah (Maha suci Allah), fitnah apakah yang diturunkan pada malam ini? Dan apa yang dibuka dari dua perbendaharaan (Ramawi dan Parsi)? Bangunlah wahai orang-orang yang ada di balik dinding (kamar-kamar), karena betapa banyak orang hidup menikmati nikmat-nikmat dari Allah di dunia ini namun akan telanjang nanti di akhirat (tidak mendapatkan kebaikan).</t>
+  </si>
+  <si>
+    <t>Tidakkah kalian perhatikan malam kalian ini?. Sesungguhnya pada setiap penghujung seratus tahun darinya tidak akan tersisa seorangpun dari muka bumi ini.</t>
+  </si>
+  <si>
+    <t>Beliau lalu tidur seperti anak kecil (sebentar-sebentar bangun) -atau kalimat yang semisal itu-, kemudian beliau bangun shalat. Kemudian aku bangun dan berdiri si sisi kirinya, beliau lalu menempatkan aku di kanannya. Setelah itu beliau shalat lima rakaat, kemudian shalat dua rakaat, kemudian tidur hingga aku mendengar dengkurannya, kemudian beliau keluar untuk melaksanakan shalat subuh.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya orang-orang mengatakan, Abu Hurairah adalah yang paling banyak (menyampaikan hadits dari Rasulullah ), kalau bukan karena dua ayat dalam Kitabullah aku tidak akan menyampaikannya. Lalu dia membaca ayat: '(Sesungguhnya orang-orang yang menyembunyikan apa yang telah Kami turunkan berupa penjelasan dan petunjuk) hingga akhir ayat.. '(Allah Maha Penyayang) ' (Qs. Al Baqarah: 159-160). Sesungguhnya saudara-saudara kita dari kalangan Muhajirin, mereka disibukkan dengan perdagangan di pasar-pasar, dan saudara-saudara kita dari kalangan Anshar, mereka disibukkan dengan pekerjaan mereka dalam mengurus harta mereka. sementara Abu Hurairah selalu menyertai Rasulullah dalam keadaan lapar, ia selalu hadir saat orang-orang tidak bosa hadir, dan ia dapat menghafal saat orang-orang tidak bisa menghafalnya.</t>
+  </si>
+  <si>
+    <t>Hamparkanlah selendangmu. Maka aku menghamparkannya, beliau lalu (seolah) menciduk sesuatu dengan tangannya, lalu bersabda: Ambillah. Aku pun mengambilnya, maka sejak itu aku tidak pernah lupa lagi. Telah menceritakan kepada kami Ibrahim bin al Mundzir berkata, telah menceritakan kepada kami Ibnu Abu Fudaik dengan redaksi seperti ini, atau dia berkata, Menuangkan ke dalam tangannya.</t>
+  </si>
+  <si>
+    <t>Aku menyimpan ilmu (hadits) dari Rasulullah pada dua wadah. Yang satu aku sebarkan dan sampaikan, yang satu lagi sekiranya aku sampaikan maka akan terputuslah tenggorakan ini.</t>
+  </si>
+  <si>
+    <t>Janganlah kalian kembali menjadi kafir, sehingga kalian saling membunuh satu sama lain.</t>
+  </si>
+  <si>
+    <t>Musa Nabi Allah berdiri di hadapan Bani Isra'il memberikan khutbah, lalu dia ditanya: Siapakah orang yang paling pandai? Musa menjawab: Aku. Maka Allah Ta'ala mencelanya karena dia tidak diberi pengetahuan tentang itu. Lalu Allah Ta'ala memahyukan kepadanya: Ada seorang hamba di antara hamba-Ku yang tinggal di pertemuan antara dua lautan lebih pandai darimu. Lalu Musa berkata, Wahai Rabb, bagaimana aku bisa bertemu dengannya? Maka dikatakan padanya: Bawalah ikan dalam keranjang, bila nanti kamu kehilangan ikan itu, maka itulah petunjuknya. Lalu berangkatlah Musa bersama pelayannya yang bernama Yusya' bin Nun, dan keduanya membawa ikan dalam keranjang hingga keduanya sampai pada batu besar. Lalu keduanya meletakkan kepalanya di atas batu dan tidur. Kemudian keluarlah ikan itu dari keranjang (lalu ikan itu melompat mengambil jalannya ke laut itu) ' (Qs. Al Kahfi: 61). Kejadian ini mengherankan Musa dan muridnya, maka keduanya melanjutkan sisa malam dan hari perjalannannya. Hingga pada suatu pagi Musa berkata kepada pelayannya, '(Bawalah kemari makanan kita, sesungguhnya kita telah merasa lelah karena perjalanan kita ini) ' (Qs. Al Kahfi: 62). Musa tidak merasakan kelelahan kecuali setelah sampai pada tempat yang dituju sebagaimana diperintahkan. Maka muridnya berkata kepadanya: '(Tahukah kamu ketika kita mencari tempat berlindung di batu tadi? Sesungguhnya aku lupa menceritakan ikan itu. Dan tidaklah yang melupakan aku ini kecuali setan) ' (Qs. Al Kahfi: 63). Musa lalu berkata: '(Itulah tempat yang kita cari. Lalu keduanya kembali mengikuti jejak mereka semula) ' (Qs. Al Kahfi: 64). Ketika keduanya sampai di batu tersebut, didapatinya ada seorang laki-laki mengenakan pakaian yang lebar, Musa lantas memberi salam. Khidlir lalu berkata, Bagaimana cara salam di tempatmu? Musa menjawab, Aku adalah Musa. Khidlir balik bertanya, Musa Bani Isra'il? Musa menjawab, Benar. Musa kemudian berkata: '(Bolehkah aku mengikutimu supaya kamu mengajarkan kepadaku ilmu yang benar di antara ilmu-ilmu yang telah diajarkan kepadamu?) ' Khidlir menjawab: Sesungguhnya kamu sekali-kali tidak akan sanggup sabar bersama Aku) ' (Qs. Al Kahfi: 66-67). Khidlir melanjutkan ucapannya, Wahai Musa, aku memiliki ilmu dari ilmunya Allah yang Dia mangajarkan kepadaku yang kamu tidak tahu, dan kamu juga punya ilmu yang diajarkan-Nya yang aku juga tidak tahu. Musa berkata: '(Insya Allah kamu akan mendapati aku sebagai orang yang sabar, dan aku tidak akan menentangmu dalam sesuatu urusanpun) ' (Qs. Al Kahfi: 69). Maka keduanya berjalan kaki di tepi pantai sementara keduanya tidak memiliki perahu, lalu melintaslah sebuah perahu kapal. Mereka berbicara agar orang-orang yang ada di perahu itu mau membawa keduanya. Karena Khidlir telah dikenali maka mereka pun membawa keduanya dengan tanpa bayaran. Kemudian datang burung kecil hinggap di sisi perahu mematuk-matuk di air laut untuk minum dengan satu atau dua kali patukan. Khidlir lalu berkata, Wahai Musa, ilmuku dan ilmumu bila dibandingkan dengan ilmu Allah tidaklah seberapa kecuali seperti patukan burung ini di air lautan. Kemudian Khidlir sengaja mengambil papan perahu lalu merusaknya. Musa pun berkata, Mereka telah membawa kita dengan tanpa bayaran, tapi kenapa kamu merusaknya untuk menenggelamkan penumpangnya? Khidlir berkata: '(Bukankah aku telah berkata, Sesungguhnya kamu sekali-kali tidak akan sabar bersama dengan aku) ' Musa menjawab: '(Janganlah kamu menghukum aku karena kelupaanku dan janganlah kamu membebani aku dengan sesuatu kesulitan dalam urusanku) ' (Qs. Al Kahfi: 72-73). Kejadian pertama ini karena Musa terlupa. Kemudian keduanya pergi hingga bertemu dengan anak kecil yang sedang bermain dengan dua temannya. Khidlir lalu memegang kepala anak itu, mengangkat dan membantingnya hingga mati. Maka Musa pun bertanya: '(Mengapa kamu membunuh jiwa yang bersih, bukan karena dia membunuh orang lain?) ' (Qs. Al Kahfi: 74). Khidlir menjawab: '(Bukankah sudah kukatakan kepadamu, bahwa sesungguhnya kamu tidak akan dapat sabar bersamaku?) ' (Qs. Al Kahfi: 75). Ibnu 'Uyainah berkata, Ini adalah sebuah penegasan. '(Maka keduanya berjalan hingga tatkala keduanya sampai kepada penduduk suatu negeri, mereka minta dijamu kepada penduduk negeri itu, tetapi penduduk negeri itu tidak mau menjamu mereka. Kemudian keduanya mendapatkan dalam negeri itu dinding rumah yang hampir roboh. Maka Khidlir menegakkan dinding itu) ' (Qs. Al Kahfi: 77). Rasulullah meneruskan ceritanya: Khidlir melakukannya dengan tangannya sendiri. Lalu Musa berkata, '(Jikalau kamu mau, niscaya kamu mengambil upah untuk itu. Khidlir menjawab, Inilah saat perpisahan antara aku dan kamu) ' (Qs. Al Kahfi: 77-78). Nabi bersabda: Semoga Allah merahmati Musa. Kita sangat berharap sekiranya Musa bisa sabar sehingga akan banyak cerita yang bisa kita dengar tentang keduanya.</t>
+  </si>
+  <si>
+    <t>Barangsiapa berperang untuk meninggikan kalimat Allah, maka dia berperang di jalan Allah 'azza wajalla.</t>
+  </si>
+  <si>
+    <t>Melemparlah sekarang, dan kau tidak dosa. Kemudian datang orang lain dan berkata, Wahai Rasulullah, aku telah mencukur rambut sebelum aku menyembelih? Beliau menjawab: Sembelihlah sekarang, tidak kau tidak berdosa. Dan tidaklah beliau ditanya tentang sesuatu yang dikerjakan lebih dahulu atau sesuatu yang diakhirkan dalam mengerjakannya kecuali menjawab: Lakukanlah dan tidak dosa.</t>
+  </si>
+  <si>
+    <t>(Dan mereka bertanya kepadamu tentang ruh. Katakanlah: Ruh itu termasuk urusan Rabbku, dan tidaklah kamu diberi pengetahuan melainkan sedikit) ' (Qs. Al Israa`: 85). Al A'masy berkata, Seperti inilah dalam qira`ah kami.</t>
+  </si>
+  <si>
+    <t>kalau bukan karena kaummu masih dekat zaman mereka, Az Zubair menyebutkan, Dengan kekufuran, maka Ka'bah akan aku rubah, lalu aku buat dua pintu untuk orang-orang masuk dan satu untuk mereka keluar. Di kemudian hari hal ini dilaksanakan oleh Ibnu Zubair.</t>
+  </si>
+  <si>
+    <t>Berbicaralah dengan manusia sesuai dengan kadar pemahaman mereka, apakah kalian ingin jika Allah dan rasul-Nya didustakan? Telah menceritakan kepada kami 'Ubaidullah bin Musa dari Ma 'ruf bin Kharrabudz dari Abu Ath Thufail dari 'Ali seperti itu.</t>
+  </si>
+  <si>
+    <t>Tidaklah seseorang bersaksi bahwa tidak ada Tuhan yang berhak disembah selain Allah, dan Muhammad adalah Rasulullah, tulus dari dalam hatinya, kecuali Allah akan mengharamkan baginya neraka. Mu'adz lalu bertanya, Apakah boleh aku memberitahukan hal itu kepada orang, sehingga mereka bergembira dengannya? Beliau menjawab: Nanti mereka jadi malas (untuk beramal). Mu'adz lalu menyampaikan hadits itu ketika dirinya akan meninggal karena takut dari dosa.</t>
+  </si>
+  <si>
+    <t>Barangsiapa berjumpa Allah dengan tidak menyekutukan-Nya dengan sesuatu apapun, maka dia akan masuk surga. Mu'adz bertanya, Bolehkan jika itu aku sampaikan kepada manusia? Beliau menjawab: Jangan, karena aku khawatir mereka akan jadi malas (untuk beramal).</t>
+  </si>
+  <si>
+    <t>Ya, jika dia melihat air. Ummu Salamah lalu menutupi wajahnya seraya bertanya, Wahai Rasulullah, apakah seorang wanita itu bermimpi? Beliau menjawab: Ya. Celaka kamu. (jika tidak) Lantas dari mana datangnya kemiripan seorang anak itu?</t>
+  </si>
+  <si>
+    <t>Sesungguhnya di antara pohon-pohon ada satu pohon yang tidak jatuh daunnya, dan itu adalah perumpamaan bagi seorang Muslim. Ceritakan kepadaku pohon apakah itu? Maka orang-orang menganggapnya sebagai pohon-pohon yang ada di lembah, sedangkan menurut perkiraanku bahwa itu adalah pohon kurma. 'Abdullah berkata, Tetapi aku malu (untuk mengungkapkannya). Lalu orang-orang berkata, Wahai Rasulullah, beritahukan kami pohon apakah itu? Maka Rasulullah pun menjawab: Dia adalah pohon kurma. 'Abdullah berkata, Kemudian aku ceritakan hal itu kepada bapakku, Maka bapakku berkata, Aku lebih suka bila engkau ungkapkan saat itu dari pada aku memiliki begini dan begini.</t>
+  </si>
+  <si>
+    <t>Padanya ada kewajiban wudlu.</t>
+  </si>
+  <si>
+    <t>Bagi penduduk Madinah bertalbiyah dari Dzul Hulaifah, penduduk Syam dari Al Juhfah, dan penduduk Najed dari Qarn. Ibnu Umar berkata, Orang-orang mengklaim bahwa Rasulullah akan mengatakan bahwa penduduk Yaman bertalbiyah dari Yalamlam. Sementara Ibnu Umar berkata, Aku tidak yakin bahwa (yang terakhir) ini dari Rasulullah .</t>
+  </si>
+  <si>
+    <t>Ia tidak boleh memakai baju, Imamah (surban yang dililitkan pada kepala), celana panjang, mantel, atau pakaian yang diberi minyak wangi atau za'faran. Jika dia tidak mendapatkan sandal, maka ia boleh mengenakan sepatu dengan memotongnya hingga di bawah mata kaki.</t>
+  </si>
+  <si>
+    <t>Tidak akan diterima shalat seseorang yang berhadats hingga dia berwudlu. Seorang laki-laki dari Hadlramaut berkata, Apa yang dimaksud dengan hadats wahai Abu Hurairah? Abu Hurairah menjawab, Kentut baik dengan suara atau tidak.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya umatku akan dihadirkan pada hari kiamat dengan wajah berseri-seri karena sisa air wudlu, barangsiapa di antara kalian bisa memperpanjang cahayanya hendaklah ia lakukan.</t>
+  </si>
+  <si>
+    <t>Janganlah kamu pindah atau pergi hingga kamu mendengar suara atau mencium baunya.</t>
+  </si>
+  <si>
+    <t>berwudlu dari bejana kecil dengan wudlu yang ringan, setelah itu berdiri dan shalat. Aku lalu ikut berwudlu' dari bejana yang beliau gunakan untuk wudlu', kemudian aku menghampiri beliau dan ikut shalat di sisi kirinya -Sufyan juga menyebutkan sebelah kiri-, beliau lalu menggeser aku ke sisi kanannya. Setelah itu beliau shalat sesuai yang dikehendakinya, kemudian beliau berbaring dan tidur hingga mendengkur. Kemudian seorang tukang adzan datang memberitahukan beliau bahwa waktu shalat telah tiba, beliau lalu pergi bersamanya dan shalat tanpa berwudlu lagi. Kami lalu katakan kepada Amru, Orang-orang mengatakan bahwa mata Rasulullah tidur, namun tidak dengan hatinya. Amru lalu berkata, Aku pernah mendengar Ubaid bin Umair berkata, Mimpinya para Nabi adalah wahyu. Kemudian ia membaca: '(Sesungguhnya aku bermimpi bahwa aku akan menyembelihmu..) ' (Qs. Ash Shaaffat: 102).</t>
+  </si>
+  <si>
+    <t>Shalat masih ada di depanmu. Beliau lalu mengendarai tunggangannya hingga sampai di Muzdalifaah beliau turun dan wudlu' secara sempurna, kemudian iqamah dikumandangkan, dan beliau pun melaksanakan shalat Maghrib. Kemudian orang-orang menambatkan unta-unta mereka pada tempatnya, lalu iqamat isya` dikumandangkan, beliau lalu mengerjakan shalat isya` tanpa mengerjakan shalat yang lain di antara keduanya.</t>
+  </si>
+  <si>
+    <t>dia berwudlu', ia mencuci wajahnya, lalu mengambil air satu cidukan tangan dan menggunakannya untuk berkumur dan istintsaq, lalu ia kembali mengambil satu cidukan tangannya dan menjadikannya begini -menuangkan pada tangannya yang lain-, lalu dengan kedua tangannya ia membasuh wajahnya, lalu mengambil air satu cidukan dan membasuh tangan kanannya, lalu kembali mengambil air satu cidukan dan membasuh tangannya yang sebelah kiri. Kemudian mengusap kepala, lalu mengambil air satu cidukan dan menyela-nyela kaki kanannya hingga membasuhnya, lalu mengambil air satu cidukan lagi dan membasuh kaki kirinya. Setelah itu ia berkata, Seperti inilah aku lihat Rasulullah berwudlu.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian ingin mendatangi isterinya (untuk bersetubuh), maka hendaklah ia membaca; 'ALLAHUMMA JANNIBNASY SYAITHAANA WA JANNIBISY SYAITHAANA MAA RAZAQTANAA (Ya Allah, jauhkanlah kami dari setan dan jauhkanlah setan dari apa yang Engkau rizkikan (anak) kepada kami) '. Jika dikaruniai anak dari hubungan keduanya maka setan tidak akan dapat mencelakakan anak itu.</t>
+  </si>
+  <si>
+    <t>(Ya Allah aku berlindung kepada-Mu dari setan laki-laki dan setan perempuan) '. Dan hadits ini dikuatkan oleh Ibnu 'Ar'arah dari Syu'bah, dan Ghundar berkata dari Syu'bah ia berkata, Jika mendatangi WC. Dan Musa dari Hammad, Jika masuk. Dan Sa'id bin Zaid berkata, telah menceritakan kepada kami Abdul 'Aziz, Jika mau masuk.</t>
+  </si>
+  <si>
+    <t>Ya Allah pandaikanlah dia dalam agama.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian masuk ke dalam WC untuk buang hajat, maka janganlah menghadap ke arah kiblat membelakanginya. Hendaklah ia menghadap ke arah timurnya atau baratnya.</t>
+  </si>
+  <si>
+    <t>Pada suatu hari aku pernah naik atap rumah milik kami, lalu aku melihat Rasulullah buang hajat menghadap Baitul Maqdis di antara dua dinding. Lalu ada seseorang yang berkata, Barangkali kamu termasuk dari orang-orang yang shalat dengan mendekatkan paha (ke tanah)? Maka aku jawab, Demi Allah, aku tidak tahu. Malik berkata, Yaitu orang yang shalat namun tidak mengangkat (paha) dari tanah ketika sujud, yakni menempel tanah.</t>
+  </si>
+  <si>
+    <t>mereka keluar pada waktu malam menuju tempat buang hajat yang berupa tanah lapang dan terbuka. Umar pernah berkata kepada Nabi , Hijabilah isteri-isteri Tuan. Namun Nabi tidak melakukannya. Lalu pada suatu malam waktu Isya` Saudah binti Zam'ah, isteri Nabi , keluar (untuk buang hajat). Dan Saudah adalah seorang wanita yang berpostur tinggi. 'Umar lalu berseru kepadanya, Sungguh kami telah mengenalmu wahai Saudah! ' Umar ucapkan demikian karena sangat antusias agar ayat hijab diturunkan. Maka Allah kemudian menurunkan ayat hijab. Telah menceritakan kepada kami Zakaria berkata, telah menceritakan kepada kami Abu Usamah dari Hisyam bin 'Urwah dari Bapaknya dari 'Aisyah dari Nabi , beliau bersabda: Allah telah mengizinkan kalian (isteri-isteri Nabi) keluar untuk menunaikan hajat kalian. Hisyam berkata, Yakni buang air besar.</t>
+  </si>
+  <si>
+    <t>buang hajat membelakangi kiblat menghadap Syam.</t>
+  </si>
+  <si>
+    <t>duduk (buang hajat) di atas dua batu bata menghadap Baitul Maqdis.</t>
+  </si>
+  <si>
+    <t>Jika Nabi keluar untuk buang hajat, maka aku dan seorang temanku membawakan bejana berisi air, yakni agar beliau bisa beristinja` dengannya.</t>
+  </si>
+  <si>
+    <t>Jika Rasulullah keluar untuk buang hajat, maka aku dan seorang temanku mengikutinya dengan membawa bejana berisi air.</t>
+  </si>
+  <si>
+    <t>masuk ke dalam WC untuk buang hajat, lalu aku dan seorang temanku membawa bejana berisi air dan sebatang kayu (tongkat) untuk beliau gunakan beristinja'. Hadits ini kuatkan oleh An-Nadlr dan Syadzan dari Syu'bah, Al Anazah adalah tongkat yang ujungnya ada besi.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian minum, maka janganlah ia bernafas dalam gelas. Dan jika masuk ke dalam WC janganlah dia menyentuh kemaluannya dengan tangan kanannya dan jangan membersihkan dengan tangan kanannya.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian kencing maka janganlah ia memegang kemaluannya dengan tangan kanan, jangan beristinja' dengan tangan kanan dan jangan bernafas dalam gelas saat minum.</t>
+  </si>
+  <si>
+    <t>Carikan untukku batu untuk aku gunakan beristinja' dan jangan bawakan tulang atau kotoran hewan. Lalu aku datang kepada beliau dengan membawa kerikil di ujung kainku, batu tersebut aku letakkan di sisinya, lalu aku berpaling darinya. Setelah selesai beliau gunakan batu-batu tersebut.</t>
+  </si>
+  <si>
+    <t>Nabi pergi ke WC, lalu beliau memerintahkan aku membawakan tiga buah batu. Aku hanya mendapatkan dua batu, lalu aku mencari batu yang ketiga, namun aku tidak mendapatkannya hingga aku pun mengambil kotoran hewan yang sudah kering. Kemudian semua itu aku bahwa ke hadapan Nabi. Namun beliau hanya mengambil dua batu dan membuang kotoran hewan yang telah kering tersebut seraya bersabda: Ini najis. Ibrahim bin Yusuf berkata dari Bapaknya dari Abu Ishaq berkata, telah menceritakan kepadaku 'Abdurrahman.</t>
+  </si>
+  <si>
+    <t>Nabi berwudlu' sekali sekali.</t>
+  </si>
+  <si>
+    <t>Nabi berwudlu dua kali dua kali.</t>
+  </si>
+  <si>
+    <t>Barangsiapa berwudlu seperti wudluku ini, kemudian dia shalat dua rakaat dan tidak berbicara antara keduanya, maka dosanya yang telah lalu akan diampuni. Dan dari Ibrahim berkata, Shalih bin Kaisan berkata, Ibnu Syihab berkata. Tetapi 'Urwah menceritakan dari Humran, Ketika 'Utsman berwudlu, dia berkata, Maukah aku sampaikan kepada kalian sebuah hadits yang kalau bukan karena ada satu ayat tentu aku tidak akan menyampaikannya? Aku pernah mendengar Nabi bersabda: Tidaklah seorang laki-laki berwudlu dengan membaguskan wudlunya kemudian mengerjakan shalat, kecuali akan diampuni (dosa) antara wudlunya dan shalatnya itu hingga selesai shalatnya. 'Urwah berkata, Ayat yang dimaksud adalah: '(Sesungguhnya orang-orang yang menyembunyikan apa yang telah kami turunkan) ' (Qs. Al Baqarah: 159).</t>
+  </si>
+  <si>
+    <t>Barangsiapa berwudlu hendaklah mengeluarkan (air dari hidung), dan barangsiapa beristinja' dengan batu hendaklah dengan bilangan ganjil.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian berwudlu hendaklah dengan memasukkan air ke dalam hidung, barangsiapa beristinja' dengan batu hendaklah dengan bilangan ganjil. Dan jika salah seorang dari kalian bangun dari tidurnya, hendaklah membasuh kedua telapak tangannya sebelum memasukkannya dalam bejana air wudlunya, sebab salah seorang dari kalian tidak tahu ke mana tangannya bermalam.</t>
+  </si>
+  <si>
+    <t>Tumit-tumit yang tidak terkena air wudlu akan masuk ke dalam neraka. Beliau ucapkan itu hingga tiga kali.</t>
+  </si>
+  <si>
+    <t>Barangsiapa berwudlu seperti wudluku ini, kemudian dia shalat dua rakaat dan tidak berbicara antara keduanya, maka Allah mengampuni dosanya yang telah lalu.</t>
+  </si>
+  <si>
+    <t>Tumit-tumit yang tidak terkena air wudlu akan masuk neraka.</t>
+  </si>
+  <si>
+    <t>Aku melihat anda tidak menyentuh rukun-rukun (Ka'bah) kecuali rukun Yamani, aku melihat anda mengenakan sandal terbuat dari kulit, aku melihat anda mengecat (rambut) dengan berwarna kuning, dan saat manusia di Makkah melakukan talbiyah setelah melihat hilal aku melihat anda tidak melakukannya kecuali pada hari tarwiyah? 'Abdullah bin 'Umar pun berkata, Adapun tentang rukun Ka'bah, sungguh aku tidak pernah melihat Rasulullah mengusapnya kecuali rukun Yamani. Sedangkan mengenai sandal dari kulit, sungguh aku melihat Rasulullah juga mengenakan sandal kulit yang tidak berbulu, dan berwudlu dengan tetap mengenakannya, dan aku suka bila tetap mengenakannya. Adapun tentang warna kuning, sungguh aku melihat Rasulullah mencelup dengan warna tersebut dan aku juga suka melakukannya. Dan tentang talbiyah, sungguh belum pernah aku melihat Rasulullah bertalbiyah kecuali setelah kendaraannya melaju (menuju Mina).</t>
+  </si>
+  <si>
+    <t>Hendaklah kalian mulai dari yang sebelah kanan dan anggota wudlunya.</t>
+  </si>
+  <si>
+    <t>suka memulai dari sebelah kanan saat mengenakan sandal, menyisir rambut, bersuci dan selainnya.</t>
+  </si>
+  <si>
+    <t>Aku melihat air keluar dari jari-jari beliau hingga semua orang sampai yang terakhir dapat berwudlu.</t>
+  </si>
+  <si>
+    <t>Kami memiliki rambut Nabi yang kami dapat dari Anas, atau keluarga Anas.' Ia lalu berkata, Sekiranya aku memiliki satu helai rambut Rasulullah, maka itu lebih aku sukai daripada dunia dan seisinya.</t>
+  </si>
+  <si>
+    <t>ketika Rasulullah mencukur rambutnya, maka Abu Thalhah adalah orang yang pertama mengambil rambut beliau.</t>
+  </si>
+  <si>
+    <t>Jika anjing menjilat bejana seorang dari kalian, maka hendaklah ia cuci hingga tujuh kali.</t>
+  </si>
+  <si>
+    <t>ada seorang laki-laki melihat seekor anjing menjilat-jilat tanah karena kehausan, lalu orang itu mengambil sepatunya dan mengisinya air untuk kemudian diminumkan kepada anjing tersebut hingga kenyang. Allah lalu berterima kasih kepadanya dan memasukkannya ke dalam surga. Ahmad bin Syabib berkata, telah menceritakan kepada kami Bapakku dari Yunus dari Ibnu Syihab berkata, telah menceritakan kepadaku Hamzah bin 'Abdullah dari Bapaknya, bahwa pada masa Rasulullah ada beberapa anjing yang kencing dan membuang kotoran di dalam masjid, namun para sahabat tidak menyiramnya dengan sesuatu.</t>
+  </si>
+  <si>
+    <t>Jika kamu melepas anjing buruanmu yang telah terlatih lalu ia mendapatkan hasil buruan, maka makanlah hasil buruannya. Jika anjing itu memakannya maka kamu jangan memakannya, sebab ia menangkap untuk dirinya sendiri. Aku lalu bertanya lagi, Aku melepas anjing buruanku, lalu aku mendapati anjing lain bersama dengan anjingku? Beliau menjawab: Jangan kamu makan, karena kamu membaca basmalah untuk anjingmu dan tidak untuk anjing yang lain.</t>
+  </si>
+  <si>
+    <t>Seorang hamba akan selalu dihitung shalat selama ia di masjid menunggu shalat dan tidak berhadats. Lalu ada seorang laki-laki non-Arab berkata, Apa yang dimaksud dengan hadats wahai Abu Hurairah? Abu Hurairah menjawab, Suara. Yaitu kentut.</t>
+  </si>
+  <si>
+    <t>Janganlah kamu pergi hingga engkau mendengar suara atau mencium bau.</t>
+  </si>
+  <si>
+    <t>Cukup baginya berwudlu. Syu'bah juga meriwayatkan dari Al A'masy.</t>
+  </si>
+  <si>
+    <t>Hendaknya ia berwudlu seperti wudlunya untuk shalat, lalu membasuh kemaluannya. Utsman melanjutkan, Aku mendengarnya dari Rasulullah , aku menanyakan hal itu kepada 'Ali, Zubair, Thalhah, dan Ubay bin Ka'b? . Mereka semua menyuruh untuk melakukannya.</t>
+  </si>
+  <si>
+    <t>Jika kamu dibuat tergesa-gesa atau tertahan (tidak mengeluarkan mani), maka cukup bagimu berwudlu. Hadits ini dikuatkan juga oleh Wahhab ia berkata, telah menceritakan kepada kami Syu'bah. Abu 'Abdullah berkata, riwayat Ghundar dan Yahya dari Syu'bah tidak menyebutkan 'wudlu'.</t>
+  </si>
+  <si>
+    <t>Tempat shalat ada di depanmu.</t>
+  </si>
+  <si>
+    <t>membasuh muka, mengusap kepala dan sepasang sepatunya.</t>
+  </si>
+  <si>
+    <t>Nabi dan isterinya berbaring pada bagian panjang (tengahnya). Rasulullah lalu tidur hingga pada tengah malam, atau kurang sedikit, atau lewat sedikit, beliau bangun dan duduk sambil mengusap sisa-sisa kantuk yang ada di wajahnya dengan tangan. Beliau kemudian membaca sepuluh ayat terakhir dari Surah Ali 'Imran. Kemudian berdiri menuju tempat wudlu, beliau lalu berwudlu dengan memperbagus wudlunya, lalu shalat. Ibnu 'Abbas berkata, Maka akupun ikut dan melakukan sebagaimana yang beliau lakukan, aku lalu berdiri di sampingnya. Beliau kemudian meletakkan tangan kanannya di kepalaku seraya memegang telingaku hingga menggeserku ke sebelah kanannya. Kemudian beliau shalat dua rakaat, kemudian dua rakaat, kemudian dua rakaat, kemudian dua rakaat, kemudian witir. Setelah itu beliau tidur berbaring hingga tukang adzan mendatanginya, beliau lalu berdiri dan shalat dua rakaat ringan, kemudian keluar untuk menunaikan shalat Subuh.</t>
+  </si>
+  <si>
+    <t>Dan telah diwahyukan kepadaku bahwa kalian akan terkena fitnah dalam qubur kalian seperti, atau hampir serupa dengan fitnah Dajjal yang aku sendiri tidak tahu fitnah apakah itu. Asma` berkata, Setiap salah seorang dari kalian akan didatangkan (dalam sidang), lalu dikatakan kepadanya, 'Apa yang kamu ketahui tentang laki-laki ini (Rasulullah)? ' Adapun orang beriman atau orang yang yakin -aku tidak tahu mana yang Asma' ucapkan-, lalu orang tersebut akan menjawab, 'Dia adalah Muhammad utusan Allah. Ia datang kepada kami membawa penjelasan dan petunjuk. Kami lalu menyambutnya, beriman dan mengikuti seruannya.' Maka kepada orang itu dikatakan, 'Tidurlah kamu dengan baik, sungguh kami telah mengetahui bahwa kamu adalah orang beriman.' Adapun Munafik atau pelaku dosa besar -Aku tidak tahu mana yang diucapkan Asma'- akan menjawab, 'Aku tidak tahu siapa dia, aku mendengar orang-orang mengatakan sesuatu maka aku pun mengikuti ucapan tersebut'.</t>
+  </si>
+  <si>
+    <t>minta diambilkan air wudlu, lalu ia menuangkan air pada kedua tangannya dan membasuhnya dua kali, lalu berkumur dan mengeluarkan air dari dalam hidung sebanyak kali, kemudian membasuh mukanya tiga kali, kemudian membasuh kedua tangan dua kali dua kali sampai ke siku, kemudian mengusap kepalanya dengan tangan, dimulai dari bagian depan dan menariknya hingga sampai pada bagian tengkuk, lalu menariknya kembali ke tempat semula. Setelah itu membasuh kedua kakinya.</t>
+  </si>
+  <si>
+    <t>minta diambilkan satu gayung air, kemudian ia memperlihatkan kepada mereka cara wudlu Nabi . Ia menuangkan air dari gayung ke telapak tangannya lalu mencucinya tiga kali, kemudian memasukkan tangannya ke dalam gayung, lalu berkumur-kumur, lalu memasukkan air ke hidung lalu mengeluarkannya kembali dengan tiga kali cidukan, kemudian memasukkan tangannya ke dalam gayung, lalu membasuh mukanya tiga kali, kemudian membasuh kedua tangannya dua kali sampai ke siku. Kemudian memasukkan tangannya ke dalam gayung, lalu mengusap kepalanya dengan tangan; mulai dari bagian depan ke belakang dan menariknya kembali sebanyak satu kali, lalu membasuh kedua kakinya hingga mata kaki.</t>
+  </si>
+  <si>
+    <t>Beliau lalu diberi air wudlu hingga beliau pun berwudlu, orang-orang lalu mengambil sisa air wudlu beliau seraya mengusap-ngusapkannya. Kemudian Nabi shalat zhuhur dua rakaat dan 'ashar dua rakaat sedang di depannya diletakkan tombak kecil. Abu Musa berkata, Nabi meminta bejana berisi air, beliau lalu membasuh kedua tangan dan mukanya di dalamnya, lalu menyentuh air untuk memberkahinya seraya berkata kepada keduanya (Abu Musa dan Bilal): Minumlah darinya dan usapkanlah pada wajah dan leher kalian berdua.</t>
+  </si>
+  <si>
+    <t>Dialah orang yang diberkahi oleh Rasulullah di wajahnya saat dia masih kecil dari sumur mereka. Dan 'Urwah menyebutkan dari Al Miswar, dan Selainnya -setiap dari keduanya saling membenarkan satu sama lain-, bahwa ketika Nabi berwudlu, hampir saja mereka berkelahi memperebutkan bejana bekas wudlu beliau.</t>
+  </si>
+  <si>
+    <t>mengusap kepalaku dan memohonkan keberkahan untukku. Kemudian beliau berwudlu, maka aku pun minum dari sisa air wudlunya, kemudian aku berdiri di belakangnya hingga aku melihat ada tanda kenabian sebesar telur burung di pundaknya.</t>
+  </si>
+  <si>
+    <t>Begitulah wudlunya Rasulullah .</t>
+  </si>
+  <si>
+    <t>minta diambilkan bejana berisi air, lalu ia memperlihatkan kepada mereka cara wudlu Nabi . Lalu ia memulai dengan menuangkan air dari bejana ke telapak tangannya lalu mencucinya tiga kali. Kemudian memasukkan tangannya ke dalam bejana, lalu berkumur-kumur, lalu memasukkan air ke hidung dan mengeluarkannya kembali dengan tiga kali cidukan. Kemudian memasukkan tangannya ke dalam bejana dan membasuh mukanya tiga kali, kemudian memasukkan tangannya ke dalam bejana dan membasuh kedua tangannya sampai ke siku dua kali dua kali. Kemudian ia memasukkan tangannya ke dalam bejana dan mengusap kepalanya dengan tangan, ia mulai dari bagian depan ke belakang lalu mengembalikannya lagi (ke arah depan), kemudian memasukkan tangannya ke dalam bejana dan membasuh kedua kakinya. Dan telah menceritakan kepada kami Musa berkata, telah menceritakan kepada kami Wuhaib berkata, Ia mengusap kepalanya satu kali.</t>
+  </si>
+  <si>
+    <t>laki-laki dan perempuan semuanya minta diajari berwudlu.</t>
+  </si>
+  <si>
+    <t>Nabi lalu berwudlu dan menyiramkan sisa air wudlunya hingga aku pun sadar. Aku lalu bertanya, 'Wahai Rasulullah, untuk siapakah warisan itu? Sebab aku tidak mewariskan kalalah (tidak punya anak)? ' maka turunlah ayat tentang waris.</t>
+  </si>
+  <si>
+    <t>orang-orang pun berwudlu (dari jari tangan beliau) semua. Kami lalu bertanya, Berapa jumlah kalian saat itu? Anas menjawab, Lebih dari delapan puluh orang.</t>
+  </si>
+  <si>
+    <t>minta diambilkan bejana berisi air, beliau lalu mencuci kedua tangan dan wajahnya dalam bejana tersebut dan mendoakan keberkahan.</t>
+  </si>
+  <si>
+    <t>Beliau lalu berwudlu; membasuh muka tiga kali, lalu membasuh tangan dua kali dua kali, lalu mengusap kepalanya dimulai dari depan ke belakang dan menariknya kembali ke depan. Kemudian membasuh kedua kakinya.</t>
+  </si>
+  <si>
+    <t>beliau minta izin kepada isteri-isterinya agar beliau dirawat di rumahku, lalu mereka pun mengizinkannya. Nabi lalu keluar berjalan dengan dipapah oleh dua orang; 'Abbas dan seorang lagi. 'Ubaidullah berkata, Aku lalu kabarkan hal itu kepada 'Abdullah bin 'Abbas, lalu dia berkata, Tahukah kamu, siapakah lelaki yang lain itu? Aku jawab, Tidak. Dia lantas berkata, Orang itu adalah 'Ali bin Abu Thalib? . 'Aisyah menceritakan bahwa ketika Nabi sudah berada di rumahnya dan sakitnya makin berat, beliau mengatakan: Siramkan air kepadaku dari tujuh geriba yang belum dilepas ikatannya, sehingga aku dapat memberi pesan kepada orang-orang. Kemudian Nabi didudukkan untuk mandi dengan ember milik Hafshah, isteri Nabi . Maka kami segera menyiram beliau hingga beliau memberi isyarat sudah cukup. Setelah itu beliau keluar menemui orang-orang.</t>
+  </si>
+  <si>
+    <t>minta bejana berisi air, lalu ia menuangkan ke telapak tangannya dan mencucinya tiga kali. Kemudian memasukkan tangannya ke dalam bejana tersebut, lalu berkumur dan mengeluarkan air dari dalam hidung sebanyak tiga kali dari satu cidukan tangan. Kemudian memasukkan tangannya ke dalam bejana menciduk air dan membasuh mukanya tiga kali. Kemudian membasuh tangannya sampai siku dua kali-dua kali. Kemudian mengambil air dengan tangannya dan mengusap kepalanya, ia tarik tangannya ke belakang kepala lalu dikembalikan ke depan. Kemudian membasuh kakinya. Setelah itu berkata, Begitulah aku melihat Nabi berwudlu'.</t>
+  </si>
+  <si>
+    <t>minta untuk diambilkan bejana berisi air kepada orang-orang, maka diberikanlah satu bejana besar dan beliau meletakkan tangannya ke dalam bejana tersebut. Anas berkata, 'Aku sengaja memperhatikan air yang keluar dari selah-selah jari beliau. Anas melanjutkan, Aku menduga bahwa orang-orang yang berwudlu saat itu berjumlah antara tujuh puluh hingga delapan puluh orang.</t>
+  </si>
+  <si>
+    <t>membasuh, atau mandi dengan satu sha' hingga lima mud, dan berwudlu dengan satu mud.</t>
+  </si>
+  <si>
+    <t>beliau mengusap sepasang sepatunya. 'Abdullah bin 'Umar menanyakan hal ini kepada 'Umar ia lalu menjawab, Ya. Jika Sa'd menceritakan kepadamu sebuah hadits dari Nabi , maka janganlah kamu bertanya kepada selainnya. Musa bin 'Uqbah berkata, telah mengabarkan kepadaku Abu An Nadlr bahwa Abu Salamah menceritakan kepadanya, bahwa Sa'd menceritakan kepadanya, dan 'Umar menyebutkan kepada 'Abdullah seperti itu.</t>
+  </si>
+  <si>
+    <t>dan mengusap sepasang sepatunya.</t>
+  </si>
+  <si>
+    <t>mengusap sepasang sepatunya. Hadits ini diperkuat oleh Harb bin Syaddad dan Aban dari Yahya.</t>
+  </si>
+  <si>
+    <t>mengusap sorban dan sepasang sepatunya. Hadits ini diperkuat oleh Ma'mar dari Yahya dari Abu Salamah dari 'Amru berkata, Aku melihat Nabi .</t>
+  </si>
+  <si>
+    <t>Biarkan saja, karena aku mengenakannya dalam keadaan suci. Dan beliau hanya mengusap sepatunya.</t>
+  </si>
+  <si>
+    <t>makan paha kambing kemudian shalat dan tidak berwudlu lagi.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +645,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -354,7 +666,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -362,33 +674,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,1432 +997,2832 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
+      <selection pane="bottomRight" activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="2">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="2">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <v>12</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="2">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="2">
         <v>14</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="2">
         <v>14</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="2">
         <v>15</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="2">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="2">
         <v>17</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="2">
         <v>18</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="2">
         <v>19</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="2">
         <v>20</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="2">
         <v>21</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="2">
         <v>22</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="2">
         <v>23</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="2">
         <v>24</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="2">
         <v>24</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="2">
         <v>25</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="2">
         <v>26</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="2">
         <v>27</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="2">
         <v>28</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="2">
         <v>29</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="2">
         <v>30</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="2">
         <v>31</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="2">
         <v>32</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="2">
         <v>33</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="2">
         <v>33</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="2">
         <v>34</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="2">
         <v>35</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="2">
         <v>36</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="2">
         <v>36</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="2">
         <v>37</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="2">
         <v>37</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="2">
         <v>38</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="2">
         <v>39</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="2">
         <v>40</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="2">
         <v>40</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="2">
         <v>40</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="2">
         <v>41</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="2">
         <v>41</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="2">
         <v>43</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="2">
         <v>44</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="2">
         <v>45</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="2">
         <v>46</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="2">
         <v>47</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="2">
         <v>48</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="2">
         <v>48</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="2">
         <v>49</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="2">
         <v>50</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="2">
         <v>52</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="2">
         <v>52</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="2">
         <v>53</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="2">
         <v>54</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="2">
         <v>55</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="2">
         <v>56</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="2">
         <v>57</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="2">
         <v>58</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="2">
         <v>59</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="2">
         <v>59</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="2">
         <v>60</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="2">
         <v>61</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="2">
         <v>62</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="2">
         <v>62</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="2">
         <v>63</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="2">
         <v>64</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="2">
         <v>65</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="2">
         <v>65</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="2">
         <v>65</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="2">
         <v>66</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="2">
         <v>67</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="2">
         <v>68</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="2">
         <v>69</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="2">
         <v>69</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="2">
         <v>69</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="2">
         <v>70</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="2">
         <v>71</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="2">
         <v>71</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="2">
         <v>71</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="2">
         <v>72</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="2">
         <v>73</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="2">
         <v>74</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="2">
         <v>75</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="2">
         <v>76</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="2">
         <v>77</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2">
+        <v>78</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2">
+        <v>78</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2">
+        <v>79</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2">
+        <v>79</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2">
+        <v>79</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2">
+        <v>79</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <v>79</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2">
+        <v>80</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2">
+        <v>80</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2">
+        <v>80</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2">
+        <v>80</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2">
+        <v>81</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>82</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>82</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>83</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>83</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <v>83</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2">
+        <v>84</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2">
+        <v>85</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2">
+        <v>86</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2">
+        <v>87</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2">
+        <v>88</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2">
+        <v>89</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2">
+        <v>90</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D125" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2">
+        <v>90</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2">
+        <v>90</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D127" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2">
+        <v>91</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2">
+        <v>91</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2">
+        <v>92</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2">
+        <v>93</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2">
+        <v>94</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2">
+        <v>96</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2">
+        <v>97</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2">
+        <v>98</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2">
+        <v>99</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2">
+        <v>100</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2">
+        <v>101</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2">
+        <v>102</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2">
+        <v>103</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2">
+        <v>104</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2">
+        <v>105</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2">
+        <v>106</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2">
+        <v>107</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2">
+        <v>108</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2">
+        <v>108</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2">
+        <v>109</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2">
+        <v>110</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2">
+        <v>111</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2">
+        <v>112</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D150" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2">
+        <v>113</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D151" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2">
+        <v>114</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2">
+        <v>115</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2">
+        <v>116</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2">
+        <v>117</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2">
+        <v>118</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2">
+        <v>119</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2">
+        <v>120</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2">
+        <v>121</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2">
+        <v>122</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2">
+        <v>123</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2">
+        <v>124</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2">
+        <v>125</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2">
+        <v>125</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2">
+        <v>126</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2">
+        <v>127</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2">
+        <v>127</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2">
+        <v>127</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2">
+        <v>127</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2">
+        <v>127</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2">
+        <v>128</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2">
+        <v>128</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2">
+        <v>128</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2">
+        <v>128</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2">
+        <v>128</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2">
+        <v>129</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2">
+        <v>129</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2">
+        <v>130</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2">
+        <v>131</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2">
+        <v>132</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2">
+        <v>133</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2">
+        <v>134</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2">
+        <v>134</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2">
+        <v>134</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2">
+        <v>135</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2">
+        <v>136</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2">
+        <v>137</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D187" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2">
+        <v>138</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2">
+        <v>139</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2">
+        <v>139</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2">
+        <v>139</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2">
+        <v>139</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2">
+        <v>140</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2">
+        <v>140</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2">
+        <v>141</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2">
+        <v>142</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D196" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2">
+        <v>142</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2">
+        <v>142</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2">
+        <v>142</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2">
+        <v>143</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D200" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2">
+        <v>144</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D201" s="3">
         <v>1</v>
       </c>
     </row>

--- a/hadits_fix.xlsx
+++ b/hadits_fix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="403">
   <si>
     <t>No.</t>
   </si>
@@ -625,13 +625,613 @@
   </si>
   <si>
     <t>makan paha kambing kemudian shalat dan tidak berwudlu lagi.</t>
+  </si>
+  <si>
+    <t>memotong daging paha kambing, saat panggilan shalat tiba beliau langsung meletakkan pisaunya dan shalat tanpa berwudlu lagi.</t>
+  </si>
+  <si>
+    <t>beliau mengerjakan shalat Ashar. Lalu beliau minta diambilkan makanan dari perbekalan yang mereka bawa, namun tidak didapatkan kecuali makanan yang terbuat dari kurma dan gandum. Beliau kemudian memerintahkan untuk menghidangkannya, maka dicampurlah makanan tersebut dengan air hingga menjadi adonan, Rasulullah makan dan kami pun ikut makan. Setelah itu beliau berdiri untuk shalat Maghrib, beliau lalu berkumur-kumur dan kami juga ikut berkumur-kumur, lalu beliau shalat tanpa berwudlu lagi.</t>
+  </si>
+  <si>
+    <t>pernah makan daging paha (kambing) di sisinya kemudian shalat tanpa berwudlu lagi.</t>
+  </si>
+  <si>
+    <t>minum susu kemudian berkumur-kumur, beliau lalu bersabda: Sesungguhnya susu mengandung lemak. Hadits ini dikuatkan oleh Yunus dan Shalih bin Kaisan dari Az Zuhri.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian mengantuk saat shalat hendaklah ia tidur hingga hilang kantuknya, karena bila shalat dalam keadaan mengantuk ia tidak menyadari, mungkin ia bermaksud beristighfar padahal bisa jadi ia mencaci dirinya.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian mengantuk saat shalat, hendaklah tidur (dahulu) hingga ia mengetahui apa yang ia baca.</t>
+  </si>
+  <si>
+    <t>berwudlu setiap kali akan shalat. Aku bertanya, Bagaimana cara kalian melaksanakannya? Anas bin Malik menjawab, Setiap orang dari kami mencukupkan dengan sekali wudlu' selama tidak berhadats (batal).</t>
+  </si>
+  <si>
+    <t>beliau mengimami kami shalat Ashar. Selesai shalat beliau minta disajikan makanan, namun tidak ada kecuali makanan yang terbuat dari kurma dan gandum, lalu kami makan dan minum. Nabi beranjak untuk melaksanakan shalat Maghrib, beliau berkumur lalu memimpin kami melaksanakan shalat maghrib tanpa berwudlu lagi.</t>
+  </si>
+  <si>
+    <t>Keduanya sedang disiksa, dan tidaklah keduanya disiksa disebabkan dosa besar. Lalu beliau menerangkan: Yang satu disiksa karena tidak bersuci setelah kencing, sementara yang satunya lagi disiksa karena suka mengadu domba. Beliau kemudian minta diambilkan sebatang dahan kurma yang masih basah, beliau lalu membelah menjadi dua bagian, kemudian beliau menancapkan setiap bagian pada dua kuburan tersebut. Maka beliau pun ditanya, Kenapa Tuan melakukan ini? Beliau menjawab: Mudah-mudahan siksanya diringankan selama dahan itu masih basah.</t>
+  </si>
+  <si>
+    <t>Jika Nabi buang hajat aku selalu mendatanginya dengan membawa bejana berisi air, sehingga beliau bisa bersuci dengannya.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya keduanya sedang disiksa, dan keduanya disiksa bukan karena dosa besar. Yang satu disiksa karena tidak bersuci setelah kencing, sementara yang satunya suka mengadu domba. Kemudian beliau mengambil sebatang dahan kurma yang masih basah, beliau lalu membelahnya menjadi dua bagian kemudian menancapkannya pada masing-masing kuburan tersebut. Para sahabat pun bertanya, Wahai Rasulullah, kenapa engkau melakukan ini? beliau menjawab: Semoga siksa keduanya diringankan selama batang pohon ini basah. Muhammad bin Al Mutsanna berkata, telah menceritakan kepada kami Waki' berkata, telah menceritakan kepada kami Al A'masy ia berkata, Aku mendengar Mujahid menyebutkan seperti itu, Tidak bersuci setelah kencing.</t>
+  </si>
+  <si>
+    <t>Biarkanlah. Setelah orang itu selesai, beliau meminta air dan menyiram bekasnya.</t>
+  </si>
+  <si>
+    <t>Biarkanlah dia dan siramlah bekas kencingnya dengan setimba air, atau dengan seember air, sesungguhnya kalian diutus untuk memberi kemudahan dan tidak diutus untuk membuat kesulitan.</t>
+  </si>
+  <si>
+    <t>minta setimba air lalu menyiram pada bekasnya.</t>
+  </si>
+  <si>
+    <t>Pernah seorang bayi dibawa ke hadapan Nabi , lalu bayi tersebut kencing hingga mengenai pakaiannya. Beliau lalu minta air dan mengusapinya dengan air tersebut.</t>
+  </si>
+  <si>
+    <t>dia datang menemui Rasulullah dengan membawa anaknya yang masih kecil dan belum makan makanan. Rasulullah lalu mendudukkan anak kecil itu dalam pangkuannya sehingga ia kencing dan mengenai pakaian beliau. Beliau kemudian minta diambilkan air lalu memercikkannya dan tidak mencucinya.</t>
+  </si>
+  <si>
+    <t>Nabi mendatangi tempat pembuangan sampah suatu kaum, beliau lalu kencing sambil berdiri. Kemudian beliau meminta air, maka aku pun datang dengan membawa air, kemudian beliau berwudlu.</t>
+  </si>
+  <si>
+    <t>Aku berjalan-jalan bersama Nabi , beliau lalu mendatangi tempat pembuangan sampah suatu kaum di balik tembok dan kencing sambil berdiri sebagaimana kalian berdiri. Aku lalu menjauh dari beliau, namun beliau memberi isyarat kepadaku agar mendekat, maka aku pun mendekat dan berdiri di belakangnya hingga beliau selesai.</t>
+  </si>
+  <si>
+    <t>Aku tidak setuju! Sebab Nabi pernah kencing sambil berdiri di tempat pembuangan sampah.</t>
+  </si>
+  <si>
+    <t>Membersihkan darah yang mengenai pakaiannya dengan menggosoknya dengan jari, lalu memercikinya dengan air. Kemudian shalat dengan pakaian tersebut.</t>
+  </si>
+  <si>
+    <t>sebab itu hanyalah semisal keringat dan bukan darah haid. Jika datang haidmu maka tinggalkan shalat, dan jika telah terhenti maka bersihkanlah sisa darahnya lalu shalat. Hisyam berkata, Bapakku (Urwah) menyebutkan, Berwudlulah kamu setiap akan shalat hingga waktu itu tiba.</t>
+  </si>
+  <si>
+    <t>Aku mencuci kain Nabi sisa dari janabat, kemudian beliau keluar untuk shalat, sementara kainnya masih nampak basahnya.</t>
+  </si>
+  <si>
+    <t>Aku pernah mencuci air mani dari pakaian Nabi , beliau lalu keluar untuk shalat sementara sisa cucian masih nampak pada pakaian beliau.</t>
+  </si>
+  <si>
+    <t>Aku pernah mencuci air mani dari pakaian Rasulullah , kemudian beliau keluar untuk shalat dan sisa cucian masih nampak pada pakaian beliau.</t>
+  </si>
+  <si>
+    <t>pernah mencuci air mani dari pakaian Nabi , kemudian aku masih melihat bekas sisa cucian itu.</t>
+  </si>
+  <si>
+    <t>Beberapa orang dari 'Ukl atau 'Urainah datang ke Madinah, namun mereka tidak tahan dengan iklim Madinah hingga mereka pun sakit. Beliau lalu memerintahkan mereka untuk mendatangi unta dan meminum air seni dan susunya. Maka mereka pun berangkat menuju kandang unta (zakat), ketika telah sembuh, mereka membunuh pengembala unta Nabi dan membawa unta-untanya. Kemudian berita itu pun sampai kepada Nabi menjelang siang. Maka beliau mengutus rombongan untuk mengikuti jejak mereka, ketika matahari telah tinggi, utusan beliau datang dengan membawa mereka. Beliau lalu memerintahkan agar mereka dihukum, maka tangan dan kaki mereka dipotong, mata mereka dicongkel, lalu mereka dibuang ke pada pasir yang panas. Mereka minta minum namun tidak diberi. Abu Qilabah mengatakan, Mereka semua telah mencuri, membunuh, murtad setelah keimanan dan memerangi Allah dan rasul-Nya.</t>
+  </si>
+  <si>
+    <t>Sebelum masjid dibangun, Nabi shalat di kandang kambing.</t>
+  </si>
+  <si>
+    <t>Buanglah bangkai tikus itu ada apa yang ada di sekitarnya, lalu makanlah lemak kalian.</t>
+  </si>
+  <si>
+    <t>Buanglah bangkai tikus itu dan lemak yang ada di sekitarnya. Ma'n berkata, telah menceritakan kepada kami Malik -apa yang aku tidak bisa menghitungnya- ia berkata dari Ibnu 'Abbas dari Maimunah.</t>
+  </si>
+  <si>
+    <t>Setiap luka yang didapatkan seorang Muslim di jalan Allah, maka pada hari kiamat keadaannya seperti saat luka tersebut terjadi. Warnanya warna darah dan harumnya sewangi misik.</t>
+  </si>
+  <si>
+    <t>Kita adalah orang yang datang terakhir dan akan menjadi yang pertama pada hari kiamat.</t>
+  </si>
+  <si>
+    <t>Jangan sekali-kali salah seorang dari kalian kencing pada air yang tidak mengalir, lalu mandi darinya.</t>
+  </si>
+  <si>
+    <t>Ya Allah, aku serahkan (urusan) Quraisy kepada-Mu. Sebanyak tiga kali. Maka do'a tersebut membuat mereka ketakutan. 'Abdullah bin Mas'ud meneruskan, Sebab mereka yakin bahwa do'a yang dipanjatkan tempat itu akan diterima. Kemudian Nabi Shallallahu 'alaihi wa salam menyebut satu persatu nama-nama mereka: Ya Allah, aku serahkan (urusan) Abu Jahal kepada-Mu, 'Utbah bin Rabi'ah, Syaibah bin Rabi'ah, Al Walid bin 'Utbah, Umayyah bin Khalaf dan 'Uqbah bin Abu Mu'aith. Dan Nabi Shallallahu 'alaihi wa salam menyebut yang ke tujuh tapi aku lupa. 'Abdullah bin Mas'ud berkata, Sungguh aku melihat orang-orang yang disebut Nabi Shallallahu 'alaihi wa salam tersebut, terbantai di pinggiran lembah Badar (dalam perang Badar).</t>
+  </si>
+  <si>
+    <t>Nabi meludah di dalam kainnya. Abu 'Abdullah berkata, Hadits ini disebutkan secara panjang lebar oleh Ibnu Abu Maryam. Ia berkata, telah mengabarkan kepada kami Yahya bin Ayyub telah menceritakan kepadaku Humaid berkata, aku mendengar Anas dari Nabi .</t>
+  </si>
+  <si>
+    <t>Setiap minuman yang memabukkan adalah haram.</t>
+  </si>
+  <si>
+    <t>Pernah 'Ali datang membawa perisai berisi air, lalu Fatimah membersihkan darah yang ada di wajah beliau, lalu diambilnya tikar kemudian dibakar dan ditempelkan pada lukanya.</t>
+  </si>
+  <si>
+    <t>beliau sedang menggosok gigi dengan siwak di tangannya. Beliau mengeluarkan suara, U' U'. sementara kayu siwak berada di mulutnya seolah ingin muntah.</t>
+  </si>
+  <si>
+    <t>Jika Nabi bangun di malam hari, beliau membersihkan mulutnya dengan siwak.</t>
+  </si>
+  <si>
+    <t>ALLAHUMMA ASLAMTU WAJHII ILAIKA WA FAWWADLTU AMRII ILAIKA WA ALJA`TU ZHAHRII ILAIKA RAGHBATAN WA RAHBATAN ILAIKA LAA MALJA`A WA LAA MANJAA ILLAA ILAIKA ALLAHUMMA AAMANTU BIKITAABIKALLADZII ANZALTA WANNABIYYIKALLADZII ARSALTA (Ya Allah, aku pasrahkan wajahku kepada-Mu, aku serahkan urusanku kepada-Mu, aku sandarkan punggungku kepada-Mu dengan perasaan senang dan takut kepada-Mu. Tidak ada tempat berlindung dan menyelamatkan diri dari siksa-Mu melainkan kepada-Mu. Ya Allah, aku beriman kepada kitab-Mu yang Engkau turunkan dan kepada Nabi-Mu yang Engkau utus) '. Jika kamu meninggal pada malammu itu, maka kamu dalam keadaan fitrah dan jadikanlah do'a ini sebagai akhir kalimat yang kamu ucapkan. Al Bara' bin 'Azib berkata, Maka aku ulang-ulang do'a tersebut di hadapan Nabi hingga sampai pada kalimat: ALLAHUMMA AAMANTU BIKITAABIKALLADZII ANZALTA (Ya Allah, aku beriman kepada kitab-Mu yang Engkau turunkan), aku ucapkan: WA RASUULIKA (dan rasul-Mu), beliau bersabda: Jangan, tetapi WANNABIYYIKALLADZII ARSALTA (dan kepada Nabi-Mu yang Engkau utus).</t>
+  </si>
+  <si>
+    <t>jika Nabi mandi karena janabat, beliau memulainya dengan mencuci kedua telapak tangannya, kemudian berwudlu sebagaimana wudlu untuk shalat, kemudian memasukkan jari-jarinya ke dalam air lalu menggosokkannya ke kulit kepalanya, kemudian menyiramkan air ke atas kepalanya dengan cidukan kedua telapak tangannya sebanyak tiga kali, kemudian beliau mengalirkan air ke seluruh kulitnya.</t>
+  </si>
+  <si>
+    <t>Nabi berwudlu sebagaimana wudlunya untuk shalat, kecuali kedua kakinya. Beliau lalu mencuci kemaluan dan apa yang terkena kotoran (mani), kemudian menyiramkan air ke atasnya, kemudian mengakhirinya dengan menyela dan mencuci kedua kakinya. Itulah cara beliau mandi dari janabat.</t>
+  </si>
+  <si>
+    <t>Aku pernah mandi bersama Nabi dari satu ember terbuat dari tembikar yang disebut Al Faraq.</t>
+  </si>
+  <si>
+    <t>Aisyah lalu minta diambilkan satu bejana air setara dengan ukuran satu sha'. Kemudian mandi dan menuangkan air ke atas kepalanya, sementara antara kami dengannya terhalang oleh hijab. Abu 'Abdullah berkata, Yazid bin Harun dan Bahz dan Al Juddi menyebutkan dari Syu'bah, Sekadar satu sha'.</t>
+  </si>
+  <si>
+    <t>Seukuran itu cukup buat orang yang lebih lebat rambutnya darimu, dan yang lebih baik darimu.</t>
+  </si>
+  <si>
+    <t>mandi bersama dari satu ember. Abu 'Abdullah berkata, Terakhir Ibnu 'Uyainah meriwayatkan dari Ibnu Abbas dari Maimunah, padahal yang benar adalah apa yang diriwayatkan oleh Abu Nu'aim.</t>
+  </si>
+  <si>
+    <t>Aku menyiram kepalaku sebanyak tiga kali. Beliau memberi isyarat dengan kedua telapak tangannya.</t>
+  </si>
+  <si>
+    <t>mengguyurkan air ke atas kepala sebanyak tiga kali.</t>
+  </si>
+  <si>
+    <t>mengambil air dengan tiga ciduk telapak tangannya lalu menyiramkannya ke atas kepalanya, kemudian menyiramkan ke seluruh tubuh. Al Hasan lalu berkata kepadaku, Aku adalah seorang laki-laki yang rambutnya lebat! Aku lalu menjawab, Nabi rambutnya lebih lebah dari rambutmu.</t>
+  </si>
+  <si>
+    <t>beliau mencuci kedua telapak tangannya dua atau tiga kali. Kemudian beliau menuangkan air ke telapak tangan kirinya dan membasuh kemaluannya, kemudian beliau usapkan tangannya ke tanah, kemudian berkumur dan memasukkan air ke dalam hidung, lalu membasuh wajah dan kedua tangannya. kemudian beliau mengguyur seluruh tubuhnya. Setelah itu beliau bergeser dari tempatnya semula, lalu mencuci kedua kakinya.</t>
+  </si>
+  <si>
+    <t>Jika Nabi mandi janabat, beliau minta diambilkan bejana sebesar bejana yang digunakan untuk memerah susu. Beliau lalu mengambil air dengan telapak tangannya dan mengguyurkannya dimulai dari sisi sebelah kanan lalu sebelah kiri. Kemudian menuangkan dengan keduanya pada bagian tengah kepala.</t>
+  </si>
+  <si>
+    <t>Aku menuangkan air untuk mandi Nabi , lalu dengan tangan kanannya beliau menuangkan air pada tangan kirinya lalu membasuh keduanya. Kemudian mencuci kemaluannya, lalu menyentuhkan tangannya ke bumi dan mengusapnya dengan tanah, lalu mencucinya dengan air. Kemudian berkumur-kumur dan memasukkan air ke hidung, kemudian membasuh muka dan menyiramkan air ke atas kepalanya. Kemudian beliau bergeser untuk mencuci kedua telapak kakinya. Setelahitu beliau diberi handuk, tapi beliau tidak mengeringkan badannya dengan handuk tersebut.</t>
+  </si>
+  <si>
+    <t>Nabi mandi janabat, beliau lalu mencuci kemaluannya dengan tangan, lalu beliau menyentuhkan tangannya ke dinding, lalu mencucinya dengan air. Kemudian berwudlu sebagaimana wudlu untuk shalat, selesai mandi beliau mencuci kedua kakinya.</t>
+  </si>
+  <si>
+    <t>Aku pernah mandi bersama Nabi dari satu bejana, dan tangan kami saling bersentuhan.</t>
+  </si>
+  <si>
+    <t>Jika Nabi mandi janabat beliau membasuh tangannya.</t>
+  </si>
+  <si>
+    <t>Aku pernah mandi junub bersama Nabi dalam satu bejana. Dan dari 'Abdurrahman bin Al Qasim dari Bapaknya dari 'Aisyah seperti itu.</t>
+  </si>
+  <si>
+    <t>Nabi dan salah seorang dari isterinya mandi dalam satu bejana. Muslim dan Wahb bin Jarir dari Syu'bah menambahkan, Karena junub.</t>
+  </si>
+  <si>
+    <t>Aku menyediakan air mandi untuk Rasulullah , beliau lalu menuangkan air pada kedua tangannya dan mencuci keduanya dua kali dua kali atau tiga kali. Lalu dengan tangan kanannya beliau menuangkan air pada telapak tangan kirinya lalu mencuci kemaluannya, setelah itu menyentuhkan tangannya ke tanah. Kemudian berkumur-kumur dan memasukkan air ke hidung. Kemudian membasuh muka dan kedua tangannya, lalu membasuh kepalanya tiga kali dan mengguyur seluruh badannya. Setelah itu beliau bergeser dari posisi semula lalu mencuci kedua telapak kakinya.</t>
+  </si>
+  <si>
+    <t>Aku menyediakan air untuk Rasulullah untuk mandi, dan aku menutupinya. Maka Beliau menuangkan air dengan telapak tangan kanannya lalu mencuci keduanya satu atau dua kali. Lalu menuangkan air dengan telapak tangan kanannya ke atas telapak tangan kirinya kemudian mencuci kemaluannya lalu menyentuhkan tangannya ke tanah. Kemudian berkumur-kumur dan memasukkan air ke hidung. Kemudian membasuh mukanya dan kedua tangannya dan membasuh kepalanya tiga kali kemudian mengguyur seluruh badannya. Kemudian di akhirnya Beliau bergeser dari posisi semula lalu mencuci kedua telapak kakinya.</t>
+  </si>
+  <si>
+    <t>Sungguh aku pernah memakaikan wewangian kepada Rasulullah kemudian Beliau mendatangi isteri-isterinya. Dan pada pagi harinya Beliau mengenakan pakain ihram dalam keadaan wangi semerbak</t>
+  </si>
+  <si>
+    <t>Adalah Nabi . mendatangi isterinya pada waktu yang sama di malam hari atau siang hari, saat itu jumlah isteri-isteri Beliau sebelas orang. Aku bertanya kepada Anas bin Malik RA: Apakah Beliau mampu?. Jawabnya: Beliau diberikan kekuatan setara tiga puluh lelaki. Berkata, Sa'id dari Qatadah bahwa Anas RA menerangkan kepada mereka bahwa jumlah isteri-isteri Beliau . saat itu sembilan orang.</t>
+  </si>
+  <si>
+    <t>Baginya wudlu' dan mencuci kemaluannya.</t>
+  </si>
+  <si>
+    <t>Sungguh aku pernah memberikan wewangian kepada Rasulullah . lalu Beliau mendatangi isteri-isterinya. Kemudian Beliau mengenakan pakain ihram</t>
+  </si>
+  <si>
+    <t>Seakan aku melihat kilauan wewangian dari rambut Nabi saat Beliau sedang berihram.</t>
+  </si>
+  <si>
+    <t>jika mandi janabat, mencuci tangannya dan berwudlu' sebagaimana wudlu' untuk shalat. Kemudian mandi dengan menggosok-gosokkan tangannya ke rambut kepalanya hingga bila telah yakin merata mengenai dasar kulit kepalanya Beliau mengguyurkan air ke atasnya tiga kali. Lalu membasuh seluruh badannya. 'Aisyah RA berkata,: Aku pernah mandi bersama Rasulullah . dari satu bejana dimana kami saling mengambil (menciduk) air bersamaan.</t>
+  </si>
+  <si>
+    <t>Rasulullah . mengambil seember air untuk mandi janabat. Beliau menuangkan dengan telapak tangan kanannya ke atas telapak tangan kirinya lalu mencucinya dua kali atau tiga kali. Lalu mencuci kemaluannya lalu memukulkan tangannya ke tanah atau dinding dua kali atau tiga kali. Kemudian berkumur-kumur dan memasukkan air ke hidung lalu mencuci wajahnyaKemudian berkumur-kumur dan memasukkan air ke hidung lalu mencuci wajahnya dan kedua lengannya. Kemudian mengguyurkan air ke atas kepalanya lalu membasuh badannya dan mengakhirinya dengan membasuh kedua telapak kakinya. 'Aisyah RA berkata,: Maka aku berikan potongan kain tapi Beliau tidak memerlukannya, dan Beliau mengeringkan membersihkan air dari) badannya dengan tangannya.</t>
+  </si>
+  <si>
+    <t>tetaplah di tempat kalian. Maka Beliau kembali lalu mandi. Kemudian datang dalam keadaan kapalanya basah. Lalu Beliau bertakbir, maka kamipun shalat bersamanya. Hadits ini juga diriwayatkan oleh Abdul A'laa dari Ma'mar dari Az-Zuhry dan diriwayatkan juga oleh Al Auza'i dari Az-Zuhry.</t>
+  </si>
+  <si>
+    <t>Aku memberi air untuk mandi kepada Nabi . lalu aku tutupi Beliau dengan kain. Maka Beliau menuangkan air ke tangannya lalu mencuci keduanya. Kemudian menuangkan air dengan tangan kanannya ke tangan kirinya lalu mencuci kemaluannya, lalu tangannya dipukulkannya ke tanah kemudian mengusapnya lalu mencucinya. Kemudian berkumur-kumur dan memasukkan air ke hidung. Kemudian membasuh mukanya dan kedua lengannya lalu mengguyur kepalanya lalu menyiram seluruh badannya dan diakhiri dengan mencuci kedu telapak kaikinya. Lalu aku sodorkan kain (sebagai pengering) tapi Beliau tidak mengambilnya, lalu Beliau pergi dengan mengeringkan air dari badannya dengan tangannya.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kami mengalami haid, maka ia mengambil air dengan kedua tangannya dan disiramkan ke atas kepala, lalu mengambil air dengan tangannya dan disiramkan ke bagian badan sebelah kanan, lalu kembali mengambil air dengan tangannya yang lain dan menyiramkannya ke bagian badan sebelah kiri.</t>
+  </si>
+  <si>
+    <t>Orang-orang bani Israil jika mandi maka mereka mandi dengan telanjang, hingga sebagian melihat sebagian yang lainnya. Sedangkan Nabi Musa 'Alaihis Salam lebih suka mandi sendirian. Maka mereka pun berkata, Demi Allah, tidak ada menghalangi Musa untuk mandi bersama kita kecuali karena ia adalah seorang laki-laki yang kemaluannya kena hernia. Lalu pada suatu saat Musa pergi mandi dan meletakkan pakaiannya pada sebuah batu, lalu batu tersebut lari dengan membawa pakaiannya. Maka Musa lari mengejar batu tersebut sambil berkata 'Wahai batu, kembalikan pakaianku! ' sehingga orang-orang bani Israil melihat Musa. Mereka lalu berkata, 'Demi Allah, pada diri Musa tidak ada yang ganjil.' Musa kemudian mengambil pakaiannya dan memukul batu tersebut dengan satu pukulan. Abu Hurairah berkata, Demi Allah, sungguh pada batu tersebut terdapat bekas pukulan enam atau tujuh akibat pukulannya.</t>
+  </si>
+  <si>
+    <t>bukankah aku sudah memberimu kecukupan sebagaimana kau lihat? ' Ayyub menjawab, 'Benar, dan demi segala kemuliaan-Mu. Tetapi aku tidak pernah merasa puas dari limpahan barakah-Mu'. Ibrahim juga meriwayatkan dari Musa bin 'Uqbah dari Shafwan bin Sulaim dari 'Atha' bin Yasar dari Abu Hurairah dari Nabi , beliau bersabda: Ketika Ayyub mandi dalam keadaan telanjang.</t>
+  </si>
+  <si>
+    <t>beliau sedang mandi dan Fatimah menutupinya. Beliau lalu bertanya: Siapa ini? Aku menjawab, Ummu Hani'.</t>
+  </si>
+  <si>
+    <t>Aku menutupi Nabi saat beliau sedang mandi junub. Beliau mencuci kedua tangannya, lalu dengan tangan kanannya beliau menuangkan air pada tangan kirinya, lalu mencuci kemaluannya dan apa yang terkena (mani). Beliau kemudian menggosokkan tangannya ke dinding atau tanah. Kemudian berwudlu sebagaimana wudlu untuk shalat kecuali kedua kakinya. Kemudian beliau mengguyurkan air ke seluruh badannya. Kemudian menyudahi dengan mencuci kedua kakinya. Hadits ini dikuatkan oleh Abu 'Awanah dan Ibnu Fudlail dalam masalah tabir (penutup).</t>
+  </si>
+  <si>
+    <t>Ya. Jika dia melihat air.</t>
+  </si>
+  <si>
+    <t>Subhaanallah! Sesungguhnya seorang Muslim itu tidak itu najis.</t>
+  </si>
+  <si>
+    <t>menggilir semua isterinya dalam satu malam, padahal saat itu isteri beliau ada sembilan orang.</t>
+  </si>
+  <si>
+    <t>Subhaanallah! Wahai Abu Hurairah, seorang Muslim itu tidaklah najis.</t>
+  </si>
+  <si>
+    <t>Apakah Nabi tidur dalam keadaan junub? 'Aisyah menjawab, Ya, setelah berwudlu.</t>
+  </si>
+  <si>
+    <t>Ya. Jika salah seorang dari kalian berwudlu, maka hendaklah ia tidur meskipun dalam keadaan junub.</t>
+  </si>
+  <si>
+    <t>Jika Nabi hendak tidur saat dirinya dalam kondisi junub, maka beliau membasuh kemaluannya dan berwudlu sebagaimana wudlu untuk shalat.</t>
+  </si>
+  <si>
+    <t>Apakah salah seorang dari kami boleh tidur saat junub? Beliau menjawab: Ya. Jika ia berwudlu.</t>
+  </si>
+  <si>
+    <t>Wudlu dan cucilah kemaluanmu, kemudian tidurlah.</t>
+  </si>
+  <si>
+    <t>Jika seseorang duduk di antara empat anggota badannya, lalu bersungguh-sungguh kepadanya, maka wajib banginya mandi. Hadits ini dikuatkan oleh 'Amru bin Marzuq dari Syu'bah seperti hadits tersebut. Dan Musa berkata, telah menceritakan kepada kami Aban berkata, telah menceritakan kepada kami Qatadah telah mengabarkan kepada kami Al Hasan seperti hadits tersebut.</t>
+  </si>
+  <si>
+    <t>Hendaknya ia berwudlu sebagaimana wudlu untuk shalat, lalu mencuci kemaluannya. 'Utsman lalu melanjutkan ucapannya, Aku mendengarnya dari Rasulullah , dan aku juga pernah bertanya kepada 'Ali bin Abu Thalib, Az-Zubair bin Al 'Awam, Thalhah bin 'Ubaidullah dan Ubay bin Ka'b? . Mereka semua memerintahkan seperti itu. Yahya berkata, telah mengabarkan kepadaku Abu Salamah bahwa 'Urwah bin Az Zubair mengabarkan kepadanya, bahwa Abu Ayyub mengabarkan kepadanya, bahwa ia mendengar seperti itu dari Rasulullah .</t>
+  </si>
+  <si>
+    <t>Hendaklah ia cuci apa yang mengenai isterinya (kemaluan), lalu wudlu dan shalat. Abu 'Abdullah Al Bukhari berkata, Mandi adalah sikap yang lebih berhati-hati. Inilah akhir dari penjelasan bab ini, dan kami telah menerangkan perbedaan pendapat mereka (para imam).</t>
+  </si>
+  <si>
+    <t>Sesungguhnya ini adalah perkara yang telah Allah tetapkan bagi kaum wanita dari anak cucu Adam. Lakukanlah apa yang dilakukan oleh orang-orang yang haji, kecuali thawaf di Ka'bah. 'Aisyah berkata, Kemudian Rasulullah berkurban dengan menyembelih seekor sapi yang diniatkan untuk semua isterinya.</t>
+  </si>
+  <si>
+    <t>Aku pernah menyisir rambut Rasulullah , sementara saat itu aku sedang haid.</t>
+  </si>
+  <si>
+    <t>pernah menyisir rambut kepala Nabi dalam keadaan haid. Saat itu Rasulullah berada di sisi masjid, beliau mendekatkan kepalanya kepada Aisyah yang berada di dalam kamar dan dalam keadaan haid untuk menyisir rambut kepalanya.</t>
+  </si>
+  <si>
+    <t>menyandarkan badannya di pangkuanku membaca Al-Qur'an, padahal saat itu aku sedang haid.</t>
+  </si>
+  <si>
+    <t>Apakah kamu sedang haid? Aku jawab, Ya. Beliau lalu memanggilku, maka aku pun berbaring bersama beliau dalam kain tebal.</t>
+  </si>
+  <si>
+    <t>Aku dan Nabi pernah mandi bersama dari satu bejana. Saat itu kami berdua sedang junub. Beliau juga pernah memerintahkan aku mengenakan kain, lalu beliau mencumbuiku sementara aku sedang haid. Beliau juga pernah mendekatkan kepalanya kepadaku saat beliau i'tikaf, aku lalu basuh kepalanya padahal saat itu aku sedang haid.</t>
+  </si>
+  <si>
+    <t>beliau memerintahkan untuk mengenakan kain, lalu beliau pun mencumbuinya. 'Aisyah berkata, Padahal, siapakah di antara kalian yang mampu menahan hasratnya sebagaimana Rasulullah menahan. Hadits ini dikuatkan oleh Khalid dan Jarir dari Asy Syaibani.</t>
+  </si>
+  <si>
+    <t>Jika Rasulullah ingin mencumbu salah seorang dari isterinya, beliau memerintahkannya untuk mengenakan sarung. Maka ia pun mengenakan sarung, sementara ia sedang haid. Sufan juga meriwayatkannya dari Asy Syaibani.</t>
+  </si>
+  <si>
+    <t>Hendaklah kalian bersedekahlah, sebab diperlihatkan kepadaku bahwa kalian adalah yang paling banyak menghuni neraka. Kami bertanya, Apa sebabnya wahai Rasulullah? beliau menjawab: Kalian banyak melaknat dan banyak mengingkari pemberian suami. Dan aku tidak pernah melihat dari tulang laki-laki yang akalnya lebih cepat hilang dan lemah agamanya selain kalian. Kami bertanya lagi, Wahai Rasulullah, apa tanda dari kurangnya akal dan lemahnya agama? Beliau menjawab: Bukankah persaksian seorang wanita setengah dari persaksian laki-laki? Kami jawab, Benar. Beliau berkata lagi: Itulah kekurangan akalnya. Dan bukankah seorang wanita bila dia sedang haid dia tidak shalat dan puasa? Kami jawab, Benar. Beliau berkata: Itulah kekurangan agamanya.</t>
+  </si>
+  <si>
+    <t>Yang demikian itu adalah perkara yang sudah Allah tetapkan buat puteri-puteri keturunan Adam. Maka lakukanlah apa yang dilakukan orang yang berhaji kecuali thawaf di Ka'bah hingga kamu suci.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya itu adalah darah penyakit dan bukan darah haid. Jika haid kamu datang maka tingalkanlah shalat, dan jika telah berlalu masa-masa haid, maka bersihkanlah darah darimu lalu shalatlah.</t>
+  </si>
+  <si>
+    <t>Jika darah haid mengenai pakaian seorang dari kalian, maka hendaklah ia bersihkan darah yang mengenainya, lalu hendaklah ia percikkan air padanya, kemudian hendaklah ia shalat dengannya.</t>
+  </si>
+  <si>
+    <t>Salah seorang dari kami mengalami haid, kemudian saat telah suci darah tersebut ia bersihkan, kemudian kain tersebut ia cuci dan bersihkan, kemudian ia shalat dengan menggunakan kain tersebut.</t>
+  </si>
+  <si>
+    <t>Nabi pernah beri'tikaf bersama dengan sebagian isteri-isterinya, sementara saat itu ia sedang mengalami istihadlah dan bisa melihat adanya darah (yang keluar). Dan kadang diletakkan sebuah baskom di bawahnya lantaran darah tersebut. Dan Ikrimah mengklaim bahwa 'Aisyah melihat cairan berwarna kekuningan, lalu ia berkata, Seakan ini adalah sesuatu yang pernah dialami oleh fulanah.</t>
+  </si>
+  <si>
+    <t>Nabi pernah beri'tikaf bersama salah seorang dari isterinya. Ia melihat ada darah dan cairan berwarna kekuningan, lalu di bawahnya diletakkan baskom sementara ia tetap mengerjakan shalat.</t>
+  </si>
+  <si>
+    <t>Sebagian Ummul Mukminin melakukan iktikaf sementara mereka mengeluarkan darah istihadlah.</t>
+  </si>
+  <si>
+    <t>Tidaklah ada seorang dari kami kecuali memiliki satu baju yang saat mengalami haid. Jika baju tersebut terkena darah haid, ia dia basahi dengan air ludahnya lalu membersihkanya dengan kukunya.</t>
+  </si>
+  <si>
+    <t>Kami dilarang berkabung atas kematian di atas tiga hari kecuali atas kematian suami, yaitu selama empat bulan sepuluh hari. Selama masa itu dia tidak boleh bersolek, memakai wewangian, memakai pakaian yang berwarna kecuali pakaian lurik (dari negeri Yaman). Dan kami diberi keringanan bila hendak mandi seusai haid untuk menggunakan sebatang kayu wangi. Dan kami juga dilarang mengantar jenazah. Abu 'Abdullah berkata, Hisyam bin Hassan meriwayatkan dari Hafshah dari Ummu 'Athiyah dari Nabi .</t>
+  </si>
+  <si>
+    <t>Ambillah sepotong kapas yang diberi wewangian lalu bersucilah. Wanita itu bertanya, Bagaimana aku bersucinya? Beliau menjawab: Bersucilah dengan kapas itu! Wanita itu berkata lagi, Bagaimana caranya aku bersuci? Beliau bersabda: Bersucilah dengan menggunakan kapas itu! Wanita itu bertanya lagi, Bagaimana caranya? Maka Beliau berkata, Subhaanallah. Bersucilah kamu! Lalu aku manarik wanita itu kearahku, lalu aku katakan, Kamu bersihkan sisa darahnya dengan kapas itu.</t>
+  </si>
+  <si>
+    <t>Ambillah sepotong kapas yang diberi wewangian lalu bersihkanlah tiga kali. Kemudian Nabi merasa malu lalu memalingkan mukanya, atau beliau mengatakan: Berwudlulah dengan kapas itu. Aku lalu tarik wanita itu dan aku terangkan apa yang dimaksud oleh Nabi .</t>
+  </si>
+  <si>
+    <t>Urai dan sisirlah rambut kepalamu, lalu tahanlah Umrahmu. Aku lalu laksanakan hal itu. Setelah aku menyelesaikan haji, beliau memerintahkan 'Abdurrahman pada malam hashbah (Malam di Muzdalifah) untuk melakukan Umrah buatku dari Tan'im, tempat dimana aku mulai melakukan manasikku.</t>
+  </si>
+  <si>
+    <t>Siapa yang ingin memulai haji dengan Umrah hendaklah ia lakukan. Sekiranya aku tidak membawa hewan sembelihan, aku lebih suka melakukan Umrah lebih dahulu. Maka sebagian para sahabat ada yang memulai dengan Umrah dan ada yang memulai dengan haji. Sedang aku termasuk di antara yang mulai dengan Umrah. Maka ketika hari Arafah aku mengalami haid, aku lalu mengadukan hal itu kepada Nabi , beliau lalu bersabda: Tinggalkanlah Umrahmu. Uraikan rambut kepalamu lalu sisirlah, kemudian mulailah talbiah dengan haji. Maka aku pun laksanakan perintah beliau, hingga ketika tiba malam Hashbah (Malam di Muzdalifah), beliau memerintahkan 'Abdurrahman bin Abu Bakar untuk menemaniku. Maka aku keluar menuju Tan'im, lalu bertalbiah dengan Umrah sebagai ganti Umrahku sebelumnya. Hisyam berkata, Dan dalam hal itu tidak ada denda baik berupa hadyu (menyembelih), puasa atau pun sedekah.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya Allah Ta'ala menugaskan satu Malaikat dalam rahim seseorang. Malaikat itu berkata, 'Ya Rabb, (sekarang baru) sperma. Ya Rabb, segumpal darah!, Ya Rabb, segumpal daging! ' Maka apabila Allah berkehendak menetapkan ciptaan-Nya, Malaikat itu bertanya, 'Apakah laki-laki atau wanita, celaka atau bahagia, bagaimana dengan rizki dan ajalnya? ' Maka ditetapkanlah ketentuan takdirnya selagi berada dalam perut ibunya.</t>
+  </si>
+  <si>
+    <t>Barangsiapa berihram dengan Umrah dan tidak membawa sembelihan, maka hendaklah dia bertahallul. Dan barangsiapa berihram dengan Umrah dan membawa sembelihan, maka janganlah bertahallul kecuali setelah menyembelih hewan pada hari Nahr (hari penyembelihan). Dan barangsiapa bertalbiah (memulai) dengan haji, hendaklah menyempurnakan hajinya. 'Aisyah berkata, Kemudian aku mengalami haid dan terus terjadi hingga hari 'Arafah, dan aku tidak bertalbiah kecuali dengan Umrah. Maka Nabi memerintahkan aku untuk menguraikan (rambut) kepalaku dan menyisirnya, lalu bertalbiah dengan haji dan meninggalkan Umrah. Maka aku laksanakan hingga aku merampungkan hajiku. Kemudian beliau mengutus saudaraku, 'Abdurrahman bin Abu Bakar untuk menemaniku dan memerintahkan aku agar aku berumrah dari Tan'im sebagai ganti Umrahku sebelumnya.</t>
+  </si>
+  <si>
+    <t>Itu seperti keringat dan bukan darah haid. Jika haid datang maka tinggalkanlah shalat dan jika telah selesai mandilah dan shalatlah.</t>
+  </si>
+  <si>
+    <t>Apakah kamu dari kelompok Khawarij! Sungguh kami pernah mengalami haid di sisi Nabi , dan beliau tidak memerintahkan kami untuk itu. Atau Aisyah mengatakan, Kami tidak melakukannya (mengqadla`).</t>
+  </si>
+  <si>
+    <t>kamu sedang haid? Aku jawab, Ya. Beliau lalu memanggil dan mengajakku masuk ke dalam selimut. Zainab berkata, Ummu Salamah menceritakan kepadaku bahwa Nabi juga menciumnya saat beliau sedang berpuasa. Ummu Salam berkata, Aku pernah mandi junub dalam satu bejana bersama Nabi .</t>
+  </si>
+  <si>
+    <t>Apakah kamu sedang haid? Aku jawab, Ya. Beliau lalu memanggilku, maka aku pun berbaring bersamanya dalam satu selimut.</t>
+  </si>
+  <si>
+    <t>Hendaklah kawannya memakaikan jilbab miliknya untuknya (meminjamkan) agar mereka dapat menyaksikan kebaikan dan mendo'akan Kaum Muslimin. Ketika Ummu 'Athiyah tiba aku bertanya kepadanya, Apakah kamu mendengar langsung dari Nabi ? Ummu 'Athiyah menjawab, Ya. Demi bapakku! Ummu 'Athiyah tidak mengatakan tentang Nabi kecuali hanya mengatakan 'Demi bapakku, aku mendengar beliau bersabda: Hendaklah para gadis remaja dan wanita-wanita yang dipingit di rumah, dan wanita yang sedang haid ikut menyaksikan kebaikan dan mendo'akan Kaum Muslimin, dan wanita-wanita haid menjauh dari tempat shalat. Hafshah, Aku katakan, Wanita haid? Wanita itu menjawab, Bukankah mereka juga hadir di 'Arafah, begini dan begini?</t>
+  </si>
+  <si>
+    <t>Jangan, karena itu hanyalah darah penyakit seperti keringat. Tinggalkanlah shalat selama masa haidmu, setelah itu mandi dan kerjakanlah shalat.</t>
+  </si>
+  <si>
+    <t>Kami tidak menganggap warna keruh dan kekuningan sebagai sesuatu dari haid.</t>
+  </si>
+  <si>
+    <t>Ini seperti keringat (darah penyakit). Maka Ummu Habibah selalu mandi untuk setiap kali shalat.</t>
+  </si>
+  <si>
+    <t>Jangan-jangan dia menyusahkan kita! Apakah dia thawaf bersama kalian? Mereka menjawab, Ya. Beliau lalu bersabda (kepada Shafiyyah): Ikutlah keluar.</t>
+  </si>
+  <si>
+    <t>Wanita yang haid diberi keringanan untuk nafar (meninggalkan Mina), dan pada mulanya Ibnu Umar melarang hal itu, namun kemudian aku mendengar ia mengatakan, 'Wanita haid boleh nafar karena Rasulullah telah memberi keringanan buat mereka.</t>
+  </si>
+  <si>
+    <t>Jika datang haid maka tinggalkanlah shalat, dan bila telah berakhir maka bersihkanlah darah darimu lalu shalatlah.</t>
+  </si>
+  <si>
+    <t>seorang wanita yang meninggal dunia karena hamil. Maka Nabi menshalatinya dan beliau berdiri di bagian tengah (jenazah) nya.</t>
+  </si>
+  <si>
+    <t>sedang shalat di atas tikar (kecil) nya, jika sujud beliau maka sebagian kainnya mengenaiku.</t>
+  </si>
+  <si>
+    <t>Kami keluar bersama Rasulullah Shallallahu 'alaihi wa salam dalam salah satu perjalanan yang dilakukannya. Hingga ketika kami sampai di Baida', atau tempat peristirahatan pasukan, aku kehilangan kalungku. Maka Nabi Shallallahu 'alaihi wa salam dan para sahabatnya mencarinya sementara mereka tidak berada dekat air. Orang-orang lalu datang kepada Abu Bakar Ash Shidiq seraya berkata, 'Tidakkah kamu perhatikan apa yang telah diperbuat oleh 'Aisyah? Dia telah membuat Rasulullah Shallallahu 'alaihi wa salam dan orang-orang tertahan (dari melanjutkan perjalanan) padahal mereka tidak sedang berada dekat air dan mereka juga tidak memiliki air! ' Lalu Abu Bakar datang sedangkan saat itu Rasulullah Shallallahu 'alaihi wa salam meletakkan kepalanya di pahaku. Abu Bakar lalu memarahiku dan mengatakan sebagaimana yang dikehendaki Allah untuk (Abu Bakar) mengatakannya. Ia menusuk lambungku, dan tidak ada yang menghalangiku untuk bergerak (karena rasa sakit) kecuali karena keberadaan Rasulullah yang di pahaku. Kemudian Rasulullah Shallallahu 'alaihi wa salam bangun di waktu subuh dalam keadaan tidak memiliki air. Allah Ta'ala kemudian menurunkan ayat tayamum, maka orang-orang pun bertayamum. Usaid bin al Hudlair lalu berkata, Tidaklah Aisyah kecuali awal dari keberkahan keluarga kamu wahai wahai Abu Bakar! 'Aisyah berkata, Kemudian unta yang aku tunggangi berdiri yang ternyata kami temukan kalungku berada dibawahnya.</t>
+  </si>
+  <si>
+    <t>Aku diberikan lima perkara yang tidak diberikan kepada orang sebelumku; aku ditolong melawan musuhku dengan ketakutan mereka sejauh satu bulan perjalanan, dijadikan bumi untukku sebagai tempat sujud dan suci. Maka dimana saja salah seorang dari umatku mendapati waktu shalat hendaklah ia shalat, dihalalkan untukku harta rampasan perang yang tidak pernah dihalalkan untuk orang sebelumku, aku diberikan (hak) syafa'at, dan para Nabi sebelumku diutus khusus untuk kaumnya sedangkan aku diutus untuk seluruh manusia.</t>
+  </si>
+  <si>
+    <t>Rasulullah mengutus seseorang untuk mencarinya hingga kalung itu pun ditemukan. Lalu datanglah waktu shalat sementara mereka tidak memiliki air, namun mereka tetap melaksanakannya. Setelah itu mereka mengadukan peristiwa itu kepada Rasulullah , hingga turunlah ayat tayamum. Usaid bin Al Hudlair lalu berkata kepada 'Aisyah, Semoga Allah membalasmu dengan segala kebaikan. Sungguh demi Allah, tidaklah terjadi suatu peristiwa menimpa anda yang anda tidak sukai kecuali Allah menjadikannya untuk anda dan Kaum Muslimin sebagai kebaikan.</t>
+  </si>
+  <si>
+    <t>namun beliau tidak membalasnya. Beliau kemudian menghadap ke arah dinding, lalu mengusap muka dan kedua telapak tangannya. baru kemudian membalas salam kepada orang itu.</t>
+  </si>
+  <si>
+    <t>Sebenarnya cukup kamu melakukan begini. Beliau lalu memukulkan telapak tangannya ke tanah dan meniupnya, lalu mengusapkannya ke muka dan kedua telapak tangannya.</t>
+  </si>
+  <si>
+    <t>lalu mendekatkannya kepada mulutnya kemudian mengusapkannya ke mukanya dan kedua telapak tangannya. Dan telah berkata An Nadlar telah mengabarkan kepada kami Syu'bah dari Al Hakam dia berkata; saya mendengar Dzarr berkata; dari Ibnu Abdurrahman bin Abzaa, berkata Al Hakam; dan aku telah mendengarnya dari Ibnu Abdurrahman dari ayahnya berkata; Ammar berkata;.</t>
+  </si>
+  <si>
+    <t>Kami sedang dalam perjalanan, kemudian kami junub? dia menjawab, Hendaknya bertayamum.</t>
+  </si>
+  <si>
+    <t>Cukup bagimu (mengusap debu) pada muka dan kedua telapak tangan. Telah menceritakan kepada kami Muslim telah menceritakan kepada kami Syu'bah dari Al Hakam dari Dzar dari Ibnu 'Abdurrahman dari 'Abdurrahman bin Abza ia berkata, Aku melihat Umar ketika Ammar bertanya kepadanyaâ€¦.lalu ia menyebutkan hadits.</t>
+  </si>
+  <si>
+    <t>Nabi memukulkan telapak tangannya ke tanah lalu mengusapkan pada muka dan kedua telapak tangannya.</t>
+  </si>
+  <si>
+    <t>Kamu cukup menggunakan debu. Kemudian Nabi Shallallahu 'alaihi wa salam melanjutkan perjalanan hingga akhirnya orang-orang mengadu kepada beliau bahwa mereka kehausan. Maka Nabi Shallallahu 'alaihi wa salam meminta seseorang yang bernama Abu Raja' -namun 'Auf lupa- dan 'Ali seraya memerintahkan keduanya: Pergilah kalian berdua dan carilah air. Maka keduanya berangkat hingga berjumpa dengan seorang wanita yang membawa kantung-kantung berisi air dengan untanya. Maka keduanya bertanya kepadanya, Dimana ada air? Wanita itu menjawab, Terakhir aku lihat air di (daerah) ini adalah waktu sekarang ini. dan perjalanan kami ini juga dalam rangka mencari air. Lalu keduanya berkata, Kalau begitu pergilah. Wanita itu bertanya, Kalian mau kemana? Keduanya menjawab, Menemui Rasulullah Shallallahu 'alaihi wa salam. Wanita itu bertanya, Kepada orang yang dianggap telah keluar dari agama (Shabi'i)? Keduanya menjawab, Ya dialah yang kamu maksud. Kemudian kedua sahabat Nabi itu pergi bersama wanita tersebut menemui Nabi Shallallahu 'alaihi wa salam. Keduanya kemudian menceritakan peritiwa yang baru saja dialami. Nabi Shallallahu 'alaihi wa salam lalu bersabda: Turunkanlah dia dari untanya. Kemudian Nabi Shallallahu 'alaihi wa salam meminta bejana air, beliau lalu menuangkan di mulut kantung-kantung air (milik wanita itu), beliau lepas ikatan kantung-kantung air tersebut seraya berseru kepada orang banyak: Ambillah air dan minumlah sesuka kalian! Maka orang-orang memberi minum (tunggangan mereka) dan meminum sesuka mereka. Dan akhir, beliau memberi seember air kepada orang yang tadi terkena janabah. Beliau lalu berkata kepadanya: Pergi dan mandilah. Dans ambil berdiri wanita tersebut mengamati apa yang diperbuat terhadap air kepunyaannya. Demi Allah, kejadian tadi telah membuatnya terperanjat dan juga kami, kami saksikan airnya bertambah banyak dibanding saat yang pertama. Nabi Shallallahu 'alaihi wa salam lalu bersabda: Berkumpulkan (makanan) untuknya. Maka orang-orang pun mengumpulkan makanan berupa kurma, tepung, sawiq (campuran antara susu dengan tepung) untuk wanita tersebut. makanan tersebut kemudian dimasukkan ke dalam kain, mereka menaikkan wanita tersebut di atas kendaraan dan meletakkan makanan tersebut di depannya. Kemudian Nabi Shallallahu 'alaihi wa salam berkata kepada wanita tersebut: Kamu mengetahui bahwa kami tidak mengurangi sedikitpun air milikmu, tetapi Allah yang telah memberi minum kepada kami. Wanita tersebut kemudian pulang menemui keluarganya, mereka lalu bertanya, Wahai fulanah, apa yang membuat kamu terlambat? Wanita tersebut menjawab, Suatu keajaiban! Aku bertemu dengan dua orang laki-laki yang kemudian membawaku bertemu dengan seorang yang disebut Shabi'I, lalu laki-laki itu berbuat begini begini. Demi Allah, dialah orang yang paling menakjubkan (membuat kejadian luar biasa) di antara yang ada ini dan ini. Wanita tersebut berkata sambil memberi isyarat dengan mengangkat jari tengah dan telunjuknya ke arah langit, atau antara langit dan bumi. Maksudnya bersaksi bahwa dia adalah Utusan Allah yang haq. Sejak saat itu Kaum Muslimin selalu melindungi wanita tersebut dari Kaum Musyrikin dan tidaklah Kaum Muslimin merusak rumah atau kediaman wanita tersebut. Pada suatu hari wanita itu berkata kepada kaumnya, Aku tidak memandang bahwa kaum tersebut membiarkan kalian dengan sengaja. Apakah kalian mau masuk Islam? Maka kaumnya mentaatinya dan masuk ke dalam Islam. Abu 'Abdullah berkata, Yang dimaksud dengan Shabi'i adalah keluar dari suatu agama kepada agama lain. Sedangkan Abu' 'Aliyah berkata, Ash-Shabi'un adalah kelompok dari Ahlul Kitab yang membaca Kitab Zabur.</t>
+  </si>
+  <si>
+    <t>Jika aku beri keringanan kepada mereka dalam masalah ini, maka ketika salah seorang mendapati musim dingin pasti ia akan berkata seperti ini 'yakni Tayamum dan shalat'. Abu Musa berkata, Maka aku katakan, Kalau begitu dimana kedudukan ucapan 'Ammar kepada 'Umar? ' 'Abdullah bin Mas'ud menjawab: Aku menganggap bahwa 'Umar tidak sepakat dengan pendapat ' Ammar.</t>
+  </si>
+  <si>
+    <t>Cukup bagimu begini'? 'Abdullah, Apakah kamu tidak tahu kalau 'Umar tidak menerima pendapat tersebut? Abu Musa kembali berkata, Baik kita tinggalkan pendapat 'Umar! ' Tapi bagaimana sikapmu dengan ayat ini? ' 'Abdullah tidak mengerti apa yang harus ia katakan, lalu ia berkata, Jika kami beri keringanan mereka dalam masalah ini, dikhawatirkan jika mereka merasa dingin dengan air, maka mereka tidak mau menggunakan air dan akan melakukan tayamum. Aku berkata kepada Syaqiq, 'Hanyasanya 'Abdullah tidak suka adalah karena hal ini.' Ia menjawab, Benar.</t>
+  </si>
+  <si>
+    <t>Sebenarnya cukup buatmu bila kamu melakukan begini. Nabi kemudian memukulkan telapak tangannya ke permukaan tanah dan mengibaskannya, lalu mengusap punggung tangan kanannya dengan telapak tangan kirinya, atau punggung telapak kirinya dengan telapak tangan kanannya, kemudian beliau mengusap wajahnya. Abdullah berkata, Apakah kamu tidak tahu kalau 'Umar tidak menerima pendapat 'Ammar? Ya'la menambahkan dari Al A'masy dari Syaqiq, Aku pernah bersama 'Abdullah dan Abu Musa. Abu Musa lalu berkata, Tidakkah kamu mendengar perkataan 'Ammar kepada 'Umar 'Sesungguhnya Rasulullah mengutus aku dan kamu, lalu aku mengalami junub dan aku bergulingan di atas tanah. Kemudian kita temui Rasulullah menceritakan hal itu kepada beliau. Beliau lalu bersabda: Sebenarnya kamu cukup melakukan begini. Beliau lalu memukulkan telapak tangannya ke tanah, lalu mengusap muka dan kedua telapak tangannya sekali.</t>
+  </si>
+  <si>
+    <t>Wajib bagi kamu menggunakan tanah dan itu sudah cukup buatmu.</t>
+  </si>
+  <si>
+    <t>Saat aku di Makkah atap rumahku terbuka, tiba-tiba datang Malaikat Jibril Alaihis Salam. Lalu dia membelah dadaku kemudian mencucinya dengan menggunakan air zamzam. Dibawanya pula bejana terbuat dari emas berisi hikmah dan iman, lalu dituangnya ke dalam dadaku dan menutupnya kembali. Lalu dia memegang tanganku dan membawaku menuju langit dunia. Tatkala aku sudah sampai di langit dunia, Jibril Alaihis Salam berkata kepada Malaikat penjaga langit, 'Bukalah'. Malaikat penjaga langit berkata, 'Siapa Ini? ' Jibril menjawab, 'Ini Jibril'. Malaikat penjaga langit bertanya lagi, 'Apakah kamu bersama orang lain? ' Jibril menjawab, Ya, bersamaku Muhammad Shallallahu 'alaihi wa salam.' Penjaga itu bertanya lagi, 'Apakah dia diutus sebagai Rasul? ' Jibril menjawab, 'Benar.' Ketika dibuka dan kami sampai di langit dunia, ketika itu ada seseorang yang sedang duduk, di sebelah kanan orang itu ada sekelompok manusia begitu juga di sebelah kirinya. Apabila dia melihat kepada sekelompok orang yang di sebelah kanannya ia tertawa, dan bila melihat ke kirinya ia menangis. Lalu orang itu berkata, 'Selamat datang Nabi yang shalih dan anak yang shalih.' Aku bertanya kepada Jibril, 'Siapakah dia? ' Jibril menjawab, Dialah Adam Alaihis Salam, dan orang-orang yang ada di sebelah kanan dan kirinya adalah ruh-ruh anak keturunannya. Mereka yang ada di sebelah kanannya adalah para ahli surga sedangkan yang di sebelah kirinya adalah ahli neraka. Jika dia memandang ke sebelah kanannya dia tertawa dan bila memandang ke sebelah kirinya dia menangis.' Kemudian aku dibawa menuju ke langit kedua, Jibril lalu berkata kepada penjaganya seperti terhadap penjaga langit pertama. Maka langit pun dibuka'. Anas berkata, Kemudian Nabi Shallallahu 'alaihi wa salam menyebutkan bahwa pada tingkatan langit-langit itu beliau bertemu dengan Adam, Idris, Musa, 'Isa dan Ibrahim semoga Allah memberi shalawat-Nya kepada mereka. Beliau tidak menceritakan kepadaku keberadaan mereka di langit tersebut, kecuali bahwa beliau bertemu Adam di langit dunia dan Ibrahim di langit keenam. Anas melanjutkan, Ketika Jibril berjalan bersama Nabi Shallallahu 'alaihi wa salam, ia melewati Idris. Maka Idris pun berkata, 'Selamat datang Nabi yang shalih dan saudara yang shalih.' Aku bertanya kepada Jibril, 'Siapakah dia? ' Jibril menjawab, 'Dialah Idris.' Lalu aku berjalan melewati Musa, ia pun berkata, 'Selamat datang Nabi yang shalih dan saudara yang shalih.' Aku bertanya kepada Jibril, 'Siapakah dia? ' Jibril menjawab, 'Dialah Musa.' Kemudian aku berjalan melewati 'Isa, dan ia pun berkata, 'Selamat datang saudara yang shalih dan Nabi yang shalih.' Aku bertanya kepada Jibril, 'Siapakah dia? ' Jibril menjawab, 'Dialah 'Isa.' Kemudian aku melewati Ibrahim dan ia pun berkata, 'Selamat datang Nabi yang shalih dan anak yang shalih.' Aku bertanya kepada Jibril, 'Siapakah dia? ' Jibril menjawab, 'Dialah Ibrahim Shallallahu 'alaihi wa salam.' Ibnu Syihab berkata, Ibnu Hazm mengabarkan kepadaku bahwa Ibnu 'Abbas dan Abu Habbah al Anshari keduanya berkata, Nabi Shallallahu 'alaihi wa salam bersabda: Kemudian aku dimi'rajkan hingga sampai ke suatu tempat yang aku dapat mendengar suara pena yang menulis. Ibnu Hazm berkata, Anas bin Malik menyebutkan, Nabi Shallallahu 'alaihi wa salam bersabda: Kemudian Allah 'azza wajalla mewajibkan kepada ummatku shalat sebanyak lima puluh kali. Maka aku pergi membawa perintah itu hingga aku berjumpa dengan Musa, lalu ia bertanya, 'Apa yang Allah perintahkan buat umatmu? ' Aku jawab: 'Shalat lima puluh kali.' Lalu dia berkata, 'Kembalilah kepada Rabbmu, karena umatmu tidak akan sanggup! ' Maka aku kembali dan Allah mengurangi setengahnya. Aku kemudian kembali menemui Musa dan aku katakan bahwa Allah telah mengurangi setengahnya. Tapi ia berkata, 'Kembalilah kepada Rabbmu karena umatmu tidak akan sanggup.' Aku lalu kembali menemui Allah dan Allah kemudian mengurangi setengahnya lagi.' Kemudian aku kembali menemui Musa, ia lalu berkata, 'Kembalilah kepada Rabbmu, karena umatmu tetap tidak akan sanggup.' Maka aku kembali menemui Allah Ta'ala, Allah lalu berfirman: 'Lima ini adalah sebagai pengganti dari lima puluh. Tidak ada lagi perubahan keputusan di sisi-Ku! ' Maka aku kembali menemui Musa dan ia kembali berkata, 'Kembailah kepada Rabb-Mu! ' Aku katakan, 'Aku malu kepada Rabb-ku.' Jibril lantas membawaku hingga sampai di Sidratul Muntaha yang diselimuti dengan warna-warni yang aku tidak tahu benda apakah itu. Kemudian aku dimasukkan ke dalam surga, ternyata di dalamnya banyak kubah-kubah terbuat dari mutiara dan tanahnya dari minyak kesturi.</t>
+  </si>
+  <si>
+    <t>Allah telah mewajibkan shalat, dan awal diwajibkannya adalah dua rakaat dua rakaat, baik saat mukim atau saat dalam perjalanan. Kemudian ditetapkanlah ketentuan tersebut untuk shalat safar (dalam perjalanan), dan ditambahkan lagi untuk shalat di saat mukim.</t>
+  </si>
+  <si>
+    <t>Hendaklah temannya meminjamkan jilbab miliknya kepadanya. 'Abdullah bin Raja' berkata, telah menceritakan kepada kami 'Imran telah menceritakan kepada kami Muhammad bin Sirin telah menceritakan kepada kami Ummu 'Athiyah aku mendengar Nabi bersabda seperti ini.</t>
+  </si>
+  <si>
+    <t>mengenakan sarung yang ia ikatkan pada leher (tengkuk), sementara pakaiannya ia gantungnya di gantungan baju. Seseorang lalu berkata kepadanya, Kenapa kamu shalat dengan menggunakan satu kain! Jabir bin Samurah menjawab, Aku lakukan itu agar bisa dilihat oleh orang bodoh seperti kamu. Sebab mana ada pada masa Nabi , di antara kami yang memiliki dua kain!</t>
+  </si>
+  <si>
+    <t>shalat dengan mengenakan (satu) kain.</t>
+  </si>
+  <si>
+    <t>shalat dengan mengenakan satu kain yang diikatkan pada kedua sisinya.</t>
+  </si>
+  <si>
+    <t>shalat di rumah Ummu Salamah dengan mengenakan satu kain yang kedua sisinya digantungkan pada kedua pundaknya.</t>
+  </si>
+  <si>
+    <t>shalat di rumah Ummu Salamah dengan mengenakan satu kain yang menutupi seluruh badannya yang diletakkan pada kedua pundaknya.</t>
+  </si>
+  <si>
+    <t>beliau shalat delapan rakaat dengan berselimut pada satu baju. Setelah selesai shalat aku berkata, Wahai Rasulullah, anak ibuku mengatakan dia telah membunuh seseorang dan aku telah memberi ganti rugi kepada seseorang yakni Abu Hubairah. Maka Rasulullah : Kami telah setuju apa yang engkau berikan wahai Ummu Hani'! Ummu Hani' berkata, Saat itu adalah waktu dluha.</t>
+  </si>
+  <si>
+    <t>Apakah setiap orang dari kalian memiliki dua baju?</t>
+  </si>
+  <si>
+    <t>Janganlah salah seorang dari kalian shalat dengan menggunakan satu kain, hingga tidak selembar pun kain yang menutupi kedua pundaknya</t>
+  </si>
+  <si>
+    <t>Barangsiapa shalat dengan menggunakan satu kain, maka hendaklah ia serempangkan pada kedua pundaknya.</t>
+  </si>
+  <si>
+    <t>shalat dengan mengenakan satu kain. Maka aku bergabung dengan beliau dan shalat disampingnya. Setelah selesai beliau bertanya: Ada urusan apa (malam-malam begini) kamu datang wahai Jabir? Maka aku sampaikan keperluanku kepada beliau. Setelah aku selesai, beliau berkata: Kenapa aku lihat kamu menyelimutkan (kain) seperti ini? ' Aku jawab, Kainku sempit! Beliau bersabda: Jika kain itu lebar maka diikatkanlah dari pundak, namun bila sempit maka cukup dikenakan (sebatas untuk menutup aurat).</t>
+  </si>
+  <si>
+    <t>Janganlah kalian mengangkat kepala kalian hingga para laki-laki telah duduk.</t>
+  </si>
+  <si>
+    <t>mengusap kedua sepatunya lalu shalat.</t>
+  </si>
+  <si>
+    <t>memindahkan batu Ka'bah sementara saat itu beliau mengenakan kain lebar. Pamannya, Al 'Abbas, lalu berkata kepadanya, Wahai anak saudaraku, seandainya kainmu engkau letakkan pada pundakmu tentu batu akan lebih ringan. Maka beliau lepas dan dipakaikannya di pundaknya, tiba-tiba beliau terjatuh dan pingsan. Setelah peristiwa itu tidak pernah Nabi terlihat telanjang.</t>
+  </si>
+  <si>
+    <t>Apakah setiap kalian memiliki dua helai baju? Kemudian ada seseorang bertanya kepada 'Umar, lalu ia menjawab, Jika Allah memberi kelapangan (kemudahan), maka pergunakanlah. Bila seseorang memiliki banyak pakaian, maka dia shalat dengan pakaiannya itu. Ada yang shalat dengan memakai kain dan rida (selendang besar), ada yang memakai kain dan gamis (baju panjang sampai kaki), ada yang memakai kain dan baju, ada yang memakai celana panjang dan rida', ada yang memakai celana panjang dan gamis, ada yang memakai celana panjang dan baju, ada yang memakai celana pendek dan rida', ada yang memakai celana pendek dan gamis. Abu Hurairah berkata, Menurutku 'Umar mengatakan, Dan ada yang memakai celana pendek dan rida'.</t>
+  </si>
+  <si>
+    <t>Dia tidak boleh mengenakan baju, celana, mantel dan tidak boleh pula pakaian yang diberi minyak wangi atau wewangian dari daun tumbuhan. Dan siapa yang tidak memiliki sandal, ia boleh mengenakan sepatu tapi hendaklah dipotong hingga berada dibawah mata kaki. Dan dari Nafi' dari Ibnu 'Umar dari Nabi seperti ini juga.</t>
+  </si>
+  <si>
+    <t>Rasulullah melarang seseorang mengenakan pakaian shama` (berselimut sehingga seluruh bagian badannya tertutup) dan melarang seseorang duduk ihtiba` dengan selembar kain hingga tidak ada yang menutupi bagian kemaluannya.</t>
+  </si>
+  <si>
+    <t>Nabi melarang dua macam jual beli; jual beli Al Limas dan An Nibadz. Dan melarang dari dua cara berpakaian; berpakaian shama` dan seorang laki-laki duduk ihtiba dengan mengenakan satu kain.</t>
+  </si>
+  <si>
+    <t>orang Musyrik tidak boleh berhaji setelah tahun ini dan tidak boleh thawaf dengan keadaan telanjang.</t>
+  </si>
+  <si>
+    <t>sedang shalat dengan menggunakan kain sarung yang diikatkannya pada tengkuk, sedangkan pakaiannnya diletakkan pada gantungan baju. Setelah selesai kami bertanya, Wahai Abu 'Abdullah, bagaimana kamu shalat sedangkan kain rida' (selendang) mu kau gantung pada gantungan baju? ' Maka Jabir menjawab, Benar. Sesungguhnya aku senang bila berbuat seperti itu agar bisa dilihat oleh orang bodoh seperti kamu. Aku pernah melihat Nabi shalat dengan cara seperti itu.</t>
+  </si>
+  <si>
+    <t>Allahu Akbar, binasalah Khaibar dan penduduknya! Sungguh, jika kami mendatangi halaman suatu Kaum, maka (amat buruklah pagi hari yang dialami oleh orang-orang yang diperingatkan itu) ' (Qs. Asf Shaffaat: 177). Beliau mengucapkan kalimat ayat ini tiga kali. Anas bin Malik melanjutkan, (Saat itu) orang-orang keluar untuk bekerja, mereka lantas berkata, 'Muhammad datang! ' 'Abdul 'Aziz berkata, Sebagian sahabat kami menyebutkan, Pasukan (datang)! ' Maka kami pun menaklukan mereka, para tawanan lantas dikumpukan. Kemudian datanglah Dihyah Al Kalbi seraya berkata, Wahai Nabi Allah, berikan aku seorang wanita dari tawanan itu! Maka Nabi berkata, Pergi dan bawalah seorang tawanan wanita. Dihyah lantas mengambil Shafiyah binti Huyai. Tiba-tiba datang seseorang kepada Nabi dan berkata, Wahai Nabi Allah, Tuan telah memberikan Shafiyah binti Huyai kepada Dihyah! Padahal dia adalah wanita yang terhormat dari suku Quraizhoh dan suku Nadlit. Dia tidak layak kecuali untuk Tuan. Beliau lalu bersabda: Panggillah Dihyah dan wanita itu. Maka Dihyah datang dengan membawa Shafiah. Tatkala Nabi melihat Shafiah, beliau berkata, Ambillah wanita tawanan yang lain selain dia. Lalu Nabi memerdekakan wanita tersebut dan menikahinya. Tsabit berkata kepada Anas bin Malik, Apa yang menjadi maharnya? Anas menjawab, Maharnya adalah kemerdekaan wanita itu, beliau memerdekakan dan menikahinya. Saat berada diperjalanan, Ummu Sulaim merias Shafiah lalu menyerahkannya kepada Nabi saat malam tiba, sehingga jadilah beliau pengantin. Beliau lalu bersabda: Siapa saja dari kalian yang memeliki sesuatu hendaklah ia bawa kemari. Beliau lantas menggelar hamparan terbuat dari kulit, lalu berdatanganlah orang-orang dengan membawa apa yang mereka miliki. Ada yang membawa kurma dan ada yang membawa keju/lemak. Anas mengatakan, Aku kira ia juga menyebutkan sawiq (makanan yang dibuat dari biji gandung dan adonan tepung gandum). Lalu Nabi mencampur makanan-makanan tersebut. Maka itulah walimahan Rasulullah .</t>
+  </si>
+  <si>
+    <t>shalat fajar dan ikut juga wanita-wanita Mu'minat yang wajahnya tertutup dengan kerudung, kemudian kembali ke rumah mereka masing-masing tanpa diketahui oleh seorangpun.</t>
+  </si>
+  <si>
+    <t>Pergilah dengan membawa kain ini kepada Abu Jahm dan gantilah dengan pakaian polos dari Abu Jahm. Sungguh kain ini tadi telah mengganggu shalatku. Hisyam bin 'Urwah berkata dari Bapaknya dari 'Aisyah berkata, Nabi bersabda: Aku melihat pada gambarnya dan aku khawatir gambar itu menggangguku.</t>
+  </si>
+  <si>
+    <t>Singkirkanlah kain ini dari kita, karena gambar-bambarnya selalu menggangguku dalam shalatku.</t>
+  </si>
+  <si>
+    <t>Ini tidak patut bagi orang yang bertakwa.</t>
+  </si>
+  <si>
+    <t>Aku melihat Rasulullah berada dalam kemah merah yang terbuat dari kulit yang disamak. Dan aku lihat Bilal mengambilkan air wudlu untuk Rasulullah , dan aku lihat orang-orang saling berebut air tersebut. Orang yang mendapatkanya maka ia langsung mengusapkannya, dan bagi yang tidak maka ia mengambilnya dari dari tangan temannya yang basah. Kemudian aku lihat Bilal mengambil tombak kecil dan menancapkannya di tanah, lalu Nabi keluar dengan mengenakan pakaian merah menghadap ke arah tombak kecil dan memimpin orang-orang shalat sebanyak dua raka'at. Dan aku lihat orang-orang dan hewan berlalu melewati depan tombak tersebut.</t>
+  </si>
+  <si>
+    <t>Rasulullah berdiri pada mimbar tersebut menghadap kiblat. Beliau bertakbir dan orang-orang pun ikut shalat dibelakangnya, beliau lalu membaca surat lalu rukuk, dan orang-orang pun ikut rukuk di belakangnya. Kemudian beliau mengangkat kepalanya, lalu mundur ke belakang turun dan sujud di atas tanah. Kemudian beliau kembali ke atas mimbar dan rukuk, kemudian mengangkat kepalnya lalu turun kembali ke tanah pada posisi sebelumnya dan sujud di tanah. Itulah keberadaan mimbar. Abu 'Abdullah berkata, 'Ali Al Madini berkata, Ahmad bin Hambal rahimahullah bertanya kepadaku tentang hadits ini. Ia katakan, Yang aku maksudkan bahwa Nabi posisinya lebih tinggi daripada orang-orang. Maka tidak mengapa seorang imam posisinya lebih tinggi daripada Makmum berdasarkan hadits ini. Sahl bin Sa'd berkata, Aku katakan, Sesungguhnya Sufyan bin 'Uyainah sering ditanya tentang masalah ini, 'Apakah kamu tidak pernah mendengarnya? ' Ahmad bin Hambal rahimahullah menjawab, Tidak.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya dijadikannya imam itu untuk diikuti. Jika imam bertakbir maka takbirlah kalian, jika rukuk maka rukuklah kalian, jika sujud maka sujudlah kalian, dan jika ia shalat dengan berdiri maka shalatlah kalian dengan berdiri. Kemudian Beliau turun kembali setelah dua puluh sembilan hari. Mereka pun berkata, Wahai Rasulullah, bukankan engkau mengasingkan diri selama satu bulan? Beliau menjawab: Satu bulan itu dua puluh sembailan hari.</t>
+  </si>
+  <si>
+    <t>shalat sementara aku berada di sampingnya, dan saat itu aku sedang haid. Dan setiapkali beliau sujud, pakaian beliau mengenai aku. Dan beliau shalat di atas tikar kecil.</t>
+  </si>
+  <si>
+    <t>Rasulullah untuk menghadiri hidangan yang ia masak untuk beliau. Beliau kemudian menyantap makanan tersebut kemudian bersabda: Berdirilah, aku akan pimpin kalian shalat. Anas berkata, Maka aku berdiri di tikar milik kami yang sudah lusuh dan hitam akibat sering digunakan. Aku lalu memercikinya dengan air, kemudian Rasulullah berdiri diatasnya. Aku dan seorang anak yatim lalu membuat barisan di belakang beliau, sementara orang tua (nenek) berdiri di belakang kami. Rasulullah lalu shalat memimpim kami sebanyak dua rakaat lalu pergi.</t>
+  </si>
+  <si>
+    <t>shalat di atas tikar kecil.</t>
+  </si>
+  <si>
+    <t>Aku pernah tidur di depan Rasulullah sementara kedua kakiku di arah Qiblat (shalatnya). Jika sujud beliau menyentuh kakiku, maka aku tarik kedua kakiku. Dan jika berdiri aku kembali meluruskan kakiku. 'Aisyah berkata, Pada saat itu di rumah-rumah belum ada lampu penerang.</t>
+  </si>
+  <si>
+    <t>sedang shalat Aisyah pernah tidur di arah kiblat beliau, ia tidur di atas kasur dengan posisi seperti jenazah.</t>
+  </si>
+  <si>
+    <t>sedang shalat, 'Aisyah berbaring antara beliau dengan arah kiblatnya, di atas tempat tidur yang digunakan untuk tidur keduanya.</t>
+  </si>
+  <si>
+    <t>Kami shalat bersama Nabi , lalu salah seorang dari kami meletakkan salah satu dari ujung bajunya di tempat sujudnya karena panasnya tempat sujud.</t>
+  </si>
+  <si>
+    <t>Apakah Nabi pernah shalat dengan memakai sandal? Dia menjawab, Ya.</t>
+  </si>
+  <si>
+    <t>mengusap dua sepatunya lalu berdiri shalat. Maka hal itu ditanyakan kepadanya, ia lantas menjawab, Aku pernah melihat Rasulullah berbuat seperti ini. Ibrahim berkata, Yang jadi mengherankan mereka adalah karena Jarir adalah termasuk di antara orang yang masuk Islam belakangan.</t>
+  </si>
+  <si>
+    <t>mengusap kedua sepatunya dan shalat.</t>
+  </si>
+  <si>
+    <t>Kamu belum shalat! Orang itu berkata, Aku rasa sudah cukup. Hudzaifah berkata lagi, Seandainya kamu meninggal, maka kamu meninggal dunia bukan di atas sunah Muhammad .</t>
+  </si>
+  <si>
+    <t>hingga tampak putih ketiaknya. Al Laits berkata, telah menceritakan kapadaku Ja'far bin Rabi'ah seperti itu.</t>
+  </si>
+  <si>
+    <t>Barangsiapa shalat seperti shalat kita, menghadap ke arah kiblat kita dan memakan sembilan kita, maka dia adalah seorang Muslim, ia memiliki perlindungan dari Allah dan Rasul-Nya. Maka janganlah kalian mendurhakai Allah dengan mencederai perlindungan-Nya.</t>
+  </si>
+  <si>
+    <t>Aku diperintah untuk memerangi manusia hingga mereka mengucapkan Laa ilaaha illallah (Tidak ada Tuhan yang berhak disembah selain Allah) '. Jika mereka mengucapkannya kemudian mendirikan shalat seperti shalat kita, menghadap ke kiblat kita dan menyembelih seperti cara kita menyembelih, maka darah dan harta mereka haram (suci) bagi kita kecuali dengan hak Islam dan perhitungannya ada pada Allah. Ibnu Abu Maryam berkata, telah mengabarkan kepada kami Yahya bin Ayyub telah menceritakan kepada kami Humaid telah menceritakan kepada kami Anas dari Nabi . Dan 'Ali bin 'Abdullah berkata, telah menceritakan kepada kami Khalid bin Al Harits berkata, telah menceritakan kepada kami Humaid berkata, Maimun bin Siyah bertanya kepada Anas bin Malik, Wahai Abu Hamzah, apa yang menjadikan haramnya darah dan harta seorang hamba? Ali menjawab, Siapa yang bersaksi Laa ilaaha illallah (Tidak ada Tuhan yang berhak disembah selain Allah), menghadap ke kiblat kita, shalat sepeti shalat kita dan memakan sembelihan kita, maka dia adalah Muslim, baginya hak dan kewajiban seorang Muslim.</t>
+  </si>
+  <si>
+    <t>Jika kalian mendatangi masuk ke dalam WC, maka janganlah kalian menghadap ke arah kiblat dan jangan pula membelakanginya. Tetapi menghadaplah ke timurnya atau ke baratnya. Abu Ayyub berkata, Ketika kami datang ke Syam, kami dapati WC rumah-rumah di sana dibangun menghadap kiblat. Maka kami alihkan dan kami memohon ampun kepada Allah Ta'ala. Dan dari Az Zuhri dari 'Atha berkata, aku mendengar Abu Ayyub dari Nabi seperti ini.</t>
+  </si>
+  <si>
+    <t>thawaf mengelilingi Ka'bah tujuh kali, shalat di sisi Maqam dua rakaat, lalu sa'i antara antara Shafa dan Marwah. Dan sungguh bagi kalian ada suri tauladan yang baik pada diri Rasulullah. Dan kami pernah bertanya kepada Jabir bin 'Abdullah tentang masalah ini. Maka ia menjawab, Jangan sekali-kali ia mendekati isterinya hingga ia melaksanakan sa'i antara bukit Shafa dan Marwah.</t>
+  </si>
+  <si>
+    <t>Apakah Nabi shalat di dalam Ka'bah? Bilal menjawab, Ya, dua rakaat antara dua sisi dua tiang sebelah kiri dari arah kamu masuk, lalu beliau keluar dan shalat menghadap Ka'bah dua rakaat.</t>
+  </si>
+  <si>
+    <t>Ketika Nabi masuk ke dalam Ka'bah, beliau berdo'a di seluruh sisinya dan tidak melakukan shalat hingga beliau keluar darinya. Beliau kemudian shalat dua rakaat dengan memandang Ka'bah lalu bersabda: Inilah kiblat.</t>
+  </si>
+  <si>
+    <t>shalat mengahdap Baitul Maqdis selama enam belas atau tujuh belas bulan, dan Rasulullah menginginkan kiblat tersebut dialihkan ke arah Ka'bah. Maka Allah menurunkan ayat: (Sungguh Kami (sering) melihat mukamu menengadah ke langit) ' (Qs. Al Baqarah: 144). Maka kemudian Nabi menghadap ke Ka'bah. Lalu berkatalah orang-orang yang kurang akal, yaitu orang-orang Yahudi: '(Apakah yang memalingkan mereka (umat Islam) dari kiblatnya (Baitul Maqdis) yang dahulu mereka telah berkiblat kepadanya? Katakanlah: Kepunyaan Allah-lah timur dan barat. Dia memberi petunjuk kepada siapa yang dikehendaki-Nya ke jalan yang lurus) ' (As. Al Baqarah: 144). Kemudian ada seseorang yang ikut shalat bersama Nabi , orang itu kemudian keluar setelah menyelesikan shalatnya. Kemudian orang itu melewati Kaum Anshar yang sedang melaksanakan shalat 'Ashar dengan menghadap Baitul Maqdis. Lalu orang itu bersaksi bahwa dia telah shalat bersama Rasulullah dengan menghadap Ka'bah. Maka orang-orang itu pun berputar dan menghadap Ka'bah.</t>
+  </si>
+  <si>
+    <t>shalat diatas tunggangannya menghadap kemana arah tunggangannya menghadap. Jika Beliau hendak melaksanakan shalat yang fardlu, maka beliau turun lalu shalat menghadap kiblat.</t>
+  </si>
+  <si>
+    <t>kemudian duduk pada kedua kakinya menghadap kiblat, kemudian beliau sujud dua kali, kemudian salam. Ketika menghadap ke arah kami, beliau bersabda: Seungguhnya bila ada sesuatu yang baru dari shalat pasti aku beritahukan kepada kalian. Akan tetapi aku ini hanyalah manusia seperti kalian yang bisa lupa sebagaimana kalian juga bisa lupa, maka jika aku terlupa ingatkanlah. Dan jika seseorang dari kalian ragu dalam shalatnya maka dia harus meyakini mana yang benar, kemudian hendaklah ia sempurnakan, lalu salam kemudian sujud dua kali.</t>
+  </si>
+  <si>
+    <t>Aku memiliki pemikiran yang aku ingin jika itu dikabulkan oleh Rabbku dalam tiga persoalan. Maka aku sampaikan kepada Rasulullah , 'Wahai Rasulullah, seandainya Maqam Ibrahim kita jadikan sebagai tempat shalat? Lalu turunlah ayat: '(Dan jadikanlah sebahagian maqam Ibrahim sebagai tempat shalat) ' (Qs. Al Baqarah: 125). Yang kedua tentang hijab. Aku lalu berkata, 'Wahai Rasulullah, seandainya Tuan perintahkan isteri-isteri Tuan untuk berhijab karena yang berkomunikasi dengan mereka ada orang yang shalih dan juga ada yang fajir (suka bermaksiat).' Maka turunlah ayat hijab. Dan yang ketiga, saat isteri-isteri beliau cemburu kepada beliau (sehingga banyak yang membangkang), aku katakan kepada mereka, 'Semoga bila Beliau menceraikan kalian Rabbnya akan menggantinya dengan isteri-isteri yang lebih baik dari kalian.' Maka turunlah ayat tentang masalah ini. Abu Abdullah berkata; telah menceritakan kepada kami Ibnu Abu Maryam berkata, telah mengabarkan kepada kami Yahya bin Ayyub berkata, telah menceritakan kepadaku Humaid ia berkata, Aku mendengar Anas seperti hadits ini.</t>
+  </si>
+  <si>
+    <t>Sungguh, tadi malam telah turun ayat kepada Rasulullah , beliau diperintahkan untuk menghadap ke arah Ka'bah. Maka orang-orang yang sedang shalat berputar menghadap Ka'bah, padahal pada saat itu wajah-wajah mereka sedang menghadap negeri Syam. Mereka kemudian berputar ke arah Ka'bah.</t>
+  </si>
+  <si>
+    <t>duduk di atas kedua kakinya lalu sujud dua kali.</t>
+  </si>
+  <si>
+    <t>Jika seseorang dari kalian berdiri shalat sesungguhnya dia sedang berhadapan dengan Rabbnya, atau sesungguhnya Rabbnya berada antara dia dan kiblat, maka janganlah dia meludah ke arah kiblat, tetapi lakukanlah ke arah kirinya atau di bawah kaki (kirinya). Kemudian Nabi memegang tepi kainnya dan meludah di dalamnya, setelah itu beliau membalik posisi kainnya lalu berkata, atau beliau melakukan seperti ini.</t>
+  </si>
+  <si>
+    <t>Jika seseorang dari kalian berdiri shalat janganlah dia meludah ke arah depannya, karena Allah berada di hadapannya ketika dia shalat.</t>
+  </si>
+  <si>
+    <t>melihat ludah atau ingus pada dinding kiblat, beliau lalu menggosoknya.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian meludah maka janganlah ia membuangnya ke arah depan atau sebelah kanannya, tetapi hendaklah ia lakukan ke arah kirinya atau di bawah kaki (kirinya).</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian meludah janganlah ia meludah ke arah kiblat atau ke sebelah kanannya, tapi hendaklah ia lakukan ke arah kiri atau di bawah kaki kirinya.</t>
+  </si>
+  <si>
+    <t>Jangan sekali-kali salah seorang dari kalian meludah ke arah depan atau samping kanannya, tapi hendaklah ke arah kiri atau di bawah kakinya.</t>
+  </si>
+  <si>
+    <t>Jika seorang Mukmin sedang shalat, sesungguhnya ia sedang berhadapan dengan Rabbnya. Maka janganlah ia meludah ke arah depan atau sebelah kanannya, namun hendaklah ia melakukannya ke arah kiri atau di bawah kakinya.</t>
+  </si>
+  <si>
+    <t>melarang seorang laki-laki meludah ke arah depan atau sebelah kanannya. Tetapi hendaklah ia melakukannya ke arah kiri atau ke bawah kaki kirinya. Dan dari Az Zuhri ia mendengar Humaid dari Abu Sa'id seperti ini.</t>
+  </si>
+  <si>
+    <t>Meludah di dalam Masjid adalah suatu dosa. Maka kafarahnya (tebusannya) adalah menguburnya.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian berdiri shalat, maka janganlah meludah ke arah depannya sebab ia sedang berhadapan dengan Allah selagi ia berada di tempat shalatnya, dan jangan ke sebelah kanannya karena di sana ada Malaikat. Tetapi hendaklah ia meludah ke arah kiri atau di bawah kakinya, kemudian dikuburnya.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian berdiri shalat, sesungguhnya ia sedang berhadapan dengan Rabbnya, atau sesungguhnya Rabbnya berada antara dia dan arah kiblatnya, maka janganlah ia meludah ke arah kiblat. Tetapi hendaklah ia lakukan ke arah kiri atau di bawah kaki (kirinya). Kemudian Nabi memegang tepi kainnya dan meludah di dalamnya, setelah itu beliau membalik posisi kainnya lalu berkata, atau beliau melakukan seperti ini.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,6 +1257,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -678,23 +1285,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,2833 +1615,5635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B396" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E133" sqref="E133"/>
+      <selection pane="bottomRight" activeCell="D401" sqref="D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="82" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>10</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>11</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>12</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>13</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>14</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>14</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>16</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>17</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>18</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>19</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>20</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>21</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>22</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>23</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>24</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>24</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>25</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>26</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>27</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>28</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>29</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="252" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>30</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>31</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>32</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>33</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>33</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>34</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>35</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>36</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>36</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>37</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>37</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>38</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>39</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>40</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>40</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>40</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>41</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>41</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>43</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>44</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>45</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>46</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>47</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>48</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>48</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>49</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>50</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>52</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>52</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>53</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>54</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>55</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>56</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+    <row r="73" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>57</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>58</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>59</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>59</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>60</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>61</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>62</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D79" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>62</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D80" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>63</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>64</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>65</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D83" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>65</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>65</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D85" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>66</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D86" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>67</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>68</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D88" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>69</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D89" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>69</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>69</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>70</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>71</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>71</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D94" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>71</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>72</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D96" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>73</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D97" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>74</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D98" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>75</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D99" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>76</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>77</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>78</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D102" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>78</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D103" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="D103" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>79</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="105" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>79</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="106" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>79</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="107" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>79</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="108" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>79</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D108" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="D108" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>80</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="110" spans="1:4" ht="252" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>80</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D110" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>80</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D111" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>80</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D112" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>81</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D113" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>82</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D114" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>82</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D115" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>83</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D116" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>83</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D117" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>83</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D118" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>84</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+    <row r="120" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>85</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D120" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>86</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D121" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>87</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D122" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+      <c r="D122" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <v>88</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D123" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>89</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D124" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>90</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D125" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="D125" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>90</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D126" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+      <c r="D126" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>90</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D127" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+      <c r="D127" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>91</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D128" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>91</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>92</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D130" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+      <c r="D130" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>93</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D131" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>94</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+    <row r="133" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <v>96</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D133" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>97</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D134" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+      <c r="D134" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <v>98</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+    <row r="136" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>99</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D136" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <v>100</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D137" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
         <v>137</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <v>101</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D138" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
         <v>138</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="1">
         <v>102</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D139" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="D139" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
         <v>139</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="1">
         <v>103</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="1">
         <v>104</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D141" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="1">
         <v>105</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+    <row r="143" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <v>106</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D143" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="D143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <v>107</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+      <c r="A145" s="2">
         <v>144</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="1">
         <v>108</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <v>108</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D146" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+      <c r="D146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
         <v>146</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <v>109</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D147" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="D147" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <v>110</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D148" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+      <c r="D148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="1">
         <v>111</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D149" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="D149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <v>112</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+    <row r="151" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="1">
         <v>113</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+    <row r="152" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <v>114</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D152" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+      <c r="D152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="1">
         <v>115</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <v>116</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <v>117</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D155" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="D155" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <v>118</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D156" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+      <c r="D156" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="1">
         <v>119</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D157" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="D157" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="1">
         <v>120</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D158" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+      <c r="D158" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="1">
         <v>121</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D159" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+      <c r="D159" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="1">
         <v>122</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+      <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="1">
         <v>123</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D161" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="D161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="1">
         <v>124</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+      <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="1">
         <v>125</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D163" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+      <c r="D163" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="1">
         <v>125</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D164" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+      <c r="D164" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="1">
         <v>126</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D165" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+      <c r="D165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="1">
         <v>127</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D166" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+      <c r="D166" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
         <v>166</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="1">
         <v>127</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D167" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+      <c r="D167" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="1">
         <v>127</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D168" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+      <c r="D168" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="1">
         <v>127</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D169" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+      <c r="D169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
         <v>169</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="1">
         <v>127</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+    <row r="171" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="1">
         <v>128</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+      <c r="A172" s="2">
         <v>171</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="1">
         <v>128</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+      <c r="A173" s="2">
         <v>172</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="1">
         <v>128</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D173" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+      <c r="D173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="1">
         <v>128</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D174" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+      <c r="D174" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
         <v>174</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="1">
         <v>128</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+      <c r="A176" s="2">
         <v>175</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="1">
         <v>129</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+      <c r="A177" s="2">
         <v>176</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="1">
         <v>129</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D177" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+      <c r="D177" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
         <v>177</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="1">
         <v>130</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D178" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+      <c r="D178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
         <v>178</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="1">
         <v>131</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D179" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+      <c r="D179" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="1">
         <v>132</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D180" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+      <c r="D180" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
         <v>180</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="1">
         <v>133</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D181" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+      <c r="D181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="1">
         <v>134</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D182" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+      <c r="D182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="1">
         <v>134</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D183" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+      <c r="D183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="1">
         <v>134</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+      <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="1">
         <v>135</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D185" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+      <c r="D185" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="1">
         <v>136</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+      <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="1">
         <v>137</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D187" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+      <c r="D187" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="1">
         <v>138</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D188" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+      <c r="D188" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="1">
         <v>139</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D189" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+      <c r="D189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="1">
         <v>139</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D190" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+      <c r="D190" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="1">
         <v>139</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D191" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+      <c r="D191" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
         <v>191</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="1">
         <v>139</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D192" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+      <c r="D192" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="1">
         <v>140</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D193" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+      <c r="D193" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="1">
         <v>140</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D194" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+      <c r="D194" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="1">
         <v>141</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D195" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+      <c r="D195" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="1">
         <v>142</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+      <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="1">
         <v>142</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="C197" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D197" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+      <c r="D197" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="1">
         <v>142</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D198" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+      <c r="D198" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="1">
         <v>142</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D199" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+      <c r="D199" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="1">
         <v>143</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+      <c r="A201" s="2">
         <v>200</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="1">
         <v>144</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C201" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D201" s="3">
-        <v>1</v>
+      <c r="D201" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1">
+        <v>144</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D202" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1">
+        <v>145</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D203" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1">
+        <v>145</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D204" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>146</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>147</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D206" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
+        <v>147</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D207" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1">
+        <v>148</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D208" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1">
+        <v>148</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D209" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1">
+        <v>149</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D210" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1">
+        <v>150</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D211" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1">
+        <v>150</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D212" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1">
+        <v>151</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D213" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1">
+        <v>152</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D214" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1">
+        <v>152</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D215" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1">
+        <v>153</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D216" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1">
+        <v>153</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D217" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1">
+        <v>154</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D218" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1">
+        <v>155</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D219" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1">
+        <v>156</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D220" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1">
+        <v>157</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1">
+        <v>157</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D222" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1">
+        <v>158</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1">
+        <v>158</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D224" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1">
+        <v>159</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D225" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1">
+        <v>159</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1">
+        <v>160</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D227" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1">
+        <v>160</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D228" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1">
+        <v>161</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D229" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1">
+        <v>161</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D230" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1">
+        <v>161</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D231" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1">
+        <v>162</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D232" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1">
+        <v>162</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D233" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1">
+        <v>163</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D234" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1">
+        <v>164</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D235" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1">
+        <v>165</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D236" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1">
+        <v>166</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D237" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1">
+        <v>167</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D238" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1">
+        <v>167</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D239" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1">
+        <v>169</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D240" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1">
+        <v>170</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D241" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1">
+        <v>170</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D242" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1">
+        <v>171</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D243" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1">
+        <v>172</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D244" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1">
+        <v>172</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D245" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1">
+        <v>172</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D246" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1">
+        <v>173</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D247" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1">
+        <v>173</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D248" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1">
+        <v>173</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D249" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1">
+        <v>174</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D250" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1">
+        <v>175</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D251" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1">
+        <v>176</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D252" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1">
+        <v>177</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D253" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1">
+        <v>178</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1">
+        <v>178</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D255" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1">
+        <v>178</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1">
+        <v>178</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D257" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1">
+        <v>179</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D258" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1">
+        <v>180</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D259" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1">
+        <v>181</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D260" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1">
+        <v>181</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D261" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1">
+        <v>182</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D262" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1">
+        <v>183</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D263" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1">
+        <v>183</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D264" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1">
+        <v>184</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D265" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1">
+        <v>185</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D266" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1">
+        <v>186</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D267" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1">
+        <v>187</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D268" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1">
+        <v>188</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D269" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1">
+        <v>189</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D270" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1">
+        <v>189</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D271" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1">
+        <v>190</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D272" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1">
+        <v>190</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D273" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1">
+        <v>191</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D274" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1">
+        <v>192</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D275" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1">
+        <v>193</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D276" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1">
+        <v>193</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D277" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1">
+        <v>194</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D278" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1">
+        <v>195</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D279" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1">
+        <v>196</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D280" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1">
+        <v>196</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D281" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1">
+        <v>196</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D282" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>282</v>
+      </c>
+      <c r="B283" s="1">
+        <v>197</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D283" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>283</v>
+      </c>
+      <c r="B284" s="1">
+        <v>198</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D284" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>284</v>
+      </c>
+      <c r="B285" s="1">
+        <v>198</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D285" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>285</v>
+      </c>
+      <c r="B286" s="1">
+        <v>199</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D286" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1">
+        <v>200</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D287" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1">
+        <v>200</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D288" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1">
+        <v>201</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D289" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1">
+        <v>202</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D290" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1">
+        <v>203</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D291" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1">
+        <v>203</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D292" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1">
+        <v>203</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D293" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1">
+        <v>204</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D294" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1">
+        <v>205</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D295" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1">
+        <v>206</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D296" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1">
+        <v>207</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D297" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1">
+        <v>207</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D298" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1">
+        <v>208</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D299" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1">
+        <v>208</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D300" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1">
+        <v>208</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D301" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>301</v>
+      </c>
+      <c r="B302" s="1">
+        <v>209</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D302" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>302</v>
+      </c>
+      <c r="B303" s="1">
+        <v>210</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D303" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>303</v>
+      </c>
+      <c r="B304" s="1">
+        <v>211</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D304" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>304</v>
+      </c>
+      <c r="B305" s="1">
+        <v>212</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D305" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1">
+        <v>213</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D306" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>306</v>
+      </c>
+      <c r="B307" s="1">
+        <v>214</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D307" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>307</v>
+      </c>
+      <c r="B308" s="1">
+        <v>215</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D308" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>308</v>
+      </c>
+      <c r="B309" s="1">
+        <v>216</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D309" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <v>309</v>
+      </c>
+      <c r="B310" s="1">
+        <v>217</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D310" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>310</v>
+      </c>
+      <c r="B311" s="1">
+        <v>218</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D311" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>311</v>
+      </c>
+      <c r="B312" s="1">
+        <v>219</v>
+      </c>
+      <c r="C312" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D312" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1">
+        <v>220</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D313" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>313</v>
+      </c>
+      <c r="B314" s="1">
+        <v>221</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D314" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>314</v>
+      </c>
+      <c r="B315" s="1">
+        <v>222</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D315" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>315</v>
+      </c>
+      <c r="B316" s="1">
+        <v>223</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D316" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>316</v>
+      </c>
+      <c r="B317" s="1">
+        <v>224</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D317" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>317</v>
+      </c>
+      <c r="B318" s="1">
+        <v>225</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D318" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>318</v>
+      </c>
+      <c r="B319" s="1">
+        <v>225</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D319" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>319</v>
+      </c>
+      <c r="B320" s="1">
+        <v>226</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D320" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>320</v>
+      </c>
+      <c r="B321" s="1">
+        <v>227</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D321" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>321</v>
+      </c>
+      <c r="B322" s="1">
+        <v>227</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D322" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>322</v>
+      </c>
+      <c r="B323" s="1">
+        <v>228</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D323" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>323</v>
+      </c>
+      <c r="B324" s="1">
+        <v>228</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D324" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>324</v>
+      </c>
+      <c r="B325" s="1">
+        <v>229</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D325" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>325</v>
+      </c>
+      <c r="B326" s="1">
+        <v>230</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D326" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>326</v>
+      </c>
+      <c r="B327" s="1">
+        <v>231</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D327" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>327</v>
+      </c>
+      <c r="B328" s="1">
+        <v>232</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D328" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>328</v>
+      </c>
+      <c r="B329" s="1">
+        <v>232</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D329" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>329</v>
+      </c>
+      <c r="B330" s="1">
+        <v>232</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D330" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1">
+        <v>232</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D331" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1">
+        <v>233</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D332" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1">
+        <v>234</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D333" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1">
+        <v>234</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D334" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>334</v>
+      </c>
+      <c r="B335" s="1">
+        <v>235</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D335" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1">
+        <v>235</v>
+      </c>
+      <c r="C336" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D336" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>336</v>
+      </c>
+      <c r="B337" s="1">
+        <v>236</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D337" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>337</v>
+      </c>
+      <c r="B338" s="1">
+        <v>236</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D338" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>338</v>
+      </c>
+      <c r="B339" s="1">
+        <v>237</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D339" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>339</v>
+      </c>
+      <c r="B340" s="1">
+        <v>238</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D340" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>340</v>
+      </c>
+      <c r="B341" s="1">
+        <v>238</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D341" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>341</v>
+      </c>
+      <c r="B342" s="1">
+        <v>239</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D342" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>342</v>
+      </c>
+      <c r="B343" s="1">
+        <v>239</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D343" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>343</v>
+      </c>
+      <c r="B344" s="1">
+        <v>239</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D344" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>344</v>
+      </c>
+      <c r="B345" s="1">
+        <v>239</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D345" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>345</v>
+      </c>
+      <c r="B346" s="1">
+        <v>239</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D346" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>346</v>
+      </c>
+      <c r="B347" s="1">
+        <v>240</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D347" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>347</v>
+      </c>
+      <c r="B348" s="1">
+        <v>240</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D348" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>348</v>
+      </c>
+      <c r="B349" s="1">
+        <v>241</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D349" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>349</v>
+      </c>
+      <c r="B350" s="1">
+        <v>241</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D350" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>350</v>
+      </c>
+      <c r="B351" s="1">
+        <v>242</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D351" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>351</v>
+      </c>
+      <c r="B352" s="1">
+        <v>243</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D352" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>352</v>
+      </c>
+      <c r="B353" s="1">
+        <v>244</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D353" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>353</v>
+      </c>
+      <c r="B354" s="1">
+        <v>244</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D354" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>354</v>
+      </c>
+      <c r="B355" s="1">
+        <v>245</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D355" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>355</v>
+      </c>
+      <c r="B356" s="1">
+        <v>245</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D356" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>356</v>
+      </c>
+      <c r="B357" s="1">
+        <v>245</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D357" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>357</v>
+      </c>
+      <c r="B358" s="1">
+        <v>246</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D358" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>358</v>
+      </c>
+      <c r="B359" s="1">
+        <v>247</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D359" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>359</v>
+      </c>
+      <c r="B360" s="1">
+        <v>248</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D360" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>360</v>
+      </c>
+      <c r="B361" s="1">
+        <v>249</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D361" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>361</v>
+      </c>
+      <c r="B362" s="1">
+        <v>250</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D362" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>362</v>
+      </c>
+      <c r="B363" s="1">
+        <v>251</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D363" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>363</v>
+      </c>
+      <c r="B364" s="1">
+        <v>252</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D364" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>364</v>
+      </c>
+      <c r="B365" s="1">
+        <v>253</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D365" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>365</v>
+      </c>
+      <c r="B366" s="1">
+        <v>253</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D366" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>366</v>
+      </c>
+      <c r="B367" s="1">
+        <v>254</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D367" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>367</v>
+      </c>
+      <c r="B368" s="1">
+        <v>255</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D368" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>368</v>
+      </c>
+      <c r="B369" s="1">
+        <v>256</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D369" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>369</v>
+      </c>
+      <c r="B370" s="1">
+        <v>257</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D370" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>370</v>
+      </c>
+      <c r="B371" s="1">
+        <v>257</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D371" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>371</v>
+      </c>
+      <c r="B372" s="1">
+        <v>257</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D372" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>372</v>
+      </c>
+      <c r="B373" s="1">
+        <v>258</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D373" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>373</v>
+      </c>
+      <c r="B374" s="1">
+        <v>259</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D374" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <v>374</v>
+      </c>
+      <c r="B375" s="1">
+        <v>260</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D375" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <v>375</v>
+      </c>
+      <c r="B376" s="1">
+        <v>260</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D376" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <v>376</v>
+      </c>
+      <c r="B377" s="1">
+        <v>261</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D377" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>377</v>
+      </c>
+      <c r="B378" s="1">
+        <v>262</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D378" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>378</v>
+      </c>
+      <c r="B379" s="1">
+        <v>263</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D379" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>379</v>
+      </c>
+      <c r="B380" s="1">
+        <v>263</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D380" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>380</v>
+      </c>
+      <c r="B381" s="1">
+        <v>264</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D381" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>381</v>
+      </c>
+      <c r="B382" s="1">
+        <v>265</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D382" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <v>382</v>
+      </c>
+      <c r="B383" s="1">
+        <v>265</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D383" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>383</v>
+      </c>
+      <c r="B384" s="1">
+        <v>265</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D384" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>384</v>
+      </c>
+      <c r="B385" s="1">
+        <v>266</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D385" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <v>385</v>
+      </c>
+      <c r="B386" s="1">
+        <v>266</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D386" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <v>386</v>
+      </c>
+      <c r="B387" s="1">
+        <v>266</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D387" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>387</v>
+      </c>
+      <c r="B388" s="1">
+        <v>267</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D388" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <v>388</v>
+      </c>
+      <c r="B389" s="1">
+        <v>267</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D389" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <v>389</v>
+      </c>
+      <c r="B390" s="1">
+        <v>267</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D390" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
+        <v>390</v>
+      </c>
+      <c r="B391" s="1">
+        <v>268</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D391" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
+        <v>391</v>
+      </c>
+      <c r="B392" s="1">
+        <v>268</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D392" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <v>392</v>
+      </c>
+      <c r="B393" s="1">
+        <v>268</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D393" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A394" s="2">
+        <v>393</v>
+      </c>
+      <c r="B394" s="1">
+        <v>269</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D394" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A395" s="2">
+        <v>394</v>
+      </c>
+      <c r="B395" s="1">
+        <v>270</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D395" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
+        <v>395</v>
+      </c>
+      <c r="B396" s="1">
+        <v>270</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D396" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
+        <v>396</v>
+      </c>
+      <c r="B397" s="1">
+        <v>271</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D397" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
+        <v>397</v>
+      </c>
+      <c r="B398" s="1">
+        <v>271</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D398" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A399" s="2">
+        <v>398</v>
+      </c>
+      <c r="B399" s="1">
+        <v>272</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D399" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A400" s="2">
+        <v>399</v>
+      </c>
+      <c r="B400" s="1">
+        <v>273</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D400" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A401" s="2">
+        <v>400</v>
+      </c>
+      <c r="B401" s="1">
+        <v>274</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D401" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/hadits_fix.xlsx
+++ b/hadits_fix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
   <si>
     <t>No.</t>
   </si>
@@ -1225,6 +1225,306 @@
   </si>
   <si>
     <t>Jika salah seorang dari kalian berdiri shalat, sesungguhnya ia sedang berhadapan dengan Rabbnya, atau sesungguhnya Rabbnya berada antara dia dan arah kiblatnya, maka janganlah ia meludah ke arah kiblat. Tetapi hendaklah ia lakukan ke arah kiri atau di bawah kaki (kirinya). Kemudian Nabi memegang tepi kainnya dan meludah di dalamnya, setelah itu beliau membalik posisi kainnya lalu berkata, atau beliau melakukan seperti ini.</t>
+  </si>
+  <si>
+    <t>Apakah kalian lihat kiblatku disini? Demi Allah, tidaklah tersembunyi bagiku khusyuk dan rukuk kalian. Sungguh, aku dapat melihatnya dari belakang punggungku.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya saat shalat dan rukuk, aku dapat melihat kalian dari belakangku sebagaimana sekarang aku melihat kalian.</t>
+  </si>
+  <si>
+    <t>mempertandingkan antara kudan yang dipersiapkan untuk pacuan yang jaraknya dimulai dari Al Hafya' sampai Tsaniyatul Wada', dan kuda yang tidak disiapkanuntuk pacuan yang dimulai dari Al Hafya' hingga Masjid Bani Zuraiq. 'Abdullah bin 'Umar adalah termasuk orang yang mengikuti pacuan tersebut.</t>
+  </si>
+  <si>
+    <t>Apakah kamu diutus oleh Abu Thalhah? Aku menjawab, Ya. Beliau bertanya lagi: Untuk undangan makan? Aku menjawab: Benar. Kemudian beliau bersabda kepada orang-orang yang bersama beliau: Mari berangkat! Maka beliau pun berangkat dan aku juga berangkat bersama mereka.</t>
+  </si>
+  <si>
+    <t>Wahai Rasulullah, bagaimana pendapatmu jika seorang suami mendapati laki-laki lain bersama isterinya? Lalu keduanya saling melaknat di dalam masjid, sementara aku menyaksiakannya.</t>
+  </si>
+  <si>
+    <t>Mana tempat di rumahmu yang kau sukai untuk aku pimpin shalat? Maka aku menunjukkan suatu tempat, lalu Nabi takbir dan kami membuat shaf di belakangnya, kemudian beliaupun shalat dua rakaat.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya Allah telah mengharamkan neraka bagi orang yang mengucapkan LAA ILAAHA ILLALLAH dengan mengharap ridla Allah? Ibnu Syihab berkata, Kemudian aku tanyakan kepada Al Hushain bin Muhammad Al Anshari salah seorang dari Bani Salim yang termasuk orang terpandang tentang hadits Mahmud bin Ar Rabi' ini. Maka dia membenarkannya.</t>
+  </si>
+  <si>
+    <t>suka mendahulukan yang kanan dalam setiap perbuatannya. Seperti dalam bersuci, menaiki kendaraan dan memakai sandal.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya jika orang shalih dari mereka meninggal, maka mereka mendirikan masjid di atas kuburannya dan membuat patungnya di sana. Maka mereka itulah seburuk-buruk makhluk di sisi Allah pada hari kiyamat.</t>
+  </si>
+  <si>
+    <t>Wahai bani Najjar, sebutkan berapa harga kebun kalian ini? Mereka menjawab, Tidak, demi Allah. Kami tidak akan menjualnya kecuali kepada Allah! Anas berkata, Aku beritahu kepada kalian bahwa pada kebun itu banyak terdapat kuburan orang-orang musyrik, juga ada sisa-sisa reruntuhan rumah dan pohon-pohon kurma. Maka Nabi memerintahkan untuk membongkar kuburan-kuburan tersebut, reruntuhan rumah diratakan dan pohon-pohon kurma ditumbangkan lalu dipindahkan di depan arah kiblat masjid. Maka lalu membuat pintu masjid dari pohon dan mengangkut batu bata sambil menyanyikan nasyid. Dan Nabi ikut bekerja pula bersama mereka sambil mengucapkan: Ya Allah. Tidak ada kebaikan kecuali kebaikan akhirat, maka ampunilah kaum Anshar dan Muhajirin.</t>
+  </si>
+  <si>
+    <t>shalat di kandang kambing. Setelah itu aku mendengar Anas mengatakan, Beliau shalat di kandang kambing sebelum masjid di bangun.</t>
+  </si>
+  <si>
+    <t>shalat menghadap untanya, dan ia mengatakan, Aku pernah melihat Rasulullah melakukannya.</t>
+  </si>
+  <si>
+    <t>Neraka telah diperlihatkan kepadaku, dan belum pernah sekalipun aku melihat suatu pemandangan yang lebih mengerikan dari pada hari ini.</t>
+  </si>
+  <si>
+    <t>Jadikanlah (sebagian dari) shalat kalian ada di rumah kalian, dan jangan kalian jadikan ia sebagai kuburan.</t>
+  </si>
+  <si>
+    <t>Janganlah kalian memasuki tempat yang penghuninya disiksa kecuali kalian menangis, jika tidak bisa menangis maka janganlah kalian memasukinya agar kalian tidak mendapat mushibah sebagaimana mereka mendapatkannya.</t>
+  </si>
+  <si>
+    <t>Mereka adalah suatu kaum yang jika ada hamba shalih atau laki-laki shalih dari mereka meninggal, mereka membangun masjid di atas kuburannya dan membuatkan patung untuknya. Maka mereka itulah seburuk-buruk makhluk di sisi Allah.</t>
+  </si>
+  <si>
+    <t>Semoga laknat Allah tertipa kepada orang-orang Yahudi dan Nashara, mereka menjadikan kuburan para Nabi mereka sebagai masjid.' Beliau memberi peringatan (kaum Muslimin) atas apa yang mereka lakukan.</t>
+  </si>
+  <si>
+    <t>Allah melaknat Yahudi dan Nashara karena mereka menjadikan kuburan para Nabi mereka sebagai masjid.</t>
+  </si>
+  <si>
+    <t>Aku diberikan lima perkara yang tidak diberikan kepada seorangpun dari Nabi-Nabi sebelumku; aku ditolong melawan musuhku dengan ketakutan mereka sepanjang sebulan perjalanan, bumi dijadikan untukku sebagai tempat sujud dan suci; maka dimana saja seorang laki-laki dari ummatku mendapati waktu shalat hendaklah ia shalat. Dihalalkan harta rampasan untukku, para Nabi sebelumku diutus khusus untuk kaumnya sedangkan aku diutus untuk seluruh manusia, dan aku diberikah (hak) syafa'at.</t>
+  </si>
+  <si>
+    <t>seorang budak perempuan hitam milik suatu kaum orang 'Arab telah mereka merdekakan. 'Aisyah mengatakan, Pada suatu hari sahaya ini keluar bersama seorang bayi perempuan dengan membawa kain tikar tenunan berwarna merah terbuat dari kulit yang dihiasi dengan permata. Berkata, 'Aisyah RA: Maka sahaya itu meletakkan tikar tersebut atau duduk diatasnya. Lalu tiba-tiba ada burung terluka yang jatuh. Sahaya itu menganggapnya sebagai daging maka diambilnya. Lalu orang-orang itu mencari burung tersebut tapi tidak menemukannya. Berkata, 'Aisyah RA: Lalu orang-orang itu menanyakannya kepadaku. Be 'Aisyah RA: lalu orang-orang itu menggeledah sampai pada bagian depan sahaya tersebut. 'Aisyah RA berkata,: Demi Allah, aku ada bersama mereka saat butung itu jatuh lalu dia mengambilnya. Maka terjadilah apa yang terjadi diantara mereka. 'Aisyah RA berkata,: Aku katakan: Inilah yang kalian duga aku berada di balik ini semua padahal orang ini lah yang berbuat dan aku berlepas diri darinya. 'Aisyah RA berkata,: Lalu sahaya ini menemui Rasulullah . dan masuk Islam. Berkata, 'Aisyah RA: Sahaya ini memiliki rumah kecil di dekat masjid. 'Aisyah RA berkata,: Dan setiap dia menemui aku dia menceritakan disampingku. 'Aisyah RA berkata,: Tidaklah dia duduk disisiku melainkan selalu bersya'ir: Berkata, 'Aisyah RA: aku katakana kepadanya: Apa alasanmu setiap kali bermajelis denganku kamu bersya'ir seperti itu? 'Aisyah RA berkata,: Maka dia ceritakan seperti kejadian dalam hadits ini.</t>
+  </si>
+  <si>
+    <t>ia pernah tidur di masjid Nabi saat dia masih pemuda lajang dan belum punya keluarga.</t>
+  </si>
+  <si>
+    <t>Wahai Abu Thurab, bangunlah. Wahai Abu Thurab, bangunlah.</t>
+  </si>
+  <si>
+    <t>Sungguh, aku pernah melihat sekitar tujuh puluh orang dari Ashhabush Shuffah. Tidak ada seorangpun dari mereka yang memiliki rida' (selendang), atau kain, atau baju panjang kecuali mereka ikatkan dari leher mereka. Di antara mereka ada yang kainnya sampai ke tengah betisnya dan ada yang sampai ke mata kaki. Kemudian dia lipatkan dengan tangannya karena khawatir auratnya terlihat.</t>
+  </si>
+  <si>
+    <t>Shalatlah dua rakaat. Ketika itu beliau mempunyai hutang kepadaku. Maka beliau membayarnya dan memberi tambahan kepadaku.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian masuk masjid, maka hendaklah ia shalat dua rakaat sebelum ia duduk.</t>
+  </si>
+  <si>
+    <t>Para Malaikat selalu memberi shalawat (mendo'akan) kepada salah seorang dari kalian selama ia masih di tempat ia shalat dan belum berhadats. Malaikat berkata, 'Ya Allah ampunilah dia. Ya Allah rahmatilah dia'.</t>
+  </si>
+  <si>
+    <t>pada masa Rasulullah Masjid dibangun dengan menggunakan tanah liat yang dikeraskan (bata). Atapnya dari dedaunan sedangkan tiangnya dari batang pohon kurma. Pada masanya Abu Bakar tidak memberi tambahan renovasi apapun, kemudian pada masanya Umar bin Al Khaththab ia memberi tambahan renovasi, Umar merenovasi dengan batu bata dan dahan barang kurma sesuai dengan bentuk yang ada di masa Rasulullah . Tiang utama ia ganti dengan kayu. Kemudian pada masa Utsman ia banyak melakukan perubahan dan renovasi, dinding masjid ia bangun dari batu yang diukir dan batu kapur. Kemudian tiang dari batu berukir dan atapnya dari batang kayu pilihan.</t>
+  </si>
+  <si>
+    <t>Kasihan 'Ammar, dia akan dibunuh oleh golongan durjana. Dia mengajak mereka ke surga sedangkan mereka mengajaknya ke neraka. Ibnu 'Abbas berkata, 'Ammar lantas berkata, Aku berlindung kepada Allah dari fitnah tersebut.</t>
+  </si>
+  <si>
+    <t>Perintahkan budakmu yang tukang kayu itu membuat tangga mimbar untukku, hingga aku bisa duduk di atasnya.</t>
+  </si>
+  <si>
+    <t>Silahkan, kalau kamu mau. Maka wanita itu membuat sebuah mimbar.</t>
+  </si>
+  <si>
+    <t>Siapa yang membangun masjid -Bukair berkata, Menurutku beliau mengatakan- karena mengharapkah ridla Allah, maka Allah akan membangun untuknya yang seperti itu di surga.</t>
+  </si>
+  <si>
+    <t>Jagalah ujung panahmu!</t>
+  </si>
+  <si>
+    <t>Barangsiapa lewat dengan membawa panah di masjid atau pasar kita, maka hendaklah dipegang ujung panahnya dengan tangannya agar tidak melukai seorang muslim.</t>
+  </si>
+  <si>
+    <t>Semoga Allah memberimu kebaikan, apakah anda mendengar Nabi Shallallahu 'alaihi wa salam bersabda: Wahai Hassan, penuhilah panggilan Rasulullah Shallallahu 'alaihi wa salam (permintaan untuk melawan kaum kafir). Ya Allah, kuatkanlah dia dengan Ruhul Qudus (Malaikat Jibril) '. Abu Hurairah menjawab, Ya.</t>
+  </si>
+  <si>
+    <t>aku penah melihat Rasulullah berdiri di pintu rumahku sedangkan budak-budak Habasyah sedang bermain di dalam Masjid. Rasulullah menutupiku dengan kain selendangnya saat aku menyaksikan permainan mereka. Ibraim bin Al Mundzir menambahkan, telah menceritakan kepada kami Ibnu Wahb telah mengabarkan kepadaku Yunus dari Ibnu Syihab dari 'Urwah dari 'Aisyah berkata, Aku melihat Rasulullah menyaksikan budak-budak Habasyah mempertunjukkan permainan tombak mereka.</t>
+  </si>
+  <si>
+    <t>Kenapa suatu kaum membuat persyaratan dengan syarat-syarat yang tidak ada pada Kitabullah. Barangsiapa membuat syarat yang tidak ada pada Kitabullah, maka tidak berlaku sekalipun dia membuat persyaratan seratus kali. 'Ali berkata, Yahya berkata dan 'Abdul Wahhab dari Yahya dari 'Amrah seperti hadits ini. Dan Ja'far bin 'Aun berkata, dari Yahya ia berkata, aku mendengar 'Amrah berkata, aku mendengar 'Aisyah. Dan Malik meriwayatkan dari Yahya dari 'Amrah bahwa Bararahâ€¦.namun ia tidak menyebut bahwa (Rasulullah) naik mimbar.</t>
+  </si>
+  <si>
+    <t>Bebaskanlah hutangmu ini. Beliau lalu memberi isyarat untuk membebaskan setengahnya. Ka'b bin Malik menjawab, Sudah aku lakukan wahai Rasulullah. Beliau lalu bersabda (kepada Ibnu Abu Hadrad): Sekarang bayarlah.</t>
+  </si>
+  <si>
+    <t>Tunjukkanlah kuburannya padaku! beliau kemudian mendatangi kuburan orang itu kemudian menshalatinya.</t>
+  </si>
+  <si>
+    <t>Ketika turun ayat-ayat dalam Surah Al Baqarah tentang masalah riba, Nabi keluar ke masjid lalu membacakan ayat-ayat tersebut kepada manusia. Kemudian beliau mengharamkan perdagangan khamer.</t>
+  </si>
+  <si>
+    <t>shalat di atas kuburnya.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya 'Ifrit dari bangsa Jin baru saja menggangguku untuk memutus shalatku tapi Allah memenangkan aku atasnya, dan aku berkehendak untuk mengikatnya di salah satu tiang masjid sampai waktu shubuh sehingga tiap orang dari dapat kalian dapat melihatnya. Namun aku teringat ucapan saudaraku Sulaiman Alaihis Salam ketika berdo'a: '(Ya Rabb, anugerahkanlah kepadaku kerajaan yang tidak akan dimiliki oleh seorangpun setelah aku) ' (QS. Shaad: 35). Rauh berkata, Kemudian beliau mengusirnya dalan keadaan hina.</t>
+  </si>
+  <si>
+    <t>Lepaskanlah Tsumamah. Tsumamah kemudian masuk ke kebun kurma dekat Masjid untuk mandi. Setelah itu ia kembali masuk ke Masjid dan mengucapkan, Aku bersaksi bahwa tidak ada Tuhan yang berhak disembah selian Allah dan Muhammad adalah utusan Allah.</t>
+  </si>
+  <si>
+    <t>Nabi kemudian mendirikan tenda untuk menjenguk Sa'd dari dekat, sementara di Masjid banyak juga tenda milik bani ghifar. Kemudian banyak darah yang mengalir ke arah mereka (orang-orang bani Ghifar), maka mereka pun berkata, 'Wahai penghuni tenda! Cairan apa yang mengenai kami ini? Ia muncul dari arah kalian? ' Dan ternyata cairan itu ada darah Sa'd yang keluar sehingga ia pun meninggal.</t>
+  </si>
+  <si>
+    <t>Thawaflah di belakang orang dengan berkendaraan. Maka aku pun melakukan thawaf, sedangkan Rasulullah shalat di sisi Ka'bah dengan membaca: WATHTHUUR WA KITAABIM MASTHUUR (Demi bukit, dan Kitab yang ditulis) ' (Qs. Ath Thuur: 1-2).</t>
+  </si>
+  <si>
+    <t>dua orang sahabat Nabi Shallallahu 'alaihi wa salam keluar dari kediaman beliau pada malam yang gelap gulita. Dan seakan pada keduanya ada lampu kecil yang menerangi keduanya, ketika keduanya berpisah, masing-masing dari shahabat tersebut diiringi cahaya hingga tiba menemui keluarganya.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya Allah telah menawarkan kepada seorang hamba untuk memilih antara dunia dan apa yang ada di sisi-Nya. Kemudian hamba tersebut memilih apa yang ada di sisi Allah. Maka tiba-tiba Abu Bakar Ash Shidiq menangis. Aku berpikir dalam hati, apa yang membuat orang tua ini menangis, hanya karena Allah menawarkan kepada seorang hamba untuk memilih antara dunia dan apa yang ada di sisi-Nya lalu hamba tersebut memilih apa yang ada di sisi Allah? Dan ternyata Rasulullah Shallallahu 'alaihi wa salam adalah yang dimaksud hamba tersebut. Dan Abu Bakr adalah orang yang paling memahami isyarat itu. Kemudian beliau berkata: Wahai Abu Bakar, jangalah kamu menangis. Sesungguhnya manusia yang paling terpercaya di hadapanku dalam persahabatannya dan hartanya adalah Abu Bakar. Seandainya aku boleh mengambil kekasih dari ummatku, tentulah Abu Bakar orangnya. Akan tetapi yang ada adalah persaudaraan Islam dan berkasih sayang dalam Islam. Sungguh, tidak ada satupun pintu di dalam Masjid yang tersisa melainkan akan tertutup kecuali pintunya Abu Bakar.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya tidak ada seorangpun yang paling amanah dihadapanku, baik pada dirinya maupun hartanya melebihi Abu Bakar bin Abu Qahafah. Seandainya aku boleh mengambil kekasih dari ummatku tentulah aku ambil Abu Bakar sebagai kekasihku. Akan tetapi persaudaraan Islam lebih utama. Tutuplah semua pintu dariku kecuali pintu Abu Bakar.</t>
+  </si>
+  <si>
+    <t>Nabi pun masuk diikuti oleh Bilal, Usamah bin Zaid, dan 'Utsman bin Thalhah, lalu pintu ditutup. Beliau berada di dalam sesaat kemudian mereka keluar. Ibnu Umar berkata, Aku segera menemui Bilal untuk menanyakan sesuatu, Bilal pun menjawab, Beliau melaksanakan shalat di dalam (Ka'bah). Aku bertanya lagi, Di sebelah mana? Bilal menjawab, Di antara dua tiang. Ibnu Umar berkata, Lalu aku lupa untuk bertanya berapa beliau shalat.</t>
+  </si>
+  <si>
+    <t>Nabi pernah mengirim pasukan berkuda mendatangi Najed, kemudian pasukan tersebut kembali dengan membawa tawanan seorang laki-laki dari Bani Hanifah yang bernama Tsumamah bin Utsal. Kemudian laki-laki itu diikat di salah satu tiang masjid.</t>
+  </si>
+  <si>
+    <t>Pergi dan bawalah dua orang ini kepadaku. Maka aku datang dengan membawa dua orang yang dimaksud, Umar lalu bertanya, Siapa kalian berdua? Atau Dari mana asalnya kalian berdua? Keduanya menjawab, Kami berasal dari Tha'if 'Umar bin Al Khaththab pun berkata, Sekiranya kalian dari penduduk sini maka aku akan hukum kalian berdua! Sebab kalian telah meninggikan suara di Masjid Rasulullah .</t>
+  </si>
+  <si>
+    <t>Wahai Ka'b! Ka'b bin Malik menjawab, Wahai Rasulullah, aku penuhi panggilanmu. Beliau memberi isyarat dengan tangannya agar ia membebaskan setengah dari hutangnya. Ka'b bin Malik berkata, Wahai Rasulullah, aku sudah lakukan. Rasulullah kemudian bersabda: Sekarang bayarlah.</t>
+  </si>
+  <si>
+    <t>Dua rakaat dua rakaat. Apabila dikhawatirkan masuk shubuh, maka shalatlah satu rakaat sebagai witir (penutup) bagi shalatnya sebelumnya. Ibnu 'Umar berkata, Jadikanlah witir sebagai shalat terakhir kalian, karena Nabi memerintahkan hal yang demikian.</t>
+  </si>
+  <si>
+    <t>Dua rakaat dua rakaat. Apabila dikhawatirkan masuk subuh, maka shalatlah satu rakaat sebagai witir (penutup) bagi shalat yang telah kamu laksanakan sebelumnya. Al Walid bin Katsir berkata, telah menceritakan kapadaku 'Ubaidullah bin 'Abdullah bahwa Ibnu 'Umar menceritakan kepada mereka, bahwa ada seseorang yang memanggil Nabi saat beliau berada di masjid.</t>
+  </si>
+  <si>
+    <t>Maukah kalian aku beritahu tentang ketiga orang tadi? Adapun seorang di antara mereka, dia meminta perlindungan kepada Allah maka Allah lindungi dia. Yang kedua, dia malu kepada Allah maka Allah pun malu kepadanya. Sedangkan yang ketiga berpaling dari Allah maka Allah pun berpaling darinya.</t>
+  </si>
+  <si>
+    <t>berbaring di dalam masjid dengan meletakkan satu kakinya di atas kaki yang lain. Dan dari Ibnu Syihab dari Sa'id bin Al Musayyab berkata, 'Umar dan 'Utsman juga melakukan hal serupa.</t>
+  </si>
+  <si>
+    <t>Aku belum mengerti kedua orang tuaku kecuali saat keduanya telah memeluk agama ini. Dan tidak berlalu suatu haripun dalam kehidupan kami kecuali Rasulullah datang menemui kami di penghujung hari, baik pada saat paginya maupun sore. Aku ingat saat nampak keIslaman Abu Bakar, ketika dia di masjid dan shalat di sana dengan membaca Al Qur'an. Maka wanita-wanita dan anak-anak Musyrik memperhatikan dia dengan penuh keheranan. Sementara Abu Bakar adalah seseorang yang sangat mudah menangis, yang tidak bisa menguasai air matanya apabila dia membaca Al Qur'an. Dan kejadian itu telah menggemparkankan para pembesar Musyrikin Quraisy.</t>
+  </si>
+  <si>
+    <t>Shalat berjama'ah lebih utama dari shalatnya sendirian di rumah atau di pasarnya sebanyak dua puluh lima derajat. Jika salah seorang dari kalian berwudlu lalu membaguskan wudlunya kemudian mendatangi masjid dengan tidak ada tujuan lain kecuali shalat, maka tidak ada langkah yang dilakukannya kecuali Allah akan mengangkatnya dengan langkah itu setinggi satu derajat, dan mengahapus darinya satu kesalahan hingga dia memasuki masjid. Dan jika dia telah memasuki masjid, maka dia akan dihitung dalam keadaan shalat selagi dia meniatkannya, dan para malaikat akan mendoakannya selama dia masih berada di tempat yang ia gunakan untuk shalat, 'Ya Allah ampunkanlah dia. Ya Allah rahmatilah dia'. Selama dia belum berhadats.</t>
+  </si>
+  <si>
+    <t>Nabi menganyam jemarinya. Ashim bin 'Ali berkata, telah menceritakan kepada kami 'Ashim bin Muhammad berkata, aku mendengar hadits ini dari bapakku, tapi aku tidak hafal. Lalu Waqid mengingatkan aku dari Bapaknya ia berkata; aku mendengar Bapakku ia berkata; 'Abdullah berkata; Rasulullah bersabda: Wahai 'Abdullah bin 'Amru, mengapa jika kamu bersama orang-orang lemah itu kamu berbuat begini?</t>
+  </si>
+  <si>
+    <t>Sesungguhnya seorang mukmin dengan mukmin lainnya seperti satu bangunan yang saling menguatkan satu sama lain. kemudian beliau menganyam jari jemarinya.</t>
+  </si>
+  <si>
+    <t>Apakah benar yang dikatakan Dzul Yadain? Orang-orang menjawab, Benar. Beliau kemudian maju ke depan dan mengerjakan shalat yang tertinggal kemudian salam. Setelah itu beliau takbir dan sujud seperti sujudnya yang dilakukannya atau lebih lama lagi. Kemudian beliau mengangkat kepalanya dan takbir, kemudian takbir dan sujud seperti sujudnya atau lebih lama lagi, kemudian mengangkat kepalanya dan takbir. Bisa jadi orang-orang bertanya kepadanya (Ibnu Sirin), apakah dalam hadits ada lafadz 'Kemudian beliau salam' lalu ia berkata; aku mendapat berita bahwa Imran bin Hushain berkata; kemudian beliau salam'.</t>
+  </si>
+  <si>
+    <t>dan bapaknya pernah melihat Nabi juga shalat di tempat itu. Telah menceritakan kepadaku Nafi' dari Ibnu 'Umar bahwa dia pernah shalat di tempat itu, dan aku bertanya kepada Salim, dan aku juga tidak mengetahuinya kecuali dia sepakat dengan Nafi' tentang tempat yang dimaksud. Namun keduanya berbeda pendapat tentang masjid yang berada di Syarfil Rawha'.</t>
+  </si>
+  <si>
+    <t>Rasulullah berhenti di Dzul Hulaifah di bawah pohon samurah ketika melaksanakan 'Umrah dan hajinya, yaitu tempat yang sekarang digunakan sebagai masjid di daerah Dzul Hulaifah. Ketika beliau kembali dari suatu peperangan, atau haji, atau umrah, dan melewati jalan tersebut beliau turun melalu dasar lembah, dan ketika telah sampai di dasar lembah beliau singgah di Bathha' (saluran tempat mengalirnya air) yang terletak di tebing sebelah timur dari lembah tersebut. Di situ beliau bermalam dan beristirahat sampai pagi. Beliau tidak singgah di masjid yang berbatu dan tidak juga di bukit yang ada masjidnya. Di lembah itu terdapat celah yang pernah digunakan oleh 'Abdullah untuk melekasanakan shalat. Di dasar lembah tersebut ada gundukan pasir dimana Rasulullah pernah shalat di situ. Suatu hari aliran air di Bathha' menyeret gundukan pasir tersebut sehingga menutup celah yang pernah digunakan oleh 'Abdullah untuk shalat. 'Abdullah bin 'Umar menceritakan kepadanya (Nafi') bahwa Nabi pernah melaksanakan shalat di masjid kecil, bukan masjid yang terdapat di Syarful Rauha'. 'Abdullah mengetahui tempat yang pernah digunakan oleh Nabi untuk shalat. Ia berkata, Disana, di sebelah kanan jika kamu berdiri shalat di masjid itu. Masjid itu terletak di sebelah kanan jalan jika kamu berjalan menuju ke arah Makkah. Jarak masjid tersebut dengan masjid besar sejauh lemparan batu atau kurang lebihnya sekitar itu. A'abdullah bin 'Umar juga pernah shalat di lembah 'Irqi yang terletak diperbatasan Rauha'. Lembah ini ujungnya di sisi jalan di bawah masjid yang posisinya di sebelah kanan jika kamu berjalan menuju Makkah. Disana sudah dibangun masjid namun 'Abdullah bin 'Umar belum pernah shalat di masjid tersebut. Dia melewati masjid tersebut dari sebelah kiri dan belakangnya, kemudian ia shalat di depannya di lembah 'Irq itu sendiri. Pernah ketika dia kembali dari Rauha', dia tidak shalat Zhuhur (di tempat lain) hingga sampai di tempat tersebut, kemudian dia shalat Zhuhur di tempat tersebut. Jika dia kembali dari Makkah dan melewati tempat itu satu jam sebelum Shubuh atau di akhir waktu sahar (menjelang shubuh), dia beristirahat hingga shalat Shubuh di tempat itu. 'Abdullah juga menceritakan kepadanya bahwa Nabi pernah berhenti singgah di bawah pohon besar di desa Ar-Ruwaitsah di sebelah kanan jalan menghadap ke jalan, yakni pada tempat yang rendah dan datar. Sehingga beliau bisa melalui tebing datar yang jaraknya dua mil dari ujung jalan yang datar desa Ar-Ruwaitsah. Tebing itu bagian atasnya sudah banyak yang rontok dan berjatuhan di sisi bawahnya, namun tebing itu masih berdiri tegak pada landasannya sekalipun pada sisinya itu banyak terdapat celah. 'Abdullah bin 'Umar juga menceritakan kepadanya bahwa Nabi pernah shalat di dekat air terjun yang posisinya di belakang desa Al 'Arj jika kamu menuju desa Hadlbah. Pada masjid itu ada dua atau tiga kuburan yang ditandai dengan batu yang berada di sebelah kanan jalan, pada jalan yang datar. Di sisi kanan jalan yang datar itulah 'Abdullah pernah melintas ketika kembali dari desa Al 'Irj setelah matahari condong pada tengah hari, lalu dia shalat Zhuhur di masjid itu. 'Abdullah bin 'Umar juga menceritakan bahwa Rasulullah pernah singgah di pohon-pohon besar di sebelah kiri jalan di tempat saluran air dekat desa Harsya. Saluran air itu letaknya berhubungan dengan ujung jalan desa Harsya yang jaraknya sejauh lemparan anak panah (kira-kira dua pertiga mil). 'Abdullah pernah shalat di dekat pohon yang paling besar dan paling tinggi di antara pohon-pohon besar tersebut. 'Abdullah juga menceritakan bahwa Nabi pernah singgah pada saluran air yang terletak dekat lembah yang disebut dengan Marrul Zhahran, yakni sebelum Madinah jika menuruni lembah Shafrawat. Beliau singgah dan turun hingga ke bawah yang posisinya ada di sebelah kiri jalan jika kamu menuju arah Makkah. Jarak antara saluran air yang beliau singgahi dengan jalan hanya berjarak tidak lebih dari sejauh lemparan batu. 'Abdullah bin 'Umar juga menceritakan kepadanya bahwa Nabi pernah singgah di Dzu Thuwa dan bermalam di sana sampai subuh, ia lalu melaksanakan shalat subuh di sana ketika Beliau pergi mengunjungi Makkah. Tempat shalat Rasulullah tersebut posisinya pada sebuah bukit besar, bukan pada posisi di mana sekarang dibangun masjid, yaitu pada dasar bukit tersebut. 'Abdullah bin 'Umar juga menceritakan kepadanya bahwa Nabi pernah menghadap dua jalan masuk menuju gunung yang jaraknya dengan puncak gunung sekitar sebesar Ka'bah, posisinya sekarang di sebelah kiri dari masjid yang didirikan. Dan tempar shalat Nabi letaknya lebih rendah dari tebing yang berwarna hitam. Jarak tempat itu dari tebing tersebut sepuluh hasta atau kurang lebih sekitar itu. Dan jika kamu shalat menghadap dua jalan ke gunung tersebut maka tempat tersebut berada di tengah antara kamu berdiri dengan Ka'bah.</t>
+  </si>
+  <si>
+    <t>sedang shalat bersama orang banyak di Mina tanpa ada dinding (tabir) di hadapannya. Maka aku lewat didepan sebagian shaf, aku lantas turun dan aku biarkan keledaiku mencari makan. Kemudian aku masuk ke barisan shaf dan tidak ada seorang pun yang menegurku.</t>
+  </si>
+  <si>
+    <t>jika keluar untuk shalat 'ied, beliau meminta sebuah tombak lalu ditancapkannya di hadapannya. Kemudian beliau shalat dengan menghadap ke arahnya, sedangkan orang-orang shalat di belakangnya. Beliau juga berbuat seperti itu ketika dalam bepergian, yang kemudian diteruskan oleh para pemimpin (Khulafa Rasyidun).</t>
+  </si>
+  <si>
+    <t>shalat bersama para sahabat di daerah Bathha`, dan di hadapan beliau ditancapkan sebuah tombak kecil. Beliau mengerjakan shalat Zhuhur dua rakaat dan shalat Ashar dua rakaat, sementara wanita dan keledai berlalu lalang di hadapannya.</t>
+  </si>
+  <si>
+    <t>Jarak antara tempat shalat Rasulullah dengan dinding (pembatas) adalah selebar untuk jalan kambing.</t>
+  </si>
+  <si>
+    <t>Jarak antara dinding masjid di mimbar kira-kira seukuran kambing bisa lewat.</t>
+  </si>
+  <si>
+    <t>menancapkan sebuah tombak lalu shalat menghadapnya.</t>
+  </si>
+  <si>
+    <t>Nabi keluar menemui kami saat terik matahari. Kemudian beliau diberi bejana berisi air, lalu beliau berwudlu dan mengerjakan shalat Zhuhur dan 'Ashar bersama kami. Sementara itu dihadapannya ditancapkan sebuah tonggak, sementara para wanita dan keledai berlalu lalang di belakang tonggak kayu tersebut.</t>
+  </si>
+  <si>
+    <t>Jika Nabi keluar untuk buang hajat, maka aku dan seorang anak kecil mengikuti beliau dengan membawa tongkat, atau sebatang kayu, atau bekas tombak dan bejana berisi air. Jika beliau selesai dari buang hajat, maka kami memberikan bejana tersebut kepada beliau.</t>
+  </si>
+  <si>
+    <t>Rasulullah keluar saat terik matahari. Kemudian beliau melaksanakan shalat Zhuhur dan 'Ashar dua rakaat dua rakaat di Bathha`. Sementara dihadapannya ditancapkan sebuah tongkat. Ketika beliau berwudlu, maka orang-orang mengusapkan bekas air wudlunya (ke badan).</t>
+  </si>
+  <si>
+    <t>Sungguh aku melihat Nabi memilih untuk shalat di situ'.</t>
+  </si>
+  <si>
+    <t>Aku pernah melihat para sahabat senior berlomba mendekati tiang saat adzan Maghrib. Syu'bah menambahkan dari 'Amru dari Anas, Sehingga Nabi keluar.</t>
+  </si>
+  <si>
+    <t>Nabi masuk ke dalam Ka'bah bersama Usamah bin Zaid, 'Utsman bin Thalhah dan Bilal dalam waktu yang cukup lama. Kemudian beliau keluar dan akulah orang yang pertama kali masuk setelah beliau keluar. Aku lantas bertanya kepada Bilal, Dimana beliau tadi melaksanakan shalat? ' Bilal menjawab, Di antara dua tiang depan.</t>
+  </si>
+  <si>
+    <t>masuk ke dalam Ka'bah bersama Usamah bin Zaid, Bilal dan 'Utsman bin Thalhah Al Hajabi kemudian pintu ditutup, dan beliau berada di dalamnya. Kemudian setelah beliau keluar aku bertanya kepada Bilal apa yang dilakukan oleh beliau di dalamnya. Bilal menjawab, 'Beliau menjadikan tiang berada di sebelah kiri, lalu satu di sebelah kanan dan tiga tiang berada di belakangnya -saat itu tiang Ka'bah berjumlah enam buah- kemudian beliau shalat'. Isma'il menyebutkan kepada kami; Malik menceritakan kepadaku, ia sebutkan, Dua tiang di sebelah kanannya.</t>
+  </si>
+  <si>
+    <t>jika ia masuk ke dalam Ka'bah, ia berjalan ke arah depan sementara pintu Ka'bah di belakangnya. Ia terus berjalah hingga antara dia dan dinding dihadapannya kira-kira tiga hasta, lalu dia shalat di tempat dimana Bilal mengabarkan bahwa Nabi pernah shalat di posisi itu. 'Abdullah bin 'Umar berkata, Dan tidak mengapa jika di antara kami shalat di dalam Ka'bah menghadap kemana saja yang dia mau.</t>
+  </si>
+  <si>
+    <t>menambatkan tunggangannya lalu shalat menghadap ke arahnya. Aku (Nafi') berkata, 'Apakah kamu pernah melihat bahwa tunggangannya itu berjalan pergi? ' Ibnu 'Umar menjawab, 'Beliau ambil tali pelananya lalu meletakkannya di depannya, kemudian shalat menghadap ke arahnyanya.' Dan Ibnu 'Umar juga pernah melakukannya.</t>
+  </si>
+  <si>
+    <t>aku pernah berbaring di atas tikar, lalu Nabi datang dan berdiri melaksanakan shalat di tengah tikar. Aku tidak ingin mengganggu beliau, maka aku geser kakiku pelan-pekan dari tikar hingga aku keluar dari selimutku.</t>
+  </si>
+  <si>
+    <t>Jika seorang dari kalian shalat menghadap sesuatu yang membatasinya dari orang, kemudian ada seseorang yang hendak lewat dihadapannya maka hendaklah dicegah. Jika dia tidak mau maka perangilah dia, karena dia adalah setan.</t>
+  </si>
+  <si>
+    <t>Sekiranya orang yang lewat di depan orang yang mengerjakan shalat mengetahui apa akibat yang akan ia tanggung, niscaya ia berdiri selama empat puluh lebih baik baginya dari pada dia lewat di depan orang yang sedang shalat. Abu An Nadlr berkata, Aku tidak tahu yang dimaksud dengan jumlah 'empat puluh itu', apakah empat puluh hari, atau bulan, atau tahun.</t>
+  </si>
+  <si>
+    <t>Sungguh aku pernah melihat Nabi melaksanakan shalat, sementara aku berbaring di atas tikar antara beliau dan dengan arah biblatnya. Saat aku ada keperluan dan aku tidak ingin menghadapnya, maka aku pergi dengan pelan-pelan. Dan dari Al A'masy dari Ibrahim dari Al Aswad dari 'Aisyah seperti ini.</t>
+  </si>
+  <si>
+    <t>shalat sedangkan aku tidur di atas ranjangnya dengan membentang dihapannya. Ketika akan witir, beliau membangunkan aku hingga aku pun shalat witir.</t>
+  </si>
+  <si>
+    <t>Aku pernah tidur di depan Rasulullah dan kakiku berada di arah kiblatnya. Jika akan sujud beliau menyentuhku dengan tangannya, maka aku pun menarik kakiku. Dan jika beliau berdiri aku luruskan kembali kakiku. 'Aisyah berkata, Pada zaman iku rumah-rumah tidak memiliki lampu.</t>
+  </si>
+  <si>
+    <t>aku pernah melihat Nabi shalat sedangkan aku berbaring di atas tikar antara beliau dan arah kiblatnya. Sehingga ketika aku ada suatu keperluan dan aku tidak ingin duduk hingga menyebabkan Nabi terganggu, maka aku pun pergi diam-diam dari dekat kedua kaki beliau.</t>
+  </si>
+  <si>
+    <t>berdiri melaksanakan shalat malam sedangkan aku berbaring membentang antara beliau dan arah kiblatnya di tempat tidur keluarga.</t>
+  </si>
+  <si>
+    <t>pernah shalat dengan menggendong Umamah binti Zainab binti Rasulullah . Dan menurut riwayat Abu Al 'Ash bin Rabi'ah bin 'Abdu Syamsi, ia menyebutkan, Jika sujud beliau letakkan anak itu dan bila berdiri beliau gendong lagi.</t>
+  </si>
+  <si>
+    <t>Tempat tidurku berhadapan dengan tempat shalat Nabi , dan terkadang pakaian beliau mengenaiku saat aku sedang tidur.</t>
+  </si>
+  <si>
+    <t>shalat sedangkan aku tidur disampingnya. Jika sujud baju beliau mengenaiku, padahal saat itu aku sedang haid. Musaddad menambahkan dari Khalid ia berkata, Sulaiman Asy Syaibani menceritakan kepadaku dengan lafadz, Dan aku sedang haid.</t>
+  </si>
+  <si>
+    <t>Sungguh, aku pernah lihat Rasulullah shalat sedangkan aku berbaring antara beliau dan arah kiblatnya. Jika akan sujud beliau mendorong kakiku dengan tangannya, maka aku pun segera menarik kedua kakiku.</t>
+  </si>
+  <si>
+    <t>Ya Allah kuserahkan (urusan) Quraisy kepada-Mu, Ya Allah kuserahkan Quraisy kepada-Mu, Ya Allah kuserahkan Quraisy kepada-Mu. Kemudian Nabi menyebut satu persatu nama-nama mereka: Ya Allah kuserahkan (urusan) 'Amru bin Hisyam kepada-Mu, 'Utbah bin Rabi'ah, Syaibah bin Rabi'ah, Al Walid bin 'Utbah, Umayyah bin Khalaf, 'Uqbah bin Abu Mu'aith dan 'Umarah bin Al Walid. 'Abdullah bin Mas'ud berkata, Demi Allah, aku melihat orang-orang yang disebut Nabi tersebut terbantai pada perang Badar, kemudian mereka dibunag ke lembah Badar. Lalu Nabi bersabda: Jadilah para penghuni lembah ini diiringi dengan kutukan.</t>
+  </si>
+  <si>
+    <t>Malaikat Jibril pernah turun kemudian melaksanakan shalat, kemudian Rasulullah juga ikut melaksanakan shalat? Kemudian Jibril shalat lagi dan Rasulullah juga ikut shalat kembali? Kemudian Jibril shalat lagi dan Rasulullah juga ikut shalat kembali? Kemudian Jibril shalat lagi dan Rasulullah juga ikut shalat kembali? Kemudian Jibril shalat lagi dan Rasulullah juga ikut shalat kembali? Kemudian Jibril berkata, Inilah waktu-waktu yang diperintahkan kepadaku (agar engkau melaksanakannya). 'Umar lalu berkata kepada 'Urwah, Ketahuilah apa yang kamu ceritakan! Sesungguhnya Jibril datang untuk menjelaskan kepada Rasulullah tentang waktu-waktu shalat. 'Urwah berkata, Begitulah adanya. bahwasanya Basyir bin Abu Mas'ud menceritakan dari Bapaknya. Urwah berkata, Aisyah menceritakan kepadaku bahwa Rasulullah pernah melaksanakan shalat 'Ashar, sementara cahaya matahari yang ada dalam kamarnya belum nampak.</t>
+  </si>
+  <si>
+    <t>Aku perintahkan kalian dengan empat perkara dan aku larang dari empat perkara; Iman kepada Allah. Lalu Nabi menjelaskan kepada mereka; yaitu persaksian bahwa tidak ada Tuhan yang berhak disembah selain Allah dan Muhammad adalah utusan Allah, menegakkan shalat, menunaikan zakat, pusa Ramadan dan kalian kelurakan seperlima dari harta rampasan perang. Dan aku larang kalian dari Ad Duba`, Al Hantam, Al Muqayyar dan An Naqir.</t>
+  </si>
+  <si>
+    <t>Aku membai'at Rasulullah untuk menegakkan shalat, menunaikan zakat dan untuk setia kepada setiap Muslim.</t>
+  </si>
+  <si>
+    <t>Yaitu fitnah seseorang dalam keluarganya, harta, anak dan tetangganya. Dan fitnah itu akan terhapus oleh amalan shalat, puasa, sedekah, amar ma'ruf dan nahi munkar. 'Umar berkata, Bukan itu yang aku mau. Tapi fitnah yang dahsyat seperti dahsyatnya air laut. Hudzaifah berkata, Wahai Amirul Mukminin, sesungguhnya fitnah itu tidak akan membahayakan engkau! antara engkau dengannya terhalang oleh pintu yang tertutup. 'Umar bertanya; Pintu yang rusak atau terbuka? Hudzaifah menjawab, Rusak. 'Umar pun berkata, Kalau begitu tidak akan bisa ditutup selamanya! ' Kami (perawi) bertanya, Apakah 'Umar mengerti pintu yang dimaksud? Hudzaifah menjawab, Ya. Sebagaimana mengertinya dia bahwa setelah pagi adalah malam hari. Aku telah menceritakan kepadanya suatu hadits yang tidak ada kerancuannya. Namun kami takut untuk bertanya kepada Hudzaifah, lalu aku suruh Masruq untuk, lalu ia pun menanyakannya kepadanya. Hudzaifah lalu menjawab, Pintu itu adalah Umar.</t>
+  </si>
+  <si>
+    <t>(Dan dirikanlah shalat pada kedua tepi siang (pagi dan petang) dan pada bahagian permulaan daripada malam. Sesungguhnya perbuatan-perbuatan yang baik itu menghapuskan (dosa) perbuatan-perbuatan yang buruk).' (Qs. Huud: 114). Laki-laki itu lalu bertanya, Wahai Rasulullah, apakah ini khusus buatku? beliau menjawab: Untuk semua umatku.</t>
+  </si>
+  <si>
+    <t>Shalat pada waktunya. 'Abdullah bertanya lagi, Kemudian apa lagi? Beliau menjawab: Kemudian berbakti kepada kedua orangtua. 'Abdullah bertanya lagi, Kemudian apa kagi? Beliau menjawab: Jihad fi sabilillah. 'Abdullah berkata, Beliau sampaikan semua itu, sekiranya aku minta tambah, niscaya beliau akan menambahkannya untukku.</t>
+  </si>
+  <si>
+    <t>Bagaimana pendapat kalian seandainya ada sungai di depan pintu rumah salah seorang dari kalian, lalu dia mandi lima kali setiap hari? Apakah kalian menganggap masih akan ada kotoran (daki) yang tersisa padanya? Para sahabat menjawab, Tidak akan ada yang tersisa sedikitpun kotoran padanya. Lalu beliau bersabda: Seperti itu pula dengan shalat lima waktu, dengannya Allah akan menghapus semua kesalahan.</t>
+  </si>
+  <si>
+    <t>Aku tidak pernah mengenal sasuatupun di zaman Rasulullah seperti apa yang terjadi sekarang. Dikatakan kepadanya, Apakah yang kau maksud shalat? Anas berkata, Bukankah memang benar kalian telah melalaikannya?</t>
+  </si>
+  <si>
+    <t>Aku tidak pernah mengenal sasuatupun di zaman Rasulullah seperti apa yang aku temui sekarang selain masalah shalat. Shalat sekarang ini sudah dilalaikan. Bakar bin Khalaf berkata, telah menceritakan kepada kami Muhammad bin Bakar Al Barsani telah mengabarkan kepada kami 'Utsman bin Abu Rawwad dengan hadits seperti ini.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian shalat bermunajat kepada Rabbnya, maka janganlah dia meludah ke sebelah kanannya, tetapi henklah ke sebelah kiri atau bawah kaki kirinya. Sa'id menyebutkan dari Qatadah, Janganlah dia meludah ke arah depannya, tetapi ke sebelah kiri atau di bawah kedua kakinya. Syu'bah menyebutkan: Janganlah ia meludah ke arah depan atau sebelah kanannya, tetapi hendaklah ke sebelah kiri atau di bawah kaki kirinya. Dan Humaid menyebutkan dari Anas dari Nabi : Janganlah ia meludah ke arah kiblat atau sebelah kanannya, tetapi hendaklah ke sebelah kiri atau di bawah kakinya.</t>
   </si>
 </sst>
 </file>
@@ -1265,12 +1565,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1285,7 +1591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,14 +1611,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,20 +1927,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B396" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B498" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D401" sqref="D401"/>
+      <selection pane="bottomRight" activeCell="D502" sqref="D502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="82" style="9" customWidth="1"/>
+    <col min="3" max="3" width="82" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -1639,7 +1951,7 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1653,7 +1965,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1">
@@ -1667,7 +1979,7 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1">
@@ -1681,7 +1993,7 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1">
@@ -1695,7 +2007,7 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1">
@@ -1709,7 +2021,7 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1">
@@ -1723,7 +2035,7 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1">
@@ -1737,7 +2049,7 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1">
@@ -1751,7 +2063,7 @@
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1">
@@ -1765,7 +2077,7 @@
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1">
@@ -1779,7 +2091,7 @@
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1">
@@ -1793,7 +2105,7 @@
       <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1">
@@ -1807,7 +2119,7 @@
       <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1">
@@ -1821,7 +2133,7 @@
       <c r="B14" s="1">
         <v>8</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="1">
@@ -1835,7 +2147,7 @@
       <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="1">
@@ -1849,7 +2161,7 @@
       <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1">
@@ -1863,7 +2175,7 @@
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1">
@@ -1877,7 +2189,7 @@
       <c r="B18" s="1">
         <v>10</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="1">
@@ -1891,7 +2203,7 @@
       <c r="B19" s="1">
         <v>11</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="1">
@@ -1905,7 +2217,7 @@
       <c r="B20" s="1">
         <v>12</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="1">
@@ -1919,7 +2231,7 @@
       <c r="B21" s="1">
         <v>13</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="1">
@@ -1933,7 +2245,7 @@
       <c r="B22" s="1">
         <v>14</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="1">
@@ -1947,7 +2259,7 @@
       <c r="B23" s="1">
         <v>14</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="1">
@@ -1961,7 +2273,7 @@
       <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="1">
@@ -1975,7 +2287,7 @@
       <c r="B25" s="1">
         <v>16</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1">
@@ -1989,7 +2301,7 @@
       <c r="B26" s="1">
         <v>17</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1">
@@ -2003,7 +2315,7 @@
       <c r="B27" s="1">
         <v>18</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="1">
@@ -2017,7 +2329,7 @@
       <c r="B28" s="1">
         <v>19</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="1">
@@ -2031,7 +2343,7 @@
       <c r="B29" s="1">
         <v>20</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="1">
@@ -2045,7 +2357,7 @@
       <c r="B30" s="1">
         <v>21</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="1">
@@ -2059,7 +2371,7 @@
       <c r="B31" s="1">
         <v>22</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="1">
@@ -2073,7 +2385,7 @@
       <c r="B32" s="1">
         <v>23</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="1">
@@ -2087,7 +2399,7 @@
       <c r="B33" s="1">
         <v>24</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="1">
@@ -2101,7 +2413,7 @@
       <c r="B34" s="1">
         <v>24</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="1">
@@ -2115,7 +2427,7 @@
       <c r="B35" s="1">
         <v>25</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="1">
@@ -2129,7 +2441,7 @@
       <c r="B36" s="1">
         <v>26</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="1">
@@ -2143,7 +2455,7 @@
       <c r="B37" s="1">
         <v>27</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="1">
@@ -2157,7 +2469,7 @@
       <c r="B38" s="1">
         <v>28</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="1">
@@ -2171,7 +2483,7 @@
       <c r="B39" s="1">
         <v>29</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="1">
@@ -2185,7 +2497,7 @@
       <c r="B40" s="1">
         <v>30</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="1">
@@ -2199,7 +2511,7 @@
       <c r="B41" s="1">
         <v>31</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="1">
@@ -2213,7 +2525,7 @@
       <c r="B42" s="1">
         <v>32</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="1">
@@ -2227,7 +2539,7 @@
       <c r="B43" s="1">
         <v>33</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="1">
@@ -2241,7 +2553,7 @@
       <c r="B44" s="1">
         <v>33</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="1">
@@ -2255,7 +2567,7 @@
       <c r="B45" s="1">
         <v>34</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="1">
@@ -2269,7 +2581,7 @@
       <c r="B46" s="1">
         <v>35</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="1">
@@ -2283,7 +2595,7 @@
       <c r="B47" s="1">
         <v>36</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="1">
@@ -2297,7 +2609,7 @@
       <c r="B48" s="1">
         <v>36</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D48" s="1">
@@ -2311,7 +2623,7 @@
       <c r="B49" s="1">
         <v>37</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="1">
@@ -2325,7 +2637,7 @@
       <c r="B50" s="1">
         <v>37</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="1">
@@ -2339,7 +2651,7 @@
       <c r="B51" s="1">
         <v>38</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="1">
@@ -2353,7 +2665,7 @@
       <c r="B52" s="1">
         <v>39</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D52" s="1">
@@ -2367,7 +2679,7 @@
       <c r="B53" s="1">
         <v>40</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="1">
@@ -2381,7 +2693,7 @@
       <c r="B54" s="1">
         <v>40</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D54" s="1">
@@ -2395,7 +2707,7 @@
       <c r="B55" s="1">
         <v>40</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D55" s="1">
@@ -2409,7 +2721,7 @@
       <c r="B56" s="1">
         <v>41</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D56" s="1">
@@ -2423,7 +2735,7 @@
       <c r="B57" s="1">
         <v>41</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="1">
@@ -2437,7 +2749,7 @@
       <c r="B58" s="1">
         <v>43</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="1">
@@ -2451,7 +2763,7 @@
       <c r="B59" s="1">
         <v>44</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D59" s="1">
@@ -2465,7 +2777,7 @@
       <c r="B60" s="1">
         <v>45</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="1">
@@ -2479,7 +2791,7 @@
       <c r="B61" s="1">
         <v>46</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="1">
@@ -2493,7 +2805,7 @@
       <c r="B62" s="1">
         <v>47</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D62" s="1">
@@ -2507,7 +2819,7 @@
       <c r="B63" s="1">
         <v>48</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D63" s="1">
@@ -2521,7 +2833,7 @@
       <c r="B64" s="1">
         <v>48</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D64" s="1">
@@ -2535,7 +2847,7 @@
       <c r="B65" s="1">
         <v>49</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="1">
@@ -2549,7 +2861,7 @@
       <c r="B66" s="1">
         <v>50</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="1">
@@ -2563,7 +2875,7 @@
       <c r="B67" s="1">
         <v>52</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D67" s="1">
@@ -2577,7 +2889,7 @@
       <c r="B68" s="1">
         <v>52</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D68" s="1">
@@ -2591,7 +2903,7 @@
       <c r="B69" s="1">
         <v>53</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D69" s="1">
@@ -2605,7 +2917,7 @@
       <c r="B70" s="1">
         <v>54</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D70" s="1">
@@ -2619,7 +2931,7 @@
       <c r="B71" s="1">
         <v>55</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D71" s="1">
@@ -2633,7 +2945,7 @@
       <c r="B72" s="1">
         <v>56</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="1">
@@ -2647,7 +2959,7 @@
       <c r="B73" s="1">
         <v>57</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D73" s="1">
@@ -2661,7 +2973,7 @@
       <c r="B74" s="1">
         <v>58</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="1">
@@ -2675,7 +2987,7 @@
       <c r="B75" s="1">
         <v>59</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D75" s="1">
@@ -2689,7 +3001,7 @@
       <c r="B76" s="1">
         <v>59</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D76" s="1">
@@ -2703,7 +3015,7 @@
       <c r="B77" s="1">
         <v>60</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D77" s="1">
@@ -2717,7 +3029,7 @@
       <c r="B78" s="1">
         <v>61</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="1">
@@ -2731,7 +3043,7 @@
       <c r="B79" s="1">
         <v>62</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D79" s="1">
@@ -2745,7 +3057,7 @@
       <c r="B80" s="1">
         <v>62</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="1">
@@ -2759,7 +3071,7 @@
       <c r="B81" s="1">
         <v>63</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="1">
@@ -2773,7 +3085,7 @@
       <c r="B82" s="1">
         <v>64</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D82" s="1">
@@ -2787,7 +3099,7 @@
       <c r="B83" s="1">
         <v>65</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D83" s="1">
@@ -2801,7 +3113,7 @@
       <c r="B84" s="1">
         <v>65</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="1">
@@ -2815,7 +3127,7 @@
       <c r="B85" s="1">
         <v>65</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D85" s="1">
@@ -2829,7 +3141,7 @@
       <c r="B86" s="1">
         <v>66</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="1">
@@ -2843,7 +3155,7 @@
       <c r="B87" s="1">
         <v>67</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D87" s="1">
@@ -2857,7 +3169,7 @@
       <c r="B88" s="1">
         <v>68</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D88" s="1">
@@ -2871,7 +3183,7 @@
       <c r="B89" s="1">
         <v>69</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D89" s="1">
@@ -2885,7 +3197,7 @@
       <c r="B90" s="1">
         <v>69</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="1">
@@ -2899,7 +3211,7 @@
       <c r="B91" s="1">
         <v>69</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="1">
@@ -2913,7 +3225,7 @@
       <c r="B92" s="1">
         <v>70</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="1">
@@ -2927,7 +3239,7 @@
       <c r="B93" s="1">
         <v>71</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D93" s="1">
@@ -2941,7 +3253,7 @@
       <c r="B94" s="1">
         <v>71</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="1">
@@ -2955,7 +3267,7 @@
       <c r="B95" s="1">
         <v>71</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="1">
@@ -2969,7 +3281,7 @@
       <c r="B96" s="1">
         <v>72</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="1">
@@ -2983,7 +3295,7 @@
       <c r="B97" s="1">
         <v>73</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D97" s="1">
@@ -2997,7 +3309,7 @@
       <c r="B98" s="1">
         <v>74</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D98" s="1">
@@ -3011,7 +3323,7 @@
       <c r="B99" s="1">
         <v>75</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>100</v>
       </c>
       <c r="D99" s="1">
@@ -3025,7 +3337,7 @@
       <c r="B100" s="1">
         <v>76</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D100" s="1">
@@ -3039,7 +3351,7 @@
       <c r="B101" s="1">
         <v>77</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="1">
@@ -3053,7 +3365,7 @@
       <c r="B102" s="1">
         <v>78</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>103</v>
       </c>
       <c r="D102" s="2">
@@ -3067,7 +3379,7 @@
       <c r="B103" s="1">
         <v>78</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="2">
@@ -3081,7 +3393,7 @@
       <c r="B104" s="1">
         <v>79</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D104" s="2">
@@ -3095,7 +3407,7 @@
       <c r="B105" s="1">
         <v>79</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D105" s="2">
@@ -3109,7 +3421,7 @@
       <c r="B106" s="1">
         <v>79</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="2">
@@ -3123,7 +3435,7 @@
       <c r="B107" s="1">
         <v>79</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="2">
@@ -3137,7 +3449,7 @@
       <c r="B108" s="1">
         <v>79</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D108" s="2">
@@ -3151,7 +3463,7 @@
       <c r="B109" s="1">
         <v>80</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D109" s="2">
@@ -3165,7 +3477,7 @@
       <c r="B110" s="1">
         <v>80</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="2">
@@ -3179,7 +3491,7 @@
       <c r="B111" s="1">
         <v>80</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="2">
@@ -3193,7 +3505,7 @@
       <c r="B112" s="1">
         <v>80</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="9" t="s">
         <v>113</v>
       </c>
       <c r="D112" s="2">
@@ -3207,7 +3519,7 @@
       <c r="B113" s="1">
         <v>81</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="2">
@@ -3221,7 +3533,7 @@
       <c r="B114" s="1">
         <v>82</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="9" t="s">
         <v>115</v>
       </c>
       <c r="D114" s="2">
@@ -3235,7 +3547,7 @@
       <c r="B115" s="1">
         <v>82</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="9" t="s">
         <v>116</v>
       </c>
       <c r="D115" s="2">
@@ -3249,7 +3561,7 @@
       <c r="B116" s="1">
         <v>83</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="9" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="2">
@@ -3263,7 +3575,7 @@
       <c r="B117" s="1">
         <v>83</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="2">
@@ -3277,7 +3589,7 @@
       <c r="B118" s="1">
         <v>83</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D118" s="2">
@@ -3291,7 +3603,7 @@
       <c r="B119" s="1">
         <v>84</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="2">
@@ -3305,7 +3617,7 @@
       <c r="B120" s="1">
         <v>85</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D120" s="2">
@@ -3319,7 +3631,7 @@
       <c r="B121" s="1">
         <v>86</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D121" s="2">
@@ -3333,7 +3645,7 @@
       <c r="B122" s="1">
         <v>87</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="2">
@@ -3347,7 +3659,7 @@
       <c r="B123" s="1">
         <v>88</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D123" s="2">
@@ -3361,7 +3673,7 @@
       <c r="B124" s="1">
         <v>89</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D124" s="2">
@@ -3375,7 +3687,7 @@
       <c r="B125" s="1">
         <v>90</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D125" s="2">
@@ -3389,7 +3701,7 @@
       <c r="B126" s="1">
         <v>90</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D126" s="2">
@@ -3403,7 +3715,7 @@
       <c r="B127" s="1">
         <v>90</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="2">
@@ -3417,7 +3729,7 @@
       <c r="B128" s="1">
         <v>91</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D128" s="2">
@@ -3431,7 +3743,7 @@
       <c r="B129" s="1">
         <v>91</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D129" s="2">
@@ -3445,7 +3757,7 @@
       <c r="B130" s="1">
         <v>92</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="2">
@@ -3459,7 +3771,7 @@
       <c r="B131" s="1">
         <v>93</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D131" s="2">
@@ -3473,7 +3785,7 @@
       <c r="B132" s="1">
         <v>94</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="2">
@@ -3487,7 +3799,7 @@
       <c r="B133" s="1">
         <v>96</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D133" s="2">
@@ -3501,7 +3813,7 @@
       <c r="B134" s="1">
         <v>97</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="2">
@@ -3515,7 +3827,7 @@
       <c r="B135" s="1">
         <v>98</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="9" t="s">
         <v>136</v>
       </c>
       <c r="D135" s="3">
@@ -3529,7 +3841,7 @@
       <c r="B136" s="1">
         <v>99</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="9" t="s">
         <v>137</v>
       </c>
       <c r="D136" s="2">
@@ -3543,7 +3855,7 @@
       <c r="B137" s="1">
         <v>100</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D137" s="2">
@@ -3557,7 +3869,7 @@
       <c r="B138" s="1">
         <v>101</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D138" s="2">
@@ -3571,7 +3883,7 @@
       <c r="B139" s="1">
         <v>102</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D139" s="2">
@@ -3585,7 +3897,7 @@
       <c r="B140" s="1">
         <v>103</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="9" t="s">
         <v>141</v>
       </c>
       <c r="D140" s="2">
@@ -3599,7 +3911,7 @@
       <c r="B141" s="1">
         <v>104</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D141" s="2">
@@ -3613,7 +3925,7 @@
       <c r="B142" s="1">
         <v>105</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D142" s="2">
@@ -3627,7 +3939,7 @@
       <c r="B143" s="1">
         <v>106</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D143" s="2">
@@ -3641,7 +3953,7 @@
       <c r="B144" s="1">
         <v>107</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="9" t="s">
         <v>145</v>
       </c>
       <c r="D144" s="2">
@@ -3655,7 +3967,7 @@
       <c r="B145" s="1">
         <v>108</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D145" s="2">
@@ -3669,7 +3981,7 @@
       <c r="B146" s="1">
         <v>108</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="9" t="s">
         <v>147</v>
       </c>
       <c r="D146" s="2">
@@ -3683,7 +3995,7 @@
       <c r="B147" s="1">
         <v>109</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="9" t="s">
         <v>148</v>
       </c>
       <c r="D147" s="2">
@@ -3697,7 +4009,7 @@
       <c r="B148" s="1">
         <v>110</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D148" s="2">
@@ -3711,7 +4023,7 @@
       <c r="B149" s="1">
         <v>111</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D149" s="2">
@@ -3725,7 +4037,7 @@
       <c r="B150" s="1">
         <v>112</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D150" s="2">
@@ -3739,7 +4051,7 @@
       <c r="B151" s="1">
         <v>113</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="9" t="s">
         <v>152</v>
       </c>
       <c r="D151" s="2">
@@ -3753,7 +4065,7 @@
       <c r="B152" s="1">
         <v>114</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="9" t="s">
         <v>153</v>
       </c>
       <c r="D152" s="2">
@@ -3767,7 +4079,7 @@
       <c r="B153" s="1">
         <v>115</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="9" t="s">
         <v>154</v>
       </c>
       <c r="D153" s="2">
@@ -3781,7 +4093,7 @@
       <c r="B154" s="1">
         <v>116</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="9" t="s">
         <v>155</v>
       </c>
       <c r="D154" s="2">
@@ -3795,7 +4107,7 @@
       <c r="B155" s="1">
         <v>117</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="9" t="s">
         <v>156</v>
       </c>
       <c r="D155" s="2">
@@ -3809,7 +4121,7 @@
       <c r="B156" s="1">
         <v>118</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="9" t="s">
         <v>157</v>
       </c>
       <c r="D156" s="2">
@@ -3823,7 +4135,7 @@
       <c r="B157" s="1">
         <v>119</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="9" t="s">
         <v>158</v>
       </c>
       <c r="D157" s="2">
@@ -3837,7 +4149,7 @@
       <c r="B158" s="1">
         <v>120</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="9" t="s">
         <v>159</v>
       </c>
       <c r="D158" s="2">
@@ -3851,7 +4163,7 @@
       <c r="B159" s="1">
         <v>121</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="9" t="s">
         <v>160</v>
       </c>
       <c r="D159" s="2">
@@ -3865,7 +4177,7 @@
       <c r="B160" s="1">
         <v>122</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="9" t="s">
         <v>161</v>
       </c>
       <c r="D160" s="2">
@@ -3879,7 +4191,7 @@
       <c r="B161" s="1">
         <v>123</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="9" t="s">
         <v>162</v>
       </c>
       <c r="D161" s="2">
@@ -3893,7 +4205,7 @@
       <c r="B162" s="1">
         <v>124</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D162" s="2">
@@ -3907,7 +4219,7 @@
       <c r="B163" s="1">
         <v>125</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D163" s="2">
@@ -3921,7 +4233,7 @@
       <c r="B164" s="1">
         <v>125</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="9" t="s">
         <v>165</v>
       </c>
       <c r="D164" s="2">
@@ -3935,7 +4247,7 @@
       <c r="B165" s="1">
         <v>126</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="9" t="s">
         <v>166</v>
       </c>
       <c r="D165" s="2">
@@ -3949,7 +4261,7 @@
       <c r="B166" s="1">
         <v>127</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="9" t="s">
         <v>167</v>
       </c>
       <c r="D166" s="2">
@@ -3963,7 +4275,7 @@
       <c r="B167" s="1">
         <v>127</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="9" t="s">
         <v>168</v>
       </c>
       <c r="D167" s="2">
@@ -3977,7 +4289,7 @@
       <c r="B168" s="1">
         <v>127</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="9" t="s">
         <v>169</v>
       </c>
       <c r="D168" s="2">
@@ -3991,7 +4303,7 @@
       <c r="B169" s="1">
         <v>127</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="9" t="s">
         <v>170</v>
       </c>
       <c r="D169" s="2">
@@ -4005,7 +4317,7 @@
       <c r="B170" s="1">
         <v>127</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="9" t="s">
         <v>171</v>
       </c>
       <c r="D170" s="2">
@@ -4019,7 +4331,7 @@
       <c r="B171" s="1">
         <v>128</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="9" t="s">
         <v>172</v>
       </c>
       <c r="D171" s="2">
@@ -4033,7 +4345,7 @@
       <c r="B172" s="1">
         <v>128</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="9" t="s">
         <v>173</v>
       </c>
       <c r="D172" s="2">
@@ -4047,7 +4359,7 @@
       <c r="B173" s="1">
         <v>128</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="9" t="s">
         <v>174</v>
       </c>
       <c r="D173" s="2">
@@ -4061,7 +4373,7 @@
       <c r="B174" s="1">
         <v>128</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="9" t="s">
         <v>175</v>
       </c>
       <c r="D174" s="2">
@@ -4075,7 +4387,7 @@
       <c r="B175" s="1">
         <v>128</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="9" t="s">
         <v>176</v>
       </c>
       <c r="D175" s="2">
@@ -4089,7 +4401,7 @@
       <c r="B176" s="1">
         <v>129</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="9" t="s">
         <v>177</v>
       </c>
       <c r="D176" s="2">
@@ -4103,7 +4415,7 @@
       <c r="B177" s="1">
         <v>129</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="9" t="s">
         <v>178</v>
       </c>
       <c r="D177" s="2">
@@ -4117,7 +4429,7 @@
       <c r="B178" s="1">
         <v>130</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="9" t="s">
         <v>179</v>
       </c>
       <c r="D178" s="2">
@@ -4131,7 +4443,7 @@
       <c r="B179" s="1">
         <v>131</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="9" t="s">
         <v>180</v>
       </c>
       <c r="D179" s="2">
@@ -4145,7 +4457,7 @@
       <c r="B180" s="1">
         <v>132</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="9" t="s">
         <v>181</v>
       </c>
       <c r="D180" s="2">
@@ -4159,7 +4471,7 @@
       <c r="B181" s="1">
         <v>133</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="9" t="s">
         <v>182</v>
       </c>
       <c r="D181" s="2">
@@ -4173,7 +4485,7 @@
       <c r="B182" s="1">
         <v>134</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="9" t="s">
         <v>183</v>
       </c>
       <c r="D182" s="2">
@@ -4187,7 +4499,7 @@
       <c r="B183" s="1">
         <v>134</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D183" s="2">
@@ -4201,7 +4513,7 @@
       <c r="B184" s="1">
         <v>134</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="9" t="s">
         <v>185</v>
       </c>
       <c r="D184" s="2">
@@ -4215,7 +4527,7 @@
       <c r="B185" s="1">
         <v>135</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="9" t="s">
         <v>186</v>
       </c>
       <c r="D185" s="2">
@@ -4229,7 +4541,7 @@
       <c r="B186" s="1">
         <v>136</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="9" t="s">
         <v>187</v>
       </c>
       <c r="D186" s="2">
@@ -4243,7 +4555,7 @@
       <c r="B187" s="1">
         <v>137</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="9" t="s">
         <v>188</v>
       </c>
       <c r="D187" s="2">
@@ -4257,7 +4569,7 @@
       <c r="B188" s="1">
         <v>138</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="9" t="s">
         <v>189</v>
       </c>
       <c r="D188" s="2">
@@ -4271,7 +4583,7 @@
       <c r="B189" s="1">
         <v>139</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="9" t="s">
         <v>190</v>
       </c>
       <c r="D189" s="2">
@@ -4285,7 +4597,7 @@
       <c r="B190" s="1">
         <v>139</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="9" t="s">
         <v>191</v>
       </c>
       <c r="D190" s="2">
@@ -4299,7 +4611,7 @@
       <c r="B191" s="1">
         <v>139</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="9" t="s">
         <v>192</v>
       </c>
       <c r="D191" s="2">
@@ -4313,7 +4625,7 @@
       <c r="B192" s="1">
         <v>139</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D192" s="2">
@@ -4327,7 +4639,7 @@
       <c r="B193" s="1">
         <v>140</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="9" t="s">
         <v>194</v>
       </c>
       <c r="D193" s="2">
@@ -4341,7 +4653,7 @@
       <c r="B194" s="1">
         <v>140</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="9" t="s">
         <v>195</v>
       </c>
       <c r="D194" s="2">
@@ -4355,7 +4667,7 @@
       <c r="B195" s="1">
         <v>141</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="9" t="s">
         <v>196</v>
       </c>
       <c r="D195" s="2">
@@ -4369,7 +4681,7 @@
       <c r="B196" s="1">
         <v>142</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="9" t="s">
         <v>197</v>
       </c>
       <c r="D196" s="2">
@@ -4383,7 +4695,7 @@
       <c r="B197" s="1">
         <v>142</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="9" t="s">
         <v>198</v>
       </c>
       <c r="D197" s="2">
@@ -4397,7 +4709,7 @@
       <c r="B198" s="1">
         <v>142</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="9" t="s">
         <v>199</v>
       </c>
       <c r="D198" s="2">
@@ -4411,7 +4723,7 @@
       <c r="B199" s="1">
         <v>142</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D199" s="2">
@@ -4425,7 +4737,7 @@
       <c r="B200" s="1">
         <v>143</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="9" t="s">
         <v>201</v>
       </c>
       <c r="D200" s="2">
@@ -4439,7 +4751,7 @@
       <c r="B201" s="1">
         <v>144</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D201" s="2">
@@ -4453,7 +4765,7 @@
       <c r="B202" s="1">
         <v>144</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="9" t="s">
         <v>203</v>
       </c>
       <c r="D202" s="2">
@@ -4467,7 +4779,7 @@
       <c r="B203" s="1">
         <v>145</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="9" t="s">
         <v>204</v>
       </c>
       <c r="D203" s="2">
@@ -4481,7 +4793,7 @@
       <c r="B204" s="1">
         <v>145</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="9" t="s">
         <v>205</v>
       </c>
       <c r="D204" s="2">
@@ -4495,7 +4807,7 @@
       <c r="B205" s="1">
         <v>146</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="9" t="s">
         <v>206</v>
       </c>
       <c r="D205" s="2">
@@ -4509,7 +4821,7 @@
       <c r="B206" s="1">
         <v>147</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="9" t="s">
         <v>207</v>
       </c>
       <c r="D206" s="4">
@@ -4523,7 +4835,7 @@
       <c r="B207" s="1">
         <v>147</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="9" t="s">
         <v>208</v>
       </c>
       <c r="D207" s="4">
@@ -4537,7 +4849,7 @@
       <c r="B208" s="1">
         <v>148</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="9" t="s">
         <v>209</v>
       </c>
       <c r="D208" s="2">
@@ -4551,7 +4863,7 @@
       <c r="B209" s="1">
         <v>148</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="9" t="s">
         <v>210</v>
       </c>
       <c r="D209" s="2">
@@ -4565,7 +4877,7 @@
       <c r="B210" s="1">
         <v>149</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="9" t="s">
         <v>211</v>
       </c>
       <c r="D210" s="2">
@@ -4579,7 +4891,7 @@
       <c r="B211" s="1">
         <v>150</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="9" t="s">
         <v>212</v>
       </c>
       <c r="D211" s="2">
@@ -4593,7 +4905,7 @@
       <c r="B212" s="1">
         <v>150</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="9" t="s">
         <v>213</v>
       </c>
       <c r="D212" s="2">
@@ -4607,7 +4919,7 @@
       <c r="B213" s="1">
         <v>151</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="9" t="s">
         <v>214</v>
       </c>
       <c r="D213" s="2">
@@ -4621,7 +4933,7 @@
       <c r="B214" s="1">
         <v>152</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C214" s="9" t="s">
         <v>215</v>
       </c>
       <c r="D214" s="2">
@@ -4635,7 +4947,7 @@
       <c r="B215" s="1">
         <v>152</v>
       </c>
-      <c r="C215" s="8" t="s">
+      <c r="C215" s="9" t="s">
         <v>216</v>
       </c>
       <c r="D215" s="2">
@@ -4649,7 +4961,7 @@
       <c r="B216" s="1">
         <v>153</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C216" s="9" t="s">
         <v>217</v>
       </c>
       <c r="D216" s="2">
@@ -4663,7 +4975,7 @@
       <c r="B217" s="1">
         <v>153</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D217" s="2">
@@ -4677,7 +4989,7 @@
       <c r="B218" s="1">
         <v>154</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="9" t="s">
         <v>219</v>
       </c>
       <c r="D218" s="2">
@@ -4691,7 +5003,7 @@
       <c r="B219" s="1">
         <v>155</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C219" s="9" t="s">
         <v>220</v>
       </c>
       <c r="D219" s="2">
@@ -4705,7 +5017,7 @@
       <c r="B220" s="1">
         <v>156</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="C220" s="9" t="s">
         <v>221</v>
       </c>
       <c r="D220" s="2">
@@ -4719,7 +5031,7 @@
       <c r="B221" s="1">
         <v>157</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C221" s="9" t="s">
         <v>222</v>
       </c>
       <c r="D221" s="2">
@@ -4733,7 +5045,7 @@
       <c r="B222" s="1">
         <v>157</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="9" t="s">
         <v>223</v>
       </c>
       <c r="D222" s="2">
@@ -4747,7 +5059,7 @@
       <c r="B223" s="1">
         <v>158</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="9" t="s">
         <v>224</v>
       </c>
       <c r="D223" s="2">
@@ -4761,7 +5073,7 @@
       <c r="B224" s="1">
         <v>158</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C224" s="9" t="s">
         <v>225</v>
       </c>
       <c r="D224" s="2">
@@ -4775,7 +5087,7 @@
       <c r="B225" s="1">
         <v>159</v>
       </c>
-      <c r="C225" s="8" t="s">
+      <c r="C225" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D225" s="2">
@@ -4789,7 +5101,7 @@
       <c r="B226" s="1">
         <v>159</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C226" s="9" t="s">
         <v>227</v>
       </c>
       <c r="D226" s="2">
@@ -4803,7 +5115,7 @@
       <c r="B227" s="1">
         <v>160</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="C227" s="9" t="s">
         <v>228</v>
       </c>
       <c r="D227" s="2">
@@ -4817,7 +5129,7 @@
       <c r="B228" s="1">
         <v>160</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="9" t="s">
         <v>229</v>
       </c>
       <c r="D228" s="2">
@@ -4831,7 +5143,7 @@
       <c r="B229" s="1">
         <v>161</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="C229" s="9" t="s">
         <v>230</v>
       </c>
       <c r="D229" s="4">
@@ -4845,7 +5157,7 @@
       <c r="B230" s="1">
         <v>161</v>
       </c>
-      <c r="C230" s="8" t="s">
+      <c r="C230" s="9" t="s">
         <v>231</v>
       </c>
       <c r="D230" s="4">
@@ -4859,7 +5171,7 @@
       <c r="B231" s="1">
         <v>161</v>
       </c>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="9" t="s">
         <v>232</v>
       </c>
       <c r="D231" s="2">
@@ -4873,7 +5185,7 @@
       <c r="B232" s="1">
         <v>162</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C232" s="9" t="s">
         <v>233</v>
       </c>
       <c r="D232" s="2">
@@ -4887,7 +5199,7 @@
       <c r="B233" s="1">
         <v>162</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="C233" s="9" t="s">
         <v>234</v>
       </c>
       <c r="D233" s="2">
@@ -4901,7 +5213,7 @@
       <c r="B234" s="1">
         <v>163</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="C234" s="9" t="s">
         <v>235</v>
       </c>
       <c r="D234" s="2">
@@ -4915,7 +5227,7 @@
       <c r="B235" s="1">
         <v>164</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="C235" s="9" t="s">
         <v>236</v>
       </c>
       <c r="D235" s="2">
@@ -4929,7 +5241,7 @@
       <c r="B236" s="1">
         <v>165</v>
       </c>
-      <c r="C236" s="8" t="s">
+      <c r="C236" s="9" t="s">
         <v>237</v>
       </c>
       <c r="D236" s="2">
@@ -4943,7 +5255,7 @@
       <c r="B237" s="1">
         <v>166</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="C237" s="9" t="s">
         <v>238</v>
       </c>
       <c r="D237" s="2">
@@ -4957,7 +5269,7 @@
       <c r="B238" s="1">
         <v>167</v>
       </c>
-      <c r="C238" s="8" t="s">
+      <c r="C238" s="9" t="s">
         <v>239</v>
       </c>
       <c r="D238" s="2">
@@ -4971,7 +5283,7 @@
       <c r="B239" s="1">
         <v>167</v>
       </c>
-      <c r="C239" s="8" t="s">
+      <c r="C239" s="9" t="s">
         <v>240</v>
       </c>
       <c r="D239" s="2">
@@ -4985,7 +5297,7 @@
       <c r="B240" s="1">
         <v>169</v>
       </c>
-      <c r="C240" s="8" t="s">
+      <c r="C240" s="9" t="s">
         <v>241</v>
       </c>
       <c r="D240" s="2">
@@ -4999,7 +5311,7 @@
       <c r="B241" s="1">
         <v>170</v>
       </c>
-      <c r="C241" s="8" t="s">
+      <c r="C241" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D241" s="2">
@@ -5013,7 +5325,7 @@
       <c r="B242" s="1">
         <v>170</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="C242" s="9" t="s">
         <v>243</v>
       </c>
       <c r="D242" s="2">
@@ -5027,7 +5339,7 @@
       <c r="B243" s="1">
         <v>171</v>
       </c>
-      <c r="C243" s="8" t="s">
+      <c r="C243" s="9" t="s">
         <v>244</v>
       </c>
       <c r="D243" s="2">
@@ -5041,7 +5353,7 @@
       <c r="B244" s="1">
         <v>172</v>
       </c>
-      <c r="C244" s="8" t="s">
+      <c r="C244" s="9" t="s">
         <v>245</v>
       </c>
       <c r="D244" s="2">
@@ -5055,7 +5367,7 @@
       <c r="B245" s="1">
         <v>172</v>
       </c>
-      <c r="C245" s="8" t="s">
+      <c r="C245" s="9" t="s">
         <v>246</v>
       </c>
       <c r="D245" s="2">
@@ -5069,7 +5381,7 @@
       <c r="B246" s="1">
         <v>172</v>
       </c>
-      <c r="C246" s="8" t="s">
+      <c r="C246" s="9" t="s">
         <v>247</v>
       </c>
       <c r="D246" s="2">
@@ -5083,7 +5395,7 @@
       <c r="B247" s="1">
         <v>173</v>
       </c>
-      <c r="C247" s="8" t="s">
+      <c r="C247" s="9" t="s">
         <v>248</v>
       </c>
       <c r="D247" s="2">
@@ -5097,7 +5409,7 @@
       <c r="B248" s="1">
         <v>173</v>
       </c>
-      <c r="C248" s="8" t="s">
+      <c r="C248" s="9" t="s">
         <v>249</v>
       </c>
       <c r="D248" s="2">
@@ -5111,7 +5423,7 @@
       <c r="B249" s="1">
         <v>173</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="C249" s="9" t="s">
         <v>250</v>
       </c>
       <c r="D249" s="2">
@@ -5125,7 +5437,7 @@
       <c r="B250" s="1">
         <v>174</v>
       </c>
-      <c r="C250" s="8" t="s">
+      <c r="C250" s="9" t="s">
         <v>251</v>
       </c>
       <c r="D250" s="2">
@@ -5139,7 +5451,7 @@
       <c r="B251" s="1">
         <v>175</v>
       </c>
-      <c r="C251" s="8" t="s">
+      <c r="C251" s="9" t="s">
         <v>252</v>
       </c>
       <c r="D251" s="2">
@@ -5153,7 +5465,7 @@
       <c r="B252" s="1">
         <v>176</v>
       </c>
-      <c r="C252" s="8" t="s">
+      <c r="C252" s="9" t="s">
         <v>253</v>
       </c>
       <c r="D252" s="2">
@@ -5167,7 +5479,7 @@
       <c r="B253" s="1">
         <v>177</v>
       </c>
-      <c r="C253" s="8" t="s">
+      <c r="C253" s="9" t="s">
         <v>254</v>
       </c>
       <c r="D253" s="2">
@@ -5181,7 +5493,7 @@
       <c r="B254" s="1">
         <v>178</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="C254" s="9" t="s">
         <v>255</v>
       </c>
       <c r="D254" s="2">
@@ -5195,7 +5507,7 @@
       <c r="B255" s="1">
         <v>178</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="C255" s="9" t="s">
         <v>256</v>
       </c>
       <c r="D255" s="2">
@@ -5209,7 +5521,7 @@
       <c r="B256" s="1">
         <v>178</v>
       </c>
-      <c r="C256" s="8" t="s">
+      <c r="C256" s="9" t="s">
         <v>257</v>
       </c>
       <c r="D256" s="2">
@@ -5223,7 +5535,7 @@
       <c r="B257" s="1">
         <v>178</v>
       </c>
-      <c r="C257" s="8" t="s">
+      <c r="C257" s="9" t="s">
         <v>258</v>
       </c>
       <c r="D257" s="2">
@@ -5237,7 +5549,7 @@
       <c r="B258" s="1">
         <v>179</v>
       </c>
-      <c r="C258" s="8" t="s">
+      <c r="C258" s="9" t="s">
         <v>259</v>
       </c>
       <c r="D258" s="2">
@@ -5251,7 +5563,7 @@
       <c r="B259" s="1">
         <v>180</v>
       </c>
-      <c r="C259" s="8" t="s">
+      <c r="C259" s="9" t="s">
         <v>260</v>
       </c>
       <c r="D259" s="2">
@@ -5265,7 +5577,7 @@
       <c r="B260" s="1">
         <v>181</v>
       </c>
-      <c r="C260" s="8" t="s">
+      <c r="C260" s="9" t="s">
         <v>261</v>
       </c>
       <c r="D260" s="2">
@@ -5279,7 +5591,7 @@
       <c r="B261" s="1">
         <v>181</v>
       </c>
-      <c r="C261" s="8" t="s">
+      <c r="C261" s="9" t="s">
         <v>262</v>
       </c>
       <c r="D261" s="2">
@@ -5293,7 +5605,7 @@
       <c r="B262" s="1">
         <v>182</v>
       </c>
-      <c r="C262" s="8" t="s">
+      <c r="C262" s="9" t="s">
         <v>263</v>
       </c>
       <c r="D262" s="2">
@@ -5307,7 +5619,7 @@
       <c r="B263" s="1">
         <v>183</v>
       </c>
-      <c r="C263" s="8" t="s">
+      <c r="C263" s="9" t="s">
         <v>264</v>
       </c>
       <c r="D263" s="2">
@@ -5321,7 +5633,7 @@
       <c r="B264" s="1">
         <v>183</v>
       </c>
-      <c r="C264" s="8" t="s">
+      <c r="C264" s="9" t="s">
         <v>265</v>
       </c>
       <c r="D264" s="2">
@@ -5335,7 +5647,7 @@
       <c r="B265" s="1">
         <v>184</v>
       </c>
-      <c r="C265" s="8" t="s">
+      <c r="C265" s="9" t="s">
         <v>266</v>
       </c>
       <c r="D265" s="2">
@@ -5349,7 +5661,7 @@
       <c r="B266" s="1">
         <v>185</v>
       </c>
-      <c r="C266" s="8" t="s">
+      <c r="C266" s="9" t="s">
         <v>267</v>
       </c>
       <c r="D266" s="2">
@@ -5363,7 +5675,7 @@
       <c r="B267" s="1">
         <v>186</v>
       </c>
-      <c r="C267" s="8" t="s">
+      <c r="C267" s="9" t="s">
         <v>268</v>
       </c>
       <c r="D267" s="2">
@@ -5377,7 +5689,7 @@
       <c r="B268" s="1">
         <v>187</v>
       </c>
-      <c r="C268" s="8" t="s">
+      <c r="C268" s="9" t="s">
         <v>269</v>
       </c>
       <c r="D268" s="2">
@@ -5391,7 +5703,7 @@
       <c r="B269" s="1">
         <v>188</v>
       </c>
-      <c r="C269" s="8" t="s">
+      <c r="C269" s="9" t="s">
         <v>270</v>
       </c>
       <c r="D269" s="2">
@@ -5405,7 +5717,7 @@
       <c r="B270" s="1">
         <v>189</v>
       </c>
-      <c r="C270" s="8" t="s">
+      <c r="C270" s="9" t="s">
         <v>271</v>
       </c>
       <c r="D270" s="2">
@@ -5419,7 +5731,7 @@
       <c r="B271" s="1">
         <v>189</v>
       </c>
-      <c r="C271" s="8" t="s">
+      <c r="C271" s="9" t="s">
         <v>272</v>
       </c>
       <c r="D271" s="2">
@@ -5433,7 +5745,7 @@
       <c r="B272" s="1">
         <v>190</v>
       </c>
-      <c r="C272" s="8" t="s">
+      <c r="C272" s="9" t="s">
         <v>273</v>
       </c>
       <c r="D272" s="2">
@@ -5447,7 +5759,7 @@
       <c r="B273" s="1">
         <v>190</v>
       </c>
-      <c r="C273" s="8" t="s">
+      <c r="C273" s="9" t="s">
         <v>274</v>
       </c>
       <c r="D273" s="2">
@@ -5461,7 +5773,7 @@
       <c r="B274" s="1">
         <v>191</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="C274" s="9" t="s">
         <v>275</v>
       </c>
       <c r="D274" s="2">
@@ -5475,7 +5787,7 @@
       <c r="B275" s="1">
         <v>192</v>
       </c>
-      <c r="C275" s="8" t="s">
+      <c r="C275" s="9" t="s">
         <v>276</v>
       </c>
       <c r="D275" s="2">
@@ -5489,7 +5801,7 @@
       <c r="B276" s="1">
         <v>193</v>
       </c>
-      <c r="C276" s="8" t="s">
+      <c r="C276" s="9" t="s">
         <v>277</v>
       </c>
       <c r="D276" s="2">
@@ -5503,7 +5815,7 @@
       <c r="B277" s="1">
         <v>193</v>
       </c>
-      <c r="C277" s="8" t="s">
+      <c r="C277" s="9" t="s">
         <v>278</v>
       </c>
       <c r="D277" s="2">
@@ -5517,7 +5829,7 @@
       <c r="B278" s="1">
         <v>194</v>
       </c>
-      <c r="C278" s="8" t="s">
+      <c r="C278" s="9" t="s">
         <v>279</v>
       </c>
       <c r="D278" s="2">
@@ -5531,7 +5843,7 @@
       <c r="B279" s="1">
         <v>195</v>
       </c>
-      <c r="C279" s="8" t="s">
+      <c r="C279" s="9" t="s">
         <v>280</v>
       </c>
       <c r="D279" s="2">
@@ -5545,7 +5857,7 @@
       <c r="B280" s="1">
         <v>196</v>
       </c>
-      <c r="C280" s="8" t="s">
+      <c r="C280" s="9" t="s">
         <v>281</v>
       </c>
       <c r="D280" s="4">
@@ -5559,7 +5871,7 @@
       <c r="B281" s="1">
         <v>196</v>
       </c>
-      <c r="C281" s="8" t="s">
+      <c r="C281" s="9" t="s">
         <v>282</v>
       </c>
       <c r="D281" s="2">
@@ -5573,7 +5885,7 @@
       <c r="B282" s="1">
         <v>196</v>
       </c>
-      <c r="C282" s="8" t="s">
+      <c r="C282" s="9" t="s">
         <v>283</v>
       </c>
       <c r="D282" s="4">
@@ -5587,7 +5899,7 @@
       <c r="B283" s="1">
         <v>197</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="C283" s="9" t="s">
         <v>284</v>
       </c>
       <c r="D283" s="2">
@@ -5601,7 +5913,7 @@
       <c r="B284" s="1">
         <v>198</v>
       </c>
-      <c r="C284" s="8" t="s">
+      <c r="C284" s="9" t="s">
         <v>285</v>
       </c>
       <c r="D284" s="2">
@@ -5615,7 +5927,7 @@
       <c r="B285" s="1">
         <v>198</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="C285" s="9" t="s">
         <v>286</v>
       </c>
       <c r="D285" s="2">
@@ -5629,7 +5941,7 @@
       <c r="B286" s="1">
         <v>199</v>
       </c>
-      <c r="C286" s="8" t="s">
+      <c r="C286" s="9" t="s">
         <v>287</v>
       </c>
       <c r="D286" s="2">
@@ -5643,7 +5955,7 @@
       <c r="B287" s="1">
         <v>200</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C287" s="9" t="s">
         <v>288</v>
       </c>
       <c r="D287" s="2">
@@ -5657,7 +5969,7 @@
       <c r="B288" s="1">
         <v>200</v>
       </c>
-      <c r="C288" s="8" t="s">
+      <c r="C288" s="9" t="s">
         <v>289</v>
       </c>
       <c r="D288" s="2">
@@ -5671,7 +5983,7 @@
       <c r="B289" s="1">
         <v>201</v>
       </c>
-      <c r="C289" s="8" t="s">
+      <c r="C289" s="9" t="s">
         <v>290</v>
       </c>
       <c r="D289" s="2">
@@ -5685,7 +5997,7 @@
       <c r="B290" s="1">
         <v>202</v>
       </c>
-      <c r="C290" s="8" t="s">
+      <c r="C290" s="9" t="s">
         <v>291</v>
       </c>
       <c r="D290" s="2">
@@ -5699,7 +6011,7 @@
       <c r="B291" s="1">
         <v>203</v>
       </c>
-      <c r="C291" s="8" t="s">
+      <c r="C291" s="9" t="s">
         <v>292</v>
       </c>
       <c r="D291" s="2">
@@ -5713,7 +6025,7 @@
       <c r="B292" s="1">
         <v>203</v>
       </c>
-      <c r="C292" s="8" t="s">
+      <c r="C292" s="9" t="s">
         <v>293</v>
       </c>
       <c r="D292" s="2">
@@ -5727,7 +6039,7 @@
       <c r="B293" s="1">
         <v>203</v>
       </c>
-      <c r="C293" s="8" t="s">
+      <c r="C293" s="9" t="s">
         <v>294</v>
       </c>
       <c r="D293" s="2">
@@ -5741,7 +6053,7 @@
       <c r="B294" s="1">
         <v>204</v>
       </c>
-      <c r="C294" s="8" t="s">
+      <c r="C294" s="9" t="s">
         <v>295</v>
       </c>
       <c r="D294" s="2">
@@ -5755,7 +6067,7 @@
       <c r="B295" s="1">
         <v>205</v>
       </c>
-      <c r="C295" s="8" t="s">
+      <c r="C295" s="9" t="s">
         <v>296</v>
       </c>
       <c r="D295" s="2">
@@ -5769,7 +6081,7 @@
       <c r="B296" s="1">
         <v>206</v>
       </c>
-      <c r="C296" s="8" t="s">
+      <c r="C296" s="9" t="s">
         <v>297</v>
       </c>
       <c r="D296" s="2">
@@ -5783,7 +6095,7 @@
       <c r="B297" s="1">
         <v>207</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="C297" s="9" t="s">
         <v>298</v>
       </c>
       <c r="D297" s="2">
@@ -5797,7 +6109,7 @@
       <c r="B298" s="1">
         <v>207</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="C298" s="9" t="s">
         <v>299</v>
       </c>
       <c r="D298" s="2">
@@ -5811,7 +6123,7 @@
       <c r="B299" s="1">
         <v>208</v>
       </c>
-      <c r="C299" s="8" t="s">
+      <c r="C299" s="9" t="s">
         <v>300</v>
       </c>
       <c r="D299" s="2">
@@ -5825,7 +6137,7 @@
       <c r="B300" s="1">
         <v>208</v>
       </c>
-      <c r="C300" s="8" t="s">
+      <c r="C300" s="9" t="s">
         <v>301</v>
       </c>
       <c r="D300" s="2">
@@ -5839,7 +6151,7 @@
       <c r="B301" s="1">
         <v>208</v>
       </c>
-      <c r="C301" s="8" t="s">
+      <c r="C301" s="9" t="s">
         <v>302</v>
       </c>
       <c r="D301" s="2">
@@ -5853,7 +6165,7 @@
       <c r="B302" s="1">
         <v>209</v>
       </c>
-      <c r="C302" s="8" t="s">
+      <c r="C302" s="9" t="s">
         <v>303</v>
       </c>
       <c r="D302" s="2">
@@ -5867,7 +6179,7 @@
       <c r="B303" s="1">
         <v>210</v>
       </c>
-      <c r="C303" s="8" t="s">
+      <c r="C303" s="9" t="s">
         <v>304</v>
       </c>
       <c r="D303" s="2">
@@ -5881,7 +6193,7 @@
       <c r="B304" s="1">
         <v>211</v>
       </c>
-      <c r="C304" s="8" t="s">
+      <c r="C304" s="9" t="s">
         <v>305</v>
       </c>
       <c r="D304" s="2">
@@ -5895,7 +6207,7 @@
       <c r="B305" s="1">
         <v>212</v>
       </c>
-      <c r="C305" s="8" t="s">
+      <c r="C305" s="9" t="s">
         <v>306</v>
       </c>
       <c r="D305" s="2">
@@ -5909,7 +6221,7 @@
       <c r="B306" s="1">
         <v>213</v>
       </c>
-      <c r="C306" s="8" t="s">
+      <c r="C306" s="9" t="s">
         <v>307</v>
       </c>
       <c r="D306" s="2">
@@ -5923,7 +6235,7 @@
       <c r="B307" s="1">
         <v>214</v>
       </c>
-      <c r="C307" s="8" t="s">
+      <c r="C307" s="9" t="s">
         <v>308</v>
       </c>
       <c r="D307" s="2">
@@ -5937,7 +6249,7 @@
       <c r="B308" s="1">
         <v>215</v>
       </c>
-      <c r="C308" s="8" t="s">
+      <c r="C308" s="9" t="s">
         <v>309</v>
       </c>
       <c r="D308" s="2">
@@ -5951,7 +6263,7 @@
       <c r="B309" s="1">
         <v>216</v>
       </c>
-      <c r="C309" s="8" t="s">
+      <c r="C309" s="9" t="s">
         <v>310</v>
       </c>
       <c r="D309" s="2">
@@ -5965,7 +6277,7 @@
       <c r="B310" s="1">
         <v>217</v>
       </c>
-      <c r="C310" s="8" t="s">
+      <c r="C310" s="9" t="s">
         <v>311</v>
       </c>
       <c r="D310" s="2">
@@ -5979,7 +6291,7 @@
       <c r="B311" s="1">
         <v>218</v>
       </c>
-      <c r="C311" s="8" t="s">
+      <c r="C311" s="9" t="s">
         <v>312</v>
       </c>
       <c r="D311" s="2">
@@ -5993,7 +6305,7 @@
       <c r="B312" s="1">
         <v>219</v>
       </c>
-      <c r="C312" s="8" t="s">
+      <c r="C312" s="9" t="s">
         <v>313</v>
       </c>
       <c r="D312" s="2">
@@ -6007,7 +6319,7 @@
       <c r="B313" s="1">
         <v>220</v>
       </c>
-      <c r="C313" s="8" t="s">
+      <c r="C313" s="9" t="s">
         <v>314</v>
       </c>
       <c r="D313" s="2">
@@ -6021,7 +6333,7 @@
       <c r="B314" s="1">
         <v>221</v>
       </c>
-      <c r="C314" s="8" t="s">
+      <c r="C314" s="9" t="s">
         <v>315</v>
       </c>
       <c r="D314" s="2">
@@ -6035,7 +6347,7 @@
       <c r="B315" s="1">
         <v>222</v>
       </c>
-      <c r="C315" s="8" t="s">
+      <c r="C315" s="9" t="s">
         <v>316</v>
       </c>
       <c r="D315" s="2">
@@ -6049,7 +6361,7 @@
       <c r="B316" s="1">
         <v>223</v>
       </c>
-      <c r="C316" s="8" t="s">
+      <c r="C316" s="9" t="s">
         <v>317</v>
       </c>
       <c r="D316" s="2">
@@ -6063,7 +6375,7 @@
       <c r="B317" s="1">
         <v>224</v>
       </c>
-      <c r="C317" s="8" t="s">
+      <c r="C317" s="9" t="s">
         <v>318</v>
       </c>
       <c r="D317" s="2">
@@ -6077,7 +6389,7 @@
       <c r="B318" s="1">
         <v>225</v>
       </c>
-      <c r="C318" s="8" t="s">
+      <c r="C318" s="9" t="s">
         <v>319</v>
       </c>
       <c r="D318" s="2">
@@ -6091,7 +6403,7 @@
       <c r="B319" s="1">
         <v>225</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C319" s="9" t="s">
         <v>320</v>
       </c>
       <c r="D319" s="2">
@@ -6105,7 +6417,7 @@
       <c r="B320" s="1">
         <v>226</v>
       </c>
-      <c r="C320" s="8" t="s">
+      <c r="C320" s="9" t="s">
         <v>321</v>
       </c>
       <c r="D320" s="2">
@@ -6119,7 +6431,7 @@
       <c r="B321" s="1">
         <v>227</v>
       </c>
-      <c r="C321" s="8" t="s">
+      <c r="C321" s="9" t="s">
         <v>322</v>
       </c>
       <c r="D321" s="2">
@@ -6133,7 +6445,7 @@
       <c r="B322" s="1">
         <v>227</v>
       </c>
-      <c r="C322" s="8" t="s">
+      <c r="C322" s="9" t="s">
         <v>323</v>
       </c>
       <c r="D322" s="2">
@@ -6147,7 +6459,7 @@
       <c r="B323" s="1">
         <v>228</v>
       </c>
-      <c r="C323" s="8" t="s">
+      <c r="C323" s="9" t="s">
         <v>324</v>
       </c>
       <c r="D323" s="2">
@@ -6161,7 +6473,7 @@
       <c r="B324" s="1">
         <v>228</v>
       </c>
-      <c r="C324" s="8" t="s">
+      <c r="C324" s="9" t="s">
         <v>325</v>
       </c>
       <c r="D324" s="2">
@@ -6175,7 +6487,7 @@
       <c r="B325" s="1">
         <v>229</v>
       </c>
-      <c r="C325" s="8" t="s">
+      <c r="C325" s="9" t="s">
         <v>326</v>
       </c>
       <c r="D325" s="2">
@@ -6189,7 +6501,7 @@
       <c r="B326" s="1">
         <v>230</v>
       </c>
-      <c r="C326" s="8" t="s">
+      <c r="C326" s="9" t="s">
         <v>327</v>
       </c>
       <c r="D326" s="2">
@@ -6203,7 +6515,7 @@
       <c r="B327" s="1">
         <v>231</v>
       </c>
-      <c r="C327" s="8" t="s">
+      <c r="C327" s="9" t="s">
         <v>328</v>
       </c>
       <c r="D327" s="2">
@@ -6217,7 +6529,7 @@
       <c r="B328" s="1">
         <v>232</v>
       </c>
-      <c r="C328" s="8" t="s">
+      <c r="C328" s="9" t="s">
         <v>329</v>
       </c>
       <c r="D328" s="2">
@@ -6231,7 +6543,7 @@
       <c r="B329" s="1">
         <v>232</v>
       </c>
-      <c r="C329" s="8" t="s">
+      <c r="C329" s="9" t="s">
         <v>330</v>
       </c>
       <c r="D329" s="2">
@@ -6245,7 +6557,7 @@
       <c r="B330" s="1">
         <v>232</v>
       </c>
-      <c r="C330" s="8" t="s">
+      <c r="C330" s="9" t="s">
         <v>331</v>
       </c>
       <c r="D330" s="2">
@@ -6259,7 +6571,7 @@
       <c r="B331" s="1">
         <v>232</v>
       </c>
-      <c r="C331" s="8" t="s">
+      <c r="C331" s="9" t="s">
         <v>332</v>
       </c>
       <c r="D331" s="2">
@@ -6273,7 +6585,7 @@
       <c r="B332" s="1">
         <v>233</v>
       </c>
-      <c r="C332" s="8" t="s">
+      <c r="C332" s="9" t="s">
         <v>333</v>
       </c>
       <c r="D332" s="2">
@@ -6287,7 +6599,7 @@
       <c r="B333" s="1">
         <v>234</v>
       </c>
-      <c r="C333" s="8" t="s">
+      <c r="C333" s="9" t="s">
         <v>334</v>
       </c>
       <c r="D333" s="2">
@@ -6301,7 +6613,7 @@
       <c r="B334" s="1">
         <v>234</v>
       </c>
-      <c r="C334" s="8" t="s">
+      <c r="C334" s="9" t="s">
         <v>335</v>
       </c>
       <c r="D334" s="2">
@@ -6315,7 +6627,7 @@
       <c r="B335" s="1">
         <v>235</v>
       </c>
-      <c r="C335" s="8" t="s">
+      <c r="C335" s="9" t="s">
         <v>336</v>
       </c>
       <c r="D335" s="2">
@@ -6329,7 +6641,7 @@
       <c r="B336" s="1">
         <v>235</v>
       </c>
-      <c r="C336" s="8" t="s">
+      <c r="C336" s="9" t="s">
         <v>337</v>
       </c>
       <c r="D336" s="2">
@@ -6343,7 +6655,7 @@
       <c r="B337" s="1">
         <v>236</v>
       </c>
-      <c r="C337" s="8" t="s">
+      <c r="C337" s="9" t="s">
         <v>338</v>
       </c>
       <c r="D337" s="2">
@@ -6357,7 +6669,7 @@
       <c r="B338" s="1">
         <v>236</v>
       </c>
-      <c r="C338" s="8" t="s">
+      <c r="C338" s="9" t="s">
         <v>339</v>
       </c>
       <c r="D338" s="2">
@@ -6371,7 +6683,7 @@
       <c r="B339" s="1">
         <v>237</v>
       </c>
-      <c r="C339" s="8" t="s">
+      <c r="C339" s="9" t="s">
         <v>340</v>
       </c>
       <c r="D339" s="2">
@@ -6385,7 +6697,7 @@
       <c r="B340" s="1">
         <v>238</v>
       </c>
-      <c r="C340" s="8" t="s">
+      <c r="C340" s="9" t="s">
         <v>341</v>
       </c>
       <c r="D340" s="2">
@@ -6399,7 +6711,7 @@
       <c r="B341" s="1">
         <v>238</v>
       </c>
-      <c r="C341" s="8" t="s">
+      <c r="C341" s="9" t="s">
         <v>342</v>
       </c>
       <c r="D341" s="2">
@@ -6413,7 +6725,7 @@
       <c r="B342" s="1">
         <v>239</v>
       </c>
-      <c r="C342" s="8" t="s">
+      <c r="C342" s="9" t="s">
         <v>343</v>
       </c>
       <c r="D342" s="2">
@@ -6427,7 +6739,7 @@
       <c r="B343" s="1">
         <v>239</v>
       </c>
-      <c r="C343" s="8" t="s">
+      <c r="C343" s="9" t="s">
         <v>344</v>
       </c>
       <c r="D343" s="2">
@@ -6441,7 +6753,7 @@
       <c r="B344" s="1">
         <v>239</v>
       </c>
-      <c r="C344" s="8" t="s">
+      <c r="C344" s="9" t="s">
         <v>345</v>
       </c>
       <c r="D344" s="2">
@@ -6455,7 +6767,7 @@
       <c r="B345" s="1">
         <v>239</v>
       </c>
-      <c r="C345" s="8" t="s">
+      <c r="C345" s="9" t="s">
         <v>346</v>
       </c>
       <c r="D345" s="2">
@@ -6469,7 +6781,7 @@
       <c r="B346" s="1">
         <v>239</v>
       </c>
-      <c r="C346" s="8" t="s">
+      <c r="C346" s="9" t="s">
         <v>347</v>
       </c>
       <c r="D346" s="2">
@@ -6483,7 +6795,7 @@
       <c r="B347" s="1">
         <v>240</v>
       </c>
-      <c r="C347" s="8" t="s">
+      <c r="C347" s="9" t="s">
         <v>348</v>
       </c>
       <c r="D347" s="2">
@@ -6497,7 +6809,7 @@
       <c r="B348" s="1">
         <v>240</v>
       </c>
-      <c r="C348" s="8" t="s">
+      <c r="C348" s="9" t="s">
         <v>349</v>
       </c>
       <c r="D348" s="2">
@@ -6511,7 +6823,7 @@
       <c r="B349" s="1">
         <v>241</v>
       </c>
-      <c r="C349" s="8" t="s">
+      <c r="C349" s="9" t="s">
         <v>350</v>
       </c>
       <c r="D349" s="2">
@@ -6525,7 +6837,7 @@
       <c r="B350" s="1">
         <v>241</v>
       </c>
-      <c r="C350" s="8" t="s">
+      <c r="C350" s="9" t="s">
         <v>351</v>
       </c>
       <c r="D350" s="2">
@@ -6539,7 +6851,7 @@
       <c r="B351" s="1">
         <v>242</v>
       </c>
-      <c r="C351" s="8" t="s">
+      <c r="C351" s="9" t="s">
         <v>352</v>
       </c>
       <c r="D351" s="2">
@@ -6553,7 +6865,7 @@
       <c r="B352" s="1">
         <v>243</v>
       </c>
-      <c r="C352" s="8" t="s">
+      <c r="C352" s="9" t="s">
         <v>353</v>
       </c>
       <c r="D352" s="2">
@@ -6567,7 +6879,7 @@
       <c r="B353" s="1">
         <v>244</v>
       </c>
-      <c r="C353" s="8" t="s">
+      <c r="C353" s="9" t="s">
         <v>354</v>
       </c>
       <c r="D353" s="2">
@@ -6581,7 +6893,7 @@
       <c r="B354" s="1">
         <v>244</v>
       </c>
-      <c r="C354" s="8" t="s">
+      <c r="C354" s="9" t="s">
         <v>355</v>
       </c>
       <c r="D354" s="2">
@@ -6595,7 +6907,7 @@
       <c r="B355" s="1">
         <v>245</v>
       </c>
-      <c r="C355" s="8" t="s">
+      <c r="C355" s="9" t="s">
         <v>356</v>
       </c>
       <c r="D355" s="2">
@@ -6609,7 +6921,7 @@
       <c r="B356" s="1">
         <v>245</v>
       </c>
-      <c r="C356" s="8" t="s">
+      <c r="C356" s="9" t="s">
         <v>357</v>
       </c>
       <c r="D356" s="2">
@@ -6623,7 +6935,7 @@
       <c r="B357" s="1">
         <v>245</v>
       </c>
-      <c r="C357" s="8" t="s">
+      <c r="C357" s="9" t="s">
         <v>358</v>
       </c>
       <c r="D357" s="2">
@@ -6637,7 +6949,7 @@
       <c r="B358" s="1">
         <v>246</v>
       </c>
-      <c r="C358" s="8" t="s">
+      <c r="C358" s="9" t="s">
         <v>359</v>
       </c>
       <c r="D358" s="2">
@@ -6651,7 +6963,7 @@
       <c r="B359" s="1">
         <v>247</v>
       </c>
-      <c r="C359" s="8" t="s">
+      <c r="C359" s="9" t="s">
         <v>360</v>
       </c>
       <c r="D359" s="2">
@@ -6665,7 +6977,7 @@
       <c r="B360" s="1">
         <v>248</v>
       </c>
-      <c r="C360" s="8" t="s">
+      <c r="C360" s="9" t="s">
         <v>361</v>
       </c>
       <c r="D360" s="2">
@@ -6679,7 +6991,7 @@
       <c r="B361" s="1">
         <v>249</v>
       </c>
-      <c r="C361" s="8" t="s">
+      <c r="C361" s="9" t="s">
         <v>362</v>
       </c>
       <c r="D361" s="2">
@@ -6693,7 +7005,7 @@
       <c r="B362" s="1">
         <v>250</v>
       </c>
-      <c r="C362" s="8" t="s">
+      <c r="C362" s="9" t="s">
         <v>363</v>
       </c>
       <c r="D362" s="2">
@@ -6707,7 +7019,7 @@
       <c r="B363" s="1">
         <v>251</v>
       </c>
-      <c r="C363" s="8" t="s">
+      <c r="C363" s="9" t="s">
         <v>364</v>
       </c>
       <c r="D363" s="2">
@@ -6721,7 +7033,7 @@
       <c r="B364" s="1">
         <v>252</v>
       </c>
-      <c r="C364" s="8" t="s">
+      <c r="C364" s="9" t="s">
         <v>365</v>
       </c>
       <c r="D364" s="2">
@@ -6735,7 +7047,7 @@
       <c r="B365" s="1">
         <v>253</v>
       </c>
-      <c r="C365" s="8" t="s">
+      <c r="C365" s="9" t="s">
         <v>366</v>
       </c>
       <c r="D365" s="2">
@@ -6749,7 +7061,7 @@
       <c r="B366" s="1">
         <v>253</v>
       </c>
-      <c r="C366" s="8" t="s">
+      <c r="C366" s="9" t="s">
         <v>367</v>
       </c>
       <c r="D366" s="2">
@@ -6763,7 +7075,7 @@
       <c r="B367" s="1">
         <v>254</v>
       </c>
-      <c r="C367" s="8" t="s">
+      <c r="C367" s="9" t="s">
         <v>368</v>
       </c>
       <c r="D367" s="2">
@@ -6777,7 +7089,7 @@
       <c r="B368" s="1">
         <v>255</v>
       </c>
-      <c r="C368" s="8" t="s">
+      <c r="C368" s="9" t="s">
         <v>369</v>
       </c>
       <c r="D368" s="2">
@@ -6791,7 +7103,7 @@
       <c r="B369" s="1">
         <v>256</v>
       </c>
-      <c r="C369" s="8" t="s">
+      <c r="C369" s="9" t="s">
         <v>370</v>
       </c>
       <c r="D369" s="2">
@@ -6805,7 +7117,7 @@
       <c r="B370" s="1">
         <v>257</v>
       </c>
-      <c r="C370" s="8" t="s">
+      <c r="C370" s="9" t="s">
         <v>371</v>
       </c>
       <c r="D370" s="2">
@@ -6819,7 +7131,7 @@
       <c r="B371" s="1">
         <v>257</v>
       </c>
-      <c r="C371" s="8" t="s">
+      <c r="C371" s="9" t="s">
         <v>372</v>
       </c>
       <c r="D371" s="2">
@@ -6833,7 +7145,7 @@
       <c r="B372" s="1">
         <v>257</v>
       </c>
-      <c r="C372" s="8" t="s">
+      <c r="C372" s="9" t="s">
         <v>373</v>
       </c>
       <c r="D372" s="2">
@@ -6847,7 +7159,7 @@
       <c r="B373" s="1">
         <v>258</v>
       </c>
-      <c r="C373" s="8" t="s">
+      <c r="C373" s="9" t="s">
         <v>374</v>
       </c>
       <c r="D373" s="2">
@@ -6861,7 +7173,7 @@
       <c r="B374" s="1">
         <v>259</v>
       </c>
-      <c r="C374" s="8" t="s">
+      <c r="C374" s="9" t="s">
         <v>375</v>
       </c>
       <c r="D374" s="2">
@@ -6875,7 +7187,7 @@
       <c r="B375" s="1">
         <v>260</v>
       </c>
-      <c r="C375" s="8" t="s">
+      <c r="C375" s="9" t="s">
         <v>376</v>
       </c>
       <c r="D375" s="2">
@@ -6889,7 +7201,7 @@
       <c r="B376" s="1">
         <v>260</v>
       </c>
-      <c r="C376" s="8" t="s">
+      <c r="C376" s="9" t="s">
         <v>377</v>
       </c>
       <c r="D376" s="2">
@@ -6903,7 +7215,7 @@
       <c r="B377" s="1">
         <v>261</v>
       </c>
-      <c r="C377" s="8" t="s">
+      <c r="C377" s="9" t="s">
         <v>378</v>
       </c>
       <c r="D377" s="2">
@@ -6917,7 +7229,7 @@
       <c r="B378" s="1">
         <v>262</v>
       </c>
-      <c r="C378" s="8" t="s">
+      <c r="C378" s="9" t="s">
         <v>379</v>
       </c>
       <c r="D378" s="2">
@@ -6931,7 +7243,7 @@
       <c r="B379" s="1">
         <v>263</v>
       </c>
-      <c r="C379" s="8" t="s">
+      <c r="C379" s="9" t="s">
         <v>380</v>
       </c>
       <c r="D379" s="2">
@@ -6945,7 +7257,7 @@
       <c r="B380" s="1">
         <v>263</v>
       </c>
-      <c r="C380" s="8" t="s">
+      <c r="C380" s="9" t="s">
         <v>381</v>
       </c>
       <c r="D380" s="2">
@@ -6959,7 +7271,7 @@
       <c r="B381" s="1">
         <v>264</v>
       </c>
-      <c r="C381" s="8" t="s">
+      <c r="C381" s="9" t="s">
         <v>382</v>
       </c>
       <c r="D381" s="2">
@@ -6973,7 +7285,7 @@
       <c r="B382" s="1">
         <v>265</v>
       </c>
-      <c r="C382" s="8" t="s">
+      <c r="C382" s="9" t="s">
         <v>383</v>
       </c>
       <c r="D382" s="2">
@@ -6987,7 +7299,7 @@
       <c r="B383" s="1">
         <v>265</v>
       </c>
-      <c r="C383" s="8" t="s">
+      <c r="C383" s="9" t="s">
         <v>384</v>
       </c>
       <c r="D383" s="2">
@@ -7001,7 +7313,7 @@
       <c r="B384" s="1">
         <v>265</v>
       </c>
-      <c r="C384" s="8" t="s">
+      <c r="C384" s="9" t="s">
         <v>385</v>
       </c>
       <c r="D384" s="2">
@@ -7015,7 +7327,7 @@
       <c r="B385" s="1">
         <v>266</v>
       </c>
-      <c r="C385" s="8" t="s">
+      <c r="C385" s="9" t="s">
         <v>386</v>
       </c>
       <c r="D385" s="2">
@@ -7029,7 +7341,7 @@
       <c r="B386" s="1">
         <v>266</v>
       </c>
-      <c r="C386" s="8" t="s">
+      <c r="C386" s="9" t="s">
         <v>387</v>
       </c>
       <c r="D386" s="2">
@@ -7043,7 +7355,7 @@
       <c r="B387" s="1">
         <v>266</v>
       </c>
-      <c r="C387" s="8" t="s">
+      <c r="C387" s="9" t="s">
         <v>388</v>
       </c>
       <c r="D387" s="2">
@@ -7057,7 +7369,7 @@
       <c r="B388" s="1">
         <v>267</v>
       </c>
-      <c r="C388" s="8" t="s">
+      <c r="C388" s="9" t="s">
         <v>389</v>
       </c>
       <c r="D388" s="2">
@@ -7071,7 +7383,7 @@
       <c r="B389" s="1">
         <v>267</v>
       </c>
-      <c r="C389" s="8" t="s">
+      <c r="C389" s="9" t="s">
         <v>390</v>
       </c>
       <c r="D389" s="2">
@@ -7085,7 +7397,7 @@
       <c r="B390" s="1">
         <v>267</v>
       </c>
-      <c r="C390" s="8" t="s">
+      <c r="C390" s="9" t="s">
         <v>391</v>
       </c>
       <c r="D390" s="2">
@@ -7099,7 +7411,7 @@
       <c r="B391" s="1">
         <v>268</v>
       </c>
-      <c r="C391" s="8" t="s">
+      <c r="C391" s="9" t="s">
         <v>392</v>
       </c>
       <c r="D391" s="2">
@@ -7113,7 +7425,7 @@
       <c r="B392" s="1">
         <v>268</v>
       </c>
-      <c r="C392" s="8" t="s">
+      <c r="C392" s="9" t="s">
         <v>393</v>
       </c>
       <c r="D392" s="2">
@@ -7127,7 +7439,7 @@
       <c r="B393" s="1">
         <v>268</v>
       </c>
-      <c r="C393" s="8" t="s">
+      <c r="C393" s="9" t="s">
         <v>394</v>
       </c>
       <c r="D393" s="2">
@@ -7141,7 +7453,7 @@
       <c r="B394" s="1">
         <v>269</v>
       </c>
-      <c r="C394" s="8" t="s">
+      <c r="C394" s="9" t="s">
         <v>395</v>
       </c>
       <c r="D394" s="2">
@@ -7155,7 +7467,7 @@
       <c r="B395" s="1">
         <v>270</v>
       </c>
-      <c r="C395" s="8" t="s">
+      <c r="C395" s="9" t="s">
         <v>396</v>
       </c>
       <c r="D395" s="2">
@@ -7169,7 +7481,7 @@
       <c r="B396" s="1">
         <v>270</v>
       </c>
-      <c r="C396" s="8" t="s">
+      <c r="C396" s="9" t="s">
         <v>397</v>
       </c>
       <c r="D396" s="2">
@@ -7183,7 +7495,7 @@
       <c r="B397" s="1">
         <v>271</v>
       </c>
-      <c r="C397" s="8" t="s">
+      <c r="C397" s="9" t="s">
         <v>398</v>
       </c>
       <c r="D397" s="2">
@@ -7197,7 +7509,7 @@
       <c r="B398" s="1">
         <v>271</v>
       </c>
-      <c r="C398" s="8" t="s">
+      <c r="C398" s="9" t="s">
         <v>399</v>
       </c>
       <c r="D398" s="2">
@@ -7211,7 +7523,7 @@
       <c r="B399" s="1">
         <v>272</v>
       </c>
-      <c r="C399" s="8" t="s">
+      <c r="C399" s="9" t="s">
         <v>400</v>
       </c>
       <c r="D399" s="2">
@@ -7225,7 +7537,7 @@
       <c r="B400" s="1">
         <v>273</v>
       </c>
-      <c r="C400" s="8" t="s">
+      <c r="C400" s="9" t="s">
         <v>401</v>
       </c>
       <c r="D400" s="2">
@@ -7239,10 +7551,1410 @@
       <c r="B401" s="1">
         <v>274</v>
       </c>
-      <c r="C401" s="8" t="s">
+      <c r="C401" s="9" t="s">
         <v>402</v>
       </c>
       <c r="D401" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A402" s="8">
+        <v>401</v>
+      </c>
+      <c r="B402" s="9">
+        <v>275</v>
+      </c>
+      <c r="C402" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D402" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A403" s="8">
+        <v>402</v>
+      </c>
+      <c r="B403" s="9">
+        <v>275</v>
+      </c>
+      <c r="C403" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D403" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A404" s="8">
+        <v>403</v>
+      </c>
+      <c r="B404" s="9">
+        <v>276</v>
+      </c>
+      <c r="C404" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D404" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A405" s="8">
+        <v>404</v>
+      </c>
+      <c r="B405" s="9">
+        <v>278</v>
+      </c>
+      <c r="C405" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D405" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A406" s="8">
+        <v>405</v>
+      </c>
+      <c r="B406" s="9">
+        <v>279</v>
+      </c>
+      <c r="C406" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D406" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A407" s="8">
+        <v>406</v>
+      </c>
+      <c r="B407" s="9">
+        <v>280</v>
+      </c>
+      <c r="C407" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D407" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A408" s="8">
+        <v>407</v>
+      </c>
+      <c r="B408" s="9">
+        <v>281</v>
+      </c>
+      <c r="C408" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D408" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A409" s="8">
+        <v>408</v>
+      </c>
+      <c r="B409" s="9">
+        <v>282</v>
+      </c>
+      <c r="C409" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D409" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A410" s="8">
+        <v>409</v>
+      </c>
+      <c r="B410" s="9">
+        <v>283</v>
+      </c>
+      <c r="C410" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D410" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A411" s="8">
+        <v>410</v>
+      </c>
+      <c r="B411" s="9">
+        <v>283</v>
+      </c>
+      <c r="C411" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D411" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A412" s="8">
+        <v>411</v>
+      </c>
+      <c r="B412" s="9">
+        <v>284</v>
+      </c>
+      <c r="C412" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D412" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A413" s="8">
+        <v>412</v>
+      </c>
+      <c r="B413" s="9">
+        <v>285</v>
+      </c>
+      <c r="C413" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D413" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A414" s="8">
+        <v>413</v>
+      </c>
+      <c r="B414" s="9">
+        <v>286</v>
+      </c>
+      <c r="C414" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D414" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A415" s="8">
+        <v>414</v>
+      </c>
+      <c r="B415" s="9">
+        <v>287</v>
+      </c>
+      <c r="C415" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D415" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A416" s="8">
+        <v>415</v>
+      </c>
+      <c r="B416" s="9">
+        <v>288</v>
+      </c>
+      <c r="C416" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D416" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A417" s="8">
+        <v>416</v>
+      </c>
+      <c r="B417" s="9">
+        <v>289</v>
+      </c>
+      <c r="C417" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D417" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A418" s="8">
+        <v>417</v>
+      </c>
+      <c r="B418" s="9">
+        <v>289</v>
+      </c>
+      <c r="C418" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D418" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A419" s="8">
+        <v>418</v>
+      </c>
+      <c r="B419" s="9">
+        <v>289</v>
+      </c>
+      <c r="C419" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D419" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A420" s="8">
+        <v>419</v>
+      </c>
+      <c r="B420" s="9">
+        <v>290</v>
+      </c>
+      <c r="C420" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D420" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A421" s="8">
+        <v>420</v>
+      </c>
+      <c r="B421" s="9">
+        <v>291</v>
+      </c>
+      <c r="C421" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D421" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A422" s="8">
+        <v>421</v>
+      </c>
+      <c r="B422" s="9">
+        <v>292</v>
+      </c>
+      <c r="C422" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D422" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A423" s="8">
+        <v>422</v>
+      </c>
+      <c r="B423" s="9">
+        <v>292</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D423" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A424" s="8">
+        <v>423</v>
+      </c>
+      <c r="B424" s="9">
+        <v>292</v>
+      </c>
+      <c r="C424" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D424" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A425" s="8">
+        <v>424</v>
+      </c>
+      <c r="B425" s="9">
+        <v>293</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D425" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A426" s="8">
+        <v>425</v>
+      </c>
+      <c r="B426" s="9">
+        <v>294</v>
+      </c>
+      <c r="C426" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D426" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A427" s="8">
+        <v>426</v>
+      </c>
+      <c r="B427" s="9">
+        <v>295</v>
+      </c>
+      <c r="C427" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D427" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A428" s="8">
+        <v>427</v>
+      </c>
+      <c r="B428" s="9">
+        <v>296</v>
+      </c>
+      <c r="C428" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D428" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A429" s="8">
+        <v>428</v>
+      </c>
+      <c r="B429" s="9">
+        <v>297</v>
+      </c>
+      <c r="C429" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D429" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A430" s="8">
+        <v>429</v>
+      </c>
+      <c r="B430" s="9">
+        <v>298</v>
+      </c>
+      <c r="C430" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D430" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A431" s="8">
+        <v>430</v>
+      </c>
+      <c r="B431" s="9">
+        <v>298</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D431" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A432" s="8">
+        <v>431</v>
+      </c>
+      <c r="B432" s="9">
+        <v>299</v>
+      </c>
+      <c r="C432" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D432" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A433" s="8">
+        <v>432</v>
+      </c>
+      <c r="B433" s="9">
+        <v>300</v>
+      </c>
+      <c r="C433" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D433" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A434" s="8">
+        <v>433</v>
+      </c>
+      <c r="B434" s="9">
+        <v>301</v>
+      </c>
+      <c r="C434" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D434" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A435" s="8">
+        <v>434</v>
+      </c>
+      <c r="B435" s="9">
+        <v>302</v>
+      </c>
+      <c r="C435" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D435" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A436" s="8">
+        <v>435</v>
+      </c>
+      <c r="B436" s="9">
+        <v>303</v>
+      </c>
+      <c r="C436" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D436" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A437" s="8">
+        <v>436</v>
+      </c>
+      <c r="B437" s="9">
+        <v>304</v>
+      </c>
+      <c r="C437" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D437" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A438" s="8">
+        <v>437</v>
+      </c>
+      <c r="B438" s="9">
+        <v>305</v>
+      </c>
+      <c r="C438" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D438" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A439" s="8">
+        <v>438</v>
+      </c>
+      <c r="B439" s="9">
+        <v>306</v>
+      </c>
+      <c r="C439" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D439" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A440" s="8">
+        <v>439</v>
+      </c>
+      <c r="B440" s="9">
+        <v>307</v>
+      </c>
+      <c r="C440" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D440" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A441" s="8">
+        <v>440</v>
+      </c>
+      <c r="B441" s="9">
+        <v>308</v>
+      </c>
+      <c r="C441" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D441" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A442" s="8">
+        <v>441</v>
+      </c>
+      <c r="B442" s="9">
+        <v>309</v>
+      </c>
+      <c r="C442" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D442" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A443" s="8">
+        <v>442</v>
+      </c>
+      <c r="B443" s="9">
+        <v>310</v>
+      </c>
+      <c r="C443" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D443" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A444" s="8">
+        <v>443</v>
+      </c>
+      <c r="B444" s="9">
+        <v>311</v>
+      </c>
+      <c r="C444" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D444" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A445" s="8">
+        <v>444</v>
+      </c>
+      <c r="B445" s="9">
+        <v>312</v>
+      </c>
+      <c r="C445" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D445" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A446" s="8">
+        <v>445</v>
+      </c>
+      <c r="B446" s="9">
+        <v>312</v>
+      </c>
+      <c r="C446" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D446" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A447" s="8">
+        <v>446</v>
+      </c>
+      <c r="B447" s="9">
+        <v>313</v>
+      </c>
+      <c r="C447" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D447" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A448" s="8">
+        <v>447</v>
+      </c>
+      <c r="B448" s="9">
+        <v>313</v>
+      </c>
+      <c r="C448" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D448" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A449" s="8">
+        <v>448</v>
+      </c>
+      <c r="B449" s="9">
+        <v>314</v>
+      </c>
+      <c r="C449" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D449" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A450" s="8">
+        <v>449</v>
+      </c>
+      <c r="B450" s="9">
+        <v>315</v>
+      </c>
+      <c r="C450" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D450" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="8">
+        <v>450</v>
+      </c>
+      <c r="B451" s="9">
+        <v>316</v>
+      </c>
+      <c r="C451" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D451" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A452" s="8">
+        <v>451</v>
+      </c>
+      <c r="B452" s="9">
+        <v>316</v>
+      </c>
+      <c r="C452" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D452" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A453" s="8">
+        <v>452</v>
+      </c>
+      <c r="B453" s="9">
+        <v>317</v>
+      </c>
+      <c r="C453" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D453" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A454" s="8">
+        <v>453</v>
+      </c>
+      <c r="B454" s="9">
+        <v>317</v>
+      </c>
+      <c r="C454" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D454" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A455" s="8">
+        <v>454</v>
+      </c>
+      <c r="B455" s="9">
+        <v>317</v>
+      </c>
+      <c r="C455" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D455" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A456" s="8">
+        <v>455</v>
+      </c>
+      <c r="B456" s="9">
+        <v>318</v>
+      </c>
+      <c r="C456" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D456" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A457" s="8">
+        <v>456</v>
+      </c>
+      <c r="B457" s="9">
+        <v>319</v>
+      </c>
+      <c r="C457" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D457" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A458" s="8">
+        <v>457</v>
+      </c>
+      <c r="B458" s="9">
+        <v>320</v>
+      </c>
+      <c r="C458" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D458" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A459" s="8">
+        <v>458</v>
+      </c>
+      <c r="B459" s="9">
+        <v>321</v>
+      </c>
+      <c r="C459" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D459" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A460" s="8">
+        <v>459</v>
+      </c>
+      <c r="B460" s="9">
+        <v>321</v>
+      </c>
+      <c r="C460" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D460" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A461" s="8">
+        <v>460</v>
+      </c>
+      <c r="B461" s="9">
+        <v>321</v>
+      </c>
+      <c r="C461" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D461" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A462" s="8">
+        <v>461</v>
+      </c>
+      <c r="B462" s="9">
+        <v>322</v>
+      </c>
+      <c r="C462" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D462" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A463" s="8">
+        <v>462</v>
+      </c>
+      <c r="B463" s="9">
+        <v>322</v>
+      </c>
+      <c r="C463" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D463" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A464" s="8">
+        <v>463</v>
+      </c>
+      <c r="B464" s="9">
+        <v>323</v>
+      </c>
+      <c r="C464" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D464" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A465" s="8">
+        <v>464</v>
+      </c>
+      <c r="B465" s="9">
+        <v>323</v>
+      </c>
+      <c r="C465" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D465" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A466" s="8">
+        <v>465</v>
+      </c>
+      <c r="B466" s="9">
+        <v>323</v>
+      </c>
+      <c r="C466" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D466" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A467" s="8">
+        <v>466</v>
+      </c>
+      <c r="B467" s="9">
+        <v>324</v>
+      </c>
+      <c r="C467" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D467" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A468" s="8">
+        <v>467</v>
+      </c>
+      <c r="B468" s="9">
+        <v>324</v>
+      </c>
+      <c r="C468" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D468" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A469" s="8">
+        <v>468</v>
+      </c>
+      <c r="B469" s="9">
+        <v>325</v>
+      </c>
+      <c r="C469" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D469" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A470" s="8">
+        <v>469</v>
+      </c>
+      <c r="B470" s="9">
+        <v>326</v>
+      </c>
+      <c r="C470" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D470" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A471" s="8">
+        <v>470</v>
+      </c>
+      <c r="B471" s="9">
+        <v>326</v>
+      </c>
+      <c r="C471" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D471" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A472" s="8">
+        <v>471</v>
+      </c>
+      <c r="B472" s="9">
+        <v>327</v>
+      </c>
+      <c r="C472" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D472" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A473" s="8">
+        <v>472</v>
+      </c>
+      <c r="B473" s="9">
+        <v>328</v>
+      </c>
+      <c r="C473" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D473" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A474" s="8">
+        <v>473</v>
+      </c>
+      <c r="B474" s="9">
+        <v>328</v>
+      </c>
+      <c r="C474" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D474" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A475" s="8">
+        <v>474</v>
+      </c>
+      <c r="B475" s="9">
+        <v>329</v>
+      </c>
+      <c r="C475" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D475" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A476" s="8">
+        <v>475</v>
+      </c>
+      <c r="B476" s="9">
+        <v>329</v>
+      </c>
+      <c r="C476" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D476" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A477" s="8">
+        <v>476</v>
+      </c>
+      <c r="B477" s="9">
+        <v>329</v>
+      </c>
+      <c r="C477" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D477" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A478" s="8">
+        <v>477</v>
+      </c>
+      <c r="B478" s="9">
+        <v>330</v>
+      </c>
+      <c r="C478" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D478" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A479" s="8">
+        <v>478</v>
+      </c>
+      <c r="B479" s="9">
+        <v>331</v>
+      </c>
+      <c r="C479" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D479" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A480" s="8">
+        <v>479</v>
+      </c>
+      <c r="B480" s="9">
+        <v>332</v>
+      </c>
+      <c r="C480" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D480" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A481" s="8">
+        <v>480</v>
+      </c>
+      <c r="B481" s="9">
+        <v>333</v>
+      </c>
+      <c r="C481" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D481" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A482" s="8">
+        <v>481</v>
+      </c>
+      <c r="B482" s="9">
+        <v>334</v>
+      </c>
+      <c r="C482" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D482" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A483" s="8">
+        <v>482</v>
+      </c>
+      <c r="B483" s="9">
+        <v>335</v>
+      </c>
+      <c r="C483" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D483" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A484" s="8">
+        <v>483</v>
+      </c>
+      <c r="B484" s="9">
+        <v>336</v>
+      </c>
+      <c r="C484" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D484" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A485" s="8">
+        <v>484</v>
+      </c>
+      <c r="B485" s="9">
+        <v>337</v>
+      </c>
+      <c r="C485" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D485" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A486" s="8">
+        <v>485</v>
+      </c>
+      <c r="B486" s="9">
+        <v>337</v>
+      </c>
+      <c r="C486" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D486" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A487" s="8">
+        <v>486</v>
+      </c>
+      <c r="B487" s="9">
+        <v>338</v>
+      </c>
+      <c r="C487" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D487" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A488" s="8">
+        <v>487</v>
+      </c>
+      <c r="B488" s="9">
+        <v>339</v>
+      </c>
+      <c r="C488" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D488" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A489" s="8">
+        <v>488</v>
+      </c>
+      <c r="B489" s="9">
+        <v>339</v>
+      </c>
+      <c r="C489" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D489" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A490" s="8">
+        <v>489</v>
+      </c>
+      <c r="B490" s="9">
+        <v>340</v>
+      </c>
+      <c r="C490" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D490" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A491" s="8">
+        <v>490</v>
+      </c>
+      <c r="B491" s="9">
+        <v>341</v>
+      </c>
+      <c r="C491" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D491" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A492" s="8">
+        <v>491</v>
+      </c>
+      <c r="B492" s="9">
+        <v>342</v>
+      </c>
+      <c r="C492" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D492" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A493" s="8">
+        <v>492</v>
+      </c>
+      <c r="B493" s="9">
+        <v>343</v>
+      </c>
+      <c r="C493" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D493" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A494" s="8">
+        <v>493</v>
+      </c>
+      <c r="B494" s="9">
+        <v>344</v>
+      </c>
+      <c r="C494" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D494" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A495" s="8">
+        <v>494</v>
+      </c>
+      <c r="B495" s="9">
+        <v>345</v>
+      </c>
+      <c r="C495" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D495" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A496" s="8">
+        <v>495</v>
+      </c>
+      <c r="B496" s="9">
+        <v>345</v>
+      </c>
+      <c r="C496" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D496" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A497" s="8">
+        <v>496</v>
+      </c>
+      <c r="B497" s="9">
+        <v>346</v>
+      </c>
+      <c r="C497" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D497" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A498" s="8">
+        <v>497</v>
+      </c>
+      <c r="B498" s="9">
+        <v>347</v>
+      </c>
+      <c r="C498" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D498" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A499" s="8">
+        <v>498</v>
+      </c>
+      <c r="B499" s="9">
+        <v>348</v>
+      </c>
+      <c r="C499" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D499" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A500" s="8">
+        <v>499</v>
+      </c>
+      <c r="B500" s="9">
+        <v>348</v>
+      </c>
+      <c r="C500" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D500" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A501" s="8">
+        <v>500</v>
+      </c>
+      <c r="B501" s="9">
+        <v>349</v>
+      </c>
+      <c r="C501" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D501" s="8">
         <v>3</v>
       </c>
     </row>

--- a/hadits_fix.xlsx
+++ b/hadits_fix.xlsx
@@ -1933,7 +1933,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B498" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D502" sqref="D502"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hadits_fix.xlsx
+++ b/hadits_fix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="603">
   <si>
     <t>No.</t>
   </si>
@@ -1525,6 +1525,306 @@
   </si>
   <si>
     <t>Jika salah seorang dari kalian shalat bermunajat kepada Rabbnya, maka janganlah dia meludah ke sebelah kanannya, tetapi henklah ke sebelah kiri atau bawah kaki kirinya. Sa'id menyebutkan dari Qatadah, Janganlah dia meludah ke arah depannya, tetapi ke sebelah kiri atau di bawah kedua kakinya. Syu'bah menyebutkan: Janganlah ia meludah ke arah depan atau sebelah kanannya, tetapi hendaklah ke sebelah kiri atau di bawah kaki kirinya. Dan Humaid menyebutkan dari Anas dari Nabi : Janganlah ia meludah ke arah kiblat atau sebelah kanannya, tetapi hendaklah ke sebelah kiri atau di bawah kakinya.</t>
+  </si>
+  <si>
+    <t>Seimbanglah dalam sujud dan janganlah seseorang meletakkan tangannya seperti anjing. Dan jika meludah, maka jangan sekali-kali ia meludah ke arah depan atau ke sebelah kanannya. Karena dia sedang berhadapan dengan Rabbnya.</t>
+  </si>
+  <si>
+    <t>Jika udara sangat panas menyengat maka tundalah shalat, karena panas yang sangat menyengat itu berasal dari hembusan api neraka jahannam.</t>
+  </si>
+  <si>
+    <t>Tunggulah, tunggulah. Beliau kemudian melanjutkan:: Panas yang menyengat ini berasal dari hembusan api jahannam. Jika udara sangat panas menyengat maka tundalah shalat hingga kita melihat bayangan suatu benda.</t>
+  </si>
+  <si>
+    <t>Apabila panas sangat menyengat maka tudalah shalat hingga panasnya mereda. Sebab panas yang sangat menyengat itu berasal dari hembusan api jahannam. Neraka jahannam mengadu kepada Rabbnya seraya berkata, 'Wahai Rabb, sebagian kami telah makan sebagian yang lain! ', maka Allah pun memberinya izin dengan dua tarikan nafas; sekali saat musim dingin dan sekali saat musim panas. Maka apa yang kalian rasakan berupa udara panas berasal darinya, begitu juga udara dingin yang kalian rasakan berasal darinya.</t>
+  </si>
+  <si>
+    <t>Tundalah shalat Zhuhur (hingg panas mereda), karena panas yang sangat menyengat berasal dari hembusan jahannam. Hadits ini dikuatkan oleh Sufyan dan Yahya dan Abu 'Awanah dari Al A'masy.</t>
+  </si>
+  <si>
+    <t>Tundalah. Sesaat kemudian mu'adzin itu kembali akan mengumandangkan adzan. Maka Nabi pun kembali bersabda: Tundalah hingga kita melihat bayang-bayang bukit. Kemudian Nabi Shallallahu 'alaihi wa salam bersabda: Sesungguhnya panas yang sangat menyengat itu berasal dari hembusan api jahannam. Maka apabila udara sangat panas menyengat tundalah shalat (hingga panas) mereda. Ibnu 'Abbas berkata, Maksud dari firman Allah: tataqayya'u (Qs. An Nahl: 48) adalah condong.</t>
+  </si>
+  <si>
+    <t>Siapa ingin bertanya maka bertanyalah. Dan tidaklah kalian bertanya kepadaku tentang sesuatu kecuali aku akan kabarkan kepada kalian selama aku masih berada di tempaku ini. Tiba-tiba para sahabat menangis, dan Nabi terus mengulangi: Bertanyalah kepadaku. Maka berdirilah 'Abdullah bin Khudzafah As Sahmi seraya berkata, Siapakah ayahku? Beliau menjawab: Ayahmu Hudzafah. Kemudian Nabi meminta lagi: Bertanyalah kepadaku. Maka bangkitlah 'Umar dari posisi duduk berlututnya lantas berkata, Kami ridla Allah sebagai Rabb, Islam sebagai agama dan Muhammad sebagai Nabi. Lalu Nabi terdiam sejenak kemudian bersabda: Barusan diperlihatkan kepadaku surga dan neraka dari balik dinding ini, aku tidak lihat kebaikan sebagaimana keburukan.</t>
+  </si>
+  <si>
+    <t>shalat shubuh, dan salah seorang dari kami dapat mengetahui siapa orang yang ada di sisinya. Dalam shalat tersebut beliau membaca antara enam puluh hingga seratus ayat. Dan beliau shalat Zhuhur saat matahari sudah condong, shalat 'Ashar saat salah seorang dari kami pergi ke ujung kota dan matahari masih terasa panas sinarnya. Dan aku lupa apa yang dibaca beliau saat shalat Maghrib. Dan beliau sering mengakhirkan pelaksanaan shalat 'Isya hingga sepertiga malam lalu melaksanakannya sampai pertengahan malam. Mu'adz berkata, Syu'bah berkata; Aku pernah berjumpa denganya pada suatu hari, berkata, 'Atau sepertiga malam'.</t>
+  </si>
+  <si>
+    <t>Jika kami shalat di belakang Rasulullah pada shalat Zhuhur saat udara panas, kami sujud beralaskan pakaian kami untuk menghindari panasnya pasir.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat di Madinah sebanyak tujuh dan delapan, yaitu shalat Zhuhur, 'Ashar, Maghrib dan 'Isya'. Ayyub berkata, Barangkali hal itu ketika pada malam itu hujan. Ibnu Abbas berkata, Bisa jadi.</t>
+  </si>
+  <si>
+    <t>shalat 'Ashar sedangkan matahari belum berlalu dari kamarnya (rumah 'Aisyah). Abu Umamah menyebutkan dari Hisyam, Dari dalam kamarnya (posisi cahayanya).</t>
+  </si>
+  <si>
+    <t>shalat 'Ashar sementara matahari yang ada dikamarnya belum menampakkan bayang-bayang.</t>
+  </si>
+  <si>
+    <t>shalat 'Ashar sementara matahari muncul dari dalam kamarku dan belum nampak bayang-bayang. Malik dan Yahya bin Sa'id dan Syu'aib dan Ibnu Abu Hafsh menyebutkan, Sementara matahari belum lagi nampak bayangannya.</t>
+  </si>
+  <si>
+    <t>Bagaimana Rasulullah melaksanakan shalat yang diwajibkan? Abu Barzah menjawab, Nabi melaksanakan shalat Zhuhur, yang kalian sebut sebagai waktu utama, saat matahari telah tergelincir, shalat 'Ashar ketika salah seorang dari kami kembali dengan kendaraannya di ujung Kota sementara matahari masih terasa panas sinarnya. Dan aku lupa apa yang dibaca beliau saat shalat Maghrib. Beliau lebih suka mengakhirkan shalat 'Isya yang kalian sebut dengan shalat 'atmah, dan beliau tidak suka tidur sebelum shalat Isya dan berbincang-bincang sesudahnya. Dan beliau melaksanakan shalat Shubuh ketika seseorang dapat mengetahui siapa yang ada di sebelahnya, beliau membaca enam hingga seratus ayat.</t>
+  </si>
+  <si>
+    <t>pernah shalat 'Ashar kemudian orang-orang keluar menuju Bani 'Amru bin 'Auf, dan kami dapati mereka sedang melaksanakan shalat 'Ashar.</t>
+  </si>
+  <si>
+    <t>shalat 'Ashar. Maka aku pun bertanya, Wahai paman, shalat apakah yang kamu kerjakan ini? Dia menjawab, Shalat 'Ashar. Saat seperti inilah shalat Rasulullah yang pernah kami lakukan bersamanya.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat 'Ashar saat matahari masih meninggi. Dan jika ada seseorang pergi menemui keluarganya kemudian kembali, maka ia akan mendapati matahari masih tinggi. Sedangkan sebagian desa jaraknya dengan Madinah ada yang berjarak sampai empat mil atau sekitar itu.</t>
+  </si>
+  <si>
+    <t>Kami pernah melakanakan shalat 'Ashar, dan jika salah seorang dari kami pergi ke Quba mendatangi mereka (penduduk), maka matahari masih tinggi.</t>
+  </si>
+  <si>
+    <t>Orang yang kehilangan shalat 'Ashar (dengan berjama'ah) seperti orang yang kehilangan keluarga dan hartanya. Saat menafsirkan ayat: '(Dia sekali-kali tidak akan mengurangi) ' (Qs. Muhammad: 35) Abu Abdullah berkata, Bila kamu membunuh seseorang atau kamu mengambil hartanya.</t>
+  </si>
+  <si>
+    <t>Barangsiapa meninggalkan shalat 'Ashar sungguh hapuslah amalnya.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya kalian akan melihat Rabb kalian sebagaimana kalian melihat bulan purnama ini. Dan kalian tidak akan saling berdesakan dalam melihat-Nya. Maka jika kalian mampu untuk tidak terlewatkan untuk melaksanakan shalat sebelum terbit matahri dan sebelum terbenamnya, maka lakukanlah. Beliau kemudian membaca ayat: '(Dan bertasbihlah sambil memuji Rabbmu sebelum terbit matahari dan sebelum terbenamnya) ' (Qs. Qaaf: 39). Isma'il menyebutkan, Kerjakanlah dan sekali-kali jangan sampai kalian terlewatkan.</t>
+  </si>
+  <si>
+    <t>Dalam keadaan bagaimana kalian tinggalkan hamba-hambaKu? ' Para Malaikat menjawab, 'Kami tinggalkan mereka dalam keadaan sedang mendirikan shalat. Begitu juga saat kami mendatangi mereka, mereka sedang mendirikan shalat'.</t>
+  </si>
+  <si>
+    <t>Jika seeorang dari kalian mendapatkan sujud shalat 'Ashar sebelum terbenam matahari maka sempurnakanlah, dan jika mendapatkan sujud shalat Subuh sebelum terbit matahari maka sempurnakanlah.</t>
+  </si>
+  <si>
+    <t>Apakah Aku menzhalimi sesuatu dari bagian pahala kalian? ' Mereka menjawab, 'Tidak'. Maka Allah 'azza wajalla berfirman: 'Itulah karunia-Ku yang Aku berikan kepada siapa yang Aku kehendaki'.</t>
+  </si>
+  <si>
+    <t>Perumpaman Kaum Muslimin, Yahudi dan Nashara seperti seseorang yang memperkerjakan suatu Kaum, mereka harus bekerja untuknya hingga malam hari, sementara mereka hanya beramal hingga sianghari. Mereka berkata, 'Kami tidak patut menerima upah darimu. Akhirnya orang itu memperkerjakan Kaum yang lain dan berkata, 'Sempurnakanlah sisa hari yang ada, nanti kalian mendapatkan bagian upah sesuai persyaratanku.' Maka mereka mengerjakan pekerjaan hingga hanya sampai waktu 'Ashar, mereka lalu berkata, 'Kami kembalikan pekerjaan kepadamu.' Lalu orang itu memperkerjakan Kaum yang lain lagi. Maka Kaum tersebut bekerja menuntaskan sisa hari sampai matahari terbenam. Jadilah Kaum ini menyempurnakan pahala dua Kaum sebelumnya.</t>
+  </si>
+  <si>
+    <t>Kami pernah shalat Maghrib bersama Nabi , ketika salah seorang dari kami berlalu pergi, maka ia masih dapat melihat tempat sandal kami.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat Zhuhur ketika matahari telah condong, shalat 'Ashar saat matahari masih terasa panas sinarnya, shalat Maghrib ketika matahari telah terbenam, dan shalat 'Isya terkadang beliau mengikuti kedaan jama'ah; jika beliau lihat sudah berkumpul maka beliau segerakan, dan jika mereka belum berkumpul maka beliau akhirkan. Sementara untuk shalat Subuh, mereka atau beliau melaksanakannya saat pagi masih gelap.</t>
+  </si>
+  <si>
+    <t>Kami pernah shalat Maghrib bersama Nabi ketika matahari sudah tenggelam tidak terlihat.</t>
+  </si>
+  <si>
+    <t>Nabi pernah melaksanakan shalat tujuh rakaat dengan jama' dan delapan rakaat dengan jama'.</t>
+  </si>
+  <si>
+    <t>Janganlah kalian dikalahkan oleh orang Badui dalam menamakan (melaksanakan) shalat Maghrib kalian. 'Abdullah bin Mughaffal Al Muzani berkata, Orang Badui menyebut Maghrib dengan 'Isya (kerena mereka menunda pelaksanaan Maghrib hingga masuk waktu 'Isya).</t>
+  </si>
+  <si>
+    <t>Tidakkah kalian melihat malam kalian ini? Ketahuilah, sesungguhnya pada setiap seratus tahun tidak ada seorang pun yang hidup di atas bumi akan tersisa.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat Zhuhur jika matahari sudah condong, shalat 'Ashar saat matahari masih terasa panasnya (masih terang), shalat Maghrib ketika matahari sudah tenggelam, sedangkan shalat 'Isya; jika orang-orang sudah berkumpul maka beliau segerakan, dan jika belum maka beliau akhirkan. Dan waktu untuk shalat Subuh saat pagi masih gelap.</t>
+  </si>
+  <si>
+    <t>Tidak ada seorangpun dari penduduk bumi yang menunggu shalat ini selain kalian.</t>
+  </si>
+  <si>
+    <t>dan bergemberilah. Sesungguhnya termasuk dari nikmat Allah kepada kalian adalah didapatinya seorang pun saat ini yang melaksanakan shalat (Isya) selain kalian. Atau Beliau bersabda: Tidak ada yang melaksanakan shalat pada waktu seperti ini kecuali kalian. Namun ia terlupa mana dari dua kalimat ini yang dikatakan beliau. Abu Burdah berkata, Abu Musa, Maka kami kembali dengan gembira dengan apa yang kami dengar dari Rasulullah .</t>
+  </si>
+  <si>
+    <t>tidak suka tidur sebelum shalat 'Isya dan berbincang-bincang setelahnya.</t>
+  </si>
+  <si>
+    <t>Tidak ada seorangpun dari penduduk bumi yang menunggu shalat Isya ini selain kalian. Beliau tidaklah melaksanakan shalat seperti ini kecuali di Madinah. Dan mereka melaksnakan shalat antara hilangnya syafaq (cahaya kemerahan di langit) hingga sepertiga awal dari malam.</t>
+  </si>
+  <si>
+    <t>Tidak ada seorangpun dari penduduk bumi yang menunggu shalat seperti ini selain kalian. Dan Ibnu 'Umar tidak mempermasalahkan apakah Beliau memajukannya atau mengakhirkan. Pelaksanakaannya. Dan Ibnu Umar tidur dahulu sebelum shalat Isya. Ibnu Juraij berkata, Aku bertanya kepada 'Atha', lalu dia berkata, Aku mendengar Ibnu 'Abbas berkata, Pernah suatu malam Rasulullah mengakhirkan shalat 'Isya hingga banyak orang tertidur, kemudian mereka terbangun, lalu tertidur lagi, kemudian terbangun lagi. 'Umar bin Al Khaththab lalu berdiri dan berkata, Shalat. 'Atha' berkata, Ibnu 'Abbas, Maka Nabi kemudian keluar dengan meletakkan tangan pada kepala, seakan aku melihat rambut beliau basah meneteskan air. Beliau kemudiaan bersabda: Seandainya tidak memberatkan ummatku, niscaya aku akan perintahkan mereka melaksanakan shalat 'Isya seperti waktu sekarang ini. Aku (Ibnu Juraij) kemudian menanyakan kepada 'Atha untuk memastikan kenapa Nabi meletakkan tangannya di kepalanya seabgaimana yang diberitakan oleh Ibnu 'Abbas. Maka 'Atha merenggangkan sedikit jari-jarinya kemudian meletakkan ujung jarinya di atas sisi kepala, kemudian ia menekannya sambil menggerakkan ke sekeliling kepala hingga ibu jarinya menyentuh ujung telinga yang dimulai dari pelipis hingga pangkal jenggot. Dia melakukannya tidak pelan juga tidak cepat, kecuali sedang seperti itu. Lalu Beliau bersabda: Seandainya tidak memberatkan ummatku, niscaya aku akan perintahkan mereka melaksanakan shalat seperti waktu sekarang ini.</t>
+  </si>
+  <si>
+    <t>kalian akan senantiasa dalam hitungan shalat selama kalian menunggu pelaksanaannya. Ibnu Abu Maryam menambahkan; telah mengabarkan kepada kami Yahya bin Ayyub telah menceritakan kapadaku Humaid dia mendengar Anas bin Malik berkata, Pada malam itu aku seolah melihat cahaya cincin Beliau.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya kalian akan melihat Rabb kalian sebagaimana kalian melihat bulan purnama ini. Dan kalian tidak akan saling berdesakan dalam melihatnya. Maka jika kalian mampu untuk tidak terlewatkan melaksanakan shalat sebelum terbit matahari dan sebelum terbenamnya, maka lakukanlah, Kemudian beliau membaca: '(Maka bertasbihlah sambil memuji Rabbmu sebelum terbit matahari dan sebelum terbenamnya) ' (Qs. Qaaf: 38).</t>
+  </si>
+  <si>
+    <t>Barangsiapa mengerjakan shalat pada dua waktu dingin, maka dia akan masuk surga. Ibnu Raja' berkata; telah menceritakan kepada kami Hammam dari Abu Jamrah bahwa Abu Bakar bin 'Abdullah bin Qais telah mengabarkan kepadanya seperti ini. Dan telah menceritakan kepada kami Ishaq telah menceritakan kepada kami Habban telah menceritakan kepada kami Hammam telah menceritakan kepada kami Abu Jamrah dari Abu Bakar bin 'Abdullah dari Bapaknya dari Nabi seperti ini.</t>
+  </si>
+  <si>
+    <t>mereka pernah sahur bersama Nabi , kemudian mereka berdiri untuk melaksanakan shalat. Aku bertanya, Berapa jarak antara sahur dengan shalat subuh? Dia menjawab, Antara lima puluh hingga enam puluh ayat.</t>
+  </si>
+  <si>
+    <t>makan sahur hingga keduanya melaksanakan shalat? Anas bin Malik menjawab, Kira-kira waktu seseorang membaca lima puluh ayat.</t>
+  </si>
+  <si>
+    <t>Suatu kali aku pernah makan sahur bersama keluargaku, kemudian aku bersegera agar dapat melaksanakan shalat Subuh bersama Rasulullah .</t>
+  </si>
+  <si>
+    <t>Kami, wanita-wanita Mukminat, pernah ikut shalat fajar bersama Rasulullah dengan menutup wajahnya dengan kerudung, kemudian kembali ke rumah mereka masing-masing setelah selesai shalat tanpa diketahui oleh seorangpun karena hari masih gelap.</t>
+  </si>
+  <si>
+    <t>Barangsiapa mendapatkan satu rakaat dari shalat subuh sebelum terbit matahari berarti dia mendapatkan subuh. Dan siapa yang mendapatkan satu rakaat dari shalat 'Ashar sebelum terbenam matahari berarti dia telah mendapatkan 'Ashar.</t>
+  </si>
+  <si>
+    <t>Barangsiapa mendapatkan satu rakaat dari shalat berarti dia telah mendapatkan shalat.</t>
+  </si>
+  <si>
+    <t>melarang shalat setelah Shubuh hingga matahari terbit, dan setelah 'Ashar sampai matahari terbenam. Telah menceritakan kepada kami Musaddad berkata, telah menceritakan kepada kami Yahya dari Syu'bah dari Qatadah aku mendengar Abu Al Aliyah dari Ibnu 'Abbas berkata, Orang-orang (para sahabat) menceritakan hadits ini kepadaku.</t>
+  </si>
+  <si>
+    <t>Janganlah kalian sengaja melaksanakan shalat ketika matahari sedang terbit dan juga ketika terbenamnya. Dan telah menceritakan kapadaku Ibnu 'Umar berkata, Rasulullah bersabda: Jika matahari sedang terbit maka tundalah shalat hingga telah meninggi, dan jika matahari sedang terbenam maka tundalah shalat hingga menghilang. Hadits ini juga kuatkan oleh 'Abdah.</t>
+  </si>
+  <si>
+    <t>melarang dari dua macam jual beli, dua cara berpakaian dan dua shalat. Beliau melarang shalat setelah Shubuh sampai terbit matahari dan setelah 'Ashar sampai matahari terbenam. Melarang dari pakaian shama` dan duduk ihtiba` dengan satu kain sehingga menghadapkan kemaluannya ke langit. Dan beliau juga melarang dari jual beli Al Munabadzah dan Al Mulasamah.</t>
+  </si>
+  <si>
+    <t>Janganlah salah seorang dari kalian sengaja shalat ketika matahari sedang terbit dan atau ketika saat terbenam.</t>
+  </si>
+  <si>
+    <t>Tidak ada shalat setelah Shubuh hingga matahari meninggi dan tidak ada shalat setelah 'Ashar hingga matahari menghilang.</t>
+  </si>
+  <si>
+    <t>Sungguh kalian telah mengerjakan suatu shalat (yang dilarang). Kami telah mendampingi Rasulullah , dan kami tidak pernah melihat beliau melaksanakannya. Beliau telah melarang keduanya, yaitu dua rakaat setelah shalat 'Ashar.</t>
+  </si>
+  <si>
+    <t>Rasulullah melarang dari dua macam shalat; dua rakaat setelah Shubuh hingga terbit matahari dan dua rakaat setelah 'Ashar hingga matahari terbenam.</t>
+  </si>
+  <si>
+    <t>Aku melaksanakan shalat sebagaimana aku melihat para sahabatku melaksanakannya. Aku tidak melarang seorangpun untuk melaksanakan shalat baik di malam hari maupun di siang hari, kecuali bila kalian sengaja mengerjakannya saat matahari sedang terbit atau ketika sedang terbenamnya.</t>
+  </si>
+  <si>
+    <t>Demi Dzat yang telah mewafatkan beliau, beliau tidak pernah meninggalkan keduanya hingga beliau berjumpa Allah, dan tidaklah beliau bertemu Allah hingga terasa berat mengerjakan shalat (tua). Beliau sering mengerjakan shalat dengan duduk, yakni dua rakaat setelah 'Ashar. Namun Nabi tidak mengerjakannya di masjid karena khawatir akan memberatkan ummatnya, sebab beliau lebih suka meringankan mereka.</t>
+  </si>
+  <si>
+    <t>Nabi tidak pernah meninggalkan dua rakaat setelah shalat 'Ashar.</t>
+  </si>
+  <si>
+    <t>Dua rakaat yang tidak pernah Rasulullah tinggalkan baik secara sembunyi-sembunyi maupun terang-terangan adalah dua rakaat sebelum Shubuh dan dua rakaat setelah 'Ashar.</t>
+  </si>
+  <si>
+    <t>Tidaklah Nabi mendatangiku dalam suatu hari setelah 'Ashar kecuali beliau shalat dua rakaat.</t>
+  </si>
+  <si>
+    <t>Barangsiapa meninggalkan shalat 'Ashar, sungguh telah hapuslah amalnya.</t>
+  </si>
+  <si>
+    <t>Aku khawatir kalian tertidur sehingga terlewatkan shalat. Bilal berkata, Aku akan membangunkan kalian. Maka merekapun berbaring, sedangkan Bilal bersandar pada hewan tunggannganya, tapi rasa kantuknya mengalahkannya dan akhirnya iapun tertidur. Ketika Nabi terbangun ternyata matahari sudah terbit, maka beliau pun bersabda: Wahai Bilal, mana bukti yang kau ucapkan! Bilal menjawab: Aku belum pernah sekalipun merasakan kantuk seperti ini sebelumnya. Beliau lalu bersabda: Sesungguhnya Allah Azza Wa Jalla memegang ruh-ruh kalian sesuai kehendak-Nya dan mengembalikannya kepada kalian sekehendak-Nya pula. Wahai Bilal, berdiri dan adzanlah (umumkan) kepada orang-orang untuk shalat! kemudian beliau berwudlu, ketika matahari meninggi dan tampak sinar putihnya, beliau pun berdiri melaksanakan shalat.</t>
+  </si>
+  <si>
+    <t>Demi Allah, aku juga belum melakasanakannya. Kemudian kami berdiri menuju aliran air (sungai), beliau berwudlu dan kami pun ikut berwudlu, kemudian beliau melaksanakan shalat 'Ashar setelah matahari terbenam, dan setelah itu dilanjutkan dengan shalat Maghrib.</t>
+  </si>
+  <si>
+    <t>Barangsiapa lupa suatu shalat, maka hendaklah dia melaksanakannya ketika dia ingat. Karena tidak ada tebusannya kecuali itu. Allah berfirman: '(Dan tegakkanlah shalat untuk mengingat-Ku) ' (Qs. Thaahaa: 14). Musa berkata, Hammam berkata, Setelah itu aku mendengar beliau mengucapkan: '(Dan tegakkanlah shalat untuk mengingat-Ku) ' Abu 'Abdullah berkata; Habban berkata, telah menceritakan kepada kami Hammam telah menceritakan kepada kami Qatadah telah menceritakan kepada kami Anas bin Malik dari Nabi seperti itu.</t>
+  </si>
+  <si>
+    <t>Pada peperangan Khandaq 'Umar bin Al Khaththab mengumpat orang-orang kafir, lalu ia berkata, Hampir saja aku tidak melaksanakan shalat 'Ashar kecuali setelah Matahari hampir tenggelam. Umar melanjutkan, Maka kami berdiri menuju aliran air (sungai), kemudian beliau melaksanakan shalat 'Ashar setelah matahari terbenam, dan dilanjutkan dengan shalat Maghrib.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat Zhuhur yang kalian sebut sebagai waktu utama saat Matahari tergelincir, shalat 'Ashar ketika seseorang dari kami pulang menemui keluarganya di ujung Kota, maka matahari masih terasa panas sinarnya. Dan aku lupa apa yang dibaca beliau saat shalat Maghrib. Dan beliau lebih suka mengakhirkan pelaksanaan shalat 'Isya yang kalian sebut sebagai waktu 'Atamah, beliau tidak suka tidur sebelum 'Isya dan berbincang-bincang setelahnya. Dan beliau melaksanakan shalat Shubuh ketika salah seorang dari kami dapat mengetahui siapa yang berada di sampingnya, beliau membaca antara enam hingga seratus ayat.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya suatu kaum senantiasa akan berada dalam kebaikan selagi mereka mananti kebaikan. Qurrah berkata, Ini adalah hadits dari Anas, dari Nabi .</t>
+  </si>
+  <si>
+    <t>Tidakkah kalian melihat malam kalian ini? Ketahuilah, sesungguhnya setelah seratus tahun tidak akan ada orang pun di muka bumi ini yang tersisa dari mereka yang hadir pada malam ini. Kemudian orang-orang mengalami kerancuan dalam memahami pernyataan Rasulullah tersebut hingga mereka memperbincangkannya, yakni apa yang maksud dengan seratus tahun tersebut? 'Abdullah bin 'Umar berkata, Sesungguhnya maksud sabda Nabi, 'Tidak akan ada orang yang tersisa di atas bumi ini' adalah berakhirnya generasi tersebut'.</t>
+  </si>
+  <si>
+    <t>Barangsiapa memiliki makanan cukup untuk dua orang, maka ajaklah orang yang ketiga. Jika memiliki makanan untuk empat orang hendaklah mengajak orang yang kelima atau keenam. Maka Abu Bakar datang dengan membawa makanan yang cukup untuk tiga orang. Nabi shallallahu â€˜alaihi wasallam lalu datang dengan membawa makanan yang cukup untuk sepuluh orang. 'Abdurrahman bin Abu Bakar berkata, Mereka itu adalah aku, bapakku, ibuku</t>
+  </si>
+  <si>
+    <t>Bilal diperintahkan untuk mengumandangkan adzan dengan dua kali dua kali dan iqamat dengan bilangan ganjil.</t>
+  </si>
+  <si>
+    <t>Wahai Bilal, bangkit dan serukanlah panggilan shalat.</t>
+  </si>
+  <si>
+    <t>Bilal diperintahkan untuk mengumandangkan kalimat adzan dengan genap (dua kali dua kali) dan mengganjilkan iqamat, kecuali kalimat iqamat 'Qad qaamatish shalah (shalat telah dikumandangkan) '.</t>
+  </si>
+  <si>
+    <t>Lalu diperintahlah Bilal untuk mengumandangkan kalimat adzan dengan genap (dua kali dua kali) dan mengganjilkan iqamat.</t>
+  </si>
+  <si>
+    <t>Bilal diperintahkan untuk mengumandangkan kalimat adzan dengan genap (dua kali dua kali) dan mengganjilkan iqamat. Isma'il berkata, Aku sampaikan masalah ini kepada Ayyub, lalu ia berkata, 'Kecuali kalimat iqamat 'Qad qaamatish shalah (shalat telah dikumandangkan) '.</t>
+  </si>
+  <si>
+    <t>Jika panggilan shalat (adzan) dikumandangkan maka setan akan lari sambil mengeluarkan kentut hingga ia tidak mendengar suara adzan. Apabila panggilan adzan telah selesai maka setan akan kembali. Dan bila iqamat dikumandangkan setan kembali berlari dan jika iqamat telah selesai dikumandangkan dia kembali lagi, lalu menyelinap masuk kepada hati seseorang seraya berkata, 'Ingatlah ini dan itu'. Dan terus saja dia melakukan godaan ini hingga seseorang tidak menyadari berapa rakaat yang sudah dia laksanakan dalam shalatnya.</t>
+  </si>
+  <si>
+    <t>Karena tidak ada yang mendengar suara mu'adzin, baik manusia, jin atau apapun dia, kecuali akan menjadi saksi pada hari kiamat. Abu Sa'id berkata, Aku mendengarnya dari Rasulullah .</t>
+  </si>
+  <si>
+    <t>Allahu Akbar, Allahu Akbar, hancurlah Khaibar! Sesungguhnya kami, apabila mendatangi perkampungan suatu kaum, maka amat buruklah pagi hari yang dialami orang-orang yang diperingatkan tersebut) ' (Qs. Ash Shaffaat: 177).</t>
+  </si>
+  <si>
+    <t>Apabila kalian mendengar adzan, maka jawablah seperti apa yang diucapkan mu'adzin.</t>
+  </si>
+  <si>
+    <t>mengucapkan seperti (apa yang diucapkan mu'adzin) hingga ucapannya: Wa asyhadu anna Muhammadar Rasulullah.</t>
+  </si>
+  <si>
+    <t>Laa Haula Walaa Quwwata Illaa Billah '(Tidak ada daya dan kekuatan melainkan dengan idzin Allah) '. Dia berkata, Demikianlah kami mendengar Nabi kalian bersabda.</t>
+  </si>
+  <si>
+    <t>Barangsiapa berdo'a setelah mendengar adzan: ALLAHUMMA RABBA HAADZIHID DA'WATIT TAMMAH WASHSHALAATIL QAA'IMAH. AATI MUHAMMADANIL WASIILATA WALFADLIILAH WAB'ATSHU MAQAAMAM MAHMUUDANIL LADZII WA'ADTAH (Ya Allah. Rabb Pemilik seruan yang sempurna ini, dan Pemilik shalat yang akan didirikan ini, berikanlah wasilah (perantara) dan keutamaan kepada Muhammad. Bangkitkanlah ia pada kedudukan yang terpuji sebagaimana Engkau telah jannjikan) '. Maka ia berhak mendapatkan syafa'atku pada hari kiamat.</t>
+  </si>
+  <si>
+    <t>Seandainya manusia mengetahui apa (kebaikan) yang terdapat pada adzan dan shaf awal, lalu mereka tidak akan mendapatkannya kecuali dengan cara mengundi, niscaya mereka akan melakukannya. Dan seandainya mereka mengetahui kebaikan yang terdapat dalam bersegera (menuju shalat), niscaya mereka akan berlomba-lomba. Dan seandainya mereka mengetahui kebaikan yang terdapat pada shalat 'Isya dan Shubuh, niscaya mereka akan mendatanginya walaupun harus dengan merangkak.</t>
+  </si>
+  <si>
+    <t>Shalatlah di tempat tinggal masing-masing'. Lalu orang-orang saling memandang satu sama lain karena heran. Maka Abdullah bin Al Harits pun berkata, Hal yang demikian ini pernah dilakukan oleh orang yang lebih baik darinya, dan itu merupakan kewajiban Mu'akkad (yang ditekankan).</t>
+  </si>
+  <si>
+    <t>Sesungguhnya Bilal mengumandangkan adzan saat masih malam, maka makan dan minumlah sampai kalian mendengar adzan Ibnu Ummi Maktum. Perawi berkata, Ibnu UmmuiMaktum adalah seorang sahabat yang buta, ia tidak akan mengumandangkan adzan (shubuh) hingga ada orang yang mengatakan kepadanya, 'Sudah shubuh, sudah shubuh'.</t>
+  </si>
+  <si>
+    <t>jika mu'adzin telah selesai mengumandangkan adzan Shubuh, beliau melaksanakan shalat dua rakaat ringan sebelum mendirikan shalat Shubuh.</t>
+  </si>
+  <si>
+    <t>Nabi melaksanakan shalat sunnat dua rakaat ringan antara adzan dan iqamat dalam shalat Shubuh.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya Bilal mengumandangkan adzan saat masih malam. Maka makan dan minumlah sampai ada seruan adzan oleh Ibnu Ummi Maktum.</t>
+  </si>
+  <si>
+    <t>Adzannya Bilal tidaklah menghalangi seorang dari kalian, atau seseorang dari makan sahurnya, karena dia mengumandangkan adzan saat masih malam supaya orang yang masih shalat malam dapat pulang untuk mengingatkan mereka yang masih tidur. Dan Bilal adzan tidak bermaksud memberitahukan masuknya waktu fajar atau shubuh. Beliau berkata dengan isyarat jarinya, beliau angkat ke atas dan menurunkannya kembali hingga berkata seperti ini. Zuhair menyebutkan, Beliau berisyarat dengan kedua jari telunjuknya, salah satu jarinya beliau letakkan di atas yang lainnya, kemudian membentangkannya ke kanan dan kirinya.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya Bilal mengumandangkan adzan saat masih malam, maka makan dan minumlah sampai ada seruan adzan oleh Ibnu Ummi Maktum.</t>
+  </si>
+  <si>
+    <t>Di dua adzan (adzan dan iqamat) ada shalat sunah -beliau ucapkan tiga kali- bagi yang mau.</t>
+  </si>
+  <si>
+    <t>Jika seorang mu'adzin sudah mengumandangkan adzan (Maghrib), maka para sahabat Nabi berebut mendekati tiang-tiang (untuk shalat sunnat) sampai Nabi keluar, sementara mereka tetap dalam keadaan menunaikan shalat sunnat dua rakaat sebelum Maghrib. Dan di antara adzan dan iqamat Maghrib sangatlah sedikit (waktunya). 'Utsman bin Jailah dan Abu Daud menyebutkan dari Syu'bah, Antara keduanya (adzan dan iqamat) tidak ada waktu kecuali sedikit.</t>
+  </si>
+  <si>
+    <t>Jika mu'adzin selesai mengumandangkan adzan pertama dari adzan shalat Shubuh, Rasulullah melaksanakan shalat dua rakaat ringan sebelum melaksanakan shalat fajar, yaitu ketika fajar sudah jelas masuknya. Kemudian beliau berbaring pada sisi kanan badannya hingga mu'adzin mendatangi beliau untuk mengumandangkan iqamat.</t>
+  </si>
+  <si>
+    <t>Antara dua adzan (adzan dan iqamah) ada shalat (sunah). Kemudian pada ucapan beliau yang ketiga kalinya, beliau menambahkan: Bagi yang mau.</t>
+  </si>
+  <si>
+    <t>Kembalilah kalian kepada mereka, bergabunglah bersama mereka, ajari mereka dan shalat bersama mereka. Jika waktu shalat telah tiba, maka hendaklah salah seorang dari kalian mengumandangkan adzan dan hendaklah yang mengimami shalat kalian adalah yang paling tua di antara kalian.</t>
+  </si>
+  <si>
+    <t>Tundalah. Sesaat kemudian mu'adzin itu kembali akan melakukan adzan, beliau kembali berkata,: Tundalah. Kemudian ketika mu'adzin itu kembali hendak melakukan adzan untuk ketiga kalinya, beliau kembali berkata: Tundalah hingga kita melihat bayang-bayang bukit. Setelah itu Nabi bersabda: Sesungguhnya panas yang sangat menyengat itu berasal dari hembusan api jahannam.</t>
+  </si>
+  <si>
+    <t>Jika kalian berdua sudah keluar, maka (bila hendak shalat) adzan dan iqamatlah. Dan yang menjadi Imam hendaklah yang paling tua di antara kalian.</t>
+  </si>
+  <si>
+    <t>Kembalilah kepada keluarga kalian dan tinggallah bersama mereka, ajarilah mereka dan perintahkan (untuk shalat). Beliau lantas menyebutkan sesuatu yang aku pernah ingat lalu lupa. Beliau mengatakan: Shalatlah kalian seperti kalian melihat aku shalat. Maka jika waktu shalat sudah tiba, hendaklah salah seorang dari kalian mengumandangkan adzan, dan hendaklah yang menjadi Imam adalah yang paling tua di antara kalian.</t>
+  </si>
+  <si>
+    <t>Shalatlah di tempat tinggal kalian! Lalu dia mengabarkan kepada kami bahwa Rasulullah pernah memerintahkan seorang mu'adzin untuk mengumandangkan adzan, kemudian berseru setelah selesai adzan, Hendaklah kalian shalat di tempat tinggal kalian pada malam yang dingin, atau saat turun hujan dalam perjalanan.</t>
+  </si>
+  <si>
+    <t>Aku pernah melihat Rasulullah di Abthah, lalu Bilal datang dan memberitahukan kepada beliau bahwa waktu shalat telah tiba. Kemudian Bilal keluar dengan membawa sebatang kayu (tongkat) dan menancapkannya di depan Rasulullah , Beliau kemudian melaksanakan shalat di tempat tersebut.</t>
+  </si>
+  <si>
+    <t>dia melihat Bilal mengumandangkan adzan. Aku lalu memperhatikan mulutnya bergerak ke sana dan ke sini saat mengumandangkan adzan.</t>
+  </si>
+  <si>
+    <t>Ada apa dengan kalian? Mereka menjawab, Kami tergesa-gesa mendatangi shalat. Beliau pun bersabda: Janganlah kalian berbuat seperti itu. Jika kalian mendatangi shalat maka datanglah dengan tenang, apa yang kalian dapatkan dari shalat maka ikutilah, dan apa yang kalian tertinggal maka sempurnakanlah.</t>
+  </si>
+  <si>
+    <t>Jika kalian mendengar iqamat dikumandangkan, maka berjalanlah menuju shalat dan hendaklah kalian berjalan dengan tenang berwibawa dan jangan tergesa-gesa. Apa yang kalian dapatkan dari shalat maka ikutilah, dan apa yang kalian tertinggal maka sempurnakanlah.</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1625,6 +1925,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1927,13 +2233,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B498" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B597" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomRight" activeCell="D602" sqref="D602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8956,6 +9262,1406 @@
       </c>
       <c r="D501" s="8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A502" s="8">
+        <v>501</v>
+      </c>
+      <c r="B502" s="9">
+        <v>349</v>
+      </c>
+      <c r="C502" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D502" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A503" s="8">
+        <v>502</v>
+      </c>
+      <c r="B503" s="9">
+        <v>350</v>
+      </c>
+      <c r="C503" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D503" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A504" s="8">
+        <v>503</v>
+      </c>
+      <c r="B504" s="9">
+        <v>350</v>
+      </c>
+      <c r="C504" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D504" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A505" s="8">
+        <v>504</v>
+      </c>
+      <c r="B505" s="9">
+        <v>350</v>
+      </c>
+      <c r="C505" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="D505" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A506" s="8">
+        <v>505</v>
+      </c>
+      <c r="B506" s="9">
+        <v>350</v>
+      </c>
+      <c r="C506" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D506" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A507" s="8">
+        <v>506</v>
+      </c>
+      <c r="B507" s="9">
+        <v>351</v>
+      </c>
+      <c r="C507" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D507" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A508" s="8">
+        <v>507</v>
+      </c>
+      <c r="B508" s="9">
+        <v>352</v>
+      </c>
+      <c r="C508" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D508" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A509" s="8">
+        <v>508</v>
+      </c>
+      <c r="B509" s="9">
+        <v>352</v>
+      </c>
+      <c r="C509" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D509" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A510" s="8">
+        <v>509</v>
+      </c>
+      <c r="B510" s="9">
+        <v>352</v>
+      </c>
+      <c r="C510" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="D510" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A511" s="8">
+        <v>510</v>
+      </c>
+      <c r="B511" s="9">
+        <v>353</v>
+      </c>
+      <c r="C511" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D511" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A512" s="8">
+        <v>511</v>
+      </c>
+      <c r="B512" s="9">
+        <v>354</v>
+      </c>
+      <c r="C512" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="D512" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A513" s="8">
+        <v>512</v>
+      </c>
+      <c r="B513" s="9">
+        <v>354</v>
+      </c>
+      <c r="C513" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D513" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A514" s="8">
+        <v>513</v>
+      </c>
+      <c r="B514" s="9">
+        <v>354</v>
+      </c>
+      <c r="C514" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D514" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A515" s="8">
+        <v>514</v>
+      </c>
+      <c r="B515" s="9">
+        <v>354</v>
+      </c>
+      <c r="C515" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D515" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A516" s="8">
+        <v>515</v>
+      </c>
+      <c r="B516" s="9">
+        <v>354</v>
+      </c>
+      <c r="C516" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D516" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A517" s="8">
+        <v>516</v>
+      </c>
+      <c r="B517" s="9">
+        <v>354</v>
+      </c>
+      <c r="C517" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D517" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A518" s="8">
+        <v>517</v>
+      </c>
+      <c r="B518" s="9">
+        <v>354</v>
+      </c>
+      <c r="C518" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D518" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A519" s="8">
+        <v>518</v>
+      </c>
+      <c r="B519" s="9">
+        <v>354</v>
+      </c>
+      <c r="C519" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="D519" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A520" s="8">
+        <v>519</v>
+      </c>
+      <c r="B520" s="9">
+        <v>355</v>
+      </c>
+      <c r="C520" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D520" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A521" s="8">
+        <v>520</v>
+      </c>
+      <c r="B521" s="9">
+        <v>356</v>
+      </c>
+      <c r="C521" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D521" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A522" s="8">
+        <v>521</v>
+      </c>
+      <c r="B522" s="9">
+        <v>357</v>
+      </c>
+      <c r="C522" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D522" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A523" s="8">
+        <v>522</v>
+      </c>
+      <c r="B523" s="9">
+        <v>357</v>
+      </c>
+      <c r="C523" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D523" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A524" s="8">
+        <v>523</v>
+      </c>
+      <c r="B524" s="9">
+        <v>358</v>
+      </c>
+      <c r="C524" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D524" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A525" s="8">
+        <v>524</v>
+      </c>
+      <c r="B525" s="9">
+        <v>358</v>
+      </c>
+      <c r="C525" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D525" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A526" s="8">
+        <v>525</v>
+      </c>
+      <c r="B526" s="9">
+        <v>358</v>
+      </c>
+      <c r="C526" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D526" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A527" s="8">
+        <v>526</v>
+      </c>
+      <c r="B527" s="9">
+        <v>359</v>
+      </c>
+      <c r="C527" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D527" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A528" s="8">
+        <v>527</v>
+      </c>
+      <c r="B528" s="9">
+        <v>359</v>
+      </c>
+      <c r="C528" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D528" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A529" s="8">
+        <v>528</v>
+      </c>
+      <c r="B529" s="9">
+        <v>359</v>
+      </c>
+      <c r="C529" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D529" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A530" s="8">
+        <v>529</v>
+      </c>
+      <c r="B530" s="9">
+        <v>359</v>
+      </c>
+      <c r="C530" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="D530" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A531" s="8">
+        <v>530</v>
+      </c>
+      <c r="B531" s="9">
+        <v>360</v>
+      </c>
+      <c r="C531" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D531" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A532" s="8">
+        <v>531</v>
+      </c>
+      <c r="B532" s="9">
+        <v>361</v>
+      </c>
+      <c r="C532" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="D532" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A533" s="8">
+        <v>532</v>
+      </c>
+      <c r="B533" s="9">
+        <v>362</v>
+      </c>
+      <c r="C533" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D533" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A534" s="8">
+        <v>533</v>
+      </c>
+      <c r="B534" s="9">
+        <v>363</v>
+      </c>
+      <c r="C534" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D534" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A535" s="8">
+        <v>534</v>
+      </c>
+      <c r="B535" s="9">
+        <v>363</v>
+      </c>
+      <c r="C535" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D535" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A536" s="8">
+        <v>535</v>
+      </c>
+      <c r="B536" s="9">
+        <v>364</v>
+      </c>
+      <c r="C536" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D536" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A537" s="8">
+        <v>536</v>
+      </c>
+      <c r="B537" s="9">
+        <v>365</v>
+      </c>
+      <c r="C537" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="D537" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A538" s="8">
+        <v>537</v>
+      </c>
+      <c r="B538" s="9">
+        <v>365</v>
+      </c>
+      <c r="C538" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="D538" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A539" s="8">
+        <v>538</v>
+      </c>
+      <c r="B539" s="9">
+        <v>366</v>
+      </c>
+      <c r="C539" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="D539" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A540" s="8">
+        <v>539</v>
+      </c>
+      <c r="B540" s="9">
+        <v>367</v>
+      </c>
+      <c r="C540" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D540" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A541" s="8">
+        <v>540</v>
+      </c>
+      <c r="B541" s="9">
+        <v>367</v>
+      </c>
+      <c r="C541" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D541" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A542" s="8">
+        <v>541</v>
+      </c>
+      <c r="B542" s="9">
+        <v>368</v>
+      </c>
+      <c r="C542" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D542" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A543" s="8">
+        <v>542</v>
+      </c>
+      <c r="B543" s="9">
+        <v>368</v>
+      </c>
+      <c r="C543" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="D543" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A544" s="8">
+        <v>543</v>
+      </c>
+      <c r="B544" s="9">
+        <v>368</v>
+      </c>
+      <c r="C544" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D544" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A545" s="8">
+        <v>544</v>
+      </c>
+      <c r="B545" s="9">
+        <v>368</v>
+      </c>
+      <c r="C545" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="D545" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A546" s="8">
+        <v>545</v>
+      </c>
+      <c r="B546" s="9">
+        <v>369</v>
+      </c>
+      <c r="C546" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D546" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A547" s="8">
+        <v>546</v>
+      </c>
+      <c r="B547" s="9">
+        <v>370</v>
+      </c>
+      <c r="C547" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="D547" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A548" s="8">
+        <v>547</v>
+      </c>
+      <c r="B548" s="9">
+        <v>371</v>
+      </c>
+      <c r="C548" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D548" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A549" s="8">
+        <v>548</v>
+      </c>
+      <c r="B549" s="9">
+        <v>371</v>
+      </c>
+      <c r="C549" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="D549" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A550" s="8">
+        <v>549</v>
+      </c>
+      <c r="B550" s="9">
+        <v>371</v>
+      </c>
+      <c r="C550" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D550" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A551" s="8">
+        <v>550</v>
+      </c>
+      <c r="B551" s="9">
+        <v>372</v>
+      </c>
+      <c r="C551" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D551" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A552" s="8">
+        <v>551</v>
+      </c>
+      <c r="B552" s="9">
+        <v>372</v>
+      </c>
+      <c r="C552" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="D552" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A553" s="8">
+        <v>552</v>
+      </c>
+      <c r="B553" s="9">
+        <v>372</v>
+      </c>
+      <c r="C553" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D553" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A554" s="8">
+        <v>553</v>
+      </c>
+      <c r="B554" s="9">
+        <v>372</v>
+      </c>
+      <c r="C554" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="D554" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A555" s="8">
+        <v>554</v>
+      </c>
+      <c r="B555" s="9">
+        <v>373</v>
+      </c>
+      <c r="C555" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="D555" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A556" s="8">
+        <v>555</v>
+      </c>
+      <c r="B556" s="9">
+        <v>374</v>
+      </c>
+      <c r="C556" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D556" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A557" s="8">
+        <v>556</v>
+      </c>
+      <c r="B557" s="9">
+        <v>374</v>
+      </c>
+      <c r="C557" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D557" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A558" s="8">
+        <v>557</v>
+      </c>
+      <c r="B558" s="9">
+        <v>374</v>
+      </c>
+      <c r="C558" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="D558" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A559" s="8">
+        <v>558</v>
+      </c>
+      <c r="B559" s="9">
+        <v>374</v>
+      </c>
+      <c r="C559" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="D559" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A560" s="8">
+        <v>559</v>
+      </c>
+      <c r="B560" s="9">
+        <v>375</v>
+      </c>
+      <c r="C560" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="D560" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A561" s="8">
+        <v>560</v>
+      </c>
+      <c r="B561" s="9">
+        <v>376</v>
+      </c>
+      <c r="C561" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="D561" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A562" s="8">
+        <v>561</v>
+      </c>
+      <c r="B562" s="9">
+        <v>377</v>
+      </c>
+      <c r="C562" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D562" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A563" s="8">
+        <v>562</v>
+      </c>
+      <c r="B563" s="9">
+        <v>378</v>
+      </c>
+      <c r="C563" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="D563" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A564" s="8">
+        <v>563</v>
+      </c>
+      <c r="B564" s="9">
+        <v>379</v>
+      </c>
+      <c r="C564" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="D564" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A565" s="8">
+        <v>564</v>
+      </c>
+      <c r="B565" s="9">
+        <v>380</v>
+      </c>
+      <c r="C565" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="D565" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A566" s="8">
+        <v>565</v>
+      </c>
+      <c r="B566" s="9">
+        <v>381</v>
+      </c>
+      <c r="C566" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="D566" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A567" s="8">
+        <v>566</v>
+      </c>
+      <c r="B567" s="9">
+        <v>381</v>
+      </c>
+      <c r="C567" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="D567" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A568" s="8">
+        <v>567</v>
+      </c>
+      <c r="B568" s="9">
+        <v>382</v>
+      </c>
+      <c r="C568" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="D568" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A569" s="8">
+        <v>568</v>
+      </c>
+      <c r="B569" s="9">
+        <v>383</v>
+      </c>
+      <c r="C569" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="D569" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A570" s="8">
+        <v>569</v>
+      </c>
+      <c r="B570" s="9">
+        <v>383</v>
+      </c>
+      <c r="C570" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="D570" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A571" s="8">
+        <v>570</v>
+      </c>
+      <c r="B571" s="9">
+        <v>384</v>
+      </c>
+      <c r="C571" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="D571" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A572" s="8">
+        <v>571</v>
+      </c>
+      <c r="B572" s="9">
+        <v>384</v>
+      </c>
+      <c r="C572" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D572" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A573" s="8">
+        <v>572</v>
+      </c>
+      <c r="B573" s="9">
+        <v>385</v>
+      </c>
+      <c r="C573" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="D573" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A574" s="8">
+        <v>573</v>
+      </c>
+      <c r="B574" s="9">
+        <v>386</v>
+      </c>
+      <c r="C574" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="D574" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A575" s="8">
+        <v>574</v>
+      </c>
+      <c r="B575" s="9">
+        <v>387</v>
+      </c>
+      <c r="C575" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="D575" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A576" s="8">
+        <v>575</v>
+      </c>
+      <c r="B576" s="9">
+        <v>388</v>
+      </c>
+      <c r="C576" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="D576" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A577" s="8">
+        <v>576</v>
+      </c>
+      <c r="B577" s="9">
+        <v>389</v>
+      </c>
+      <c r="C577" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="D577" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A578" s="8">
+        <v>577</v>
+      </c>
+      <c r="B578" s="9">
+        <v>389</v>
+      </c>
+      <c r="C578" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="D578" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A579" s="8">
+        <v>578</v>
+      </c>
+      <c r="B579" s="9">
+        <v>389</v>
+      </c>
+      <c r="C579" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="D579" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A580" s="8">
+        <v>579</v>
+      </c>
+      <c r="B580" s="9">
+        <v>390</v>
+      </c>
+      <c r="C580" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="D580" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A581" s="8">
+        <v>580</v>
+      </c>
+      <c r="B581" s="9">
+        <v>391</v>
+      </c>
+      <c r="C581" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="D581" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A582" s="8">
+        <v>581</v>
+      </c>
+      <c r="B582" s="9">
+        <v>392</v>
+      </c>
+      <c r="C582" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="D582" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A583" s="8">
+        <v>582</v>
+      </c>
+      <c r="B583" s="9">
+        <v>393</v>
+      </c>
+      <c r="C583" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="D583" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A584" s="8">
+        <v>583</v>
+      </c>
+      <c r="B584" s="9">
+        <v>394</v>
+      </c>
+      <c r="C584" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="D584" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A585" s="8">
+        <v>584</v>
+      </c>
+      <c r="B585" s="9">
+        <v>394</v>
+      </c>
+      <c r="C585" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="D585" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A586" s="8">
+        <v>585</v>
+      </c>
+      <c r="B586" s="9">
+        <v>394</v>
+      </c>
+      <c r="C586" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="D586" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A587" s="8">
+        <v>586</v>
+      </c>
+      <c r="B587" s="9">
+        <v>395</v>
+      </c>
+      <c r="C587" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="D587" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A588" s="8">
+        <v>587</v>
+      </c>
+      <c r="B588" s="9">
+        <v>395</v>
+      </c>
+      <c r="C588" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="D588" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A589" s="8">
+        <v>588</v>
+      </c>
+      <c r="B589" s="9">
+        <v>396</v>
+      </c>
+      <c r="C589" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="D589" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A590" s="8">
+        <v>589</v>
+      </c>
+      <c r="B590" s="9">
+        <v>396</v>
+      </c>
+      <c r="C590" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="D590" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A591" s="8">
+        <v>590</v>
+      </c>
+      <c r="B591" s="9">
+        <v>397</v>
+      </c>
+      <c r="C591" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="D591" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A592" s="8">
+        <v>591</v>
+      </c>
+      <c r="B592" s="9">
+        <v>398</v>
+      </c>
+      <c r="C592" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="D592" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A593" s="8">
+        <v>592</v>
+      </c>
+      <c r="B593" s="9">
+        <v>399</v>
+      </c>
+      <c r="C593" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="D593" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A594" s="8">
+        <v>593</v>
+      </c>
+      <c r="B594" s="9">
+        <v>400</v>
+      </c>
+      <c r="C594" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="D594" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A595" s="8">
+        <v>594</v>
+      </c>
+      <c r="B595" s="9">
+        <v>400</v>
+      </c>
+      <c r="C595" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="D595" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A596" s="8">
+        <v>595</v>
+      </c>
+      <c r="B596" s="9">
+        <v>400</v>
+      </c>
+      <c r="C596" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="D596" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A597" s="8">
+        <v>596</v>
+      </c>
+      <c r="B597" s="9">
+        <v>400</v>
+      </c>
+      <c r="C597" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="D597" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A598" s="8">
+        <v>597</v>
+      </c>
+      <c r="B598" s="9">
+        <v>400</v>
+      </c>
+      <c r="C598" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="D598" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A599" s="8">
+        <v>598</v>
+      </c>
+      <c r="B599" s="9">
+        <v>401</v>
+      </c>
+      <c r="C599" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="D599" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A600" s="8">
+        <v>599</v>
+      </c>
+      <c r="B600" s="9">
+        <v>402</v>
+      </c>
+      <c r="C600" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="D600" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A601" s="8">
+        <v>600</v>
+      </c>
+      <c r="B601" s="9">
+        <v>403</v>
+      </c>
+      <c r="C601" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="D601" s="8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/hadits_fix.xlsx
+++ b/hadits_fix.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$701</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="802">
   <si>
     <t>No.</t>
   </si>
@@ -1825,6 +1828,603 @@
   </si>
   <si>
     <t>Jika kalian mendengar iqamat dikumandangkan, maka berjalanlah menuju shalat dan hendaklah kalian berjalan dengan tenang berwibawa dan jangan tergesa-gesa. Apa yang kalian dapatkan dari shalat maka ikutilah, dan apa yang kalian tertinggal maka sempurnakanlah.</t>
+  </si>
+  <si>
+    <t>Jika iqamah telah dikumandangkan maka janganlah berdiri hingga kalian melihat aku.</t>
+  </si>
+  <si>
+    <t>Jika iqamah telah dikumandangkan maka janganlah berdiri hingga kalian melihat aku, dan hendaklah kalian melakukannya dengan tenang.</t>
+  </si>
+  <si>
+    <t>Tetaplah di tempat kalian. Maka kami tetap berdiri di tempat semula hingga beliau kembali kepada kami dengan kela basah karena sebab mandi.</t>
+  </si>
+  <si>
+    <t>Tetaplah di tempat kalian. Beliau pun kembali ke rumah untuk mandi dan datang kepada kami dalam keadaan kepalanya basah, kemudian beliau shalat bersama mereka.</t>
+  </si>
+  <si>
+    <t>Demi Allah, aku juga belum melakasanakannya. Kemudian beliau turun menuju aliran air (sungai), dan aku ikut bersama beliau. Belau lalu berwudlu dan shalat, yaitu shalat Ashar setelah matahari terbenam. Kemudian dilanjutkan dengan melaksanakan shalat Maghrib.</t>
+  </si>
+  <si>
+    <t>ketika iqamat sudah dibacakan, Nabi masih berbicara dengan seseorang di sisi masjid. Beliau belum juga melaksanakan shalat hingga sebagian para sahabat tertidur.</t>
+  </si>
+  <si>
+    <t>Ketika iqamah telah dikumandangkan Nabi dihampiri oleh seorang laki-laki hingga menghalanginya dari menunaikan shalat.</t>
+  </si>
+  <si>
+    <t>sungguh aku ingin memerintahkan seseorang mengumpulkan kayu bakar kemudian aku perintahkan seseorang untuk adzan dan aku perintahkan seseorang untuk memimpin orang-orang shalat. Sedangkan aku akan mendatangi orang-orang (yang tidak ikut shalat berjama'ah) lalu aku bakar rumah-rumah mereka. Demi Dzat yang jiwaku berada di tangan-Nya, seandainya seseorang di antara kalian mengetahui bahwa ia akan memperaleh daging yang gemuk, atau dua potongan daging yang bagus, pasti mereka akan mengikuti shalat 'Isya berjama'ah.</t>
+  </si>
+  <si>
+    <t>Shalat berjama'ah lebih utama dibandingkan shalat sendirian dengan dua puluh tujuh derajat.</t>
+  </si>
+  <si>
+    <t>Shalat berjama'ah lebih utama dibandingkan shalat sendirian dengan dua puluh lima derajat.</t>
+  </si>
+  <si>
+    <t>Shalat seorang laki-laki dengan berjama'ah dibanding shalatnya di rumah atau di pasarnya lebih utama (dilipat gandakan) pahalanya dengan dua puluh lima kali lipat. Yang demikian itu karena bila dia berwudlu dengan menyempurnakan wudlunya lalu keluar dari rumahnya menuju masjid, dia tidak keluar kecuali untuk melaksanakan shalat berjama'ah, maka tidak ada satu langkahpun dari langkahnya kecuali akan ditinggikan satu derajat, dan akan dihapuskan satu kesalahannya. Apabila dia melaksanakan shalat, maka Malaikat akan turun untuk mendo'akannya selama dia masih berada di tempat shalatnya, 'Ya Allah ampunilah dia. Ya Allah rahmatilah dia'. Dan seseorang dari kalian senantiasa dihitung dalam keadaan shalat selama dia menanti palaksanaan shalat.</t>
+  </si>
+  <si>
+    <t>Shalat berjama'ah lebih utama dibanding shalatnya salah seorang dari kalian dengan sendirian dengan dua puluh lima bagian. Dan Malaikat malam dan Malaikat siang berkumpul pada shalat fajar. Abu Hurairah kemudian berkata, Jika mau silahkan baca: '(Sesungguhnya shalat fajar disaksikan (oleh para Malaikat) ' (Qs. Al Israa: 78). Syu'aib berkata; telah menceritakan kapadaku Nafi' dari 'Abdullah bin 'Umar ia berkata, (Shalat berjama'ah) dilebihkan dengan dua puluh tujuh derajat.</t>
+  </si>
+  <si>
+    <t>Demi Allah, tidak ada yang aku kenal dari umat Muhammad kecuali bahwa mereka selalu shalat berjama'ah.</t>
+  </si>
+  <si>
+    <t>Orang yang paling banyak mendapatkan pahala dalam shalat adalah mereka yang paling jauh (jarak rumahnya ke masjid), karena paling jauh dalam perjalanannya menuju masjid. Dan orang yang menunggu shalat hingga dia melaksanakan shalat bersama imam lebih besar pahalanya dari orang yang melaksanakan shalat kemudian tidur.</t>
+  </si>
+  <si>
+    <t>Ketika seorang laki-laki berjalan pada suatu jalan dan menemukan dahan berduri lalu ia membuangnya maka Allah menyanjungnya dan mengampuni dosanya. Kemudian beliau bersabda: Orang yangmati syahid itu ada lima; orang yang mati karena penyakit kusta, orang yang mati karena sakit perut, orang yang mati kerena tenggelam, orang yang mati karena tertimpa reruntuhan dan orang yang terbunuh di jalan Allah. Beliau melanjutkan sabdanya: Seandainya manusia mengetahui apa (kebaikan) yang terdapat pada adzan dan shaf awal, lalu mereka tidak dapat meraihnya kecuali dengan cara mengundi tentulah mereka akan mengundi. Dan seandainya mereka mengetahui apa yang terdapat pada bersegera menuju shalat, tentulah mereka akan berlomba-lomba. Dan seandainya mereka mengetahui kebaikan yang terdapat pada shalat 'Atamah (shalat 'Isya') dan Shubuh, tentulah mereka akan mendatanginya walaupun harus dengan merangkak.</t>
+  </si>
+  <si>
+    <t>Wahai Bani Salamah, tidakkah kalian mengharap pahala dari langkah-langkah kalian? Mujahid ketika menerangkan firman Allah: '(Dan Kami menuliskan apa yang mereka kerjakan dan bekas-bekas yang mereka tinggalkan) ' (Qs. Yasin: 12) mengatakan, Yakni langkah-langkah mereka. Ibnu Abu Maryam berkata; telah mengabarkan kepada kami Yahya bin Ayyub telah menceritakan kapadaku Humaid telah menceritakan kapadaku Anas ia berkata, Bani Salamah pernah berkeinginan untuk pindah dari tempat tinggal mereka dan mendekat dengan Nabi . Namun Rasulullah tidak memperkenankan mereka mengosongkan Madinah dengan bersabda: Tidakkah kalian mengharap pahala dari langkah-langkah kalian? Mujahid berkata, Langkah-langkah mereka adalah bekas-bekas perjalanan mereka di muka bumi ketika berjalan dengan kaki mereka.</t>
+  </si>
+  <si>
+    <t>Tidak ada shalat yang lebih berat bagi orang-orang Munafik kecuali shalat shubuh dan 'Isya. Seandainya mereka mengetahui (kebaikan) yang ada pada keduanya tentulah mereka akan mendatanginya walau harus dengan merangkak. Sungguh, aku berkeinginan untuk memerintahkan seorang mu'adzin sehingga shalat ditegakkan dan aki perintahkan seseorang untuk memimpin orang-orang shalat, lalu aku menyalakan api dan membakar (rumah-rumah) orang yang tidak keluar untuk shalat berjama'ah (tanpa alasan yang benar).</t>
+  </si>
+  <si>
+    <t>Jika telah datang waktu shalat maka adzan dan iqamatlah, kemudian hendaklah yang mengimami shalat adalah yang paling tua di antara kalian berdua.</t>
+  </si>
+  <si>
+    <t>Para Malaikat berdo'a untuk salah seorang dari kalian selama dia masih pada posisi shalatnya dan belum berhadats, 'Ya Allah ampunilah dia. Ya Allah rahmatilah dia'. Dan seseorang dari kalian senantiasa dihitung dalam keadaan shalat selama dia menanti palaksanaan shalat. Dimana tidak ada yang menghalangi dia untuk kembali kepada keluarganya kecuali shalat itu.</t>
+  </si>
+  <si>
+    <t>Ada tujuh golongan manusia yang akan mendapat naungan Allah pada hari yang tidak ada naungan kecuali naungan-Nya; pemimpin yang adil, seorang pemuda yang menyibukkan dirinya dengan 'ibadah kepada Rabbnya, seorang laki-laki yang hatinya terpaut dengan masjid, dua orang laki-laki yang saling mencintai karena Allah; mereka tidak bertemu kecuali karena Allah dan berpisah karena Allah, seorang laki-laki yang diajak berbuat maksiat oleh seorang wanita kaya lagi cantik lalu dia berkata, 'Aku takut kepada Allah', dan seorang yang bersedekah dengan menyembunyikannya hingga tangan kirinya tidak mengetahui apa yang diinfakkan oleh tangan kanannya, serta seorang laki-laki yang berdzikir kepada Allah dengan mengasingkan diri hingga kedua matanya basah karena menangis.</t>
+  </si>
+  <si>
+    <t>Manusia sudah selesai shalat dan tidur, sementara kalian akan senantiasa dalam hitungan shalat kalian menunggu pelaksanaannya. Anas bin Malik berkata, Sungguh saat itu aku melihat kilau sinar cincin beliau.</t>
+  </si>
+  <si>
+    <t>Barangsiapa datang ke masjid di pagi dan sore hari, maka Allah akan menyediakan baginya tempat tinggal yang baik di surga setiap kali dia berangkat ke masjid di pagi dan sore hari.</t>
+  </si>
+  <si>
+    <t>Apakah kamu shalat Shubuh empat rakaat? Apakah kamu shalat Shubuh empat rakaat? Hadits ini dikuatkan oleh Ghundar dan Mu'adz dari Syu'bah dalam riwayat Malik. Dan Ibnu Ishaq berkata dari Sa'd dari Hafsh dari 'Abdullah bin Buhainah. Dan Hammad berkata, telah mengabarkan kepada kami Sa'd dari Hafsh dari Malik.</t>
+  </si>
+  <si>
+    <t>Suruhlah Abu Bakar untuk memimpin shalat bersama orang-orang. Lalu dikatakan kepada beliau, Sesungguhnya Abu Bakr adalah orang yang lemah dan mudah menangis (saat membaca al Qur'an). Dia tidak akan mampu menggantikan posisi Tuan untuk memimpin orang-orang shalat. Beliau kembali mengulangi ucapannya, dan mereka juga memberi jawaban yang sama. Hal itu terus berulang hingga tiga kali, akhirnya beliau pun bersabda: Kalian ini seperti isteri-isteri Yusuf! Perintahkanlah Abu Bakr agar memimpin shalat. Maka keluarlah Abu Bakr memimpin shalat jama'ah. Beliau kemudian merasa agak segar badannya, sehingga beliau keluar ke masjid dengan diapit oleh dua orang, seolah aku kedua kaki beliau menyentuh tanah karena sakit. Melihat kehadiran beliau, Abu Bakar berniat untuk mundur namun Nabi Shallallahu 'alaihi wa salam mencegahnya dengan isyarat agar ia tetap pada posisinya. Kemudian beliau di dudukkan di sisi Abu Bakar. Dikatakan kepada Al A'masy, Apakah beliau shalat kemudian Abu Bakar shalat mengikuti shalatnya beliau, dan orang-orang shalat dengan mengikuti shalatnya Abu Bakar? Lalu Al A'masy menjawab 'Ya' dengan anggukkan kepalanya. Abu Daud juga meriwayatkannya dari Syu'bah dari Al A'masy sebagiannya, dan Abu Mu'awiyah menambahkan, Beliau shalat dengan duduk di sebelah kiri Abu Bakar, sementara Abu Bakr shalat dengan berdiri.</t>
+  </si>
+  <si>
+    <t>Ketika sakit Nabi semakin parah dan berat, beliau minta izin kepada para isterinya untuk dirawat di rumahku. Lalu beliau pun diizinkan. Beliau kemudian keluar dengan dipapah oleh dua orang laki-laki sementara keduan kakinya berjalan di tanah. Kedua laki-laki itu adalah 'Abbas dan seorang lagi. 'Ubaidullah berkata, Apa yang dikisahkan oleh Aisyah itu kemudian aku ceritakan kepada 'Abdullah bin 'Abbas, maka dia pun berkata kepadaku, Tahukah kamu, siapakah lelaki lain yang tidak disebutkan namanya oleh 'Aisyah itu? ' Aku jawab, Tidak. Ibnu Abbas berkata, Dia adalah 'Ali bin Abu Thalib.</t>
+  </si>
+  <si>
+    <t>Shalatlah di tempat tinggal kalian. Ia melanjutkan perkataannya, Jika malam sangat dingin dan hujan Rasulullah memerintahkan seorang mu'adzin untuk mengucapkan: Hendaklah kalian shalat di tempat tinggal kalian.</t>
+  </si>
+  <si>
+    <t>Mana tempat yang kau sukai untuk aku shalat padanya. Maka dia menunjuk suatu tempat di rumahnya, Rasulullah kemudian shalat pada tempat tersebut.</t>
+  </si>
+  <si>
+    <t>Shalatlah di tempat tinggal masing-masing'. Maka orang-orang pun saling memandang satu sama lain seakan mereka mengingkarinya. Maka Ibnu 'Abbas berkata, Seakan kalian mengingkari masalah ini. Sesungguhnya hal yang demikian ini pernah dilakukan oleh orang yang lebih baik dariku, yakni Nabi . Dan sesungguhnya itu merupakan kewajiban ('azimah) dan aku enggan untuk mengungkapkannya kepada kalian. Dan dari Hammad dari 'Ashim dari 'Abdullah bin Al Harits dari Ibnu 'Abbas seperti itu. Hanya saja ia menambahkan bahwa Ibnu Abbas berkata, Aku tidak mau untuk membuat kalian berdosa, kalian mendatangi shalat sementara lutut kaki kalian penuh dengan lumpur.</t>
+  </si>
+  <si>
+    <t>sujud di atas air dan lumpur hingga tampak sisa tanah becek pada dahi beliau.</t>
+  </si>
+  <si>
+    <t>beliau shalat dua rakaat di atas tikar tersebut. Seorang lelaki dari keluarga Al Jarud berkata kepada Anas bin Malik, Apakah Nabi tadi melaksanakan shalat Dluha? Anas bin Malik menjawab, Aku belum pernah melihat beliau mengerjakannya kecuali pada hari itu.</t>
+  </si>
+  <si>
+    <t>Apabila makan malam sudah dihidangkan sedangkan shalat jama'ah sudah dibacakan iqamatnya, maka dahulukanlah makan.</t>
+  </si>
+  <si>
+    <t>Apabila makan malam sudah dihidangkan, maka makanlah terlebih dahulu sebelum kalian melaksankan shalat Maghrib. Dan janganlah kalian tergesa-gesa dalam menyelesaikan makan kalian.</t>
+  </si>
+  <si>
+    <t>Apabila makan malam seseorang dari kalian sudah dihidangkan sedangkan shalat sudah didirikan, maka dahulukanlah makan malam dan janganlah tergesa-gesa hingga dia menuntaskannya. Ibnu 'Umar RA juga pernah dihidangkan padanya suatu makanan sedangkan shalat sedang dilaksanakan, namun dia tidak mengikuti shalat tersebut hingga selesai. Padahal saat itu dia juga mendengar bacaan imam. Berkata, Zuhair dan Wahab bin 'Utsman dari Musa bin 'Uqbah dari Nafi' dari Ibnu 'Umar RA berkata,; Telah bersabda Nabi : Apabila seseorang dari kalian sedang makan janganlah dia tergesa-gesa hingga dia menyelesaikan kebutuhan (makan) nya sekalipun shalat jama'ah sedang dilaksanakan. Diriwayatkan oleh Ibrahim bin Al Mundzir dari Wahab bin 'Utsman, dan Wahab adalah penduduk Madinah.</t>
+  </si>
+  <si>
+    <t>memakan daging paha lalu memotongnya. Kemudian beliau diserukan untuk shalat. Maka Beliau berdiri lalu meletakkan pisau kemudian shalat tanpa berwudlu' lagi.</t>
+  </si>
+  <si>
+    <t>Beliau selalu membantu keluarganya, jika datang waktu shalat maka beliau keluar untuk melaksanakannya.</t>
+  </si>
+  <si>
+    <t>Aku akan melaksanakan shalat dengan kalian. Dan aku tidak ingin mengerjakan suatu shalat selain cara shalat yang pernah aku lihat Nabi melaksanakannya. Aku pun bertanya kepada kepada Abu Qilabah, Bagaimanakah cara shalat Nabi ? Ia menjawab, Seperti guru kita ini. Setelah mengangkat kepalanya dari sujud, ia duduk sebentar sebelum bangkit di rakaat pertama.</t>
+  </si>
+  <si>
+    <t>Suruhlah Abu Bakar untuk memimpin shalat orang-orang. 'Aisyah berkata, Sesungguhnya Abu Bakar adalah seorang laki-laki yang lemah (hatinya; mudah menangis) jika harus menggantikan posisi Tuan, dia tidak akan mampu untuk memimpin shalat bersama orang-orang. Beliau berkata lagi: Suruhlah Abu Bakar untuk memimpin shalat orang-orang. 'Aisyah kembali mengulangi jawabannya. Maka beliau pun bersabda: Suruhlah Abu Bakar untuk memimpin shalat orang-orang. Kalian ini seperti isteri-isteri Yusuf! Rasulullah kemudian mendatangi Abu Bakar dan shalat bersama manusia di akhir masa hidupnya.</t>
+  </si>
+  <si>
+    <t>Suruhlah Abu Bakar untuk memimpin shalat orang-orang. 'Aisyah berkata, Aku lalu berkata, Jika Abu Bakar menggantikan posisi Tuan, maka suaranya tidak akan bisa didengar oleh orang-orang karena tangisnya. Sebaiknya suruhah Umar untuk memimpin shalat orang-orang. 'Aisyah berkata, Aku lalu sampaikan kepada Hafshah, Katakanlah kepada Beliau, 'Jika Abu Bakar menggantikan posisi Tuan, maka suaranya tidak akan dapat didengar oleh orang-orang karena tanagisannya, maka perintahlah Umar untuk memimpin shalat orang-orang'. Maka Hafshah pun melaksanakannya. Kemudian bersabdalah Rasulullah : Celakalah kalian!. Sungguh kalian ini seperti isteri-isterinya Yusuf. Suruhlah Abu Bakar untuk memimpin shalat orang-orang. Hafshah kemudian berkata kepada 'Aisyah, Sungguh aku tidak mendapatkan kebaikan darimu.</t>
+  </si>
+  <si>
+    <t>Nabi memberi isyarat kepada kami agar: Teruskanlah shalat kalian. Setelah itu beliau menutup tabir dan wafat pada hari itu juga.</t>
+  </si>
+  <si>
+    <t>Nabi telah tiga hari tidak keluar rumah untuk shalat. Dan selama itu shalat dilaksanakan dengan Abu Bakar maju sebagai imam memimpin shalat. Suatu hari Nabi Allah menyingkap tabir kamar dan mengangkatnya. Tatkala tampak wajah Nabi , sungguh belum pernah kami memandang wajah beliau yang lebih menakjubkan kami, selain wajahnya saat waktu itu menampakkan kepada kami. Lalu Nabi memberi isyarat dengan tangannya kepada Abu Bakar lalu kembali menutup tabirnya dan masuk. Dan sejak saat itu kami tidak lagi melihat beliau hingga wafat.</t>
+  </si>
+  <si>
+    <t>Suruhlah Abu Bakar untuk memimpin shalat orang-orang. 'Aisyah berkata, Abu Bakar itu hatinya sangat lembut, jika membaca Al-Qur'an maka ia akan menangis. Beliau berkata lagi: Suruhlah dia untuk memimpin shalat. Lalu 'Aisyah kembali mengulanggi jawabannya. Maka beliau pun bersabda: Suruhlah dia untuk memimpin shalat. Kalian ini seperti isteri-isteri Yusuf! Hadits ini dikuatkan oleh Az Zubaidi, Ibnu Akhi Az Zuhri dan Ishaq bin Yahya Al Kalbi dari Az Zuhri. 'Uqail dan Ma'mar menyebutkan dari Az Zuhri dari Hamzah dari Nabi .</t>
+  </si>
+  <si>
+    <t>Rasulullah memerintahkan Abu Bakar unruk memimpin shalat jama'ah bersama orang-orang saat beliau sakit. Maka Abu Bakar pun memimpin shalat mereka. 'Urwah berkata, Ketika Rasulullah merasakan ringan pada tubuhnya, beliau pun keluar sementara Abu Bakar sedang mengimami orang-orang shalat. Ketika Abu Bakar melihat beliau datang, dia pun berkeinginan untuk mundur. Tetapi beliau memberi isyarat kepadanya (dengan katanya): Tetaplah kamu pada posisimu. Lalu Rasulullah duduk di samping Abu Bakar, sehingga dia shalat mengikuti shalat Rasulullah dan orang-orang mengikuti shalatnya Abu Bakar.</t>
+  </si>
+  <si>
+    <t>Wahai Abu Bakar, apa yang menghalangimu ketika aku perintahkan agar kamu tetap pada posisimu? Abu Bakar menjawab, Tidaklah patut bagi anak Abu Qahafah untuk memimpin shalat di depan Rasulullah. Maka Rasulullah bersabda: Mengapa kalian tadi banyak bertepuk tangan?. Barangsiapa menjadi makmum lalu merasa ada kekeliruan dalam shalat, hendaklah dia membaca tasbih. Karena jika dibacakan tasbih, dia (imam) akan memperhatikannya. Sedangkan tepukan untuk wanita.</t>
+  </si>
+  <si>
+    <t>Jika kalian kembali kepada ke negeri kalian, maka jarilah mereka, dan perintahkanlah mereka shalat ini pada waktu begini, shalat ini pada waktu begini. Dan apabila telah datang waktu shalat, maka hendaklah seseorang dari kalian adzan dan hendaklah yang mengimami shalat adalah yang paling tua di antara kalian.</t>
+  </si>
+  <si>
+    <t>Mana tempat yang kau sukai dari rumahmu hingga aku bisa shalat di sana? Maka aku memberi isyarat kepada satu tempat yang aku sukai. Beliau lalu berdiri shalat dan kami berbaris mengikuti di belakang beliau, setelah salam beliau kamipun memberi salam.</t>
+  </si>
+  <si>
+    <t>Apakah orang-orang sudah shalat? Kami menjawab lagi, Belum wahai Rasulullah, mereka masih menunggu tuan. Kemudian beliau berkata lagi: Bawakan aku air dalam bejana. Beliau lalu duduk dan mandi. Kemudian beliau berusaha untuk berdiri dan berangkat, namun beliau jatuh dan pingsan lagi. Ketika sudah sadarkan diri, beliau pun bersabda: Apakah orang-orang sudah shalat? Saat itu orang-orang sudah menunggu Nabi di masjid untuk shalat 'Isya di waktu yang akhir. Lalu Nabi mengutus seseorang untuk menemui Abu Bakar dan memintanya untuk mengimami shalat. Maka utusan tersebut menemui Abu Bakar dan berkata, kepadanya, Sesungguhnya Rasulullah telah memerintahkan anda untuk mengimami shalat jama'ah! Lalu Abu Bakar -orang yang hatinya lembut- berkata, Wahai 'Umar, pimpinlah orang-orang melaksanakan shalat. Umar menjawab, Anda lebih berhak dalam masalah ini. Maka Abu Bakar memimpin shalat pada hari-hari sakitnya Nabi tersebut. kemduian ketika Nabi mendapati tubuhnya lebih segar, beliau pun keluar rumah sambil berjalan dipapah oleh dua orang laki-laki, satu diantaranya adalah 'Abbas untuk melaksanakan shalat Zhuhur. Ketika itu Abu Bakar sedang mengimami shalat, ketika ia melihat beliau datang, Abu Bakar berkehendak untuk mundur dari posisinya namun Nabi memberi isyarat supaya dia tidak mundur. Kemudian beliau bersabda: Dudukkanlah aku disampingnya. Maka kami mendudukkan beliau di samping Abu Bakar. Perawi berkata, Maka jadilah Abu Bakar shalat dengan mengikuti shalatnya Nabi sementara orang-orang mengikuti shalatnya Abu Bakar, dan saat itu Nabi shalat sambil duduk. 'Ubaidullah berkata, Aku menemui ' Abdullah bin 'Abbas dan berkata kepadanya, Maukan anda saya ceritakan sebuah hadits tentang sakitnya Rasulullah seperti yang disampaikan 'Aisyah? Dia menjawab, Sampaikanlah! Maka aku ceritakan hadits yang disampaikan 'Aisyah. 'Abdullah bin 'Abbas tidak mengingkari sedikitpun apa yang aku ceritakan selain dia bertanya kepadaku, Apakah 'Aisyah menyebutkan nama laki-laki yang bersama 'Abbas? Aku menjawab, Tidak. Ia pun berkata, Dia adalah 'Ali bin Abu Thalib.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya imam dijadikan untuk diikuti, apabila dia rukuk maka rukuklah kalian, bila dia mengangkat kepalanya maka angkatlah kepala kalian. Dan bila dia shalat dengan duduk, maka shalatlah kalian dengan duduk</t>
+  </si>
+  <si>
+    <t>Sesungguhnya imam dijadikan untuk diikuti, jika ia shalat dengan berdiri maka shalatlah kalian dengan berdiri. Jika ia rukuk maka rukuklah kalian, jika ia mengangkat kepalanya maka angkatlah kepala kalian. Dan jika ia mengucapkan SAMI'ALLAHU LIMAN HAMIDAH (Semoga Allah merndengar orang yang memuji-Nya) ', maka ucapkanlah; RABBANAA WA LAKAL HAMDU (Ya Rabb kami, milik Engkaulah segala pujian) '. Dan jika ia shalat dengan berdiri maka shalatlah kalian dengan berdiri, dan jika ia shalat dengan duduk maka shalatlah kalian semuanya dengan duduk. Abu 'Abdullah berkata, Al Humaidi ketika menerangkan sabda Nabi 'Dan bila dia shalat dengan duduk maka shalatlah kalian dengan duduk' dia berkata, Kejadian ini adalah saat sakitnya Nabi di waktu yang lampau. Kemudian setelah itu Nabi shalat dengan duduk sedangkan orang-orang shalat di belakangnya dengan berdiri, dan beliau tidak memerintahkan mereka agar duduk. Dan sesungguhnya yang dijadikan ketentuan adalah berdasarkan apa yang paling akhir dan terakhir dari perbuatan Nabi .</t>
+  </si>
+  <si>
+    <t>Jika Rasulullah mengucapkan 'SAMI'ALLAHU LIMAN HAMIDAH', tidak ada seorangpun dari kami yang membungkukkan punggungnya sebelum Nabi benar-benar (meletakkan kepalanya) bersimpuh dalam sujud, barulah setelah itu kami bersujud. Telah menceritakan kepada kami Abu Nu'aim dari Sufyan dari Abu Ishaq dengan hadits yang seperti ini.</t>
+  </si>
+  <si>
+    <t>Tidakkah salah seornag dari kalian takut, atau apakah salah seorang dari kalian tidak takut, jika ia mengangkat kepalanya sebelum Imam, Allah akan menjadikan kepalanya seperti kepala keledai, atau Allah akan menjadikan rupanya seperti bentuk keledai?</t>
+  </si>
+  <si>
+    <t>Ketika robongan Muhajirin yang pertama sampai di 'Ushbah, suatu tempat di Quba', sebelum kedatangan Rasulullah , yang mengimami shalat mereka adalah Salim mantan budak Abu Hudzaifah. Dia adalah seorang sahabat yang paling banyak bacaan (hafalan) Al Qur'annya di antara mereka.</t>
+  </si>
+  <si>
+    <t>Dengar dan taatlah kalian, sekalipun yang memimpin kalian adalah seorang budak Habasyi yang berambut keriting seperti buah kismis.</t>
+  </si>
+  <si>
+    <t>Para imam shalat memimpin kalian. Maka jika dia benar, mereka mendapat pahala dan kalian juga mendapatkan bagian pahalanya. Namun bila dia salah kalian tetap mendapatkan pahala dan mereka mendapatkan dosa.</t>
+  </si>
+  <si>
+    <t>Shalat adalah amal terbaik yang dilakukan manusia. Oleh karena itu apabila orang-orang melakukan kebaikan (dengan mendirikan shalat), maka berbuat baiklah (shalat) bersama mereka. Dan jika mereka berbuat keburukan (kesalahan), maka jauhilah keburukan mereka. Az Zubaidi berkata, Az Zuhri berkata, Kami tidak membenarkan shalat bermakmum di belakang seorang banci kecuali dalam keadaan sangat terpaksa.</t>
+  </si>
+  <si>
+    <t>Dengar dan taatlah sekalipun terhadap seorang budak Habasyi yang berambut keriting seperti buah anggur kering.</t>
+  </si>
+  <si>
+    <t>Rasulullah pergi shalat 'Isya kemudian kembali ke rumah dan shalat sunnat empat rakaat, kemudian beliau tidur. Saat tengah malam beliau bangun dan shalat malam, aku lalu datang untuk ikut shalat bersama beliau dan berdiri di samping kiri beliau. Kemudian beliau menggeserku ke sebelah kanannya, lalu beliau shalat lima rakaat, kemudian dua rakaat, kemudian tidur hingga aku mendengar suara dengkur Beliau. Setelahitu beliau Kemudian Beliau keluar untuk shalat (shubuh).</t>
+  </si>
+  <si>
+    <t>Rasulullah kemudian berwudlu lalu berdiri menunaikan shalat. Maka aku datang dan berdiri shalat di samping kiri beliau. Namun beliau memegangku dan menggeserku ke sebelah kanannya. Setelah itu beliau shalat tiga belas rakaat, kemudian tidur hingga terdengar nafasnya. Dan memang beliau apabila tidur (terdengar suara) nafas beliau. Kemudian seorang mu'adzin datang kepada beliau, maka beliau pun keluar untuk menunaikan shalat (Shubuh) tanpa berwudlu lagi. 'Amru berkata, Aku ceritakan riwayat ini kepada Bukair, lalu ia berkata, Kuraib juga telah menceritakan kepadaku seperti itu.</t>
+  </si>
+  <si>
+    <t>Rasulullah shalat malam. Maka aku datang untuk ikut shalat bersama beliau, aku berdiri di samping kirinya, lalu beliau memegang kepalaku dan menggeserku ke sebelah kanannya.</t>
+  </si>
+  <si>
+    <t>shalat bersama Nabi , kemudian dia kembali pulang dan mengimami shalat kaumnya.</t>
+  </si>
+  <si>
+    <t>shalat bersama Nabi , dia lalu kembali pulang dan mengimami kaumnya shalat 'Isya dengan membaca surah Al Baqarah. Kemudian ada seorang laki-laki keluar dan pergi, Mu'adz seakan menyebut orang tersebut dengan keburukan. Kejadian ini kemudian sampai kepada Nabi , maka beliau pun bersabda: Apa engkau akan membuat fitnah? Apa engkau akan membuat fitnah? Apa engkau akan membuat membuat fitnah? Beliau ucapkanhingga tiga kali. Atau kata beliau: Apakah kamu menjadi pembuat fitnah? Apakah kamu menjadi pembuat fitnah? Apakah kamu menjadi pembuat fitnah? Lalu beliau memerintahkannya (Mu'adz) untuk membaca dua surah saja dari pertengahan Al Mufashshal. Amru berkata, 'Namun aku tidak hafal kedua surat tersebut.</t>
+  </si>
+  <si>
+    <t>Sungguh di antara kalian ada orang yang dapat menyebabkan orang lain berlari memisahkan diri. Maka bila seseorang dari kalian memimpin shalat bersama orang banyak hendaklah dia melaksanakannya dengan ringan. Karena di antara mereka ada orang yang lemah, lanjut usia dan orang yang punya keperluan.</t>
+  </si>
+  <si>
+    <t>Jika seseorang dari kalian memimpin shalat orang banyak, hendaklah dia meringankannya. Karena di antara mereka ada orang yang lemah, orang yang sakit dan orang berusia lanjut. Namun bila dia shalat sendiri silahkan dia panjangkan sesukanya.</t>
+  </si>
+  <si>
+    <t>sungguh di antara kalian ada orang yang dapat menyebabkan orang lain berlari memisahkan diri. Maka barangsiapa memimpin shalat bersama orang banyak hendaklah dia melaksanakannya dengan ringan. Karena di belakang dia ada orang yang lemah, orang tua yang lanjut usia dan orang yang punya keperluan.</t>
+  </si>
+  <si>
+    <t>Wahai Mu'adz, apakah kamu membuat fitnah? Atau kata Beliau: Apakah kamu menjadi pembuat fitnah? -Beliau ulangi perkataannya tersebut hingga tiga kali- Mengapa kamu tidak membaca saja surat 'Sabbihisma rabbika', atau dengan 'Wasysyamsi wa dluhaahaa' atau 'Wallaili idzaa yaghsyaa'? Karena yang ikut shalat di belakangmu mungkin ada orang yang lanjut usia, orang yang lemah atau orang yang punya keperluan. Perawi berkata, Menurutku sampai inilah kalimat hadits ini. Abu 'Abdullah berkata; hadits ini dikuatkan oleh Sa'id bin Masruq dan Mis'ar dan Asy Syaibani. Amru dan Ubaidullah bin Miqsam dan Abu Az Zubair dari Jabir bahwa dalam shalat Isya Mu'adz membaca surat Al Baqarah. Dan hadits ini dikuatkan oleh Al A'masy dari Muharib.</t>
+  </si>
+  <si>
+    <t>shalat dengan pendek dan sempurna.</t>
+  </si>
+  <si>
+    <t>Aku pernah ingin memanjangkan shalat, namun aku mendengar tangisan bayi. Maka aku pendekkan shalatku karena khawatir akan memberatkan ibunya. Hadits ini dikuatkan oleh Bisyr bin Bakar dan Ibnu Al Mubarak dan Baqiyyah dari Al Auza'i.</t>
+  </si>
+  <si>
+    <t>Belum pernah aku shalat di belakang seorang Imam pun yang lebih ringan dan lebih sempurna shalatnya daripada Nabi . Jika mendengar tangisan bayi, maka beliau ringankan shalatnya karena khawatir ibunya akan terkena fitnah.</t>
+  </si>
+  <si>
+    <t>Saat aku shalat dan ingin memanjangkan bacaanku, tiba-tiba aku mendengar tangian bayi sehingga aku pun memendekkan shalatku, sebab aku tahu ibunya akan susah dengan adanya tangisan tersebut.</t>
+  </si>
+  <si>
+    <t>Saat aku shalat dan ingin memanjangkan bacaanku, tiba-tiba aku mendengar tangian bayi sehingga aku pun memendekkan shalatku, sebab aku tahu ibunya akan susah dengan adanya tangisan tersebut. Musa berkata, telah menceritakan kepada kami Aban telah menceritakan kepada kami Qatadah telah menceritakan kepada kami Anas bin Malik dari Nabi seperti ini juga.</t>
+  </si>
+  <si>
+    <t>shalat bersama Nabi , kemudian dia pulang menemui kaumnya dan shalat mengimami mereka.</t>
+  </si>
+  <si>
+    <t>suruhlah Abu Bakar untuk memimpin shalat. Aku berkata, Sesungguhnya Abu Bakar orang yang lemah lembut, jika ia menggantikan posisi tuan, maka dia akan menangis dan tidak akan bisa membaca Al-Qur'an. Beliau berkata lagi: Kalian suruhlah Abu Bakar untuk memimpin shalat. Aku lalu menyampaikan jawaban yang sama. Maka pada ketiga atau keempat kalinya beliau bersabda: Sungguh kalian ini seperti isteri-isterinya Yusuf. Suruhlah Abu Bakar untuk memimpin shalat. Akhirnya Abu Bakar pun shalat (sebagai Imam). Kemudian Nabi keluar dengan diapit oleh dua orang laki-laki dan seolah aku melihat beliau berjalan dengan menyeret kakinya di atas tanah. Ketika Abu Bakar melihat kedatangan beliau, dia pun berniat mundur. Tetapi beliau memberi isyarat kepadanya seolah berkata: Tetaplah shalat. Abu Bakar kemudian bergeser dan Nabi duduk disampingnya, lalu Abu Bakar memperdengarkan suara takbir kepada jama'ah. Hadits ini juga diperkuat oleh Muhadlir dari Al A'masy.</t>
+  </si>
+  <si>
+    <t>suruhlah Abu Bakar untuk memimpin shalat jama'ah bersama orang banyak. Aku lalu berkata, Wahai Rasulullah, sesungguhnya Abu Bakar seorang laki-laki yang lemah lembut, jika ia menggantikan tuan, maka suaranya tidak akan bisa didengar oleh orang-orang. Alangkah lebih baik bila tuan menyuruh 'Umar. Maka beliau pun bersabda: Suruhlah Abu Bakar untuk memimpin shalat bersama orang-orang. Kemudian aku sampaikan kepada Hafshah, Katakanlah kepada beliau 'Abu Bakar adalah seorang laki-laki yang lemah lembut, jika ia menggantikan posisi tuan, maka ia tidak akan dapat memperdengarkan suara bacaannya kepada orang-orang. Alangkah lebih baik bila tuan menyuruh 'Umar', sebab Abu Bakar mudah menangis (dalam shalat). Untuk itu, sebaiknya suruhlah 'Umar untuk memimpin shalat orang-orang. Maka bersabdalah Rasulullah : Sungguh kalian ini seperti isteri-isterinya Yusuf. Suruhlah Abu Bakar shalat bersama orang-orang. Kemudian ketika Abu Bakar sudah memulai shalat, tubuh beliau telah nampak enak, beliau pun keluar rumah dengan diapit oleh dua orang laki-laki. Dan seolah aku melihat beliau berjalan dengan menyeret kakinya di atas tanah, hingga masuk ke dalam masjid. Tatkala Abu Bakar mendengar kedatangan beliau maka ia pun berkeinginan untuk mundur. Namun Rasulullah memberi isyarat kepadanya. Lalu tibalah Rasulullah hingga beliau duduk di samping kiri Abu Bakar. Abu Bakar shalat dengan bediri sedangkan Rasulullah shalat dengan duduk, Abu Bakar shalat mengikuti shalatnya Rasulullah , dan orang-orang mengikuti shalatnya Abu Bakar.</t>
+  </si>
+  <si>
+    <t>Apakah benar yang dikatakan Dzul Yadain? Orang-orang menjawab: Benar. Maka Rasulullah pun bediri dan mengerjakan shalat dua rakaat yang kurang kemudian salam. Kemudian beliau takbir lalu sujud seperti sujudnya (yang biasa) atau lebih lama lagi.</t>
+  </si>
+  <si>
+    <t>Nabi mengerjakan shalat Zhuhur dua rakaat. Lalu dikatakan kepada beliau, Tuan shalat hanya dua rakaat! Maka beliau mengerjakan shalat dua rakaat yang kurang kemudian salam, setelah itu beliau sujud dua kali.</t>
+  </si>
+  <si>
+    <t>Suruhlah Abu Bakar untuk memimpin shalat orang-orang. 'Aisyah berkata, Aku lalu berkata, Jika Abu Bakar menggantikan posisi tuan, tidak akan mampu memperdengarkan suara bacaannya kepada orang banyak karena dia mudah menangis (dalam shalat). Sebaiknya suruhlah 'Umar untuk memimpin orang-orang shalat berjama'ah. Beliau bersabda: Suruhlah Abu Bakar memimpin shalat. 'Aisyah lalu berkata kepada Hafshah, Katakanlah kepada Beliau, 'Jika Abu Bakar menggantikan posisi tuan, maka dia tidak akan mampu memperdengarkan suara bacaannya kepada orang banyak karena dia sering menangis (dalam shalat). Untuk itu, suruhlah 'Umar untuk memimpin orang-orang shalat berjama'ah. Maka Hafshah melaksanakannya. Kemudian bersabdalah Rasulullah : Celakalah kalian! Sungguh kalian ini seperti isteri-isteri Yusuf. Suruhlah Abu Bakar memimpin orang-orang shalat. Hafshah lantas kepada 'Aisyah, Sungguh aku tidak mendapatkan kebaikan darimu.</t>
+  </si>
+  <si>
+    <t>Luruskanlah shaf kalian, atau Allah akan memalingkan wajah-wajah kalian.</t>
+  </si>
+  <si>
+    <t>Luruskanlah shaf, sesungguhnya aku dapat melihat kalian dari balik punggungku.</t>
+  </si>
+  <si>
+    <t>Luruskanlah shaf dan rapatkanlah, sesungguhnya aku dapat melihat kalian dari balik punggungku.</t>
+  </si>
+  <si>
+    <t>Orang-orang yang mati syahid itu adalah; orang yang mati kerena tenggelam, karena penyakit kusta, karena sakit perut, dan orang yang mati karena tertimpa reruntuhan. Beliau juga bersabda: Seandainya mereka mengetahui kebaikan yang terdapat dalam bersegera menuju shalat, tentulah mereka akan berlomba-limba. Dan seandainya mereka mengetahui kebaikan yang terdapat pada waktu 'atamah (shalat 'Isya) dan shubuh, tentulah mereka akan mendatanginya meskipun dengan merangkak, dan seandainya mereka mengetahui kebaikan yang ada pada shaf pertama tentulah mereka akan berlomba meraihnya.</t>
+  </si>
+  <si>
+    <t>Dijadikannya Imam adalah untuk diikuti, maka janganlah kalian menyelisihnya. Jika ia rukuk maka rukuklah kalian, jika ia mengucapkan 'SAMI'ALLAHU LIMAN HAMIDAH' maka ucapkanlah, 'RABBANAA LAKAL HAMDU'. Jika ia sujud maka sujudlah kalian, jika ia shalat dengan duduk maka shalatlah kalian semuanya dengan duduk, dan luruskanlah shaf, karena lurusnya shaf merupakan bagian dari sempurnanya shalat.</t>
+  </si>
+  <si>
+    <t>Luruskanlah shaf kalian, karena lurusnya shaf adalah bagian dari ditegakkannya shalat.</t>
+  </si>
+  <si>
+    <t>Tidak ada sesuatu yang aku ingkari dari kalian kecuali kalian tidak meluruskan shaf dalam shalat. 'Uqbah bin 'Ubaid berkata dari Busyair bin Yasar bahwa Anas bin Malik mendatangi kami di Madinah seperti keterangan riwayat ini.</t>
+  </si>
+  <si>
+    <t>Luruskanlah shaf-shaf kalian, sesungguhnya aku dapat melihat kalian dari balik punggungku. Dan setiap orang dari kami merapatkan bahunya kepada bahu temannya, dan kakinya pada kaki temannya.</t>
+  </si>
+  <si>
+    <t>aku pernah shalat bersama Nabi , dan aku berdiri di samping kirinya. Rasulullah kemudian memegang kepalaku dari arah belakangku, lalu menempatkan aku di sebelah kanannya. Beliau kemudian shalat dan tidur setelahnya. Setelah itu datang mu'adzin kepada beliau, maka beliau pun berangkat shalat dengan tidak berwudlu lagi.</t>
+  </si>
+  <si>
+    <t>Aku dan seorang anak yatim yang tinggal di rumah kami, pernah ikut shalat di belakang Nabi . Sementara ibuku, Ummu Sulaim, shalat di belakang kami.</t>
+  </si>
+  <si>
+    <t>Beliau memegangku dengan menggunakan tangannya dari arah belakangku.</t>
+  </si>
+  <si>
+    <t>Aku khawatir bila shalat malam itu ditetapkan sebagai kewajiban atas kalian.</t>
+  </si>
+  <si>
+    <t>Nabi memiliki tikar yang di waktu siang digelar, sedang pada waktu malam dijadikannya seperti dinding yang menutupi Beliau dari orang lain. Saat sedang shalat, orang-orang berkumpul ikut shalat di belakang Beliau.</t>
+  </si>
+  <si>
+    <t>Sungguh aku telah mengetahui sebagaimana aku lihat apa yang kalian lakukan. Wahai manusia, shalatlah kalian di rumah-rumah kalian, sesungguhnya shalat yang paling utama adalah shalatnya seseorang yang dilakukannya di rumahnya, kecuali shalat fardlu. 'Affan berkata, telah menceritakan kepada kami Wuhaib telah menceritakan kepada kami Musa aku mendengar Abu An Nadlr dari Busr dari Zaid dari Nabi .</t>
+  </si>
+  <si>
+    <t>Sesungguhnya imam dijadikan untuk diikuti. Jika ia shalat dengan berdiri maka shalatlah kalian dengan berdiri, jika ia rukuk maka rukuklah kalian, jika ia mengangkat kepala maka angkatlah kepala kalian, jika ia sujud maka sujudlah kalian, jika ia mengucapkan SAMI'ALLAHU LIMAN HAMIDAH (Semoga Allah mendengar orang yang memuji-Nya) ', maka ucapkanlah oleh kalian: 'RABBANAA WA LAKAL HAMDU (Ya Rabb kami, milik Engkaulah segala pujian) '.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya imam, atau dijadikannya imam adalah untuk diikuti. Jika ia takbir maka bertakbirlah kalian, jika ia rukuk maka rukuklahkalian, jika ia mengangkat kepala maka angkatlah kepala kalian, jika ia mengucapkan 'SAMI'ALLAHU LIMAN HAMIDAH (Semoga Allah mendengar orang yang memuji-Nya), maka ucapkanlah oleh kalian 'RABBANAA LAKAL HAMDU (Ya Rabb kami, milik Engkaulah segala pujian), dan jika ia sujud maka sujudlah kalian.</t>
+  </si>
+  <si>
+    <t>Dijadikannya Imam itu untuk diikuti, jika ia takbir maka bertakbirlah kalian, jika ia rukuk maka rukuklah kalian, jika ia mengucapkan 'SAMI'ALLAHU LIMAN HAMIDAH (Semoga Allah mendengar orang yang memuji-Nya) ', maka ucapkanlah oleh kalian 'RABBANAA WA LAKAL HAMDU (Ya Rabb kami, milik Engkaulah segala pujian) ', jika ia sujud maka suudlah kalian, dan jika ia shalat dengan duduk maka shalatlah kalian semua dengan duduk.</t>
+  </si>
+  <si>
+    <t>SAMI'ALLAHU LIMAN HAMIDAH RABBANAA WA LAKAL HAMDU (Semoga Allah mendengar orang yang memuji-Nya. Ya Rabb kami, milik Engkaulah segala pujian) '. Beliau tidak melakukan seperti itu ketika akan sujud.</t>
+  </si>
+  <si>
+    <t>SAMI'ALLAHU LIMAN HAMIDAH (Semoga Allah mendengar orang yang memuji-Nya) '. Namun beliau tidak melakukan seperti itu ketika akan sujud.</t>
+  </si>
+  <si>
+    <t>ketika shalat, dia bertakbir dan mengangkat kedua tangannya, apabila hendak rukuk mengangkat tangannya, dan ketika mengangkat kepalanya dari rukuk dia juga mengangkat kedua tangannya. Lalu dia menceritakan bahwa Rasulullah shallallahu â€˜alaihi wasallam berbuat seperti itu</t>
+  </si>
+  <si>
+    <t>SAMI'ALLAHU LIMAN HAMIDAH (Semoga Allah mendengar siapa yang memuji-Nya) ', beliau juga melakukan seperti itu sambil mengucapkan: 'RABBANAA WA LAKAL HAMDU (Ya Rabb kami, milik Engkaulah segala pujian) '. Namun Beliau tidak melakukan seperti itu ketika akan sujud dan ketika mengangkat kepalanya dari sujud.</t>
+  </si>
+  <si>
+    <t>SAMI'ALLAHU LIMAN HAMIDAH mengangkat kedua tangannya, dan ketika berdiri dari dua rakaat mengangkat kedua tangannya. Lalu Ibnu 'Umar mengatakan bahwa Nabi melakukan seperti itu. Dan diriwayatkan oleh Hammad bin Salamah dari Ayyub dari Nafi' dari Ibnu 'Umar dari Nabi . Dan diriwayatkan pula oleh Ibnu Thahman dari Ayyub dan Musa bin 'Uqbah secara ringkas.</t>
+  </si>
+  <si>
+    <t>agar meletakkan tangan kanannya di atas lengan kiri dalam shalat. Abu Hazim berkata, Aku tidak mengetahui dia Sahl kecuali bahwa dia menyandarkan hal tersebut kepada Nabi . Isma'il berkata, Hadits ini dimarfu'kan kepada Nabi dan bukan mengatakan dia mengambil dari Nabi .</t>
+  </si>
+  <si>
+    <t>Apakah kalian melihat arah kiblatku ini? Demi Allah, tidak ada yang tersembunyi bagiku rukuk dan juga khusyu' kalian, karena aku dapat melihat kalian dari belakang punggungku.</t>
+  </si>
+  <si>
+    <t>Luruskanlah dalam rukuk dan sujud. Demi Allah, aku dapat melihat kalian dari belakangku. Seakan beliau mengatakan: Aku dapat melihat kalian dari belakangku ketika kalian rukuk dan sujud.</t>
+  </si>
+  <si>
+    <t>mereka memulai shalat dengan membaca: 'ALHAMDU LILLAHI RABBIL 'AALAMIIN.</t>
+  </si>
+  <si>
+    <t>ALLAHUMMA BAA'ID BAINII WA BAINA KHATHAAYAAYA KAMAA BAA'ADTA BAINAL MASYRIQI WAL MAGHRIB. ALLAHUMMA NAQQINII MIN KHATHAAYAAYA KAMAA YUNAQQATS TSAUBUL ABYADLU MINAD DANAS. ALLAHUMMAGHSILNII MIN KHATHAAYAAYA BILMAA'I WATSTSALJI WAL BARAD (Ya Allah, jauhkanlah antara aku dan kesalahanku sebagaimana Engkau menjauhkan antara timur dan barat. Ya Allah, sucikanlah kesalahanku sebagaimana pakaian yang putih disucikan dari kotoran. Ya Allah, cucilah kesalahanku dengan air, salju dan es yang dingin).</t>
+  </si>
+  <si>
+    <t>Telah didekatkan surga kepadaku hingga seandainya aku dibenarkan (berani) untuk mengambilnya tentu aku akan bawakan kepada kalian kurma dari kurma-kurma didalamnya. Dan didekatkan juga neraka kepadaku hingga aku berkata, 'Wahai Rabb, aku bersama mereka. Tiba-tiba aku melihat seorang wanita'. Aku (Nafi') menduga beliau mengatakan, Dicakar-cakar oleh seekor kucing. Aku bertanya, 'Apa yang menyebabkan demikian? Mereka menjawab, 'Wanita tersebut menahan kucing tersebut hingga mati karena kelaparan karena dia tidak memberinya makan atau membiarkan kucing tersebut pergi mencari makan.' Nafi' berkata, Aku menduga beliau mengatakan, Mencari makan dari serangga di permukaan tanah'.</t>
+  </si>
+  <si>
+    <t>membaca surah dalam shalat Zhuhur dan 'Ashar? Dia menjawab, Ya. Kami tanyakan lagi, Bagaimana kalian bisa mengetahuinya? Dia menjawab, Dari gerakan jenggot Beliau.</t>
+  </si>
+  <si>
+    <t>mengangkat kepalanya dari rukuk, para sahabat tetap berdiri sampai mereka melihat beliau telah sujud.</t>
+  </si>
+  <si>
+    <t>Aku diperlihatkan surga, lalu aku diberikan setandan anggur. Jika aku mengambilnya niscaya kalian akan memakannya yang akan mengakibatkan terabaikannya urusan dunia.</t>
+  </si>
+  <si>
+    <t>Sejak aku memimpin shalat kalian hingga sekarang, aku diperlihatkan surga dan neraka secara bersamaan di hadapan dinding ini. Dan aku belum pernah melihat kebaikan dan keburukan seperti hari ini. Beliau mengucapkannya tiga kali.</t>
+  </si>
+  <si>
+    <t>Kenapa orang-orang mengarahkan pandangan mereka ke langit ketika mereka sedang shalat? Suara beliau semakin tinggi hingga beliau bersabda: Hendaklah mereka menghentikannya atau Allah benar-benar akan menyambar penglihatan mereka.</t>
+  </si>
+  <si>
+    <t>Itu adalah sambaran yang sangat cepat yang dilakukan oleh setan terhadap shalatnya hamba.</t>
+  </si>
+  <si>
+    <t>Gambar-gambar pada pakaian ini menggangguku. Kembalikanlah kepada Abu Jahm, agar dia mengganti dengan pakaian yang terbuat dari bulu kasar yang tidak bergambar.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya seseorang dari kalian ketika berdiri shalat, dia sedang berhadapan dengan Allah. Maka itu janganlah dia meludah ke arah depannya ketika dia sedang shalat. Hadits ini dikuatkan oleh Musa bin 'Uqbah dan Ibnu Abu Rawwad dari Nafi'.</t>
+  </si>
+  <si>
+    <t>Rasulullah yang tiba-tiba membuka tabir kamar Aisyah sambil memandang ke arah mereka. Saat itu mereka sudah berbaris dalam shaf, beliau tersenyum lalu tertawa. Maka Abu Bakar berniat mundur ke belakang untuk mempersilakan beliau masuk dalam shaf, karena menduga beliau akan keluar. Dan Kaum Muslimin hampir saja terfitnah (berpaling dan memutus) dalam shalat mereka. Namun ternyata Beliau memberi isyarat kepada mereka: Teruskanlah shalat kalian. Beliau kemudian menutup tabir, dan setelah itu beliau meninggal pada hari itu juga.</t>
+  </si>
+  <si>
+    <t>aku memimpin shalat mereka sebagaimana shalatnya Rasulullah . Tidaklah aku mengurangi sedikitpun dalam melaksanakan shalat 'Isya bersama mereka. Aku memanjangkan bacaan pada dua rakaat pertama dan aku pendekkan pada dua rakaat yang akhir. 'Umar berkata, wahai Abu Ishaq, kami juga menganggap begitu terhadapmu. Kemudian 'Umar mengutus seorang atau beberapa orang bersama Sa'd ke Kufah. Orang itu kemudian bertanya kepada para penduduk tentang Sa'd, tidak ada satupun masjid yang dikunjungi tanpa menanyakan tentang Sa'd, mereka semua mengagumi Sa'd dan mengenalnya dengan baik. Hingga akhirnya sampai ke sebuah masjid milik bani 'Abs, lalu salah seorang dari mereka yang bernama Usamah bin Qatadah dengan nama panggilan Abu Sa'dah berkata, Jika kalian minta pendapat kami, maka kami katakan bahwa Sa'd adalah seorang yang tidak memudahkan pasukan, bila membagi tidak sama dan tidak adil dalam mengambil keputusan. Maka Sa'd berkata, Demi Allah, sungguh aku akan berdo'a dengan tiga do'a; Ya Allah jika dia, hambamu ini, berdusta, dan mengatakan ini dengan maksud riya' atau sum'ah, maka panjangkanlah umurnya, panjangkanlah kefakirannya dan campakkanlah dia dengan berbagai fitnah. Setelah beberapa masa kemudian, orang tersebut bila ditanya mengapa keadaannya jadi sengsara begitu, maka ia menjawab, Aku orang tua renta yang terkena fitnah akibat do'anya Sa'd. 'Abdul Malik berkata, Aku sendiri melihat kedua alisnya telah panjang ke bawah menutupi kedua matanya, dan sungguh dia tersia-siakan saat berada di jalan-jalan.</t>
+  </si>
+  <si>
+    <t>Tidak ada shalat bagi yang tidak membaca Faatihatul Kitab (Al Fatihah).</t>
+  </si>
+  <si>
+    <t>Kembalilah dan ulangi shalatmu karena kamu belum shalat! Maka orang itu mengulangi shalatnya seperti yang dilakukannya pertama tadi kemudian datang menghadap kepada Nabi dan memberi salam. Namun Beliau kembali berkata: Kembalilah dan ulangi shalatmu karena kamu belum shalat! Beliau memerintahkan orang ini sampai tiga kali hingga akhirnya laki-laki tersebut berkata, Demi Dzat yang mengutus Tuan dengan hak, aku tidak bisa melakukan yang lebih baik dari itu. Maka ajarkkanlah aku! Beliau lantas berkata: Jika kamu berdiri untuk shalat maka mulailah dengan takbir, lalu bacalah apa yang mudah buatmu dari Al Qur'an kemudian rukuklah sampai benar-benar rukuk dengan thuma'ninah (tenang), lalu bangkitlah (dari rukuk) hingga kamu berdiri tegak, lalu sujudlah sampai hingga benar-benar thuma'ninah, lalu angkat (kepalamu) untuk duduk hingga benar-benar duduk dengan thuma'ninah. Maka lakukanlah dengan cara seperti itu dalam seluruh shalat (rakaat) mu.</t>
+  </si>
+  <si>
+    <t>Aku pernah mengimami mereka di antara dua shalat pada malam hari (Maghrib atau Isya) sebagaimana shalatnya Rasulullah , dan aku mengurangi sedikitpun. Aku memanjangkan bacaan pada dua rakaat pertama dan aku pendekkan pada dua rakaat yang akhir. 'Umar? lalu berkata, Begitulah anggapan kami terhadapmu.</t>
+  </si>
+  <si>
+    <t>pada dua rakaat pertama dalam shalat Zhuhur membaca Al Fatihah dan dua surah, beliau memanjangkan rakaat pertama dan memendekkan pada rakaat kedua, dan terkadang beliau memperdengarkan bacaannya. Dalam shalat Ashar beliau membaca Al Fatihah dan dua surah, dan memanjangkan pada rakaat yang pertama. Demikian pula dalam shalat Shubuh, beliau memanjangkan bacaan pada rakaat pertama dan memendekkakan pada rakaat kedua.</t>
+  </si>
+  <si>
+    <t>membaca surah dalam shalat Zhuhur dan 'Ashar? Dia menjawab, Ya. Kami tanyakan lagi, Bagaimana kalian bisa mengetahuinya? Dia menjawab, Dari gerakan jenggot beliau.</t>
+  </si>
+  <si>
+    <t>membaca surah dalam shalat Zhuhur dan 'Ashar? ' Dia menjawab, Ya. Kami tanyakan lagi, Bagaimana kalian bisa mengetahui bacaan Beliau? Dia menjawab, Dari gerakan jenggot Beliau.</t>
+  </si>
+  <si>
+    <t>pada dua rakaat pertama dalam shalat Zhuhur dan 'Ashar membaca Al Fatihah dan surah masing-masing, dan terkadang Beliau memperdengarkannya kepada kami ayat yang dibacanya.</t>
+  </si>
+  <si>
+    <t>Sungguh itu adalah surah terakhir yang aku dengar dibaca oleh Rasulullah ketika beliau membacanya pada shalat Maghrib.</t>
+  </si>
+  <si>
+    <t>Sungguh aku pernah mendengar Nabi membaca dengan surah-surah yang panjang.</t>
+  </si>
+  <si>
+    <t>shalat Maghrib membaca Ath-Thur.</t>
+  </si>
+  <si>
+    <t>Aku pernah sujud bersama di belakang Abu Al Qashim (Nabi ) dalam ayat tersebut, dan aku akan selalu sujud di dalamnya hingga aku berjumpa dengannya.</t>
+  </si>
+  <si>
+    <t>pada shalat 'Isya membaca pada salah satu dari dua rakaatnya dengan 'WAT TIINI WAZ ZAITUUN'.</t>
+  </si>
+  <si>
+    <t>Aku pernah sujud di belakang Abu Al Qashim (Nabi ) setelah membaca surah tersebut, dan aku akan selalu sujud di dalamnya hingga aku berjumpa dengannya.</t>
+  </si>
+  <si>
+    <t>membaca 'WAT TIINI WAZ ZAITUUN' pada shalat 'Isya. Dan belum pernah aku mendengar seseorang yang suaranya atau bacaan lebih baik dari beliau.</t>
+  </si>
+  <si>
+    <t>Dalam shalat aku selalu memanjangkan bacaan pada dua rakaat pertama dan aku pendekkan pada dua rakaat yang akhir. Dan tidak ada yang aku ubah dari apa yang aku dapat ambil dari Rasulullah . 'Umar berkata, Kamu benar. Aku juga menganggap kamu seperti itu.</t>
+  </si>
+  <si>
+    <t>shalat Zhuhur ketika matahari sudah condong, shalat 'Ashar saat seseorang kembali ke ujung Kota Madinah sementara matahari masih panas, dan aku lupa apa yang dijelaskannya tentang shalat Maghrib. Dan tidak jarang Beliau mengakhirkan pelaksanaan shalat 'Isya hingga sepertiga malam yang akhir, beliau tidak menyukai tidur sebelum shalat Isya dan mengobrol sesudahnya. Dan Beliau melaksanakan shalat Shubuh pada waktu dimana bila sudah selesai, seseorang akan dapat mengenali siapa yang shalat di sampingnya. Beliau membaca surah dalam shalat Shubuh pada kedua rakaatnya, atau salah satunya kira-kira enam puluh hingga seratus ayat.</t>
+  </si>
+  <si>
+    <t>Pada setiap rakaat ada bacaannya. Apa yang Rasulullah perdengarkan (keraskan) bacaannya kepada kami maka kamipun akan perdengarkan kepada kalian, dan apa yang Beliau sembunyikan (tidak mengeraskan bacaan) kepada kami, maka kamipun tidak mengeraskannya kepada kalian. Jika kalian tidak tambah selain Al Fatihah, maka itu sudah cukup. Namun bila kalian tambah setelahnya itu lebih baik.</t>
+  </si>
+  <si>
+    <t>Nabi bersama sekelompok sahabat berangkat menuju pasar 'Ukazh. Saat itu telah ada penghalang antara setan dan berita-berita langit dimana telah dikirim kabut kepada setan sebagai penghalang. Maka setan-setan kembali menemui kaumnya, lalu kaumnya berkata, Apa yang terjadi dengan kalian? Setan-setan tersebut menjawab, Telah ada penghalang antara kami dan berita-berita langit dengan dikirimnya kabut. Kaumnya berkata, Tidak ada penghalang antara kalian dan berita-berita langit kecuali telah ada sesuatu yang terjadi. Pergilah kalian ke seluruh penjuru timur bumi dan baratnya, lalu perhatikanlah apa penghalang yang ada antara kalian dan berita-berita langit! Maka berangkatlah setan-setan yang ada di Tihamah untuk mendatangi Nabi dan para sahabat Beliau yang sedang berada di pasar 'Ukazh. Saat itu beliau dan para sahabat sedang melaksanakan shalat fajar. Ketika setan-setan itu mendengar Al Qur'an, mereka menyimaknya dengan baik hingga mereka pun berkata, Demi Allah, inilah yang menjadi penghalang antara kalian dan berita-berita langit. Dan perkataan ini pula yang disampaikan ketika mereka kembali kepada kaum mereka. Lantas mereka berkata kepada kaumnya, Wahai kaum kami, sesungguhnya kami telah mendengarkan Al Quran yang menakjubkan. (Yang) memberi petunjuk kapada jalan yang benar, lalu kami beriman kepadanya. Dan kami sekali-kali tidak akan mempersekutukan seseorangpun dengan Tuhan kami) ' (Qs. Al Jin: 1-2). Maka kemudian Allah menurunkan wahyu kepada Nabi-Nya : '(Katakanlah (hai Muhammad): Telah diwahyukan kepadamu bahwasanya: telah mendengarkan sekumpulan jin (akan Al Qur'an)) ' (Qs. Al Jin: 1). Yakni diwahyukan kepada beliau perkataan jin.</t>
+  </si>
+  <si>
+    <t>Nabi membaca (dengan suara dikeraskan) sesuai apa yang diperintahkan dan juga diam (tidak mengeraskan) sesuai apa yang diperintahkan '(Dan tidaklah Rabbmu lupa) ' (Qs. Maryam: 64). '(Sesungguhnya telah ada pada diri Rasulullah itu suri teladan yang baik bagimu) ' (Qs. Al Ahzab: 21).</t>
+  </si>
+  <si>
+    <t>Sungguh aku mengetahui surah-surah sepadan (panjangnya) yang Nabi gabungkan saat membaca. Ibnu Mas'ud kemudian menyebutkan dua puluh surah dari Al Mufashshal (yang dibaca oleh Nabi ), yakni dua surah untuk setiap rakaat.</t>
+  </si>
+  <si>
+    <t>dalam shalat Zhuhur membaca Al Fathihah dan dua surah pada dua rakaat pertama. Dan pada dua rakaat akhir membaca Al Fatihah, yang terkadang ayat yang beliau baca terdengar. Beliau memanjangkannya pada rakaat pertama, dan pada rakaat keduanya tidak sepanjang pada rakaat pertama. Beliau lakukan seperti ini juga dalam shalat 'Ashar, begitu pula pada shalat Shubuh.</t>
+  </si>
+  <si>
+    <t>membaca surah dalam shalat Zhuhur dan 'Ashar? Dia menjawab, Ya. Kami tanyakan lagi, Bagaimana kamu bisa mengetahuinya? Dia menjawab, Dari gerakan jenggot Beliau.</t>
+  </si>
+  <si>
+    <t>membaca Al Fathihah dan dua surah pada dua rakaat pertama dalam shalat Zhuhur dan 'Ashar. Terkadang beliau memperdengarkan (mengeraskan bacaan) ayat yang dibacanya, dan beliau biasa memanjangkannya pada rakaat pertama.</t>
+  </si>
+  <si>
+    <t>dalam shalat Zhuhur memanjangkan bacaan pada rakaat pertama dan memendekkannya pada rakaat kedua. Beliau lakukan pula seperti itu pada shalat Shubuh.</t>
+  </si>
+  <si>
+    <t>Jika Imam membaca 'Amiin', maka bacalah 'Amiin', karena barangsiapa bacaan 'Amiin' nya bersamaan dengan bacaan Malaikat, maka dosanya yang telah lalu akan diampuni. Ibnu Syihab berkata, Rasulullah juga membaca amin.</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian 'Amiin' dan para Malaikat yang ada di langit juga membaca 'Amiin', lalu bacaan salah satunya bersamaan dengan bacaan yang lain, maka dosanya yang telah lalu akan diampuni.</t>
+  </si>
+  <si>
+    <t>Jika Imam membaca GHAIRIL MAGHDLUUBI 'ALAIHIM WALADL DLAALLIIN, maka ucapkanlah 'AMIIN'. Karena siapa yang ucapan 'AMIIN' nya bersamaan dengan 'AMIIN' nya Malaikat, maka dosanya yang telah lalu akan diampuni. Hadits ini dikuatkan oleh Muhammad bin 'Amru dari Abu Salamah dari Abu Hurairah dari Nabi , dan Nu'aim Al Mujmir dari Abu Hurairah.</t>
+  </si>
+  <si>
+    <t>Semoga Allah menambah semangat kepadamu, namun jangan diulang kembali.</t>
+  </si>
+  <si>
+    <t>Orang ini mengingatkan kami tentang shalat yang kami lakukan bersama Rasulullah . Dia menyebutkan bahwa Beliau bertakbir setiap mengangkat tangan dan setiap menurunkan tangan.</t>
+  </si>
+  <si>
+    <t>shalat mengimami para sahabat, Abu Hurairah lalu takbir setiap menurunkan tangan dan setiap mengangkat tangan. Selesai shalat ia berkata, Sungguh, aku adalah orang yang shalatnya paling mirip dengan Rasulullah daripada kalian semua.</t>
+  </si>
+  <si>
+    <t>Sunguh dia telah mengingatkan aku tentang shalatnya Muhammad . Atau dia berkata, Sungguh dia telah shalat bersama kami dengan shalatnya Muhammad .</t>
+  </si>
+  <si>
+    <t>bukankah memang begitu caranya Nabi melaksanakan shalatnya!</t>
+  </si>
+  <si>
+    <t>Celaka kamu. Sungguh dia telah mempraktekkan sunnah yang dicontohlan oleh Abu Al Qasim . Musa berkata, telah menceritakan kepada kami Aban telah menceritakan kepada kami Qatadah telah menceritakan kepada kami 'Ikrimah.</t>
+  </si>
+  <si>
+    <t>SAMI'ALLAHU LIMAN HAMIDAH (semoga Allah mendengar orang yang memuji-Nya) ' ketika mengangkat punggungnya dari rukuk, dalam saat posisi berdiri baliau membaca: RABBANAA LAKAL HAMDU (Ya Rabb kami, milik-Mu lah segala pujian) '. 'Abdullah bin Shalih dari Al Laits menyebutkan, 'WA LAKAL HAMDU', kemudian bertakbir ketika turun (sujud), kemudian bertakbir ketika mengangkat kepala (dari sujud), lalu bertakbir ketika sujud dan ketika mengangkat kepalanya (dari sujud), kemudian Beliau melakukan seperti itu dalam shalat seluruhnya hingga selesai. Dan beliau juga bertakbir ketika bangkit dari dua rakaat setelah duduk (tasyahud awal).</t>
+  </si>
+  <si>
+    <t>Kami pernah mengerjakan seperti itu lalu kami dilarang (oleh Nabi ), dan kami diperintahkan untuk meletakkan tangan kami pada lutut-lutut kami.</t>
+  </si>
+  <si>
+    <t>Kamu belum shalat. Seandainya kamu meninggal dunia, maka kamu mati dalam keadaan di luar fithrah (agama), padahal Allah telah menciptakan Muhammad berada diatasnya.</t>
+  </si>
+  <si>
+    <t>Rukuk Nabi , sujudnya, (duduk) antara dua sujud, dan ketika mengangkat kepala dari rukuk, tidaklah berbeda antara berdiri (i'tidal) dan duduknya melainkan semuanya sama (dalam thu'maninah).</t>
+  </si>
+  <si>
+    <t>Kembali dan ulangilah shalatmu, karena kamu belum shalat! Orang itu kemudian mengulangi shalat dan kembali datang menghadap kepada Nabi sambil memberi salam. Namun beliau kembali bersabda: Kembali dan ulangilah shalatmu karena kamu belum shalat! Beliau memerintahkan orang ini sampai tiga kali dan akhirnya, sehingga ia berkata, Demi Dzat yang mengutus tuan dengan kebenaran, aku tidak bisa melakukan yang lebih baik dari itu. Maka ajarilah aku. Beliau pun bersabda: Jika kamu mengerjakan shalat maka bertakbirlah, lalu bacalah ayat yang mudah dari Al Qur'an. Kemudian rukuklah hingga benar-benar rukuk dengan tenang, lalu bangkitlah (dari rukuk) hingga kamu berdiri tegak, setelah itu sujudlah sampai benar-benar sujud, lalu angkat (kepalamu) untuk duduk hingga benar-benar duduk, Setelah itu sujudlah sampai benar-benar sujud, Kemudian lakukanlah seperti cara tersebut di seluruh shalat (rakaat) mu.</t>
+  </si>
+  <si>
+    <t>SUBHAANAKALLAHUMMA RABBANAA WA BIHAMDIKA ALLAHUMMAGHFIRLII (Maha suci Engkau wahai Tuhan kami, segala pujian bagi-Mu. Ya Allah, ampunilah aku) '.</t>
+  </si>
+  <si>
+    <t>Jika Nabi membaca: 'SAMI'ALLAHU LIMAN HAMIDAH (Semoga Allah mendengar pujian orang yang memuji-Nya) ', maka beliau melanjutkan dengan: 'RABBANAA WA LAKAL HAMDU (Wahai Rabb kami, bagi-Mu lah segala pujian) '. Jika Nabi rukuk dan mengangkat kepalanya (dari sujud), beliau bertakbir, dan jika bangkit dari dua sujud (dua rakaat), beliau mengucapkan 'Allahu Akbar'.</t>
+  </si>
+  <si>
+    <t>Jika Imam mengucapkan 'SAMI'ALLAHU LIMAN HAMIDAH (semoga Allah mendengar pujian orang yang memuji-Nya) ', maka ucapkanlah: 'ALLAHUMMA RABBANAA LAKAL HAMDU (Wahai Rabb kami, bagi-Mu lah segala pujian) '. Karena barangsiapa yang ucapannya bersamaan dengan ucapan Malaikat, maka dosanya yang telah lalu akan diampuni.</t>
+  </si>
+  <si>
+    <t>SAMI'ALLAHU LIMAN HAMIDAH (semoga Allah mendengar pujian orang yang memuji-Nya) '. Maka dia mendo'akan Kaum Mu'minin dan melaknat orang-orang kafir.</t>
+  </si>
+  <si>
+    <t>Doa qunut itu ada dalam shalat Maghrib dan Shubuh.</t>
+  </si>
+  <si>
+    <t>SAMI'ALLAHU LIMAN HAMIDAH (Semoga Allah mendengar punjian orang yang memuji-Nya) '. Kemudian ada seorang laki-laki yang berada di belakang beliau membaca; 'RABBANAA WA LAKAL HAMDU HAMDAN KATSIIRAN THAYYIBAN MUBAARAKAN FIIHI (Wahai Tuhan kami, bagi-Mu segala pujian, aku memuji-Mu dengan pujian yang banyak, yang baik dan penuh berkah) '. Selesai shalat beliau bertanya: Siapa orang yang membaca kalimat tadi? Orang itu menjawab, Saya. Beliau bersabda: Aku melihat lebih dari tiga puluh Malaikat berebut siapa di antara mereka yang lebih dahulu untuk menuliskan kalimat tersebut.</t>
+  </si>
+  <si>
+    <t>shalat dan mengangkat kepalanya dari rukuk, maka beliau berdiri (lama) hingga kami mengatakan 'beliau telah lupa'.</t>
+  </si>
+  <si>
+    <t>Rukuknya Nabi , sujudnya dan ketika mengangkat kepala dari rukuk, serta duduk antara dua sujud, semuanya hampir sama (lama dan thunam'ninah).</t>
+  </si>
+  <si>
+    <t>memperlihatkan kepada kami tata cara shalat Rasulullah . Ia lakukan itu bukan pas waktu shalat. Dia lalu berdiri hingga dengan thuma'ninah, lalu rukuk dengan thuma'ninah, lalu mengangkat kepalanya dan berdiam diri sejenak, kemudian dia berkata, Guru (syaikh) kami ini Abu Buraid pernah shalat memimpin kami. Jika Abu Buraid mengangkat kepalanya dari sujud yang akhir, maka dia duduk dengan lurus sejenak lalu bangkit berdiri.</t>
+  </si>
+  <si>
+    <t>SAMI'ALLAHU LIMAN HAMIDAH (Semoga Allah mendengar pujian orang yang memuji-Nya) ', kemudian sebelum sujud dia membaca: 'RABBANAA WA LAKAL HAMDU (Wahai Rabb kami, bagi-Mu segala puji) ', lalu mengucapkan: 'Allahu Akbar' ketika akan turun sujud. Kemudian bertakbir ketika mengangkat kepalanya dari sujud, kemudian bertakbir lagi ketika akan sujud, kemudian bertakbir ketika mengangkat kepalanya dari sujud, dan ketika bangkit berdiri dari duduk setelah dua rakaat (tasyahud awal) ia juga bertakbir kembali. Dan dalam setiap rakaat shalat dia mengerjakan seperti itu, lalu setelah selesai ia berkata, Demi Dzat yang jiwaku berada di tangan-Nya, sungguh aku telah mencontohkan kepada kalian shalat seperti shalatnya Rasulullah . Sungguh inilah cara shalatnya hingga beliau meninggalkan dunia ini.</t>
+  </si>
+  <si>
+    <t>SAMI'ALLAHU LIMAN HAMIDAH, RABBANAA WA LAKAL HAMDU (Semoga Allah mendengar pujian orang yang memuji-Nya. Wahai Rabb kami, dan milik-Mu lah segala pujian) ', kemudian beliau berdo'a: Ya Allah, selamatkanlah Al Walid bin Al Walid, Salamah bin Hisyam, 'Ayyasy bin Abu Rabi'ah orang-orang lemah dari kaum Mukminin. Ya Allah, timpakanlah kerasnya siksa-Mu kepada Mudlar dan jadikanlah siksa-Mu untuk mereka berupa paceklik seperti paceklik yang terjadi pada zaman Nabi Yusuf. Pada waktu itu, orang-orang penduduk Masyriq menyelisih atau menentang Mudlar.</t>
+  </si>
+  <si>
+    <t>Rasulullah terjatuh dari kudanya, dimungkinkan Sufyan juga menyebutkan, Beliau jatuh dari kudanya hingga bagian lambung kananannya terluka. Lalu kami pun menjenguk beliau, tidak lama kemudian masuk waktu shalat, beliau lalu shalat mengimami kami sambil duduk, kemudian kami shalat di belakangnya dengan duduk. Sekali waktu waktu Sufyan menyebutkan, Kami shalat dengan duduk. Setalah selesai shalat beliau bersabda: Hanyasanya dijadikannya imam adalah agar diikuti, jika dia takbir maka takbirlah, jika dia rukuk maka rukuklah, jika ia mengangkat kepala maka angkatlah kepala kalian, dan jika ia mengucapkan 'SAMI'ALLAHU LIMAN HAMIDAH (Semoga Allah mendengar pujian orang yang memuji-Nya) ', maka ucapkanlah oleh kalian 'RABBANAA WA LAKAL HAMDU (Ya Rabb kami, milik Engkaulah segala pujian) '. Dan jika dia sujud maka sujudlah kalian. Sufyan berkata, Apakah begitu yang dibawa oleh Ma'mar? Aku jawab, Ya. Lalu Sufyan berkata, Sungguh dia telah menjaga (memelihara) masalah ini. Az Zuhri berkata, Segala puji bagi Engkau ya Allah. Sungguh aku masih ingat bahwa beliau terhempas pada bagian kanan lambungnya. Setelah kami berpisah dari Az Zuhri, Ibnu Juraij berkata, Saat itu aku ada di sisi beliau, lalu terjatuhlah beliau pada lambung bagian kanannya.</t>
+  </si>
+  <si>
+    <t>Aku adalah Rabb kalian.' Mereka berkata, 'Inilah tempat kedudukan kami hingga datang Rabb kami. Apabila Rabb kami telah datang pasti kami mengenalnya.' Maka Allah mendatangi mereka seraya berfirman: 'Akulah Rabb kalian.' Allah kemudian memanggil mereka, lalu dibentangkanlah Ash Shirath di atas neraka Jahannam. Dan akulah orang yang pertama berhasil melewatinya di antara para Rasul bersama ummatnya. Pada hari itu tidak ada seorangpun yang dapat berbicara kecuali para Rasul, dan ucapan para Rasul adalah: 'Ya Allah selamatkanlah, selamatkanlah.' Dan di dalam Jahannam ada besi yang ujungnya bengkok seperti duri Sa'dan (tumbuhan yang berduri tajam). Pernahkah kalian melihat duri Sa'dan? Mereka menjawab: Ya, pernah. Beliau melanjutkan: Sungguh dia seperti duri Sa'dan, hanya saja tidak ada yang mengetahui ukuran besarnya duri tersebut kecuali Allah. Duri tersebut akan menusuk-nusuk manusia berdasarkan amal amal mereka. Di antara mereka ada yang dikoyak-koyak hingga binasa disebabkan amalnya, ada pula yang dipotong-potong kemudian selamat melewatinya. Hingga apabila Allah berkehendak memberikan rahmat-Nya bagi siapa yang dikehendaki-Nya dari penghuni neraka, maka Allah memerintahkan Malaikat untuk mengeluarkan siapa saja yang pernah menyembah Allah. Maka para Malikat mengeluarkan mereka, yang mereka dikenal berdasarkan tanda bekas-bekas sujud (atsarus sujud). Dan Allah telah mengharamkan kepada neraka untuk memakan (membakar) atsarus sujud, lalu keluarlah mereka dari neraka. Setiap anak keturunan Adam akan dibakar oleh neraka kecuali mereka yang memiliki atsarus sujud. Maka mereka keluar dalam keadaan sudah hangus terbakar (gosong), lalu mereka disiram dengan air kehidupan kemudian jadilah mereka tumbuh seperti tumbuhnya benih di tepian aliran sungai. Setelah itu selesailah Allah memutuskan perkara di antara hamba-hambaNya. Dan yang tinggal hanyalah seorang yang berada antara surga dan neraka, dan dia adalah orang terakhir yang memasuki surga di antara penghuni neraka yang berhak memasukinya, dia sedang menghadapkan wajahnya ke neraka seraya berkata, 'Ya Rabb, palingkanlah wajahku dari neraka! Sungguh anginnya neraka telah meracuni aku dan baranya telah memanggang aku.' Lalu Allah berfirman: 'Apakah seandainya kamu diberi kesempatan kali yang lain kamu tidak akan meminta yang lain lagi? ' Orang itu menjawab: 'Tidak, demi kemuliaan-Mu, ya Allah! ' Maka Allah memberikan kepadanya janji dan ikatan perjanjian sesuai apa yang dikehendati orang tersebut. Kemudian Allah memalingkan wajah orang tersebut dari neraka. Maka ketika wajahnya dihadapkan kepada surga, dia meliahat taman-taman dan keindahan surga lalu terdiam dengan tertegun sesuai apa yang Allah kehendaki. Kemudian orang itu berkata, 'Ya Rabb, dekatkan aku ke pintu surga! ' Allah Azza Wa Jalla berfirman: 'Bukankah kamu telah berjanji dan mengikat perjanjian untuk tidak meminta sesuatu setelah permintaan kamu sebelumnya? Orang itu menjawab, 'Ya Rabb, aku tidak mau menjadi ciptaanM-u yang paling celaka.' Allah kembali bertanya: 'Apakah kamu bila telah diberikan permintaanmu sekarang ini, nantinya kamu tidak akan meminta yang lain lagi? Orang itu menjawab, 'Tidak, demi kemuliaan-Mu. Aku tidak akan meminta yang lain setelah ini.' Maka Rabbnya memberikan kepadanya janji dan ikatan sesuai apa yang dikehendati orang tersebut. Lalu orang tersebut didekatkan ke pintu surga. Maka manakala orang itu sudah sampai di pintu surga, dia melihat keindahan surga dan taman-taman yang hijau serta kegembiraan yang terdapat didalamnya, orang itu terdiam dengan tertegun sesuai apa yang Allah kehendaki. Kemudian orang itu berkata, 'Ya Rabb, masukkanlah aku ke surga! ' Allah berfirman: 'Celakalah kamu dari sikap kamu yang tidak menepati janji. Bukankah kamu telah berjanji dan mengikat perjanjian untuk tidak meminta sesuatu setelah kamu diberikan apa yang kamu pinta? Orang itu berkata, 'Ya Rabb, janganlah Engkau menjadikan aku ciptaan-Mu yang paling celaka.' Maka Allah Azza Wa Jalla tertawa mendengarnya. Lalu Allah mengidzinkan orang itu memasuki surga. Setelahitu Allah Azza Wa Jalla berfirman: 'Bayangkanlah! ' Lalu orang itu membayangkan hingga setelah selesai apa yang ia bayangkan, Allah berfirman kepadanya: 'Dari sini.' Dan demikianlah Rabbnya mengingatkan orang tersebut hingga manakala orang tersebut selesai membayangkan, Allah berfirman lagi: Ini semua untuk kamu dan yang serupa dengannya. Abu Sa'id Al Khudri berkata kepada Abu Hurairah, Sesungguhnya Rasulullah bersabda: Allah berfirman: 'Ini semua untukmu dan sepuluh macam yang serupa dengannya.' Abu Hurairah berkata, Aku tidak mengingat dari Rasulullah kecuali sabdanya: Ini semua untuk kamu dan yang serupa dengannya. Abu Sa'id Al Khudri berkata, Sungguh aku mendengar Beliau menyebutkan: 'Ini semua untukmu dan sepuluh macam yang serupa dengannya'.</t>
+  </si>
+  <si>
+    <t>hingga tampak putih ketiaknya. Al Laits berkata; Ja'far bin Rabi'ah menceritakan kepadaku seperti itu.</t>
+  </si>
+  <si>
+    <t>Kamu belumlah shalat. Abu Wail berkata, Menurutku ia mengatakan, Seandainya engkau mati, maka engkau mati bukan di atas sunnah Muhammad .</t>
+  </si>
+  <si>
+    <t>Nabi diperintahkan untuk melaksanakan sujud dengan tujuh anggota sujud; muka, kedua telapak tangan, kedua lutut dan kedua kaki tidak boleh terhalang oleh rambut atau pakaian.</t>
+  </si>
+  <si>
+    <t>Kami diperintahkan untuk melaksanakan sujud dengan tujuh tulang (anggota sujud), dan dilarang menahan rambut atau pakaian (sehingga menghalangi anggota sujud).</t>
+  </si>
+  <si>
+    <t>SAMI'ALLAHU LIMAN HAMIDAH (Semoga Allah mendengar pujian orang yang memuji-Nya) ', tidak seorang pun dari kami yang membungkukkan punggungnya hingga Nabi meletakkan keningnya di atas tanah.</t>
+  </si>
+  <si>
+    <t>Aku diperintahkan untuk melaksanakan sujud dengan tujuh tulang (anggota sujud); kening -beliau lantas memberi isyarat dengan tangannya menunjuk hidung- kedua telapak tangan, kedua lutut dan ujung jari dari kedua kaki dan tidak boleh menahan rambut atau pakaian (sehingga menghalangi anggota sujud).</t>
+  </si>
+  <si>
+    <t>Barangsiapa sudah beri'tikaf bersama Nabi maka pulanglah, karena aku diperlihatkan (dalam mimpi) Lailatul Qadar namun aku dilupakan waktunya yang pasti. Namun dia ada pada sepuluh malam-malam akhir dan pada malam yang ganjil. Sungguh aku melihat dalam mimpi, bahwa aku sujud di atas tanah dan air (yang becek). Pada masa itu atap masjid masih terbuat dari daun dan pelepah pohon kurma, dan kami tidak melihat sesuatu di atas langit hingga kemudian datang awan dan turunlah air hujan. Maka Nabi shalat bersama kami hingga aku melihat sisa-sisa tanah dan air pada wajah dan ujung hidung Rasulullah sebagai bukti kebenaran mimpi beliau.</t>
+  </si>
+  <si>
+    <t>Nabi diperintahkan untuk melaksanakan sujud dengan tujuh anggota sujud, tidak boleh mengumpulkan rambutnya atau pakaiannya (sehingga menghalangi anggota sujud).</t>
+  </si>
+  <si>
+    <t>Aku diperintahkan untuk melaksanakan sujud dengan tujuh anggota sujud, dan dilarang mengumpulkan rambut atau pakaian (sehingga menghalangi anggota sujud).</t>
+  </si>
+  <si>
+    <t>SUBHAANAKALLAHUMMA RABBANAA WA BIHAMDIKA ALLAHUMMAGHFIRLII (Maha suci Engkau wahai Tuhan kami, segala puji bangi-Mu, ya Allah ampunilah aku) ', sebagai pengamalan perintah Al Qur'an.</t>
+  </si>
+  <si>
+    <t>kemudian berdiri lalu rukuk dan bertakbir, kemudian mengangkat kepalanya lalu berdiri dan berdiam sejenak. Kemudian dia sujud, lalu mengangkat kepalanya, lalu (duduk) sejenak. Dia shalat seperti shalatnya 'Amru bin Salamah, guru kita ini. Ayyub berkata, Dia mengerjakan sesuatu yang tidak pernah aku lihat orang-orang melakukannya, dia duduk pada setiap akan berdiri ke rakaat ketiga dan keempat. Maka kami menemui Nabi dan berdiam di sisi beliau. Beliau kemudian bersabda: Jika kalian kembali kepada keluarga kalian, maka shalatlah dengan cara ini pada waktu begini, dan shalat ini pada waktu begini. Jika telah datang waktu shalat maka hendaklah seseorang dari kalian adzan, dan hendaklah yang mengimami shalat adalah yang paling tua di antara kalian.</t>
+  </si>
+  <si>
+    <t>Sujudnya Nabi , rukuk, dan duduknya antara dua sujud semuanya hampir sama (panjangnya).</t>
+  </si>
+  <si>
+    <t>Dia mengangkat kepala dari rukuk lalu berdiri (lama sekali) hingga ada seseorang berkata, 'Dia lupa', dan jika duduk di antara dua sujud dia berdiam lama hingga ada seseorang berkata, 'Dia lupa'.</t>
+  </si>
+  <si>
+    <t>Seimbanglah kalian salam sujud, dan janganlah salah seorang dari kalian membentangkan kedua sikunya sebagaimana anjing membentangkan tangannya.</t>
+  </si>
+  <si>
+    <t>melihat Nabi melaksanakan shalat, jika sampai pada rakaat yang ganjil, maka beliau tidak bangkit berdiri hingga duduk sejenak.</t>
+  </si>
+  <si>
+    <t>bagaimana Nabi melaksanakan shalat. Ayyub berkata, Lalu aku bertanya kepada Abu Qilabah, Bagaimana cara shalat dia? Abu Qilabah menjawab, Seperti shalatnya guru (syaikh) kita ini, yaitu 'Amru bin Salamah. Ayyub berkata, Guru kita itu selalu menyempurnakan takbir. Dan jika mengangkat kepalanya dari sujud yang kedua dia duduk di atas tanah, kemudian baru berdiri.</t>
+  </si>
+  <si>
+    <t>mengeraskan bacaan takbirnya ketika mengangkat kepala dari sujud, ketika mau sujud, ketika mengangkat (kepala dari sujud) dan ketika bangkit berdiri dari rakaat kedua, setelah itu ia berkata, Begitulah aku melihat Rasulullah .</t>
+  </si>
+  <si>
+    <t>jika sujud ia bertakbir, jika rukuk ia bertakbir, jika mengangkat (kepala dari sujud) ia bertakbir, jika bangkit berdiri dari rakaat ia juga bertabir. Selesai salam, 'Imran memegang tanganku lalu berkata, Sungguh dia telah shalat bersama kita dengan tata cara shalatnya Muhammad . Atau dia berkata, Sungguh dengan shalatnya ini dia telah mengingatkan aku tentang shalatnya Muhammad .</t>
+  </si>
+  <si>
+    <t>mengerjakan shalat dengan cara bersimpuh dengan kedua kakinya ketika duduk. Maka aku juga melakukan hal serupa. Saat itu aku masih berusia muda. Namun 'Abdullah bin 'Umar melarangku berbuat seperti itu. Ia mengatakan, Sesungguhnya yang sesuai sunnah adalah kamu menegakkan telapak kakimu yang kanan sedangkan yang kiri kamu masukkan dibawahnya (melipat). Aku pun berkata, Tapi aku melihat anda melakukan hal itu! Dia menjawab, Kakiku tidak mampu.</t>
+  </si>
+  <si>
+    <t>jika shalat aku melihat beliau takbir dengan mengangkat kedua tangannya sejajar dengan pundaknya, jika rukuk maka beliau menempatkan kedua tangannya pada lutut dan meluruskan punggungnya. Jika mengangkat kepalanya, beliau berdiri lurus hingga seluruh tulung punggungnya kembali pada tempatnya semula. Dan jika sujud maka beliau meletakkan tangannya dengan tidak menempelkan lengannya ke tanah atau badannya, dan dalam posisi sujud itu beliau menghadapkan jari-jari kakinya ke arah kiblat. Apabila duduk pada rakaat kedua, beliau duduk di atas kakinya yang kiri dan menegakkan kakinya yang kanan. Dan jika duduk pada rakaat terakhir, maka beliau memasukkan kaki kirinya (di bawah kaki kananya) dan menegakkan kaki kanannya dan beliau duduk pada tempat duduknya. Dan Al Laits telah mendengar dari Yazid bin Abu Habib, dan Yazid dari Muhammad bin Halhalah, dan Ibnu Halhalah dari Ibnu 'Atha'. Abu Shalih menyebutkan dari Al Laits, Seluruh tulung punggung. Ibnu Al Mubarak berkata dari Yahya bin Ayyub ia berkata, telah menceritakan kapadaku Yazid bin Abu Habib bahwa Muhammad bin 'Amru menceritakan kepadanya, Seluruh tulung punggung.</t>
+  </si>
+  <si>
+    <t>Nabi pernah shalat Zhuhur bersama mereka, lalu beliau berdiri pada dua rakaat yang pertama dan tidak duduk (untuk tasyahud), dan orang-orang ikut berdiri. Sehingga ketika shalat akan selesai, dan orang-orang menanti salamnya, beliau bertakbir dalam posisi duduk, lalu sujud dua kali sebelum salam, setelahitu baru beliau salam.</t>
+  </si>
+  <si>
+    <t>Rasulullah pernah shalat Zhuhur bersama kami, lalu beliau berdiri yang semestinya beliau duduk. Kemudian di akhir shalatnya, beliau sujud dua kali dalam posisi duduk.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya Allah, Dialah As-Salaam. Maka jika seseorang dari kalian shalat, hendaklah ia membaca: 'ATTAHIYYAATU LILLAHI WASHSHALAWAATU WATHTHAYYIBAAT. ASSALAAMU 'ALAIKA AYYUHANNABIYYU WA RAHMATULLAHI WA BARAKAATUH. ASSALAAMU 'ALAINAA WA 'ALAA 'IBAADILLAHISH SHAALIHIIN (Segala penghormatan hanya milik Allah, juga segala pengagungan dan kebaikan. Semoga kesejahteraan terlimpahkan kepada engkau wahai Nabi dan juga rahmat dan berkah-Nya. Dan juga semoga kesejahteraan terlimpahkan kepada kami dan kepada hamba-hamba Allah yang shalih) '. Sesungguhnya jika kalian mengucapkan seperti ini, maka kalian telah mengucapkan salam kepada seluruh hamba Allah yang shalih di langit maupun di bumi. (Dan lanjutkanlah dengan bacaan): 'ASYHADU ALLAA ILAAHA ILLALLAH WA ASYHADU ANNA MUHAMMADAN 'ABDUHU WA RASUULUH (Aku bersaksi tidak ada tuhan yang berhak disembah selain Allah, dan aku bersaksi bahwa Muhammad adalah hamba dan utusan-Nya').</t>
+  </si>
+  <si>
+    <t>ALLAHUMMA INNII A'UUDZU BIKA MIN 'ADZAABIL QABRI, WA A'UUDZU BIKA MIN FITNATIL MASIIHID DAJJAAL, WA A'UUDZU BIKA MIN FITNATIL MAHYAA WA FITNATIL MAMAAT. ALLAHUMMA INNII A'UUDZU BIKA MINAL MA'TSAMI WAL MAGHRAM (Ya Allah, aku berlindung kepada-Mu dari siksa kubur dan aku berlindung kepada-Mu dari fitnah Al Masihid Dajjal, dan aku berlindung kepada-Mu dari fitnah kehidupan dan fitnah kematian. Ya Allah, aku berlindung kepada-Mu dari perbuatan dosa dan hutang) '. Tiba-tiba ada seseorang berkata kepada beliau, Kenapa tuan banyak meminta perlindungan dari hutang? Beliau menjawab, Sesungguhnya seseorang apabila berhutang dia akan cenderung berkata dusta dan berjanji lalu mengingkarinya. Dan dari Az Zuhri ia berkata, 'Urwah bin Az Zubair telah mengabarkan kepadaku, bahwa 'Aisyah? berkata, Aku mendengar Rasulullah dalam shalatnya meminta perlindungan dari fitnah Dajjal.</t>
+  </si>
+  <si>
+    <t>ALLAHUMMA INNII ZHALAMTU NAFSII ZHULMAN KATSIIRAN WA LAA YAGHFIRUDZ DZUNUUBA ILLAA ANTA FAGHFIRLII MAGHFIRATAN MIN 'INDIKA WARHAMNII INNAKA ANTAL GHAFUURUR RAHIIM (Ya Allah, sungguh aku telah menzhalimi diriku sendiri dengan kezhaliman yang banyak, sedangkan tidak ada yang dapat mengampuni dosa-dosa kecuali Engkau. Maka itu ampunilah aku dengan suatu pengampunan dari sisi-Mu, dan rahmatilah aku. Sesungguhnya Engkau Maha Pengampun lagi Maha Penyayang) '.</t>
+  </si>
+  <si>
+    <t>Janganlah kalian mengucapkan: 'ASSALAAMU 'ALAALLAH (Semoga kesejahteraan terlimpahkan kepada Allah) ', karena sesungguhnya Allah, Dialah As-Salaam. Akan tetapi bacalah: 'ATTAHIYYAATU LILLAHI WASHSHALAAWAATU WATHTHAYYIBAAT ASSALAAMU 'ALAIKA AYYUHANNABIYYU WA RAHMATULLAHI WA BARAKAATUH ASSALAAMU 'ALAINAA WA 'ALAA 'IBAADILLAHISH SHAALIHIIN (Segala penghormatan hanya milik Allah, juga segala pengagungan dan kebaikan. Semoga kesejahteraan terlimpahkan kepada engkau wahai Nabi dan juga rahmat dan berkah-Nya. Semoga kesejahteraan terlimpahkan kepada kami dan kepada hamba-hamba Allah yang shalih). Karena apabila kalian mengucapkan seperti ini, maka berarti kalian telah mengucapkan salam kepada seluruh yang ada di langit atau yang berada di antara langit dan bumi. (Dan lanjutkanlah dengan bacaan): 'ASYHADU ALLAA ILAAHA ILLALLAH WA ASYHADU ANNA MUHAMMADAN 'ABDUHU WA RASUULUH (Aku bersaksi tidak ada tuhan yang berhak disembah selain Allah, dan aku bersaksi bahwa Muhammad adalah hamba dan utusan-Nya) '. Lalu ia memilih doa yang paling ia sukai kemudian berdoa dengannya.</t>
+  </si>
+  <si>
+    <t>sujud di atas air dan lumpur hingga aku bisa melihat bekas lumpur itu di dahi beliau.</t>
+  </si>
+  <si>
+    <t>Apabila Rasulullah mengucapkan salam, maka seketika selesainya salam beliau itu pula mereka langsung bangkit, sementara beliau berdiam diri sebentar sebelum berdiri. Ibnu Syihab berkata, Menurutku -dan hanya Allah yang tahu- beliau melakukan itu agar kaum wanita punya kesempatan untuk pergi sehingga seseorang yang berlalu pulang dari kalangan laki-laki tidak bertemu dengan mereka.</t>
+  </si>
+  <si>
+    <t>Kami pernah shalat bersama Nabi , maka kami salam ketika beliau salam.</t>
+  </si>
+  <si>
+    <t>Aku akan datang, Insyaallah. Kemudian beliau datang kepadaku bersama Abu Bakar di waktu siang yang terik. Nabi lalu minta izin masuk dan aku pun mengizinkannya. Sebelum duduk beliau langsung bersabda: Mana tempat yang kau sukai untuk aku shalat padanya di rumahmu ini? Maka Itban memberi isyarat kepada Beliau tempat yang disukainya supaya Beliau shalat di tempat tersebut. Beliau lalu berdiri shalat dan kamipun berdiri shalat mengatur shaf di belakangnya. Kemudian Beliau mengakhiri shalat dengan salam, maka kamipun mengucapkan salam setelah Beliau salam.</t>
+  </si>
+  <si>
+    <t>bahwa mengeraskan suara dalam berdzikir setelah orang selesai menunaikah shalat fardlu terjadi di zaman Nabi . Ibnu 'Abbas mengatakan, Aku mengetahui bahwa mereka telah selesai dari shalat itu karena aku mendengarnya.</t>
+  </si>
+  <si>
+    <t>Aku mengetahui selesainya shalat Nabi dari suara takbir. 'Ali berkata, telah menceritakan kepada kami Sufyan dari 'Amru ia berkata, Abu Ma'bad adalah salah satu budak Ibnu 'Abbas yang paling jujur. 'Ali berkata, Nama aslinya adalah Nafidz.</t>
+  </si>
+  <si>
+    <t>Maukah aku sampaikan kepada kalian sesuatu yang apabila kalian ambil (sebagai amal ibadah) kalian akan dapat melampaui (derajat) orang-orang yang sudah mengalahkan kalian tersebut, dan tidak akan ada yang dapat mengalahkan kalian dengan amal ini sehingga kalian menjadi yang terbaik di antara kalian dan di tengah-tengah mereka kecuali bila ada orang yang mengerjakan seperti yang kalian amalkan ini. Yaitu kalian membaca tasbih (Subhaanallah), membaca tahmid (Alhamdulillah) dan membaca takbir (Allahu Akbar) setiap selesai dari shalat sebanyak tiga puluh tiga kali. Kemudian setelah itu di antara kami terdapat perbedaan pendapat. Di antara kami ada yang berkata, Kita bertasbih tiga puluh tiga kali, lalu bertahmid tiga puluh tiga kali, lalu bertakbir empat puluh tiga kali. Kemudian aku kembali menemui Beliau , beliau lalu bersabda: Bacalah 'Subhaanallah walhamdulillah wallahu Akbar' hingga dari itu semuanya berjumlah tiga puluh tiga kali.</t>
+  </si>
+  <si>
+    <t>LAA ILAAHA ILLALLAH WAHDAHU LAA SYARIIKA LAHU, LAHUL MULKU WA LAHUL HAMDU WA HUWA 'ALAA KULLI SYAI'IN QADIIR. ALLAHUMMA LAA MAANI'A LIMA A'THAITA WA LAA MU'THIYA LIMA MANA'TA WA LAA YANFA'U DZAL JADDI MINKAL JADDU (Tidak ada tuhan yang berhak disembah selain Allah, yang Tunggal dan tidak ada sekutu bagi-Nya. Milik-Nya segala kerajaan, dan milik-Nya segala pujian. Dan Dia Maha Kuasa atas segala sesuatu. Ya Allah, tidak ada yang dapat menahan dari apa yang Engkau berikan dan dan tidak ada yang dapat memberi dari apa yang Engkau tahan. Dan tidak bermanfaat kekayaan orang yang kaya di hadapan-Mu sedikitpun) '. Syu'bah berkata dari 'Abdul Malik bin 'Umair dengan lafadz seperti ini. Dan dari Al Hakam dari Al Qasim bin Mukhaimirah dari Warrad dengan seperti ini juga. Al Hasan berkata, Al Jaddu artinyaadalah kekayaan.</t>
+  </si>
+  <si>
+    <t>Jika Nabi selesai dari menunaikan shalat, beliau menghadapkan wajahnya ke arah kami.</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +2491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1926,12 +2526,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2233,13 +2828,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D601"/>
+  <dimension ref="A1:D801"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B597" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D602" sqref="D602"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,7 +3262,7 @@
         <v>32</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2975,7 +3570,7 @@
         <v>54</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -3199,7 +3794,7 @@
         <v>70</v>
       </c>
       <c r="D68" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -3759,7 +4354,7 @@
         <v>109</v>
       </c>
       <c r="D108" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -4025,7 +4620,7 @@
         <v>128</v>
       </c>
       <c r="D127" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -4655,7 +5250,7 @@
         <v>173</v>
       </c>
       <c r="D172" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -7553,7 +8148,7 @@
         <v>380</v>
       </c>
       <c r="D379" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
@@ -9271,7 +9866,7 @@
       <c r="B502" s="9">
         <v>349</v>
       </c>
-      <c r="C502" s="12" t="s">
+      <c r="C502" s="9" t="s">
         <v>503</v>
       </c>
       <c r="D502" s="8">
@@ -9285,7 +9880,7 @@
       <c r="B503" s="9">
         <v>350</v>
       </c>
-      <c r="C503" s="12" t="s">
+      <c r="C503" s="9" t="s">
         <v>504</v>
       </c>
       <c r="D503" s="8">
@@ -9299,10 +9894,10 @@
       <c r="B504" s="9">
         <v>350</v>
       </c>
-      <c r="C504" s="12" t="s">
+      <c r="C504" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="D504" s="13">
+      <c r="D504" s="8">
         <v>2</v>
       </c>
     </row>
@@ -9313,10 +9908,10 @@
       <c r="B505" s="9">
         <v>350</v>
       </c>
-      <c r="C505" s="12" t="s">
+      <c r="C505" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D505" s="13">
+      <c r="D505" s="8">
         <v>2</v>
       </c>
     </row>
@@ -9327,10 +9922,10 @@
       <c r="B506" s="9">
         <v>350</v>
       </c>
-      <c r="C506" s="12" t="s">
+      <c r="C506" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="D506" s="13">
+      <c r="D506" s="8">
         <v>2</v>
       </c>
     </row>
@@ -9341,10 +9936,10 @@
       <c r="B507" s="9">
         <v>351</v>
       </c>
-      <c r="C507" s="12" t="s">
+      <c r="C507" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D507" s="13">
+      <c r="D507" s="8">
         <v>2</v>
       </c>
     </row>
@@ -9355,10 +9950,10 @@
       <c r="B508" s="9">
         <v>352</v>
       </c>
-      <c r="C508" s="12" t="s">
+      <c r="C508" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="D508" s="13">
+      <c r="D508" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9369,10 +9964,10 @@
       <c r="B509" s="9">
         <v>352</v>
       </c>
-      <c r="C509" s="12" t="s">
+      <c r="C509" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="D509" s="13">
+      <c r="D509" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9383,10 +9978,10 @@
       <c r="B510" s="9">
         <v>352</v>
       </c>
-      <c r="C510" s="12" t="s">
+      <c r="C510" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="D510" s="13">
+      <c r="D510" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9397,10 +9992,10 @@
       <c r="B511" s="9">
         <v>353</v>
       </c>
-      <c r="C511" s="12" t="s">
+      <c r="C511" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="D511" s="13">
+      <c r="D511" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9411,10 +10006,10 @@
       <c r="B512" s="9">
         <v>354</v>
       </c>
-      <c r="C512" s="12" t="s">
+      <c r="C512" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="D512" s="13">
+      <c r="D512" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9425,10 +10020,10 @@
       <c r="B513" s="9">
         <v>354</v>
       </c>
-      <c r="C513" s="12" t="s">
+      <c r="C513" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="D513" s="13">
+      <c r="D513" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9439,10 +10034,10 @@
       <c r="B514" s="9">
         <v>354</v>
       </c>
-      <c r="C514" s="12" t="s">
+      <c r="C514" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="D514" s="13">
+      <c r="D514" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9453,10 +10048,10 @@
       <c r="B515" s="9">
         <v>354</v>
       </c>
-      <c r="C515" s="12" t="s">
+      <c r="C515" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="D515" s="13">
+      <c r="D515" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9467,10 +10062,10 @@
       <c r="B516" s="9">
         <v>354</v>
       </c>
-      <c r="C516" s="12" t="s">
+      <c r="C516" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="D516" s="13">
+      <c r="D516" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9481,10 +10076,10 @@
       <c r="B517" s="9">
         <v>354</v>
       </c>
-      <c r="C517" s="12" t="s">
+      <c r="C517" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="D517" s="13">
+      <c r="D517" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9495,10 +10090,10 @@
       <c r="B518" s="9">
         <v>354</v>
       </c>
-      <c r="C518" s="12" t="s">
+      <c r="C518" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="D518" s="13">
+      <c r="D518" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9509,10 +10104,10 @@
       <c r="B519" s="9">
         <v>354</v>
       </c>
-      <c r="C519" s="12" t="s">
+      <c r="C519" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="D519" s="13">
+      <c r="D519" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9523,10 +10118,10 @@
       <c r="B520" s="9">
         <v>355</v>
       </c>
-      <c r="C520" s="12" t="s">
+      <c r="C520" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="D520" s="13">
+      <c r="D520" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9537,10 +10132,10 @@
       <c r="B521" s="9">
         <v>356</v>
       </c>
-      <c r="C521" s="12" t="s">
+      <c r="C521" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="D521" s="13">
+      <c r="D521" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9551,11 +10146,11 @@
       <c r="B522" s="9">
         <v>357</v>
       </c>
-      <c r="C522" s="12" t="s">
+      <c r="C522" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="D522" s="13">
-        <v>2</v>
+      <c r="D522" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -9565,10 +10160,10 @@
       <c r="B523" s="9">
         <v>357</v>
       </c>
-      <c r="C523" s="12" t="s">
+      <c r="C523" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="D523" s="13">
+      <c r="D523" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9579,7 +10174,7 @@
       <c r="B524" s="9">
         <v>358</v>
       </c>
-      <c r="C524" s="12" t="s">
+      <c r="C524" s="9" t="s">
         <v>525</v>
       </c>
       <c r="D524" s="8">
@@ -9593,10 +10188,10 @@
       <c r="B525" s="9">
         <v>358</v>
       </c>
-      <c r="C525" s="12" t="s">
+      <c r="C525" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="D525" s="13">
+      <c r="D525" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9607,10 +10202,10 @@
       <c r="B526" s="9">
         <v>358</v>
       </c>
-      <c r="C526" s="12" t="s">
+      <c r="C526" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D526" s="13">
+      <c r="D526" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9621,10 +10216,10 @@
       <c r="B527" s="9">
         <v>359</v>
       </c>
-      <c r="C527" s="12" t="s">
+      <c r="C527" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="D527" s="13">
+      <c r="D527" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9635,10 +10230,10 @@
       <c r="B528" s="9">
         <v>359</v>
       </c>
-      <c r="C528" s="12" t="s">
+      <c r="C528" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="D528" s="13">
+      <c r="D528" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9649,10 +10244,10 @@
       <c r="B529" s="9">
         <v>359</v>
       </c>
-      <c r="C529" s="12" t="s">
+      <c r="C529" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="D529" s="13">
+      <c r="D529" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9663,10 +10258,10 @@
       <c r="B530" s="9">
         <v>359</v>
       </c>
-      <c r="C530" s="12" t="s">
+      <c r="C530" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="D530" s="13">
+      <c r="D530" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9677,10 +10272,10 @@
       <c r="B531" s="9">
         <v>360</v>
       </c>
-      <c r="C531" s="12" t="s">
+      <c r="C531" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="D531" s="13">
+      <c r="D531" s="8">
         <v>3</v>
       </c>
     </row>
@@ -9691,10 +10286,10 @@
       <c r="B532" s="9">
         <v>361</v>
       </c>
-      <c r="C532" s="12" t="s">
+      <c r="C532" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="D532" s="13">
+      <c r="D532" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9705,10 +10300,10 @@
       <c r="B533" s="9">
         <v>362</v>
       </c>
-      <c r="C533" s="12" t="s">
+      <c r="C533" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="D533" s="13">
+      <c r="D533" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9719,10 +10314,10 @@
       <c r="B534" s="9">
         <v>363</v>
       </c>
-      <c r="C534" s="12" t="s">
+      <c r="C534" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="D534" s="13">
+      <c r="D534" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9733,10 +10328,10 @@
       <c r="B535" s="9">
         <v>363</v>
       </c>
-      <c r="C535" s="12" t="s">
+      <c r="C535" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="D535" s="13">
+      <c r="D535" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9747,10 +10342,10 @@
       <c r="B536" s="9">
         <v>364</v>
       </c>
-      <c r="C536" s="12" t="s">
+      <c r="C536" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="D536" s="13">
+      <c r="D536" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9761,10 +10356,10 @@
       <c r="B537" s="9">
         <v>365</v>
       </c>
-      <c r="C537" s="12" t="s">
+      <c r="C537" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="D537" s="13">
+      <c r="D537" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9775,10 +10370,10 @@
       <c r="B538" s="9">
         <v>365</v>
       </c>
-      <c r="C538" s="12" t="s">
+      <c r="C538" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="D538" s="13">
+      <c r="D538" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9789,10 +10384,10 @@
       <c r="B539" s="9">
         <v>366</v>
       </c>
-      <c r="C539" s="12" t="s">
+      <c r="C539" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="D539" s="13">
+      <c r="D539" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9803,7 +10398,7 @@
       <c r="B540" s="9">
         <v>367</v>
       </c>
-      <c r="C540" s="12" t="s">
+      <c r="C540" s="9" t="s">
         <v>541</v>
       </c>
       <c r="D540" s="8">
@@ -9817,7 +10412,7 @@
       <c r="B541" s="9">
         <v>367</v>
       </c>
-      <c r="C541" s="12" t="s">
+      <c r="C541" s="9" t="s">
         <v>542</v>
       </c>
       <c r="D541" s="8">
@@ -9831,10 +10426,10 @@
       <c r="B542" s="9">
         <v>368</v>
       </c>
-      <c r="C542" s="12" t="s">
+      <c r="C542" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="D542" s="13">
+      <c r="D542" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9845,10 +10440,10 @@
       <c r="B543" s="9">
         <v>368</v>
       </c>
-      <c r="C543" s="12" t="s">
+      <c r="C543" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D543" s="13">
+      <c r="D543" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9859,10 +10454,10 @@
       <c r="B544" s="9">
         <v>368</v>
       </c>
-      <c r="C544" s="12" t="s">
+      <c r="C544" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="D544" s="13">
+      <c r="D544" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9873,10 +10468,10 @@
       <c r="B545" s="9">
         <v>368</v>
       </c>
-      <c r="C545" s="12" t="s">
+      <c r="C545" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="D545" s="13">
+      <c r="D545" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9887,10 +10482,10 @@
       <c r="B546" s="9">
         <v>369</v>
       </c>
-      <c r="C546" s="12" t="s">
+      <c r="C546" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="D546" s="13">
+      <c r="D546" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9901,10 +10496,10 @@
       <c r="B547" s="9">
         <v>370</v>
       </c>
-      <c r="C547" s="12" t="s">
+      <c r="C547" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="D547" s="13">
+      <c r="D547" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9915,7 +10510,7 @@
       <c r="B548" s="9">
         <v>371</v>
       </c>
-      <c r="C548" s="12" t="s">
+      <c r="C548" s="9" t="s">
         <v>549</v>
       </c>
       <c r="D548" s="8">
@@ -9929,7 +10524,7 @@
       <c r="B549" s="9">
         <v>371</v>
       </c>
-      <c r="C549" s="12" t="s">
+      <c r="C549" s="9" t="s">
         <v>550</v>
       </c>
       <c r="D549" s="8">
@@ -9943,7 +10538,7 @@
       <c r="B550" s="9">
         <v>371</v>
       </c>
-      <c r="C550" s="12" t="s">
+      <c r="C550" s="9" t="s">
         <v>551</v>
       </c>
       <c r="D550" s="8">
@@ -9957,10 +10552,10 @@
       <c r="B551" s="9">
         <v>372</v>
       </c>
-      <c r="C551" s="12" t="s">
+      <c r="C551" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="D551" s="13">
+      <c r="D551" s="8">
         <v>3</v>
       </c>
     </row>
@@ -9971,10 +10566,10 @@
       <c r="B552" s="9">
         <v>372</v>
       </c>
-      <c r="C552" s="12" t="s">
+      <c r="C552" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="D552" s="13">
+      <c r="D552" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9985,10 +10580,10 @@
       <c r="B553" s="9">
         <v>372</v>
       </c>
-      <c r="C553" s="12" t="s">
+      <c r="C553" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="D553" s="13">
+      <c r="D553" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9999,10 +10594,10 @@
       <c r="B554" s="9">
         <v>372</v>
       </c>
-      <c r="C554" s="12" t="s">
+      <c r="C554" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="D554" s="13">
+      <c r="D554" s="8">
         <v>3</v>
       </c>
     </row>
@@ -10013,10 +10608,10 @@
       <c r="B555" s="9">
         <v>373</v>
       </c>
-      <c r="C555" s="12" t="s">
+      <c r="C555" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="D555" s="13">
+      <c r="D555" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10027,10 +10622,10 @@
       <c r="B556" s="9">
         <v>374</v>
       </c>
-      <c r="C556" s="12" t="s">
+      <c r="C556" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="D556" s="13">
+      <c r="D556" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10041,10 +10636,10 @@
       <c r="B557" s="9">
         <v>374</v>
       </c>
-      <c r="C557" s="12" t="s">
+      <c r="C557" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="D557" s="13">
+      <c r="D557" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10055,10 +10650,10 @@
       <c r="B558" s="9">
         <v>374</v>
       </c>
-      <c r="C558" s="12" t="s">
+      <c r="C558" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="D558" s="13">
+      <c r="D558" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10069,10 +10664,10 @@
       <c r="B559" s="9">
         <v>374</v>
       </c>
-      <c r="C559" s="12" t="s">
+      <c r="C559" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="D559" s="13">
+      <c r="D559" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10083,10 +10678,10 @@
       <c r="B560" s="9">
         <v>375</v>
       </c>
-      <c r="C560" s="12" t="s">
+      <c r="C560" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="D560" s="13">
+      <c r="D560" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10097,10 +10692,10 @@
       <c r="B561" s="9">
         <v>376</v>
       </c>
-      <c r="C561" s="12" t="s">
+      <c r="C561" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="D561" s="13">
+      <c r="D561" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10111,10 +10706,10 @@
       <c r="B562" s="9">
         <v>377</v>
       </c>
-      <c r="C562" s="12" t="s">
+      <c r="C562" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="D562" s="13">
+      <c r="D562" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10125,7 +10720,7 @@
       <c r="B563" s="9">
         <v>378</v>
       </c>
-      <c r="C563" s="12" t="s">
+      <c r="C563" s="9" t="s">
         <v>564</v>
       </c>
       <c r="D563" s="8">
@@ -10139,10 +10734,10 @@
       <c r="B564" s="9">
         <v>379</v>
       </c>
-      <c r="C564" s="12" t="s">
+      <c r="C564" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="D564" s="13">
+      <c r="D564" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10153,10 +10748,10 @@
       <c r="B565" s="9">
         <v>380</v>
       </c>
-      <c r="C565" s="12" t="s">
+      <c r="C565" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="D565" s="13">
+      <c r="D565" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10167,10 +10762,10 @@
       <c r="B566" s="9">
         <v>381</v>
       </c>
-      <c r="C566" s="12" t="s">
+      <c r="C566" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="D566" s="13">
+      <c r="D566" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10181,10 +10776,10 @@
       <c r="B567" s="9">
         <v>381</v>
       </c>
-      <c r="C567" s="12" t="s">
+      <c r="C567" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="D567" s="13">
+      <c r="D567" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10195,7 +10790,7 @@
       <c r="B568" s="9">
         <v>382</v>
       </c>
-      <c r="C568" s="12" t="s">
+      <c r="C568" s="9" t="s">
         <v>569</v>
       </c>
       <c r="D568" s="8">
@@ -10209,10 +10804,10 @@
       <c r="B569" s="9">
         <v>383</v>
       </c>
-      <c r="C569" s="12" t="s">
+      <c r="C569" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="D569" s="13">
+      <c r="D569" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10223,10 +10818,10 @@
       <c r="B570" s="9">
         <v>383</v>
       </c>
-      <c r="C570" s="12" t="s">
+      <c r="C570" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="D570" s="13">
+      <c r="D570" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10237,10 +10832,10 @@
       <c r="B571" s="9">
         <v>384</v>
       </c>
-      <c r="C571" s="12" t="s">
+      <c r="C571" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="D571" s="13">
+      <c r="D571" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10251,10 +10846,10 @@
       <c r="B572" s="9">
         <v>384</v>
       </c>
-      <c r="C572" s="12" t="s">
+      <c r="C572" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="D572" s="13">
+      <c r="D572" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10265,10 +10860,10 @@
       <c r="B573" s="9">
         <v>385</v>
       </c>
-      <c r="C573" s="12" t="s">
+      <c r="C573" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="D573" s="13">
+      <c r="D573" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10279,10 +10874,10 @@
       <c r="B574" s="9">
         <v>386</v>
       </c>
-      <c r="C574" s="12" t="s">
+      <c r="C574" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="D574" s="13">
+      <c r="D574" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10293,10 +10888,10 @@
       <c r="B575" s="9">
         <v>387</v>
       </c>
-      <c r="C575" s="12" t="s">
+      <c r="C575" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="D575" s="13">
+      <c r="D575" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10307,10 +10902,10 @@
       <c r="B576" s="9">
         <v>388</v>
       </c>
-      <c r="C576" s="12" t="s">
+      <c r="C576" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="D576" s="13">
+      <c r="D576" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10321,7 +10916,7 @@
       <c r="B577" s="9">
         <v>389</v>
       </c>
-      <c r="C577" s="12" t="s">
+      <c r="C577" s="9" t="s">
         <v>578</v>
       </c>
       <c r="D577" s="8">
@@ -10335,10 +10930,10 @@
       <c r="B578" s="9">
         <v>389</v>
       </c>
-      <c r="C578" s="12" t="s">
+      <c r="C578" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="D578" s="13">
+      <c r="D578" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10349,10 +10944,10 @@
       <c r="B579" s="9">
         <v>389</v>
       </c>
-      <c r="C579" s="12" t="s">
+      <c r="C579" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="D579" s="13">
+      <c r="D579" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10363,7 +10958,7 @@
       <c r="B580" s="9">
         <v>390</v>
       </c>
-      <c r="C580" s="12" t="s">
+      <c r="C580" s="9" t="s">
         <v>581</v>
       </c>
       <c r="D580" s="8">
@@ -10377,10 +10972,10 @@
       <c r="B581" s="9">
         <v>391</v>
       </c>
-      <c r="C581" s="12" t="s">
+      <c r="C581" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="D581" s="13">
+      <c r="D581" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10391,10 +10986,10 @@
       <c r="B582" s="9">
         <v>392</v>
       </c>
-      <c r="C582" s="12" t="s">
+      <c r="C582" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="D582" s="13">
+      <c r="D582" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10405,10 +11000,10 @@
       <c r="B583" s="9">
         <v>393</v>
       </c>
-      <c r="C583" s="12" t="s">
+      <c r="C583" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="D583" s="13">
+      <c r="D583" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10419,10 +11014,10 @@
       <c r="B584" s="9">
         <v>394</v>
       </c>
-      <c r="C584" s="12" t="s">
+      <c r="C584" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="D584" s="13">
+      <c r="D584" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10433,10 +11028,10 @@
       <c r="B585" s="9">
         <v>394</v>
       </c>
-      <c r="C585" s="12" t="s">
+      <c r="C585" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="D585" s="13">
+      <c r="D585" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10447,10 +11042,10 @@
       <c r="B586" s="9">
         <v>394</v>
       </c>
-      <c r="C586" s="12" t="s">
+      <c r="C586" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="D586" s="13">
+      <c r="D586" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10461,10 +11056,10 @@
       <c r="B587" s="9">
         <v>395</v>
       </c>
-      <c r="C587" s="12" t="s">
+      <c r="C587" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="D587" s="13">
+      <c r="D587" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10475,10 +11070,10 @@
       <c r="B588" s="9">
         <v>395</v>
       </c>
-      <c r="C588" s="12" t="s">
+      <c r="C588" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="D588" s="13">
+      <c r="D588" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10489,10 +11084,10 @@
       <c r="B589" s="9">
         <v>396</v>
       </c>
-      <c r="C589" s="12" t="s">
+      <c r="C589" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="D589" s="13">
+      <c r="D589" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10503,10 +11098,10 @@
       <c r="B590" s="9">
         <v>396</v>
       </c>
-      <c r="C590" s="12" t="s">
+      <c r="C590" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="D590" s="13">
+      <c r="D590" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10517,10 +11112,10 @@
       <c r="B591" s="9">
         <v>397</v>
       </c>
-      <c r="C591" s="12" t="s">
+      <c r="C591" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="D591" s="13">
+      <c r="D591" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10531,10 +11126,10 @@
       <c r="B592" s="9">
         <v>398</v>
       </c>
-      <c r="C592" s="12" t="s">
+      <c r="C592" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="D592" s="13">
+      <c r="D592" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10545,10 +11140,10 @@
       <c r="B593" s="9">
         <v>399</v>
       </c>
-      <c r="C593" s="12" t="s">
+      <c r="C593" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D593" s="13">
+      <c r="D593" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10559,10 +11154,10 @@
       <c r="B594" s="9">
         <v>400</v>
       </c>
-      <c r="C594" s="12" t="s">
+      <c r="C594" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="D594" s="13">
+      <c r="D594" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10573,10 +11168,10 @@
       <c r="B595" s="9">
         <v>400</v>
       </c>
-      <c r="C595" s="12" t="s">
+      <c r="C595" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="D595" s="13">
+      <c r="D595" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10587,10 +11182,10 @@
       <c r="B596" s="9">
         <v>400</v>
       </c>
-      <c r="C596" s="12" t="s">
+      <c r="C596" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="D596" s="13">
+      <c r="D596" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10601,10 +11196,10 @@
       <c r="B597" s="9">
         <v>400</v>
       </c>
-      <c r="C597" s="12" t="s">
+      <c r="C597" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="D597" s="13">
+      <c r="D597" s="8">
         <v>2</v>
       </c>
     </row>
@@ -10615,10 +11210,10 @@
       <c r="B598" s="9">
         <v>400</v>
       </c>
-      <c r="C598" s="12" t="s">
+      <c r="C598" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="D598" s="13">
+      <c r="D598" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10629,10 +11224,10 @@
       <c r="B599" s="9">
         <v>401</v>
       </c>
-      <c r="C599" s="12" t="s">
+      <c r="C599" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="D599" s="13">
+      <c r="D599" s="8">
         <v>1</v>
       </c>
     </row>
@@ -10643,11 +11238,11 @@
       <c r="B600" s="9">
         <v>402</v>
       </c>
-      <c r="C600" s="12" t="s">
+      <c r="C600" s="9" t="s">
         <v>601</v>
       </c>
       <c r="D600" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -10657,14 +11252,2815 @@
       <c r="B601" s="9">
         <v>403</v>
       </c>
-      <c r="C601" s="12" t="s">
+      <c r="C601" s="9" t="s">
         <v>602</v>
       </c>
       <c r="D601" s="8">
         <v>2</v>
       </c>
     </row>
+    <row r="602" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A602" s="8">
+        <v>601</v>
+      </c>
+      <c r="B602" s="9">
+        <v>404</v>
+      </c>
+      <c r="C602" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="D602" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A603" s="8">
+        <v>602</v>
+      </c>
+      <c r="B603" s="9">
+        <v>405</v>
+      </c>
+      <c r="C603" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="D603" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A604" s="8">
+        <v>603</v>
+      </c>
+      <c r="B604" s="9">
+        <v>406</v>
+      </c>
+      <c r="C604" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="D604" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A605" s="8">
+        <v>604</v>
+      </c>
+      <c r="B605" s="9">
+        <v>407</v>
+      </c>
+      <c r="C605" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D605" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A606" s="8">
+        <v>605</v>
+      </c>
+      <c r="B606" s="9">
+        <v>408</v>
+      </c>
+      <c r="C606" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D606" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A607" s="8">
+        <v>606</v>
+      </c>
+      <c r="B607" s="9">
+        <v>409</v>
+      </c>
+      <c r="C607" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="D607" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A608" s="8">
+        <v>607</v>
+      </c>
+      <c r="B608" s="9">
+        <v>410</v>
+      </c>
+      <c r="C608" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="D608" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A609" s="8">
+        <v>608</v>
+      </c>
+      <c r="B609" s="9">
+        <v>411</v>
+      </c>
+      <c r="C609" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D609" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A610" s="8">
+        <v>609</v>
+      </c>
+      <c r="B610" s="9">
+        <v>412</v>
+      </c>
+      <c r="C610" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="D610" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A611" s="8">
+        <v>610</v>
+      </c>
+      <c r="B611" s="9">
+        <v>412</v>
+      </c>
+      <c r="C611" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="D611" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A612" s="8">
+        <v>611</v>
+      </c>
+      <c r="B612" s="9">
+        <v>412</v>
+      </c>
+      <c r="C612" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D612" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A613" s="8">
+        <v>612</v>
+      </c>
+      <c r="B613" s="9">
+        <v>413</v>
+      </c>
+      <c r="C613" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="D613" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A614" s="8">
+        <v>613</v>
+      </c>
+      <c r="B614" s="9">
+        <v>413</v>
+      </c>
+      <c r="C614" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D614" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A615" s="8">
+        <v>614</v>
+      </c>
+      <c r="B615" s="9">
+        <v>413</v>
+      </c>
+      <c r="C615" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="D615" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A616" s="8">
+        <v>615</v>
+      </c>
+      <c r="B616" s="9">
+        <v>414</v>
+      </c>
+      <c r="C616" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="D616" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A617" s="8">
+        <v>616</v>
+      </c>
+      <c r="B617" s="9">
+        <v>415</v>
+      </c>
+      <c r="C617" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D617" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A618" s="8">
+        <v>617</v>
+      </c>
+      <c r="B618" s="9">
+        <v>416</v>
+      </c>
+      <c r="C618" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D618" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A619" s="8">
+        <v>618</v>
+      </c>
+      <c r="B619" s="9">
+        <v>417</v>
+      </c>
+      <c r="C619" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D619" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A620" s="8">
+        <v>619</v>
+      </c>
+      <c r="B620" s="9">
+        <v>418</v>
+      </c>
+      <c r="C620" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D620" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A621" s="8">
+        <v>620</v>
+      </c>
+      <c r="B621" s="9">
+        <v>418</v>
+      </c>
+      <c r="C621" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="D621" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A622" s="8">
+        <v>621</v>
+      </c>
+      <c r="B622" s="9">
+        <v>418</v>
+      </c>
+      <c r="C622" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="D622" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A623" s="8">
+        <v>622</v>
+      </c>
+      <c r="B623" s="9">
+        <v>419</v>
+      </c>
+      <c r="C623" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="D623" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A624" s="8">
+        <v>623</v>
+      </c>
+      <c r="B624" s="9">
+        <v>420</v>
+      </c>
+      <c r="C624" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="D624" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A625" s="8">
+        <v>624</v>
+      </c>
+      <c r="B625" s="9">
+        <v>421</v>
+      </c>
+      <c r="C625" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="D625" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A626" s="8">
+        <v>625</v>
+      </c>
+      <c r="B626" s="9">
+        <v>421</v>
+      </c>
+      <c r="C626" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="D626" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A627" s="8">
+        <v>626</v>
+      </c>
+      <c r="B627" s="9">
+        <v>422</v>
+      </c>
+      <c r="C627" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="D627" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A628" s="8">
+        <v>627</v>
+      </c>
+      <c r="B628" s="9">
+        <v>422</v>
+      </c>
+      <c r="C628" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="D628" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A629" s="8">
+        <v>628</v>
+      </c>
+      <c r="B629" s="9">
+        <v>423</v>
+      </c>
+      <c r="C629" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="D629" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A630" s="8">
+        <v>629</v>
+      </c>
+      <c r="B630" s="9">
+        <v>423</v>
+      </c>
+      <c r="C630" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="D630" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A631" s="8">
+        <v>630</v>
+      </c>
+      <c r="B631" s="9">
+        <v>423</v>
+      </c>
+      <c r="C631" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="D631" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A632" s="8">
+        <v>631</v>
+      </c>
+      <c r="B632" s="9">
+        <v>424</v>
+      </c>
+      <c r="C632" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D632" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A633" s="8">
+        <v>632</v>
+      </c>
+      <c r="B633" s="9">
+        <v>424</v>
+      </c>
+      <c r="C633" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D633" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A634" s="8">
+        <v>633</v>
+      </c>
+      <c r="B634" s="9">
+        <v>424</v>
+      </c>
+      <c r="C634" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="D634" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A635" s="8">
+        <v>634</v>
+      </c>
+      <c r="B635" s="9">
+        <v>425</v>
+      </c>
+      <c r="C635" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="D635" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A636" s="8">
+        <v>635</v>
+      </c>
+      <c r="B636" s="9">
+        <v>426</v>
+      </c>
+      <c r="C636" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="D636" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A637" s="8">
+        <v>636</v>
+      </c>
+      <c r="B637" s="9">
+        <v>427</v>
+      </c>
+      <c r="C637" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="D637" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A638" s="8">
+        <v>637</v>
+      </c>
+      <c r="B638" s="9">
+        <v>428</v>
+      </c>
+      <c r="C638" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D638" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A639" s="8">
+        <v>638</v>
+      </c>
+      <c r="B639" s="9">
+        <v>428</v>
+      </c>
+      <c r="C639" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="D639" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A640" s="8">
+        <v>639</v>
+      </c>
+      <c r="B640" s="9">
+        <v>428</v>
+      </c>
+      <c r="C640" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="D640" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A641" s="8">
+        <v>640</v>
+      </c>
+      <c r="B641" s="9">
+        <v>428</v>
+      </c>
+      <c r="C641" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="D641" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A642" s="8">
+        <v>641</v>
+      </c>
+      <c r="B642" s="9">
+        <v>428</v>
+      </c>
+      <c r="C642" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="D642" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A643" s="8">
+        <v>642</v>
+      </c>
+      <c r="B643" s="9">
+        <v>429</v>
+      </c>
+      <c r="C643" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D643" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A644" s="8">
+        <v>643</v>
+      </c>
+      <c r="B644" s="9">
+        <v>430</v>
+      </c>
+      <c r="C644" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="D644" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A645" s="8">
+        <v>644</v>
+      </c>
+      <c r="B645" s="9">
+        <v>431</v>
+      </c>
+      <c r="C645" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="D645" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A646" s="8">
+        <v>645</v>
+      </c>
+      <c r="B646" s="9">
+        <v>432</v>
+      </c>
+      <c r="C646" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="D646" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A647" s="8">
+        <v>646</v>
+      </c>
+      <c r="B647" s="9">
+        <v>433</v>
+      </c>
+      <c r="C647" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D647" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A648" s="8">
+        <v>647</v>
+      </c>
+      <c r="B648" s="9">
+        <v>433</v>
+      </c>
+      <c r="C648" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="D648" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A649" s="8">
+        <v>648</v>
+      </c>
+      <c r="B649" s="9">
+        <v>433</v>
+      </c>
+      <c r="C649" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D649" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A650" s="8">
+        <v>649</v>
+      </c>
+      <c r="B650" s="9">
+        <v>434</v>
+      </c>
+      <c r="C650" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="D650" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A651" s="8">
+        <v>650</v>
+      </c>
+      <c r="B651" s="9">
+        <v>435</v>
+      </c>
+      <c r="C651" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="D651" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A652" s="8">
+        <v>651</v>
+      </c>
+      <c r="B652" s="9">
+        <v>436</v>
+      </c>
+      <c r="C652" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="D652" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A653" s="8">
+        <v>652</v>
+      </c>
+      <c r="B653" s="9">
+        <v>436</v>
+      </c>
+      <c r="C653" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D653" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A654" s="8">
+        <v>653</v>
+      </c>
+      <c r="B654" s="9">
+        <v>437</v>
+      </c>
+      <c r="C654" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="D654" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A655" s="8">
+        <v>654</v>
+      </c>
+      <c r="B655" s="9">
+        <v>438</v>
+      </c>
+      <c r="C655" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="D655" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A656" s="8">
+        <v>655</v>
+      </c>
+      <c r="B656" s="9">
+        <v>438</v>
+      </c>
+      <c r="C656" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D656" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A657" s="8">
+        <v>656</v>
+      </c>
+      <c r="B657" s="9">
+        <v>439</v>
+      </c>
+      <c r="C657" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="D657" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A658" s="8">
+        <v>657</v>
+      </c>
+      <c r="B658" s="9">
+        <v>440</v>
+      </c>
+      <c r="C658" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D658" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A659" s="8">
+        <v>658</v>
+      </c>
+      <c r="B659" s="9">
+        <v>441</v>
+      </c>
+      <c r="C659" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="D659" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A660" s="8">
+        <v>659</v>
+      </c>
+      <c r="B660" s="9">
+        <v>442</v>
+      </c>
+      <c r="C660" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="D660" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A661" s="8">
+        <v>660</v>
+      </c>
+      <c r="B661" s="9">
+        <v>442</v>
+      </c>
+      <c r="C661" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="D661" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A662" s="8">
+        <v>661</v>
+      </c>
+      <c r="B662" s="9">
+        <v>443</v>
+      </c>
+      <c r="C662" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D662" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A663" s="8">
+        <v>662</v>
+      </c>
+      <c r="B663" s="9">
+        <v>444</v>
+      </c>
+      <c r="C663" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="D663" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A664" s="8">
+        <v>663</v>
+      </c>
+      <c r="B664" s="9">
+        <v>445</v>
+      </c>
+      <c r="C664" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="D664" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A665" s="8">
+        <v>664</v>
+      </c>
+      <c r="B665" s="9">
+        <v>445</v>
+      </c>
+      <c r="C665" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="D665" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A666" s="8">
+        <v>665</v>
+      </c>
+      <c r="B666" s="9">
+        <v>446</v>
+      </c>
+      <c r="C666" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D666" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A667" s="8">
+        <v>666</v>
+      </c>
+      <c r="B667" s="9">
+        <v>447</v>
+      </c>
+      <c r="C667" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="D667" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A668" s="8">
+        <v>667</v>
+      </c>
+      <c r="B668" s="9">
+        <v>447</v>
+      </c>
+      <c r="C668" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="D668" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A669" s="8">
+        <v>668</v>
+      </c>
+      <c r="B669" s="9">
+        <v>447</v>
+      </c>
+      <c r="C669" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="D669" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A670" s="8">
+        <v>669</v>
+      </c>
+      <c r="B670" s="9">
+        <v>447</v>
+      </c>
+      <c r="C670" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D670" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A671" s="8">
+        <v>670</v>
+      </c>
+      <c r="B671" s="9">
+        <v>448</v>
+      </c>
+      <c r="C671" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="D671" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A672" s="8">
+        <v>671</v>
+      </c>
+      <c r="B672" s="9">
+        <v>449</v>
+      </c>
+      <c r="C672" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="D672" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A673" s="8">
+        <v>672</v>
+      </c>
+      <c r="B673" s="9">
+        <v>450</v>
+      </c>
+      <c r="C673" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="D673" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A674" s="8">
+        <v>673</v>
+      </c>
+      <c r="B674" s="9">
+        <v>451</v>
+      </c>
+      <c r="C674" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D674" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A675" s="8">
+        <v>674</v>
+      </c>
+      <c r="B675" s="9">
+        <v>451</v>
+      </c>
+      <c r="C675" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D675" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A676" s="8">
+        <v>675</v>
+      </c>
+      <c r="B676" s="9">
+        <v>452</v>
+      </c>
+      <c r="C676" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="D676" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A677" s="8">
+        <v>676</v>
+      </c>
+      <c r="B677" s="9">
+        <v>453</v>
+      </c>
+      <c r="C677" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="D677" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A678" s="8">
+        <v>677</v>
+      </c>
+      <c r="B678" s="9">
+        <v>453</v>
+      </c>
+      <c r="C678" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="D678" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A679" s="8">
+        <v>678</v>
+      </c>
+      <c r="B679" s="9">
+        <v>454</v>
+      </c>
+      <c r="C679" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D679" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A680" s="8">
+        <v>679</v>
+      </c>
+      <c r="B680" s="9">
+        <v>455</v>
+      </c>
+      <c r="C680" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="D680" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A681" s="8">
+        <v>680</v>
+      </c>
+      <c r="B681" s="9">
+        <v>456</v>
+      </c>
+      <c r="C681" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D681" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A682" s="8">
+        <v>681</v>
+      </c>
+      <c r="B682" s="9">
+        <v>456</v>
+      </c>
+      <c r="C682" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D682" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A683" s="8">
+        <v>682</v>
+      </c>
+      <c r="B683" s="9">
+        <v>457</v>
+      </c>
+      <c r="C683" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D683" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A684" s="8">
+        <v>683</v>
+      </c>
+      <c r="B684" s="9">
+        <v>458</v>
+      </c>
+      <c r="C684" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="D684" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A685" s="8">
+        <v>684</v>
+      </c>
+      <c r="B685" s="9">
+        <v>459</v>
+      </c>
+      <c r="C685" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D685" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A686" s="8">
+        <v>685</v>
+      </c>
+      <c r="B686" s="9">
+        <v>460</v>
+      </c>
+      <c r="C686" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="D686" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A687" s="8">
+        <v>686</v>
+      </c>
+      <c r="B687" s="9">
+        <v>461</v>
+      </c>
+      <c r="C687" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="D687" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A688" s="8">
+        <v>687</v>
+      </c>
+      <c r="B688" s="9">
+        <v>462</v>
+      </c>
+      <c r="C688" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D688" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A689" s="8">
+        <v>688</v>
+      </c>
+      <c r="B689" s="9">
+        <v>463</v>
+      </c>
+      <c r="C689" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="D689" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A690" s="8">
+        <v>689</v>
+      </c>
+      <c r="B690" s="9">
+        <v>463</v>
+      </c>
+      <c r="C690" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D690" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A691" s="8">
+        <v>690</v>
+      </c>
+      <c r="B691" s="9">
+        <v>464</v>
+      </c>
+      <c r="C691" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="D691" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A692" s="8">
+        <v>691</v>
+      </c>
+      <c r="B692" s="9">
+        <v>464</v>
+      </c>
+      <c r="C692" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="D692" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A693" s="8">
+        <v>692</v>
+      </c>
+      <c r="B693" s="9">
+        <v>464</v>
+      </c>
+      <c r="C693" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D693" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A694" s="8">
+        <v>693</v>
+      </c>
+      <c r="B694" s="9">
+        <v>465</v>
+      </c>
+      <c r="C694" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="D694" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A695" s="8">
+        <v>694</v>
+      </c>
+      <c r="B695" s="9">
+        <v>466</v>
+      </c>
+      <c r="C695" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="D695" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A696" s="8">
+        <v>695</v>
+      </c>
+      <c r="B696" s="9">
+        <v>466</v>
+      </c>
+      <c r="C696" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="D696" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A697" s="8">
+        <v>696</v>
+      </c>
+      <c r="B697" s="9">
+        <v>467</v>
+      </c>
+      <c r="C697" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="D697" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A698" s="8">
+        <v>697</v>
+      </c>
+      <c r="B698" s="9">
+        <v>468</v>
+      </c>
+      <c r="C698" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="D698" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A699" s="8">
+        <v>698</v>
+      </c>
+      <c r="B699" s="9">
+        <v>469</v>
+      </c>
+      <c r="C699" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="D699" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A700" s="8">
+        <v>699</v>
+      </c>
+      <c r="B700" s="9">
+        <v>470</v>
+      </c>
+      <c r="C700" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D700" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A701" s="8">
+        <v>700</v>
+      </c>
+      <c r="B701" s="9">
+        <v>470</v>
+      </c>
+      <c r="C701" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="D701" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A702" s="8">
+        <v>701</v>
+      </c>
+      <c r="B702" s="9">
+        <v>471</v>
+      </c>
+      <c r="C702" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="D702" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A703" s="8">
+        <v>702</v>
+      </c>
+      <c r="B703" s="9">
+        <v>471</v>
+      </c>
+      <c r="C703" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="D703" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A704" s="8">
+        <v>703</v>
+      </c>
+      <c r="B704" s="9">
+        <v>471</v>
+      </c>
+      <c r="C704" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="D704" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A705" s="8">
+        <v>704</v>
+      </c>
+      <c r="B705" s="9">
+        <v>472</v>
+      </c>
+      <c r="C705" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="D705" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A706" s="8">
+        <v>705</v>
+      </c>
+      <c r="B706" s="9">
+        <v>472</v>
+      </c>
+      <c r="C706" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="D706" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A707" s="8">
+        <v>706</v>
+      </c>
+      <c r="B707" s="9">
+        <v>472</v>
+      </c>
+      <c r="C707" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="D707" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A708" s="8">
+        <v>707</v>
+      </c>
+      <c r="B708" s="9">
+        <v>472</v>
+      </c>
+      <c r="C708" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="D708" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A709" s="8">
+        <v>708</v>
+      </c>
+      <c r="B709" s="9">
+        <v>473</v>
+      </c>
+      <c r="C709" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="D709" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A710" s="8">
+        <v>709</v>
+      </c>
+      <c r="B710" s="9">
+        <v>474</v>
+      </c>
+      <c r="C710" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D710" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A711" s="8">
+        <v>710</v>
+      </c>
+      <c r="B711" s="9">
+        <v>474</v>
+      </c>
+      <c r="C711" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="D711" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A712" s="8">
+        <v>711</v>
+      </c>
+      <c r="B712" s="9">
+        <v>475</v>
+      </c>
+      <c r="C712" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D712" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A713" s="8">
+        <v>712</v>
+      </c>
+      <c r="B713" s="9">
+        <v>475</v>
+      </c>
+      <c r="C713" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="D713" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A714" s="8">
+        <v>713</v>
+      </c>
+      <c r="B714" s="9">
+        <v>476</v>
+      </c>
+      <c r="C714" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="D714" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A715" s="8">
+        <v>714</v>
+      </c>
+      <c r="B715" s="9">
+        <v>476</v>
+      </c>
+      <c r="C715" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="D715" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A716" s="8">
+        <v>715</v>
+      </c>
+      <c r="B716" s="9">
+        <v>476</v>
+      </c>
+      <c r="C716" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="D716" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A717" s="8">
+        <v>716</v>
+      </c>
+      <c r="B717" s="9">
+        <v>476</v>
+      </c>
+      <c r="C717" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D717" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A718" s="8">
+        <v>717</v>
+      </c>
+      <c r="B718" s="9">
+        <v>477</v>
+      </c>
+      <c r="C718" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="D718" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A719" s="8">
+        <v>718</v>
+      </c>
+      <c r="B719" s="9">
+        <v>477</v>
+      </c>
+      <c r="C719" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D719" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A720" s="8">
+        <v>719</v>
+      </c>
+      <c r="B720" s="9">
+        <v>478</v>
+      </c>
+      <c r="C720" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D720" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A721" s="8">
+        <v>720</v>
+      </c>
+      <c r="B721" s="9">
+        <v>478</v>
+      </c>
+      <c r="C721" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="D721" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A722" s="8">
+        <v>721</v>
+      </c>
+      <c r="B722" s="9">
+        <v>479</v>
+      </c>
+      <c r="C722" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="D722" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A723" s="8">
+        <v>722</v>
+      </c>
+      <c r="B723" s="9">
+        <v>479</v>
+      </c>
+      <c r="C723" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D723" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A724" s="8">
+        <v>723</v>
+      </c>
+      <c r="B724" s="9">
+        <v>480</v>
+      </c>
+      <c r="C724" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="D724" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A725" s="8">
+        <v>724</v>
+      </c>
+      <c r="B725" s="9">
+        <v>481</v>
+      </c>
+      <c r="C725" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D725" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A726" s="8">
+        <v>725</v>
+      </c>
+      <c r="B726" s="9">
+        <v>481</v>
+      </c>
+      <c r="C726" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D726" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A727" s="8">
+        <v>726</v>
+      </c>
+      <c r="B727" s="9">
+        <v>482</v>
+      </c>
+      <c r="C727" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D727" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A728" s="8">
+        <v>727</v>
+      </c>
+      <c r="B728" s="9">
+        <v>483</v>
+      </c>
+      <c r="C728" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D728" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A729" s="8">
+        <v>728</v>
+      </c>
+      <c r="B729" s="9">
+        <v>484</v>
+      </c>
+      <c r="C729" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D729" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A730" s="8">
+        <v>729</v>
+      </c>
+      <c r="B730" s="9">
+        <v>485</v>
+      </c>
+      <c r="C730" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="D730" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A731" s="8">
+        <v>730</v>
+      </c>
+      <c r="B731" s="9">
+        <v>485</v>
+      </c>
+      <c r="C731" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="D731" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" ht="346.5" x14ac:dyDescent="0.25">
+      <c r="A732" s="8">
+        <v>731</v>
+      </c>
+      <c r="B732" s="9">
+        <v>486</v>
+      </c>
+      <c r="C732" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="D732" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A733" s="8">
+        <v>732</v>
+      </c>
+      <c r="B733" s="9">
+        <v>486</v>
+      </c>
+      <c r="C733" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="D733" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A734" s="8">
+        <v>733</v>
+      </c>
+      <c r="B734" s="9">
+        <v>487</v>
+      </c>
+      <c r="C734" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="D734" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A735" s="8">
+        <v>734</v>
+      </c>
+      <c r="B735" s="9">
+        <v>488</v>
+      </c>
+      <c r="C735" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="D735" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A736" s="8">
+        <v>735</v>
+      </c>
+      <c r="B736" s="9">
+        <v>489</v>
+      </c>
+      <c r="C736" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="D736" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A737" s="8">
+        <v>736</v>
+      </c>
+      <c r="B737" s="9">
+        <v>490</v>
+      </c>
+      <c r="C737" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="D737" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A738" s="8">
+        <v>737</v>
+      </c>
+      <c r="B738" s="9">
+        <v>491</v>
+      </c>
+      <c r="C738" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="D738" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A739" s="8">
+        <v>738</v>
+      </c>
+      <c r="B739" s="9">
+        <v>492</v>
+      </c>
+      <c r="C739" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D739" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A740" s="8">
+        <v>739</v>
+      </c>
+      <c r="B740" s="9">
+        <v>493</v>
+      </c>
+      <c r="C740" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="D740" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A741" s="8">
+        <v>740</v>
+      </c>
+      <c r="B741" s="9">
+        <v>494</v>
+      </c>
+      <c r="C741" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D741" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A742" s="8">
+        <v>741</v>
+      </c>
+      <c r="B742" s="9">
+        <v>495</v>
+      </c>
+      <c r="C742" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="D742" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A743" s="8">
+        <v>742</v>
+      </c>
+      <c r="B743" s="9">
+        <v>496</v>
+      </c>
+      <c r="C743" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D743" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A744" s="8">
+        <v>743</v>
+      </c>
+      <c r="B744" s="9">
+        <v>496</v>
+      </c>
+      <c r="C744" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="D744" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A745" s="8">
+        <v>744</v>
+      </c>
+      <c r="B745" s="9">
+        <v>497</v>
+      </c>
+      <c r="C745" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D745" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A746" s="8">
+        <v>745</v>
+      </c>
+      <c r="B746" s="9">
+        <v>497</v>
+      </c>
+      <c r="C746" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D746" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A747" s="8">
+        <v>746</v>
+      </c>
+      <c r="B747" s="9">
+        <v>498</v>
+      </c>
+      <c r="C747" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="D747" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A748" s="8">
+        <v>747</v>
+      </c>
+      <c r="B748" s="9">
+        <v>498</v>
+      </c>
+      <c r="C748" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="D748" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A749" s="8">
+        <v>748</v>
+      </c>
+      <c r="B749" s="9">
+        <v>499</v>
+      </c>
+      <c r="C749" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D749" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A750" s="8">
+        <v>749</v>
+      </c>
+      <c r="B750" s="9">
+        <v>500</v>
+      </c>
+      <c r="C750" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="D750" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A751" s="8">
+        <v>750</v>
+      </c>
+      <c r="B751" s="9">
+        <v>502</v>
+      </c>
+      <c r="C751" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="D751" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A752" s="8">
+        <v>751</v>
+      </c>
+      <c r="B752" s="9">
+        <v>503</v>
+      </c>
+      <c r="C752" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D752" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A753" s="8">
+        <v>752</v>
+      </c>
+      <c r="B753" s="9">
+        <v>504</v>
+      </c>
+      <c r="C753" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="D753" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A754" s="8">
+        <v>753</v>
+      </c>
+      <c r="B754" s="9">
+        <v>505</v>
+      </c>
+      <c r="C754" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="D754" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A755" s="8">
+        <v>754</v>
+      </c>
+      <c r="B755" s="9">
+        <v>506</v>
+      </c>
+      <c r="C755" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="D755" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A756" s="8">
+        <v>755</v>
+      </c>
+      <c r="B756" s="9">
+        <v>506</v>
+      </c>
+      <c r="C756" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="D756" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A757" s="8">
+        <v>756</v>
+      </c>
+      <c r="B757" s="9">
+        <v>506</v>
+      </c>
+      <c r="C757" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="D757" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A758" s="8">
+        <v>757</v>
+      </c>
+      <c r="B758" s="9">
+        <v>506</v>
+      </c>
+      <c r="C758" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D758" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A759" s="8">
+        <v>758</v>
+      </c>
+      <c r="B759" s="9">
+        <v>507</v>
+      </c>
+      <c r="C759" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="D759" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A760" s="8">
+        <v>759</v>
+      </c>
+      <c r="B760" s="9">
+        <v>507</v>
+      </c>
+      <c r="C760" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D760" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A761" s="8">
+        <v>760</v>
+      </c>
+      <c r="B761" s="9">
+        <v>507</v>
+      </c>
+      <c r="C761" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="D761" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A762" s="8">
+        <v>761</v>
+      </c>
+      <c r="B762" s="9">
+        <v>508</v>
+      </c>
+      <c r="C762" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D762" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A763" s="8">
+        <v>762</v>
+      </c>
+      <c r="B763" s="9">
+        <v>508</v>
+      </c>
+      <c r="C763" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="D763" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A764" s="8">
+        <v>763</v>
+      </c>
+      <c r="B764" s="9">
+        <v>508</v>
+      </c>
+      <c r="C764" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="D764" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A765" s="8">
+        <v>764</v>
+      </c>
+      <c r="B765" s="9">
+        <v>509</v>
+      </c>
+      <c r="C765" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="D765" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A766" s="8">
+        <v>765</v>
+      </c>
+      <c r="B766" s="9">
+        <v>510</v>
+      </c>
+      <c r="C766" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D766" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A767" s="8">
+        <v>766</v>
+      </c>
+      <c r="B767" s="9">
+        <v>512</v>
+      </c>
+      <c r="C767" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D767" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A768" s="8">
+        <v>767</v>
+      </c>
+      <c r="B768" s="9">
+        <v>513</v>
+      </c>
+      <c r="C768" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="D768" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A769" s="8">
+        <v>768</v>
+      </c>
+      <c r="B769" s="9">
+        <v>513</v>
+      </c>
+      <c r="C769" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D769" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A770" s="8">
+        <v>769</v>
+      </c>
+      <c r="B770" s="9">
+        <v>513</v>
+      </c>
+      <c r="C770" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="D770" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A771" s="8">
+        <v>770</v>
+      </c>
+      <c r="B771" s="9">
+        <v>514</v>
+      </c>
+      <c r="C771" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D771" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A772" s="8">
+        <v>771</v>
+      </c>
+      <c r="B772" s="9">
+        <v>515</v>
+      </c>
+      <c r="C772" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D772" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A773" s="8">
+        <v>772</v>
+      </c>
+      <c r="B773" s="9">
+        <v>516</v>
+      </c>
+      <c r="C773" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D773" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A774" s="8">
+        <v>773</v>
+      </c>
+      <c r="B774" s="9">
+        <v>517</v>
+      </c>
+      <c r="C774" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D774" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A775" s="8">
+        <v>774</v>
+      </c>
+      <c r="B775" s="9">
+        <v>518</v>
+      </c>
+      <c r="C775" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D775" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A776" s="8">
+        <v>775</v>
+      </c>
+      <c r="B776" s="9">
+        <v>519</v>
+      </c>
+      <c r="C776" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="D776" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A777" s="8">
+        <v>776</v>
+      </c>
+      <c r="B777" s="9">
+        <v>520</v>
+      </c>
+      <c r="C777" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="D777" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A778" s="8">
+        <v>777</v>
+      </c>
+      <c r="B778" s="9">
+        <v>520</v>
+      </c>
+      <c r="C778" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="D778" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A779" s="8">
+        <v>778</v>
+      </c>
+      <c r="B779" s="9">
+        <v>520</v>
+      </c>
+      <c r="C779" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="D779" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A780" s="8">
+        <v>779</v>
+      </c>
+      <c r="B780" s="9">
+        <v>521</v>
+      </c>
+      <c r="C780" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="D780" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A781" s="8">
+        <v>780</v>
+      </c>
+      <c r="B781" s="9">
+        <v>522</v>
+      </c>
+      <c r="C781" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="D781" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A782" s="8">
+        <v>781</v>
+      </c>
+      <c r="B782" s="9">
+        <v>523</v>
+      </c>
+      <c r="C782" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D782" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A783" s="8">
+        <v>782</v>
+      </c>
+      <c r="B783" s="9">
+        <v>524</v>
+      </c>
+      <c r="C783" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="D783" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A784" s="8">
+        <v>783</v>
+      </c>
+      <c r="B784" s="9">
+        <v>524</v>
+      </c>
+      <c r="C784" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="D784" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A785" s="8">
+        <v>784</v>
+      </c>
+      <c r="B785" s="9">
+        <v>525</v>
+      </c>
+      <c r="C785" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="D785" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A786" s="8">
+        <v>785</v>
+      </c>
+      <c r="B786" s="9">
+        <v>525</v>
+      </c>
+      <c r="C786" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="D786" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A787" s="8">
+        <v>786</v>
+      </c>
+      <c r="B787" s="9">
+        <v>526</v>
+      </c>
+      <c r="C787" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="D787" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A788" s="8">
+        <v>787</v>
+      </c>
+      <c r="B788" s="9">
+        <v>527</v>
+      </c>
+      <c r="C788" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="D788" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A789" s="8">
+        <v>788</v>
+      </c>
+      <c r="B789" s="9">
+        <v>528</v>
+      </c>
+      <c r="C789" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="D789" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A790" s="8">
+        <v>789</v>
+      </c>
+      <c r="B790" s="9">
+        <v>529</v>
+      </c>
+      <c r="C790" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="D790" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A791" s="8">
+        <v>790</v>
+      </c>
+      <c r="B791" s="9">
+        <v>529</v>
+      </c>
+      <c r="C791" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="D791" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A792" s="8">
+        <v>791</v>
+      </c>
+      <c r="B792" s="9">
+        <v>530</v>
+      </c>
+      <c r="C792" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="D792" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A793" s="8">
+        <v>792</v>
+      </c>
+      <c r="B793" s="9">
+        <v>531</v>
+      </c>
+      <c r="C793" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="D793" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A794" s="8">
+        <v>793</v>
+      </c>
+      <c r="B794" s="9">
+        <v>532</v>
+      </c>
+      <c r="C794" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="D794" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A795" s="8">
+        <v>794</v>
+      </c>
+      <c r="B795" s="9">
+        <v>533</v>
+      </c>
+      <c r="C795" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D795" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A796" s="8">
+        <v>795</v>
+      </c>
+      <c r="B796" s="9">
+        <v>534</v>
+      </c>
+      <c r="C796" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="D796" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A797" s="8">
+        <v>796</v>
+      </c>
+      <c r="B797" s="9">
+        <v>535</v>
+      </c>
+      <c r="C797" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D797" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A798" s="8">
+        <v>797</v>
+      </c>
+      <c r="B798" s="9">
+        <v>535</v>
+      </c>
+      <c r="C798" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="D798" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A799" s="8">
+        <v>798</v>
+      </c>
+      <c r="B799" s="9">
+        <v>535</v>
+      </c>
+      <c r="C799" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D799" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A800" s="8">
+        <v>799</v>
+      </c>
+      <c r="B800" s="9">
+        <v>535</v>
+      </c>
+      <c r="C800" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="D800" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A801" s="8">
+        <v>800</v>
+      </c>
+      <c r="B801" s="9">
+        <v>536</v>
+      </c>
+      <c r="C801" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="D801" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="D1:D701"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10672,13 +14068,1835 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D505"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="83.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="12"/>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
+    </row>
+    <row r="119" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
+    </row>
+    <row r="123" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+    </row>
+    <row r="127" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+    </row>
+    <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="12"/>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="12"/>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="12"/>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="12"/>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="12"/>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="12"/>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+    </row>
+    <row r="155" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="12"/>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="12"/>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
+    </row>
+    <row r="167" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+    </row>
+    <row r="168" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+    </row>
+    <row r="169" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="12"/>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
+    </row>
+    <row r="172" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
+    </row>
+    <row r="173" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
+    </row>
+    <row r="174" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+    </row>
+    <row r="175" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
+    </row>
+    <row r="176" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="12"/>
+    </row>
+    <row r="177" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="12"/>
+    </row>
+    <row r="178" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="12"/>
+    </row>
+    <row r="179" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="12"/>
+    </row>
+    <row r="180" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="12"/>
+    </row>
+    <row r="181" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="12"/>
+    </row>
+    <row r="182" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="12"/>
+    </row>
+    <row r="183" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="12"/>
+    </row>
+    <row r="184" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="12"/>
+    </row>
+    <row r="185" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="12"/>
+    </row>
+    <row r="186" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="12"/>
+    </row>
+    <row r="187" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="12"/>
+    </row>
+    <row r="188" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="12"/>
+    </row>
+    <row r="189" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="12"/>
+    </row>
+    <row r="190" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="12"/>
+    </row>
+    <row r="191" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="12"/>
+    </row>
+    <row r="192" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="12"/>
+    </row>
+    <row r="193" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="12"/>
+    </row>
+    <row r="194" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="12"/>
+    </row>
+    <row r="195" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="12"/>
+    </row>
+    <row r="196" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="12"/>
+    </row>
+    <row r="197" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="12"/>
+    </row>
+    <row r="198" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="12"/>
+    </row>
+    <row r="199" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="12"/>
+    </row>
+    <row r="200" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="12"/>
+    </row>
+    <row r="201" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="12"/>
+    </row>
+    <row r="202" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="12"/>
+    </row>
+    <row r="203" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="12"/>
+    </row>
+    <row r="204" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="12"/>
+    </row>
+    <row r="205" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="12"/>
+    </row>
+    <row r="206" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="12"/>
+    </row>
+    <row r="207" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="12"/>
+    </row>
+    <row r="208" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="12"/>
+    </row>
+    <row r="209" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="12"/>
+    </row>
+    <row r="210" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="12"/>
+    </row>
+    <row r="211" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="12"/>
+    </row>
+    <row r="212" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="12"/>
+    </row>
+    <row r="213" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="12"/>
+    </row>
+    <row r="214" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="12"/>
+    </row>
+    <row r="215" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="12"/>
+    </row>
+    <row r="216" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="12"/>
+    </row>
+    <row r="217" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="12"/>
+    </row>
+    <row r="218" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="12"/>
+    </row>
+    <row r="219" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="12"/>
+    </row>
+    <row r="220" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="12"/>
+    </row>
+    <row r="221" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="12"/>
+    </row>
+    <row r="222" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="12"/>
+    </row>
+    <row r="223" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="12"/>
+    </row>
+    <row r="224" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="12"/>
+    </row>
+    <row r="225" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="12"/>
+    </row>
+    <row r="226" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="12"/>
+    </row>
+    <row r="227" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="12"/>
+    </row>
+    <row r="228" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="12"/>
+    </row>
+    <row r="229" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="12"/>
+    </row>
+    <row r="230" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="12"/>
+    </row>
+    <row r="231" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="12"/>
+    </row>
+    <row r="232" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="12"/>
+    </row>
+    <row r="233" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="12"/>
+    </row>
+    <row r="234" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="12"/>
+    </row>
+    <row r="235" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="12"/>
+    </row>
+    <row r="236" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="12"/>
+    </row>
+    <row r="237" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="12"/>
+    </row>
+    <row r="238" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="12"/>
+    </row>
+    <row r="239" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="12"/>
+    </row>
+    <row r="240" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="12"/>
+    </row>
+    <row r="241" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="12"/>
+    </row>
+    <row r="242" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="12"/>
+    </row>
+    <row r="243" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="12"/>
+    </row>
+    <row r="244" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="12"/>
+    </row>
+    <row r="245" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="12"/>
+    </row>
+    <row r="246" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="12"/>
+    </row>
+    <row r="247" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="12"/>
+    </row>
+    <row r="248" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="12"/>
+    </row>
+    <row r="249" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="12"/>
+    </row>
+    <row r="250" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="12"/>
+    </row>
+    <row r="251" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="12"/>
+    </row>
+    <row r="252" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="12"/>
+    </row>
+    <row r="253" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="12"/>
+    </row>
+    <row r="254" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="12"/>
+    </row>
+    <row r="255" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="12"/>
+    </row>
+    <row r="256" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="12"/>
+    </row>
+    <row r="257" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="12"/>
+    </row>
+    <row r="258" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="12"/>
+    </row>
+    <row r="259" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="12"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="12"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="12"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="12"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="12"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="12"/>
+    </row>
+    <row r="265" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="12"/>
+    </row>
+    <row r="266" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="12"/>
+    </row>
+    <row r="267" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="12"/>
+    </row>
+    <row r="268" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="12"/>
+    </row>
+    <row r="269" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="12"/>
+    </row>
+    <row r="270" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="12"/>
+    </row>
+    <row r="271" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="12"/>
+    </row>
+    <row r="272" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="12"/>
+    </row>
+    <row r="273" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="12"/>
+    </row>
+    <row r="274" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="12"/>
+    </row>
+    <row r="275" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="12"/>
+    </row>
+    <row r="276" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="12"/>
+    </row>
+    <row r="277" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="12"/>
+    </row>
+    <row r="278" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="12"/>
+    </row>
+    <row r="279" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="12"/>
+    </row>
+    <row r="280" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="12"/>
+    </row>
+    <row r="281" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="12"/>
+    </row>
+    <row r="282" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="12"/>
+    </row>
+    <row r="283" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A283" s="12"/>
+    </row>
+    <row r="284" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="12"/>
+    </row>
+    <row r="285" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A285" s="12"/>
+    </row>
+    <row r="286" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="12"/>
+    </row>
+    <row r="287" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="12"/>
+    </row>
+    <row r="288" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="12"/>
+    </row>
+    <row r="289" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="12"/>
+    </row>
+    <row r="290" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="12"/>
+    </row>
+    <row r="291" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A291" s="12"/>
+    </row>
+    <row r="292" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A292" s="12"/>
+    </row>
+    <row r="293" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="12"/>
+    </row>
+    <row r="294" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A294" s="12"/>
+    </row>
+    <row r="295" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="12"/>
+    </row>
+    <row r="296" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="12"/>
+    </row>
+    <row r="297" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A297" s="12"/>
+    </row>
+    <row r="298" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="12"/>
+    </row>
+    <row r="299" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="12"/>
+    </row>
+    <row r="300" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A300" s="12"/>
+    </row>
+    <row r="301" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A301" s="12"/>
+    </row>
+    <row r="302" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A302" s="12"/>
+    </row>
+    <row r="303" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A303" s="12"/>
+    </row>
+    <row r="304" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A304" s="12"/>
+    </row>
+    <row r="305" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="12"/>
+    </row>
+    <row r="306" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A306" s="12"/>
+    </row>
+    <row r="307" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A307" s="12"/>
+    </row>
+    <row r="308" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A308" s="12"/>
+    </row>
+    <row r="309" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A309" s="12"/>
+    </row>
+    <row r="310" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A310" s="12"/>
+    </row>
+    <row r="311" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A311" s="12"/>
+    </row>
+    <row r="312" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A312" s="12"/>
+    </row>
+    <row r="313" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A313" s="12"/>
+    </row>
+    <row r="314" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A314" s="12"/>
+    </row>
+    <row r="315" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A315" s="12"/>
+    </row>
+    <row r="316" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A316" s="12"/>
+    </row>
+    <row r="317" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A317" s="12"/>
+    </row>
+    <row r="318" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A318" s="12"/>
+    </row>
+    <row r="319" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A319" s="12"/>
+    </row>
+    <row r="320" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A320" s="12"/>
+    </row>
+    <row r="321" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A321" s="12"/>
+    </row>
+    <row r="322" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A322" s="12"/>
+    </row>
+    <row r="323" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A323" s="12"/>
+    </row>
+    <row r="324" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A324" s="12"/>
+    </row>
+    <row r="325" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A325" s="12"/>
+    </row>
+    <row r="326" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A326" s="12"/>
+    </row>
+    <row r="327" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A327" s="12"/>
+    </row>
+    <row r="328" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A328" s="12"/>
+    </row>
+    <row r="329" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A329" s="12"/>
+    </row>
+    <row r="330" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A330" s="12"/>
+    </row>
+    <row r="331" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A331" s="12"/>
+    </row>
+    <row r="332" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A332" s="12"/>
+    </row>
+    <row r="333" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A333" s="12"/>
+    </row>
+    <row r="334" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A334" s="12"/>
+    </row>
+    <row r="335" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A335" s="12"/>
+    </row>
+    <row r="336" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A336" s="12"/>
+    </row>
+    <row r="337" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A337" s="12"/>
+    </row>
+    <row r="338" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A338" s="12"/>
+    </row>
+    <row r="339" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A339" s="12"/>
+    </row>
+    <row r="340" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A340" s="12"/>
+    </row>
+    <row r="341" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A341" s="12"/>
+    </row>
+    <row r="342" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A342" s="12"/>
+    </row>
+    <row r="343" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A343" s="12"/>
+    </row>
+    <row r="344" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A344" s="12"/>
+    </row>
+    <row r="345" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A345" s="12"/>
+    </row>
+    <row r="346" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A346" s="12"/>
+    </row>
+    <row r="347" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A347" s="12"/>
+    </row>
+    <row r="348" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A348" s="12"/>
+    </row>
+    <row r="349" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A349" s="12"/>
+    </row>
+    <row r="350" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A350" s="12"/>
+    </row>
+    <row r="351" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A351" s="12"/>
+    </row>
+    <row r="352" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A352" s="12"/>
+    </row>
+    <row r="353" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A353" s="12"/>
+    </row>
+    <row r="354" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A354" s="12"/>
+    </row>
+    <row r="355" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A355" s="12"/>
+    </row>
+    <row r="356" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A356" s="12"/>
+    </row>
+    <row r="357" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A357" s="12"/>
+    </row>
+    <row r="358" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A358" s="12"/>
+    </row>
+    <row r="359" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A359" s="12"/>
+    </row>
+    <row r="360" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A360" s="12"/>
+    </row>
+    <row r="361" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A361" s="12"/>
+    </row>
+    <row r="362" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A362" s="12"/>
+    </row>
+    <row r="363" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A363" s="12"/>
+    </row>
+    <row r="364" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A364" s="12"/>
+    </row>
+    <row r="365" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A365" s="12"/>
+    </row>
+    <row r="366" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A366" s="12"/>
+    </row>
+    <row r="367" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A367" s="12"/>
+    </row>
+    <row r="368" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A368" s="12"/>
+    </row>
+    <row r="369" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A369" s="12"/>
+    </row>
+    <row r="370" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A370" s="12"/>
+    </row>
+    <row r="371" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A371" s="12"/>
+    </row>
+    <row r="372" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A372" s="12"/>
+    </row>
+    <row r="373" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A373" s="12"/>
+    </row>
+    <row r="374" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A374" s="12"/>
+    </row>
+    <row r="375" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A375" s="12"/>
+    </row>
+    <row r="376" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A376" s="12"/>
+    </row>
+    <row r="377" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A377" s="12"/>
+    </row>
+    <row r="378" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A378" s="12"/>
+    </row>
+    <row r="379" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A379" s="12"/>
+    </row>
+    <row r="380" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A380" s="12"/>
+    </row>
+    <row r="381" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A381" s="12"/>
+    </row>
+    <row r="382" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A382" s="12"/>
+    </row>
+    <row r="383" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A383" s="12"/>
+    </row>
+    <row r="384" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A384" s="12"/>
+    </row>
+    <row r="385" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A385" s="12"/>
+    </row>
+    <row r="386" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A386" s="12"/>
+    </row>
+    <row r="387" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A387" s="12"/>
+    </row>
+    <row r="388" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A388" s="12"/>
+    </row>
+    <row r="389" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A389" s="12"/>
+    </row>
+    <row r="390" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A390" s="12"/>
+    </row>
+    <row r="391" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A391" s="12"/>
+    </row>
+    <row r="392" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A392" s="12"/>
+    </row>
+    <row r="393" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A393" s="12"/>
+    </row>
+    <row r="394" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A394" s="12"/>
+    </row>
+    <row r="395" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A395" s="12"/>
+    </row>
+    <row r="396" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A396" s="12"/>
+    </row>
+    <row r="397" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A397" s="12"/>
+    </row>
+    <row r="398" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A398" s="12"/>
+    </row>
+    <row r="399" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A399" s="12"/>
+    </row>
+    <row r="400" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A400" s="12"/>
+    </row>
+    <row r="401" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A401" s="12"/>
+    </row>
+    <row r="402" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A402" s="12"/>
+    </row>
+    <row r="403" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A403" s="12"/>
+    </row>
+    <row r="404" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A404" s="12"/>
+    </row>
+    <row r="405" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A405" s="12"/>
+    </row>
+    <row r="406" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A406" s="12"/>
+    </row>
+    <row r="407" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A407" s="12"/>
+    </row>
+    <row r="408" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A408" s="12"/>
+    </row>
+    <row r="409" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A409" s="12"/>
+    </row>
+    <row r="410" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A410" s="12"/>
+    </row>
+    <row r="411" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A411" s="12"/>
+    </row>
+    <row r="412" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A412" s="12"/>
+    </row>
+    <row r="413" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A413" s="12"/>
+    </row>
+    <row r="414" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A414" s="12"/>
+    </row>
+    <row r="415" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A415" s="12"/>
+    </row>
+    <row r="416" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A416" s="12"/>
+    </row>
+    <row r="417" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A417" s="12"/>
+    </row>
+    <row r="418" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A418" s="12"/>
+    </row>
+    <row r="419" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A419" s="12"/>
+    </row>
+    <row r="420" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A420" s="12"/>
+    </row>
+    <row r="421" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A421" s="12"/>
+    </row>
+    <row r="422" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A422" s="12"/>
+    </row>
+    <row r="423" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A423" s="12"/>
+    </row>
+    <row r="424" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A424" s="12"/>
+    </row>
+    <row r="425" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A425" s="12"/>
+    </row>
+    <row r="426" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A426" s="12"/>
+    </row>
+    <row r="427" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A427" s="12"/>
+    </row>
+    <row r="428" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A428" s="12"/>
+    </row>
+    <row r="429" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A429" s="12"/>
+    </row>
+    <row r="430" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A430" s="12"/>
+    </row>
+    <row r="431" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A431" s="12"/>
+    </row>
+    <row r="432" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="12"/>
+    </row>
+    <row r="433" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A433" s="12"/>
+    </row>
+    <row r="434" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A434" s="12"/>
+    </row>
+    <row r="435" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A435" s="12"/>
+    </row>
+    <row r="436" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A436" s="12"/>
+    </row>
+    <row r="437" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A437" s="12"/>
+    </row>
+    <row r="438" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A438" s="12"/>
+    </row>
+    <row r="439" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A439" s="12"/>
+    </row>
+    <row r="440" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A440" s="12"/>
+    </row>
+    <row r="441" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A441" s="12"/>
+    </row>
+    <row r="442" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A442" s="12"/>
+    </row>
+    <row r="443" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A443" s="12"/>
+    </row>
+    <row r="444" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A444" s="12"/>
+    </row>
+    <row r="445" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A445" s="12"/>
+    </row>
+    <row r="446" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A446" s="12"/>
+    </row>
+    <row r="447" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A447" s="12"/>
+    </row>
+    <row r="448" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A448" s="12"/>
+    </row>
+    <row r="449" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A449" s="12"/>
+    </row>
+    <row r="450" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A450" s="12"/>
+    </row>
+    <row r="451" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="12"/>
+    </row>
+    <row r="452" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A452" s="12"/>
+    </row>
+    <row r="453" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A453" s="12"/>
+    </row>
+    <row r="454" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A454" s="12"/>
+    </row>
+    <row r="455" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A455" s="12"/>
+    </row>
+    <row r="456" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A456" s="12"/>
+    </row>
+    <row r="457" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A457" s="12"/>
+    </row>
+    <row r="458" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A458" s="12"/>
+    </row>
+    <row r="459" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A459" s="12"/>
+    </row>
+    <row r="460" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A460" s="12"/>
+    </row>
+    <row r="461" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A461" s="12"/>
+    </row>
+    <row r="462" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A462" s="12"/>
+    </row>
+    <row r="463" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A463" s="12"/>
+    </row>
+    <row r="464" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A464" s="12"/>
+    </row>
+    <row r="465" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A465" s="12"/>
+    </row>
+    <row r="466" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A466" s="12"/>
+    </row>
+    <row r="467" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A467" s="12"/>
+    </row>
+    <row r="468" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A468" s="12"/>
+    </row>
+    <row r="469" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A469" s="12"/>
+    </row>
+    <row r="470" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A470" s="12"/>
+    </row>
+    <row r="471" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A471" s="12"/>
+    </row>
+    <row r="472" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A472" s="12"/>
+    </row>
+    <row r="473" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A473" s="12"/>
+    </row>
+    <row r="474" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A474" s="12"/>
+    </row>
+    <row r="475" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A475" s="12"/>
+    </row>
+    <row r="476" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A476" s="12"/>
+    </row>
+    <row r="477" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A477" s="12"/>
+    </row>
+    <row r="478" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A478" s="12"/>
+    </row>
+    <row r="479" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A479" s="12"/>
+    </row>
+    <row r="480" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A480" s="12"/>
+    </row>
+    <row r="481" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A481" s="12"/>
+    </row>
+    <row r="482" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A482" s="12"/>
+    </row>
+    <row r="483" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A483" s="12"/>
+    </row>
+    <row r="484" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A484" s="12"/>
+    </row>
+    <row r="485" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A485" s="12"/>
+    </row>
+    <row r="486" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A486" s="12"/>
+    </row>
+    <row r="487" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A487" s="12"/>
+    </row>
+    <row r="488" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A488" s="12"/>
+    </row>
+    <row r="489" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A489" s="12"/>
+    </row>
+    <row r="490" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A490" s="12"/>
+    </row>
+    <row r="491" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A491" s="12"/>
+    </row>
+    <row r="492" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A492" s="12"/>
+    </row>
+    <row r="493" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A493" s="12"/>
+    </row>
+    <row r="494" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A494" s="12"/>
+    </row>
+    <row r="495" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A495" s="12"/>
+    </row>
+    <row r="496" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A496" s="12"/>
+    </row>
+    <row r="497" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A497" s="12"/>
+    </row>
+    <row r="498" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A498" s="12"/>
+    </row>
+    <row r="499" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A499" s="12"/>
+    </row>
+    <row r="500" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A500" s="12"/>
+    </row>
+    <row r="501" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A501" s="12"/>
+    </row>
+    <row r="502" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A502" s="12"/>
+    </row>
+    <row r="503" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A503" s="12"/>
+    </row>
+    <row r="504" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A504" s="12"/>
+    </row>
+    <row r="505" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A505" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/hadits_fix.xlsx
+++ b/hadits_fix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="900">
   <si>
     <t>No.</t>
   </si>
@@ -2425,6 +2425,300 @@
   </si>
   <si>
     <t>Jika Nabi selesai dari menunaikan shalat, beliau menghadapkan wajahnya ke arah kami.</t>
+  </si>
+  <si>
+    <t>Di pagi ini ada hamba-hamba Ku yang beriman kepada-Ku dan ada yang kafir. Orang yang berkata, 'Hujan turun kepada kita karena karunia Allah dan rahmat-Nya', maka dia adalah yang beriman kepada-Ku dan kafir kepada bintang-bintang. Adapun yang berkata, '(Hujan turun disebabkan) bintang ini atau itu', maka dia telah kafir kepada-Ku dan beriman kepada bintang-bintang'.</t>
+  </si>
+  <si>
+    <t>Manusia sudah selesai melaksanakan shalat lalu mereka tidur. Dan kalian akan tetqap dalan hitungan shalat selama kalian masih menunggu (pelaksanaan) shalat.</t>
+  </si>
+  <si>
+    <t>jika selesai salam, beliau tetap berdiam di tempatnya sejenak. Ibnu Syihab berkata, Menurut kami -dan Allah yang lebih tahu, hal itu agar wanita yang akan pergi punya kesempatan. Dan Ibnu Abu Maryam berkata; telah mengabarkan kepada kami Nafi' bin Yazid berkata, telah mengabarkan kepadaku Ja'far bin Rabi'ah bahwa Ibnu Syihab menulis surat kepadanya; telah menceritakan kepadaku Hind binti Al Harits Al Firasiyyah dari Ummu Salamah isteri Nabi -dia adalah teman Ummu Salamah- ia berkata, Ketika beliu salam, para wanita bergegas kembali ke rumah-rumah mereka masing-masing sebelum Rasulullah beranjak pergi. Ibnu Wahab berkata; dari Yunus dari Ibnu Syihab telah mengabarkan kepadaku Hind Al Firasiyyah. Dan 'Utsman bin 'Umar berkata; telah mengabarkan kepada kami Yunus dari Az Zuhri telah menceritakan kepadaku Hind Al Firasiyyah. Dan Az Zubaidi berkata; telah mengabarkan kepadaku Az Zuhri bahwa Hind binti Al Harits Al Firasiyyah mengabarkan kepadanya - saat itu wanita ini adalah isteri Ma'bad bin Al Miqdad, sekutunya Bani Zuhrah- Hind sering mengunjungi isteri-isrti Nabi . Dan Syu'aib berkata; dari Az Zuhri telah menceritakan kapadaku Hind Al Firasiyyah. Dan Ibnu Abu 'Atiq berkata; dari Az Zuhri dari Hind Al Firasiyyah. Dan Al Laits berkata; telah menceritakan kapadaku Yahya bin Sa'id ia menceritakan kepadanya dari Ibnu Syihab dari seorang wanita suku Quraisy, ia menceritakan kepadanya dari Nabi .</t>
+  </si>
+  <si>
+    <t>Aku teringat dengan sebatang emas yang ada pada kami. Aku khawatir itu dapat menggangguku, maka aku perintahkan untuk dibagi-bagikan.</t>
+  </si>
+  <si>
+    <t>aku melihat Nabi sering beranjak pergi dari sebelah kirinya.</t>
+  </si>
+  <si>
+    <t>Barangsiapa memakan dari pohon ini, yaitu bawang putih, maka jangan sekali-kali dia mendekati masjid kami.</t>
+  </si>
+  <si>
+    <t>Barangsiapa memakan dari pohon ini, - maksudnya bawang putih-, maka hendaklah dia tidak mendatangi kami di masjid-masjid kami. Aku bertanya, Apa yang beliau maksudkan itu? Maka Jabir menjawab, Aku tidak melihat maksud beliau yang lain kecuali yang mentah (belum dimasak). Makhallad bin Yazid menyebutkan dari Ibnu Juraij, Kecuali yang mentah.</t>
+  </si>
+  <si>
+    <t>Barangsiapa memakan bawang putih atau bawang merah hendaklah dia menjauhi kami. Atau beliau mengatakan: Hendaklah dia menjauhi masjid kami dan hendaklah dia duduk berdiam di rumahnya. Dan bahwasanya Nabi pernah diberikan periuk yang di dalamnya sayuran seperti kol. Kemudian beliau mencium arama sesuatu, beliau lalu menanyakannya dan beliau pun diberi kabar tentang beau tersebut. Maka beliau bersabda: Sodorkanlah! yakni kepada para sahabat yang bersamanya. Ketika beliau melihat mereka enggan memakannya, beliau pun bersabda: Makanlah! Sesungghuhnya aku berbicara dengan orang yang bukan engkau ajak bicara. Ahmad bin Shalih menyebutkan dari Ibnu Wahab, Saat perang badar beliau diberi... Ibnu menyebutkan, Yakni mangkuk berisi sayuran. Namun Al Laits dan Abu Shafwan dari Yunus tidak menyebutkan perihal mangkuk tersebut, dan aku tidak tahu ucapan tadi perkataan Az Zuhri atau memang redaksi hadits begitu.</t>
+  </si>
+  <si>
+    <t>Barangsiapa memakan dari pohon ini, maka jangan sekali-kali dia mendekati kami atau shalat bersama kami.</t>
+  </si>
+  <si>
+    <t>Beliau memimpin mereka shalat dan orang-orang membuat shaf lalu shalat untuk kuburan tersebut. Maka aku tanyakan, Wahai Abu 'Amru, siapa yang menceritakan kepadamu tentang ini? Dia menjawab, Ibnu 'Abbas.</t>
+  </si>
+  <si>
+    <t>Mandi pada hari Jum'at adalah wajib bagi orang yang sudah bermimpi (baligh).</t>
+  </si>
+  <si>
+    <t>berwudlu dari geriba yang sudah yang digantung secara ringan -'Amru teramat mensedikitkan (air yang dipakai) -. Kemudian beliau berdiri shalat, aku lalu bangun; berwudlu sebagaimana beliau wudlu. Kemudian aku datang dan berdiri di sisi kiri beliau, namun beliau kemudian menggeser aku ke sebelah kanannya. Beliau lalu shalat menurut apa yang Allah kehendaki (lamanya), kemudian beliau berbaring tertidur hingga mendengkur. Setelah itu datanglah seorang mu'adzin yang memberitahukan bahwa waktu shalat shubuh telah tiba. Beliau kemudian berangkat bersama mu'adzin tersebut untuk menunaikan shalat dengan tidak berwudlu lagi. Kami tanyakan kepada 'Amru: Orang-orang mengatakan bahwa Nabi (jika tidur), mata beliau tidur namun hatinya tidak. Maka 'Amru menjawab, Aku mendengar 'Ubaid bin 'Umair berkata, Sesungguhnya mimpinya para Nabi adalah wahyu. Lalu dia membaca firman Allah: '(Sesungguhnya Aku melihat dalam mimpi bahwa Aku menyembelihmu) ' (Qs. Ash Shaffaat: 102).</t>
+  </si>
+  <si>
+    <t>Berdirilah kalian, aku akan pimpin shalat kalian. Maka aku berdiri di tikar milik kami yang sudah hitam lusuh akibat sering digunakan. Tikar itu kemudian aku perciki dengan air, lalu Rasulullah berdiri diatasnya. Maka aku dan anak yatim yang tinggal bersama kami merapatkan shaf di belakang beliau sedangkan nenek kami berdiri di belakang kami. Nabi kemudian shalat memimpim kami sebanyak dua rakaat.</t>
+  </si>
+  <si>
+    <t>shalat bersama orang banyak di Mina tanpa ada dinding di hadapannya. Maka aku lewat di depan sebagian shaf. Lalu aku turun dan aku biarkan keledaiku mencari makan, aku lantas masuk ke dalam barisan shaf dan tidak ada seorangpun yang menegurku.</t>
+  </si>
+  <si>
+    <t>Tidak ada seorangpun dari penduduk bumi mengerjakan shalat ini selain kalian. Dan pada saat itu tidak ada satu orangpun yang melaksanakan shalat selain penduduk Madinah.</t>
+  </si>
+  <si>
+    <t>Beliau mendatangi tempat yang agak tinggi dekat rumah Katsir bin Ash Shalt lalu memberikan ceramah, kemudian mendatangi para wanita. Beliau lantas memberi nasihat kepada mereka, mengingatkan dan memerintahkan mereka agar bersedekah. Maka para wanita tersebut memberikan apa yang ada pada tangan dan leher mereka (emas perhiasan) lalu dimasukkan ke dalam kain Bilal, setelah itu beliau dan Bilal menuju Ka'bah.</t>
+  </si>
+  <si>
+    <t>Tidak ada seorangpun yang menunggu pelaksanaan shalat 'Isya ini dari penduduk bumi selain kalian. Dan pada hari itu tidak ada satu orangpun yang melaksanakan shalat selain penduduk Madinah. Mereka melakanakan shalat 'Isya antara telah berlalunya waktu syafaq hingga sepertiga awal malam.</t>
+  </si>
+  <si>
+    <t>Jika isteri-isteri kalian minta izin ke masjid di waktu malam, maka berilah mereka izin. Hadits ini dikuatkan oleh Syu'bah dari Al A'masy dari Mujahid dari Ibnu 'Umar dari Nabi .</t>
+  </si>
+  <si>
+    <t>para wanita di zaman Rasulullah jika mereka telah selesai dari shalat fardlu, maka mereka segera beranjak pergi. Sedangkan Rasulullah dan kaum laki-laki yang shalat bersama beliau tetap diam di tempat sampai waktu yang Allah kehendaki. Ketika Rasulullah berdiri dan beranjak pergi maka mereka pun mengikutinya.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat Shubuh, maka para wanita yang ikut berjama'ah datang dengan menutup wajah mereka dengan tanpa diketahui oleh seorangpun karena hari masih gelap.</t>
+  </si>
+  <si>
+    <t>aku ingin memanjangkannya, namun kemudian aku mendengar tangisan bayi. Maka aku pendekkan shalatku karena aku khawatir akan memberatkan ibunya.</t>
+  </si>
+  <si>
+    <t>Seandainya Rasulullah mengetahui apa yang telah terjadi dengan para wanita sekarang ini, niscaya beliau akan melarang mereka sebagaimana dilarangnya para wanita bani Isra'il. Yahya berkata, Aku bertanya 'Amrah, Apakah mereka dilarang? 'Amrah menjawab, Ya.</t>
+  </si>
+  <si>
+    <t>Jika Rasulullah mengucapkan salam, maka para wanita langsung beranjak pergi ketika beliau selesai mengucapkan salamnya. Sementara beliau tetap di tempatnya sejenak sebelum beranjak pergi. Menurut kami -dan hadits hanya Allah yang tahu- beliau lakukan itu agar para wanita bisa segera pergi sebelum diketahui oleh seorangpun dari jama'ah laki-laki.</t>
+  </si>
+  <si>
+    <t>Nabi pernah melaksanakan shalat di rumah Ummu Sulaim, maka aku dan anak yatim ikut di belakang beliau sedangkan Ummu Sulaim berdiri di belakang kami.</t>
+  </si>
+  <si>
+    <t>Rasulullah melaksanakan shalat Shubuh di waktu yang masih gelap, sehingga kaum Mukminah berlalu pergi tidak ada yang dapat mengenalinya, atau sebagian mereka tidak bisa mengetahui sebagian yang lain.</t>
+  </si>
+  <si>
+    <t>Jika isteri salah seorang dari kalian minta izin (untuk ke Masjid), hendaklah ia larang.</t>
+  </si>
+  <si>
+    <t>Kita datang terakhir dan pertama pada hari kiamat, meskipun mereka diberi Kitab sebelum kita. Dan ini adalah hari dimana mereka mendapat kewajiban, namun kemudian mereka berselisih di dalamnya. Allah lalu memberi hidayah kepada kita, maka semua manusia akan mengikuti kita (hari ini), besok hari untuk Yahudi dan Nashrani hari setelahnya lagi.</t>
+  </si>
+  <si>
+    <t>Jika salah seorangii kalian mendatangi shalat jum'at hendaklah ia mandi.</t>
+  </si>
+  <si>
+    <t>memerintahkan untuk mandi (di hari Jum'at).</t>
+  </si>
+  <si>
+    <t>Mandi pada hari Jum'at adalah wajib bagi setiap orang yang sudah baligh.</t>
+  </si>
+  <si>
+    <t>Mandi pada hari Jum'at merupakan kewajiban bagi orang yang sudah bermimpi (baligh), dan agar bersiwak (menggosok gigi) dan memakai wewangian bila memilikinya. 'Amru berkata, Adapun mandi, aku bersaksi bahwa itu adalah wajib. Sedangkan bersiwak dan memakai wewangian -dan Allah yang lebih tahu- aku tidak tahu ia wajib atau tidak, tapi begitulah yang ada dalam hadits. Abu 'Abdullah -yaitu saudara Muhammad bin Al Munkadir, dan tidak disbeut dengan nama Abu Bakar- berkata, 'Hadits ini diriwayatkan darinya oleh Bukair bin Al Asyaj dan Sa'id bin Abu Hilal dan masih banyak lagi.' Dan Muhammad bin Al Munkadir punya nama panggilan Abu Bakar dan 'Abdullah.</t>
+  </si>
+  <si>
+    <t>Barangsiapa mandi pada hari Jum'at sebagaimana mandi janabah, lalu berangkat menuju Masjid, maka dia seolah berkurban seekor unta. Dan barangiapa datang pada kesempatan (saat) kedua maka dia seolah berkurban seekor sapi. Dan barangiapa datang pada kesempatan (saat) ketiga maka dia seolah berkurban seekor kambing yang bertanduk. Dan barangiapa datang pada kesempatan (saat) keempat maka dia seolah berkurban seekor ayam. Dan barangiapa datang pada kesempatan (saat) kelima maka dia seolah berkurban sebutir telur. Dan apabila imam sudah keluar (untuk memberi khuthbah), maka para Malaikat hadir mendengarkan dzikir (khuthbah tersebut).</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian berangkat shalat jum'at hendaklah mandi.</t>
+  </si>
+  <si>
+    <t>Tidaklah seorang laki-laki mandi pada hari Jum'at lalu bersuci semaksimal mungkin, memakai wewangian miliknya atau minyak wangi keluarganya, lalu keluar rumah menuju Masjid, ia tidak memisahkan dua orang pada tempat duduknya lalu dia shalat yang dianjurkan baginya dan diam mendengarkan khutbah Imam, kecuali dia akan diampuni dosa-dosanya yang ada antara Jum'atnya itu dan Jum'at yang lainnya.</t>
+  </si>
+  <si>
+    <t>Mandilah pada hari Jum'at dan basuhlah kepala kalian sekalipun tidak sedang junub, dan pakailah wewangian. Ibnu 'Abbas berkata, Adapun mandi, memang benar bahwa itu adalah wajib, sedangkan memakai wewangian aku tidak tahu.</t>
+  </si>
+  <si>
+    <t>bahwa dia menyebutkan sabda Nabi perihal mandi pada hari Jum'at. Maka aku pun bertanya kepada Ibnu 'Abbas, 'Apakah beliau memakai wewangian ketika berada bersama keluarga Beliau? ' ia menjawab, 'Aku tidak tahu'.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya orang yang memakai pakaian seperti ini tidak akan mendapat bagian di akhirat. Kemudian datang hadiah untuk Rasulullah yang diantaranya ada pakain sutera. Beliau lalu memberikan pakaian sutera tersebut kepada 'Umar bin Al Khaththab? , maka berkatalah 'Umar, Wahai Rasulullah, tuan telah memberikan pakaian ini untukku, padahal tuan telah menjelaskan konsekwensi orang yang memakainya! Rasulullah bersabda: Aku memberikannya kepadamu bukan untuk kamu pakai. Maka 'Umar bin Al Khaththab memberikan pakaian sutera tersebut kepada saudaranya yang musyrik di kota Makkah.</t>
+  </si>
+  <si>
+    <t>Sekiranya tidak memberatkan ummatku atau manusia, niscaya aku akan perintahkan kepada mereka untuk bersiwak (menggosok gigi) pada setiap kali hendak shalat.</t>
+  </si>
+  <si>
+    <t>Aku telah terlalu sering memperingatkan kalian untuk selalu bersiwak</t>
+  </si>
+  <si>
+    <t>Jika Rasulullah bangun untuk shalat malam, beliau menggosok mulutnya.</t>
+  </si>
+  <si>
+    <t>aku berikan kepada Rasulullah , lalu Rasulullah menggosok giginya dengan menyandar pada dadaku.</t>
+  </si>
+  <si>
+    <t>dalam shalat Fajar membaca: ALIF LAAM MIIM TANZIIL (Surah As Sajadah), dan 'HAL ATAA 'ALAL INSAANI HIINUM MINAD DAHRI (Surah Al Insaan).</t>
+  </si>
+  <si>
+    <t>Sesungguhnya (shalat) Jum'at yang pertama kali dilaksanakan setelah (shalat) Jum'at) di Masjid Rasulullah adalah di Masjid 'Abdul Qais di kampung Juwatsa, negeri Bahrain.</t>
+  </si>
+  <si>
+    <t>Setiap kalian adalah pemimpin. Al Laits menambahkan; Yunus berkata; Ruzaiq bin Hukaim menulis surat kepada Ibnu Syihab, dan pada saat itu aku bersamanya di Wadi Qura (pinggiran kota), Apa pendapatmu jika aku mengumpulkan orang untuk shalat Jum'at? -Saat itu Ruzaiq bertugas di suatu tempat dimana banyak jama'ah dari negeri Sudan dan yang lainnya, yaitu di negeri Ailah-. Maka Ibnu Syihab membalasnya dan aku mendengar dia memerintahkan (Ruzaiq) untuk mendirikan shalat Jum'at. Lalu mengabarkan bahwa Salim telah menceritakan kepadanya, bahwa 'Abdullah bin 'Umar berkata, Aku mendengar Rasulullah bersabda: Setiap kalian adalah pemimpin, dan setiap pemimpin akan dimintai pertanggung jawaban atas yang dipimpinnya. Imam adalah pemimpin yang akan diminta pertanggung jawaban atas rakyatnya. Seorang suami adalah pemimpin dan akan dimintai pertanggung jawaban atas keluarganya. Seorang isteri adalah pemimpin di dalam urusan rumah tangga suaminya, dan akan dimintai pertanggung jawaban atas urusan rumah tangga tersebut. Seorang pembantu adalah pemimpin dalam urusan harta tuannya, dan akan dimintai pertanggung jawaban atas urusan tanggung jawabnya tersebut. Aku menduga Ibnu 'Umar menyebutkan: Dan seorang laki-laki adalah pemimpin atas harta bapaknya, dan akan dimintai pertanggung jawaban atasnya. Setiap kalian adalah pemimpin dan setiap pemimpin akan dimintai pertanggung jawaban atas yang dipimpinnya.</t>
+  </si>
+  <si>
+    <t>Siapa di antara kalian yang mendatangi shalat Jum'at, maka hendaklah dia mandi?</t>
+  </si>
+  <si>
+    <t>Kita datang terakhir dan akan pertama pada hari kiamat. Mereka diberi Kitab sebelum kita dan kita diberi sesudah mereka. Inilah hari (Jum'at) dimana mereka berselisih tentangnya namun Allah memberi petunjuk kepada kita. Maka esok hari untuk Yahudi dan lusa untuk Nashrani. Beliau lalu diam, setelah itu beliau bersabda lagi: Sudah menjadi kewajiban bagi setiap Muslim untuk mandi pada satu hari dari setiap tujuh hari, pada hari itu dia basuh kepala dan tubuhnya. Diriwayatkan oleh Aban bin Shalih dari Mujahid dari Thawus dari Abu Hurairah berkata, Rasulullah bersabda: Bagi setiap Muslim sudah menjadi kewajiban karena Allah Ta'ala untuk mandi pada satu hari dari setiap tujuh hari.</t>
+  </si>
+  <si>
+    <t>Izinkanlah para wanita (bila minta izin) pergi ke masjid di malam hari.</t>
+  </si>
+  <si>
+    <t>Janganlah kalian larang para wanita mendatangi masjid-masjid Allah.</t>
+  </si>
+  <si>
+    <t>SHALLUU FII BUYUUTIKUM (Shalatlah di tempat tinggal masing-masing) '. Lalu orang-orang seakan mengingkarinya. Maka Ibnu 'Abbas pun berkata, Sesungguhnya hal yang demikian ini pernah dilakukan oleh orang yang lebih baik dariku. Sesungguhnya shalat Jum'at adalah kewajiban dan aku tidak suka untuk mengeluarkan kalian, sehingga kalian berjalan di tanah yang penuh dengan air dan lumpur.</t>
+  </si>
+  <si>
+    <t>Seandainya kalian mandi dahulu.</t>
+  </si>
+  <si>
+    <t>Orang-orang bekerja untuk memenuhi kebutuhan diri mereka masing-masing, ketika menghadiri shalat Jum'at, mereka tetap dalam keadaan mereka masing-masing (dengan pakaian kerjanya), maka dikatakan kepada mereka, Seandainya kalian mandi terlebih dahulu.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat Jum'at ketika matahari sudah tergelincir.</t>
+  </si>
+  <si>
+    <t>Kami bersegera (berpagi-pagi dan awal wwaktu) dalam mengerjakan shalat Jum'at, dan tidur siang setelahnya.</t>
+  </si>
+  <si>
+    <t>Jika hari terasa sejuk Nabi menyegerakan pelaksanaan shalat, dan bila udara panas beliau mengakhirkannya, yakni shalat Jum'at. Yunus bin Bukair berkata; telah mengabarkan kepada kami Abu Khaldah menyebutkan dengan lafadz 'shalat' saja dan tidak menyebutkan kata 'jum'at'. Bisyr bin Tsabit berkata; telah menceritakan kepada kami Abu Khaldah ia berkata, Ada seorang amir (pemimpin) shalat bersama kami kemudian bertanya kepada Anas? , Bagaimana cara Nabi shalat Zhuhur?</t>
+  </si>
+  <si>
+    <t>Barangsiapa yang kedua kakinya berdebu di jalan Allah, maka Allah mengharamkan orang itu untuk masuk neraka.</t>
+  </si>
+  <si>
+    <t>Jika shalat sudak ditegakkan (iqamatnya) janganlah kalian mendatnginya dengan tergesa-gesa. Datangilah dengan berjalan tenang. Maka apa yang kalian dapatkan shalatlah, dan mana yang ketinggalan sempurnakanlah.</t>
+  </si>
+  <si>
+    <t>Janganlah kalian berdiri hingga kalian melihat aku. Dan wajib bagi kalian (mengerjakannya dengan) tenang.</t>
+  </si>
+  <si>
+    <t>Barangsiapa mandi pada hari Jum'at lalu bersuci semaksimal mungkin, lalu memakai minyak atau wewangian lalu keluar rumah menuju masjid, ia tidak memisahkan antara dua orang pada tempat duduknya, kemudian ia mengerjakan shalat yang dianjurkan baginya, lalu bila imam sudah datang dia berdiam mendengarkan, maka dia akan diampuni dosa-dosanya yang ada antara Jum'atnya itu dan Jum'at yang lainnya.</t>
+  </si>
+  <si>
+    <t>Nabi melarang seseorang meminta kawannya berdiri dari tempat duduknya lalu dia menempati tempat duduk tersebut. Aku bertanya kepada Nafi', Apakah ini berlaku pada saat shalat Jum'at? Dia menjawab, Untuk shalat Jum'at dan yang lainnya.</t>
+  </si>
+  <si>
+    <t>Adzan panggilan shalat Jum'at pada mulanya dilakukan ketika imam sudah duduk di atas mimbar. Hal ini dipraktekkan sejak zaman Nabi , Abu Bakar dan 'Umar? . Ketika masa 'Utsman? dan manusia sudah semakin banyak, maka dia menambah adzan ketiga di Az Zaura'. Abu 'Abdullah berkata, Az Zaura' adalah bangunan yang ada di pasar di Kota Madinah.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya orang yang menambah adzan ketiga pada shalat Jum'at adalah 'Utsman bin 'Affan? , ketika penduduk Madinah semakin banyak. Dan tidak ada mu'adzin bagi Nabi kecuali satu. Dan adzan shalat Jum'at dilaksanakan ketika Imam sudah duduk, yakni duduk di atas mimbar.</t>
+  </si>
+  <si>
+    <t>Allahu Akbar Allahu Akbar'. Ketika mu'adzin membaca 'Asyhadu anlaa ilaaha illallah', Mu'awiyyah dan aku mengucapkan seperti yang diucapkan mu'adzin. Dan ketika mu'adzin membaca 'Asyhadu anna Muhammadar rasulullah, ' Mu'awiyyah dan aku mengucapkan seperti yang diucapkan mu'adzin. Ketika adzan sudah selesai Mu'awiyyah berkata, Wahai manusia, sungguh ketika adzan dikumandangkan aku pernah mendengar Rasulullah mengatakan dari tempat ini seperti yang kalian dengar dari (bacaan) ucapanku tadi.</t>
+  </si>
+  <si>
+    <t>bahwa adzan yang kedua pada hari Jum'at diperintahkan oleh 'Utsman bin 'Affan? ketika penduduk Madinah semakin banyak. Adapun sebelumnya, adzan hari Jum'at dikumandangkan ketika Imam sudah duduk.</t>
+  </si>
+  <si>
+    <t>Pada mulanya adzan pada hari Jum'at dikumandangkan ketika Imam sudah duduk di atas mimbar. Yaitu apa yang biasa dipraktekkan sejak zaman Nabi , Abu Bakar dan 'Umar? . Pada masa Khilafah 'Utsman bin 'Affan? ketika manusia sudah semakin banyak, maka pada hari Jum'at dia mememerintahkan adzan yang ketiga. Sehingga dikumandangkanlah adzan (ketiga) tersebut di Az Zaura'. Kemudian berlakulah urusan tersebut menjadi ketetapan.</t>
+  </si>
+  <si>
+    <t>sesungguhnya aku berbuat seperti tadi agar kalian mengikuti dan agar kalian dapat mengambil pelajaran tentang tata cara shalatku.</t>
+  </si>
+  <si>
+    <t>kami mendengar sesuatu dari batang kayu tersebut seperti suara unta hendak beranak, hingga akhirnya Nabi turun lalu meletakkan tangan Beliau pada kayu tersebut. Sulaiman berkata, dari Yahya berkata, telah mengabarkan kepadaku Hafsh bin 'Ubaidullah bin Anas bahwa dia mendengar dari Jabir bin 'Abdullah.</t>
+  </si>
+  <si>
+    <t>Siapa yang mendatangi shalat Jum'at, hendaklah dia mandi.</t>
+  </si>
+  <si>
+    <t>Rasulullah berkhuthbah sambil berdiri, kemudian duduk lalu berdiri kembali seperti yang kalian lakukan di zaman sekarang ini.</t>
+  </si>
+  <si>
+    <t>duduk di atas mimbar dan kami duduk di sekitarnya.</t>
+  </si>
+  <si>
+    <t>memang aku telah memberi seseorang dan tidak kepada yang lain. Orang yang tidak aku beri sesungguhnya lebih aku cintai daripada orang yang aku beri. Namun aku memberi sekelompok kaum karena aku melihat hati-hati mereka masih sangat bersedih dan punya rasa takut. Dan aku biarkan sekelompok orang karena Allah telah menjadikan hati-hati mereka penuh dengan perasaan cukup dan penuh kebaikan. Di antara mereka adalah 'Amru bin Taghlib. 'Amru bin Taghlib berkata, Demi Allah, tidak ada yang lebih aku sukai dari unta yang paling baik dibandingkan ucapan Rasulullah kepadaku tadi. Hadits ini dikuatkan oleh Yunus.</t>
+  </si>
+  <si>
+    <t>sesungguhnya aku bukannya tidak tahu keberadaan kalian (semalam). Akan tetapi aku takut shalat tersebut akan diwajibkan atas kalian, sementara kalian tidak mampu. Abu 'Abdullah Al Bukhari berkata, Hadits ini dikuatkan oleh Yunus.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat di awal malam (Isya) Rasulullah berdiri, lalu membaca syahadah dan puja pujnya kepada Allah dengan pujian yang layak (bagi Allah), beliau lalu mengucapkan: Amma ba'du. Hadits ini dikuatkan oleh Abu Mu'awiyyah dan Abu Usamah dari Hisyam dari Bapaknya dari Abu Humaid As Sa'idi dari Nabi , beliau bersabda: Amma ba'du. Dikuatkan juga oleh Al 'Adani dari Sufyan tentang ucapan 'Amma ba'du'.</t>
+  </si>
+  <si>
+    <t>Amma ba'du'. Hadits ini dikuatkan oleh Az Zubaidi dari Az Zuhri.</t>
+  </si>
+  <si>
+    <t>sesungguhnya orang yang masih hidup dari kalangan Anshar semakin sedikit, sedangkan orang-orang lain (selain Anshar) terus bertambah banyak. Maka barangsiapa mengurus sesuatu dari urusan ummat Muhammad lalu dia mampu mendatangkan madlarat kepada seseorang atau memberi manfaat kepada seseorang, maka terimalah orang-orang baik mereka (kaum Anshar) dan maafkanlah orang yang keliru dari kalangan mereka.</t>
+  </si>
+  <si>
+    <t>berkhuthbah dengan dua kali khuthbah dan duduk di antara keduanya.</t>
+  </si>
+  <si>
+    <t>Pada hari Jum'at para Malaikat hadir di pintu Masjid mencatat siapa orang yang datang paling awal dan seterusnya. Orang yang paling awal datang ke Masjid seperti orang yang berkurban dengan seekor unta, kemudian seperti orang yang berkurban dengan seekor sapi, kemudian seperti orang yang berkurban seekor kambing yang bertanduk, kemudian seperti orang yang berkurban seekor ayam, kemudian seperti orang yang berkurban sebutir telur. Dan apabila Imam sudah keluar (untuk memberi khutbah), maka para Malaikat menutup buku catatan mereka kemudian mendengarkan dzikir (khutbah).</t>
+  </si>
+  <si>
+    <t>Bangun dan shalatlah dua rakaat.</t>
+  </si>
+  <si>
+    <t>menyampaikan khutbah pada hari Jum'at, tiba-tiba ada seorang laki-laki berdiri dan berkata, Wahai Rasulullah, telah binasa binatang ternak (unta) dan telah binasa kehidupan (telah menjadi sulit), maka berdo'alah kepada Allah agar menurunkan air untuk kami. Rasulullah lalu menengadahkan kedua telapak tangan dan berdo'a.</t>
+  </si>
+  <si>
+    <t>ALLAHUMMA HAWAALAINAA WA LAA 'ALAINAA (Ya Allah, turunkanlah hujan di sekeliling kami dan jangan sampai menimbulkan kerusakan kepada kami) '. Belum lagi beliau memberikan isyarat dengan tangannya kepada gumpalan awan, melainkan awan tersebut hilang seketika. Saat itu kota Madinah menjadi seperti danau dan aliran-aliran air, Madinah juga tidak mendapatkan sinar matahari selama satu bulan. Dan tidak seorang pun yang datang dari segala pelosok kota kecuali akan menceritakan tentang terjadinya hujan yang lebat tersebut.</t>
+  </si>
+  <si>
+    <t>Jika kamu berkata kepada temanmu pada hari Jum'at 'diamlah', padahal Imam sedang memberikan khutbah maka sungguh kamu sudah berbuat sia-sia (tidak mendapat pahala).</t>
+  </si>
+  <si>
+    <t>Pada hari Jum'at itu ada satu saat, tidaklah seorang hamba Muslim mengerjakan shalat lalu dia berdo'a tepat pada saat tersebut melainkan Allah akan mengabulkan do'anya tersebut. Kemudian beliau memberi isyarat dengan tangannya yang menunjukkan sedikitnya saat tersebut.</t>
+  </si>
+  <si>
+    <t>Maka turunlah ayat ini: '(Dan apabila mereka melihat perdagangan atau permainan, maka mereka bubar untuk menuju kepadanya dan mereka meninggalkan kamu ketika kamu sedang berdiri menyampaikan berkhutbah) ' (Qs. Al Jumu'ah: 12).</t>
+  </si>
+  <si>
+    <t>melaksanakan dua rakaat sebelum zhuhur dan dua rakaat sesudahnya, dua rakaat setelag Maghrib di rumahnya, dan dua rakaat sesudah Isya. Dan beliau tidak mengerjakan shalat setelah Jum'at hingga beliau pulang, lalu shalat dua rakaat.</t>
+  </si>
+  <si>
+    <t>Di tempat kami ada seorang wanita yang menanam ubi di sela-sela selokan kebunnya. Jika hari Jum'at tiba, dia mencabut pohon ubinya lalu direbusnya dalam periuk yang dicampur dengan segenggam gandum. Rebusan ubi dijadikan sebagai makanan pengganti sepotong daging. Setelah kami selesai melaksanakan shalat Jum'at, kami datang ke rumah wanita itu. Kami masuk mengucapkan salam lalu dia menyuguhkan makanan ubinya itu kepada kami, maka kami pun memakannya. Kami selalu mengharapkan kehadiran hari Jum'at karena ada makanan yang disuguhkannya itu.</t>
+  </si>
+  <si>
+    <t>Kami tidaklah beristirahat siang maupun makan siang kecuali setelah shalat Jum'at.</t>
+  </si>
+  <si>
+    <t>Kami lebih awal mendatangi shalat Jum'at lalu beristirahat siang (qailulah) setelahnya.</t>
+  </si>
+  <si>
+    <t>Kami shalat Jum'at bersama Nabi kemudian kami beristirahat siang (qailulah) setelahnya.</t>
+  </si>
+  <si>
+    <t>Rasulullah lalu berdiri mengimami kami. Sekelompok orang yang bersama beliau melaksanakan shalat sementara sekelompok yang lain menghadap musuh. Nabi lalu rukuk dan sujud dua kali bersama kelompok yang bersamanya, lalu mereka (kelompok yang telah shalat) bergeser menempati posisi kelompok yang belum shalat. Kemudian kelompok yang belum shalat tersebut datang dan masuk ke dalam shaf, Rasulullah lalu rukuk bersama kelompok yang baru dan sujud dua kali, lalu beliau salam. Maka setiap kelompok dari kami menyelesaikan shalat mereka masing-masing dengan rukuk dan sujud dua kali.</t>
+  </si>
+  <si>
+    <t>Apabila musuh lebih banyak dari mereka (pasukan kaum Muslimin), maka mereka shalat dengan berdiri dan di atas kendaraan.</t>
+  </si>
+  <si>
+    <t>Nabi melaksanakan shalat dan diikuti sekelompok orang bersamanya. Beliau lalu bertakbir dan mereka pun bertakbir bersama beliau. Kemudian beliau rukuk dan orang-orang yang bersamanya ikut rukuk. Kemudian beliau sujud dan orang-orang yang bersamanyanya pun sujud. Kemudian beliau berdiri untuk rakaat kedua, maka orang-orang yang sujud bersama beliau berdiri dan berjaga-jaga untuk saudara mereka. Kemudian datanglah sekelompok yang lain (yang sebelumnya berjaga dan belum shalat), mereka lalu rukuk dan sujud bersama beliau. Dan masing-masing orang melanjutkan shalat mereka namun dengan tetap berjaga-jaga satu sama lain.</t>
+  </si>
+  <si>
+    <t>Demi Allah, akupun belum melakasanakannya. Maka kemudian beliau berdiri menuju aliran air (sungai), lalu berwudlu dan melaksanakan shalat 'Ashar setelah matahari terbenam, kemudian dilanjutkan dengan melaksanakan shalat Maghrib.</t>
+  </si>
+  <si>
+    <t>Jangan sekali-kali salah seorang dari kalian shalat 'Ashar keculi di perkampungan Bani Quraizhah. Lalu tibalah waktu shalat ketika mereka masih di jalan, sebagian dari mereka berkata, 'Kami tidak akan shalat kecuali telah sampai tujuan', dan sebagian lain berkata, 'Bahkan kami akan melaksanakan shalat, sebab beliau tidaklah bermaksud demikian'. Maka kejadian tersebut diceritakan kepada Nabi , dan beliau tidak mencela seorang pun dari mereka.</t>
+  </si>
+  <si>
+    <t>Allahu Akbar, hancurlah Khaibar! Sesungguhnya kami apabila mendatangi perkampungan suatu kaum, (maka amat buruklah pagi hari yang dialami orang-orang yang diperingatkan tersebut) (Qs. Ash Shaaffaat: 177). Orang-orang Khaibar keluar seraya berkata, Muhammad dan al Khamis! Tabit berkata, Al Khamis artinya pasukan. Maka Rasulullah pun mengalahkan mereka, membunuh pasukan dan menawan tawanan. Maka Shafiah menjadi bagian Dihyah al Kalbi, kemudian ia menjadi milik Rasulullah . Beliau kemudian menikahinya, dan maharnya adalah pembebasannya. 'Abdul 'Azizi berkata kepada Tsabit, Wahai Abu Muhammad, apakah kamu bertanya kepada Anas bin Malik, apa yang Beliau jadikan mahar untuk wanita tersebut? Tsabit menjawab, 'Maharnya adalah pembebasannya.' Ia pun tersenyum.</t>
+  </si>
+  <si>
+    <t>Ini adalah pakaian orang yang tidak akan mendapatkan bagian (di akhirat). Kemudian Umar tidak nampak untuk beberaa waktu lamanya menurut apa yang Allah kehendaki, Rasulullah kemudian mengirimkan kepada 'Umar sebuah jubah yang terbuat dari sutera. Maka Umar pun membawanya menemui Rasulullah seraya berkata: Wahai Rasulullah, tuan telah memberikan pakaian ini untukku, padahal tuan telah berkata, 'Ini adalah pakaian orang yang tidak akan mendapatkan bagian (di akhirat) '. Lalu mengapa tuan mengirimnya buat saya? Maka Rasulullah pun berkata kepadanya: Juallah, atau beliau mengatakan, 'dengannya engkau bisa memenuhi kebutuhanmu.</t>
+  </si>
+  <si>
+    <t>Biarkanlah keduanya. Setelah beliau tidak menghiraukan lagi, aku memberi isyarat kepada kedua sahaya tersebut agar lekas pergi, lalu keduanya pun pergi. Saat Hari Raya 'Ied, biasanya ada dua budak Sudan yang memperlihatkan kebolehannya mempermainkan tombak dan perisai. Maka adakalanya aku sendiri yang meminta kepada Nabi , atau beliau yang menawarkan kepadaku: Apakah kamu mau melihatnya? Maka aku jawab, Ya, mau. Maka beliau menempatkan aku berdiri di belakangnya, sementara pipiku bertemu dengan pipinya sambil beliau berkata: Teruskan hai Bani Arfadah! Demikianlah seterusnya sampai aku merasa bosan lalu beliau berkata: Apakah kamu merasa sudah cukup? Aku jawab, Ya, sudah. Beliau lalu berkata: Kalau begitu pergilah.</t>
+  </si>
+  <si>
+    <t>Pertama kali yang akan kita kerjakan pada hari ini adalah shalat, kemudian kembali pulang dan menyembelih hewan kurban. Maka barangsiapa mengerjakan seperti ini bararti dia telah memenuhi sunnah kami.</t>
+  </si>
+  <si>
+    <t>sesungguhnya setiap kaum memiliki hari raya, dan sekarang ini adalah hari raya kita.</t>
+  </si>
+  <si>
+    <t>tidak berangkat untuk melaksanakan shalat hingga beliau makan beberapa butir kurma. Murajja' bin Raja' berkata; telah menceritakan kepadaku 'Ubaidullah berkata, telah menceritakan kepadaku Anas dari Nabi , Beliau makan beberapa kurma dengan bilangan ganjil.</t>
   </si>
 </sst>
 </file>
@@ -2828,13 +3122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D801"/>
+  <dimension ref="A1:D901"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B898" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H802" sqref="H802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14059,6 +14353,1406 @@
         <v>1</v>
       </c>
     </row>
+    <row r="802" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A802" s="8">
+        <v>801</v>
+      </c>
+      <c r="B802" s="9">
+        <v>536</v>
+      </c>
+      <c r="C802" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="D802" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A803" s="8">
+        <v>802</v>
+      </c>
+      <c r="B803" s="9">
+        <v>536</v>
+      </c>
+      <c r="C803" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="D803" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A804" s="8">
+        <v>803</v>
+      </c>
+      <c r="B804" s="9">
+        <v>537</v>
+      </c>
+      <c r="C804" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="D804" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A805" s="8">
+        <v>804</v>
+      </c>
+      <c r="B805" s="9">
+        <v>538</v>
+      </c>
+      <c r="C805" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="D805" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A806" s="8">
+        <v>805</v>
+      </c>
+      <c r="B806" s="9">
+        <v>539</v>
+      </c>
+      <c r="C806" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="D806" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A807" s="8">
+        <v>806</v>
+      </c>
+      <c r="B807" s="9">
+        <v>540</v>
+      </c>
+      <c r="C807" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="D807" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A808" s="8">
+        <v>807</v>
+      </c>
+      <c r="B808" s="9">
+        <v>540</v>
+      </c>
+      <c r="C808" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="D808" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A809" s="8">
+        <v>808</v>
+      </c>
+      <c r="B809" s="9">
+        <v>540</v>
+      </c>
+      <c r="C809" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D809" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A810" s="8">
+        <v>809</v>
+      </c>
+      <c r="B810" s="9">
+        <v>540</v>
+      </c>
+      <c r="C810" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="D810" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A811" s="8">
+        <v>810</v>
+      </c>
+      <c r="B811" s="9">
+        <v>541</v>
+      </c>
+      <c r="C811" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="D811" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A812" s="8">
+        <v>811</v>
+      </c>
+      <c r="B812" s="9">
+        <v>541</v>
+      </c>
+      <c r="C812" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="D812" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A813" s="8">
+        <v>812</v>
+      </c>
+      <c r="B813" s="9">
+        <v>541</v>
+      </c>
+      <c r="C813" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="D813" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A814" s="8">
+        <v>813</v>
+      </c>
+      <c r="B814" s="9">
+        <v>541</v>
+      </c>
+      <c r="C814" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="D814" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A815" s="8">
+        <v>814</v>
+      </c>
+      <c r="B815" s="9">
+        <v>541</v>
+      </c>
+      <c r="C815" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D815" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A816" s="8">
+        <v>815</v>
+      </c>
+      <c r="B816" s="9">
+        <v>541</v>
+      </c>
+      <c r="C816" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D816" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A817" s="8">
+        <v>816</v>
+      </c>
+      <c r="B817" s="9">
+        <v>541</v>
+      </c>
+      <c r="C817" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="D817" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A818" s="8">
+        <v>817</v>
+      </c>
+      <c r="B818" s="9">
+        <v>542</v>
+      </c>
+      <c r="C818" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="D818" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A819" s="8">
+        <v>818</v>
+      </c>
+      <c r="B819" s="9">
+        <v>542</v>
+      </c>
+      <c r="C819" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="D819" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A820" s="8">
+        <v>819</v>
+      </c>
+      <c r="B820" s="9">
+        <v>542</v>
+      </c>
+      <c r="C820" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="D820" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A821" s="8">
+        <v>820</v>
+      </c>
+      <c r="B821" s="9">
+        <v>542</v>
+      </c>
+      <c r="C821" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="D821" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A822" s="8">
+        <v>821</v>
+      </c>
+      <c r="B822" s="9">
+        <v>542</v>
+      </c>
+      <c r="C822" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="D822" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A823" s="8">
+        <v>822</v>
+      </c>
+      <c r="B823" s="9">
+        <v>542</v>
+      </c>
+      <c r="C823" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="D823" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A824" s="8">
+        <v>823</v>
+      </c>
+      <c r="B824" s="9">
+        <v>543</v>
+      </c>
+      <c r="C824" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="D824" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A825" s="8">
+        <v>824</v>
+      </c>
+      <c r="B825" s="9">
+        <v>543</v>
+      </c>
+      <c r="C825" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="D825" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A826" s="8">
+        <v>825</v>
+      </c>
+      <c r="B826" s="9">
+        <v>544</v>
+      </c>
+      <c r="C826" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="D826" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A827" s="8">
+        <v>826</v>
+      </c>
+      <c r="B827" s="9">
+        <v>545</v>
+      </c>
+      <c r="C827" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="D827" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A828" s="8">
+        <v>827</v>
+      </c>
+      <c r="B828" s="9">
+        <v>546</v>
+      </c>
+      <c r="C828" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="D828" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A829" s="8">
+        <v>828</v>
+      </c>
+      <c r="B829" s="9">
+        <v>547</v>
+      </c>
+      <c r="C829" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="D829" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A830" s="8">
+        <v>829</v>
+      </c>
+      <c r="B830" s="9">
+        <v>547</v>
+      </c>
+      <c r="C830" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="D830" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A831" s="8">
+        <v>830</v>
+      </c>
+      <c r="B831" s="9">
+        <v>547</v>
+      </c>
+      <c r="C831" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="D831" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A832" s="8">
+        <v>831</v>
+      </c>
+      <c r="B832" s="9">
+        <v>548</v>
+      </c>
+      <c r="C832" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="D832" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A833" s="8">
+        <v>832</v>
+      </c>
+      <c r="B833" s="9">
+        <v>549</v>
+      </c>
+      <c r="C833" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="D833" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A834" s="8">
+        <v>833</v>
+      </c>
+      <c r="B834" s="9">
+        <v>549</v>
+      </c>
+      <c r="C834" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="D834" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A835" s="8">
+        <v>834</v>
+      </c>
+      <c r="B835" s="9">
+        <v>550</v>
+      </c>
+      <c r="C835" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D835" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A836" s="8">
+        <v>835</v>
+      </c>
+      <c r="B836" s="9">
+        <v>550</v>
+      </c>
+      <c r="C836" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="D836" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A837" s="8">
+        <v>836</v>
+      </c>
+      <c r="B837" s="9">
+        <v>550</v>
+      </c>
+      <c r="C837" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="D837" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A838" s="8">
+        <v>837</v>
+      </c>
+      <c r="B838" s="9">
+        <v>551</v>
+      </c>
+      <c r="C838" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="D838" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A839" s="8">
+        <v>838</v>
+      </c>
+      <c r="B839" s="9">
+        <v>552</v>
+      </c>
+      <c r="C839" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D839" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A840" s="8">
+        <v>839</v>
+      </c>
+      <c r="B840" s="9">
+        <v>552</v>
+      </c>
+      <c r="C840" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="D840" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A841" s="8">
+        <v>840</v>
+      </c>
+      <c r="B841" s="9">
+        <v>552</v>
+      </c>
+      <c r="C841" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="D841" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A842" s="8">
+        <v>841</v>
+      </c>
+      <c r="B842" s="9">
+        <v>553</v>
+      </c>
+      <c r="C842" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="D842" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A843" s="8">
+        <v>842</v>
+      </c>
+      <c r="B843" s="9">
+        <v>554</v>
+      </c>
+      <c r="C843" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="D843" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A844" s="8">
+        <v>843</v>
+      </c>
+      <c r="B844" s="9">
+        <v>555</v>
+      </c>
+      <c r="C844" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="D844" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A845" s="8">
+        <v>844</v>
+      </c>
+      <c r="B845" s="9">
+        <v>555</v>
+      </c>
+      <c r="C845" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="D845" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A846" s="8">
+        <v>845</v>
+      </c>
+      <c r="B846" s="9">
+        <v>556</v>
+      </c>
+      <c r="C846" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="D846" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A847" s="8">
+        <v>846</v>
+      </c>
+      <c r="B847" s="9">
+        <v>556</v>
+      </c>
+      <c r="C847" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="D847" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A848" s="8">
+        <v>847</v>
+      </c>
+      <c r="B848" s="9">
+        <v>556</v>
+      </c>
+      <c r="C848" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="D848" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A849" s="8">
+        <v>848</v>
+      </c>
+      <c r="B849" s="9">
+        <v>556</v>
+      </c>
+      <c r="C849" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="D849" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A850" s="8">
+        <v>849</v>
+      </c>
+      <c r="B850" s="9">
+        <v>556</v>
+      </c>
+      <c r="C850" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="D850" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A851" s="8">
+        <v>850</v>
+      </c>
+      <c r="B851" s="9">
+        <v>557</v>
+      </c>
+      <c r="C851" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="D851" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A852" s="8">
+        <v>851</v>
+      </c>
+      <c r="B852" s="9">
+        <v>558</v>
+      </c>
+      <c r="C852" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="D852" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A853" s="8">
+        <v>852</v>
+      </c>
+      <c r="B853" s="9">
+        <v>559</v>
+      </c>
+      <c r="C853" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="D853" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A854" s="8">
+        <v>853</v>
+      </c>
+      <c r="B854" s="9">
+        <v>559</v>
+      </c>
+      <c r="C854" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="D854" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A855" s="8">
+        <v>854</v>
+      </c>
+      <c r="B855" s="9">
+        <v>559</v>
+      </c>
+      <c r="C855" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="D855" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A856" s="8">
+        <v>855</v>
+      </c>
+      <c r="B856" s="9">
+        <v>560</v>
+      </c>
+      <c r="C856" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="D856" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A857" s="8">
+        <v>856</v>
+      </c>
+      <c r="B857" s="9">
+        <v>561</v>
+      </c>
+      <c r="C857" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="D857" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A858" s="8">
+        <v>857</v>
+      </c>
+      <c r="B858" s="9">
+        <v>561</v>
+      </c>
+      <c r="C858" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="D858" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A859" s="8">
+        <v>858</v>
+      </c>
+      <c r="B859" s="9">
+        <v>561</v>
+      </c>
+      <c r="C859" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="D859" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A860" s="8">
+        <v>859</v>
+      </c>
+      <c r="B860" s="9">
+        <v>562</v>
+      </c>
+      <c r="C860" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="D860" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A861" s="8">
+        <v>860</v>
+      </c>
+      <c r="B861" s="9">
+        <v>563</v>
+      </c>
+      <c r="C861" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="D861" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A862" s="8">
+        <v>861</v>
+      </c>
+      <c r="B862" s="9">
+        <v>564</v>
+      </c>
+      <c r="C862" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="D862" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A863" s="8">
+        <v>862</v>
+      </c>
+      <c r="B863" s="9">
+        <v>565</v>
+      </c>
+      <c r="C863" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="D863" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A864" s="8">
+        <v>863</v>
+      </c>
+      <c r="B864" s="9">
+        <v>566</v>
+      </c>
+      <c r="C864" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="D864" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A865" s="8">
+        <v>864</v>
+      </c>
+      <c r="B865" s="9">
+        <v>567</v>
+      </c>
+      <c r="C865" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="D865" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A866" s="8">
+        <v>865</v>
+      </c>
+      <c r="B866" s="9">
+        <v>568</v>
+      </c>
+      <c r="C866" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D866" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A867" s="8">
+        <v>866</v>
+      </c>
+      <c r="B867" s="9">
+        <v>569</v>
+      </c>
+      <c r="C867" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="D867" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A868" s="8">
+        <v>867</v>
+      </c>
+      <c r="B868" s="9">
+        <v>569</v>
+      </c>
+      <c r="C868" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="D868" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A869" s="8">
+        <v>868</v>
+      </c>
+      <c r="B869" s="9">
+        <v>569</v>
+      </c>
+      <c r="C869" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="D869" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A870" s="8">
+        <v>869</v>
+      </c>
+      <c r="B870" s="9">
+        <v>570</v>
+      </c>
+      <c r="C870" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="D870" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A871" s="8">
+        <v>870</v>
+      </c>
+      <c r="B871" s="9">
+        <v>571</v>
+      </c>
+      <c r="C871" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="D871" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A872" s="8">
+        <v>871</v>
+      </c>
+      <c r="B872" s="9">
+        <v>572</v>
+      </c>
+      <c r="C872" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="D872" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A873" s="8">
+        <v>872</v>
+      </c>
+      <c r="B873" s="9">
+        <v>572</v>
+      </c>
+      <c r="C873" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D873" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A874" s="8">
+        <v>873</v>
+      </c>
+      <c r="B874" s="9">
+        <v>572</v>
+      </c>
+      <c r="C874" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="D874" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A875" s="8">
+        <v>874</v>
+      </c>
+      <c r="B875" s="9">
+        <v>572</v>
+      </c>
+      <c r="C875" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="D875" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A876" s="8">
+        <v>875</v>
+      </c>
+      <c r="B876" s="9">
+        <v>572</v>
+      </c>
+      <c r="C876" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="D876" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A877" s="8">
+        <v>876</v>
+      </c>
+      <c r="B877" s="9">
+        <v>573</v>
+      </c>
+      <c r="C877" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="D877" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A878" s="8">
+        <v>877</v>
+      </c>
+      <c r="B878" s="9">
+        <v>574</v>
+      </c>
+      <c r="C878" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="D878" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A879" s="8">
+        <v>878</v>
+      </c>
+      <c r="B879" s="9">
+        <v>575</v>
+      </c>
+      <c r="C879" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="D879" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A880" s="8">
+        <v>879</v>
+      </c>
+      <c r="B880" s="9">
+        <v>576</v>
+      </c>
+      <c r="C880" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="D880" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A881" s="8">
+        <v>880</v>
+      </c>
+      <c r="B881" s="9">
+        <v>577</v>
+      </c>
+      <c r="C881" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="D881" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A882" s="8">
+        <v>881</v>
+      </c>
+      <c r="B882" s="9">
+        <v>578</v>
+      </c>
+      <c r="C882" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="D882" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A883" s="8">
+        <v>882</v>
+      </c>
+      <c r="B883" s="9">
+        <v>579</v>
+      </c>
+      <c r="C883" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="D883" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A884" s="8">
+        <v>883</v>
+      </c>
+      <c r="B884" s="9">
+        <v>580</v>
+      </c>
+      <c r="C884" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D884" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A885" s="8">
+        <v>884</v>
+      </c>
+      <c r="B885" s="9">
+        <v>581</v>
+      </c>
+      <c r="C885" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="D885" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A886" s="8">
+        <v>885</v>
+      </c>
+      <c r="B886" s="9">
+        <v>582</v>
+      </c>
+      <c r="C886" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="D886" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A887" s="8">
+        <v>886</v>
+      </c>
+      <c r="B887" s="9">
+        <v>583</v>
+      </c>
+      <c r="C887" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="D887" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A888" s="8">
+        <v>887</v>
+      </c>
+      <c r="B888" s="9">
+        <v>583</v>
+      </c>
+      <c r="C888" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="D888" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A889" s="8">
+        <v>888</v>
+      </c>
+      <c r="B889" s="9">
+        <v>584</v>
+      </c>
+      <c r="C889" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D889" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A890" s="8">
+        <v>889</v>
+      </c>
+      <c r="B890" s="9">
+        <v>584</v>
+      </c>
+      <c r="C890" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="D890" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A891" s="8">
+        <v>890</v>
+      </c>
+      <c r="B891" s="9">
+        <v>585</v>
+      </c>
+      <c r="C891" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="D891" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A892" s="8">
+        <v>891</v>
+      </c>
+      <c r="B892" s="9">
+        <v>586</v>
+      </c>
+      <c r="C892" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="D892" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A893" s="8">
+        <v>892</v>
+      </c>
+      <c r="B893" s="9">
+        <v>587</v>
+      </c>
+      <c r="C893" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D893" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A894" s="8">
+        <v>893</v>
+      </c>
+      <c r="B894" s="9">
+        <v>588</v>
+      </c>
+      <c r="C894" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D894" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A895" s="8">
+        <v>894</v>
+      </c>
+      <c r="B895" s="9">
+        <v>589</v>
+      </c>
+      <c r="C895" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="D895" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A896" s="8">
+        <v>895</v>
+      </c>
+      <c r="B896" s="9">
+        <v>590</v>
+      </c>
+      <c r="C896" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="D896" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A897" s="8">
+        <v>896</v>
+      </c>
+      <c r="B897" s="9">
+        <v>591</v>
+      </c>
+      <c r="C897" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="D897" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A898" s="8">
+        <v>897</v>
+      </c>
+      <c r="B898" s="9">
+        <v>592</v>
+      </c>
+      <c r="C898" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="D898" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A899" s="8">
+        <v>898</v>
+      </c>
+      <c r="B899" s="9">
+        <v>593</v>
+      </c>
+      <c r="C899" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="D899" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A900" s="8">
+        <v>899</v>
+      </c>
+      <c r="B900" s="9">
+        <v>593</v>
+      </c>
+      <c r="C900" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D900" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A901" s="8">
+        <v>900</v>
+      </c>
+      <c r="B901" s="9">
+        <v>594</v>
+      </c>
+      <c r="C901" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="D901" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D701"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14070,8 +15764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D505"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D100" sqref="A1:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hadits_fix.xlsx
+++ b/hadits_fix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1293">
   <si>
     <t>No.</t>
   </si>
@@ -2719,6 +2719,1185 @@
   </si>
   <si>
     <t>tidak berangkat untuk melaksanakan shalat hingga beliau makan beberapa butir kurma. Murajja' bin Raja' berkata; telah menceritakan kepadaku 'Ubaidullah berkata, telah menceritakan kepadaku Anas dari Nabi , Beliau makan beberapa kurma dengan bilangan ganjil.</t>
+  </si>
+  <si>
+    <t>Barangsiapa menyembelih sebelum shalat hendaklah dia mengulanginya. Lalu berdirilah seorang laki-laki seraya berkata, Ini adalah hari yang daging sangat diharap. Laki-laki itu kemudian menyebut-nyebut tentang tetangga-tetangganya, dan seakan Nabi membenarkan orang itu. Lelaki itu berkata, Sungguh aku berkurban dengan seekor jadza'ah lebih aku sukai dari dua ekor kambing. Maka Nabi memberikan keringanan buat orang tersebut. Aku (Anas) tidak tahu apakah keringanan itu juga berlaku untuk yang lain atau tidak.</t>
+  </si>
+  <si>
+    <t>Barangsiapa melaksanakan shalat seperti shalat kami dan melaksanakan manasik seperti manasik kami maka dia telah melaksanakan manasik (menyembelih kurban). Dan barangsiapa menyembelih kurban sebelum shalat berarti dia malaksanakannya sebelum shalat, dan berarti dia belum melaksanakan manasik (berkurban). Abu Burdah bin Niyar, paman Al Bara', berkata, Wahai Rasulullah, aku telah menyembelih dua ekor kambing sebelum shalat, dan yang aku ketahui bahwa hari ini adalah hari kita bergembira dengan makan dan minum. Dan aku menyukai bila dua ekor kambingku itu menjadi yang pertama disembelih di rumahku lalu aku memasaknya dan menikmatinya sebelum aku berangkat untuk shalat! Beliau bersabda: Kambingmu setatusnya adalah kambing yang disembelih untuk diambil dagingnya (bukan daging kurban). Laki-laki itu berkata lagi, Wahai Rasulullah, kami masih memiliki anak kambing yang dia lebih kami cintai dari dua ekor kambing tadi. Apakah aku dibolehkan berkurban dengannya? Nabi menjawab: Ya. Akan tetapi tidak boleh untuk seorangpun setelah kamu.</t>
+  </si>
+  <si>
+    <t>Pada hari raya Idul Firi dan Adlha Rasulullah keluar menuju tempat shalat (lapangan), dan pertama kali yang beliau kerjakan adalah shalat hingga selesai. Kemudian beliau berdiri menghadap orang banyak sedangkan mereka dalam keadaan duduk di barisan mereka. Beliau memberi pengajaran, wasiat dan memerintahkan mereka. Dan apabila beliau ingin mengutus pasukan, maka beliau sampaikan atau beliau perintahkan (untuk mempersiapkannya), setelah itu beliau berlalu pergi. Abu Sa'id Al Khudri berkata, Manusia senantiasa melaksanakan (tata cara shalat hari raya) seperti apa yang beliau laksanakan, hingga pada suatu hari aku keluar bersama Marwan -yang saat itu sebagai Amir di Madinah- pada hari raya Adlha atau Fithri. Ketika kami sampai di tempat shalat, ternyata di sana sudah ada mimbar yang dibuat oleh Katsir bin Ash Shalt. Ketika Marwan hendak menaiki mimbar sebelum pelaksanaan shalat, aku tarik pakaiannya dan dia balik menariknya, kemudian ia naik dan khuthbah sebelum shalat. Maka aku katakan kepadanya, Demi Allah, kamu telah merubah (sunnah)! Lalu dia menjawab, Wahai Abu Sa'id. Apa yang engkau ketahui itu telah berlalu. Aku katakan, Demi Allah, apa yang aku ketahui lebih baik dari apa yang tidak aku ketahui. Lalu dia berkata, Sesungguhnya orang-orang tidak akan duduk (mendengarkan khutbah kami) setelah shalat. Maka aku buat (khutbah) sebelum shalat.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat 'Idul Adlha dan 'Idul Fitri kemudian berkhutbah setelah shalat.</t>
+  </si>
+  <si>
+    <t>keluar pada hari Raya 'Idul Fitri, beliau memulainya dengan shalat kemudian khutbah.</t>
+  </si>
+  <si>
+    <t>tidak ada adzan dalam shalat Hari Raya 'Idul Fithri (di zaman Nabi ), dan bahwasanya khutbah dilaksanakan setelah shalat.</t>
+  </si>
+  <si>
+    <t>Dalam shalat Idul Fitri dan Idul Adlha tidak ada adzan.</t>
+  </si>
+  <si>
+    <t>memulai dengan shalat, kemudian berkhutbah di hadapan manusia setelahnya. Setelah Nabi selesai, beliau mendatangi tempat jama'ah wanita dan mengingatkan mereka. Beliau menyandar pada tangan Bilal, sementara Bilal sendiri membentangkan kain miliknya dimana para wanita memasukkan sedekahnya ke dalam kain tersebut. Aku bertanya kepada 'Atha, Bagaimana menurutmu apakah boleh jika sekarang Imam mendatangi para wanita untuk memberi peringatan kepada mereka setelah selesai dari khutbah? 'Atha menjawab, Itu adalah hak mereka, dan mengapa mereka tidak diperbolehkan melakukannya?</t>
+  </si>
+  <si>
+    <t>mereka semua melaksanakan shalat sebelum khutbah.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat dua Hari Raya sebelum khutbah.</t>
+  </si>
+  <si>
+    <t>shalat Hari Raya 'Idul Fitri dua rakaat dan tidak shalat sebelum atau sesudahnya. Kemudian beliau mendatangi para wanita dan memerintahkan mereka untuk bersedekah. Maka para wanita memberikan sedekah hingga ada seorang wanita yang memberikan anting dan kalungnya.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya yang pertama kali kami lakukan pada hari Raya ini adalah shalat. Kemudian kami pulang dan menyembelih kurban. Maka barangsiapa mengerjakan seperti itu berarti dia telah memenuhi sunnah kami. Dan barangsiapa menyembelih kurban sebelum pelaksanaan shalat 'Ied, maka itu hanyalah daging yang dipersembahkan untuk keluarganya dan tidak sedikitpun mendapatkan (pahala) ibadah kurban. Tiba-tiba ada seorang lelaki Anshar yang dipanggil dengan nama Abu Burdah bin Niyar berkata, Wahai Rasulullah, aku telah menyembelih hewan dan aku masih memiliki anak unta yang lebih baik dari unta yang lebih besar. Maka beliau bersabda: Jadikanlah ia sebagai pengganti dari apa yang telah kamu sembelih sebelum shalat, dan kamu akan mendapatkan bagian pahala yang cukup yang tidak akan didapati oleh orang selainmu.</t>
+  </si>
+  <si>
+    <t>Engkaulah yang membuat aku terkena mushibah ini. Al Hajjaj berkata, Bagaimana bisa! Ibnu 'Umar menjawab, Engkau yang membawa senjata di hari yang tidak diperbolehkan membawanya. Dan engkau pula yang membawa masuk senjata ke dalam Masjidil Haram padahal tidak diperbolehkan membawa masuk senjata ke dalam Masjidil Haram pada hari ini.</t>
+  </si>
+  <si>
+    <t>Yang melukai aku adalah orang yang memerintahkan membawa senjata pada suatu hari yang mana pada hari itu dilarang membawanya.' Yaitu Al Hajjaj.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya yang pertama kali kami lakukan pada hari Raya kami ini adalah shalat. Kemudian kami pulang dan melaksanakan penyembelihan kurban. Maka barangsiapa mengerjakan seperti itu berarti dia telah memenuhi sunnah kami. Dan barangsiapa menyembelih kurban sebelum pelaksanaan shalat 'Ied maka itu hanyalah daging yang dipersembahkan untuk keluarganya dan tidak sedikitpun mendapatkan (pahala) ibadah kurban. Tiba-tiba pamanku, Abu Burdah bin Niyar, berdiri dan berkata, Wahai Rasulullah, aku telah menyembelih hewan sebelum aku shalat, namun aku masih memiliki anak kambing yang lebih baik dari kambing yang telah berumur dua tahun. Maka beliau pun bersabda: Jadikanlah ia sebagai pengganti (dari apa yang telah kamu sembelih sebelum shalat). Atau beliau mengatakan: Sembelihlah, namun hal itu tidak mencukupi oleh orang selainmu.</t>
+  </si>
+  <si>
+    <t>Tidak ada amal yang lebih utama pada hari-hari (tasyriq) ini selian berkurban. Para sahabat berkata, Tidak juga jihad? Beliau menjawab: Tidak juga jihad. Kecuali seseorang yang keluar dari rumahnya dengan mengorbankan diri dan hartanya (di jalan Allah), lalu dia tidak kembali lagi.</t>
+  </si>
+  <si>
+    <t>Di antara kami ada seorang yang membaca talbiyyah, namun hal itu tidak diingkari, dan ada yang bertakbir namun hal itu juga tidak diingkari.</t>
+  </si>
+  <si>
+    <t>Pada hari Raya Ied kami diperintahkan untuk keluar sampai-sampai kami mengajak para anak gadis dari kamarnya dan juga para wanita yang sedang haid. Mereka duduk di belakang barisan kaum laki-laki dan mengucapkan takbir mengikuti takbirnya kaum laki-laki, dan berdoa mengikuti doanya kaum laki-laki dengan mengharap barakah dan kesucian hari raya tersebut.</t>
+  </si>
+  <si>
+    <t>Nabi menancapkan tombak pada hari Raya Fitri dan hari Raya kurban, kemudian beliau shalat.</t>
+  </si>
+  <si>
+    <t>berangkat menuju tempat shalat sedang di tangan beliau ada sebuat tongkat, tongkat tersebut beliau tancapkan di depannya lalu shalat menhhadap ke arahnya.</t>
+  </si>
+  <si>
+    <t>Nabi kami memerintahkan kami untuk mengeluarkan para gadis remaja kami dan wanita-wanita yang dipingit di rumah. Dan dari Ayyub dari Hafshah seperti riwayat ini juga. Dalam hadits Hafshah ditambahkan, beliau bersabda. Atau Ummu 'Athiyyah berkata, Para gadis remaja kami dan wanita-wanita yang dipingit di rumah, dan wanita-wanita hadi menjauhi tempat shalat.</t>
+  </si>
+  <si>
+    <t>shalat Hari Raya Fitri atau Adlha. Beliau melaksanakan shalat kemudian menyampaikan khutbah. Setelah itu, beliau mendatangi para wanita dan memberi pelajaran kepada mereka, mengingatkan dan memerintahkan agar bersedekah.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya yang pertama dari 'ibadah kita pada Hari Raya kita ini adalah memulai dengan melaksanakan shalat, kemudian kembali ke rumah dan menyembelih hewan kurban. Barangsiapa melaksanakan seperti itu berarti telah sesuai dengan sunnah kita. Dan barangsiapa menyembelih kurban sebelum shalat, maka itu hanyalah sesuatu yang dipersembahkan untuk keluarganya dan tidak ada sedikitpun termasuk dari ibadah kita ini. Lalu berdirilah seorang laki-laki dan berkata, Wahai Rasulullah, aku telah menyembelih (sebelum shalat), namun aku masih memiliki anak kambing yang lebih baik dari kambing yang telah berumur dua tahun? Beliau pun bersabda: Sembelihlah. Namun ini tidak berlaku bagi seorang pun setelahmu.</t>
+  </si>
+  <si>
+    <t>Ya. Kalau seandainya bukan karena kedudukanku yang masih kecil, tentu aku tak akan turut serta, hingga beliau mendatangi tanda yang ada di sisi rumah Katsir bin Ash Shalt. Beliau lalu shalat dan memberikan khutbah. Setelah itu beliau mendatangi jama'ah para wanita bersama Bilal, beliau memberi pelajaran kepada para wanita tersebut, mengingatkan mereka dan memerintahkan agar bersedekah. Maka aku menyaksikan para wanita tersebut memberikan apa yang ada pada tangan mereka (emas perhiasan), mereka meletakkannya ke dalam kain yang di bawa oleh Bilal. Setelah itu beliau dan Bilal pergi menuju rumahnya.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat pada hari Raya Iedul Fitri, dan yang pertama kali beliau kerjakan adalah shalat, baru kemudian menyampaikan khutbah. Selesai khutbah beliau turun (dari mimbar) dan mendatangi jama'ah wanita untuk mengingatkan mereka dengan bersandar pada tangan Bilal, sementara Bilal sendiri membentangkan kain miliknya hingga para wanita tersebut memasukkan sedekahnya ke dalam kain tersebut. Aku bertanya kepada 'Atha, 'Apakah itu zakat fitri? ' ia menjawab, 'Bukan, tetapi sedekah yang mereka keluarkan pada saat itu, mereka memberikan anting dan gelang mereka.' Aku bertanya lagi, 'Bagaimana pendapatmu jika masa sekarang ini seorang Imam mendatangi jama'ah para wanita lalu mengingatkan mereka tentang itu? ' 'Atha menjawab, 'Yang demikian itu merupakan hak mereka (para Imam), dan apa alasanya mereka tidak boleh melakukannya? '</t>
+  </si>
+  <si>
+    <t>(Hai Nabi, apabila datang kepadamu perempuan-perempuan yang beriman untuk mengadakan janji setia, â€¦) ' (Qs. Al Mumtahanah: 12), selesai membaca ayat tersebut beliau mengatakan: Apakah kalian siap untuk itu? salah seorang wanita dari mereka -dan tidak ada yang berani menjawab selain dia- berkata, Ya. -namun Hasan tidak tahu siapa wanita tersebut. Perawi berkata, Kemudian mereka bersedekah dan Bilal membentangkan selembar kain, kemudian Bilal berkata, Demi bapak dan ibuku, kemarilah! Sungguh, itu akan menjadi tebusan bagi kalian. Mereka kemudian melemparkan gelang (besar) dan cincin mereka ke dalam kain yang dibawa oleh Bilal. Abdurrazaq berkata, Al Fatakh adalah cincin besar (gelang) yang bisa mereka pakai pada masa jahiliyah.</t>
+  </si>
+  <si>
+    <t>Hendaklah temannya meminjamkan jilbabnya, sehingga mereka dapat menyaksikan kebaikan dan mendo'akan Kaum Muslimin. Hafshah berkata, Ketika Ummu 'Athiyyah datang, aku menemuinya dan kutanyakan kepadanya, 'Apakah kamu pernah mendengar tentang ini dan ini? ' Dia menjawab, 'Iya. Demi bapakku'. Dan setiap kali dia menceritakan tentang Nabi , dia selalu mengatakan 'Demi bapakku'. Beliau bersabda: Keluarkanlah para gadis remaja yang dipingit dalam rumah. Atau beliau bersabda: Para gadis remaja dan wanita-wanita yang dipingit dalam rumah -Ayyub masih ragu- dan wanita yang sedang haid. Dan hendaklah wanita yang sedang haid dijauhkan dari tempat shalat, agar mereka dapat menyaksikan kebaikah dan mendo'akan Kaum Muslimin. Hafshah berkata, Aku bertanya kepadanya, 'Wanita yang sedang haid juga? ' Dia menjawab, 'Bukankah mereka juga hadir di 'Arafah dan menyaksikan ini dan itu? '.</t>
+  </si>
+  <si>
+    <t>maka kami keluarkan pula para wanita yang sedang haid, gadis remaja dan wanita-wanita yang dipingit dalam rumah. Ibnu Aun menyebutkan, Atau gadis-gadis remaja yang dipingit. Adapun wanita haid, maka mereka dapat menyaksikan (menghadiri) jama'ah kaum Muslimin dan mendo'akan mereka, dan hendaklah mereka menjauhi tempat shalat mereka (kaum laki-laki).</t>
+  </si>
+  <si>
+    <t>berkurban atau menyembelih hewan kurban di tempat shalat.</t>
+  </si>
+  <si>
+    <t>Barangsiapa shalat seperti shalat kita dan melaksanakan manasik (penyembelihan kurban) seperti kita berarti telah mendapatkan pahala berkurban. Dan barangsiapa menyembelih kurban sebelum shalat maka itu hanyalah kambing yang dinikmati dagingnya. Maka Abu Burdah bin Niyar berdiri dan berkata, Wahai Rasulullah, aku telah menyembelih sebelum aku keluar untuk shalat, dan aku mengetahui bahwa hari ini adalah hari makan dan minum, aku lalu menyegerakan penyembelihannya, kemudian aku berikan kepada keluarga dan para tetanggaku. Maka Rasulullah pun bersabda: Itu hanyalah kambing yang dinikmati dagingnya. Abu Burdah bertanya lagi, Namun aku masih memiliki anak kambing yang lebih baik dari kambing yang telah aku sembelih itu. Apakah dibenarkan kalau aku menyembelihnya? Beliau menjawab: Ya. Akan tetapi tidak boleh untuk seorangpun setelah kamu.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat hari Raya kurban kemudian menyampaikan khutbah, beliau katakan: Barangsiapa menyembelih hewan sebelum shalat, maka dia harus menyembelih ulang. Lalu berdirilah seorang laki-laki Anshar seraya berkata, Wahai Rasulullah, para tetanggaku! Orang itu entah berkata, Mereka sangat membutuhkan. atau Mereka orang-orang miskin. Dan aku telah menyembelih kurban sebelum shalat. Namun aku masih punya anak kambing yang lebih aku cintai dari pada kambing yang telah aku sembelih? Maka beliau pun memberikan keringanan untuk orang itu.</t>
+  </si>
+  <si>
+    <t>Barangsiapa menyembelih hewan sebelum shalat maka dia harus menyembelih hewan kurban lain sebagai penggantinya. Dan siapa yang belum menyembelihnya maka sembelihlah atas nama Allah.</t>
+  </si>
+  <si>
+    <t>Jika Rasulullah shalat 'Ied, beliau mengambil jalan yang berbeda (antara berangkat dan kembali). Hadits ini dikuatkan oleh Yunus bin Muhammad dari Fulaih. Dan Muhammad bin Ash Shalt berkata dari Fulaih dari Sa'id dari Abu Hurairah. Dan hadits Jabir lebih shahih.</t>
+  </si>
+  <si>
+    <t>Biarkanlah mereka dengan jaminan Bani Arfidah, yaitu keamanan.</t>
+  </si>
+  <si>
+    <t>keluar pada Hari Raya 'Iedul Fitri, beliau melaksanakan shalat dua rakaat, tanpa melaksanakan shalat baik sebelum atau sesudahnya. Dan saat itu beliau bersama Bilal? .</t>
+  </si>
+  <si>
+    <t>Shalat malam itu dua rakaat dua rakaat. Jika salah seorang dari kalian khawatir akan masuk waktu shubuh, hendaklah ia shalat satu rakaat sebagai witir (penutup) bagi shalat yang telah dilaksanakan sebelumnya. Dan dari Nafi' bahwa 'Abdullah bin 'Umar memberi salam di antara satu rakaat dan dua rakaat witir hingga dia menuntaskan sebagian keperluannya.</t>
+  </si>
+  <si>
+    <t>Rasulullah dan isterinya berbaring pada bagian tengahnya. Beliau tidur hingga pertengahan malam atau kurang sedikit, kemudian beliau bangun dan mengusap sisa tidur pada wajahnya, membaca sepuluh ayat dari surah Ali 'Imran. Kemudian beliau berdiri mengambil geriba berisi air yang digantung, beliau berwudlu dengan wudlu yang sempurna lalu mendirikan shalat. Aku kemudian mengerjakan seperti apa yang beliau kerjakan, aku lantas berdiri disampingnya. Beliau kemudian meletakkan tangan kanannya di atas kepalaku, meraih telingaku dan menariknya (menggeser). Kemudian beliau shalat dua rakaat, lalu dua rakaat, lalu dua rakaat, lalu dua rakaat, lalu dua rakaat, lalu dua rakaat, lalu shalat witir. Kemudian Beliau berbaring hingga seorang mu'adzin mendatanginya, kemudian beliau melaksanakan shalat dua rakaat lalu keluar melaksanakan shalat subuh.</t>
+  </si>
+  <si>
+    <t>Shalat malam dua rakaat dua rakaat, jika kamu hendak mengakhirinya, maka shalatlah satu rakaat sebagai penutup dari shalatmu sebelumnya. Al Qasim berkata, Semenjak kami ketahui, kami melihat orang-orang mengerjakan witir dengan tiga rakaat. Sesungguhnya urusan ini adalah kelonggaran yang aku berharap bukan menjadi perkara yang salah.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat sebelas rakaat, begitulah cara beliau shalat -yakni shalat tahajjut-. Dalam shalat tersebut beliau sujud seperti lamanya kalian membaca sekitar lima puluh ayat sebelum mengangkat kepalanya. Dan beliau mengerjakan shalat dua rakaat sebelum melaksanakan shalat subuh. Kemudian beliau berbaring pada sebelah tubuh sebelah kanan hingga datang mu'adzin (membangunkan) untuk shalat.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat malam dua rakaat dua rakaat lalu witir dengan satu rakaat, dan beliau mengerjakan shalat dua rakaat sebelum melaksanakan shalat Fajar, seakan adzan ada di sisi telinganya. Hammad berkata, Maksudnya beliau melaksanakan dua rakaat tersebut dengan cepat.</t>
+  </si>
+  <si>
+    <t>Sepanjang malam Rasulullah melaksanakan shalat witir dan berhenti pada waktu sahur.</t>
+  </si>
+  <si>
+    <t>berdiri shalat malam sedangkan aku berbaring membentang di atas tikarnya. Apabila akan melaksanakan shalat witir, beliau membangunkan aku hingga aku pun mengerjakan shalat witir.</t>
+  </si>
+  <si>
+    <t>Jadikanlah akhir shalat malam dengan ganjil (witir).</t>
+  </si>
+  <si>
+    <t>shalat witir di atas untanya.</t>
+  </si>
+  <si>
+    <t>mengerjakan shalat di atas tunggangannya kemana saja hewan itu menghadap, beliau mengerjakannya dengan isyarat, kecuali shalat fardlu. Dan beliau juga mengerjakan shalat witir di atas kendaraannya.</t>
+  </si>
+  <si>
+    <t>Apakah Nabi melakukan qunut dalam shalat Shubuh? Dia berkata, Ya. Lalu dikatakan kepadanya, Apakah beliau melakukannya sebelum rukuk? Dia menjawab, Terkadang setelah rukuk.</t>
+  </si>
+  <si>
+    <t>Rasulullah pernah melaksanakannya setelah rukuk selama satu bulan. Hal itu Beliau lakukan karena Beliau pernah mengutus sekelompok orang (ahli Al-Qur'an) yang berjumlah sekitar tujuh puluh orang kepada Kaum Musyrikin selain mereka. Saat itu antara Rasulullah dan kaum musyrikin ada perjanjian. Kemudian Rasulullah melaksanakan doa qunut selama satu bulan untuk berdoa atas mereka (karena telah membunuh para utusannya).</t>
+  </si>
+  <si>
+    <t>Nabi pernah melaksanakan qunut selama satu bulan untuk mendo'akan (kebinasaan) atas suku Ri'la dan Dzakwan.</t>
+  </si>
+  <si>
+    <t>Qunut itu dilakukan pada shalat Maghrib dan Shubuh.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat istisqa' dengan membalik selendangnya.</t>
+  </si>
+  <si>
+    <t>ALLAHUMMA ANJI AYYASY IBNA ABII RABI'AH ALLAHUMMA ANJI SALAMAH IBNA HISYAM ALLAHUMMA ANJIL WALIDA IBNAL WALIID ALLAHUMMA ANJIL MUSTADL'AFIINA MINAL MU`MINIINA ALLAHUMMASDUD WATH`ATAKA 'ALAA MUDLAR ALLHUMMALHAA SINIINA YUSUF (Ya Allah selamatkanlah 'Ayyasy bin Abu Rabi'ah, Ya Allah selamatkanlah Salamah bin Hisyam, Ya Allah selamatkanlah Al Walib bin Al Walid, Ya Allah selamatkanlah orang-orang yang lemah dari orang-orang beriman. Ya Allah keraskanlah sikaan-Mu atas suKu Mudlar dan timpakanlah kepada mereka musim paceklik sebagaimana terjadi di zaman Yusuf). Nabi juga berdoa: Suku Ghifar, semoga Allah mengampuni mereka. Suku Aslam, semoga Allah menyelamatkan mereka. Ibnu Abu Az Zinad menyebutkan dari Bapaknya, Semua ini dilakukan pada shalat Shubuh.</t>
+  </si>
+  <si>
+    <t>Ya Allah, timpakanlah kepada mereka masa paceklik tujuh tahun seperti kejadian zaman Yusuf. Maka terjadilah masa paceklik tersebut dimana tidak ada tunbuhan-tunbuhan yang tumbuh sehingga mereka memakan kulit, bangkai dan barang-barang busuk. Kemudian ada seorang dari mereka yang memandang ke langit melihat awan lantaran lapar. Lalu Abu Sufyan menemui beliau seraya berkata, Ya Muhammad, kamu adalah orang yang memerintahkan untuk taat kepada Allah dan menyambung silaturrahim, kaummu telah binasa, maka mintalah kepada Allah untuk mereka. Allah lalu berfirman: '(Maka tunggulah hari ketika langit membawa kabut yang nyata) hingga firman-Nya: '(Sesungguhnya kamu akan kembali (ingkar). (Ingatlah) hari (ketika) kami menghantam mereka dengan hantaman yang keras. Sesungguhnya kami adalah pemberi balasan) ' (Qs. Ad Dukhaan: 10-16). Siksaan (hantaman yang keras) adalah saat mereka terbunuh dalam perang Badar. Dan saat awan gelap sudah berlalu.</t>
+  </si>
+  <si>
+    <t>#Wajahnya yang putih mengharap turunnya awan (hujan), #sumber kehidupan anak-anak yatim dan pelindung para janda. Dan Umar bin Hamzah berkata, telah menceritakan kepada kami Salim dari Bapaknya, barangkali aku sebutkan kepadanya perkataan syair -sementara aku lihat wajah Nabi meminta turunnya hujan. Maka beliau belum selesai, setiap aliran air telah penuh dengan air- Wajahnya yang putih mengharap turunnya awan (hujan), #sumber kehidupan anak-anak yatim dan pelindung para janda. Itulah perkataan Abu Thalib.</t>
+  </si>
+  <si>
+    <t>kami meminta hujan kepada-Mu dengan perantaraan Nabi kami, kemudian Engkau menurunkan hujan kepada kami. Maka sekarang kami memohon kepada-Mu dengan perantaraan paman Nabi kami,, maka turunkanlah hujan untuk kami. Anas berkata, Mereka pun kemudian mendapatkan hujan.</t>
+  </si>
+  <si>
+    <t>meminta hujan dengan membalik selendangnya.</t>
+  </si>
+  <si>
+    <t>pernah keluar menuju tempat shalat kemudian melaksanakan shalat istisqa' (meminta hujan). Beliau menghadap kiblat dan membalik posisi selendangnya, lalu melaksanakan shalat dua rakaat. Abu 'Abdullah berkata, Ibnu 'Uyainah berkata, Dia adalah seorang mu'adzin tetapi dia ragu, karena orang ini -'Abdullah bin Zaid bin 'Ashim Al mazini- adalah Mazin Al Anshar.</t>
+  </si>
+  <si>
+    <t>Ya Allah turunkanlah hujan di sekitar kami saja dan jangan membahayakan kami. Ya Allah turunkanlah di atas bukit-bukit, gunung-gunung, bendungan air (danau), dataran tinggi, jurang-jurang yang dalam serta pada tempat-tempat tumbuhnya pepohonan. Anas berkata, Maka hujan berhenti. Kami lalu keluar berjalan-jalan di bawah sinar matahari. Syarik berkata, Aku bertanya kepada Anas bin Malik, 'Apakah laki-laki itu adalah laki-laki yang pertama? ' Anas menjawab, 'Aku tak tahu'.</t>
+  </si>
+  <si>
+    <t>Ya Allah berilah kami hujan, Ya Allah berilah kami hujan, Ya Allah berilah kami hujan. Anas bin Malik melanjutkan, Demi Allah, sebelum itu kami tidak melihat sedikitpun awan baik yang tebal maupun yang tipis. Juga tidak ada antara tempat kami dan bukit itu rumah atau bangunan satupun. Tiba-tiba dari bukit itu tampaklah awan bagaikan perisai. Ketika sudah membumbung sampai ke tengah langit, awan itupun menyebar lalu turunlah hujan. Anas bin Malik berkata, Demi Allah, sungguh kami tidak melihat matahari selama enam hari. Kemudian pada Jum'at berikutnya, ada seorang laki-laki masuk kembali dari pintu yang sama sementara Rasulullah sedang beridiri menyampaikan khutbahnya. Orang itu lalu berdiri menghadap beliau seraya berkata, Wahai Rasulullah, harta benda telah binasa dan jalan-jalan pun terputus. Maka mintalah kepada Allah agar menahan hujan dari kami! Maka Rasulullah pun mengangkat kedua tangannya seraya berdoa: Ya Allah turunkanlah hujan di sekitar kami saja dan jangan membahayakan kami. Ya Allah turunkanlah di atas bukit-bukit, dataran tinggi, jurang-jurang yang dalam serta pada tempat-tempat tumbuhnya pepohonan. Anas bin Malik berkata, Maka hujan pun berhenti. Lalu kami keluar berjalan-jalan di bawah sinar matahari. Syarik berkata, Aku bertanya kepada Anas bin Malik, 'Apakah laki-laki tadi juga laki-laki yang pertama? ' Dia menjawab, 'Aku tak tahu'.</t>
+  </si>
+  <si>
+    <t>Ya Allah turunkanlah hujan di sekitar kami saja dan jangan membahyakan kami. Anas bin Malik berkata, Sungguh aku melihat awan berpencar ke kanan dan kiri, lalu hujan turun namun tidak menghujani penduduk Madinah.</t>
+  </si>
+  <si>
+    <t>Ya Allah turunkanlah di atas bukit-bukit, dataran tinggi, jurang-jurang yang dalam serta pada tempat-tempat tumbuhnya pepohonan. Maka awan pun menjauh dari Madinah seperti kain.</t>
+  </si>
+  <si>
+    <t>Ya Allah turunkanlah di puncak-puncak gunung, perbukitan, jurang-jurang yang dalam serta tempat-tempat tumbuhnya pepohonan. Maka awan itu pun menjauh dari Madinah seperti kain.</t>
+  </si>
+  <si>
+    <t>berdoa kepada Allah meminta hujan. Namun Anas tidak menyebutkan bahwa beliau membalik selendang dan menghadap kiblat.</t>
+  </si>
+  <si>
+    <t>Ya Allah turunkanlah di puncak-puncak gunung, perbukitan, jurang-jurang yang dalam dan tempat-tempat tumbuhnya pepohonan. Maka awan menjauh dari Madinah seperti kain.</t>
+  </si>
+  <si>
+    <t>berdoa agar mereka terkena adzab. Maka terjadilah masa paceklik dimana tidak ada tumbuhan-tumbuhan yang hidup sehingga mereka memakan kulit, bangkai dan barang-barang yang telah busuk. Kemudian datang Abu Sufyan kepada beliau seraya berkata, Ya Muhammad, kamu telah datang untuk memerintahkan orang agar menyambung silaturrahim, sekarang kaummu telah binasa. Maka mintalah kepada Allah! Beliau kemudian membaca ayat: '(Maka tunggulah hari ketika langit membawa kabut yang nyata) ' (Qs. Adl Dlukhaan: 10). Namun kemudian mereka kembali kepada kekafiran mereka. Maka terjadilah seperti dalam firman-Nya: '(Ingatlah) hari (ketika) kami menghantam mereka dengan hantaman yang keras. Sesungguhnya kami adalah pemberi balasan) ' (Qs. Adl Dlukhaan: 16). Yakni pada saat perang Badar. Abu 'Abdullah berkata; Asbath menambahkan dari Manshur, Maka Rasulullah berdoa hingga mereka mendapatkan air hujan, dan hujan tersebut menyelimuti mereka selama tujuh hari. Kemudian orang-orang mengeluh karena hujan yang lebat terus menerus. Beliau kemudian berdoa: Ya Allah turunkanlah hujan di sekitar kami saja dan jangan membahyakan kami. Maka awan pun menyingkir dari atas kepala beliau, lalu orang-orang mendapatkan air dari sekeliling mereka.</t>
+  </si>
+  <si>
+    <t>Ya Allah, berilah kami air hujan. dua kali. Demi Allah, sebelumnya kami tidak melihat ada awan yang tipis sekalipun hingga muncul awan tebal, kemudian hujan pun turun. Setelah itu beliau turun dari mimbar dan melaksanakan shalat. Setelah selesai, hujan masih terus turun bahkan hingga Jum'at berikutnya. Maka ketika Nabi berdiri menyampaikan khutbah, orang-orang kembali berseru kepada beliau: Rumah-rumah telah hancur, jalan-jalan terputus, berdo'alah kepada Allah agar menahan hujan dari kami! Nabi lalu tersenyum seraya berdoa: Ya Allah turunkanlah hujan di sekitar kami saja dan jangan membahayakan kami. Maka Madinah menjadi terang kembali dan hujan hanya turun di sekitarnya, bahkan tidak ada hujan setetespun di Madinah. Kemudian aku melihat langit Madinah, dan nampak hujan hanya turun disekitarnya.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat istisqa' (minta hujan). 'Abdullah bin Yazid Al Anshari lalu berdiri di atas kedua kakinya dan tidak di atas mimbar. Dia lalu beristighfar dan melaksanakan shalat dua rakaat dengan mengeraskan bacaannya, tanpa dengan adzan atau pun iqamah. Abu Ishaq berkata, 'Abdullah bin Yazid Al Anshari pernah melihat Nabi (melaksanakan seperti itu).</t>
+  </si>
+  <si>
+    <t>keluar bersama manusia (melaksanakan shalat istisqa') memintakan hujan untuk mereka. Beliau kemudian berdiri menghadap kiblat dan berdoa dalam keadaan berdiri sambil membalikkan kain selendangnya. Setelah itu mereka pun mendapatkan hujan.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat istisqa', beliau lalu berdoa dengan menghadap ke arah kiblat sambil membalikkan kain selendangnya. Kemudian beliau melaksanakan shalat dua rakaat dengan mengeraskan bacaannya pada kedua rakaat itu.</t>
+  </si>
+  <si>
+    <t>keluar minta turunnya hujan. Beliau kemudian menghadap ke arah kiblat dengan menghadapkan punggungnya ke arah manusia, beliau lalu berdoa sambil membalikkan kain selendangnya. Setelah itu beliau mengimami kami shalat dua rakaat dengan mengeraskan bacaan.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat istisqa' (meminta hujan). Beliau lalu melakanakan shalat dua rakaat dan membalik selendangnya.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat istisqa' (meminta hujan). Beliau lalu menghadap kiblat dan melakanakan shalat dua rakaat sambil membalik selendangnya. Sufyan berkata; telah mengabarkan kepadaku Al Mas'udi dari Abu Bakar berkata, Maksudnya selendangnya dipindah dari posisi pundak kanan ke pundak kiri.</t>
+  </si>
+  <si>
+    <t>shalat untuk melaksanakan shalat (istisqa'). Ketika beliau berdoa, atau akan berdoa, beliau menghadap ke arah kiblat dan membalik selendangnya. Abu 'Abdullah berkata, 'Abdullah bin Zaid ini adalah dari suku Al Maazini. Sedangkan yang pertama (rawi pada hadits ke 966) adalah dari Kufah, yaitu Ibnu Yazid.</t>
+  </si>
+  <si>
+    <t>tidak pernah mengangkat tangannya saat berdoa kecuali ketika berdoa dalam shalat istisqa'. Beliau mengangkat tangannya hingga terlihat putih kedua ketiaknya.</t>
+  </si>
+  <si>
+    <t>ALLAHUMMA SHAYYIBAA NAAFI'AA (Ya Allah, jadikanlah hujan ini bermanfaat) '. Hadits ini juga dikuatkan oleh Al Qasim bin Yahya dari 'Ubaidullah, dan diriwayatkan pula oleh Al Auza'i dan 'Uqail dari Nafi'.</t>
+  </si>
+  <si>
+    <t>ALLAHUMMA HAWAALAINAA WA LAA 'ALAINAA (Ya Allah, turunkanlah hujan di sekeling kami saja dan jangan sampai menimbulkan kerusakan kepada kami) '. Belum lagi beliau memberikan isyarat dengan tangannya ke langit, awan tersebut telah hilang. Saat itu kota Madinah menjadi seperti danau dan aliran-aliran air, bahkan tidak mendapatkan sinar matahari selama satu bulan. Anas bin Malik berkata, Tidak ada satupun orang yang datang dari segala pelosok kota kecuali akan menceritakan tentang terjadinya hujan yang lebat tersebut.</t>
+  </si>
+  <si>
+    <t>Jika akan terjadi angin yang berhembus kencang, maka hal itu dapat diketahui pada wajah Nabi .</t>
+  </si>
+  <si>
+    <t>Aku ditolong dengan perantaraan angin yang berhembus dari timur (belakang pintu Ka'bah) sedangkan kaum 'Aad dibinasakan dengan angin yang berhembus dari barat.</t>
+  </si>
+  <si>
+    <t>Tidak akan terjadi hari kiamat kecuali setelah hilangnya ilmu, banyak terjadi gempa, waktu seakan berjalan dengan cepat, timbul berbagai macam fitnah, Al haraj -yaitu pembunuhan- dan harta melimpah ruah kepada kalian.</t>
+  </si>
+  <si>
+    <t>Ya Allah, berkatilah kami pada negeri Syam kami dan negeri Yaman kami. Para sahabat berkata lagi, Juga untuk negeri Najed kami. Ibnu 'Umar berkata, Beliau lalu berdoa: Disanalah akan terjadi bencana dan fitnah, dan di sana akan muncul tanduk setan.</t>
+  </si>
+  <si>
+    <t>Di pagi ini ada hamba-hamba Ku yang menjadi Mukmin kepada-Ku dan ada pula yang kafir. Orang yang berkata, 'Hujan turun kepada kita karena karunia Allah dan rahmat-Nya', maka dia adalah yang beriman kepada-Ku dan kafir kepada bintang-bintang. Adapun yang berkata, 'Hujan turun disebabkan bintang ini dan itu', maka dia telah kafir kepada-Ku dan beriman kepada bintang-bintang'.</t>
+  </si>
+  <si>
+    <t>Ada lima kunci ghaib yang tidak diketahui seorangpun kecuali oleh Allah; tidak seorangpun yang mengetahui apa yang akan terjadi esok hari, dan tidak seorangpun yang mengetahui apa yang tersembunyi dalam rahim, dan tak satu jiwa pun yang tahu apa yang akan diperbuatnya esok, dan tak satu jiwa pun yang tahu di bumi mana dia akan mati serta tidak seorangpun yang mengetahui kapan turunnya hujan.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya matahari dan bulan tidak akan mengalami gerhana disebabkan karena matinya seseorang. Jika kalian melihat gerhana keduanya, maka dirikanlah shalat dan banyaklah berdoa hingga selesai gerhana yang terjadi pada kalian.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya matahari dan bulan tidak akan mengalami gerhana disebabkan karena matinya seorang dari manusia, tetapi keduanya adalah dua tanda dari tanda-tanda kebesaran Allah. Jika kalian melihat gerhana keduanya maka berdirilah untuk shalat.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya matahari dan bulan tidak akan mengalami gerhana disebabkan mati atau hidupnya seseorang, akan tetapi keduanya adalah dua tanda dari tanda-tanda kebesaran Allah. Maka jika kalian melihat gerhana keduanya, hendaklah shalatlah</t>
+  </si>
+  <si>
+    <t>Sesungguhnya matahari dan bulan tidak akan mengalami gerhana disebabkan karena mati atau hidupnya seseorang. Jika kalian melihat gerhana, maka shalat dan berdoalah kalian kepada Allah.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya matahari dan bulan adalah dua tanda dari tanda-tanda kebesaran Allah, dan tidak akan mengalami gerhana disebabkan karena mati atau hidupnya seseorang. Jika kalian melihat gerhana, maka banyaklah berdoa kepada Allah, bertakbirlah, dirikan shalat dan bersedekahlah. Kemudian beliau meneruskan sabdanya: Wahai ummat Muhammad! Demi Allah, tidak ada yang melebihi kecemburuan Allah kecuali saat Dia melihat hamba laki-laki atau hamba perempuan-Nya berzina. Wahai ummat Muhammad! Demi Allah, seandainya kalian mengetahui apa yang aku ketahui, niscaya kalian akan sedikit tertawa dan lebih banyak menangis.</t>
+  </si>
+  <si>
+    <t>Ketika terjadi gerhana matahari pada masa Rasulullah , maka panggilannya dengan seruan, 'Ashshalaatul jaami'ah (Marilah mendirikan shalat secara bersama-sama) '.</t>
+  </si>
+  <si>
+    <t>Keduanya adalah dua tanda dari tanda-tanda kebesaran Allah, dan gerhana tidak akan terjadi hanya karena mati atau hidupnya seseorang. Jika kalian melihat (gerhan) keduanya, maka bersegeralah mendirikan shalat. Katsir bin 'Abbas menceritakan bahwa 'Abdullah bin 'Abbas? menceritakan tentang hari terjadinya gerhana marahari seperti hadits 'Urwah dari 'Aisyah ini. Aku lalu berkata kepada 'Urwah, Sesungguhnya ketika terjadi gerhana di Madinah, saudaramu tidak pernah menambah lebih dari dua rakaat, seperti shalat shubuh. Dia menjawab, Benar. Dia telah ia telah menyelisihi sunnah.</t>
+  </si>
+  <si>
+    <t>Keduanya adalah dua tanda dari tanda-tanda kebesaran Allah yang tidak akan terjadi gerhana disebabkan karena mati atau hidupnya seseorang. Maka jika kalian melihat gerhana keduanya, hendaklah kalian segera mendirikan shalat.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya matahari dan bulan adalah dua tanda dari tanda-tanda kebesaran Allah, dan keduanya tidak akan mengalami gerhana disebabkan karena mati atau hidupnya seseorang. Akan tetapi dengan peristiwa itu Allah Ta'ala ingin membuat para hamba-Nya takut (dengan siksa-Nya). Abu 'Abdullah berkata, 'Abdul Warits dan Syu'bah dan Khalid bin 'Abdullah dan Hammad bin Salamah dari Yunus tidak menyebutkan lafadz, 'Akan tetapi dengan peristiwa tersebut Allah Ta'ala ingin membuat para hamba-Nya takut (dengan siksa-Nya). Riwayat ini dikuatkan oleh 'Asy'ats dari Al Hasan, dan dikuatkan juga oleh Musa dari Mubarak dari Al Hasan ia berkata; telah mengabarkan kepadaku Abu Bakrah dari Nabi , beliau bersabda: Sesungguhnya Allah Ta'ala dengan peristiwa itu Allah ingin membuat takut para hamba-Nya (dari siksa-Nya).</t>
+  </si>
+  <si>
+    <t>kemudian memerintahkan orang-orang agar mereka memohon perlindungan dari siksa kubur.</t>
+  </si>
+  <si>
+    <t>Saat terjadi gerhana matahari di zaman Rasulullah , maka diserukan dengan panggilan, 'Ashshalaatul jaami'ah (Marilah mendirikan shalat secara bersama-sama) '. Nabi lalu rukuk dua kali dalam satu kali sujud, kemudian berdiri kembali dan rukuk dua kali dengan satu kali sujud. Kemudian beliau duduk sementara matahari telah nampak kembali. 'Abdullah bin 'Amru berkata, 'Aisyah? berkata, Tidak pernah aku melaksanakan satu sujudpun yang lebih panjang darinya.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya matahari dan bulan adalah dua tanda dari tanda-tanda kebesaran Allah, dan keduanya tidak akan mengalami gerhana disebabkan karena mati atau hidupnya seseorang. Jika kalian melihatnya maka banyaklah mengingat Allah. Para sahabat bertanya, Wahai Rasulullah, kami melihat tuan merasakan sesuatu pada posisi tuan dan kami melihat seakan tuan menahan perasaan takut? Beliau menjawab: Sungguh aku melihat surga, dan didalamnya aku memperoleh setandan anggur. Seandainya aku mengambilnya tentu kalian akan memakannya sehingga urusan dunia akan terabaikan. Kemudian aku melihat neraka, dan aku belum pernah melihat suatu pemandangan yang lebih mengerikan dibanding hari ini, dan aku melihat kebanyakan penghuninya adalah kaum wanita. Para sahabat bertanya lagi, Mengapa begitu wahai Rasulullah? Beliau menjawab: Karena mereka sering kufur (mengingkari). Ditanyakan kepada beliau, Apakah mereka mengingkari Allah? Beliau menjawab: Mereka mengingkari pemberian suami, mengingkari kebaikan. Seandainya kamu berbuat baik terhadap salah seorang dari mereka sepanjang masa, lalu dia melihat satu saja kejelekan darimu maka dia akan berkata, 'Aku belum pernah melihat kebaikan darimu sedikitpun'.</t>
+  </si>
+  <si>
+    <t>Tidak ada sesuatu yang belum diperlihatkan kepadaku, kecuali aku sudah melihatnya dari tempatku ini, hingga surga dan neraka. Kemudian diwahyukan kepadaku, bahwa Kalian akan terkena fitnah dalam kubur kalian seperti, atau seupa dengan fitnah Dajjal -Aku sendiri tidak tahu mana dari keduanya yang dikatakan oleh Asma'-. Salah seorang dari kalian akan dihadapkan lalu ditanya, 'Apa yang kamu ketahui tentang laki-laki ini? ' Orang beriman atau orang yang yakin -Aku tidak tahu mana dari keduanya yang dikatakan ileh Asma'- akan menjawab, 'Dia adalah Muhammad Rasulullah , dia datang kepada kami membawa penjelasan dan petunjuk. Maka kami sambut, kami beriman kepadanya dan kami ikuti (ajarannya).' Maka kepada orang itu dikatakan, 'Tidurlah kamu dengan baik, sungguh kami telah mengetahui bahwa kamu adalah orang yang yaqin.' Adapun orang Munafik atau orang yang ragu - aku tidak tahu mana dari keduanya yang dikatakan oleh Asma'- akan menjawab, 'Aku tidak tahu siapa dia, aku mendengar orang-orang mengatakan sesuatu, maka aku pun ikut mengatakannya'.</t>
+  </si>
+  <si>
+    <t>Nabi telah memerintahkan untuk membebaskan budak ketika terjadi gerhana matahari.</t>
+  </si>
+  <si>
+    <t>Matahari dan bulan tidak akan mengalami gerhana disebabkan karena mati atau hidupnya seseorang, akan tetapi keduanya adalah dua tanda dari tanda-tanda kebesaran Allah. Jika kalian melihat gerhana keduanya maka shalatlah.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya matahari dan bulan tidak akan mengalami gerhana disebabkan karena mati atau hidupnya seseorang, akan tetapi keduanya adalah dua tanda dari tanda-tanda kebesaran Allah, yang Dia perlihatkan kepada hamba-hambaNya. Jika kalian melihat gerhana keduanya, maka segeralah mendirikan shalat.</t>
+  </si>
+  <si>
+    <t>Inilah dua tanda-tanda yang Allah kirimkan, ia tidak terjadi karena hidup atau matinya seseorang, tetapi '(Dia, Allah mempertakuti hamba-hambaNya dengannya) ' (Qs. Az ZUmar: 16). Maka jika kalian melihat sesuatu padanya (gerhana), maka segeralah untuk mengingat Allah, berdoa dan minta ampunan.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya matahari dan bulan adalah dua tanda dari tanda-tanda kebesaran Allah, dan ia tidak akan mengalami gerhana disebabkan karena mati atau hidupnya seseorang. Jika kalian melihat gerhana keduanya, maka berdo'alah kepada Allah dan dirikan shalat hingga (matahari) kembali nampak.</t>
+  </si>
+  <si>
+    <t>Telah pernah terjadi gerhana matahari pada zaman Rasulullah , kemudian Beliau mendirikan shalat dua raka'at.</t>
+  </si>
+  <si>
+    <t>Matahari dan bulan adalah dua tanda dari tanda-tanda kebesaran Allah dan keduanya tidak akan mengalami gerhana disebabkan karena kematian seseorang. Jika terjadi gerhana, maka dirikanlah shalat dan banyaklah berdo'a hingga selesai gerhana yang terjadi pada kalian. Peristiwa ini berkenaan ketika putra Nabi yang bernama Ibrahim wafat yang manusia kemudian memperbincangkannya.</t>
+  </si>
+  <si>
+    <t>shalat bersama mereka (para sahabat) ketika terjadi gerhana matahari dengan empat ruku' dalam dua kali sujud, dan rakaat yang pertama lebih panjang.</t>
+  </si>
+  <si>
+    <t>sami'allahu liman hamidah Rabbanaa lakal hamd. Kemudian Beliau mengulang bacaannya dalam shalat gerhana dengan empat kali ruku' dalam dua raka'at dan empat kali sujud. Berkata, Al Awza'iy dan selainnya aku mendengar Az Zuhriy dari 'Urwah dari 'Aisyah Radhiyallahu'anha bahwa pernah terjadi gerhana matahari pada zaman Rasulullah , maka Beliau mengutus seorang mu'adzin untuk menyerukan Ashalaatul Jaami'ah. Maka kemudian Beliau maju dan shalat dengan empat kali ruku' dalam dua raka'at dan empat kali sujud. Dan telah mengabarkan kepada saya 'Abdurrahman bin Namir bahwasanya dia mendengar Ibnu Syihab seperti ini. Berkata, Az Zuhriy; Aku bertanya: Apa alasan saudaramu 'Abdullah bin Az-Zubair yang tidak melaksanakan shalat (gerhana) kecuali dengan dua raka'at seperti shalat Shubuh ketika shalat di Madinah? Dia menjawab: Benar begitu adanya dan itu adalah menyalahi sunnah. Riwayat ini juga diikuti oleh Sufyan bin Husain, Sulaiman bin Katsir dari Az-Zuhri dalam (shalat) jahar (shalat yang bacaan alfatihah dan surat sesudahnya dibaca terang) .</t>
+  </si>
+  <si>
+    <t>Nabi membaca surah An-Najm ketika berada di Makkah. Maka Beliau sujud tilawah begitu juga orang-orang yang bersama Beliau. Kecuali ada seorang yang tua, dia hanya mengambil segenggam kerikil atau tanah lalu menempelkannya pada mukanya seraya berkata; bagiku cukup begini. Di kemudian hari aku melihat orang itu terbunuh dalam kekafiran.</t>
+  </si>
+  <si>
+    <t>membaca pada shalat Shubuh hari Jum'at surah As-Sajadah dan Al Insan.</t>
+  </si>
+  <si>
+    <t>Pada surat Shad tidak ada kewajiban untuk sujud tilawah, namun aku melihat Nabi melaksanakan sujud ketika membacanya.</t>
+  </si>
+  <si>
+    <t>membaca surah An-Najm lalu Beliau sujud dan tidak ada seorang pun dari kaum saat itu melainkan mengikuti beliau untuk sujud. Kecuali ada seseorang dari mereka yang ia hanya mengambil segenggam kerikil atau tanah lalu menempelkannya pada mukanya seraya berkata; bagiku cukup begini. Berkata, 'Abdullah: Di kemudian hari aku melihat orang itu terbunuh dalam kekafiran.</t>
+  </si>
+  <si>
+    <t>melakukan sujud tilawah ketika membaca surah An-Najm. Begitu juga ikut sujud bersama Beliau dari kalangan Kaum Muslimin, Musyrikin, bangsa jin dan manusia. Hadits ini juga diriwayatkan oleh Ibrahim bin Thahman dari Ayyub.</t>
+  </si>
+  <si>
+    <t>dia pernah membaca surah An-Najm untuk Nabi namun Beliau tidak melakukan sujud tilawah padanya.</t>
+  </si>
+  <si>
+    <t>Aku pernah membaca surah An-Najm untuk Nabi dan Beliau tidak melakukan sujud tilawah padanya.</t>
+  </si>
+  <si>
+    <t>Seandainya aku tidak melihat Nabi sujud, tentu aku tidak akan sujud.</t>
+  </si>
+  <si>
+    <t>pernah membacakan untuk kami satu surat yang berisi ayat sajadah. Kemudian Beliau sujud. Lalu kami pun sujud hingga ada seorang diantara kami yang tidak mendapatkan tempat untuk meletakkan keningnya.</t>
+  </si>
+  <si>
+    <t>membaca ayat sajadah. Saat itu kami sedang berkumpul bersama Beliau. Maka Beliau pun sujud. Lalu kami pun sujud bersama Beliau dengan berebut berdesakan, hingga ada seorang diantara kami yang tidak mendapatkan tempat untuk keningnya untuk bersujud.</t>
+  </si>
+  <si>
+    <t>Wahai sekalian manusia, kita telah membaca dan melewati ayat sajadah. Maka barangsiapa yang sujud, benarlah dia. Namun yang tidak melakukan sujud tidak ada dosa baginya. Dan 'Umar bin Al Khaththab Radhiyallahu'anhu tidak melakukan sujud. Nafi' menambahkan dari Ibnu 'Umar Radhiyallahu'anhuma: Allah subhanahu wata'ala tidaklah mewajibkan sujud tilawah. Kecuali siapa yang mau silakan melakukannya.</t>
+  </si>
+  <si>
+    <t>Aku pernah sujud di belakang Abul Qasim . Dan senantiasa aku melakukan sujud ketika membacanya sampai akhir hayatku.</t>
+  </si>
+  <si>
+    <t>membaca satu surat yang berisi ayat sajadah. Kemudian Beliau sujud. Lalu kami pun sujud bersama Beliau, hingga ada seorang diantara kami yang tidak mendapatkan tempat untuk meletakkan keningnya.</t>
+  </si>
+  <si>
+    <t>Nabi pernah menetap (dalam bepergian) selama sembilan belas hari dengan mengqashar (meringkas) shalat. Maka kami bila bepergian selama sembilan belas hari mengqashar solat. Bila lebih dari itu, kami menyempurnakan shalat.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat dua raka'at dua raka'at hingga kami kembali ke Madinah. Aku tanyakan: 'Berapa lama kalian menetap di Makkah? Dia menjawab: Kami menetap disana selama sepuluh hari.</t>
+  </si>
+  <si>
+    <t>Aku pernah shalat bersama Nabi di kota Mina dua raka'at. Begitu juga ketika aku shalat bersama Abu Bakar, 'Umar dan juga bersama 'Utsman pada awal pemerintahannya. Namun beliau di kemudian hari menyempurnakannya (empat raka'at).</t>
+  </si>
+  <si>
+    <t>Nabi shalat bersama kami, sebagaimana Beliau selalu lakukan seperti saat di Mina hanya dua raka'at.</t>
+  </si>
+  <si>
+    <t>Sungguh aku selalu shalat bersama Rasulullah di Mina sebanyak dua raka'at. Begitu juga aku shalat bersama Abu Bakat Ash-Shiddiq Radhiyallahu'anhu di Mina sebanyak dua raka'at. Juga aku pernah shalat 'Umar bin Al Khaththob Radhiyallahu'anhu di Mina sebanyak dua raka'at. Namun aku berharap shalat yang empat raka'at maupun dua raka'at keduanya diterima.</t>
+  </si>
+  <si>
+    <t>Nabi dan para sahabatnya datang pada shubuh keempat yang ketika itu mereka niyatkan untuk haji, lantas Beliau memerintahkan mereka agar menjadikannya sebagai 'umrah kecuali bagi siapa yang membawa hewan sembelihan. Hadits ini juga diikuti oleh 'Atho' dari Jabir.</t>
+  </si>
+  <si>
+    <t>Seorang wanita tidak boleh mengadakan perjalanan diatas tiga hari kecuali bersama mahramnya.</t>
+  </si>
+  <si>
+    <t>Seorang wanita tidak boleh mengadakan perjalanan diatas tiga hari kecuali bersama mahramnya. Hadits ini diikuti pula oleh Ahmad dari Ibnu Al Mubarak dari 'Ubaidullah dari Nafi' dari Ibnu 'Umar radhiyallahu'anhuma dari Nabi .</t>
+  </si>
+  <si>
+    <t>Tidak halal seorang wanita yang beriman kepada Allah dan hari akhir untuk mengadakan perjalanan selama satu hari satu tanpa didampingi mahramnya. Hadits ini diikuti pula oleh Yahya bin Abu Katsir, Suhail dan Malik dari Al Maqburiy dari Abu Hurairah Radhiyallahu'anhu dari Nabi .</t>
+  </si>
+  <si>
+    <t>Aku shalat Zhuhur bersama Nabi di Madinah sebanyak empat raka'at sedangkan ketika di Dzul Hulaifah dua raka'at.</t>
+  </si>
+  <si>
+    <t>Awal mula diwajibkannya shalat sebanyak dua raka'at. Kemudian ketentuan ini ditetapkan untuk shalat safar (dalam bepergian) dan disempurnakan bagi shalat di tempat tinggal (mukim) . Berkata, Az Zuhriy: Aku bertanya kepada 'Urwah: Mengapa 'Aisyah Radhiyallahu'anha menyempurnakan? 'Urwah menjawab: Dia mengikuti seperti yang dilakukan 'Utsman.</t>
+  </si>
+  <si>
+    <t>jika perjalanan mendesak, Beliau menangguhkan shalat Maghrib dan menggabungkannya bersama shalat 'Isya'. Berkata, Salim: Dan 'Abdullah bin 'Umar Radhiyallahu'anhu mengerjakannya juga bila terdesak (tergesa-gesa) dalam perjalanan. Al Laits menambahkan dan berkata, telah menceritakan kapada saya Yunus dari Ibnu Syihab; Salim berkata: Ibnu 'Umar Radhiyallahu'anhuma menggabungkan antara shalat Maghrib dan 'Isya' saat berada di Muzdalifah. Salim berkata, lagi; Ibnu 'Umar Radhiyallahu'anhuma mengakhirkan shalat Maghrib karena hendak menolong isterinya Shafiyah binti Abu 'Ubaid (yang sedang sakit). Aku katakan kepadanya; Mari kita dirikan shalat?!. Dia menjawab: Terus saja berjalan. Aku katakan lagi; Mari kita dirikan shalat?!. Dia menjawab: Terus saja berjalan. Hingga ketika perjalanan sudah mencapai dua atau tiga mil, dia turun lalu mendirikan shalat. Setelah selesai dia berkata: Beginilah, aku pernah melihat Nabi melaksanakan shalat bila dalam keadaan terdesak dalam perjalanannya. Dan berkata, 'Abdullah bin 'Umar Radhiyallahu'anhu: Aku melihat Nabi jika perjalanan mendesak, Beliau menangguhkan shalat Maghrib, kemudian Beliau mengerjakan tiga raka'at lalu salam. Kemudian diam sejenak lalu mengerjakan shalat 'Isya' dengan dua raka'at lalu salam. Beliau tidak bertasbih (mengerjakan shalat sunnah) setelah shalat 'Isya' hingga Beliau bangun di penghujung malam.</t>
+  </si>
+  <si>
+    <t>shalat diatas hewan tunggangannya kearah mana saja hewan tunggangannya berjalan.</t>
+  </si>
+  <si>
+    <t>mendirikan shalat sunnat sambil mengendarai hewan tunggangannya dalam keadaan tidak menghadap qiblat.</t>
+  </si>
+  <si>
+    <t>shalat witir dan dia mengabarkan bahwa Nabi mengerjakannya pula.</t>
+  </si>
+  <si>
+    <t>shalat dalam safarnya diatas hewan tunggangannya kearah manapun ia menghadap dengan cara memberi isyarat. Dan dia memberitakan bahwa Nabi juga pernah mengerjakan seperti itu.</t>
+  </si>
+  <si>
+    <t>di atas hewan tunggangannya bertasbih dengan memberi isyarat dengan kepala beliau kearah mana saja hewan tunggangannya menghadap. Rasulullah tidak pernah melakukan seperti ini untuk shalat-shalat wajib. Dan berkata, Al Laits telah menceritakan kapada saya Yunus dari Ibnu Syihab berkata; Telah berkata, Salim: 'Abdullah bin 'Umar Radhiyallahu'anhua ketika bepergian pernah shalat malam diatas tunggangannya ke arah mana saja tunggangannya menghadap. berkata, Ibnu 'Umar radhiyallahu'anhuma: Rasulullah melaksanakan shalat sunnat diatas tunggangan Beliau ke arah mana saja menghadap dan juga melaksanakan shalat witir di atasnya. Hanya saja Beliau tidak melaksanakan yang demikian untuk shalat wajib.</t>
+  </si>
+  <si>
+    <t>mendirikan shalat diatas hewan tunggangannya menghadap ke Timur. Jika Beliau hendak melaksanakan shalat wajib, maka Beliau turun dan melaksanakannya dengan menghadap qiblat.</t>
+  </si>
+  <si>
+    <t>shalat di atas keledai dan menghadap ke samping yaitu sebelah kiri arah qiblat. Maka aku tanyakan kepadanya: Aku melihat anda shalat tidak menghadap qiblat? Maka dia menjawab: Seandainya aku tidak melihat Rasulullah mengerjakan seperti itu pasti aku pun tidak akan mengerjakannya. Dan diriwayatkan oleh Ibrahim bin Thahman dari Hajjaj dari Anas bin Sirin dari Anas bin Malik Radhiyallahu'anhu dari Nabi .</t>
+  </si>
+  <si>
+    <t>aku tidak melihat Beliau melaksanakan shalat sunnah dalam safarnya. Dan Allah subhanahu wata'ala telah berfirman: Sungguh telah ada pada (diri) Rasulullah itu suri teladan yang baik bagimu. (QS. Ahzab 21).</t>
+  </si>
+  <si>
+    <t>selama kepergian itu Beliau tidak lebih melaksanakan shalat kecuali dua raka'at. Begitu juga dengan Abu Bakar, 'Umar dan 'Utsman Radhiyallahu'anhum.</t>
+  </si>
+  <si>
+    <t>telah mengabarkan kepada kami seseorang bahwasanya dia melihat Nabi mengerjakan shalat dhuha. Sedangkan Ummu Hani' menceritakan bahwa Nabi saat hari Penaklukan Makkah, Beliau mandi di rumahnya kemudian shalat delapan raka'at. (Katanya): Aku belum pernah sekalipun melihat Beliau melaksanakan shalat yang lebih ringan dari pada saat itu, namun Beliau tetap menyempurnakan ruku' dan sujudnya. Berkata, Al Laits telah menceritakan kepada saya Yunus dari Ibnu Syihab berkata, telah menceritakan kapada saya 'Abdullah bin 'Amir bin Rabi'ah bahwa bapaknya mengabarkan kepadanya bahwa dia melihat Nabi mengerjakan shalat sunnat dalam perjalanan (safarnya) di atas punggung hewan tunggangannya ke mana saja arah menghadapnya.</t>
+  </si>
+  <si>
+    <t>mengerjakan shalat sunnah diatas punggung hewan tunggangannya ke arah manapun ia menghadap dengan cara memberi isyarat dengan kepala Beliau. Dan Ibnu 'Umar Radhiyallahu'anhuma juga melakukan hal yang demikian itu.</t>
+  </si>
+  <si>
+    <t>menggabungkan (menjama') shalat Maghrib dan shalat 'Isya' bila terdesak (tergesa-gesa) dalam perjalanan. Dan berkata, Ibrahim bin Thohman dari Al Husain Al Mu'alim dari Yahya bin Abu Katsir dari 'Ikrimah dari Ibnu 'Abbas Radhiyallahu'anhuma berkata: Nabi pernah menggabungkan shalat Zhuhur dan shalat 'Ashar bila sedang dalam perjalanan dan menggabungkan shalat Maghrib dan shalat 'Isya'. Dan dari Husain dari Yahya bin Abu Katsir dari Hafsh bin 'Ubaidullah bin Anas dari Anas bin Malik Radhiyallahu'anhu berkata: Nabi pernah menggabungkan shalat Maghrib dan shalat 'Isya' dalam perjalanan. Hadits ini diikuti pula oleh 'Ali bin Al Mubarak dan Harb dari Yahya dari Hafsh dari Anas bahwa Nabi menjama'.</t>
+  </si>
+  <si>
+    <t>jika perjalanan mendesak, Beliau menangguhkan shalat Maghrib dan menggabungkannya bersama shalat 'Isya'. Berkata, Salim: Dan 'Abdullah bin 'Umar Radhiyallahu'anhu mengerjakannya juga bila terdesak (tergesa-gesa) dalam perjalanan. Beliau hanya melaksanakan shalat Maghrib sebanyak tiga raka'at lalu salam. Kemudian berdiam sejenak lalu melaksanakan shalat 'Isya' sebanyak dua raka'at dan dia tidak menyelingi diantara keduanya dengan shalat sunnah satu raka'atpun dan juga tidak sesudahnya hingga Beliau bangun di penghujung malam (untuk shalat malam).</t>
+  </si>
+  <si>
+    <t>menjama' (menggabungkan) dua shalat ini ketika dalam perjalanan, yaitu shalat Maghrib dan 'Isya'.</t>
+  </si>
+  <si>
+    <t>bila berangkat bepergian sebelum matahari condong, Beliau mengakhirkan pelaksanaan shalat zhuhur hingga waktu shalat 'Ashar lalu menggabungkan (jama') keduanya. Dan bila berangkat setelah matahari condong, Beliau laksanakan shalat Zhuhur terlebih dahulu kemudian setelah itu berangkat.</t>
+  </si>
+  <si>
+    <t>bila berangkat bepergian sebelum matahari condong, Beliau mengakhirkan pelaksanaan shalat zhuhur hingga waktu shalat 'Ashar, lantas beliau singgah lalu menggabungkan (jama') keduanya. Dan bila matahari condong sebelum berangkat, Beliau laksanakan shalat Zhuhur terlebih dahulu kemudian setelah itu berangkat.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya imam diangkat untuk diikuti. Maka bila dia ruku', ruku'lah kalian dan bila dia mengangkat (kepala), maka angkatlah (kepala) kalian.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya imam diangkat untuk diikuti. Bila ia telah membaca takbir maka bertakbirlah kalian dan bila ia telah ruku', ruku'lah kalian dan bila dia telah bangkit berdiri, bangkitlah kalian dan bila ia berkata, sami'allahu liman hamidah, ucapkanlah oleh kalian: rabbanaa wa lakal hamdu.</t>
+  </si>
+  <si>
+    <t>Jika ia shalat dengan berdiri maka itu lebih utama. Dan siapa yang melaksanakan shalat dengan duduk maka baginya setengah pahala dari orang yang shalat dengan berdiri dan siapa yang shalat dengan tidur (berbaring) maka baginya setengah pahala orang yang shalat dengan duduk.</t>
+  </si>
+  <si>
+    <t>Siapa yang shalat dengan berdiri maka itu lebih utama. Dan siapa yang melaksanakan shalat dengan duduk maka baginya setengah pahala dari orang yang shalat dengan berdiri dan siapa yang shalat dengan tidur (berbaring) maka baginya setengah pahala orang yang shalat dengan duduk. Berkata, Abu 'Abdullah; Menurutku yang dimaksud dengan tidur adalah berbaring.</t>
+  </si>
+  <si>
+    <t>Shalatlah dengan berdiri, jika kamu tidak sanggup lakukanlah dengan duduk dan bila tidak sanggup juga lakukanlah dengan berbaring pada salah satu sisi badan.</t>
+  </si>
+  <si>
+    <t>ia tidak pernah melihat Rasulullah sekalipun mendirikan shalat malam dengan duduk hingga beliau beranjak tua. Saat tua itulah Beliau membaca surat dengan duduk, hingga jika Beliau akan ruku' maka Beliau berdiri dan Beliau baca sekitar tiga puluh atau empat puluh ayat kemudian Beliau ruku'.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat dengan duduk dan Beliau membaca surat sambil duduk. Bila sedikit tersisa dari bacaannya sekitar tiga puluh atau empat puluh ayat, maka Beliau berdiri dan melanjutkan bacaannya itu dengan berdiri. Kemudian Beliau ruku' lalu sujud', Kemudian Beliau melakukan seperti itu pada raka'at kedua. Bila Beliau telah menyelesaikan shalatnya, Beliau melihat (kepadaku). Bila aku telah bangun maka Beliau mengajak aku berbincang dan bila aku masih tidur, maka Beliau berbaring.</t>
+  </si>
+  <si>
+    <t>Allahumma lakal hamdu. Anta qayyumus samaawaati wal ardhi wa man fiihinna. Wa lakal hamdu lakal mulkus samaawaati wal ardhi wa man fiihinna. Wa lakal hamdu anta nuurus samaawaati wal ardhi wa man fiihinna. Wa lakal hamdu anta malikus samaawaati wal ardhi. Wa lakal hamdu antal haqq wa wa'dukal haqq wa liqao-ukal haqq wa qaulukal haqq wal jannatul haqq wan naarul haqq wan nabiyyuuna haqq wa muhammadun shallallhu wa salam haqq was saa'atu haq. Allahumma laka aslamtu wa bika aamantu wa 'alaika tawakkaltu wa ilaika anabtu wa bika khashamtu wa ilaika haakamtu, faghfirlii maa qaddamtu wa maa akhkhartu wa maa asrartu wa maa 'Abdullah'lantu antal muqaddimu wa antal mu'akhiru laa ilaaha illaa anta aw laa ilaaha ghoiruka. (Ya Allah bagiMulah segala pujian. Engkaulah Yang Maha Memelihara langit dan bumi serta apa yang ada pada keduanya. Dan bagiMulah segala pujian, milikMu kerajaan langit dan bumi serta apa yang ada pada keduanya. Dan bagiMu segala pujian, Engkau cahaya langit dan bumi dan apa yang ada pada keduanya. Dan bagiMu segala pujian, Engkaulah raja di langit dan di bumi serta apa yang ada pada keduanya. Dan bagiMulah segala puian, Engkaulah Al Haq (Yang Maha Benar), dan janjiMu haq (benar adanya), dan perjumpaan dengaMu adalah benar, firmanMu benar, surga adalah benar, neraka adalah benar, dan para nabiMu benar, Muhammad benar dan hari qiyamat benar. Ya Allah, kepadaMulah aku berserah diri, kepadaMulah aku beriman, kepadaMu lah aku bertawakal, kepadaMulah aku bertaubat (kembali), karena hujah yang Kau berikan kepadaku aku memusuhi siapapun yang menentang (syareat-Mu) dan kepadaMu aku berhukum. Ampunilah aku dari dosa yang lalu maupun yang akan datang, yang aku sembunyikan atau yang aku tampakkan. Engkaulah yang Awal dan yang Akhir dan tidak ada ilah yang berhaq disembah selain Engkau atau tidak ada ilah selainMu Berkata, Sufyan; Dan ditambahkan oleh 'Abdul Karim Abu Umayah: Wa laa haula wa laa quwwata illaa billah (Tidak ada daya dan upaya kecuali Engkau). Berkata, Sufyan dari Sulaiman bin Abu Muslim dia mendengarnya dari Thawus dari Ibnu 'Abbas Radhiyallahu'anhu dari Nabi .</t>
+  </si>
+  <si>
+    <t>Sungguh 'Abdullah (bin Umar) adalah seorang yang beruntung (bahagia) bila dia mendirikan shalat malam. Setelah peristiwa ini 'Abdullah bin 'Umar tidak tidur malam kecuali sedikit.</t>
+  </si>
+  <si>
+    <t>mengerjakan shalat sebelas raka'at, satu sujud shalat Beliau lamanya sepanjang bacaan lima puluh ayat dari kalian sebelum Beliau mengangkat kepalanya, dan beliau melakukan ruku' dua raka'at (shalat sunnah) sebelum shalat Subuh kemudian Beliau berbaring pada sebelah kanan badan Beliau hingga datang mu'adzin menyerukan shalat.</t>
+  </si>
+  <si>
+    <t>Nabi pernah menderita sakit hingga Beliau tidak mendirikan shalat malam selama satu atau dua malam.</t>
+  </si>
+  <si>
+    <t>Jibril Alaihissalam sekian lama tidak datang menyampaikan wahyu kepada Nabi hingga kemudian ada seorang wanita Quraisy berkata; Syetannya telah meninggalkannya. Maka turunlah surah Adh-Dhuha: Wadh dhuhaa wal laili idza sajaa. Maa wadda'aka rabbuka wa qalaa (Demi waktu dhuha (matahari sepenggalahan naik) dan demi malam apabila telah sunyi (gelap). Rabbmu tiada meninggalkan kamu dan tiada (pula) benci kepadamu) (QS. Adhdhuha 1-3).</t>
+  </si>
+  <si>
+    <t>Subhaanallah (Maha suci Allah), fitnah apakah yang diturunkan pada malam ini? Dan apa yang diturunkan pada dua perbendaharaan/kekayaan (Ramawi dan Parsi)? Siapa yang membangunkan orang-orang yang ada di kamar-kamar (maksudnya isteri-isterinya)?, karena betapa banyak orang hidup menikmati nikmat-nikmat dari Allah di dunia ini namun akan telanjang nanti di akhirat (tidak mendapatkan kebaikan) .</t>
+  </si>
+  <si>
+    <t>Mengapa kalian tidak shalat malam? Maka aku (Ali) menjawab: Wahai Rasulullah, jiwa-jiwa kami ada di tangan Allah, jika Dia menghendaki membangunkan kami pasti kami akan bangun juga. Maka Beliau berpaling pergi ketika kami mengatakan seperti itu dan Beliau tidak berkata sepatah katapun. Kemudian aku mendengar ketika Beliau pergi sambil memukul pahanya berkata: Memang manusia adalah makhluk yang paling banyak membantah. (QS Al Kahfi: 54).</t>
+  </si>
+  <si>
+    <t>meninggalkan suatu amal padahal Beliau mencintai amal tersebut melainkan karena Beliau khawatir nanti orang-orang akan ikut mengamalkannya sehingga diwajibkan buat mereka. Dan tidaklah Beliau melaksanakan shalat Dhuha sekalipun kecuali pasti aku ikut melaksanakannya.</t>
+  </si>
+  <si>
+    <t>Sungguh aku mengetahui apa yang kalian lakukan tadi malam dan tidak ada yang menghalangi aku untuk keluar shalat bersama kalian. Hanya saja aku khawatir nanti diwajibkan atas kalian. Kejadian ini di bulan Ramadhan.</t>
+  </si>
+  <si>
+    <t>Apakah memang tidak sepatutnya aku menjadi hamba yang bersyukur?</t>
+  </si>
+  <si>
+    <t>Shalat yang paling Allah cintai adalah shalatnya Nabi Daud Alaihissalam dan shaum (puasa) yang paling Allah cintai adalah shaumnya Nabi Daud alaihissalam. Nabi Daud Alaihissalam tidur hingga pertengahan malam lalu shalat pada sepertiganya kemudian tidur kembali pada seperenam akhir malamnya. Dan Nabi Daud Alaihissalam shaum sehari dan berbuka sehari.</t>
+  </si>
+  <si>
+    <t>Amal yang ditekuni secara terus menerus. Aku bertanya lagi: Kapan Beliau bangun malam? 'Aisyah Radhiyallahu'anha menjawab: Beliau bangun malam bila mendengar suara kokok ayam. Telah menceritakan kepada kami Muhammad bin Salam berkata, telah mengabarkan kepada kami Abu Al Ahwash dari Al 'Asy'ats berkata: Jika Beliau mendengar suara kokok ayam Beliau bangun lalu shalat.</t>
+  </si>
+  <si>
+    <t>Tidaklah aku mendapatkan dia di sampingku saat datang waktu sahar (akhir malam menjelang Shubuh) kecuali dia dalam keadaan tidur. Yang dimaksud oleh 'Aisyah Radhiyallahu'anha adalah Nabi .</t>
+  </si>
+  <si>
+    <t>sahur bersama. Setelah keduanya selesai makan sahurnya, maka Nabi bangkit untuk segera melaksanakan shalat, lalu Beliau mendirikan shalat. Kami bertanya kepada Anas Radhiyallahu'anhu: Berapa tenggang waktu antara selesai makan sahur keduanya dengan awal shalatnya? Anas bin Malik Radhiyallahu'anhu berkata,: Kira-kira selama seorang membaca lima puluh ayat.</t>
+  </si>
+  <si>
+    <t>aku pernah shalat malam bersama Nabi . Saat shalat itu Beliau terus saja berdiri hingga aku terbetik perasaan yang jelek. Kami tanyakan: Apa perasaan jelekmu itu? Dia menjawab: Aku berkeinginan untuk duduk dan meninggalkan Nabi .</t>
+  </si>
+  <si>
+    <t>apabila bangun malam untuk shalat tahajjud, Beliau menggosok dan membersihkan mulut Beliau dengan siwak.</t>
+  </si>
+  <si>
+    <t>Dua dua (raka'at) dan jika kamu khawatir masuk waktu Shubuh witirlah dengan satu raka'at.</t>
+  </si>
+  <si>
+    <t>Shalat Nabi adalah tiga belas raka'at, yaitu shalat malamnya.</t>
+  </si>
+  <si>
+    <t>Tujuh atau sembilan atau sebelas raka'at selain dua raka'at sunnat Fajar.</t>
+  </si>
+  <si>
+    <t>melaksanakan shalat malamnya sebanyak tiga belas raka'at, termasuk witir dan dua raka'at sunnat Fajar.</t>
+  </si>
+  <si>
+    <t>berbuka (tidak shaum sunnah) selama satu bulan hingga kami menduganya Beliau tidak pernah shaum selama itu, dan bila shaum seakan Beliau terus menerus shaum hingga kami menduganya Beliau tidak pernah berbuka sekalipun dalam bulan itu. Dan jika kamu hendak melihat Beliau pada suatu malam dalam keadaan shalat maka pasti kamu akan melihatnya dan tidak pula dalam posisi tertidur melainkan pasti kalian akan melihatnya pula dalam keadaan tertidur. Hadits ini diikuti pula oleh Sulaiman dan Abu Khalid Al Ahmar dari Humaid.</t>
+  </si>
+  <si>
+    <t>Setan mengikat tengkuk kepala seseorang dari kalian saat dia tidur dengan tiga tali ikatan dan syaitan mengikatkannya sedemikian rupa sehingga setiap ikatan diletakkan pada tempatnya lalu (dikatakan) kamu akan melewati malam yang sangat panjang maka tidurlah dengan nyenyak. Jika dia bangun dan mengingat Allah maka lepaslah satu tali ikatan. Jika kemudian dia berwudhu' maka lepaslah tali yang lainnya dan bila ia mendirikan shalat lepaslah seluruh tali ikatan dan pada pagi harinya ia akan merasakan semangat dan kesegaran yang menenteramkan jiwa. Namun bila dia tidak melakukan seperti itu, maka pagi harinya jiwanya merasa tidak segar dan menjadi malas beraktifitas.</t>
+  </si>
+  <si>
+    <t>Adapun ta'wil mimpi seseorang yang memecahkan kepalanya dengan batu adalah dia mengambil Al Qur'an lalu ditinggalkannya kemudian dia tidur sehingga melalaikan shalat wajib.</t>
+  </si>
+  <si>
+    <t>Syaitan telah mengencingi orang itu pada telinganya.</t>
+  </si>
+  <si>
+    <t>Siapa yang berdo'a kepadaKu pasti Aku kabulkan dan siapa yang meminta kepadaKu pasti Aku penuhi dan siapa yang memohon ampun kepadaKu pasti Aku ampuni.</t>
+  </si>
+  <si>
+    <t>Beliau tidur di awal malam dan bangun untuk shalat di akhir malam dan shalat, lalu beliau kembali ke tempat tidurnya. Bila mu'adzin sudah mengumandangkan adzan, maka Beliau bersegera. Bila saat itu Beliau punya hajat (kepada isterinya), maka Beliau mandi. Bila tidak, maka Beliau hanya berwudhu' lalu keluar untuk shalat.</t>
+  </si>
+  <si>
+    <t>kedua mataku tidur, namun hatiku tidaklah tidur.</t>
+  </si>
+  <si>
+    <t>Tidak pernah aku melihat Nabi membaca surat dalam shalat malam dalam keadaan duduk kecuali ketika Beliau sudah berusia lanjut, ketika usia tua itu Beliau membaca dalam keadaan duduk. Namun bila surat yang dibacanya tinggal tersisa sekitar tiga puluh atau empat puluh ayat, maka Beliau berdiri dan melanjutkan bacaannya itu dengan berdiri. Kemudian Beliau ruku'.</t>
+  </si>
+  <si>
+    <t>ceritakan kepadaku amal yang paling utama yang sudah kamu amalkan dalam Islam, sebab aku mendengar di hadapanku suara sandalmu dalam surga. Bilal berkata; Tidak ada amal yang utama yang aku sudah amalkan kecuali bahwa jika aku bersuci (berwudhu') pada suatu kesempatan malam ataupun siang melainkan aku selalu shalat dengan wudhu' tersebut disamping shalat wajib. Berkata, (Abu 'Abdullah): Istilah Daffa na'laika maksudnya gerakan sandal.</t>
+  </si>
+  <si>
+    <t>Apa ini? Orang-orang menjawab: Tali ini milik Zainab, bila dia shalat dengan berdiri lalu merasa letih, dia berpegangan tali tersebut. Maka Nabi bersabda: Jangan ia lakukan sedemikian itu. Hendaklah seseorang dari kalian tekun dalam ibadah shalatnya dan apabila dia merasa letih, shalatlah sambil duduk.</t>
+  </si>
+  <si>
+    <t>Celakalah kalian, mengapa kalian memaksakan amalan yang kalian tidak mampu? Sungguh Allah tidak bosan (memberi ganjaran) hingga kalian merasa bosan sendiri (jika terlalu memaksakan diri) .</t>
+  </si>
+  <si>
+    <t>Wahai 'Abdullah, janganlah kamu seperti fulan, yang dia biasa mendirikan shalat malam namun kemudian meninggalkan shalat malam. Dan berkata, Hisyam telah menceritakan kepada kami Ibnu Abi Al 'Isyrin telah menceritakan kepada kami Al Awza'iy berkata, telah menceritakan kapada saya Yahya dari 'Umar bin Al Hakam bin Tsauban telah menceritakan kapada saya Abu Salamah seperti ini juga. Dan diikuti pula oleh 'Amru bin Abu Salamah dari Al Awza'iy.</t>
+  </si>
+  <si>
+    <t>Benarkah kabar bahwa kamu selalu mendirikan shalat di malam hari dan shaum pada siang harinya? Aku jawab: 'Benar . Beliau bersabda: Sungguh jika kamu lakukan terus menerus maka nanti matamu letih dan jiwamu lemah. Sungguh untuk dirimu ada haknya, juga keluargamu punya hak, maka shaumlah dan juga berbukalah, bangun untuk shalat malam dan juga tidurlah.</t>
+  </si>
+  <si>
+    <t>Siapa yang bangun di malam hari lalu membaca laa ilaaha illallah wahdahu laa syariika lahu, lahul mulku wa lahul hamdu wa huwa 'alaa kulli syai-in qadiir. Alhamdulillahi wa subhaanallah wa laa ilaaha illallah wallahu akbar wa laa jaula wa laa quwwata illa billah (Tidak ada ilah yang berhaq disembah kecuali Allah satu-satunya, tidak ada sekutu bagiNya. Dialah yang memiliki kerajaan dan baginNya segala pujian dan Dia berkuasa atas segala sesuatu. Segala puji bagi Allah dan Maha Suci Allah dan tidak ada ilah kecuali Allah dan Allah Maha Besar dan tidak ada daya dan upaya kecuali dengan Dia) Kemudian dilanjutkan dengan membaca Allahummaghfirlii (Ya Allah ampunilah aku) atau berdo'a, maka akan dikabulkan baginya. Jika dia berwudhu' lalu shalat maka shalatnya diterima.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya saudara kalian ini tidak pernah berkata, rafats (kotor) . Yang dimaksud Beliau adalah 'Abdullah bin Rawahah yang penah bersya'ir: Bersama kita ada Rasulullah yang membacacakan Al Qur'an, ketika fajar yang sudah dikenal itu menyingsing, Kita melihat petunjuk setelah sebelumnya kita buta, hati kita meyakini bahwa apa yang disabdakannya adalah benar adanya. Di malam hari Beliau menjauhkan diri dari tempat tidurnya, saat orang-orang musyrik tertidur lelap. Hadits ini dikuatkan oleh 'Uqail dan berkata, Az-Zubaidiy telah mengabarkan kepada saya Az Zuhriy dari Sa'id dan Al A'raj dari Abu Hurairah Radhiyallahu'anhu.</t>
+  </si>
+  <si>
+    <t>Sungguh 'Abdullah menjadi orang yang paling berbahagia jika mau shalat malam. 'Abdullah Radhiyallahu'anhu adalah orang yang seantiasa mendirikan shalat malam sementara para sahabat selalu menceritakan kepada Nabi tentang mimpi-mimpi mereka bahwa pelaksanaan Lailatul Qadar terjadi pada malam ketujuh dari sepuluh malam yang akhir, maka Nabi bersabda: Sungguh aku melihat bahwa mimpi kalian benar bahwa Lailatul Qadar terjadi pada sepuluh malam yang akhir. Maka siapa yang mau mencari Lailatul Qadar, carilah pada sepuluh malam yang akhir (dari Romadhan) .</t>
+  </si>
+  <si>
+    <t>Nabi senantiasa mengerjakan shalat 'Isya' kemudian shalat malam delapan raka'at dan dua raka'at dengan duduk dan dua raka'at antara dua adzan dan tidaklah Beliau pernah meninggalkannya.</t>
+  </si>
+  <si>
+    <t>bila selesai mendirikan dua raka'at shalat sunat Fajar, Beliau berbaring dengan dengan bertumpu pada sisi badannya yang sebelah kanan.</t>
+  </si>
+  <si>
+    <t>jika selesai dari shalat malam dan aku sudah terbangun Beliau mengajak aku berbincang-bincang dan jika tidak, Beliau akan berbaring hingga datang seruan untuk shalat (Shubuh) .</t>
+  </si>
+  <si>
+    <t>mengerjakan shalat dua raka'at. Jika aku sudah terbangun Beliau mengajak aku berbincang-bincang dan jika tidak, Beliau akan berbaring. Aku ('Ali bin 'Abdullah) bertanya kepada Sufyan: Sebagaian orang meriwayatkan bahwa shalat yang dimaksud itu adalah dua raka'at Fajar? Sufyan berkata: Ya benar.</t>
+  </si>
+  <si>
+    <t>Siapa yang mau membentangkan kainnya hingga aku menuntaskan ucapanku kemudian ia menggenggamnya dan tidak akan pernah lupa terhadap sesuatu yang ia dengarkan dariku? ' Spontan aku hamparkan kain yang ada padaku, Demi Dzat yang mengutusnya dengan kebenaran, aku tak pernah lagi melupakan suatupun yang aku dengar darinya.'</t>
+  </si>
+  <si>
+    <t>Saya mendengar Umar bersumpah atas yang demikian disisi Nabi ShallAllahu 'alaihi wa Salam, dan beliau Shallallahu'alaihiwasallam tidak memungkirinya.'</t>
+  </si>
+  <si>
+    <t>Kuda itu bagi tiga orang; bagi orang pertama mendatangkan pahala, bagi orang kedua sebagai penutup (penyelesaian, solusi), dan bagi orang ketiga mendatangkan dosa. Adapun kuda yang mendatang pahala adalah seseorang yang menambatkan kudanya di jalan Allah, lantas ia gembalakan kudanya di rerumputan luas atau kebun, maka segala yang dimakan kuda itu di padang gembalaan, baik kebun atau rerumputan luas selain tercatat sebagai kebaikan baginya, dan sekiranya kuda itu mengarungi padang gembalaan, lantas dia melangkah satu atau dua langkah, maka bekas dan kotorannya juga terhitung kebaikan baginya, dan sekiranya kuda itu melewati sungai dan meminumnya, padahal si pemilik tidak berniat memberinya minuman, maka itu terhitung kebaikan baginya, kesemuanya itu terhitung ganjaran baginya. Kuda kedua, adalah seseorang yang mengikatnya untuk mencari penghasilan dan untuk menjaga kehormatan diri, sedang ia tidak melupakan hak Allah terhadap ikatannya dan tidak pula terhadap punggungnya, maka kuda itu sebagai penyelesaian baginya. Adapun kuda ketiga adalah, seseorang yang mengikatnya untuk sekedar kebanggaan dan pamer, maka itu adalah bosa baginya. Dan Rasulullah Shallallahu'alaihiwasallam pernah ditanya tentang keledai. Maka beliau hanya menjawab: 'Allah tidak menurunkan kepadaku tentangnya selain satu ayat yang ringkas ini: '(Barangsiapa yang beramal kebaikan seberat biji atom, maka Allah akan melihatnya, sebaliknya barangsiapa yang beramal seberat biji atom keburukan, pasti ia melihatnya) ' (Qs. Al Zalzalah: 7-8).</t>
+  </si>
+  <si>
+    <t>Hendaklah kau ambil sepotong kapas, lantas kau berwudlu dengannya.' Wanita itu bertanya, 'Bagaimana aku berwudlu dengan kapas itu wahai Rasulullah? ' Nabi ShallAllahu 'alaihi wa Salam menjawab: 'Berwudlulah.' Si wanita terus bertanya, 'Bagaimana aku harus berwudlu dengan kapas itu ya Rasulullah? Nabi ShallAllahu 'alaihi wa Salam menjawab: 'Berwudlulah.' Si wanita terus bertanya, 'Bagaimana aku harus berwudlu dengan kapas itu ya Rasulullah? ' Maka Aisyah pun berkata, 'Aku mengerti yang Rasulullah maksudkan, sehingga kutarik wanita itu dan kuajari.'</t>
+  </si>
+  <si>
+    <t>Ummu Hufaid binti al Harits bin Hazin menghadiahi Nabi ShallAllahu 'alaihi wa Salam berupa minyak samin, keju dan daging biawak. Kemudian Nabi ShallAllahu 'alaihi wa Salam mengundang para sahabat untuk menyantap makanan itu, dan makanan itu disantap diatas meja makannya, sedang Nabi ShallAllahu 'alaihi wa Salam meninggalkannya seolah-olah merasa jijik, kalaulah makanan itu diharamkan, niscaya tidak dimakan diatas meja makannya dan tidak pula menyuruh untuk menyantapnya.</t>
+  </si>
+  <si>
+    <t>Barangsiapa makan bawang merah atau bawang putih, hendaklah menyingkir dari kami --atau dengan redaksi 'agar dia menyingkiri- masjid kami, dan duduklah di rumahnya. Pernah dalam perang badar beliau diberi hidangan yang berisi sayur-mayur, berupa kubis, dan beliau temukan mempunyai bau. Maka Nabi menanyakan perihal sayuran itu, dan dikabarkan bahwa sayuran itu diantaranya ada kubis. Beliau lantas bersabda: Coba tolong dekatkan! Lantas mereka pun mendekatkannya kepada beberapa sahabatnya yang ikut bersama beliau. Tatkala beliau melihatnya, beliau merasa risih memakannya dan bersabda: Saya menjauhi santapan yang kalian tidak menjauhinya. Sedang Ibnu Ufair dari Ibnu Wahb berkata dengan redaksi 'didatangkan kepada beliau periuk berisi kubis', dan Al Laits dan Abu Shafwan tidak menyebutkan dari Yunus tentang kisah periuk, maka aku tidak tahu apakah itu ucapan Azzuhri atau termasuk bagian hadis.</t>
+  </si>
+  <si>
+    <t>Kalaulah engkau tidak menemuiku, temuilah Abu Bakar. Al Humaidi menambahkan untuk kami dari Ibrahim bin sa'd yang wanita maksudkan, adalah, sekiranya ia temukan nabi telah wafat.</t>
+  </si>
+  <si>
+    <t>Jangan kalian benarkan ahli kitab, dan jangan pula kalian mendustakannya, dan katakan saja '(Kami beriman kepada Allah, dan apa yang diturunkan kepada kami dan yang diturunkan kepadamu) '.</t>
+  </si>
+  <si>
+    <t>Bagaimana kalian bertanya ahli kitab padahal kitab kalian yang diturunkan kepada Rasulullah ShallAllahu 'alaihi wa Salam lebih baru kemurniannya dan belum terkotori? Sedang ahlu kitab menceritakan kepada kalian dengan mengubah-ubah kitabullah dan menggantinya, dan mereka tulis alkitab dengan tangannya dan mereka katakan, 'Ini dari sisi Allah' untuk mereka tukar dengan harga yang sedikit, tidak sebaiknyakah ilmu yang yang kalian miliki mencegah kalian dari bertanya kepada mereka? Tidak, demi Allah, takkan kulihat lagi seseorang diantara mereka bertanya kalian tentang yang diturunkan kepada kalian.'</t>
+  </si>
+  <si>
+    <t>Bacalah alquran selama menjadikan hati kalian bersatu padu, namun jika kalian berselisih, tinggalkanlah. Abu Abdullah berkata, 'Abdurrahman mendengar Sallam (bukan sekedar dari).'</t>
+  </si>
+  <si>
+    <t>Bacalah alquran, selama menjadikan hati kalian bersatu padu, namun jika kalian berselisih, tinggalkanlah. Abu Abdullah berkata, Yazid bin harun berkata dari Harun al-al'war telah menceritakan kepada kami Abu Imran dari Jundab dari Nabi ShallAllahu 'alaihi wa Salam.</t>
+  </si>
+  <si>
+    <t>Kesinilah, saya tuliskan untuk kalian tulisan yang sekali-kali kalian tidak bisa sesat selama-lamanya.' Umar berkata, 'Nabi ShallAllahu 'alaihi wa Salam menderita kesakitan dan di sisi kalian ada alquran, maka cukuplah bagi kita kitabullah.' Ahlul bait menjadi berselisih dan bersengketa, di antaranya ada yang berkata 'Tolong kalian mendekatlah sehingga Rasulullah Shallallahu'alaihiwasallam bisa menuliskan tulisan untuk kalian yang sekali-kali kalian tak akan tersesat selama-lamanya.' Di antara mereka ada yang berpendapat sebagaimana ucapan Umar. Tatkala suara mereka semakin gaduh dan perselisihan semakin kencang di sisi Nabi ShallAllahu 'alaihi wa Salam, Nabi berkata: 'Menyingkirlah kalian dariku! ' Ubaidullah berkata, 'Ibn Abbas berkata, 'Bencana dari segala bencana adalah yang menghalangi Rasulullah Shallallahu'alaihiwasallam untuk menulis catatan bagi mereka, karena mereka berselisih dan membuat kegaduhan.'</t>
+  </si>
+  <si>
+    <t>Bertahallullah kalian, dan gilirlah isteri-isteri kalian! 'Atha berkata, Jabir berkata, Nabi tidak mewajibkan atas mereka, hanya menghalalkan isteri-isteri itu untuk dikumpuli, kemudian Jabir pun mengabarkannya. Kami katakan, ketika itu jarak antara kami dan Arafah selain hanya lima, dan beliau perintahkan kami untuk bertahallul hingga isteri-isteri kami, lantas kami datangi Arafah sedang kemaluan kami meneteskan madzi.' Kata 'Atha, Jabir berkata, 'Demikian' sambil ia gerakkan tangannya. Lantas Rasulullah Shallallahu'alaihiwasallam berdiri dan bersabda: 'Kalian tahu bahwa aku adalah orang yang paling bertakwa diantara kalian dan paling jujur, paling baik, kalaulah bukan karena hewan sembelihanku, niscaya aku telah bertahallul sebagaimana kalian lakukan, maka bertahallullah kalian, kalaulah aku bisa mengulang kembali kejadian yang telah lewat, niscaya aku tidak membawa sembelihan.' Kami pun bertahallul, mendengar dan taat.</t>
+  </si>
+  <si>
+    <t>Shalatlah kalian sebelum maghrib, shalatlah kalian sebelum maghrib, pada kali ketiga beliau katakan: Bagi siapa yang ingin, yang demikian karena beliau khawatir jangan-jangan manusia menjadikannya sunnah.</t>
+  </si>
+  <si>
+    <t>siapa yang bisa memberiku alasan terhadap seseorang yang gangguannya terhadap isteriku telah kudengar? Demi Allah, aku tak tahu terhadap isteriku selain kebaikan semata, lantas beliau sebutkan kesucian Aisyah. Dan Abu Usamah berkata 'dari Hisyam.</t>
+  </si>
+  <si>
+    <t>Kalian tidak bisa memberiku alasan terhadap seseorang yang mencela isteriku, setahuku tak ada keburukan pada mereka sama sekali. Dan 'Urwah berkata, 'Dikala 'Aisyah dikabarkan selingkuh, ia berkata, 'Wahai Rasulullah, bersediakah engkau jika aku kembali kepada keluargaku? Maka Rasul memberinya ijin dan mengutus pelayan untuk menemaninya. Dan seorang laki-laki anshar berkata, 'Maha suci Engkau, tak sepantasnya kami berkata yang sedemikian ini. Maha suci Engkau, ini adalah kebohongan yang nyata.'</t>
+  </si>
+  <si>
+    <t>mengutus Mu'adz ke negeri Yaman.</t>
+  </si>
+  <si>
+    <t>engkau mendatangi kaum ahli kitab, maka jadikanlah materi dakwah pertama-tama yang engkau sampaikan adalah agar mereka mentauhidkan Allah ta'ala. Jika mereka telah sadar terhadap hal ini, beritahulah mereka bahwa Allah mewajibkan lima shalat kepada mereka dalam sehari semalam. Jika mereka telah shalat, beritahulah mereka bahwa Allah mewajibkan zakat harta mereka, yang diambil dari yang kaya, dan diberikan kepada yang miskin, dan jika mereka telah mengikrarkan yang demikian, ambilah harta mereka dan jagalah harta mereka yang kesemuanya harus dijaga kehormatannya.</t>
+  </si>
+  <si>
+    <t>tahukah kamu hak Allah atas hamba? Allah dan rasul-Nya yang lebih tahu, Jawab Mu'adz. Nabi bersabda lagi: Yaitu agar mereka beribadah kepada-Nya dengan tidak menyekutukan-Nya dengan sesuatu apapun. Tahukah engkau apa hak mereka atas Allah? tanya Nabi selanjutnya.Allah dan Rasul-Nya yang lebih lebih tahu. Jawab Mu'adz. Nabi bersabda: Yaitu agar Dia tidak menyiksa mereka.</t>
+  </si>
+  <si>
+    <t>Sungguh surat tadi menyamai sepertiga alquran. Dan Ismail bin Ja'far menambahkan dari Malik dari Abdurrahman dari Ayahnya dari Abu Sa'id telah mengabariku saudaraku Qatadah bin Nu'man dari nabi ShallAllahu 'alaihi wa Salam.</t>
+  </si>
+  <si>
+    <t>Tolong tanyailah dia, mengapa dia berbuat sedemikian? ' Mereka pun menanyainya, dan sahabat tadi menjawab, 'Sebab surat itu adalah menggambarkan sifat Arrahman, dan aku sedemikian menyukai membacanya.' Spontan Nabi ShallAllahu 'alaihi wa Salam bersabda: 'Beritahukanlah kepadanya bahwa Allah menyukainya.</t>
+  </si>
+  <si>
+    <t>Allah tak bakalan menyayangi siapa saja yang tidak menyayangi manusia.</t>
+  </si>
+  <si>
+    <t>Pulanglah engkau ke rumah anak puteriku, dan beritahukanlah kepadanya bahwa segala milik Allah-lah yang diambil-Nya dan apa yang diberikan-Nya, dan segala sesuatu di sisi-Nya telah ada ketentuan yang ditetapkan. Suruhlah dia untuk bersabar dan mengharap-harap pahala. Anak puteri beliau kembali mengutus utusannya disertai sumpah yang isinya, 'Anda harus mendatanginya.' Kontan Nabi ShallAllahu 'alaihi wa Salam berdiri bersama Sa'd bin Ubadah dan Muadz bin Jabal, lalu anak kecil dari puteri beliau diserahkan beliau sedang nyawanya sudah tersengal-sengal seolah-olah sudah di penghujung (sisa-sia) hayatnya. Kedua mata Nabi terus berlinang, maka Sa'd bertanya, 'Wahai Rasulullah, mengapa mata anda menangis? ' Nabi menjawab: Inilah rahmat yang Allah letakkan dalam hati hamba-Nya, hanyasanya Allah menyayangi hamba-Nya yang penyayang.</t>
+  </si>
+  <si>
+    <t>Tidak ada seorang pun yang lebih bersabar atas gangguan yang didengarnya daripada Allah, ada manusia mengaku Allah mempunyai anak (yaitu orang nashrani), namun Allah masih juga memberi mereka kesehatan dan rejeki.</t>
+  </si>
+  <si>
+    <t>Kunci keghaiban ada lima; tidak mengetahuinya selain Allah, tidak ada yang mengetahui kandungan yang mengempes (gugur, berkurang) selain Allah, tidak ada yang mengetahui apa yang terjadi esok hari selain Allah, tidak ada yang mengetahui kapan hujan datang selain Allah, dan tidak ada siapapun manusia yang tahu di bumi mana berada akan meninggal selain Allah, dan tidak ada yang mengetahui kapan kiamat terjadi selain Allah.</t>
+  </si>
+  <si>
+    <t>Barangsiapa menceritakan kepadamu bahwa Muhammad Shallallahu'alaihiwasallam melihat Tuhannya berarti ia telah dusta, karena Allah berfirman: '(Ia tidak bisa dimengetahui oleh pandangan) ' (Qs. Al-An'am: 103), dan barangsiapa menceritakan kepadamu bahwa ia tahu yang ghaib, berarti ia telah dusta, sebab Muhammad bersabda: 'Tidak ada yang tahu yang ghaib selain Allah'.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya Allah adalah Assalaam', namun katakanlah olehmu sekalian: 'ATTAHIYAATULILLAH WA ASH SHALAWATU WATH THAYYIBAT ASSALAAMU ALAIKA AYYUHANNABIYU WA RAHMATULLAHI WA BARAKAATUHU ASSALAAMU 'ALAINA WA 'ALA 'IBAADILLAHISH SHAALIHIINA ASYHADU AN LAA ILAAHA ILLAALLAHU WA ASYHADU ANNA MUHAMMADAN 'ABDUHU WA RASUULUH (Segala pujian milik Allah', dan kesejahteraan serta segala kebaikan, semoga kesejahteraan atasmu wahai nabi ShallAllahu 'alaihi wa Salam, juga rahmat Allah dan barakah-Nya. Dan semoga kesejahteraan terlimpahkan kepada kita, dan hamba-hamba Allah yang shalih, saya bersaksi bahwa tiada sesembahan yang hak selain Allah semata dan saya bersaksi bahwa Muhammad adalah hamba-Nya dan Rasul-Nya) '.</t>
+  </si>
+  <si>
+    <t>Pada hari kiamat Allah menggenggam bumi dan melipat langit dengan tangan kanan-Nya serta berkata 'Akulah sang raja, mana raja-raja bumi? Dan Syu'aib dan Azzubaidi dan Ibn Musafir dan Ishaq bin Yahya juga berkata dari Az Zuhri dan Abu Salmah semisalnya.</t>
+  </si>
+  <si>
+    <t>AUUDZU BI'IZZATILLAHILLLADZII LAA ILAAHA ILLAA ANTAL LADZII LAA YAMUUTU WAL JINNU WAL INSU YAMUUTUUTUUNA (Saya berlindung dengan kekuasaan Allah yang tiada sesembahan yang hak selain Dia, yang tidak pernah mati sedang jin dan manusia akan mati) '.</t>
+  </si>
+  <si>
+    <t>Terus saja -penghuninya- dimasukkan ke dalam Neraka. (dalam jalur lain disebutkan) Dan telah berkata kepadaku Khalifah telah menceritakan kepada kami Yazid bin Zurai' telah menceritakan kepada kami Sa'id dari Qatadah dari Anas dan dari Mu'tamir aku mendengar bapakku dari Qatadah dari Anas dari Nabi ShallAllahu 'alaihi wa Salam bersabda: Terus saja -penghuninya- dimasukkan ke dalam Neraka '(sehingga ia berkata 'Masih adakah tambahan? (Qs. Qaaf: 30), hingga Allah Rabbul 'alamin meletakkan telapak kaki-Nya sehingga satu sama lain saling berdesak-desakan, hingga neraka berkata, 'Cukup-cukup' demi kemuliaan dan kehormatan-Mu. Sedangkan surga masih saja terlalu longgar sehingga Allah menciptakan makhluk baru dan meletakkan mereka ke dalam surga yang masih senggang.</t>
+  </si>
+  <si>
+    <t>ALLAAHUMMA LAKAL HAMDU ANTA RABBUS SAMAAWAATI WAL ARDLI LAKAL HAMD, ANTA QAYYIMUS SAMAAWAATI WAL ARDL WAMAN FIIHINNA, LAKAL HAMDU ANTA NUURUS SAMAAWAATI WAL ARDLI, QOULUKAL HAQQ, WAWA'DUKAL HAQQ, WALIQAA'UKA HAQQ, WAL JANNATU HAQQ WAN NAARU HAQQ, WASSAA'ATU HAQQ, ALLAAHUMMA LAKA ASLAMTU WABIKA AAMANTU WA'ALAIKA TAWAKKALTU, WAILAIKA ANABTU WABIKA KHAASHAMTU, WAILAIKA HAAKAMTU, FAGHFIR LII MAA QADDAMTU WAMAAA AKHKHARTU WA ASRARTU WAMAA A'LANTU ANTA ILAAHII LAA-ILAAHA LII GHAIRUKA '(Ya Allah, bagi-Mu segala puji, Engkau Tuhan langit dan bumi, bagi-Mu segala puji, Engkau pengurus langit dan bumi dan semua penghuninya, bagi-Mu segala puji, Engkau adalah cahaya langit dan bumi, firman-Mu benar, janji-Mu benar, perjumpaan terhadap-Mu adalah benar, surga adalah benar, neraka adalah benar, hari kiamat benar, ya Allah, kepada-Mu aku berserah diri, kepada-Mu aku beriman, kepada-Mu aku bertawakkal, kepada-Mu aku bersandar, karena-Mu aku memusuhi (musuh), kepada-Mu aku berhakim, maka ampunilah bagiku apa yang pernah aku lakukan dan apa yang belum aku lakukan, apa yang aku lakukan secara sembunyi-sembunyi dan apa yang aku lakukan secara terang-terangan, Engkau adalah Tuhanku, tiada sesembahan yang hak bagiku selain Engkau) '. Dan telah menceritakan kepada kami Tsabit bin Muhammad telah menceritakan kepada kami Sufyan dengan hadis ini, dan ia menyebutkan dengan redaksi, 'Engkau adalah benar dan firman-Mu benar.'</t>
+  </si>
+  <si>
+    <t>Sederhanakanlah kalian dalam berdoa, sebab kalian tidak menyeru Dzat yang tuli dan tidak pula yang ghaib, sesungguhnya kalian menyeru Tuhan yang Maha mendengar lagi Maha melihat dan Maha dekat. Kemudian beliau mendatangiku sedang aku berkata dalam hati: 'Laa haula walaa quwwata illaa billaah (Tiada daya dan kekuatan kecuali dengan pertolongan Allah) ', maka beliau berkata: Wahai Abdullah bin Qais, ucapkanlah laa haula walaa quwwata illaa billaah, sebab bacaan itu adalah perbendaharaan surga, atau beliau berkata dengan redaksi, 'Maukah aku tunjukkan ucapan itu?</t>
+  </si>
+  <si>
+    <t>ALLAAHUMMA INII ZHALAMTU NAFSII ZHULMAN KATSIIRAN WALAA YAGHFIRUDZDZUNUUBA ILLAA ANTA FAHGHFIRLII MIN INDIKA MAGHFIRATAN INNAKA ANTAL GHAFUURURRAHIIM '(Ya Allah, sesungguhnya aku telah menzhalimi diriku sendiri dengan kezhaliman yang banyak, dan tidak ada yang bisa mengampuni dosa selain Engkau, maka ampunilah bagiku dari sisi-Mu, sesungguhnya Engkau Maha pengampun lagi Maha Penyayang) '.</t>
+  </si>
+  <si>
+    <t>Jibril memanggilku dan berkata: 'Sesungguhnya Allah mendengar ucapan kaummu namun mereka tidak bisa mencelakaimu'.</t>
+  </si>
+  <si>
+    <t>jikalah Engkau tahu bahwa urusan ini (Si Pemohon menyebut nama urusannya) adalah baik bagiku baik untuk masa yang dekat maupun masa yang akan datang -atau sepertinya ia berkata-dalam urusan agamaku dan duniaku, serta kesudahan urusanku, maka tetapkanlah untukku dan mudahkanlah bagiku, kemudian berilah aku barakah padanya. Ya Allah, sebaliknya jika Engkau tahu bahwa urusan ini adalah buruk bagiku dalam urusan agamaku dan kehidupanku, serta kesudahan urusanku- atau sepertinya ia berkata-dalam kesudahan yang dekat maupun yang akan datang, maka palingkanlah aku daripadanya dan tetapkanlah kebaikan bagiku darimana saja berada kemudian jadikanlah aku ridla terhadapnya)</t>
+  </si>
+  <si>
+    <t>Jika salah seorang dari kalian punya satu keinginan maka hendaklah ia kerjakan shalat dua rakaat (bukan shalat wajib) kemudian mengucapkan: 'ALLAAHUMMA INNII ASTAKHIIRUKA BI'ILMIKA, WA ASTAQDIRUKA BIQUDRATIKA WA AS'ALUKA MIN FADLLIKA, FAINNAKA TAQDIRU WALAA AQDIRU WATA'LAMU WALAA A'LAMU WA ANTA 'ALLAAMUL GHUYUUB, ALLAAHUMMA FAIN KUNTA TA'LAMU HAADZAL AMRA KHAIRAN LII FII 'AAJILI AMRII WA AAJILIHI -Qaala-- AW FII DIINII WAMA'AASYII WA'AAQIBATU AMRII FAQDURHU LII WAYASSIRHU LII TSUMMA BAARIK LII FIIHI, ALLAAHUMMA WAIN KUNTA TA'LAMU ANNAHU YARRUN LII FII DIINIII WAMA'AASYII WA'AAQIBATI -Aw qaala-FII 'AAJILI AMRII WA AAJILIHI FASHRIFNII 'ANHU WQDIRLIL KHIARA HAITSU KAANA TSUMMA ARDLINII BIHI (Ya Allah, Saya meminta pilihan kepada-Mu dengan ilmu-Mu, dan saya meminta keputusan dengan keputusan-Mu, dan saya meminta-Mu dengan kurnia-Mu, sesungguhnya Engkau memutuskan dan saya tidak bisa memutuskan, dan Engkau Maha tahu sedang aku tidak mengetahui, dan Engkau Maha mengetahui yang ghaib, Ya Allah, jikalah Engkau tahu bahwa urusan ini (Si Pemohon menyebut nama urusannya) adalah baik bagiku baik untuk masa yang dekat maupun masa yang akan datang -atau sepertinya ia berkata-dalam urusan agamaku dan duniaku, serta kesudahan urusanku, maka tetapkanlah untukku dan mudahkanlah bagiku, kemudian berilah aku barakah padanya. Ya Allah, sebaliknya jika Engkau tahu bahwa urusan ini adalah buruk bagiku dalam urusan agamaku dan kehidupanku, serta kesudahan urusanku- atau sepertinya ia berkata-dalam kesudahan yang dekat maupun yang akan datang, maka palingkanlah aku daripadanya dan tetapkanlah kebaikan bagiku darimana saja berada kemudian jadikanlah aku ridla terhadapnya)</t>
+  </si>
+  <si>
+    <t>Allah mempunyai sembilan puluh sembilan nama, seratus kurang satu, siapa yang meng-ihsha'nya, maka ia masuk surga. Dan makna meng-ihsha' adalah menjaga sebagaimana firman Allah: 'Ahshainaa (Kami menjaganya) ' (Qs. Yasin: 12).</t>
+  </si>
+  <si>
+    <t>Jika salah seorang diantara kalian mendatangi kasurnya (tidur), hendaklah ia mengibaskannya dengan ujung kainnya sebanyak tiga kali, dan hendaklah memanjatkan doa BISMIKA RABBII WADLA'TU JANBII WABIKA ARFA'UHU, IN AMSAKTA NAFSII FAGHFIR LAHAA, WAIN ARSALTAHAA FAHFAHZH-HAA BIMAA TAHFAZHU BIHI 'IBAADAKASHSHAALIHIINA (Dengan menyebut nama-Mu Wahai Tuhanku, aku baringkan pinggangku dan atas nama-Mu aku mengangkatnya, dan jika Engkau menahan diriku, maka berilah ampunan terhadapnya, dan jika Engkau melepaskannya, maka jagalah sebagaimana Engkau menjaga hamba-Mu yang shalih) '. Hadis ini diperkuat oleh Yahya dan Bisyr bin Mufadldlal dari 'Ubaidullah dari Sa'id dari Abu Hurairah dari Nabi ShallAllahu 'alaihi wa Salam, sedang Zuhair dan Abu Dlamrah dan Ismail bin Zakariya menambahkan dari Ubaidullah dari Sa'id dari Ayahnya dari Abu Hurairah dari Nabi ShallAllahu 'alaihi wa Salam, dan juga diriwayatkan oleh Ibnu 'Ajlan dari Sa'id dari Abu Hurairah dari Nabi ShallAllahu 'alaihi wa Salam.</t>
+  </si>
+  <si>
+    <t>ALLAAHUMMA BISMIKA AHYAA WA AMUUTU (Ya Allah, dengan nama-Mu aku hidup dan dengan nama-Mu aku meningga) ', sebaliknya jika beliau bangun di pagi hari, beliau membaca: ALHAMDU LILLAHIL LADZII AHYAANAA BA'DA MAA AMAATANAA WAILAIHIN NUSYUUR (Segala puji bagi Allah Yang telah menghidupkan kami setelah mematikan kami dan kepada-Nya kita kembali) '.</t>
+  </si>
+  <si>
+    <t>BISMIKA NAMUUTU WA NAHYAA (Dengan nama-Mu kami mati dan hidup), dan apabila bangun beliau membaca doa: ALHAMDULILLAAHILLDAZII AHYAANAA BA'DA MAA AMAATANAA WAILAIHINNUSYUUR (Segala puji bagi Allah yang telah menghidupkan kami setelah Dia mematikan kami dan kepada-Nya kita dibangkitkan).</t>
+  </si>
+  <si>
+    <t>Sekiranya salah seorang diantara kalian ingin mendatangi isterinya, maka panjatkanlah doa: 'BISMIKALLAAHUMMA JANNIBNASY WAJANNIBISYSYAITHAANA MAA RAZAQTANAA (Dengan nama Allah, jauhkanlah kami dari setan dan jauhkanlah setan yang Engkau anugerahkan kepada kami) ', jika ditakdirkan memperoleh anak dari keduanya, maka setan tak bakalan membahayakannya selama-lamanya.</t>
+  </si>
+  <si>
+    <t>Jika kau lepas anjingmu yang terlatih dengan kau sebut nama Allah, lantas anjingmu menerkam mangsanya, maka makanlah dari yang diterkamnya, dan jika kamu melempar dengan batang panah namun batang panah itu melukai (melukai kulit, atau mengalirkan darah,) maka makanlah.</t>
+  </si>
+  <si>
+    <t>Sebutlah oleh kalian nama Allah, dan makanlah. Hadis ini diperkuat oleh Muhammad bin Abdurrahman dan Darawardi dan Usamah bin Hafsh.</t>
+  </si>
+  <si>
+    <t>Nabi ShallAllahu 'alaihi wa Salam pernah berkurban dengan dua kambing, beliau sebut nama Allah dan beliau bertakbir.</t>
+  </si>
+  <si>
+    <t>Barangsiapa menyembelih sebelum shalat, hendaklah ia menyembelih kembali dengan sembelihan lain sebagai gantinya, dan barangsiapa belum menyembelih, hendaklah menyembelih dengan menyebut nama Allah.</t>
+  </si>
+  <si>
+    <t>Jangan kalian bersumpah dengan nama bapak-bapak kalian, dan barangsiapa bersumpah, hendaklah bersumpah dengan nama Allah.</t>
+  </si>
+  <si>
+    <t>Rasulullah Shallallahu'alaihiwasallam mengutus sepuluh orang sahabatnya yang di antaranya ialah Khubaib al-anshari, lantas Ubaidullah bin Iyadl memberitakan kepadaku bahwa anak perempuan al Harits mengabarkan kepadanya, tatkala mereka (Banu Harits bin Amir bin Naufal) berkumpul, Khubaib bin 'Adi meminjam sebuah pisau kepada anak perempuan itu untuk membersihkan rambut-rambut tubuhnya. Tatkala mereka keluarkan Khubaib dari tanah haram untuk mereka bunuh, Khubaib al-anshari berkata, Aku tak peduli ketika aku terbunuh sebagai seorang muslim # Di bagian tubuh manapun aku terbunuh karena Allah # Asalkan itu semua demi Dzat Allah # Kalaulah Allah berkenan Ia memberi barakah di semua sambungan daging yang tercabik-cabik. Khubaib kemudian dibunuh oleh anak laki-laki Al Harits, dan nabi ShallAllahu 'alaihi wa Salam kabarkan berita kematian Khubaib dan teman-temannya kepada sahabat-sahabatnya ketika mereka memperoleh musibah yang menimpanya.</t>
+  </si>
+  <si>
+    <t>Tak ada seorangpun yang lebih cemburu daripada Allah, yang karena sifat cemburu-Nya Allah mengharamkan segala bentuk kejahatan, dan tak seorang pun yang lebih senang dipuji daripada Allah.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya rahmat-Ku lebih mendominasi kemurkaan-Ku'.</t>
+  </si>
+  <si>
+    <t>Aku berada dalam prasangka hamba-Ku, dan Aku selalu bersamanya jika ia mengingat-Ku, jika ia mengingat-Ku dalam dirinya, maka Aku mengingatnya dalam diri-Ku, dan jika ia mengingat-Ku dalam perkumpulan, maka Aku mengingatnya dalam perkumpulan yang lebih baik daripada mereka, jika ia mendekatkan diri kepada-Ku sejengkal, maka Aku mendekatkan diri kepadanya sehasta, dan jika ia mendekatkan diri kepada-Ku sehasta, Aku mendekatkan diri kepadanya sedepa, jika ia mendatangi-Ku dalam keadaan berjalan, maka Aku mendatanginya dalam keadaan berlari.</t>
+  </si>
+  <si>
+    <t>Saya berlindung dengan wajah-Mu', dan Allah berfirman: '(Atau menjadikan kalian berkelompok-kelompok) ' (QS. Al-An'am 65), maka Nabi berkomentar 'Ini lebih sepele.'</t>
+  </si>
+  <si>
+    <t>Allah tidak samar bagi kalian, Allah tidak buta sebelah -sambil beliau mendemontrasikan dengan tangannya ke matanya- 'dan bahwasanya al masih addajjal buta sebelah kanan, seolah-olah matanya anggur yang menjorok.</t>
+  </si>
+  <si>
+    <t>Tidaklah Allah mengutus seorang nabi pun melainkan telah mengingatkan kaumnya terhadap si buta sebelah dan si pendusta, ingatlah bahwa dajjal adalah buta sebelah, sedang Rabb kalian tidak buta sebelah, tertulis diantara kedua matanya KAFIR.</t>
+  </si>
+  <si>
+    <t>Tidaklah manusia yang dicipta melainkan Allah lah yang menciptanya.</t>
+  </si>
+  <si>
+    <t>Angkatlah kepalamu hai Muhammad, katakanlah, engkau didengar, mintalah, engkau pasti diberi, mintalah syafaat, engkau musti diberi syafaat.' Maka aku memuji Tuhanku dengan pujian yang telah diajarkan Tuhanku kepadaku tentangnya. Lantas aku memberi syafaat. Dan Dia memberiku batasan yang aku kemudian memasukkan mereka ke dalam surga. Aku kembali dan kuutarakan kepada Tuhanku, 'Ya Tuhanku, tidak tersisa dalam neraka selain yang ditahan oleh Alquran dan wajib kekal di dalamnya'. Nabi ShallAllahu 'alaihi wa Salam kemudian bersabda: Akan dikeluarkan dari neraka siapa saja yang mengucapkan laa-ilaaha-illallah dan dalam hatinya mempunyai kebaikan seberat sebiji gandum, kemudian akan keluar dari neraka siapa saja yang mengucapkan laa-ilaaha-illallah dan dalam hatinya terdapat kebaikan seberat biji tepung, dan akan keluar dari neraka siapa saja yang mengucapkan laa-ilaaha illallah sedang dalam hatinya terdapat kebaikan seberat biji atom.</t>
+  </si>
+  <si>
+    <t>Tangan Allah selalu penuh, tidak kurang karena memberi nafkah, dan selalu dermawan baik siang maupun malam. Beliau bersabda lagi: Bukankah kalian telah melihat apa yang dibelanjakan-Nya semenjak Dia mencipta langit dan bumi, dan tidak berkurang sedikit pun apa yang di tangan-Nya? Beliau bersabda lagi: Arsy-Nya di atas air, dan tangan-Nya yang lain memegang timbangan, yang terkadang Ia rendahkan atau Ia tinggikan.</t>
+  </si>
+  <si>
+    <t>Pada hari kiamat Allah menggenggam bumi dan langit berada di tangan kanan-Nya, lantas Allah berfirman 'Aku lah sang raja'. Sa'id meriwayatkannya dari Malik dan Umar bin Hamzah berkata, 'Aku mendengar Salim aku mendengar Ibn Umar dari Nabi ShallAllahu 'alaihi wa Salam dengan hadis ini. Dan Abul Yaman berkata, telah mengabarkan kepada kami Syu'aib dari Azzuhri telah mengabarkan kepadaku Abu Salamah bahwa Abu Hurairah berkata, Rasulullah ShallAllahu 'alaihi wa Salam bersabda: Allah menggenggam bumi.</t>
+  </si>
+  <si>
+    <t>kemudian beliau membaca ayat: '(Dan mereka tidak menghormati Allah dengan penghormatan yang semestinya) ' (QS.Azzumar 67). Yahya bin Sa'id berkata, Dan Fudlail bin Ziyad di dalam hadis tersebut menambahkan, dari Manshur dari Ibrahim dari Abidah dari Abdullah lantas Rasulullah Shallallahu'alaihiwasallam terkagum-kagum seraya membenarkannya.</t>
+  </si>
+  <si>
+    <t>lantas beliau membaca ayat: '(Dan mereka tidak menghormati Allah dengan penghormatan yang semestinya) ' (QS.Azzumar 67).</t>
+  </si>
+  <si>
+    <t>Adakah kalian merasa heran dengan kecemburuan Sa'd? Demi Allah, sungguh aku lebih cemburu daripada dia, dan Allah lebih cemburu daripada aku, dan karena kecemburuan Allah itulah Allah mengharamkan segala kejahatan baik yang nampak maupun yang tersembunyi, dan tidak ada seorangpun yang lebih suka terhadap argumentasi daripada Allah, karena itulah Allah mengutus para rasul sebagai pembawa berita gembira dan pemberi peringatan, dan tak ada seorang pun yang lebih menyukai pujian daripada Allah, karena itulah Allah menjanjikan surga.</t>
+  </si>
+  <si>
+    <t>Apakah engkau mempunyai hapalan alquran? ' Ia menjawab, 'Ada, yaitu surat sedemikian sedemikian, ' yang ia sebut namanya.</t>
+  </si>
+  <si>
+    <t>Allah telah ada dan tidak ada sesuatu pun terjadi sebelum-Nya, arsy-Nya berada di atas air, kemudian Allah mencipta langit dan bumi dan Allah menetapkan segala sesuatu dalam alquran'. Lantas seorang laki-laki mendatangiku dan berujar 'Wahai Imran, carilah untamu, sebab untamu pergi! Aku bergegas mencarinya, tidak tahunya fatamorgana (padang pasir) menghilangkan pandangannya. Demi Allah, sungguh aku mengimpikan sekiranya untaku biarlah hilang sedang aku tidak usah berdiri.</t>
+  </si>
+  <si>
+    <t>Tangan kanan Allah selalu penuh dan sama sekali tidak pernah kurang karena berderma (infak), Dia sangat dermawan baik malam maupun siang, tidakkah kalian tahu apa yang telah diinfakan-Nya semenjak Ia mencipta langit dan bumi dan itu semua tidak mengurangi apa yang berada di tangan kanan-Nya? Dan arsy-Nya berada diatas air, dan ditangan-Nya yang lain urusan menjulurkan atau menahan, karenanya Dia meninggikan atau merendahkan.</t>
+  </si>
+  <si>
+    <t>Bertakwalah engkau kepada Allah, dan tahanlah isterimu. Anas berkata, Kalaulah Rasulullah sudah merahasiakan sesuatu, beliau sungguh merahasiakannya. Ketika itu Zainab binti Jahsyin membanggakan diri kepada isteri-isteri beliau lainnya seraya berkata, 'Kalian dikawinkan oleh keluarga kalian, sebaliknya aku dikawinkan sendiri oleh Allah ta'ala dari atas langit berlapis tujuh.' Dan masih dari Tsabit mengenai ayat: '(Dan kamu merahasiakan urusanmu yang Allah membeberkannya, dan kamu takut kepada manusia) ' (Qs. Al Ahzab: 37), ayat ini diturunkan tentang percekcokan rumah tangga Zainab dan Zaid bin Haritsah.</t>
+  </si>
+  <si>
+    <t>Ayat hijab diturunkan tentang Zainab binti Jahsyin, yang ketika itu beliau Shallallahu'alaihiwasallam memberinya makan berupa roti dan daging, dan Zainab membanggakan diri kepada isteri-isteri Nabi ShallAllahu 'alaihi wa Salam lainnya dengan berkata, 'Allah lah yang menikahkanku di langit.'</t>
+  </si>
+  <si>
+    <t>Rahmat-Ku lebih mendominasi kemurkaan-Ku'.</t>
+  </si>
+  <si>
+    <t>Barangsiapa beriman kepada Allah dan rasul-Nya, mendirikan shalat, dan berpuasa pada bulan Ramadlan, maka Allah berkewajiban memasukkannya kedalam surga, baik ia berhijrah fi sabilillah atau duduk di tempat tinggalnya tempat ia dilahirkannya. Para sahabat berkata, Wahai Rasulullah, tidak sebaiknyakah kami mengabarkan orang-orang tentang hal ini? Nabi malahan menjawab: Dalam surga terdapat seratus derajat yang Allah persiapkan bagi para mujahidin di jalan-Nya, yang jarak antara setiap dua tingkatan bagaikan antara langit dan bumi, maka jika kalian meminta Allah, mintalah surga firdaus, sebab firdaus adalah surga yang paling tengah dan paling tinggi, di atasnya ada singgasana Arrahman, dan daripadanya sungai surga memancar.</t>
+  </si>
+  <si>
+    <t>tahukah engkau ke manakah matahari ini pergi? Aku menjawab, 'Allah dan rasul-Nya lah yang lebih tahu! ' Nabi menjawab: Sesungguhnya matahari ini pergi meminta ijin untuk sujud sehingga diijinkan, seolah-olah dikatakan kepada 'Kembalilah engkau dari tempat engkau datang', maka ia muncul di sebelah baratnya, kemudian beliau membaca: '(Itulah tempat tinggalnya) ', menurut bacaan Abdullah.</t>
+  </si>
+  <si>
+    <t>sehingga aku telusuri alquran dan hingga aku temukan akhir surat At Taubah, yang aku tidak menemukannya dengan seorang pun selain bersamanya, yaitu ayat: '(Telah datang kepada kalian seorang rasul dari kalian sendiri) ' (QS. Attaubah 128), hingga penghabisan surat al Bara'ah (surat At Taubah). Telah menceritakan kepada kami Yahya bin Bukair telah menceritakan kepada kami Al Laits dari Yunus dengan hadis ini, dan beliau berkata; telah menceritakan kepada kami Yahya bin Bukair telah menceritakan kepada kami Al Laits dari Yunus dengan hadis ini, dan ia menyebutkan, 'Bersama Abu Khuzaimah al-anshari.</t>
+  </si>
+  <si>
+    <t>LAA-ILAAHA ILLALLAHUL 'ALIIMUL HALIIM, LAA-ILAAHA ILLALLAH RABBUL'ARSYIL 'AZHIIMI LAA-ILAAHA ILLALLAH RABBUS SAMAAWAATI WARABBUL ARDLI RABBUL'ASYIL KARIIMI (Tiada sesembahan yang hak selain Allah Yang Maha Mengetahui lagi Maha Bijaksana, tiada sesembahan yang hak selain Allah, Tuhan pemelihara arsy Yang Maha Agung, tiada sesembahan yang hak selain Allah Yang memelihara langit dan bumi, Tuhan pemelihara arsy yang mulia) '.</t>
+  </si>
+  <si>
+    <t>Pada hari kiamat semua manusia pingsan, tak tahunya saya dan Musa berpegangan dengan salah satu penyangga 'arsy. Sedang Al Majisyun berkata dari Abdullah bin Fadll dari Abu Salamah dari Abu Hurairah dari Nabi ShallAllahu 'alaihi wa Salam, beliau bersabda: Dan aku menjadi manusia yang pertama-tama dibangkitkan, tak tahunya Musa sudah menyangga arsy.</t>
+  </si>
+  <si>
+    <t>bagaimana kalian tinggalkan hamba-hamba-Ku? Para malaikat menjawab, 'Kami tinggalkan mereka sedang mereka tengah mendirikan shalat, dan kami datangi mereka sedang mereka mendirikan shalat'. Sedang Khalid bin Makhlad berkata, telah menceritakan kepada kami Sulaiman telah menceritakan kepadaku Abdullah bin Dinar dari Abu Shalih dari Abu Hurairah berkata, Rasulullah ShallAllahu 'alaihi wa Salam bersabda: Barangsiapa bersedekah dengan separuh biji kurma dari penghasilan yang baik, dan tidak ada yang naik kepada Allah kecuali amal yang baik, maka Allah menerimanya dengan tangan kanan-Nya, kemudian mengembangkannya untuk pelakunya sebagaimana salah seorang diantara kalian merawat kuda piaraannya hingga sebesar gunung. Dan hadis ini diriwayatkan oleh Warqa' dari 'Abdullah bin Dinar dari Sa'id bin Yasar dari Abu Hurairah dari Nabi ShallAllahu 'alaihi wa Salam dengan redaksi, 'Dan tidak ada yang naik kepada Allah kecuali kebaikan'.</t>
+  </si>
+  <si>
+    <t>LAA ILAAHA ILLALLAHUL 'AZHIIM, LAA-ILAAHA ILLALLAH RABBUL'ARSYIL 'AZHIIMU, LAA-ILAAHA ILLALLAAH RABBUSSAMAAWAATI WARABBUL'ARSYIL KARIIM (Tiada sesembahan yang hak selain Allah Yang Maha agung, tiada sesembahan yang hak selain Allah pemilik arsy yang Agung, tiada sesembahan yang hak selain Allah pemilik langit dan pemilik arsy yang mulia) '.</t>
+  </si>
+  <si>
+    <t>Diantara keturunan orang ini ada suatu kaum yang membaca al quran yang tidak melebihi tenggorokan mereka (membaca alquran tidak meresap dalam hati), mereka keluar dari Islam sebagaimana anak panah keluar dari busurnya, mereka membantai pemeluk Islam dan membiarkan pemuja patung-patung, kalaulah aku temui mereka, niscaya aku bunuh mereka sebagaimana pembunuhan terhadap kaum 'Ad.</t>
+  </si>
+  <si>
+    <t>Persingghannya adalah di bawah 'Arsy.</t>
+  </si>
+  <si>
+    <t>Sungguh kalian akan melihat Tuhan kalian sebagaimana kalian melihat bulan ini, kalian tidak bakalan kesulitan melihatnya, maka jika kalian mampu untuk tidak kewalahan melakukan shalat sebelum matahari terbit dan matahari terbenam, maka lakukanlah.</t>
+  </si>
+  <si>
+    <t>Kalian akan melihat Rabb kalian dengan mata telanjang.</t>
+  </si>
+  <si>
+    <t>Kalian akan melihat Tuhan kalian pada hari kiamat sebagaimana kalian melihat bulan ini dengan tidak kesulitan melihatnya.</t>
+  </si>
+  <si>
+    <t>Apakah kalian kesulitan melihat bulan ketika malam purnama? Tidak, Jawab para sahabat. Rasulullah bertanya lagi: Apakah kalian kesulitan melihat matahari ketika tidak ada mendung? Para sahabat menjawab, Tidak ya Rasulullah. Nabi bersabda: Sesungguhnya kalian akan melihat-Nya demikian pula Allah akan mengumpulkan manusia pada hari kiamat dan berfirman: 'Barangsiapa menyembah sesuatu, hendaklah ia mengikuti yang disembahnya.' Maka siapa yang menyembah matahari, ia mengikuti matahari, siapa yang menyembah bulan, ia ikuti bulan, siapa yang menyembah thaghut, ia ikuti thaghut, dan tersisalah dari umat ini orang penolongnya atau justru orang-orang munafiknya -Ibrahim ragu kepastian redaksinya-. Lantas Allah menemui mereka dan berkata, Aku Tuhan kalian. Lantas mereka menjawab, Ini adalah tempat tinggal kami sehingga Tuhan kami mendatangi kami, jika Tuhan kami menemui kami, niscaya kami mengenalnya. Allah kemudian menemui mereka dengan bentuk yang mereka kenal, Allah lalu berfirman: Aku Tuhan kalian. Lantas mereka katakan, Engkau memang Tuhan kami. Mereka pun mengikuti-Nya. Titian (jembatan) lantas dipasang antara dua tepi jahanam dan aku dan umatkulah yang pertama-tama menyeberangimnya. Tak ada yang berani bicara ketika itu selain para rasul, sedang seruan para rasul ketika itu yang ada hanyalah 'Allaahumma sallim sallim (Ya Allah, selamatkan kami. Ya Allah, selamatkan kami) '. Sedang di neraka jahannam terdapat besi-besi pengait seperti duri pohon berduri yang namanya Sa'dan. Bukankah kalian sudah tahu pohon berduri Sa'dan? Para sahabat menjawab, Benar, wahai Rasulullah. Nabi meneruskan: Sungguh pohon itu semisal pohon berduri Sa'dan, hanya tidak ada yang tahu kadar besarnya selain Allah semata. Pohon itu menculik siapa saja sesuai kadar amal mereka, ada diantara mereka yang celaka dengan sisa amalnya atau terikat dengan amalnya, diantara mereka ada yang binasa yang langgeng dengan amalnya atau terikat dengan amalnya, diantara mereka ada yang diseberangkan. Atau dengan redaksi semisal-. Kemudian Allah menampakkan diri, hingga jika Allah selesai memutuskan nasib hamba-Nya dan ingin mengeluarkan penghuni neraka karena rahmat-Nya, Ia perintahkan malaikat untuk mengeluarkan penghuni neraka siapa saja yang tidak menyekutukan Allah dengan sesuatu apapun, yaitu diantara mereka yang Dia masih ingin merahmatinya, diantara yang bersyahadat bahwasanya tiada sesembahan yang hak selain Allah, sehingga malaikat mengenal mereka di neraka dari bekas-bekas sujud, sebab neraka memangsa anak adam selain bekas-bekas sujud. Allah mengharamkan neraka memangsa bekas-bekas sujud, sehingga mereka keluar dari neraka dengan badan yang hangus terbakar, mereka kemudian disiram dengan air kehidupan sehingga tumbuh dibawahnya sebagaimana biji-bijian tumbuh dalam aliran sungai, kemudian Allah selesai memutuskan hamba-hamba-Nya dan tersisa diantara mereka seseorang yang menghadapkan wajahnya ke neraka, dan dialah mantan penghuni neraka yang terakhir kali masuk surga, kecuali ia berdoa, 'Ya Tuhan, palingkanlah wajahku dari neraka, sebab baunya saja sudah cukup menggangguku dan jilatan apinya telah membakarku.' Orang itu kemudian memohon kepada Allah sekehendaknya untuk berdoa, kemudian Allah berfirman: 'Kalaulah Aku memenuhi permintaanmu, jangan-jangan engkau nanti meminta harapan lain! Ia menjawab, 'Tidak, demi kemuliaan-Mu, saya tidak akan meminta selainnya.' Dan Tuhannya pun mengambil janji dan ikrar sekehendak-Nya lalu memalingkan wajahnya dari neraka. Namun kemudian ia menghadap surga dan melihat keindahan surga, ia pun lantas terdiam beberapa saat dan memohon, 'Ya Allah, jadikanlah aku berada di pintu surga.' Allah bertanya: 'Bukankah engkau telah menyerahkan janjimu dan ikrarmu untuk tidak meminta-Ku selama-lamanya selain yang telah Aku berikan. Hai engkau Anak Adam, alangkah senangnya engkau berkhianat.' Namun hamba itu tetap saja memohon, 'Ya Tuhanku, ' dan ia terus memohon Allah hingga Allah bertanya: 'Kalaulah Aku memberimu apa yang kau minta sekarang, jangan-jangan engkau minta lagi dengan permintaan lain.' Ia menjawab, 'Tidak, demi kemuliaan-Mu, saya tidak akan meminta-Mu lagi dengan permintaan lain.' Lantas orang itu menyerahkan janji dan ikrarnya sehingga Allah mengajukan ke pintu surga. Namun ketika hamba itu telah berdiri ke pintu surga, surga terbuka baginya sehingga ia melihat kesenangan hidup dan kegembiraan di dalamnya sehingga ia terdiam sekehendak Allah ia diam. Kemudian ia memohon, 'Ya Tuhanku, masukkanlah aku dalam surga, maka Allah mengatakan, 'Hai, bukankah telah engkau serahkan janjimu untuk tidak meminta yang lain selain yang telah Aku berikan, wahai Anak Adam, alangkah cepatnya engkau berkhianat.' Maka si hamba tadi memohon, 'Ya Tuhanku, jangan aku menjadi hamba-Mu yang paling sengsara, ' si hamba itu terus tiada henti memohon hingga Allah tertawa. Dan jika Allah telah tertawa kepada seorang hamba, Allah musti berkata kepadanya 'Masuklah kamu ke surga.' Jika si hamba telah memasukinya, Allah berkata kepadanya: 'Tolong buatlah impian'. Maka si hamba meminta Tuhannya dan membuat impian-impian, hingga Allah mengingatkannya dengan berfirman sedemikian-sedemikian hingga impian si hamba sudah sampai puncaknya, Allah berfirman kepadanya: 'Itu semua untukku, dan ditambah seperti itu pula.' 'Atha' bin Yazid berkata, Abu Sa'id alkhudzri bersama Abu Hurairah tidak mengembalikan sedikitpun hadisnya, hingga jika Abu Hurairah telah menceritakan bahwa Allah berfirman 'dan bagimu semisalnya', Abu Sa'id al Khudzri berkata 'dan sepuluh semisalnya bersamanya' wahai Abu Hurairah? ' Abu Hurairah berkata, 'Saya tidak hapal selain ucapannya itu 'bagimu dan semisalnya'. Abu Sa'id al Khudzri berkata lagi, Saya bersaksi bahwa saya menghapalnya dari Rasulullah Shallallahu'alaihiwasallam, yaitu redaksi 'Dan bagimu sepuluh semisalnya'. Abu Hurairah berkata, 'Itulah manusia terakhir kali masuk surga.'</t>
+  </si>
+  <si>
+    <t>Apakah kalian merasa kesulitan melihat matahari dan bulan ketika terang benderang? kami menjawab, Tidak. Nabi meneruskan: Begitulah kalian tidak kesulitan melihat melihat Tuhan kalian ketika itu, selain sebagaimana kesulitan kalian melihat keduanya. Kemudian beliau berkata: Lantas ada seorang penyeru memanggil-manggil, Hendaklah setiap kaum pergi menemui yang disembahnya! Maka pemuja salib pergi bersama salib mereka, dan pemuja patung menemui patung-patung mereka, dan setiap pemuja Tuhan bersama tuhan-tuhan mereka hingga tinggal orang-orang yang menyembah Allah, entah baik atau durhaka dan ahli kitab terdahulu. Kemudian jahannam didatangkan dan dipasang, ia seolah-olah fatamorgana, lantas orang-orang yahudi ditanya, Apa yang dahulu kalian sembah? Mereka menjawab, Kami dahulu menyembah Uzair anak Allah. Lalu ada suara, Kalian dusta! Allah sama sekali tidak mempunyai isteri dan tidak pula anak. Lalu apa yang kalian inginkan? Mereka menjawab, Kami ingin jika Engkau memberi kami minuman! Lantas ada suara, Minumlah kalian! Lalu mereka berjatuhan di neraka jahannam. Lantas orang-orang Nashara diseru, Apa yang kalian dahulu sembah? Mereka menjawab, Kami dahulu menyembah Isa al Masih, anak Anak Allah. Mereka dijawab, Kamu semua bohong! Allah sama sekali tidak mempunyai isteri atau bahkan anak, dan apa yang kalian inginkan? Mereka menjawab, Kami ingin agar Engkau memberi kami minuman! Lalu dijawab, Minumlah kalian! Dan langsung mereka berjatuhan di neraka jahannam hingga tersisa manusia yang menyembah Allah, entah yang baik atau berbuat durhaka. Mereka ditanya, Apa yang menyebabkan kalian tertahan padahal manusia lainnya sudah pergi? Mereka menjawab, Kami memisahkan diri dari mereka dan kami adalah manusia yang paling membutuhkan-Nya, kami dengar ada seorang juru seru menyerukan diri, Hendaklah setiap kaum menemui yang mereka sembah! Hanyasanya kami menunggu-nunggu Tuhan kami. Beliau melanjutkan, Lantas Allah (Al jabbar) mendatangi mereka dengan bentuk yang belum pernah mereka lihat pertama kali, lalu Allah firmankan: 'Akulah Tuhan kalian.' Mereka menjawab, 'Engkau adalah rabb kami, dan tidak ada yang berani mengajak-Nya bicara selain para nabi ShallAllahu 'alaihi wa Salam, lantas para nabi berkata, 'Bukankah di antara kalian dan Allah ada tanda yang kalian mengenalnya? ' Mereka menjawab, 'Ya, yaitu betis, ' maka Allah pun menyingkap betis-Nya sehingga setiap mukmin bersujud kepada-Nya. Lalu tersisalah orang-orang yang sujud kepada Allah karena riya dan sum'ah sehingga ia pergi sujud dan punggungnya kembali menjadi satu bagian, kemudian titian (jembatan) jahannam didatangkan dan dipasang antara dua tepi jahannam, kami bertanya, 'Wahai Rasulullah, memang jembatan jahannam tersebut misterinya apa? ' Nabi menjawab: 'Jembatan itu bisa menggelincirkan, menjatuhkan, ada pengait-pengait besi, ada duri-duri yang lebar dan tajam, durinya besok yang terbuat dari kayu berduri namanya Sa'dan (kayu berduri tajam). Orang mukmin yang melewatinya sedemikian cepat, ada yang bagaikan kedipan mata, ada yang bagaikan kilat, ada yang bagaikan angin, dan ada yang bagaikan kuda pilihan. Ada yang bagaikan kuda tunggangan, ada yang selamat dengan betul-betul terselamatkan, namun ada juga yang selamat setelah tercabik-cabik oleh besi-besi pengait itu, atau terlempar karenanya di neraka jahannam, hingga manusia terakhir kali melewati dengan diseret seret, dan kalian tidak bisa sedemikian gigihnya menyumpahiku terhadap kebenaran yang jelas bagi kalian daripada terhadap seorang mukmin ketika itu kepada Allah al Jabbar. Jika mereka melihat bahwasanya mereka telah selamat di kalangan teman-teman mereka, mereka berkata, 'Ya Tuhan kami, sesungguhnya kawan-kawan kami mendirikn shalat bersama kami dan berpuasa bersama kami, dan beramal bersama kami! ' Allah Ta'ala berfirman, 'Pergilah kalian, siapa diantara kalian dapatkan dalam hatinya masih ada seberat dinar keimanan, maka keluarkanlah dia', dan Allah mengharamkan bentuk mereka dalam neraka. Maka mereka datangi kawan-kawan mereka sedang sebagian mereka telah terendam dalam neraka ada yang sampai telapak kakinya, setengah betisnya, sehingga mereka keluarkan siapa saja yang mereka, kemudian mereka kembali dan Allah berkata, 'Pergilah kalian sekali lagi, dan siapa yang kalian temukan dalam hatinya seberat atom keimanan, maka keluarkanlah dia.' Maka mereka keluarkan siapa saja yang mereka kenal. Rasulullah berkata: 'Jika kalian tidak mempercayaiku, maka bacalah: '(Allah tidak menzhalimi seberat biji sawi pun, jika ada kebaikan, maka Allah melipatgandakan balasannya) ' (Qs. An nisaa': 40), maka para nabi ShallAllahu 'alaihi wa Salam, malaikat dan orang-orang yang beriman, kesemuanya memberi syafaat. Kemudian Allah Al Jabbar berkata, syafaat-Ku masih ada. Lantas Allah menggenggam segenggam dari neraka dan mengentaskan beberapa kaum yang mereka telah terbakar, lantas mereka dilempar ke sebuah sungai di pintu surga yang namanya 'Sungai kehidupan' sehingga mereka tumbuh dalam kedua tepinya sebagaimana biji-bijian tumbuh dalam genangan sungai yang kalian sering melihatnya di samping batu karang dan samping pohon, apa yang diantaranya condong kepada matahari, maka berwarna hijau, dan apa yang diantaranya condong kepada bayangan, maka berwarna putih, lantas mereka muncul seolah-olah mutiara dan dalam tengkuk mereka terdapat cincin-cincin. Mereka kemudian masuk surga hingga penghuni surga berkata, 'Mereka adalah 'utaqa' Ar Rahman (orang-orang yang dibebaskan Arrahman), Allah memasukkan mereka bukan karena amal yang mereka lakukan, dan bukan pula karena kebaikan yang mereka persembahkan sehingga mereka memperoleh jawaban 'Bagimu yang kau lihat dan semisalnya'. Hajjaj bin Minhal berkata; telah menceritakan kepada kami Hammam bin Yahya telah menceritakan kepada kami Qatadah dari Anas radliyallahu'anhu, bahwa Nabi ShallAllahu 'alaihi wa Salam bersabda: 'Pada hari kiamat nanti orang-orang mukmin ditahan hingga yang demikian menjadikan mereka sedih. Mereka katakan, 'Duh, sekiranya kita meminta syafaat kepada Tuhan kami sehingga Dia menjadikan kita merasa nyaman dari tempat kita ini.' Mereka pun mendatangi Adam dan berkata, 'Engkau hai Adam, Engkau adalah nenek moyang seluruh manusia, Allah menciptamu dengan tangan-Nya, menjadikan surga sebagai tempat hunianmu dan menjadikan malaikat bertunduk sujud kepadamu, Allah juga mengajarimu nama-nama segala sesuatu agar engkau bisa memberi syafaat kepada kami disisi Tuhanmu sehingga engkau bisa memberi kenyamanan di tempat kami ini. Namun Adam hanya menjawab, 'Disini saya tak berhak memberi syafaat untuk kalian'. Rasulullah melanjutkan: Lantas Adam mengingatkan kesalahan yang pernah dilakukannya, yaitu memakan pohon larangan padahal telah dilarang, dan ia katakan 'Coba kalian datangi Nuh, sebab ia adalah nabi ShallAllahu 'alaihi wa Salam pertama-tama yang Allah utus kepada penduduk bumi.' Mereka pun mendatangi Nuh, namun Nuh juga menjawab, 'Maaf, disini saya tak berhak memberi syafaat untuk kalian', dan Nuh menyebutkan kesalahan yang pernah dilakukannya, yaitu bertanya kepada Rabbnya dengan tanpa ilmu sambil ia katakan, 'Cobalah kalian datangi Ibrahim, sebab ia adalah Khalilurrahman (kekasih Arrahman). Rasulullah melanjutkan lagi kisahnya: Mereka pun mendatangi Ibrahim, hanya Ibrahim juga menjawab, 'Maaf, disini saya tak berhak memberi syafaat untuk kalian', Ibrahim lantas menyebutkan kesalahannya, yaitu tiga kebohongan yang pernah dilakukannya sambil berkata, 'Cobalah kalian datangi Musa, seorang hamba yang Allah memberinya taurat, mengajaknya bicara dan mendekatkannya kepada-Nya sedekat-dekatnya'. Rasulullah lanjutkan: Mereka pun mendatangi Musa, hanya Musa juga menjawab, 'Maaf, disini saya tak berhak memberi syafaat untuk kalian', sambil Musa mengingatkan kesalahan yang pernah dilakukannya, yaitu membunuh jiwa tanpa alasan yang dibenarkan, sambil ia katakan, 'Coba kalian datangi Isa, seorang hamba Allah dan rasul-Nya, ruh Allah dan kalimah-Nya. Merekapun mendatangi Isa, namun 'Isa juga menjawab, 'Maaf, disini saya tak berhak memberi syafaat untuk kalian', sambil ia katakan 'Cobalah kalian datangi Muhammad Shallallahu'alaihiwasallam, seorang hamba yang Allah telah mengampuni dosanya yang terdahulu dan yang akan datang.' Lantas mereka mendatangi aku (Muhammad) dan aku meminta ijin Tuhanku di rumah-Nya dan aku diijinkan menemui-Nya, jika aku melihat-Nya, maka aku tersungkur sujud, Allah lalu membiarkan aku sekehendak Dia membiarkaku. Allah lantas berkata, 'Angkat kepalamu hai Muhammad, katakanlah, engkau didengar, mintailah syafaat, engkau diberi syafaat, mintalah, engkau diberi.' Aku lalu angkat kepalaku dan aku memuji Tuhanku dengan pujian yang Ia ajarkannya kepadaku, kemudian aku memberi syafaat dan Dia memberiku batasan. Kemudian aku keluar dan memasukkan mereka ke dalam surga. Qatadah berkata, Dan aku juga mendengarnya menyebutkan, Aku lalu keluar, kemudian aku keluarkan mereka dari neraka dan kumasukkan ke dalam surga. Setelah itu aku kembali untuk kali kedua dan aku meminta ijin Tuhanku di rumah-Nya dan aku diijinkan untuk menemui-Nya, jika aku melihat-Nya, maka aku tersungkur sujud. Allah lantas membiarkanku sekehendak Allah membiarkan, kemudian Allah berkata, 'Angkatlah kepalamu hai Muhammad dan katakanlah engkau akan didengar, dan berilah syafaat engkau akan diberi syafaat, dan mintalah engkau akan diberi.' Aku lalu angkat kepalaku dan memanjatkan pujian dan pujaan terhadap tuhanku sebagaimana yang diajakrkan-Nya kepadaku. Kemudian aku memberi syafaat, dan Ia memberiku batasan sehingga aku keluar dan aku masukkan mereka ke dalam surga. Qatadah berkata, Dan aku mendengarnya menyebutkan, Dan aku berangkat sehingga aku keluarkan mereka dari neraka, lalu mereka aku masukkan ke dalam surga. Qatadah berkata, Dan aku mendengarnya menyebutkan, 'Maka aku berangkat dan aku keluarkan mereka dari neraka, untuk kemudian aku masukkan mereka ke dalam surga, hingga tidak tersisa dalam neraka selain yang digi ditahan oleh alquran, atau maksudnya ia wajib abadi, kemudian beliau membaca ayat ini '(semoga Tuhanmu membangkitkankmu di tempat yang terpuji) ' (Qs. Al-Isra': 79). Nabi mengatakan, Inilah maqam terpuji yang dijanjikan untuk nabi ShallAllahu 'alaihi wa Salam kalian.</t>
+  </si>
+  <si>
+    <t>Bersabarlah kalian hingga kalian bertemu Allah dan rasul-Nya, sebab aku nanti berada di telaga.'</t>
+  </si>
+  <si>
+    <t>ALLAAHUMA RABBANA LAKAL HAMDU ANTA QAYYIMUS SAMAAWAATI WAL ARDLI, WALAKAL HAMDU ANTA RABBUS SAMAAWAATI WAL ARDLI WAMAN FIIHINNA, WALAKAL HAMDU ANTA NUURUS SAMAAWAATI WAL ARDLI WAMAN FIIHINNA, ANTAL HAQQ, WAQULUKAL HAQQ, WAWA'DUKAL HAQQ, WALIQAA'UKA HAQQ, WAL JANNATU HAQQ, WANNAARU HAQQ, WASSAA'ATU HAQ, ALLAAHUMMA LAKA ASLAMTU, WABIKA AMANTU WA'ALAIKA TAWAKKALTU, WAILAIKA KHAASHAMTU WABIKA HAKAMTU FAGHFIRLII MAA QADDAMTU WAMAA AKHKHARTU WA ASRARTU WA A'LANTU, WAMAA ANTA A'LAMU BIHI MINNII, LAA-ILAAHA ILLAA ANTA (Ya Allah Tuhan kami, bagi-Mu segala puji, Engkau adalah pengurus langit dan bumi, bagi-Mu segala puji, Engkau adalah pemelihara langit dan bumi dan semua penghuninya, bagi-Mu segala puji, Engkau adalah cahaya langit dan bumi dan semua penghuninya, Engkau adalah benar, firman-Mu benar, janji-Mu benar dan perjumpaan kepada-Mu benar, surga benar, neraka benar, kiamat benar, Ya Allah, kepada-Mu aku berserah, kepada-Mu aku beriman, kepada-Mu aku bertawakkal, karena-Mu aku memusuhi (musuh), kepada-Mu aku berhukum, maka ampunilah bagiku apa yang telah aku lakukan dan yang belum aku lakukan, apa yang kulakukan secara sembunyi-sembunyi dan apa yang kulakukan secara terang-terangan, dan apa yang Engkau lebih tahu terhadapnya daripadaku, tiada sesembahan yang hak selain Engkau) '. Abu Abdullah berkata, Qais bin Sa'd dan Abu Zubair berkata dari Thawus dengan redaksi 'Qayyaam' bukan qayyum, sedang Mujahid berkata, 'Alqayyum (dengan definitif al) yang maknanya mengurus segala sesuatu, sedang Umar juga berkata Alqayyaam, dan keduanya sama-sama pujian.</t>
+  </si>
+  <si>
+    <t>Tidaklah salah seorang diantara kalian kecuali ia akan diajak bicara oleh Rabbnya, antara dia dan Allah tidak ada seorang penerjemah, dan tidak pula hijab yang menghalanginya.</t>
+  </si>
+  <si>
+    <t>Ada dua surga dari perak, baik bejananya maupun isinya, dan ada dua surga terbuat dari emas, baik bejananya maupun isinya, dan tidak ada yang menghalangi sebuah kaum untuk melihat Rabb mereka selain selendang kesombongan di wajahnya di surga Adn.</t>
+  </si>
+  <si>
+    <t>Barangsiapa berambisi memperoleh harta seorang muslim dengan sumpah palsu, ia berjumpa Allah sedang Allah dalam keadaan murka kepadanya. Abdullah berkata, Kemudian Rasulullah Shallallahu'alaihiwasallam membacakan pembenarannya dari kitabullah: '(Sesungguhnya orang-orang yang membeli janji Allah dan sumpah mereka dengan harga yang sedikit, mereka itulah orang-orang yang tidak memperoleh bagian di akherat, dan Allah tidak mengajak mereka bicara) ' (QS.Ali Imran: 77).</t>
+  </si>
+  <si>
+    <t>Ada tiga orang yang Allah tidak mengajak mereka bicara pada hari kiamat dan tidak pula melihat mereka, seseorang yang menyertakan sumpah dalam dagangannya sehingga bisa diberi lebih banyak daripada biasanya, dan ia dusta dalam sumpahnya. Seseorang yang melakukan sumpah dusta setelah 'ashar dengan ambisi bisa mendapatkan harta seorang muslim. Dan seseorang yang menahan kelebihan air (agar rumput tidak tumbuh), sehingga Allah pada hari kiamat berfirman 'Saya sekarang menahan kurnia-Ku sebagaimana engkau pernah menahan kelebihan air yang kedua tanganmu tidak bekerja karenanya.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya darah kalian, harta kalian -Muhammad berkata, dan seingatku beliau bersabda dan kehormatan kalian- adalah haram sebagaimana kehormatan hari kalian sekarang, di negeri kalian sekarang, di bulan kalian sekarang, dan kalian akan menemui Rabb kalian dan Dia akan menanyai kalian perihal amal kalian. Ingat, jangan kalian kembali sepeninggalku menjadi orang yang sesat, sebagian kalian memenggal leher sebagian lainnya, ingat, hendaklah yang hadir menyampaikan kepada yang tidak hadir, karena bisa jadi orang yang menyampaikannya jauh lebih paham dari orang yang mendengarnya. Dan Muhammad jika menyebut hadis ini, Nabi ShallAllahu 'alaihi wa Salam benar, kemudian beliau bersabda: Bukankah telah aku sampaikan? Bukankah telah aku sampaikan?</t>
+  </si>
+  <si>
+    <t>INNAA LILLAAHI MAA AKHDZA WALAHU MAA A'THAA WAKULLUN ILAA AJALIN MUSAMMAA FAL TASHBIR WAL TAHTASHIB' (Milik Allah sajalah segala yang diambil dan yang diberikan, dan segala sesuatu mempunyai batasan waktu tertentu, hendaklah engkau bersabar dan mengharap-harap ganjaran) '. Lantas puteri nabi untuk kali kedua mengutus utusannya seraya menyatakan sumpah agar beliau mendatangi. Maka Rasulullah Shallallahu'alaihiwasallam pun berangkat dan aku bersamanya, juga Mu'adz bin Jabal, Ubbay bin Ka'b, dan Ubadah bin Shamit. Ketika kami masuk, Rasulullah Shallallahu'alaihiwasallam membopong cucunya sedang napasnya sudah tersengal-sengal di dadanya -seingatku Usamah mengatakan seperti geriba kuno-, maka Rasulullah Shallallahu'alaihiwasallam pun menangis sehingga Sa'd bin 'Ubadah berkata, 'Mengapa baginda menangis? ' Nabi menjawab: 'Hanyasanya Allah menyayangi hamba-Nya yang penyayang.'</t>
+  </si>
+  <si>
+    <t>Surga dan neraka saling berselisih kepada Tuhan keduanya, surga berkata, 'Wahai Tuhan, mengapa aku tak dimasuki selain orang-orang lemah dan rakyat jelata? ' Sedang neraka berkata, 'Mengapa aku dikhususkan untuk orang-orang yang sombong? ' Allah ta'ala menjawab surga: Engkau adalah rahmat-Ku, dan Allah berfirman kepada neraka, 'Engkau adalah Siksa-Ku, yang Aku timpakan kepada siapa saja yang Aku kehendaki, dan masing-masing diantara kalian berdua harus dipenuhi.' Nabi bersabda: Adapun surga sesungguhnya Allah tidak menzhalimi satupun dari makhluk-Na, dan Allah akan memenuhi neraka dengan siapa saja yang dikehendaki-Nya, lantas mereka dilempar ke dalamnya '(neraka berkata, 'Masihkah ada tambahan) ' (QS. Qaaf ayat: 30) -beliau mengulanginya tiga kali-, kemudian Allah meletakkan telapak kakinya sehingga neraka menjadi penuh, sebagian satu dengan sebagian yang lain saling berhimpitan, neraka pun berkata, 'cukup, cukup, sukup.</t>
+  </si>
+  <si>
+    <t>Akan ada beberapa kaum memperoleh kehitaman-hitaman dari neraka, karena dosa-dosa yang pernah mereka lakukan sebagai hukuman atas mereka, kemudian Allah memasukkan mereka ke dalam surga dengan kurnia rahmat-Nya, mereka itulah yang dinamakan jahannamiyun (mantan penghuni neraka jahannam). Sedang Hamam berkata; telah menceritakan kepada kami Qatadah telah menceritakan kepada kami Anas dari Nabi ShallAllahu 'alaihi wa Salam.</t>
+  </si>
+  <si>
+    <t>(Dan mereka tidak menghormati Allah dengan penghormatan yang semestinya) ' (QS. Azzumar: 67).</t>
+  </si>
+  <si>
+    <t>(Sesungguhnya dalam penciptaan langit dan bumi hingga ayat terdapat tanda-tanda bagi orang yang berakal) ' (QS. Ali'Imran: 190). Kemudian beliau berdiri dan berwudlu', beliau membersihkan gigi-giginya kemudian shalat sebelas rakaat. Kemudian setelah Bilal mengumandangkan adzan (subuh), beliau shalat dua rakaat, kemudian keluar untuk mengimami orang-orang shalat subuh.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya rahmat-Ku lebih mendominasi kemurkaan-Ku.</t>
+  </si>
+  <si>
+    <t>penciptaan salah seorang diantara kalian dihimpun dalam perut ibunya selama empat puluh hari, atau empat puluh malam, kemudian menjadi segumpal darah dalam empat puluh hari berikutnya, kemudian menjadi segumpal daging dalam empat puluh hari berikutnya, kemudian Allah mengutus malaikat kepadanya dan memerintahkan untuk menetapkan empat kalimat (empat hal); tentang rejekinya, ajalnya, amalnya, sengsara ataukah bahagia. Kemudian Allah meniupkan ruh padanya, sungguh ada salah seorang diantara kalian yang melakukan amalan-amalan penghuni surga hingga tak ada jarak antara dia dan surga selain sehasta, namun kemudian takdir telah mendahului dia, lantas ia pun melakukan amalan penghuni neraka dan akhirnya masuk neraka. Dan sungguh ada salah seorang diantara kalian yang melakukan amalan penghuni neraka, hingga tak ada jarak antara dia dan neraka selain sehasta, namun kemudian takdir mendahuluinya, lantas ia pun mengamalkan amalan penghuni surga sehingga ia memasukinya.</t>
+  </si>
+  <si>
+    <t>Wahai Jibril, apa yang menghalangimu untuk mengunjungi kami lebih sering daripada apa yang telah engkau lakukan? Maka turunlah ayat: '(Dan tidaklah Kami menurunkan ayat melainkan dengan perintah Tuhanmu, milik Dialah apa yang didepan kami dan di belakang kami) ', hingga akhir ayat (Qs. Maryam: 64). Dan jawaban ini adalah untuk Muhammad .</t>
+  </si>
+  <si>
+    <t>(Dan mereka bertanya kepadamu tentang nyawa, katakanlah bahwa nyawa itu adalah urusan tuhanku, dan tidaklah kamu diberi ilmu melainkan sedikit) ' (Qs. Al-Isra': 85). Maka sebagian di antara mereka berkata kepada sebagian lainnya, 'Kan telah kami katakan kepada kalian, jangan kalian tanya tentangnya! '</t>
+  </si>
+  <si>
+    <t>Allah menjamin bagi siapa yang berjihad di jalan-Nya, yang tidaklah ia berangkat selain benar-benar untuk berjihad di jalan-Nya dan membenarkan kalimat-Nya, bahwa Dia akan memasukkannya dalam surga atau Ia akan mengembalikannya ke tempat tinggalnya yang ia tinggalkan beserta yang diperolehnya berupa pahala dan ghanimah.</t>
+  </si>
+  <si>
+    <t>Siapa yang berperang agar kalimatullah menjadi tinggi, ia berada fii sabilillah.</t>
+  </si>
+  <si>
+    <t>Akan senantiasa ada dari umatku sekelompok orang (kaum) yang menang mengalahkan manusia, hingga keputusan Allah mendatangi mereka.</t>
+  </si>
+  <si>
+    <t>Akan senantiasa ada dari umatku sebuah umat yang menegakkan perintah Allah, tidak membahayakan mereka orang yang mendustakan mereka, tidak pula yang menyelisihi mereka hingga keputusan Allah datang kepada mereka sedang mereka masih dalam keadaan seperti itu. Malik bin Yukhamir berkata, Aku mendengar Mu'adz berkata, Dan mereka berada di Syam. Mu'awiyah juga mengatakan, Malik beranggapan bahwa ia mendengar Mu'adz berkata, Dan mereka berada di Syam.</t>
+  </si>
+  <si>
+    <t>Kalaulah engkau meminta sebidang tanah ini, niscaya aku tidak akan memberikannya kepadamu selama-lamanya, dan kamu sekali-kali tidak bisa melampaui urusan Allah yang ada padamu, dan kalaulah engkau berbalik ke belakang, Allah akan membunuhmu.</t>
+  </si>
+  <si>
+    <t>(Dan mereka bertanya kepadamu tentang nyawa, katakanlah 'Bahwasanya nyawa itu urusan Tuhanku, dan tidaklah kalian diberi ilmu kecuali sedikit saja) ' (Qs. Al Isra': 85).</t>
+  </si>
+  <si>
+    <t>Allah menjamin siapa saja yang berjihad di jalan-Nya, tidak ada dorongan baginya untuk berjihad di jalan-Nya selain jihad di jalan-Nya dan membenarkan kalimat-Nya, untuk masukkan ke dalam surga, atau Allah mengembalikannya ke tempat tinggalnya dengan ganjaran atau ghanimah.</t>
+  </si>
+  <si>
+    <t>Jika kalian berdoa kepada Allah, maka seriuslah dalam berdoa dan jangan salah seorang di antara kalian berkata 'Jika Engkau berkehendak maka berilah aku', sebab Allah sama sekali tidak ada yang bisa memaksa.</t>
+  </si>
+  <si>
+    <t>Tidakkah kalian mendirikan shalat? Namun Ali menjawab, Wahai Rasulullah, sesungguhnya nyawa kita berada di tangan Allah, jika Dia berkenan, maka Dia akan membangunkan kita. Secara spontan Rasulullah Shallhu'laihiwasallam pergi begitu aku menjawab yang demikian, dan beliau sama sekali tidak kembali, kemudian aku mendengar ketika beliau berbalik ke belakang bersabda sambil menepuk pahanya: Sungguh manusia itu adalah makhluk yang suka sekali membantah!</t>
+  </si>
+  <si>
+    <t>Perumpamaan orang mukmin adalah bagai dahan tumbuhan yang daunnya miring sesuai tempat datangnya angin, namun jika telah tenang, dahan itu bisa kembali lurus. Demikian pula seorang mukmin, terkadang dalam keadaan miring karena ujian. Sebaliknya perumpamaan orang kafir bagaikan pohon padi yang lurus dan keras, sehingga Allah (dengan mudah) mematahkannya kapan saja sekehendak-Nya.</t>
+  </si>
+  <si>
+    <t>Keberadaan kalian dibandingkan umat-umat sebelum kalian adalah bagaikan antara shalat ashar hingga matahari terbenam. Ahli taurat diberi taurat, lantas mereka mengamalkannya hingga pertengahan siang, kemudian mereka tak mampu bekerja lagi sehingga mereka diberi satu qirath. Lantas ahlu injil diberi injil dan mengamalkannya hingga shalat ashar, kemudian mereka tak mampu lagi melaksanakannya, sehingga diberi satu qirath. Kemudian kalian diberi al Quran, lantas kalian mengamalkannya hingga matahari terbenam, lantas kalian diberi dua qirath, maka ahli taurat dan injil menyampaikan protes 'Bagaimana ini, mereka (umat Islam) lebih sedikit bekerja, namun pahalanya lebih banyak? ' Maka Allah menjawab, 'Namun apakah aku menzhalimi pahala kalian? ' Mereka menjawab, 'Engkau tidak menzhalimi! ' Maka Allah berkata, 'Itulah keutamaan-Ku yang Aku berikan kepada siapa saja yang Aku kehendaki'.</t>
+  </si>
+  <si>
+    <t>Saya membaiat kalian agar kalian tidak menyekutukan Allah dengan sesuatu apapun, tidak mencuri, tidak berzina, tidak membunuh anak-anak kalian, dan tidak mengada-adakan kebohongan yang kalian ada-adakan antara tangan dan kaki kalian, dan tidak membangkangku dalam perkara ma'ruf. Maka barangsiapa diantara kalian memenuhi baiatnya, ganjarannya berada di sisi Allah. Barangsiapa melanggar janjinya, lantas Allah menghukumnya di dunia, maka yang demikian sebagai kaffarat dosanya. Dan barangsiapa yang Allah menutupinya (membiarkannya), maka yang demikian terserah Allah, jika berkehendak Dia akan menyiksanya, dan jika berkehendak Dia akan mengampuninya.</t>
+  </si>
+  <si>
+    <t>Kalaulah Sulaiman mengucapkan 'insya allah', niscaya setiap isterinya hamil dan melahirkan seorang anak yang berperang fi sabilillah.</t>
+  </si>
+  <si>
+    <t>Tidak apa-apa kamu, insya Allah nggak masalah. Lantas si arab badui menjawab, Apa, nggak apa-apa? Bahkan itu adalah demam yang menggelegak atas orang yang sudah tua renta yang menghantarkannya kepada kuburan. Maka Nabi berkata: Semoga iya, kalau begitu.</t>
+  </si>
+  <si>
+    <t>Sesungguhnya Allah menggenggam roh kalian sekehendak-Nya, dan Dia mengembalikannya sekehendak-Nya. Para sahabat kemudian menuntaskan kebutuhan mereka, dan berwudlu hingga matahari terbit dan putih, dan beliau kemudian berdiri dan shalat.</t>
+  </si>
+  <si>
+    <t>Janganlah kalian mengistimewakanku di atas Musa, sebab manusia di hari kiamat nanti akan pingsan sehingga akulah manusia pertama-tama yang bisa siuman. Tiba-tiba Musa telah berdiri di samping 'arsy, sehingga aku tidak tahu apakah dia termasuk yang pingsan ataukah dia telah siuman sebelumku, atau dia diantara manusia yang Allah kecualikan (tidak pingsan).</t>
+  </si>
+  <si>
+    <t>Madinah akan didatangi oleh dajjal dan ia temukan kota tersebut dijaga oleh para malaikat, sehingga dajjal tidak bisa mendekatinya, dan tidak pula penyakit tha'un, insya allah.</t>
+  </si>
+  <si>
+    <t>Setiap Nabi mempunyai doa yang telah dikabulkan, sedang aku insya Allah terus akan menyimpan doaku sebagai syafaat untuk umatku di hari kiamat nanti.</t>
+  </si>
+  <si>
+    <t>Ketika aku tidur, aku bermimpi di atas sebuah sumur, lantas aku menariknya sekehendak Allah aku menariknya, kemudian Ibnu Quhafah mengambilnya dan menarik satu atau dua ember, dalam tarikannya terlihat ada kelemahan, ini berarti mudah-mudahan Allah mengampuninya, kemudian 'Umar mengambilnya dan tiba-tiba embernya menjadi besar, maka ini berarti tidaklah aku melihat seseorang yang jenius di antara manusia yang bisa mereka-reka hingga manusia sekitarnya kenyang air dan juga ternak-ternaknya sehingga mereka bermukim di tempat mereka minum (selain Umar itu saja yang bisa melakukannya).</t>
+  </si>
+  <si>
+    <t>Berilah pertolongan niscaya kalian diganjari, dan Allah memutuskan melalui lisan rasul-Nya sekehendaknya.</t>
+  </si>
+  <si>
+    <t>Janganlah salah seorang di antara kalian berkata, 'Ya Allah, ampunilah aku jika Engkau berkenan. Ya Allah, rahmatilah aku jika Engkau berkenan. Ya Allah, berilah aku rejeki jika Engkau berkenan'. Hendaklah ia serius dalam permintaannya, sebab Allah bisa melakukan apa saja sekehendak-Nya dan sama sekali tak ada siapapun yang bisa memaksanya.</t>
+  </si>
+  <si>
+    <t>Ketika Musa dalam sebuah perkumpulan Bani Israil, tiba-tiba ia didatangi oleh seseorang, dan orang itu bertanya 'Tahukah engkau seorang hamba yang lebih 'alim dari padamu! ' Musa menjawab, 'Tidak', lantas Musa memperoleh wahyu yang dalam wahyu tersebut terdengar (suara), 'Ya ada, seorang hamba-Ku yang bernama Khidlir.' Lantas Musa meminta untuk dipertemukan dengannya, dan Allah menjadikan ikan perbekalannya sebagai tanda, kemudian dikatakan kepada Musa 'Jika engkau kehilangan ikan perbekalanmu, maka kembalilah di tempat ikan itu menghilang, niscaya engkau akan menemuinya.' Maka Musa pun menelusuri bekas-bekas ikannya di lautan, lalu pemuda yang ikut Musa berkata kepada Musa '(Tidak ingatkah engkau ketika kita berlindung ke batu karang, sesungguhnya aku lupa terhadap ikan itu, dan tidak ada yang menjadikanku lupa selain setan yang kusebut-sebut) ' (Qs. Al Kahfi: 63), maka Musa berkata '(Itulah tempat yang kita cari-cari, maka keduanya kembali menelusuri jejak keduanya semula) ' (QS. Al Kahfi: 63), lantas keduanya menemukan Khidir, yang akhirnya cerita keduanya seperti Allah kisahkan.</t>
+  </si>
+  <si>
+    <t>Insya Allah besok kita singgah di Khaif bani Kinanah, yang di tempat itulah mereka bersumpah untuk melakukan kekufuran. Tempat yang dimaksud adalah Muhashshab.</t>
+  </si>
+  <si>
+    <t>Besok insyaallah kita kembali', maka kaum muslimin berkata, 'Kita akan pulang dan tidak akan membebaskannya.' Nabi terus berkata: 'Berangkatlah kalian menyongsong peperangan.' Mereka pun terus berangkat, sehingga mereka memperoleh luka-luka. Nabi kemudian bersabda: 'Besok insyaallah kita akan pulang.' Seolah-olah ucapan ini menjadikan mereka terkagum-kagum sehingga Rasulullah tertawa.</t>
+  </si>
+  <si>
+    <t>Jika Allah memutuskan suatu keputusan di langit, maka malaikat akan mengepak-ngepakkan sayapnya karena tunduk kepada titah-Nya, seolah-olah kepakan sayapnya seperti rantai di atas batu licin. Ali berkata, Sedang lainnya berkata, 'Seperti batu licin yang menembus mereka.' Allah berfirman: '(Apabila ketakutan telah hilang dari hati mereka, mereka bertanya 'Apa yang difirmankan Rabb kalian? Mereka menjawab 'Kebenaran, dan Dia Maha Tinggi lagi Maha Besar) ' (Qs. Saba': 34). Ali berkata; telah menceritakan kepada kami Sufyan telah menceritakan kepada kami 'Amru dari 'Ikrimah dari Abu Hurairah dengan redaksi ini. Sedang Sufyan berkata, Amru berkata, aku mendengar Ikrimah telah menceritakan kepada kami Abu Hurairah, Ali berkata, saya bertanya Sufyan ia menjawab, 'Aku mendengar Ikrimah berkata, aku mendengar Abu Hurairah berkata, 'Ya.' Saya bertanya kepada Sufyan, 'Beberapa orang meriwayatkan dari 'Amru dari 'Ikrimah dari Abu Hurairah yang beliau memarfu'kannya, hanya ia membaca 'furrigha (jika telah selesai) '. Sufyan berkata, 'Beginilah 'Amru membaca, maka aku tidak tahu, apakah ia mendengarnya seperti ini atau.' Sufyan berkata, 'Dan begitulah bacaan kami.'</t>
+  </si>
+  <si>
+    <t>Allah tidak pernah mengijinkan sesuatu sebagaimana ijin-Nya kepada Nabi untuk melagukan Al-Qur'an, sedang salah seorang sahabatnya berkata 'maksud melagukan yaitu membaca dengan keras.</t>
+  </si>
+  <si>
+    <t>Wahai Adam! ' Adam menjawab, 'Aku penuhi panggilan-Mu! ' lantas Adam dipanggil dengan suatu suara, 'Sesungguhnya Allah Tabaraka wa Ta'ala menyuruhmu untuk mengeluarkan utusan-utusan dari anak cucumu ke neraka'.</t>
+  </si>
+  <si>
+    <t>Belum pernah aku sedemikian cemburu kepada seorang wanita sebagaimana kecemburuanku terhadap Khadijah, sebab Tuhan Muhammad telah menyuruhnya agar memberinya kabar gembira dengan surga.</t>
+  </si>
+  <si>
+    <t>Allah Tabaraka wa Ta'ala jika mencintai seseorang, Ia memanggil Jibril 'Sesungguhnya Allah mencintai si fulan maka cintailah dia, sehingga Jibril pun mencintainya. Kemudian Jibril memanggil seluruh penghuni langit seraya berseru, 'Sesungguhnya Allah mencintai si fulan maka cintailah dia, maka penghuni langit pun mencintainya, sehingga orang tersebut diterima oleh penduduk bumi.</t>
+  </si>
+  <si>
+    <t>bagaimana kalian tinggalkan para hamba-Ku? ' Para malaikat menjawab, 'Kami tinggalkan saat mereka sedang melaksanakan shalat, dan kami datangi mereka juga saat melaksanakan shalat'.</t>
+  </si>
+  <si>
+    <t>Jibril menemuiku dan memberiku kabar gembira, bahwasanya siapa saja yang meninggal dengan tidak menyekutukan Allah dengan sesuatu apapun, maka dia masuk surga. Maka saya bertanya, 'Meskipun dia mencuri dan berzina? ' Nabi menjawab: 'Meskipun dia mencuri dan juga berzina'.</t>
+  </si>
+  <si>
+    <t>ALLAAHUMMA ASLAMTU NAFSII ILAIKA, WAWAJJAHTU WAJHII ILAIKA, WAFAWWADLTU AMRII ILAIKA, WA ALJATU ZHAHRII ILAIKA, RUGHBTAN WA RUHBATAN ILAIKA, LAA MALJA'A WA LAA MANJAA MINKA ILLAA ILAIKA, AAMANTU BIKITAABIKAL LADZII ANZALTA WABINABIYYIKAL LADZII ARSALTA '(Ya Allah, aku pasrahkan jiwaku kepada-Mu, dan kuhadapkan wajahku kepada-Mu, dan aku serahkan urusanku kepada-Mu, dan aku sandarkan punggungku kepada-Mu, dengan berharap-harap cemas kepada-Mu, sesungguhnya tidak ada tempat bersandar dan tempat keselamatan selain kepada-Mu, saya beriman kepada kitab-Mu yang Engkau turunkan dan nabi-Mu yang Engkau utus) '. Maka sekiranya engkau meninggal di malammu, engkau meninggal di atas fitrah, dan jika engkau meninggal pagi harinya, engkau peroleh pahala.</t>
+  </si>
+  <si>
+    <t>ALLAAHUMMA MUNZILAL KITAAB, SARII'AL HISAAB, AHZIMIL AHZAAB, WAZALZIL BIHIM (Ya Allah yang menurunkan kitab, yang cepat perhitungan-Nya, hancur leburkanlah pasukan ahzab, guncangkanlah mereka) '. Sedang Humaidi menambahkan; telah menceritakan kepada kami Sufyan telah menceritakan kepada kami Ibnu Abu Khalid aku mendengar 'Abdullah aku mendengar nabi .</t>
+  </si>
+  <si>
+    <t>(Dan janganlah engkau mengeraskan bacaan shalatmu dan jangan pula engkau merendahkan bacaannya) ' (Qs. Al-Isra': 110), ayat ini diturunkan kepada Rasulullah secara berturut-turut di Makkah. Ketika itu, jika beliau mengencangkan bacaannya, maka kaum musyrikin mendengarnya hingga mereka mencela Al-Qur'an secara habis-habisan, juga mencela yang menurunkannya dan yang membawanya. Maka Allah menurunkan: '(Jangan kamu mengeraskan bacaan shalatmu dan jangan pula merendahkannya) ' (Qs. Al-Isra': 110). Jangan kamu mengeraskan bacaanmu maksudnya hingga terdengar oleh orang-orang musyrik, dan jangan pula kamu merendahkannya, maksudnya sehingga tidak terdengar oleh kawan-kawanmu. Dan carilah jalan tengah di antara keduanya, maksudnya bacalah sehingga terdengar oleh kawanmu namun jangan pula kamu membaca terlalu keras hingga musuh mencela Al-Qur'an akibat bacaanmu.</t>
+  </si>
+  <si>
+    <t>Anak adam menyakiti-Ku dan mencela masa, padahal Aku adalah masa, di tangan-Ku lah segala urusan, Akulah yang membolak-balikkan siang dan malam'.</t>
+  </si>
+  <si>
+    <t>Puasa adalah milik-Ku, dan Aku sendirilah yang mengganjarinya, orang yang berpuasa itu meninggalkan syahwatnya, makan dan minumnya karena Aku. Puasa adalah perisai, dan bagi orang yang berpuasa mendapat dua kegembiraan, kegembiraan ketika ia berjumpa dengan rabbnya. Dan sungguh, bau mulut orang yang berpuasa jauh lebih wangi di sisi Allah daripada bau minyak kesturi.</t>
+  </si>
+  <si>
+    <t>bukankah Aku telah mengayakanmu daripada sekedar apa yang engkau lihat? ' Ayyub menjawab, 'Benar wahai Rabbku, namun saya belum berkecukupan dari barakah-Mu'.</t>
+  </si>
+  <si>
+    <t>Rabb kita Tabaraka wa Ta'ala setiap malam turun ke langit dunia ketika sepertiga malam, lantas Ia berkata, 'Siapa yang berdoa kepada-Ku maka aku beri, siapa yang meminta ampun kepada-Ku maka Aku ampuni?.</t>
+  </si>
+  <si>
+    <t>Kita adalah orang-orang yang datang terkemudian, namun kita yang terlebih dahulu ke surga pada hari kiamat.</t>
+  </si>
+  <si>
+    <t>Berinfaklah engkau, niscya aku memberi infak kepadamu.</t>
+  </si>
+  <si>
+    <t>Inilah Khadijah datang kepadamu dengan bejana berisi makanan dan bejana berisi minuman, dan sampaikanlah salam kepadanya dari tuhannya, dan berilah dia kabar gembira dengan rumah yang terbuat dari mutiara, yang tiada keributan dan kegaduhan di sana.</t>
+  </si>
+  <si>
+    <t>Aku persiapkan bagi hamba-Ku yang shalih (ganjaran) yang tidak terlihat oleh mata, belum terdengar oleh telinga dan belum pernah terdetik oleh hati manusia'.</t>
+  </si>
+  <si>
+    <t>ALLAAHUMA LAKAL HAMDU, ANTA NUURUSSAMAWAATI WAL ARDLI, WALAKAL HAMDU ANTA QOYYIMUSSAWAATI WAL ARDLI, WALAKAL HAMDU ANTA RABBUSSAMAAWAATI WAL ARDLI WAMAN FIIHINNA, ANTAL HAQQU, WAWA'DUKAL HAQQ, WAQOULUKL HAQQ, WALIQOO'UKAL HAQQ, WALJANNATU HAQQ, WANNAARU HAQQ, WANNABIYUUN HAQQ, WASSAA'ATU HAQQ, ALLOOHUMMA LAKA ASLAMTU WABIKA AAMANTU WAILAIKA TAWAKKALTU, WAILAIKA ANABTU, WABIKA KHAASHAMTU, WAILAIKA HAAKAMTU, FAHGHFIRLII MA QADDAMMTU WAMAA AKHKHARTU, WAMA ASRARTU WAMAA A'LANTU, ANTA ILAAHII, LAA-ILAAHA ILLAA ANTA (Ya Allah, bagi-Mu lah segala puji, Engkau cahaya langit dan bumi, bagi-Mu segala puji, Engkau adalah pemelihara langit dan bumi, dan bagi-Mu segala puji, Engkau adalah Pemilik langit dan bumi dan siapa saja yang menghuninya, Engkau adalah Benar, dan janji-Mu benar, firman-Mu benar, pertemuan dengan-Mu benar, surga-Mu benar, neraka-Mu benar, para nabi benar, dan kiamat benar. Ya Allah, kepada-Mu aku berserah, kepada-Mu aku beriman, kepada-Mu aku bertawakkal, kepada-Mu aku menyandarkan diri, karena-Mu aku memusuhi, dan kepada-Mu aku meminta penghakiman, maka ampunilah bagiku apa yang telah aku perbuat dan apa yang belum aku lakukan, apa yang aku lakukan secara sembunyi-sembunyi dan apa yang aku lakukan secara terang-terangan, Engkau adalah Tuhanku, tiada sesembahan yang hak selain Engkau) '.</t>
+  </si>
+  <si>
+    <t>Akan tetapi demi Allah, aku sama sekali tak punya perkiraan Allah akan menurunkan wahyu terhadap berita kesucianku, sungguh urusanku terhadap diriku lebih remeh daripada Allah berbicara tentangku dengan wahyu yang dibacakan, yang kuharap ketika itu hanyalah sekiranya Rasulullah bermimpi dalam tidurnya, yang menceritakan berita kesucianku dari ghosip yang disebarkan orang-orang. Lantas Allah menurunkan ayat: '(sesungguhnya orang-orang yang datang dengan membawa berita bohong) ', (Qs. An Nuur: 11), dan seterusnya hingga sepuluh ayat.</t>
+  </si>
+  <si>
+    <t>Jika seorang hamba-Ku ingin melakukan kejahatan maka janganlah kalian catat hingga Ia melakukannya, dan jika ia melakukannya maka catatlah semisalnya. Jika ia meninggalkannya karena Aku maka catatlah kebaikan baginya, dan jika ia berniat melakukan kebaikan sedang ia belum melakukannya maka catatlah kebaikan baginya, dan jika Ia melakukannya maka catatlah sepuluh kebaikan baginya, bahkan hingga tujuh ratus kali lipat'.</t>
+  </si>
+  <si>
+    <t>Tidakkah engkau ridla jika Aku menyambung siapa saja yang menyambungmu dan Aku memutus siapa saja yang memutusmu? ' Maka rahim menjawab, 'Baik ya rabb.' Lantas Allah berfirman, 'Itulah bagimu.' Lantas Abu Hurairah membacakan ayat: '(Akankah jika kamu berkuasa akan melakukan kerusakan di muka bumi dan memutus sambungan rahim kalian?) ' (Qs. Muhammad: ayat 22).</t>
+  </si>
+  <si>
+    <t>Hamba-Ku di pagi hari ada yang kafir terhadap-Ku dan ada yang beriman kepada-Ku'.</t>
+  </si>
+  <si>
+    <t>Jika hamba-Ku mencintai perjumpaan terhadap-Ku, maka Aku menyukai berjumpa kepadanya, sebaliknya jika hamba-Ku tidak suka berjumpa dengan-Ku, maka Aku juga tidak suka berjumpa dengannya.</t>
+  </si>
+  <si>
+    <t>Aku selalu tergantung prasangka hamba-Ku terhadap-Ku.</t>
+  </si>
+  <si>
+    <t>Ada seorang laki-laki yang sama sekali belum beramal, dan ia berpesan bahwa jika Ia mati, agar mereka (anak-anaknya) membakarnya kemudian membuang setengah dari abunya (jasadnya) ke bumi dan setengah lagi ke laut seraya berkata 'Sekiranya Allah mentakdirkan baginya, maka Allah tentu akan menyiksanya dengan siksaan yang belum pernah dilakukan-Nya kepada seorang pun.' Maka Allah pun menyuruh laut untuk mengumpulkan jasadnya, dan laut pun melakukannya, kemudian Allah juga menyuruh bumi untuk mengumpulkan jasadnya, dan laut pun melakukan. Setelah itu Allah bertanya kepada orang itu 'Apa yang mendorongmu melakukan yang kau lakukan? ' Ia menjawab, 'Ini karena takut kepada-Mu', maka Allah pun mengampuninya.</t>
+  </si>
+  <si>
+    <t>Ada seorang hamba yang melakukan dosa -atau dengan redaksi lain; menjalankan dosa-, lantas hamba itu berkata 'Ya Tuhanku, aku telah melakukan dosa --atau dengan redaksi 'telah kuperbuat'--, maka ampunilah aku'. Maka Tuhannya berkata: 'Hamba-Ku tahu bahwa ia mempunyai tuhan yang bisa mengampuni dosa dan menghukumnya, maka Aku mengampuni dosa hamba-Ku.' Kemudian orang tersebut tinggal berdiam diri (tidak melakukan dosa) Allah berapa lama Ia berdiam diri, kemudian Ia kembali melakukan dosa lagi -atau mengerjakan dosa--, lalu ia pun berkata, 'Wahai rabbku, aku telah berdosa -atau melakukan dosa-, maka ampunilah perbuatanku.' Maka Allah berfirman: 'Hamba-Ku tahu bahwa dia mempunyai tuhan yang bisa mengampuni dosa dan menghukumnya, maka telah Aku ampuni hamba-Ku.' Kemudian orang itu berdiam diri sekehendak Allah berdiam diri, kemudian ia melakukan dosa lagi -atau dengan redaksi menjalankan dosa-, sehingga hamba itu berkata, 'Rabbi, telah kulakukan dosa -atau aku berdosa-, maka berilah aku ampunan terhadapnya.' Maka Allah berfirman: 'Hamba-Ku tahu bahwa ia mempunyai Tuhan yang mengampuni dosa dan menghukumnya, maka Aku telah mengampuni hamba-Ku (Allah mengulanginya sebanyak tiga kali), maka hendaklah ia beramal sekehendaknya.</t>
+  </si>
+  <si>
+    <t>Orang itu Allah beri harta dan anak, maka dikala ia wafat, ia berkata kepada anak-anaknya, 'Hai anak-anakku, bagaimana keadaanku selaku ayah bagi kalian? ' anak-anaknya menjawab, 'Engkau adalah sebaik-baik ayah.' Abu Said berkata, 'Orang tadi merasa bukan orang baik (orang shalih di sisi Allah), sehingga ia punya prasangka jika Allah mentakdirkan, pasti Dia menyiksanya. Orang tadi meneruskan bicara, 'Kalaulah aku mati nanti, maka bakarlah aku hingga menjadi arang, lalu tumbuklah aku -sedang Iskandaria berkata dengan redaksi 'Jika angin berhembus kencang'-, maka taburkanlah abuku dalam angin itu.' Lantas Allah Azza wa Jalla berfirman: 'Jadilah engkau', tiba-tiba orang itu kembali utuh seperti sedia kala. Maka Allah bertanya: 'Hai hamba-Ku, apa yang mendorongmu berbuat seperti yang kau lakukan? ' Si hamba tadi menjawab, 'Yang demikian karena aku betul-betul takut terhadap-Mu, atau gelisah dari-Mu.' Sehingga Allah tidak menyayangi orang itu selain karena ketakutan orang itu kepada-Nya. Pada kali lain Rasulullah bersabda: Tidak ada dorongan bagi orang itu berbuat yang demikian selain karena ketakutannya. Maka hadis ini kuceritakan kepada Abu Utsman, lantas ia berkata, 'Aku mendengar hadis ini dari Salman, hanya ia menambahi redaksi 'Tolong taburkanlah abuku di lautan atau sebagaimana yang ia ceritakan.' Telah menceritakan kepada kami Musa telah menceritakan kepada kami Mu'tamir dan berkata dengan redaksi, 'tidak mengharapkan kebaikan'. Sedang Khalifah berkata, 'telah menceritakan kepada kami Mu'tamir dengan redaksi 'lam yabta'iz', yang ditafsirkan oleh Qatadah dengan makna l'am yaddakhir', tidak menyimpan'.</t>
+  </si>
+  <si>
+    <t>Jika hari kiamat tiba, maka aku diberi syafaat, lantas aku berkata: 'Wahai rabb, tolong masukkanlah ke dalam surga siapa saja yang dalam hatinya masih ada sebiji sawi iman.' Lantas mereka pun masuk, kemudian aku berkata: 'Masukkanlah dalam surga siapa saja yang dalam hatinya ada iman sekalipun dalam tingkatan paling rendah. Anas berkata, Seakan aku melihat jari-jari Rasulullah .</t>
+  </si>
+  <si>
+    <t>Jika hari kiamat tiba, maka manusia satu sama lain saling bertumpukan. Mereka kemudian mendatangi Adam dan berkata, 'Tolonglah kami agar mendapat syafaat Tuhanmu.' Namun Adam hanya menjawab, 'Aku tak berhak untuk itu, namun datangilah Ibrahim sebab dia adalah khalilurrahman (Kekasih Arrahman).' Lantas mereka mendatangi Ibrahim, namun sayang Ibrahim berkata, 'Aku tak berhak untuk itu, coba datangilah Musa, sebab dia adalah nabi yang diajak bicara oleh Allah (kaliimullah).' Mereka pun mendatangi Musa, namun Musa berkata, 'Saya tidak berhak untuk itu, coba mintalah kepada Isa, sebab ia adalah roh Allah dan kalimah-Nya.' Maka mereka pun mendatang Isa. Namun Isa juga berkata, 'Maaf, aku tak berhak untuk itu, namun cobalah kalian temui Muhammad .' Mereka pun mendatangiku sehingga aku pun berkata: Aku kemudian meminta ijin Tuhanku dan aku diijinkan, Allah mengilhamiku dengan puji-pujian yang aku pergunakan untuk memanjatkan pujian terhadap-Nya, yang jika puji-pujian itu menghadiriku sekarang, aku tidak melafadkan puji-pujian itu. Aku lalu tersungkur sujud kepada-Nya, lantas Allah berfirman 'Wahai Muhammad, angkatlah kepalamu, katakanlah engkau akan didengar, mintalah engkau akan diberi, mintalah keringanan engkau akan diberi keringanan.' Maka aku menghiba 'Wahai tuhanku, umatku-umatku.' Allah menjawab, 'Berangkat dan keluarkanlah dari neraka siapa saja yang dalam hatinya masih terdapat sebiji gandum keimanan.' Maka aku mendatangi mereka hingga aku pun memberinya syafaat. Kemudian aku kembali menemui tuhanku dan aku memanjatkan puji-pujian tersebut, kemudian aku tersungkur sujud kepada-Nya, lantas ada suara 'Hai Muhammad, angkatlah kepalamu dan katakanlah engkau akan didengar, dan mintalah engkau akan diberi, dan mintalah syafaat engkau akan diberi syafaat.' Maka aku berkata, 'Umatku, umatku, ' maka Allah berkata, 'Pergi dan keluarkanlah siapa saja yang dalam hatinya masih ada sebiji sawi keimanan, ' maka aku pun pergi dan mengeluarkannya. Kemudian aku kembali memanjatkan puji-pujian itu dan tersungkur sujud kepada-Nya, lantas Allah kembali berkata, 'Hai Muhammad, angkatlah kepalamu, katakanlah engkau akan didengar, mintalah engkau akan diberi, dan mintalah syafaat engkau akan diberi syafaat.' Maka aku berkata, 'Wahai tuhanku, umatku, umatku.' Maka Allah berfirman: 'Berangkat dan keluarkanlah siapa saja yang dalam hatinya masih ada iman meskipun jauh lebih kecil daripada sebiji sawi, ' maka aku pun berangkat dan mengeluarkan mereka dari neraka. Tatkala kami pulang tempat dari Anas, aku katakan kepada sebagian sahabat kami, 'Duhai, sekiranya saja kita melewati Al Hasan -yang dia menyepi di rumah Abu khalifah-'. Lantas kami menceritakan kepada Al Hasan dengan apa yang telah diceritakan Anas bin Malik kepada kami. Selanjutnya kami pun menemuinya dan kami ucapkan salam, ia mengijinkan kami dan kami katakan, 'Wahai Abu Sa'id, kami datang menemuimu setelah kami kembali dari saudaramu, Anas bin Malik. Belum pernah kami lihat sebagaimana yang ia ceritakan kepada kami tentang syafaat.' Lantas ia berkata, 'Heiih.' Maka hadits tersebut kemudian kami ceritakan kepadanya (al Hasan), dan berhenti sampai sini. Namun ia berkata, 'Heiâ€¦! Hanya sampai situ? ' Kami jawab, 'Dia tidak menambah kami daripada sekedar ini saja.' Lantas ia berkata, 'Sungguh, dia pernah menceritakan kepadaku itu -secara sempurna- kepadaku sejak dua puluh tahun yang lalu, aku tidak tahu apakah dia lupa ataukah tidak suka jika kalian kemudian pasrah.' Kami lalu berkata, 'Wahai Abu Sa'id, tolong ceritakanlah kepada kami! ' Al Hasan kemudian tertawa seraya berkata, 'Sesungguhnya manusia dicipta dalam keadaan tergesa-gesa. Saya tidak menyebutnya selain saya akan menceritakannya kepada kalian. Anas telah menceritakan kepadaku sebagaimana dia ceritakan kepada kalian. Nabi berkata: Kemudian aku kembali untuk keempat kalinya, dan aku memanjatkan dengan puji-pujian itu kemudian aku tersungkur sujud dan diserukan, 'Wahai Muhammad, angkatlah kepalamu, ucapkanlah engkau didengar, mintalah engkau diberi, dan mintalah syafaat engkau akan diberi syafaat, ' maka aku berkata, 'Wahai Tuhanku, ijinkanlah bagiku untuk orang-orang yang mengucapkan La-Ilaaha-Illallah! ' Maka Allah menjawab, 'Demi kemuliaan, keagungan dan kebesaran-Ku, sungguh akan Aku keluarkan siapa saja yang mengucapkan Laa-Ilaaha-Illallah.</t>
+  </si>
+  <si>
+    <t>Manusia yang terakhir kali masuk surga dan terakhir kali keluar dari neraka adalah seseorang yang keluar dengan merangkak, lantas tuhannya berkata, 'Masuklah kamu dalam surga.' Orang tersebut kemudian berkata, 'Wahai Tuhanku, surga sudah sesak! ' Allah mengulangi firman-Nya hingga tiga kali, namun si hamba terus menjawabnya dengan mengatakan 'Surga sudah penuh'. Maka Allah berfirman: 'Sesungguhnya surga bagimu seperti dunia dikalikan sepuluhnya.'</t>
+  </si>
+  <si>
+    <t>Tidaklah salah seorang di antara kalian melainkan akan diajak bicara oleh tuhannya dengan tanpa juru penerjemah, saat ia melihat sebelah kanannya maka ia tidak melihat selain amalnya yang pernah dilakukan, saat ia melihat sebelah kirinya maka ia tidak melihat kecuali apa yang telah ia lakukan sebelumnya, dan saat ia lihat depannya maka melihat selain neraka di depan mukanya. Maka jagalah kalian dari neraka walau hanya dengan separoh biji kurma. Al A'masy mengatakan, Dan telah menceritakan kepadaku 'Amru bin Murrah dari Khaitsamah semisalnya, dan ia tambahi dengan redaksi, 'Walaupun hanya dengan kata-kata yang baik'.</t>
+  </si>
+  <si>
+    <t>(Dan mereka (orang-orang Yahudi) tidak menghormati Allah dengan penghormatan yang sebenarnya) hingga ayat '(dari apa yang mereka persekutukan) ' (Qs. Azzumar: ayat 67).</t>
+  </si>
+  <si>
+    <t>Sesungguhnya aku telah menutup dosa-dosa itu bagimu di dunia, dan hari ini aku mengampuninya bagimu'. Sedang Adam berkata, telah menceritakan kepada kami Syaiban telah menceritakan kepada kami Qatadah telah menceritakan kepada kami Shafwan dari Ibn 'Umar berkata, 'Aku mendengar Nabi .</t>
+  </si>
+  <si>
+    <t>Adam dan Musa berbantah-bantahan pada hari kiamat, Musa berkata kepada Adam, 'Engkaulah penyebab yang mengeluarkan anak cucumu dari surga! ' Sedang Adam berkata, 'Engkau Musa, yang Allah telah memilihmu dengan risalah-Nya dan kalam-Nya, engkau mencelaku atas sesuatu yang telah ditakdirkan bagiku sebelum aku dicipta! ' Maka Adam lah yang mengalahkan Musa.</t>
+  </si>
+  <si>
+    <t>Orang-orang mukmin dikumpulkan pada hari kiamat dan berkata, 'Duh sekiranya kita bisa meminta syafaat untuk kami kepada tuhan kami, sehingga Allah bisa memberi kenyamanan bagi kami dari tempat kami ini.' Lantas mereka mendatangi Adam seraya berkata, 'Hai Adam, engkau adalah nenek moyang seluruh manusia, Allah telah menciptamu dengan tangan-Nya, Allah telah menyuruh para malaikat untuk sujud kepadamu, dan Dia mengajarimu nama-nama segala sesuatu, maka mintalah syafaat untuk kami kepada Tuhan kami sehingga Allah bisa memberi kenyamanan bagi kami.' Maka Adam berkata, 'Aku tidak berhak melakukan itu untuk kalian, ' lantas Adam menceritakan kesalahan yang pernah dilakukannya.</t>
+  </si>
+  <si>
+    <t>Jibril kemudian membelah antara tenggorokan beliau hingga pangkal lehernya, sampai dadanya dan perutnya. Jibril kemudian memandikan beliau dengan air zamzam dengan tangannya hingga sampai pada bagian perut, setelah itu didatangkanlah bejana besar dari emas yang di dalamnya ada bejana yang terbuat dari tanah liat dari emas yang diisi dengan keimanan dan hikmah. Dengannya, Jibril mengisi dada dan urat-urat kerongkongannya lalu menjahitnya kembali. Kemudian Jibril membawanya ke langit dunia dan ia ketuk salah satu pintunya sehingga penghuni langit bertanya, 'Siapakah ini? ' Jibril berkata, 'Para malaikat bertanya, 'Siapa yang bersamamu? ' Jibril menjawab, 'Bersamaku Muhammad.' Penghuni langit bertanya, 'Dia telah diutus? ' Jibril menjawab, 'Benar.' Penghuni langit lalu berkata, 'Selamat datang, selamat atas kunjungannya.' Maka penghuni langit sedemikian bergembira, mereka tidak tahu apa yang Allah inginkan terhadap diri Muhammad di muka bumi, hingga Allah memberitahu mereka. Lantas di langit dunia nabi bertemu Adam, Jibril memperkenalkan kepada beliau, 'Ini adalah ayahmu, Adam. Ucapkanlah salam kepadanya. Dia (Muhammad) lalu mengucapkan salam yang kemudian dijawab oleh Adam seraya, 'Selamat datang, selamat berkunjung wahai anakku, sungguh engkau anak yang terbaik.' Ternyata di langit dunia ada dua sungai yang mengalir, Nabi Muhammad bertanya, 'Dua sungai apa ini wahai Jibril? ' Jibril menjawab, 'Ini adalah Nil dan Eufrat.' Kemudian Jibril terus membawa Nabi ke langit, tiba-tiba ada sungai lain yang di atasnya ada istana dari mutiara dan intan, Nabi memukulnya dengan tangannya, tiba-tiba baunya seperti minyak wangi adlfar. Nabi bertanya, 'Ini apa wahai Jibril? ' Jibril menjawab, 'Ini adalah telaga al Kautsar yang sengaja disimpan oleh Tuhanmu untukmu.' Kemudian Jibril membawanya naik ke langit kedua, dan malaikat bertanya kepadanya seperti yang ditanyakan malaikat pada langit pertama. Mereka bertanya, 'Siapa ini? ' Jibril menjawab, 'Ini Jibril.' Mereka bertanya lagi, 'Dan siapa ini yang bersamamu? ' Jibril menjawab, 'Muhammad .' Mereka bertanya, 'Apakah dia telah diutus? ' Jibril menjawab, 'Benar.' Malaikat (langit tersebut) lalu berkata, 'Selamat datang, selamat atas kunjungannya.' Jibril kemudian membawanya naik ke langit ketiga dan para malaikat bertanya kepadanya sebagaimana yang ditanyakan malaikat di langit pertama dan kedua, kemudian Jibril membawanya naik ke langit keempat, dan mereka bertanya seperti halnya pertanyaan malaikat sebelumnya, setiap langit berisikan para nabi yang Jibril sebutkan nama-namanya. Dan seingatku di antara mereka ada Idris di langit kedua, Harun di langit keempat, dan lain di langit ke lima yang aku tak hapal namanya, Ibrahim di langit keenam, dan Musa di langit ketujuh karena diberi kelebihan bisa berbicara langsung dengan Allah. Lantas Musa berkata, 'Wahai Rabb, setahuku tak ada orang yang lebih ditinggikan daripada aku, ' kemudian Jibril membawanya naik di atas kesemuanya yang tidak satupun yang tahu selain Allah hingga tiba di Sidratul Muntaha. Kemudian Jibril mendekati Allah, Al Jabbar, Rabb pemilik kemuliaan, Nabi terus mendekat hingga jarak antara keduanya sebatas dua busur panah atau lebih dekat lagi, dan Allah memberinya wahyu, yang di antara wahyunya, Allah mewajibkan lima puluh kali shalat untuk umatmu (Muhammad) siang-malam. Kemudian Nabi turun hingga bertemu Musa, Musa menahannya dan berkata, 'Hai Muhammad, apa yang diikrarkan Tuhanmu kepadamu? ' Nabi menjawab, 'Allah mewajibkan aku untuk mendirikan lima puluh kali shalat sehari semalam.' Musa berkata, 'Umatmu tak bakalan kuat melakukan sedemikian itu, kembalilah kamu agar Tuhanmu memberi keringanan untkmu dan umatmu.' Maka Nabi menoleh ke Jibril seolah-olah meminta saran tentang saran Musa, dan Jibril memberi isyarat, 'Silahkan, kalau kau berkenan.' Maka Jibril kembali menaikannya ke Allah Yang Maha Jabbar yang ketika itu masih berada di singgahsana-Nya, Nabi katakan, 'Wahai Rabb, berilah kami keringanan, sebab umatku tak bakalan mampu melakukan shalat lima puluh kali dalam sehari! ' Lantas Allah mengurangi sepuluh kali, dan Nabi kembali bertemu Musa dan Musa menahannya, Musa terus-menerus membujuknya agar Nabi menegoisasi ulang kepada Rabbnya, sehingga Allah hanya mewajibkan lima kali shalat sehari-semalam. Musa kemudian menahannya ketika kewajiban shalat tinggal lima, Musa mengatakan, 'Hai Muhammad, pernah aku membujuk Bani Israil, kaumku, untuk suatu yang lebih rendah daripada ini namun mereka meninggalkannya, padahal umatmu lebih lemah fisiknya, badannya, hatinya, pandangan dan pendengarannya, maka temuilah kembali Rabbmu agar Dia memberi keringanan.' Dan atas semua instruksi itu, Nabi menoleh kepada Jibril untuk memberi saran, namun Jibril tidak membenci atas itu semua. Lantas Jibril kembali membawanya naik untuk kali kelima, lalu Nabi berkata, 'Ya Rabb, umatku adalah orang-orang lemah fisiknya, hatinya, pendengarannya, pandangannya, dan badannya, maka berilah kami keringanan.' Allah Yang Maha Jabbar menjawab, 'Hai Muhammad! ' Nabi menjawab, 'Aku penuhi panggilan-Mu.' Allah meneruskan firman-Nya, 'Sesungguhnya tidak ada lagi pergantian titah-Ku sebagaimana Aku wajibkan atasmu dalam ummul kitab.' Allah meneruskan titah-Nya, setiap satu kebaikan dibalas sepuluh kali lipatnya, maka lima kali shalat itu tercatat lima puluh kali dalam ummul kitab, sekalipun hanya dilaksanakan lima kali olehmu.' Maka Nabi kembali menemui Musa dan Musa bertanya, 'Apa yang telah kamu lakukan? ' Nabi menjawab, 'Allah betul-betul telah memberi kami keringanan, karena setiap kebaikan dibalas sepuluh kali lipatnya.' Musa berkata, 'Demi Allah, aku pernah membujuk bani israil untuk yang lebih remeh daripada itu namun mereka meninggalkannya, maka kembalilah kau temui Tuhanmu agar Dia memberi keringanan terhadapmu.' Rasulullah menjawab, 'Hai Musa, demi Allah, aku telah malu kepada Tuhanku terhadap protes yang kulakukan terhadap-Nya.' Musa pun berkata, 'Baik kalau begitu, silahkan engkau turun dengan nama Allah.' Maka Nabi bangun (tidur) yang ketika itu beliau di Masjidil Haram.</t>
+  </si>
+  <si>
+    <t>Hai penduduk surga! ' Mereka menjawab, 'Baik, kami penuhi panggilan-Mu, dan seluruh kebaikan berada di tangan-Mu! Allah meneruskan, 'Apakah kalian telah puas! ' Mereka menjawab, 'Bagaimanakah kami tidak puas wahai Rabb, sedang telah Engkau beri kami sesuatu yang belum pernah Engkau berikan kepada satu pun dari makhluk-Mu! Allah kembali berkata, 'Maukah Aku beri kalian suatu yang lebih utama daripada itu semua? ' Mereka balik bertanya, 'Ya Rabb, apalagi yang lebih utama daripada itu semua? ' Allah menjawab, 'Sekarang Aku halalkan untuk kalian keredlaan-Ku, sehingga Aku tidak marah terhadap kalian selama-lamanya! '</t>
+  </si>
+  <si>
+    <t>Ada seorang penduduk surga meminta ijin Tuhannya untuk menanam. Allah berujar, 'Bukankah engkau diperkenankan sekehendakmu! ' Orang tersebut menjawab, 'Memang, namun aku ingin menanam! ' Orang itu kemudian bergegas menabur benih, dan ujung-ujung tanamannya sedemikian cepat tumbuh, juga perkembangbiakannya, sehingga ia juga cepat memanen, yang himpunan panenannya sebesar gunung. Kemudian Allah berfirman, 'Silahkan kau ambil hai Anak adam, sungguh tak ada sesuatu yang menjadikanmu puas! ' Maka si arab badui berkata, 'Wahai Rasulullah, (jika demikian) tidak akan engkau temukan seperti orang ini selain dari Quraisy atau orang anshar, sebab mereka hobi bercocok tanam, adapun kami, tidak suka bercocok tanam! Rasulullah pun menjadi tertawa.</t>
+  </si>
+  <si>
+    <t>Engkau menjadikan tandingan untuk Allah, padahal Dialah yang menciptamu. Aku lalu berkata, Jika demikian berarti itu memang perkara besar! kemudian aku bertanya lagi, 'Lalu apa lagi? ' Nabi menjawab: Engkau membunuh anakmu karena kamu khawatir akan makan bersamamu. Kemudian saya bertanya, Lantas apa lagi? Nabi menjawab: Engkau berzina dengan isteri tetanggamu.</t>
+  </si>
+  <si>
+    <t>Ada dua orang kabilah Tsaqif dan seorang qurays, atau dua orang qurasy. Salah seorang dari kabilah Tsaqif lemak perutnya terlihat banyak sekali, sementara kefakihan hati mereka sangat minim. Lalu salah seorang dari mereka berkata, 'Apa menurutmu Allah akan mendengar apa yang kita ucapkan? ' Sedang lainnya berkata, 'Allah mendengar jika kita mengucapkan dengan lantang, dan Dia tidak mendengar jika kita mengucapkan dengan lirih (rahasia).' Lantas lainnya berkata, 'Apabila Dia mendengar jika kita mengucapkan secara lantang, tentu Dia juga mendengar jika kita mengucapkan secara lirih! Lantas Allah menurunkan ayat: '(Dan apa saja yang kalian sembunyikan, akan bersaksi atas kalian, pendengaran kalian, tidak pula penglihatan kalian dan tidak pula kulit kalian) ', (Qs. Fushshilat: ayat 22).</t>
+  </si>
+  <si>
+    <t>Bagaimana kalian bertanya ahli kitab tentang kitab mereka padahal kalian mempunyai Kitabullah, kitab yang paling dekat janjinya kepada Allah, yang kalian membacanya dengan tidak dicampuri hal-hal lainnya.</t>
+  </si>
+  <si>
+    <t>Wahai segenap muslimin, bagaimana kalian bertanya ahli kitab tentang sesuatu, sedang kitab kalian yang Allah turunkan kepada nabi kalian adalah berita paling baru tentang Allah yang tidak dicampuri oleh sesutu apapun, dan Allah telah menceritakan kepada kalian bahwa ahli kitab mengubah-ubah kitab Allah dan merubah-rubahnya. Setelah itu mereka tulis kitab-kitab Allah dengan tangannya, dan mereka katakan, 'Ini dari Allah', yang demikian untuk mereka beli dengan harga yang sedikit, tidakkah ilmu yang datang kepada kalian melarang kalian bertanya kepada mereka? Tidak, demi Allah, tidak akan kami lihat salah seorang di antara mereka bertanya kalian tentang yang diturunkan kepada kalian.</t>
+  </si>
+  <si>
+    <t>merasa sangat kepayahan mengikuti wahyu yang diturunkan sehingga beliau gerak-gerakkan kedua bibirnya. Ibnu Abbas lantas berkata kepadaku, Maka aku gerakkan keduanya bagimu sebagaimana Rasulullah menggerakkan keduanya. Sa'id berkata, Dan aku menggerakkan keduanya sebagaimana Ibnu Abbas menggerakkan keduanya, maka ia gerakkan kedua bibirnya sehingga Allah menurunkan ayat: '(Jangan engkau gerakkan lisanmu untuk membacanya agar kamu tergesa-gesa, sebab Kewajiban Kamilah yang mengumpulkannya dan membacakannya) ' (Qs. Al Qiyamah: 16-17). Ibn Abbas berkata, 'Mengumpulkan yang dimaksud adalah, mengumpulkan di dadamu, lantas kamu membacanya: '(Maka jika kami telah membacanya, maka ikutilah bacaannya) ' (Qs. Al Qiyamah: 18). Ibn 'Abbas berkata, 'Maka dengar dia baik-baik dan diamlah, kemudian Kami berkewajiban agar kamu mampu membacanya. Ibn Abbas berkata, Jika Jibril menemui Rasulullah , maka beliau mendengarnya baik-baik, dan jika Jibril telah pulang, maka beliau membacanya sebagaimana Jibril membacakannya.</t>
+  </si>
+  <si>
+    <t>(Jangan kamu membacanya secara lantang dalam shalatmu, dan jangan pula secara lirih) ' (Qs. Al Isra': ayat 110), Ibn Abbas berkata, Ayat ini diturunkan saat Rasulullah masih sembunyi-sembunyi di Makkah, jika shalat bersama sahabat-sahabatnya, beliau mengeraskan bacaan Al-Qur'annya, sehingga jika kaum musyrikin mendengarnya, mereka mencaci Al-Qur'an, Dzat yang menurunkannya dan malaikat yang membawanya. Maka Allah menegur nabi-Nya dengan ayat: '(Jangan kamu membacanya secara lantang dalam shalatmu) ' (Qs. Al Isra': ayat 110), yakni dengan bacaanmu, sehingga saat orang-orang Musyrik mendengar mereka akan mencela Al-Qur'an, '(dan jangan pula secara lirih), yaitu kepada para sahabatmu, sehingga engkau tidak bisa menjadikan mereka mendengar, (Carilah jalan tengah antara keduanya) ', (Qs. Al Isra: ayat 110).</t>
+  </si>
+  <si>
+    <t>Ayat ini: '(Janganlah kamu menyaringkan bacaanmu ketika shalatmu dan jangan pula membacanya terlalu lirih) ', (Qs. Al Isra`: Ayat 110), diturunkan berkenaan dengan doa.</t>
+  </si>
+  <si>
+    <t>Bukan termasuk golongan kami orang yang tidak melagukan Al-Qur'an, sementara yang lain menambahkan, 'dan mengeraskannya'.</t>
+  </si>
+  <si>
+    <t>Tidak boleh iri kecuali dalam dua hal; seseorang yang Allah beri Al-Qur'an, kemudian ia membacanya sepanjang siang dan malam. Lalu orang yang iri itu berkata 'Kalaulah aku diberi kepandaian seperti orang itu, niscaya kulakukan sepertinya.' Dan seseorang yang diberi harta, lantas dia membelanjakannya dalam haknya. Lalu orang yang iri itu berkata, 'Kalulah aku diberi harta si fulan, niscaya kulakukan seperti yang dilakukannya'.</t>
+  </si>
+  <si>
+    <t>Tidak boleh iri kecuali dalam dua hal; seorang laki-laki yang Allah beri Al-Qur'an, lantas ia membacanya di sepanjang malam dan sepanjang siang. Dan seorang laki-laki yang Allah beri harta, lantas ia membelanjakannya sepanjang malam dan sepanjang siang. Ali bin Abdullah berkata, Aku mendengar Sufyan berkali-kali, namun aku tidak mendengar ia menyebutkan hadits (dengan lafad akhbartu (aku mengabarkan), tetapi dengan lafad 'An (dari). Dan ini adalah hadits yang paling shahih dari yang ia punya.</t>
+  </si>
+  <si>
+    <t>siapa saja dari kami yang terbunuh, maka ia akan menuju surga.</t>
+  </si>
+  <si>
+    <t>Siapa saja yang menceritakan kepadamu bahwa Nabi menyembunyikan sesuatu dari wahyu, maka janganlah kamu mempercayainya, sebab Allah Ta'ala berfirman: '(Wahai rasul, sampaikan yang diturunkan kepadamu dari Tuhanmu, jika kamu tidak mengerjakan lantas tidak kau sampaikan risalahâ€¦.) ' (Qs. Al Maidah: 67).</t>
+  </si>
+  <si>
+    <t>Engkau menjadikan tandingan bagi Allah, padahal Dialah yang menciptamu.' Laki-laki tersebut bertanya lagi, 'Lantas apa lagi? ' Nabi menjawab: 'Engkau bunuh anakmu karena khawatir makan bersamamu.' Laki-laki itu bertanya lagi, 'Lantas apa? ' Nabi menjawab: 'Engkau berzina dengan wanita tetanggamu.' Lantas Allah menurunkan ayat yang membenarkannya: '(Dan orang-orang yang tidak menyeru Tuhan lain disamping menyeru Allah, dan tidak membunuh jiwa yang Allah haramkan selain dengan alasan yang benar, dan tidak berzina, dan barangsiapa melakukan yang demikian ia akan memperoleh dosa dan akan dilipat gandakan siksa baginya) '. (Qs. Al Furqan: 68-69).</t>
+  </si>
+  <si>
+    <t>Namun apakah berarti Aku menzhalimi hak kalian? ' Mereka menjawab, 'Tidak.' Allah kemudian firman-Nya: Itulah keutamaan-Ku yang Aku berikan kepada siapa yang Aku kehendaki.</t>
+  </si>
+  <si>
+    <t>Shalat tepat pada waktunya, berbakti kepada kedua orang tua, dan jihad fi sabilillah.</t>
+  </si>
+  <si>
+    <t>Sungguh, ada orang yang kuberi dan ada yang tidak kuberi, namun yang tidak aku beri lebih aku sukai daripada yang aku beri, beberapa orang aku beri karena hati mereka masih ada keluh kesah dan ketakutan, dan beberapa orang aku percayakan kepada kecukupan dan kebaikan yang telah Allah jadikan pada hati mereka, diantara mereka ialah Amru bin Taghlib. Lantas 'Amru berkata, 'Aku tak ingin lagi unta-unta merah setelah mengetahui kalimat Rasulullah itu.'</t>
+  </si>
+  <si>
+    <t>Jika seorang hamba mendekatkan diri kepada-Ku sejengkal, maka Aku akan mendekat kepadanya sehasta, jika ia mendekatkan diri kepada-Ku sehasta maka Aku mendekat kepadanya sedepa, dan jika ia mendekatkan diri kepada-Ku dengan berjalan maka Aku akan mendatanginya dengan berlari.</t>
+  </si>
+  <si>
+    <t>Jika seorang hamba mendekatkan diri kepada-Ku sejengkal maka Aku akan mendekatkan kepadanya sehasta, jika ia mendekatkan diri kepada-Ku sehasta maka Aku akan mendekatkan diri kepadanya sedepa. Mu'tamir berkata, Aku mendengar Ayahku aku mendengar Anas dari Nabi , yang beliau meriwayatkannya dari Tuhannya Azza wa Jalla.</t>
+  </si>
+  <si>
+    <t>Setiap amalan adalah kaffarat dosa, sedang puasa adalah bagi-Ku dan Aku lah yang akan memberinya pahala. Sungguh, bau mulut orang yang berpuasa jauh lebih wangi di sisi Allah daripada minyak kesturi.</t>
+  </si>
+  <si>
+    <t>Tak pantas seorang hamba berkata bahwa dirinya lebih baik daripada Yunus bin Mata dan ia nisbatkan dirinya kepada ayahnya.</t>
+  </si>
+  <si>
+    <t>pada hari pembebasan Makkah di atas untanya membaca surat al Fath, atau sebagian dari surat al Fath. Abdullah bin Mughaffal berkata, Lantas beliau mengulang-ulang suaranya dan mengeraskannya. Kemudian Mu'awiyah membaca dengan menirukan bacaan Abdullah bin Mughaffal seraya berkata, Kalaulah manusia tidak berkumpul kepada kalian, niscaya aku mengulang-ulang bacaan dan mengeraskannya sebagaimana Ibnu Mughaffal mengulang-ulang dan mengeraskan bacaan ketika menirukan nabi . Maka aku katakana kepada Mu'awiyah, Bagaimana beliau mengulang-ulang dan mengeraskan bacaannya? Mu'awiyah menjawab, Dengan mengucapkan AAA (dengan bacaan panjang enam harakat), AAA (dengan bacaan panjang enam harakat), AAA (dengan bacaan panjang enam harakat), beliau ucapkan tiga kali.</t>
+  </si>
+  <si>
+    <t>Jangan kalian membenarkan ahli kitab dan jangan pula mendustakan mereka, katakan saja: 'Kami beriman kepada Allah dan apa yang diturunkan'.</t>
+  </si>
+  <si>
+    <t>Hukuman apa biasa kalian lakukan terhadap keduanya? ' Mereka menjawab, 'Kami biasanya menghukum mereka dengan menghitami wajah keduanya dan menghinakannya.' Lantas nabi bersabda (dengan mengutip ayat): '(Maka datangkanlah Taurat dan bacalah, jika kalian orang-orang yang benar) ', (Qs. Ali 'Imran: 93), lantas mereka datang dan mereka katakan kepada seseorang yang mereka percayai, 'Hai A'war bacalah! Lantas A'war membaca hingga sampai ayat (yang berkenaan hukum perzinaan), dengan terburu-buru ia menutupi dengan tangannya, maka Nabi menegur: 'Hai, angkatlah tanganmu! ' Maka ia angkat tangannya. Dan ternyata yang ia tutupi adalah ayat rajam, lantas A'war berkata, 'Hai Muhammad, kedua orang itu wajib dirajam, hanya kami merahasiakannya di antara kami.' Maka Nabi perintahkan agar keduanya dirajam, dan kemudian keduanya pun dirajam. Sungguh, aku lihat yang laki-laki membungkukkan badannya ke arah wanita untuk mencegahnya agar tidak terkena batu.</t>
+  </si>
+  <si>
+    <t>Allah tidak pernah mengijinkan sesuatu sebagaimana ijin-Nya terhadap nabi-Nya untuk memperindah suara Al-Qur'an dan menyaringkannya.</t>
+  </si>
+  <si>
+    <t>Aku berbaring di atas kasurku, dan ketika itu aku tahu bahwa aku bersih (dari tuduhan selingkuh), Allah telah membersihkan tuduhan tersebut. Namun demi Allah, aku tak punya prasangka jika Allah hingga menurunkan wahyu yang selalu dibaca tentang masalahku, padahal masalahku terhadap diriku lebih remeh daripada Allah berfirman tentangku dengan ayat yang selalu dibaca. Allah lalu menurunkan ayat: '(Sesungguhnya orang-orang yang membawa berita bohong adalah dari kalian sendiri) ', (Qs. An Nuur: 11-21).</t>
+  </si>
+  <si>
+    <t>saat shalat Isya membaca 'WATTIINI WAZZAITUUNA (surat At Tiin) '. Dan belum pernah kudengar seorang pun yang lebih indah suaranya, atau bacaannya daripada beliau.</t>
+  </si>
+  <si>
+    <t>sembunyi-sembunyi di Makkah, namun beliau mengeraskan suara bacaan, saat orang-orang musyrik mendengar (suara bacaan beliau), mereka mencaci Al-Qur'an dan orang yang membawanya. Maka Allah Azza wa Jalla pun menurunkan ayat kepada nabi-Nya: '(Dan janganlah engkau menyaringkan bacaan shalatmu dan jangan pula melirihkannya) ', (Qs. Al-Isra': 110).</t>
+  </si>
+  <si>
+    <t>Sebab tidaklah jin, manusia, atau sesuatu yang mendengar suara mu`adzin kecuali mereka akan menjadi saksi baginya pada hari kiamat. Abu Sa'id berkata, Aku mendengarnya dari Rasulullah .</t>
+  </si>
+  <si>
+    <t>membaca Al-Qur'an sedang kepalanya di pahaku, padahal aku sedang dalam keadaan haid.</t>
+  </si>
+  <si>
+    <t>sesungguhnya surat Al-Qur'an ini diturunkan dengan tujuh dialek, maka bacalah apa yang mudah bagimu'.</t>
+  </si>
+  <si>
+    <t>Setiap orang akan dimudahkan (menuju jalan) penciptaannya'.</t>
+  </si>
+  <si>
+    <t>Tidaklah salah seorang di antara kalian melainkan telah ditetapkan tempat tinggalnya di neraka atau di surga.' Para sahabat bertanya, 'Kalau begitu, tidak sebaiknyakah kita bertawakkal saja? ' Nabi menjawab: 'Beramallah kalian, sebab masing-masing telah dimudahkan, dan beliau mengutip ayat: '(Adapun orang yang memberi hartanya dan bertakwa) ', (Qs. Al Lail: 5).</t>
+  </si>
+  <si>
+    <t>Rahmat-Ku lebih mendominasi, atau beliau mengatakan, 'lebih mendahului kemurkaan-Ku, dan itu terjadi di atas 'arsy.</t>
+  </si>
+  <si>
+    <t>Allah menetapkan satu ketetapan sebelum mencipta penciptaan 'rahmat-Ku lebih mendahului kemurkaan-Ku, dan itu tercatat di sisi-Nya di atas 'arsy.</t>
+  </si>
+  <si>
+    <t>Demi Allah, saya tidak akan mengangkut kalian, dan memang saya tidak punya kendaraan untuk mengangkut kalian.' Ternyata nabi kemudian memperoleh rampasan unta dan menanyakan kami dengan berujar: 'Mana orang-orang Asy'ari tadi? ' Beliau perintahkan agar kami diberi sekitar lima dzaud (satu dzaud antara tiga hingga sepuluh) unta yang putih punggungnya, kemudian kami pun berangkat. Dalam keberangkatan, kami berkata, 'Heihâ€¦apa yang kita perbuat ini? Kita telah tahu bahwa Rasulullah telah bersumpah untuk tidak mengangkut kita yang ketika itu beliau tidak mempunyai kendaraan untuk mengangkut kita, namun sekarang beliau menyediakan kendaraan untuk kita. Rupanya Rasulullah lalai terhadap sumpahnya atas kita, demi Allah, kalau demikian, kita tak bakalan aman! Kami pun pulang dan kami temui beliau dan kami utarakan uneg-uneg kami. Beliau lalu bersabda: 'Bukan saya yang menyediakan kendaraan untuk kalian, namun Allah sematalah yang menyediakan kendaraan untuk mengangkut kalian. Demi Allah, tidaklah saya bersumpah kemudian aku melihat yang lebih baik dari sumpah tersebut, kecuali aku akan melakukan yang lebih baik dan kubayar kaffarat sumpahku'.</t>
+  </si>
+  <si>
+    <t>Aku perintahkan kalian empat hal dan aku larang kalian empat hal. Aku perintahkan kalian untuk beriman kepada Allah, tahukah kalian keimanan kepada Allah? Yaitu persaksian bahwa tiada sesembahan yang hak selain Allah, mendirikan shalat, membayar zakat, dan kalian berikan seperlima bagian ghanimah. Dan aku larang kalian empat hal, agar kalian tidak meminum dalam ad-Dubba', an-Naqir, azh-Zhuruf al-Muzaffat, dan al-Hantamah.</t>
+  </si>
+  <si>
+    <t>Para pembuat gambar disiksa dihari kiamat dan dikatakan, 'Cobalah hidupkan semua yang kalian cipta'.</t>
+  </si>
+  <si>
+    <t>Para pembuat gambar ini disiksa pada hari kiamat, lalu dikatakan, 'Cobalah hidupkan semua yang kalian cipta'.</t>
+  </si>
+  <si>
+    <t>Siapa yang lebih zhalim daripada orang yang mencipta seperti ciptaan-Ku, hendaklah ia cipta biji sawi, atau biji tepung, atau biji gandum!</t>
+  </si>
+  <si>
+    <t>Perumpamaan orang mukmin yang membaca Al-Qur'an seperti utrujah, rasanya enak dan baunya wangi, dan perumpamaan orang mukmin yang tidak membaca Al-Qur'an seperti kurma, rasanya enak namun tidak berbau, dan perumpaman orang durhaka yang membaca Al-Qur'an seperti buah raihana, baunya wangi namun rasanya pahit, dan perumpamaan orang durhaka yang tidak membaca Al-Qur'an seperti buah hanzhalah, rasanya pahit dan tidak berbau.</t>
+  </si>
+  <si>
+    <t>Ucapan yang benar itu adalah hasil curian jin, lalu oleh jin diperdengarkan ke telinga wali-walinya sebagaimana ayam betina bersuara, lantas mereka tambahai dengan seratus kebohongan.</t>
+  </si>
+  <si>
+    <t>Akan muncul beberapa orang dari arah timur, mereka membaca Al-Qur'an namun tidak lebih dari kerongkongan mereka (tidak meresap dalam hati), mereka keluar dari agama sebagaimana anak panah keluar dari busur, dan mereka tidak akan kembali hingga anak panah kembali ke tali busur. Lalu ditanya, Apa tanda mereka? Beliau menjawab: Ciri mereka adalah gundul. Atau, beliau mengatakan: Rambutnya dipangkas habis.</t>
+  </si>
+  <si>
+    <t>Ada dua kalimat yang disukai Ar Rahman, ringan di lisan dan berat di timbangan, yaitu SUBHANALLAH WABIHAMDIHI dan SUBHAANALLAAHIL'AZHIIM.</t>
   </si>
 </sst>
 </file>
@@ -2785,7 +3964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2821,6 +4000,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3122,13 +4307,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D901"/>
+  <dimension ref="A1:D1295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B898" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H802" sqref="H802"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15750,6 +16935,5522 @@
         <v>899</v>
       </c>
       <c r="D901" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A902" s="8">
+        <v>901</v>
+      </c>
+      <c r="B902" s="9">
+        <v>595</v>
+      </c>
+      <c r="C902" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="D902" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A903" s="8">
+        <v>902</v>
+      </c>
+      <c r="B903" s="9">
+        <v>595</v>
+      </c>
+      <c r="C903" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="D903" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A904" s="8">
+        <v>903</v>
+      </c>
+      <c r="B904" s="9">
+        <v>596</v>
+      </c>
+      <c r="C904" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="D904" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A905" s="8">
+        <v>904</v>
+      </c>
+      <c r="B905" s="9">
+        <v>597</v>
+      </c>
+      <c r="C905" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="D905" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A906" s="8">
+        <v>905</v>
+      </c>
+      <c r="B906" s="9">
+        <v>597</v>
+      </c>
+      <c r="C906" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="D906" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A907" s="8">
+        <v>906</v>
+      </c>
+      <c r="B907" s="9">
+        <v>597</v>
+      </c>
+      <c r="C907" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="D907" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A908" s="8">
+        <v>907</v>
+      </c>
+      <c r="B908" s="9">
+        <v>597</v>
+      </c>
+      <c r="C908" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="D908" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A909" s="8">
+        <v>908</v>
+      </c>
+      <c r="B909" s="9">
+        <v>597</v>
+      </c>
+      <c r="C909" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="D909" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A910" s="8">
+        <v>909</v>
+      </c>
+      <c r="B910" s="9">
+        <v>598</v>
+      </c>
+      <c r="C910" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="D910" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A911" s="8">
+        <v>910</v>
+      </c>
+      <c r="B911" s="9">
+        <v>598</v>
+      </c>
+      <c r="C911" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="D911" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A912" s="8">
+        <v>911</v>
+      </c>
+      <c r="B912" s="9">
+        <v>598</v>
+      </c>
+      <c r="C912" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="D912" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A913" s="8">
+        <v>912</v>
+      </c>
+      <c r="B913" s="9">
+        <v>598</v>
+      </c>
+      <c r="C913" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="D913" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A914" s="8">
+        <v>913</v>
+      </c>
+      <c r="B914" s="9">
+        <v>599</v>
+      </c>
+      <c r="C914" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="D914" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A915" s="8">
+        <v>914</v>
+      </c>
+      <c r="B915" s="9">
+        <v>599</v>
+      </c>
+      <c r="C915" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="D915" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A916" s="8">
+        <v>915</v>
+      </c>
+      <c r="B916" s="9">
+        <v>600</v>
+      </c>
+      <c r="C916" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="D916" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A917" s="8">
+        <v>916</v>
+      </c>
+      <c r="B917" s="9">
+        <v>601</v>
+      </c>
+      <c r="C917" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="D917" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A918" s="8">
+        <v>917</v>
+      </c>
+      <c r="B918" s="9">
+        <v>602</v>
+      </c>
+      <c r="C918" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="D918" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A919" s="8">
+        <v>918</v>
+      </c>
+      <c r="B919" s="9">
+        <v>602</v>
+      </c>
+      <c r="C919" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="D919" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A920" s="8">
+        <v>919</v>
+      </c>
+      <c r="B920" s="9">
+        <v>603</v>
+      </c>
+      <c r="C920" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="D920" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A921" s="8">
+        <v>920</v>
+      </c>
+      <c r="B921" s="9">
+        <v>604</v>
+      </c>
+      <c r="C921" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="D921" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A922" s="8">
+        <v>921</v>
+      </c>
+      <c r="B922" s="9">
+        <v>605</v>
+      </c>
+      <c r="C922" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="D922" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A923" s="8">
+        <v>922</v>
+      </c>
+      <c r="B923" s="9">
+        <v>606</v>
+      </c>
+      <c r="C923" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="D923" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A924" s="8">
+        <v>923</v>
+      </c>
+      <c r="B924" s="9">
+        <v>607</v>
+      </c>
+      <c r="C924" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="D924" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A925" s="8">
+        <v>924</v>
+      </c>
+      <c r="B925" s="9">
+        <v>608</v>
+      </c>
+      <c r="C925" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="D925" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A926" s="8">
+        <v>925</v>
+      </c>
+      <c r="B926" s="9">
+        <v>609</v>
+      </c>
+      <c r="C926" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="D926" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A927" s="8">
+        <v>926</v>
+      </c>
+      <c r="B927" s="9">
+        <v>609</v>
+      </c>
+      <c r="C927" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="D927" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A928" s="8">
+        <v>927</v>
+      </c>
+      <c r="B928" s="9">
+        <v>610</v>
+      </c>
+      <c r="C928" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="D928" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A929" s="8">
+        <v>928</v>
+      </c>
+      <c r="B929" s="9">
+        <v>611</v>
+      </c>
+      <c r="C929" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="D929" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A930" s="8">
+        <v>929</v>
+      </c>
+      <c r="B930" s="9">
+        <v>612</v>
+      </c>
+      <c r="C930" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="D930" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A931" s="8">
+        <v>930</v>
+      </c>
+      <c r="B931" s="9">
+        <v>613</v>
+      </c>
+      <c r="C931" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="D931" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A932" s="8">
+        <v>931</v>
+      </c>
+      <c r="B932" s="9">
+        <v>613</v>
+      </c>
+      <c r="C932" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="D932" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A933" s="8">
+        <v>932</v>
+      </c>
+      <c r="B933" s="9">
+        <v>613</v>
+      </c>
+      <c r="C933" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="D933" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A934" s="8">
+        <v>933</v>
+      </c>
+      <c r="B934" s="9">
+        <v>614</v>
+      </c>
+      <c r="C934" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="D934" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A935" s="8">
+        <v>934</v>
+      </c>
+      <c r="B935" s="9">
+        <v>615</v>
+      </c>
+      <c r="C935" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="D935" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A936" s="8">
+        <v>935</v>
+      </c>
+      <c r="B936" s="9">
+        <v>616</v>
+      </c>
+      <c r="C936" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="D936" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A937" s="8">
+        <v>936</v>
+      </c>
+      <c r="B937" s="9">
+        <v>617</v>
+      </c>
+      <c r="C937" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="D937" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A938" s="8">
+        <v>937</v>
+      </c>
+      <c r="B938" s="9">
+        <v>617</v>
+      </c>
+      <c r="C938" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="D938" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A939" s="8">
+        <v>938</v>
+      </c>
+      <c r="B939" s="9">
+        <v>617</v>
+      </c>
+      <c r="C939" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="D939" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A940" s="8">
+        <v>939</v>
+      </c>
+      <c r="B940" s="9">
+        <v>617</v>
+      </c>
+      <c r="C940" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="D940" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A941" s="8">
+        <v>940</v>
+      </c>
+      <c r="B941" s="9">
+        <v>618</v>
+      </c>
+      <c r="C941" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="D941" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A942" s="8">
+        <v>941</v>
+      </c>
+      <c r="B942" s="9">
+        <v>618</v>
+      </c>
+      <c r="C942" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="D942" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A943" s="8">
+        <v>942</v>
+      </c>
+      <c r="B943" s="9">
+        <v>619</v>
+      </c>
+      <c r="C943" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="D943" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A944" s="8">
+        <v>943</v>
+      </c>
+      <c r="B944" s="9">
+        <v>620</v>
+      </c>
+      <c r="C944" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="D944" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A945" s="8">
+        <v>944</v>
+      </c>
+      <c r="B945" s="9">
+        <v>621</v>
+      </c>
+      <c r="C945" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="D945" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A946" s="8">
+        <v>945</v>
+      </c>
+      <c r="B946" s="9">
+        <v>622</v>
+      </c>
+      <c r="C946" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="D946" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A947" s="8">
+        <v>946</v>
+      </c>
+      <c r="B947" s="9">
+        <v>623</v>
+      </c>
+      <c r="C947" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="D947" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A948" s="8">
+        <v>947</v>
+      </c>
+      <c r="B948" s="9">
+        <v>623</v>
+      </c>
+      <c r="C948" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="D948" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A949" s="8">
+        <v>948</v>
+      </c>
+      <c r="B949" s="9">
+        <v>623</v>
+      </c>
+      <c r="C949" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="D949" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A950" s="8">
+        <v>949</v>
+      </c>
+      <c r="B950" s="9">
+        <v>623</v>
+      </c>
+      <c r="C950" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="D950" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A951" s="8">
+        <v>950</v>
+      </c>
+      <c r="B951" s="9">
+        <v>624</v>
+      </c>
+      <c r="C951" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="D951" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A952" s="8">
+        <v>951</v>
+      </c>
+      <c r="B952" s="9">
+        <v>625</v>
+      </c>
+      <c r="C952" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="D952" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A953" s="8">
+        <v>952</v>
+      </c>
+      <c r="B953" s="9">
+        <v>625</v>
+      </c>
+      <c r="C953" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="D953" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A954" s="8">
+        <v>953</v>
+      </c>
+      <c r="B954" s="9">
+        <v>626</v>
+      </c>
+      <c r="C954" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="D954" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A955" s="8">
+        <v>954</v>
+      </c>
+      <c r="B955" s="9">
+        <v>626</v>
+      </c>
+      <c r="C955" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="D955" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A956" s="8">
+        <v>955</v>
+      </c>
+      <c r="B956" s="9">
+        <v>627</v>
+      </c>
+      <c r="C956" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="D956" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A957" s="8">
+        <v>956</v>
+      </c>
+      <c r="B957" s="9">
+        <v>627</v>
+      </c>
+      <c r="C957" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="D957" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A958" s="8">
+        <v>957</v>
+      </c>
+      <c r="B958" s="9">
+        <v>628</v>
+      </c>
+      <c r="C958" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="D958" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A959" s="8">
+        <v>958</v>
+      </c>
+      <c r="B959" s="9">
+        <v>629</v>
+      </c>
+      <c r="C959" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="D959" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A960" s="8">
+        <v>959</v>
+      </c>
+      <c r="B960" s="9">
+        <v>630</v>
+      </c>
+      <c r="C960" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="D960" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A961" s="8">
+        <v>960</v>
+      </c>
+      <c r="B961" s="9">
+        <v>631</v>
+      </c>
+      <c r="C961" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="D961" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A962" s="8">
+        <v>961</v>
+      </c>
+      <c r="B962" s="9">
+        <v>632</v>
+      </c>
+      <c r="C962" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="D962" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A963" s="8">
+        <v>962</v>
+      </c>
+      <c r="B963" s="9">
+        <v>633</v>
+      </c>
+      <c r="C963" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="D963" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A964" s="8">
+        <v>963</v>
+      </c>
+      <c r="B964" s="9">
+        <v>634</v>
+      </c>
+      <c r="C964" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="D964" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A965" s="8">
+        <v>964</v>
+      </c>
+      <c r="B965" s="9">
+        <v>635</v>
+      </c>
+      <c r="C965" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="D965" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A966" s="8">
+        <v>965</v>
+      </c>
+      <c r="B966" s="9">
+        <v>636</v>
+      </c>
+      <c r="C966" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="D966" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A967" s="8">
+        <v>966</v>
+      </c>
+      <c r="B967" s="9">
+        <v>637</v>
+      </c>
+      <c r="C967" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="D967" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A968" s="8">
+        <v>967</v>
+      </c>
+      <c r="B968" s="9">
+        <v>637</v>
+      </c>
+      <c r="C968" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="D968" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A969" s="8">
+        <v>968</v>
+      </c>
+      <c r="B969" s="9">
+        <v>638</v>
+      </c>
+      <c r="C969" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="D969" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A970" s="8">
+        <v>969</v>
+      </c>
+      <c r="B970" s="9">
+        <v>639</v>
+      </c>
+      <c r="C970" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="D970" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A971" s="8">
+        <v>970</v>
+      </c>
+      <c r="B971" s="9">
+        <v>640</v>
+      </c>
+      <c r="C971" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="D971" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A972" s="8">
+        <v>971</v>
+      </c>
+      <c r="B972" s="9">
+        <v>641</v>
+      </c>
+      <c r="C972" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="D972" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A973" s="8">
+        <v>972</v>
+      </c>
+      <c r="B973" s="9">
+        <v>642</v>
+      </c>
+      <c r="C973" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="D973" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A974" s="8">
+        <v>973</v>
+      </c>
+      <c r="B974" s="9">
+        <v>644</v>
+      </c>
+      <c r="C974" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="D974" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A975" s="8">
+        <v>974</v>
+      </c>
+      <c r="B975" s="9">
+        <v>645</v>
+      </c>
+      <c r="C975" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="D975" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A976" s="8">
+        <v>975</v>
+      </c>
+      <c r="B976" s="9">
+        <v>646</v>
+      </c>
+      <c r="C976" s="13" t="s">
+        <v>974</v>
+      </c>
+      <c r="D976" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A977" s="8">
+        <v>976</v>
+      </c>
+      <c r="B977" s="9">
+        <v>647</v>
+      </c>
+      <c r="C977" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="D977" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A978" s="8">
+        <v>977</v>
+      </c>
+      <c r="B978" s="9">
+        <v>648</v>
+      </c>
+      <c r="C978" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="D978" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A979" s="8">
+        <v>978</v>
+      </c>
+      <c r="B979" s="9">
+        <v>649</v>
+      </c>
+      <c r="C979" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="D979" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A980" s="8">
+        <v>979</v>
+      </c>
+      <c r="B980" s="9">
+        <v>649</v>
+      </c>
+      <c r="C980" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="D980" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A981" s="8">
+        <v>980</v>
+      </c>
+      <c r="B981" s="9">
+        <v>650</v>
+      </c>
+      <c r="C981" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="D981" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A982" s="8">
+        <v>981</v>
+      </c>
+      <c r="B982" s="9">
+        <v>651</v>
+      </c>
+      <c r="C982" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="D982" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A983" s="8">
+        <v>982</v>
+      </c>
+      <c r="B983" s="9">
+        <v>652</v>
+      </c>
+      <c r="C983" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="D983" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A984" s="8">
+        <v>983</v>
+      </c>
+      <c r="B984" s="9">
+        <v>652</v>
+      </c>
+      <c r="C984" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="D984" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A985" s="8">
+        <v>984</v>
+      </c>
+      <c r="B985" s="9">
+        <v>652</v>
+      </c>
+      <c r="C985" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="D985" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A986" s="8">
+        <v>985</v>
+      </c>
+      <c r="B986" s="9">
+        <v>652</v>
+      </c>
+      <c r="C986" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="D986" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A987" s="8">
+        <v>986</v>
+      </c>
+      <c r="B987" s="9">
+        <v>653</v>
+      </c>
+      <c r="C987" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="D987" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A988" s="8">
+        <v>987</v>
+      </c>
+      <c r="B988" s="9">
+        <v>654</v>
+      </c>
+      <c r="C988" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="D988" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A989" s="8">
+        <v>988</v>
+      </c>
+      <c r="B989" s="9">
+        <v>655</v>
+      </c>
+      <c r="C989" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="D989" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A990" s="8">
+        <v>989</v>
+      </c>
+      <c r="B990" s="9">
+        <v>656</v>
+      </c>
+      <c r="C990" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="D990" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A991" s="8">
+        <v>990</v>
+      </c>
+      <c r="B991" s="9">
+        <v>657</v>
+      </c>
+      <c r="C991" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="D991" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A992" s="8">
+        <v>991</v>
+      </c>
+      <c r="B992" s="9">
+        <v>658</v>
+      </c>
+      <c r="C992" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="D992" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A993" s="8">
+        <v>992</v>
+      </c>
+      <c r="B993" s="9">
+        <v>659</v>
+      </c>
+      <c r="C993" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="D993" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" ht="252" x14ac:dyDescent="0.25">
+      <c r="A994" s="8">
+        <v>993</v>
+      </c>
+      <c r="B994" s="9">
+        <v>660</v>
+      </c>
+      <c r="C994" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="D994" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A995" s="8">
+        <v>994</v>
+      </c>
+      <c r="B995" s="9">
+        <v>661</v>
+      </c>
+      <c r="C995" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="D995" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A996" s="8">
+        <v>995</v>
+      </c>
+      <c r="B996" s="9">
+        <v>662</v>
+      </c>
+      <c r="C996" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="D996" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A997" s="8">
+        <v>996</v>
+      </c>
+      <c r="B997" s="9">
+        <v>663</v>
+      </c>
+      <c r="C997" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="D997" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A998" s="8">
+        <v>997</v>
+      </c>
+      <c r="B998" s="9">
+        <v>664</v>
+      </c>
+      <c r="C998" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="D998" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A999" s="8">
+        <v>998</v>
+      </c>
+      <c r="B999" s="9">
+        <v>664</v>
+      </c>
+      <c r="C999" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="D999" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1000" s="8">
+        <v>999</v>
+      </c>
+      <c r="B1000" s="9">
+        <v>665</v>
+      </c>
+      <c r="C1000" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="D1000" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1001" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B1001" s="9">
+        <v>666</v>
+      </c>
+      <c r="C1001" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="D1001" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1002" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="9">
+        <v>668</v>
+      </c>
+      <c r="C1002" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="D1002" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1003" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="9">
+        <v>668</v>
+      </c>
+      <c r="C1003" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D1003" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1004" s="8">
+        <v>1003</v>
+      </c>
+      <c r="B1004" s="9">
+        <v>669</v>
+      </c>
+      <c r="C1004" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D1004" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A1005" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B1005" s="9">
+        <v>670</v>
+      </c>
+      <c r="C1005" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D1005" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1006" s="8">
+        <v>1005</v>
+      </c>
+      <c r="B1006" s="9">
+        <v>671</v>
+      </c>
+      <c r="C1006" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D1006" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1007" s="8">
+        <v>1006</v>
+      </c>
+      <c r="B1007" s="9">
+        <v>672</v>
+      </c>
+      <c r="C1007" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D1007" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1008" s="8">
+        <v>1007</v>
+      </c>
+      <c r="B1008" s="9">
+        <v>673</v>
+      </c>
+      <c r="C1008" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D1008" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1009" s="8">
+        <v>1008</v>
+      </c>
+      <c r="B1009" s="9">
+        <v>674</v>
+      </c>
+      <c r="C1009" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D1009" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1010" s="8">
+        <v>1009</v>
+      </c>
+      <c r="B1010" s="9">
+        <v>675</v>
+      </c>
+      <c r="C1010" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1010" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1011" s="8">
+        <v>1010</v>
+      </c>
+      <c r="B1011" s="9">
+        <v>676</v>
+      </c>
+      <c r="C1011" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D1011" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1012" s="8">
+        <v>1011</v>
+      </c>
+      <c r="B1012" s="9">
+        <v>676</v>
+      </c>
+      <c r="C1012" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1012" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1013" s="8">
+        <v>1012</v>
+      </c>
+      <c r="B1013" s="9">
+        <v>677</v>
+      </c>
+      <c r="C1013" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1013" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1014" s="8">
+        <v>1013</v>
+      </c>
+      <c r="B1014" s="9">
+        <v>678</v>
+      </c>
+      <c r="C1014" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D1014" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1015" s="8">
+        <v>1014</v>
+      </c>
+      <c r="B1015" s="9">
+        <v>679</v>
+      </c>
+      <c r="C1015" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1015" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1016" s="8">
+        <v>1015</v>
+      </c>
+      <c r="B1016" s="9">
+        <v>680</v>
+      </c>
+      <c r="C1016" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D1016" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1017" s="8">
+        <v>1016</v>
+      </c>
+      <c r="B1017" s="9">
+        <v>681</v>
+      </c>
+      <c r="C1017" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D1017" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1018" s="8">
+        <v>1017</v>
+      </c>
+      <c r="B1018" s="9">
+        <v>682</v>
+      </c>
+      <c r="C1018" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D1018" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1019" s="8">
+        <v>1018</v>
+      </c>
+      <c r="B1019" s="9">
+        <v>683</v>
+      </c>
+      <c r="C1019" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D1019" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1020" s="8">
+        <v>1019</v>
+      </c>
+      <c r="B1020" s="9">
+        <v>683</v>
+      </c>
+      <c r="C1020" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D1020" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1021" s="8">
+        <v>1020</v>
+      </c>
+      <c r="B1021" s="9">
+        <v>684</v>
+      </c>
+      <c r="C1021" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D1021" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1022" s="8">
+        <v>1021</v>
+      </c>
+      <c r="B1022" s="9">
+        <v>684</v>
+      </c>
+      <c r="C1022" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1022" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1023" s="8">
+        <v>1022</v>
+      </c>
+      <c r="B1023" s="9">
+        <v>684</v>
+      </c>
+      <c r="C1023" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D1023" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1024" s="8">
+        <v>1023</v>
+      </c>
+      <c r="B1024" s="9">
+        <v>685</v>
+      </c>
+      <c r="C1024" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1024" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1025" s="8">
+        <v>1024</v>
+      </c>
+      <c r="B1025" s="9">
+        <v>686</v>
+      </c>
+      <c r="C1025" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1025" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1026" s="8">
+        <v>1025</v>
+      </c>
+      <c r="B1026" s="9">
+        <v>686</v>
+      </c>
+      <c r="C1026" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1026" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1027" s="8">
+        <v>1026</v>
+      </c>
+      <c r="B1027" s="9">
+        <v>686</v>
+      </c>
+      <c r="C1027" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D1027" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1028" s="8">
+        <v>1027</v>
+      </c>
+      <c r="B1028" s="9">
+        <v>687</v>
+      </c>
+      <c r="C1028" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D1028" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1029" s="8">
+        <v>1028</v>
+      </c>
+      <c r="B1029" s="9">
+        <v>687</v>
+      </c>
+      <c r="C1029" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D1029" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A1030" s="8">
+        <v>1029</v>
+      </c>
+      <c r="B1030" s="9">
+        <v>688</v>
+      </c>
+      <c r="C1030" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1030" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1031" s="8">
+        <v>1030</v>
+      </c>
+      <c r="B1031" s="9">
+        <v>689</v>
+      </c>
+      <c r="C1031" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1031" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1032" s="8">
+        <v>1031</v>
+      </c>
+      <c r="B1032" s="9">
+        <v>689</v>
+      </c>
+      <c r="C1032" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D1032" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1033" s="8">
+        <v>1032</v>
+      </c>
+      <c r="B1033" s="9">
+        <v>689</v>
+      </c>
+      <c r="C1033" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1033" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1034" s="8">
+        <v>1033</v>
+      </c>
+      <c r="B1034" s="9">
+        <v>690</v>
+      </c>
+      <c r="C1034" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1034" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A1035" s="8">
+        <v>1034</v>
+      </c>
+      <c r="B1035" s="9">
+        <v>691</v>
+      </c>
+      <c r="C1035" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1035" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1036" s="8">
+        <v>1035</v>
+      </c>
+      <c r="B1036" s="9">
+        <v>691</v>
+      </c>
+      <c r="C1036" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1036" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1037" s="8">
+        <v>1036</v>
+      </c>
+      <c r="B1037" s="9">
+        <v>692</v>
+      </c>
+      <c r="C1037" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D1037" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1038" s="8">
+        <v>1037</v>
+      </c>
+      <c r="B1038" s="9">
+        <v>693</v>
+      </c>
+      <c r="C1038" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D1038" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1039" s="8">
+        <v>1038</v>
+      </c>
+      <c r="B1039" s="9">
+        <v>693</v>
+      </c>
+      <c r="C1039" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D1039" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A1040" s="8">
+        <v>1039</v>
+      </c>
+      <c r="B1040" s="9">
+        <v>694</v>
+      </c>
+      <c r="C1040" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D1040" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1041" s="8">
+        <v>1040</v>
+      </c>
+      <c r="B1041" s="9">
+        <v>694</v>
+      </c>
+      <c r="C1041" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D1041" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A1042" s="8">
+        <v>1041</v>
+      </c>
+      <c r="B1042" s="9">
+        <v>695</v>
+      </c>
+      <c r="C1042" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D1042" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1043" s="8">
+        <v>1042</v>
+      </c>
+      <c r="B1043" s="9">
+        <v>696</v>
+      </c>
+      <c r="C1043" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D1043" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1044" s="8">
+        <v>1043</v>
+      </c>
+      <c r="B1044" s="9">
+        <v>696</v>
+      </c>
+      <c r="C1044" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D1044" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1045" s="8">
+        <v>1044</v>
+      </c>
+      <c r="B1045" s="9">
+        <v>697</v>
+      </c>
+      <c r="C1045" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D1045" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1046" s="8">
+        <v>1045</v>
+      </c>
+      <c r="B1046" s="9">
+        <v>698</v>
+      </c>
+      <c r="C1046" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D1046" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1047" s="8">
+        <v>1046</v>
+      </c>
+      <c r="B1047" s="9">
+        <v>699</v>
+      </c>
+      <c r="C1047" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1047" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1048" s="8">
+        <v>1047</v>
+      </c>
+      <c r="B1048" s="9">
+        <v>699</v>
+      </c>
+      <c r="C1048" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D1048" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1049" s="8">
+        <v>1048</v>
+      </c>
+      <c r="B1049" s="9">
+        <v>699</v>
+      </c>
+      <c r="C1049" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1049" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1050" s="8">
+        <v>1049</v>
+      </c>
+      <c r="B1050" s="9">
+        <v>700</v>
+      </c>
+      <c r="C1050" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D1050" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1051" s="8">
+        <v>1050</v>
+      </c>
+      <c r="B1051" s="9">
+        <v>701</v>
+      </c>
+      <c r="C1051" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D1051" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1052" s="8">
+        <v>1051</v>
+      </c>
+      <c r="B1052" s="9">
+        <v>702</v>
+      </c>
+      <c r="C1052" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D1052" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1053" s="8">
+        <v>1052</v>
+      </c>
+      <c r="B1053" s="9">
+        <v>702</v>
+      </c>
+      <c r="C1053" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D1053" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1054" s="8">
+        <v>1053</v>
+      </c>
+      <c r="B1054" s="9">
+        <v>703</v>
+      </c>
+      <c r="C1054" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1054" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1055" s="8">
+        <v>1054</v>
+      </c>
+      <c r="B1055" s="9">
+        <v>704</v>
+      </c>
+      <c r="C1055" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1055" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1056" s="8">
+        <v>1055</v>
+      </c>
+      <c r="B1056" s="9">
+        <v>705</v>
+      </c>
+      <c r="C1056" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D1056" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1057" s="8">
+        <v>1056</v>
+      </c>
+      <c r="B1057" s="9">
+        <v>706</v>
+      </c>
+      <c r="C1057" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1057" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1058" s="8">
+        <v>1057</v>
+      </c>
+      <c r="B1058" s="9">
+        <v>706</v>
+      </c>
+      <c r="C1058" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D1058" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1059" s="8">
+        <v>1058</v>
+      </c>
+      <c r="B1059" s="9">
+        <v>707</v>
+      </c>
+      <c r="C1059" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1059" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1060" s="8">
+        <v>1059</v>
+      </c>
+      <c r="B1060" s="9">
+        <v>707</v>
+      </c>
+      <c r="C1060" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1060" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1061" s="8">
+        <v>1060</v>
+      </c>
+      <c r="B1061" s="9">
+        <v>707</v>
+      </c>
+      <c r="C1061" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1061" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1062" s="8">
+        <v>1061</v>
+      </c>
+      <c r="B1062" s="9">
+        <v>707</v>
+      </c>
+      <c r="C1062" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D1062" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1063" s="8">
+        <v>1062</v>
+      </c>
+      <c r="B1063" s="9">
+        <v>708</v>
+      </c>
+      <c r="C1063" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D1063" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1064" s="8">
+        <v>1063</v>
+      </c>
+      <c r="B1064" s="9">
+        <v>709</v>
+      </c>
+      <c r="C1064" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D1064" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1065" s="8">
+        <v>1064</v>
+      </c>
+      <c r="B1065" s="9">
+        <v>709</v>
+      </c>
+      <c r="C1065" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D1065" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1066" s="8">
+        <v>1065</v>
+      </c>
+      <c r="B1066" s="9">
+        <v>709</v>
+      </c>
+      <c r="C1066" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1066" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1067" s="8">
+        <v>1066</v>
+      </c>
+      <c r="B1067" s="9">
+        <v>710</v>
+      </c>
+      <c r="C1067" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1067" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1068" s="8">
+        <v>1067</v>
+      </c>
+      <c r="B1068" s="9">
+        <v>711</v>
+      </c>
+      <c r="C1068" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1068" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1069" s="8">
+        <v>1068</v>
+      </c>
+      <c r="B1069" s="9">
+        <v>711</v>
+      </c>
+      <c r="C1069" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1069" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1070" s="8">
+        <v>1069</v>
+      </c>
+      <c r="B1070" s="9">
+        <v>712</v>
+      </c>
+      <c r="C1070" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1070" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1071" s="8">
+        <v>1070</v>
+      </c>
+      <c r="B1071" s="9">
+        <v>712</v>
+      </c>
+      <c r="C1071" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1071" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1072" s="8">
+        <v>1071</v>
+      </c>
+      <c r="B1072" s="9">
+        <v>712</v>
+      </c>
+      <c r="C1072" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D1072" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1073" s="8">
+        <v>1072</v>
+      </c>
+      <c r="B1073" s="9">
+        <v>712</v>
+      </c>
+      <c r="C1073" s="13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D1073" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A1074" s="8">
+        <v>1073</v>
+      </c>
+      <c r="B1074" s="9">
+        <v>713</v>
+      </c>
+      <c r="C1074" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D1074" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A1075" s="8">
+        <v>1074</v>
+      </c>
+      <c r="B1075" s="9">
+        <v>714</v>
+      </c>
+      <c r="C1075" s="13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1075" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1076" s="8">
+        <v>1075</v>
+      </c>
+      <c r="B1076" s="9">
+        <v>714</v>
+      </c>
+      <c r="C1076" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1076" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1077" s="8">
+        <v>1076</v>
+      </c>
+      <c r="B1077" s="9">
+        <v>715</v>
+      </c>
+      <c r="C1077" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D1077" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1078" s="8">
+        <v>1077</v>
+      </c>
+      <c r="B1078" s="9">
+        <v>716</v>
+      </c>
+      <c r="C1078" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D1078" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1079" s="8">
+        <v>1078</v>
+      </c>
+      <c r="B1079" s="9">
+        <v>717</v>
+      </c>
+      <c r="C1079" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1079" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1080" s="8">
+        <v>1079</v>
+      </c>
+      <c r="B1080" s="9">
+        <v>718</v>
+      </c>
+      <c r="C1080" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D1080" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1081" s="8">
+        <v>1080</v>
+      </c>
+      <c r="B1081" s="9">
+        <v>718</v>
+      </c>
+      <c r="C1081" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1081" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1082" s="8">
+        <v>1081</v>
+      </c>
+      <c r="B1082" s="9">
+        <v>719</v>
+      </c>
+      <c r="C1082" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1082" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1083" s="8">
+        <v>1082</v>
+      </c>
+      <c r="B1083" s="9">
+        <v>720</v>
+      </c>
+      <c r="C1083" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1083" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1084" s="8">
+        <v>1083</v>
+      </c>
+      <c r="B1084" s="9">
+        <v>720</v>
+      </c>
+      <c r="C1084" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1084" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1085" s="8">
+        <v>1084</v>
+      </c>
+      <c r="B1085" s="9">
+        <v>721</v>
+      </c>
+      <c r="C1085" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D1085" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1086" s="8">
+        <v>1085</v>
+      </c>
+      <c r="B1086" s="9">
+        <v>721</v>
+      </c>
+      <c r="C1086" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D1086" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A1087" s="8">
+        <v>1086</v>
+      </c>
+      <c r="B1087" s="9">
+        <v>722</v>
+      </c>
+      <c r="C1087" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1087" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1088" s="8">
+        <v>1087</v>
+      </c>
+      <c r="B1088" s="9">
+        <v>722</v>
+      </c>
+      <c r="C1088" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1088" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1089" s="8">
+        <v>1088</v>
+      </c>
+      <c r="B1089" s="9">
+        <v>722</v>
+      </c>
+      <c r="C1089" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D1089" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1090" s="8">
+        <v>1089</v>
+      </c>
+      <c r="B1090" s="9">
+        <v>723</v>
+      </c>
+      <c r="C1090" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D1090" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1091" s="8">
+        <v>1090</v>
+      </c>
+      <c r="B1091" s="9">
+        <v>724</v>
+      </c>
+      <c r="C1091" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1091" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1092" s="8">
+        <v>1091</v>
+      </c>
+      <c r="B1092" s="9">
+        <v>725</v>
+      </c>
+      <c r="C1092" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1092" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1093" s="8">
+        <v>1092</v>
+      </c>
+      <c r="B1093" s="9">
+        <v>726</v>
+      </c>
+      <c r="C1093" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D1093" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1094" s="8">
+        <v>6807</v>
+      </c>
+      <c r="B1094" s="9">
+        <v>3825</v>
+      </c>
+      <c r="C1094" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D1094" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1095" s="8">
+        <v>6808</v>
+      </c>
+      <c r="B1095" s="9">
+        <v>3826</v>
+      </c>
+      <c r="C1095" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D1095" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A1096" s="8">
+        <v>6809</v>
+      </c>
+      <c r="B1096" s="9">
+        <v>3827</v>
+      </c>
+      <c r="C1096" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D1096" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A1097" s="8">
+        <v>6810</v>
+      </c>
+      <c r="B1097" s="9">
+        <v>3827</v>
+      </c>
+      <c r="C1097" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D1097" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A1098" s="8">
+        <v>6811</v>
+      </c>
+      <c r="B1098" s="9">
+        <v>3827</v>
+      </c>
+      <c r="C1098" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D1098" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A1099" s="8">
+        <v>6812</v>
+      </c>
+      <c r="B1099" s="9">
+        <v>3827</v>
+      </c>
+      <c r="C1099" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D1099" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1100" s="8">
+        <v>6813</v>
+      </c>
+      <c r="B1100" s="9">
+        <v>3827</v>
+      </c>
+      <c r="C1100" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D1100" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1101" s="8">
+        <v>6814</v>
+      </c>
+      <c r="B1101" s="9">
+        <v>3828</v>
+      </c>
+      <c r="C1101" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1101" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1102" s="8">
+        <v>6815</v>
+      </c>
+      <c r="B1102" s="9">
+        <v>3828</v>
+      </c>
+      <c r="C1102" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D1102" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1103" s="8">
+        <v>6816</v>
+      </c>
+      <c r="B1103" s="9">
+        <v>3829</v>
+      </c>
+      <c r="C1103" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D1103" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1104" s="8">
+        <v>6817</v>
+      </c>
+      <c r="B1104" s="9">
+        <v>3829</v>
+      </c>
+      <c r="C1104" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1104" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A1105" s="8">
+        <v>6818</v>
+      </c>
+      <c r="B1105" s="9">
+        <v>3829</v>
+      </c>
+      <c r="C1105" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D1105" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A1106" s="8">
+        <v>6819</v>
+      </c>
+      <c r="B1106" s="9">
+        <v>3830</v>
+      </c>
+      <c r="C1106" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D1106" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1107" s="8">
+        <v>6820</v>
+      </c>
+      <c r="B1107" s="9">
+        <v>3830</v>
+      </c>
+      <c r="C1107" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D1107" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1108" s="8">
+        <v>6821</v>
+      </c>
+      <c r="B1108" s="9">
+        <v>3831</v>
+      </c>
+      <c r="C1108" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D1108" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A1109" s="8">
+        <v>6822</v>
+      </c>
+      <c r="B1109" s="9">
+        <v>3831</v>
+      </c>
+      <c r="C1109" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D1109" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1110" s="8">
+        <v>6823</v>
+      </c>
+      <c r="B1110" s="9">
+        <v>3832</v>
+      </c>
+      <c r="C1110" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D1110" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1111" s="8">
+        <v>6824</v>
+      </c>
+      <c r="B1111" s="9">
+        <v>3832</v>
+      </c>
+      <c r="C1111" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D1111" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1112" s="8">
+        <v>6825</v>
+      </c>
+      <c r="B1112" s="9">
+        <v>3832</v>
+      </c>
+      <c r="C1112" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D1112" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1113" s="8">
+        <v>6826</v>
+      </c>
+      <c r="B1113" s="9">
+        <v>3832</v>
+      </c>
+      <c r="C1113" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1113" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1114" s="8">
+        <v>6827</v>
+      </c>
+      <c r="B1114" s="9">
+        <v>3832</v>
+      </c>
+      <c r="C1114" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D1114" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1115" s="8">
+        <v>6828</v>
+      </c>
+      <c r="B1115" s="9">
+        <v>3833</v>
+      </c>
+      <c r="C1115" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D1115" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A1116" s="8">
+        <v>6829</v>
+      </c>
+      <c r="B1116" s="9">
+        <v>3833</v>
+      </c>
+      <c r="C1116" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D1116" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1117" s="8">
+        <v>6830</v>
+      </c>
+      <c r="B1117" s="9">
+        <v>3834</v>
+      </c>
+      <c r="C1117" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D1117" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1118" s="8">
+        <v>6831</v>
+      </c>
+      <c r="B1118" s="9">
+        <v>3835</v>
+      </c>
+      <c r="C1118" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1118" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1119" s="8">
+        <v>6832</v>
+      </c>
+      <c r="B1119" s="9">
+        <v>3835</v>
+      </c>
+      <c r="C1119" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1119" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A1120" s="8">
+        <v>6833</v>
+      </c>
+      <c r="B1120" s="9">
+        <v>3836</v>
+      </c>
+      <c r="C1120" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1120" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1121" s="8">
+        <v>6834</v>
+      </c>
+      <c r="B1121" s="9">
+        <v>3837</v>
+      </c>
+      <c r="C1121" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D1121" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1122" s="8">
+        <v>6835</v>
+      </c>
+      <c r="B1122" s="9">
+        <v>3838</v>
+      </c>
+      <c r="C1122" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D1122" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A1123" s="8">
+        <v>6836</v>
+      </c>
+      <c r="B1123" s="9">
+        <v>3838</v>
+      </c>
+      <c r="C1123" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1123" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A1124" s="8">
+        <v>6837</v>
+      </c>
+      <c r="B1124" s="9">
+        <v>3839</v>
+      </c>
+      <c r="C1124" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D1124" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1125" s="8">
+        <v>6838</v>
+      </c>
+      <c r="B1125" s="9">
+        <v>3840</v>
+      </c>
+      <c r="C1125" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1125" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1126" s="8">
+        <v>6839</v>
+      </c>
+      <c r="B1126" s="9">
+        <v>3840</v>
+      </c>
+      <c r="C1126" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D1126" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1127" s="8">
+        <v>6840</v>
+      </c>
+      <c r="B1127" s="9">
+        <v>3840</v>
+      </c>
+      <c r="C1127" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1127" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A1128" s="8">
+        <v>6841</v>
+      </c>
+      <c r="B1128" s="9">
+        <v>3841</v>
+      </c>
+      <c r="C1128" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D1128" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" ht="362.25" x14ac:dyDescent="0.25">
+      <c r="A1129" s="8">
+        <v>6842</v>
+      </c>
+      <c r="B1129" s="9">
+        <v>3842</v>
+      </c>
+      <c r="C1129" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D1129" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1130" s="8">
+        <v>6843</v>
+      </c>
+      <c r="B1130" s="9">
+        <v>3843</v>
+      </c>
+      <c r="C1130" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D1130" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A1131" s="8">
+        <v>6844</v>
+      </c>
+      <c r="B1131" s="9">
+        <v>3844</v>
+      </c>
+      <c r="C1131" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D1131" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1132" s="8">
+        <v>6845</v>
+      </c>
+      <c r="B1132" s="9">
+        <v>3844</v>
+      </c>
+      <c r="C1132" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D1132" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1133" s="8">
+        <v>6846</v>
+      </c>
+      <c r="B1133" s="9">
+        <v>3844</v>
+      </c>
+      <c r="C1133" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1133" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1134" s="8">
+        <v>6847</v>
+      </c>
+      <c r="B1134" s="9">
+        <v>3844</v>
+      </c>
+      <c r="C1134" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D1134" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1135" s="8">
+        <v>6848</v>
+      </c>
+      <c r="B1135" s="9">
+        <v>3844</v>
+      </c>
+      <c r="C1135" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D1135" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1136" s="8">
+        <v>6849</v>
+      </c>
+      <c r="B1136" s="9">
+        <v>3844</v>
+      </c>
+      <c r="C1136" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1136" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1137" s="8">
+        <v>6850</v>
+      </c>
+      <c r="B1137" s="9">
+        <v>3844</v>
+      </c>
+      <c r="C1137" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D1137" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1138" s="8">
+        <v>6851</v>
+      </c>
+      <c r="B1138" s="9">
+        <v>3844</v>
+      </c>
+      <c r="C1138" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1138" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1139" s="8">
+        <v>6852</v>
+      </c>
+      <c r="B1139" s="9">
+        <v>3844</v>
+      </c>
+      <c r="C1139" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1139" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A1140" s="8">
+        <v>6853</v>
+      </c>
+      <c r="B1140" s="9">
+        <v>3845</v>
+      </c>
+      <c r="C1140" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D1140" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1141" s="8">
+        <v>6854</v>
+      </c>
+      <c r="B1141" s="9">
+        <v>3846</v>
+      </c>
+      <c r="C1141" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D1141" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1142" s="8">
+        <v>6855</v>
+      </c>
+      <c r="B1142" s="9">
+        <v>3846</v>
+      </c>
+      <c r="C1142" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1142" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1143" s="8">
+        <v>6856</v>
+      </c>
+      <c r="B1143" s="9">
+        <v>3846</v>
+      </c>
+      <c r="C1143" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1143" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1144" s="8">
+        <v>6857</v>
+      </c>
+      <c r="B1144" s="9">
+        <v>3847</v>
+      </c>
+      <c r="C1144" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1144" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1145" s="8">
+        <v>6858</v>
+      </c>
+      <c r="B1145" s="9">
+        <v>3848</v>
+      </c>
+      <c r="C1145" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1145" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1146" s="8">
+        <v>6859</v>
+      </c>
+      <c r="B1146" s="9">
+        <v>3848</v>
+      </c>
+      <c r="C1146" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D1146" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1147" s="8">
+        <v>6860</v>
+      </c>
+      <c r="B1147" s="9">
+        <v>3849</v>
+      </c>
+      <c r="C1147" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1147" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A1148" s="8">
+        <v>6861</v>
+      </c>
+      <c r="B1148" s="9">
+        <v>3850</v>
+      </c>
+      <c r="C1148" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D1148" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1149" s="8">
+        <v>6862</v>
+      </c>
+      <c r="B1149" s="9">
+        <v>3850</v>
+      </c>
+      <c r="C1149" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D1149" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A1150" s="8">
+        <v>6863</v>
+      </c>
+      <c r="B1150" s="9">
+        <v>3850</v>
+      </c>
+      <c r="C1150" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D1150" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1151" s="8">
+        <v>6864</v>
+      </c>
+      <c r="B1151" s="9">
+        <v>3850</v>
+      </c>
+      <c r="C1151" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D1151" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1152" s="8">
+        <v>6865</v>
+      </c>
+      <c r="B1152" s="9">
+        <v>3850</v>
+      </c>
+      <c r="C1152" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D1152" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A1153" s="8">
+        <v>6866</v>
+      </c>
+      <c r="B1153" s="9">
+        <v>3851</v>
+      </c>
+      <c r="C1153" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1153" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1154" s="8">
+        <v>6867</v>
+      </c>
+      <c r="B1154" s="9">
+        <v>3852</v>
+      </c>
+      <c r="C1154" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1154" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A1155" s="8">
+        <v>6868</v>
+      </c>
+      <c r="B1155" s="9">
+        <v>3853</v>
+      </c>
+      <c r="C1155" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D1155" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1156" s="8">
+        <v>6869</v>
+      </c>
+      <c r="B1156" s="9">
+        <v>3853</v>
+      </c>
+      <c r="C1156" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D1156" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1157" s="8">
+        <v>6870</v>
+      </c>
+      <c r="B1157" s="9">
+        <v>3853</v>
+      </c>
+      <c r="C1157" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D1157" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1158" s="8">
+        <v>6871</v>
+      </c>
+      <c r="B1158" s="9">
+        <v>3853</v>
+      </c>
+      <c r="C1158" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D1158" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1159" s="8">
+        <v>6872</v>
+      </c>
+      <c r="B1159" s="9">
+        <v>3853</v>
+      </c>
+      <c r="C1159" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D1159" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A1160" s="8">
+        <v>6873</v>
+      </c>
+      <c r="B1160" s="9">
+        <v>3853</v>
+      </c>
+      <c r="C1160" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D1160" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1161" s="8">
+        <v>6874</v>
+      </c>
+      <c r="B1161" s="9">
+        <v>3853</v>
+      </c>
+      <c r="C1161" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D1161" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1162" s="8">
+        <v>6875</v>
+      </c>
+      <c r="B1162" s="9">
+        <v>3853</v>
+      </c>
+      <c r="C1162" s="9" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1162" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1163" s="8">
+        <v>6876</v>
+      </c>
+      <c r="B1163" s="9">
+        <v>3853</v>
+      </c>
+      <c r="C1163" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D1163" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1164" s="8">
+        <v>6877</v>
+      </c>
+      <c r="B1164" s="9">
+        <v>3853</v>
+      </c>
+      <c r="C1164" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D1164" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A1165" s="8">
+        <v>6878</v>
+      </c>
+      <c r="B1165" s="9">
+        <v>3854</v>
+      </c>
+      <c r="C1165" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D1165" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1166" s="8">
+        <v>6879</v>
+      </c>
+      <c r="B1166" s="9">
+        <v>3854</v>
+      </c>
+      <c r="C1166" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D1166" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1167" s="8">
+        <v>6880</v>
+      </c>
+      <c r="B1167" s="9">
+        <v>3854</v>
+      </c>
+      <c r="C1167" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D1167" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1168" s="8">
+        <v>6881</v>
+      </c>
+      <c r="B1168" s="9">
+        <v>3854</v>
+      </c>
+      <c r="C1168" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D1168" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1169" s="8">
+        <v>6882</v>
+      </c>
+      <c r="B1169" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1169" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1169" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1170" s="8">
+        <v>6883</v>
+      </c>
+      <c r="B1170" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1170" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D1170" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1171" s="8">
+        <v>6884</v>
+      </c>
+      <c r="B1171" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1171" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D1171" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1172" s="8">
+        <v>6885</v>
+      </c>
+      <c r="B1172" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1172" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D1172" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1173" s="8">
+        <v>6886</v>
+      </c>
+      <c r="B1173" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1173" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D1173" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1174" s="8">
+        <v>6887</v>
+      </c>
+      <c r="B1174" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1174" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D1174" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" ht="346.5" x14ac:dyDescent="0.25">
+      <c r="A1175" s="8">
+        <v>6888</v>
+      </c>
+      <c r="B1175" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1175" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D1175" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1176" s="8">
+        <v>6889</v>
+      </c>
+      <c r="B1176" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1176" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D1176" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1177" s="8">
+        <v>6890</v>
+      </c>
+      <c r="B1177" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1177" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1177" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A1178" s="8">
+        <v>6891</v>
+      </c>
+      <c r="B1178" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1178" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D1178" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1179" s="8">
+        <v>6892</v>
+      </c>
+      <c r="B1179" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1179" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1179" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A1180" s="8">
+        <v>6893</v>
+      </c>
+      <c r="B1180" s="9">
+        <v>3855</v>
+      </c>
+      <c r="C1180" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D1180" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A1181" s="8">
+        <v>6894</v>
+      </c>
+      <c r="B1181" s="9">
+        <v>3856</v>
+      </c>
+      <c r="C1181" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1181" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A1182" s="8">
+        <v>6895</v>
+      </c>
+      <c r="B1182" s="9">
+        <v>3856</v>
+      </c>
+      <c r="C1182" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D1182" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1183" s="8">
+        <v>6896</v>
+      </c>
+      <c r="B1183" s="9">
+        <v>3856</v>
+      </c>
+      <c r="C1183" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D1183" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1184" s="8">
+        <v>6897</v>
+      </c>
+      <c r="B1184" s="9">
+        <v>3857</v>
+      </c>
+      <c r="C1184" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D1184" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1185" s="8">
+        <v>6898</v>
+      </c>
+      <c r="B1185" s="9">
+        <v>3858</v>
+      </c>
+      <c r="C1185" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D1185" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1186" s="8">
+        <v>6899</v>
+      </c>
+      <c r="B1186" s="9">
+        <v>3859</v>
+      </c>
+      <c r="C1186" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D1186" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A1187" s="8">
+        <v>6900</v>
+      </c>
+      <c r="B1187" s="9">
+        <v>3859</v>
+      </c>
+      <c r="C1187" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D1187" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1188" s="8">
+        <v>6901</v>
+      </c>
+      <c r="B1188" s="9">
+        <v>3859</v>
+      </c>
+      <c r="C1188" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D1188" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1189" s="8">
+        <v>6902</v>
+      </c>
+      <c r="B1189" s="9">
+        <v>3859</v>
+      </c>
+      <c r="C1189" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D1189" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1190" s="8">
+        <v>6903</v>
+      </c>
+      <c r="B1190" s="9">
+        <v>3859</v>
+      </c>
+      <c r="C1190" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D1190" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1191" s="8">
+        <v>6904</v>
+      </c>
+      <c r="B1191" s="9">
+        <v>3859</v>
+      </c>
+      <c r="C1191" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1191" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1192" s="8">
+        <v>6905</v>
+      </c>
+      <c r="B1192" s="9">
+        <v>3860</v>
+      </c>
+      <c r="C1192" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D1192" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1193" s="8">
+        <v>6906</v>
+      </c>
+      <c r="B1193" s="9">
+        <v>3860</v>
+      </c>
+      <c r="C1193" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D1193" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1194" s="8">
+        <v>6907</v>
+      </c>
+      <c r="B1194" s="9">
+        <v>3860</v>
+      </c>
+      <c r="C1194" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D1194" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1195" s="8">
+        <v>6908</v>
+      </c>
+      <c r="B1195" s="9">
+        <v>3860</v>
+      </c>
+      <c r="C1195" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1195" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1196" s="8">
+        <v>6909</v>
+      </c>
+      <c r="B1196" s="9">
+        <v>3861</v>
+      </c>
+      <c r="C1196" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D1196" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1197" s="8">
+        <v>6910</v>
+      </c>
+      <c r="B1197" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1197" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D1197" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1198" s="8">
+        <v>6911</v>
+      </c>
+      <c r="B1198" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1198" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D1198" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1199" s="8">
+        <v>6912</v>
+      </c>
+      <c r="B1199" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1199" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1199" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A1200" s="8">
+        <v>6913</v>
+      </c>
+      <c r="B1200" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1200" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D1200" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A1201" s="8">
+        <v>6914</v>
+      </c>
+      <c r="B1201" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1201" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D1201" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1202" s="8">
+        <v>6915</v>
+      </c>
+      <c r="B1202" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1202" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D1202" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1203" s="8">
+        <v>6916</v>
+      </c>
+      <c r="B1203" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1203" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D1203" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1204" s="8">
+        <v>6917</v>
+      </c>
+      <c r="B1204" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1204" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D1204" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1205" s="8">
+        <v>6918</v>
+      </c>
+      <c r="B1205" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1205" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D1205" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1206" s="8">
+        <v>6919</v>
+      </c>
+      <c r="B1206" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1206" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D1206" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1207" s="8">
+        <v>6920</v>
+      </c>
+      <c r="B1207" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1207" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D1207" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1208" s="8">
+        <v>6921</v>
+      </c>
+      <c r="B1208" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1208" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D1208" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1209" s="8">
+        <v>6922</v>
+      </c>
+      <c r="B1209" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1209" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1209" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1210" s="8">
+        <v>6923</v>
+      </c>
+      <c r="B1210" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1210" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D1210" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A1211" s="8">
+        <v>6924</v>
+      </c>
+      <c r="B1211" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1211" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D1211" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1212" s="8">
+        <v>6925</v>
+      </c>
+      <c r="B1212" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1212" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D1212" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1213" s="8">
+        <v>6926</v>
+      </c>
+      <c r="B1213" s="9">
+        <v>3862</v>
+      </c>
+      <c r="C1213" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D1213" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A1214" s="8">
+        <v>6927</v>
+      </c>
+      <c r="B1214" s="9">
+        <v>3863</v>
+      </c>
+      <c r="C1214" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D1214" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1215" s="8">
+        <v>6928</v>
+      </c>
+      <c r="B1215" s="9">
+        <v>3863</v>
+      </c>
+      <c r="C1215" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1215" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1216" s="8">
+        <v>6929</v>
+      </c>
+      <c r="B1216" s="9">
+        <v>3863</v>
+      </c>
+      <c r="C1216" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D1216" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1217" s="8">
+        <v>6930</v>
+      </c>
+      <c r="B1217" s="9">
+        <v>3863</v>
+      </c>
+      <c r="C1217" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1217" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1218" s="8">
+        <v>6931</v>
+      </c>
+      <c r="B1218" s="9">
+        <v>3864</v>
+      </c>
+      <c r="C1218" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D1218" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1219" s="8">
+        <v>6932</v>
+      </c>
+      <c r="B1219" s="9">
+        <v>3864</v>
+      </c>
+      <c r="C1219" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D1219" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1220" s="8">
+        <v>6933</v>
+      </c>
+      <c r="B1220" s="9">
+        <v>3864</v>
+      </c>
+      <c r="C1220" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D1220" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A1221" s="8">
+        <v>6934</v>
+      </c>
+      <c r="B1221" s="9">
+        <v>3865</v>
+      </c>
+      <c r="C1221" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D1221" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1222" s="8">
+        <v>6935</v>
+      </c>
+      <c r="B1222" s="9">
+        <v>3865</v>
+      </c>
+      <c r="C1222" s="9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D1222" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A1223" s="8">
+        <v>6936</v>
+      </c>
+      <c r="B1223" s="9">
+        <v>3865</v>
+      </c>
+      <c r="C1223" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D1223" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1224" s="8">
+        <v>6937</v>
+      </c>
+      <c r="B1224" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1224" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1224" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1225" s="8">
+        <v>6938</v>
+      </c>
+      <c r="B1225" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1225" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1225" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1226" s="8">
+        <v>6939</v>
+      </c>
+      <c r="B1226" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1226" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D1226" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1227" s="8">
+        <v>6940</v>
+      </c>
+      <c r="B1227" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1227" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D1227" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1228" s="8">
+        <v>6941</v>
+      </c>
+      <c r="B1228" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1228" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D1228" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1229" s="8">
+        <v>6942</v>
+      </c>
+      <c r="B1229" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1229" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D1229" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1230" s="8">
+        <v>6943</v>
+      </c>
+      <c r="B1230" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1230" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1230" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1231" s="8">
+        <v>6944</v>
+      </c>
+      <c r="B1231" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1231" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D1231" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A1232" s="8">
+        <v>6945</v>
+      </c>
+      <c r="B1232" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1232" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D1232" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A1233" s="8">
+        <v>6946</v>
+      </c>
+      <c r="B1233" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1233" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D1233" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1234" s="8">
+        <v>6947</v>
+      </c>
+      <c r="B1234" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1234" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D1234" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1235" s="8">
+        <v>6948</v>
+      </c>
+      <c r="B1235" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1235" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D1235" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1236" s="8">
+        <v>6949</v>
+      </c>
+      <c r="B1236" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1236" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D1236" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1237" s="8">
+        <v>6950</v>
+      </c>
+      <c r="B1237" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1237" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D1237" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1238" s="8">
+        <v>6951</v>
+      </c>
+      <c r="B1238" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1238" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D1238" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A1239" s="8">
+        <v>6952</v>
+      </c>
+      <c r="B1239" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1239" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D1239" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A1240" s="8">
+        <v>6953</v>
+      </c>
+      <c r="B1240" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1240" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D1240" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="A1241" s="8">
+        <v>6954</v>
+      </c>
+      <c r="B1241" s="9">
+        <v>3866</v>
+      </c>
+      <c r="C1241" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1241" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1242" s="8">
+        <v>6955</v>
+      </c>
+      <c r="B1242" s="9">
+        <v>3867</v>
+      </c>
+      <c r="C1242" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D1242" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1243" s="8">
+        <v>6956</v>
+      </c>
+      <c r="B1243" s="9">
+        <v>3867</v>
+      </c>
+      <c r="C1243" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D1243" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1244" s="8">
+        <v>6957</v>
+      </c>
+      <c r="B1244" s="9">
+        <v>3867</v>
+      </c>
+      <c r="C1244" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1244" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1245" s="8">
+        <v>6958</v>
+      </c>
+      <c r="B1245" s="9">
+        <v>3867</v>
+      </c>
+      <c r="C1245" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D1245" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1246" s="8">
+        <v>6959</v>
+      </c>
+      <c r="B1246" s="9">
+        <v>3867</v>
+      </c>
+      <c r="C1246" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D1246" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1247" s="8">
+        <v>6960</v>
+      </c>
+      <c r="B1247" s="9">
+        <v>3867</v>
+      </c>
+      <c r="C1247" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1247" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1248" s="8">
+        <v>6961</v>
+      </c>
+      <c r="B1248" s="9">
+        <v>3868</v>
+      </c>
+      <c r="C1248" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D1248" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A1249" s="8">
+        <v>6962</v>
+      </c>
+      <c r="B1249" s="9">
+        <v>3868</v>
+      </c>
+      <c r="C1249" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1249" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1250" s="8">
+        <v>6963</v>
+      </c>
+      <c r="B1250" s="9">
+        <v>3868</v>
+      </c>
+      <c r="C1250" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D1250" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1251" s="8">
+        <v>6964</v>
+      </c>
+      <c r="B1251" s="9">
+        <v>3869</v>
+      </c>
+      <c r="C1251" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D1251" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A1252" s="8">
+        <v>6965</v>
+      </c>
+      <c r="B1252" s="9">
+        <v>3869</v>
+      </c>
+      <c r="C1252" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D1252" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1253" s="8">
+        <v>6966</v>
+      </c>
+      <c r="B1253" s="9">
+        <v>3871</v>
+      </c>
+      <c r="C1253" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D1253" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A1254" s="8">
+        <v>6967</v>
+      </c>
+      <c r="B1254" s="9">
+        <v>3872</v>
+      </c>
+      <c r="C1254" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D1254" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1255" s="8">
+        <v>6968</v>
+      </c>
+      <c r="B1255" s="9">
+        <v>3873</v>
+      </c>
+      <c r="C1255" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D1255" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A1256" s="8">
+        <v>6969</v>
+      </c>
+      <c r="B1256" s="9">
+        <v>3873</v>
+      </c>
+      <c r="C1256" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D1256" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A1257" s="8">
+        <v>6970</v>
+      </c>
+      <c r="B1257" s="9">
+        <v>3874</v>
+      </c>
+      <c r="C1257" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D1257" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A1258" s="8">
+        <v>6971</v>
+      </c>
+      <c r="B1258" s="9">
+        <v>3875</v>
+      </c>
+      <c r="C1258" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D1258" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1259" s="8">
+        <v>6972</v>
+      </c>
+      <c r="B1259" s="9">
+        <v>3875</v>
+      </c>
+      <c r="C1259" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D1259" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1260" s="8">
+        <v>6973</v>
+      </c>
+      <c r="B1260" s="9">
+        <v>3875</v>
+      </c>
+      <c r="C1260" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D1260" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1261" s="8">
+        <v>6974</v>
+      </c>
+      <c r="B1261" s="9">
+        <v>3876</v>
+      </c>
+      <c r="C1261" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1261" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A1262" s="8">
+        <v>6975</v>
+      </c>
+      <c r="B1262" s="9">
+        <v>3876</v>
+      </c>
+      <c r="C1262" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1262" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1263" s="8">
+        <v>6976</v>
+      </c>
+      <c r="B1263" s="9">
+        <v>3877</v>
+      </c>
+      <c r="C1263" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D1263" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1264" s="8">
+        <v>6977</v>
+      </c>
+      <c r="B1264" s="9">
+        <v>3877</v>
+      </c>
+      <c r="C1264" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D1264" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A1265" s="8">
+        <v>6978</v>
+      </c>
+      <c r="B1265" s="9">
+        <v>3877</v>
+      </c>
+      <c r="C1265" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D1265" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1266" s="8">
+        <v>6979</v>
+      </c>
+      <c r="B1266" s="9">
+        <v>3878</v>
+      </c>
+      <c r="C1266" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D1266" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1267" s="8">
+        <v>6980</v>
+      </c>
+      <c r="B1267" s="9">
+        <v>3879</v>
+      </c>
+      <c r="C1267" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1267" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1268" s="8">
+        <v>6981</v>
+      </c>
+      <c r="B1268" s="9">
+        <v>3880</v>
+      </c>
+      <c r="C1268" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1268" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1269" s="8">
+        <v>6982</v>
+      </c>
+      <c r="B1269" s="9">
+        <v>3881</v>
+      </c>
+      <c r="C1269" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D1269" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1270" s="8">
+        <v>6983</v>
+      </c>
+      <c r="B1270" s="9">
+        <v>3881</v>
+      </c>
+      <c r="C1270" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D1270" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1271" s="8">
+        <v>6984</v>
+      </c>
+      <c r="B1271" s="9">
+        <v>3881</v>
+      </c>
+      <c r="C1271" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D1271" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1272" s="8">
+        <v>6985</v>
+      </c>
+      <c r="B1272" s="9">
+        <v>3881</v>
+      </c>
+      <c r="C1272" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D1272" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A1273" s="8">
+        <v>6986</v>
+      </c>
+      <c r="B1273" s="9">
+        <v>3881</v>
+      </c>
+      <c r="C1273" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D1273" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1274" s="8">
+        <v>6987</v>
+      </c>
+      <c r="B1274" s="9">
+        <v>3882</v>
+      </c>
+      <c r="C1274" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1274" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A1275" s="8">
+        <v>6988</v>
+      </c>
+      <c r="B1275" s="9">
+        <v>3882</v>
+      </c>
+      <c r="C1275" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D1275" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1276" s="8">
+        <v>6989</v>
+      </c>
+      <c r="B1276" s="9">
+        <v>3883</v>
+      </c>
+      <c r="C1276" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D1276" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A1277" s="8">
+        <v>6990</v>
+      </c>
+      <c r="B1277" s="9">
+        <v>3883</v>
+      </c>
+      <c r="C1277" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D1277" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1278" s="8">
+        <v>6991</v>
+      </c>
+      <c r="B1278" s="9">
+        <v>3883</v>
+      </c>
+      <c r="C1278" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D1278" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1279" s="8">
+        <v>6992</v>
+      </c>
+      <c r="B1279" s="9">
+        <v>3883</v>
+      </c>
+      <c r="C1279" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D1279" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1280" s="8">
+        <v>6993</v>
+      </c>
+      <c r="B1280" s="9">
+        <v>3883</v>
+      </c>
+      <c r="C1280" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D1280" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1281" s="8">
+        <v>6994</v>
+      </c>
+      <c r="B1281" s="9">
+        <v>3883</v>
+      </c>
+      <c r="C1281" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D1281" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1282" s="8">
+        <v>6995</v>
+      </c>
+      <c r="B1282" s="9">
+        <v>3884</v>
+      </c>
+      <c r="C1282" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D1282" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1283" s="8">
+        <v>6996</v>
+      </c>
+      <c r="B1283" s="9">
+        <v>3885</v>
+      </c>
+      <c r="C1283" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D1283" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1284" s="8">
+        <v>6997</v>
+      </c>
+      <c r="B1284" s="9">
+        <v>3885</v>
+      </c>
+      <c r="C1284" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D1284" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1285" s="8">
+        <v>6998</v>
+      </c>
+      <c r="B1285" s="9">
+        <v>3886</v>
+      </c>
+      <c r="C1285" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1285" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1286" s="8">
+        <v>6999</v>
+      </c>
+      <c r="B1286" s="9">
+        <v>3886</v>
+      </c>
+      <c r="C1286" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D1286" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A1287" s="8">
+        <v>7000</v>
+      </c>
+      <c r="B1287" s="9">
+        <v>3887</v>
+      </c>
+      <c r="C1287" s="9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D1287" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1288" s="8">
+        <v>7001</v>
+      </c>
+      <c r="B1288" s="9">
+        <v>3887</v>
+      </c>
+      <c r="C1288" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D1288" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1289" s="8">
+        <v>7002</v>
+      </c>
+      <c r="B1289" s="9">
+        <v>3887</v>
+      </c>
+      <c r="C1289" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D1289" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1290" s="8">
+        <v>7003</v>
+      </c>
+      <c r="B1290" s="9">
+        <v>3887</v>
+      </c>
+      <c r="C1290" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D1290" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1291" s="8">
+        <v>7004</v>
+      </c>
+      <c r="B1291" s="9">
+        <v>3887</v>
+      </c>
+      <c r="C1291" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D1291" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1292" s="8">
+        <v>7005</v>
+      </c>
+      <c r="B1292" s="9">
+        <v>3888</v>
+      </c>
+      <c r="C1292" s="9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D1292" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1293" s="8">
+        <v>7006</v>
+      </c>
+      <c r="B1293" s="9">
+        <v>3888</v>
+      </c>
+      <c r="C1293" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1293" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1294" s="8">
+        <v>7007</v>
+      </c>
+      <c r="B1294" s="9">
+        <v>3888</v>
+      </c>
+      <c r="C1294" s="9" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D1294" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1295" s="8">
+        <v>7008</v>
+      </c>
+      <c r="B1295" s="9">
+        <v>3889</v>
+      </c>
+      <c r="C1295" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D1295" s="14">
         <v>1</v>
       </c>
     </row>

--- a/hadits_fix.xlsx
+++ b/hadits_fix.xlsx
@@ -4313,7 +4313,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4769,7 +4769,7 @@
         <v>34</v>
       </c>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
